--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,45 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>England Championship</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Blackburn Rovers</t>
+  </si>
+  <si>
+    <t>Preston North End</t>
+  </si>
+  <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>['19', '72', '76', '84']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['67', '88']</t>
+  </si>
+  <si>
+    <t>['12', '55']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +309,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +821,418 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7478745</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45513.66666666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2">
+        <v>2.88</v>
+      </c>
+      <c r="R2">
+        <v>2.2</v>
+      </c>
+      <c r="S2">
+        <v>3.6</v>
+      </c>
+      <c r="T2">
+        <v>1.36</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>2.75</v>
+      </c>
+      <c r="W2">
+        <v>1.4</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <v>1.08</v>
+      </c>
+      <c r="Z2">
+        <v>2.21</v>
+      </c>
+      <c r="AA2">
+        <v>3.51</v>
+      </c>
+      <c r="AB2">
+        <v>3.1</v>
+      </c>
+      <c r="AC2">
+        <v>1.05</v>
+      </c>
+      <c r="AD2">
+        <v>12</v>
+      </c>
+      <c r="AE2">
+        <v>1.3</v>
+      </c>
+      <c r="AF2">
+        <v>3.6</v>
+      </c>
+      <c r="AG2">
+        <v>1.75</v>
+      </c>
+      <c r="AH2">
+        <v>1.95</v>
+      </c>
+      <c r="AI2">
+        <v>1.73</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>1.38</v>
+      </c>
+      <c r="AL2">
+        <v>1.28</v>
+      </c>
+      <c r="AM2">
+        <v>1.65</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>8</v>
+      </c>
+      <c r="AV2">
+        <v>5</v>
+      </c>
+      <c r="AW2">
+        <v>4</v>
+      </c>
+      <c r="AX2">
+        <v>6</v>
+      </c>
+      <c r="AY2">
+        <v>12</v>
+      </c>
+      <c r="AZ2">
+        <v>11</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>9</v>
+      </c>
+      <c r="BC2">
+        <v>10</v>
+      </c>
+      <c r="BD2">
+        <v>1.65</v>
+      </c>
+      <c r="BE2">
+        <v>6.75</v>
+      </c>
+      <c r="BF2">
+        <v>2.48</v>
+      </c>
+      <c r="BG2">
+        <v>1.17</v>
+      </c>
+      <c r="BH2">
+        <v>4.3</v>
+      </c>
+      <c r="BI2">
+        <v>1.3</v>
+      </c>
+      <c r="BJ2">
+        <v>3.1</v>
+      </c>
+      <c r="BK2">
+        <v>1.5</v>
+      </c>
+      <c r="BL2">
+        <v>2.35</v>
+      </c>
+      <c r="BM2">
+        <v>1.8</v>
+      </c>
+      <c r="BN2">
+        <v>1.89</v>
+      </c>
+      <c r="BO2">
+        <v>2.2</v>
+      </c>
+      <c r="BP2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7478746</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45513.66666666666</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3">
+        <v>3.5</v>
+      </c>
+      <c r="R3">
+        <v>2.2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>1.4</v>
+      </c>
+      <c r="U3">
+        <v>2.75</v>
+      </c>
+      <c r="V3">
+        <v>2.75</v>
+      </c>
+      <c r="W3">
+        <v>1.4</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <v>1.08</v>
+      </c>
+      <c r="Z3">
+        <v>2.88</v>
+      </c>
+      <c r="AA3">
+        <v>3.4</v>
+      </c>
+      <c r="AB3">
+        <v>2.35</v>
+      </c>
+      <c r="AC3">
+        <v>1.05</v>
+      </c>
+      <c r="AD3">
+        <v>11</v>
+      </c>
+      <c r="AE3">
+        <v>1.3</v>
+      </c>
+      <c r="AF3">
+        <v>3.6</v>
+      </c>
+      <c r="AG3">
+        <v>1.9</v>
+      </c>
+      <c r="AH3">
+        <v>1.9</v>
+      </c>
+      <c r="AI3">
+        <v>1.73</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>1.6</v>
+      </c>
+      <c r="AL3">
+        <v>1.28</v>
+      </c>
+      <c r="AM3">
+        <v>1.4</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>2</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
+      <c r="BB3">
+        <v>6</v>
+      </c>
+      <c r="BC3">
+        <v>9</v>
+      </c>
+      <c r="BD3">
+        <v>2.32</v>
+      </c>
+      <c r="BE3">
+        <v>7</v>
+      </c>
+      <c r="BF3">
+        <v>1.72</v>
+      </c>
+      <c r="BG3">
+        <v>1.17</v>
+      </c>
+      <c r="BH3">
+        <v>4.35</v>
+      </c>
+      <c r="BI3">
+        <v>1.3</v>
+      </c>
+      <c r="BJ3">
+        <v>3.15</v>
+      </c>
+      <c r="BK3">
+        <v>1.5</v>
+      </c>
+      <c r="BL3">
+        <v>2.4</v>
+      </c>
+      <c r="BM3">
+        <v>1.79</v>
+      </c>
+      <c r="BN3">
+        <v>1.9</v>
+      </c>
+      <c r="BO3">
+        <v>2.2</v>
+      </c>
+      <c r="BP3">
+        <v>1.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,22 +232,106 @@
     <t>Preston North End</t>
   </si>
   <si>
+    <t>Queens Park Rangers</t>
+  </si>
+  <si>
+    <t>Oxford United</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
     <t>Derby County</t>
   </si>
   <si>
     <t>Sheffield United</t>
   </si>
   <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
+  </si>
+  <si>
     <t>['19', '72', '76', '84']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['28', '58']</t>
+  </si>
+  <si>
+    <t>['74', '88']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['10', '46', '90+5']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
     <t>['12', '55']</t>
+  </si>
+  <si>
+    <t>['26', '51', '65']</t>
+  </si>
+  <si>
+    <t>['22', '55', '90']</t>
+  </si>
+  <si>
+    <t>['23', '41', '90+2']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['18', '89']</t>
   </si>
 </sst>
 </file>
@@ -609,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP3"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,7 +928,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -865,10 +949,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1050,7 +1134,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1071,10 +1155,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1231,6 +1315,1654 @@
       </c>
       <c r="BP3">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7478753</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45514.35416666666</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4">
+        <v>3.25</v>
+      </c>
+      <c r="R4">
+        <v>2.05</v>
+      </c>
+      <c r="S4">
+        <v>3.4</v>
+      </c>
+      <c r="T4">
+        <v>1.44</v>
+      </c>
+      <c r="U4">
+        <v>2.63</v>
+      </c>
+      <c r="V4">
+        <v>3.25</v>
+      </c>
+      <c r="W4">
+        <v>1.33</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
+        <v>1.07</v>
+      </c>
+      <c r="Z4">
+        <v>2.6</v>
+      </c>
+      <c r="AA4">
+        <v>3.28</v>
+      </c>
+      <c r="AB4">
+        <v>2.6</v>
+      </c>
+      <c r="AC4">
+        <v>1.04</v>
+      </c>
+      <c r="AD4">
+        <v>7.8</v>
+      </c>
+      <c r="AE4">
+        <v>1.32</v>
+      </c>
+      <c r="AF4">
+        <v>3.1</v>
+      </c>
+      <c r="AG4">
+        <v>2.2</v>
+      </c>
+      <c r="AH4">
+        <v>1.6</v>
+      </c>
+      <c r="AI4">
+        <v>1.83</v>
+      </c>
+      <c r="AJ4">
+        <v>1.83</v>
+      </c>
+      <c r="AK4">
+        <v>1.47</v>
+      </c>
+      <c r="AL4">
+        <v>1.3</v>
+      </c>
+      <c r="AM4">
+        <v>1.53</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>7</v>
+      </c>
+      <c r="AV4">
+        <v>5</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>9</v>
+      </c>
+      <c r="AZ4">
+        <v>6</v>
+      </c>
+      <c r="BA4">
+        <v>12</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4">
+        <v>15</v>
+      </c>
+      <c r="BD4">
+        <v>1.95</v>
+      </c>
+      <c r="BE4">
+        <v>6.75</v>
+      </c>
+      <c r="BF4">
+        <v>2</v>
+      </c>
+      <c r="BG4">
+        <v>1.16</v>
+      </c>
+      <c r="BH4">
+        <v>4.3</v>
+      </c>
+      <c r="BI4">
+        <v>1.32</v>
+      </c>
+      <c r="BJ4">
+        <v>3.05</v>
+      </c>
+      <c r="BK4">
+        <v>1.53</v>
+      </c>
+      <c r="BL4">
+        <v>2.32</v>
+      </c>
+      <c r="BM4">
+        <v>1.83</v>
+      </c>
+      <c r="BN4">
+        <v>1.85</v>
+      </c>
+      <c r="BO4">
+        <v>2.25</v>
+      </c>
+      <c r="BP4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7478752</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45514.35416666666</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5">
+        <v>3.6</v>
+      </c>
+      <c r="R5">
+        <v>2.2</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>1.36</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>2.75</v>
+      </c>
+      <c r="W5">
+        <v>1.4</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <v>1.08</v>
+      </c>
+      <c r="Z5">
+        <v>1.29</v>
+      </c>
+      <c r="AA5">
+        <v>6.6</v>
+      </c>
+      <c r="AB5">
+        <v>5.45</v>
+      </c>
+      <c r="AC5">
+        <v>1.05</v>
+      </c>
+      <c r="AD5">
+        <v>12</v>
+      </c>
+      <c r="AE5">
+        <v>1.3</v>
+      </c>
+      <c r="AF5">
+        <v>3.6</v>
+      </c>
+      <c r="AG5">
+        <v>1.8</v>
+      </c>
+      <c r="AH5">
+        <v>1.91</v>
+      </c>
+      <c r="AI5">
+        <v>1.73</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>1.65</v>
+      </c>
+      <c r="AL5">
+        <v>1.26</v>
+      </c>
+      <c r="AM5">
+        <v>1.4</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>5</v>
+      </c>
+      <c r="AV5">
+        <v>3</v>
+      </c>
+      <c r="AW5">
+        <v>5</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AY5">
+        <v>10</v>
+      </c>
+      <c r="AZ5">
+        <v>7</v>
+      </c>
+      <c r="BA5">
+        <v>5</v>
+      </c>
+      <c r="BB5">
+        <v>5</v>
+      </c>
+      <c r="BC5">
+        <v>10</v>
+      </c>
+      <c r="BD5">
+        <v>2.08</v>
+      </c>
+      <c r="BE5">
+        <v>6.5</v>
+      </c>
+      <c r="BF5">
+        <v>1.9</v>
+      </c>
+      <c r="BG5">
+        <v>1.24</v>
+      </c>
+      <c r="BH5">
+        <v>3.55</v>
+      </c>
+      <c r="BI5">
+        <v>1.41</v>
+      </c>
+      <c r="BJ5">
+        <v>2.63</v>
+      </c>
+      <c r="BK5">
+        <v>1.68</v>
+      </c>
+      <c r="BL5">
+        <v>2.04</v>
+      </c>
+      <c r="BM5">
+        <v>2.08</v>
+      </c>
+      <c r="BN5">
+        <v>1.65</v>
+      </c>
+      <c r="BO5">
+        <v>2.65</v>
+      </c>
+      <c r="BP5">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7478751</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45514.35416666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6">
+        <v>3.1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>1.5</v>
+      </c>
+      <c r="U6">
+        <v>2.5</v>
+      </c>
+      <c r="V6">
+        <v>3.4</v>
+      </c>
+      <c r="W6">
+        <v>1.3</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>1.06</v>
+      </c>
+      <c r="Z6">
+        <v>1.99</v>
+      </c>
+      <c r="AA6">
+        <v>5.47</v>
+      </c>
+      <c r="AB6">
+        <v>2.36</v>
+      </c>
+      <c r="AC6">
+        <v>1.08</v>
+      </c>
+      <c r="AD6">
+        <v>8.5</v>
+      </c>
+      <c r="AE6">
+        <v>1.44</v>
+      </c>
+      <c r="AF6">
+        <v>2.8</v>
+      </c>
+      <c r="AG6">
+        <v>2.25</v>
+      </c>
+      <c r="AH6">
+        <v>1.57</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <v>1.73</v>
+      </c>
+      <c r="AK6">
+        <v>1.35</v>
+      </c>
+      <c r="AL6">
+        <v>1.35</v>
+      </c>
+      <c r="AM6">
+        <v>1.61</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>5</v>
+      </c>
+      <c r="AV6">
+        <v>5</v>
+      </c>
+      <c r="AW6">
+        <v>7</v>
+      </c>
+      <c r="AX6">
+        <v>3</v>
+      </c>
+      <c r="AY6">
+        <v>12</v>
+      </c>
+      <c r="AZ6">
+        <v>8</v>
+      </c>
+      <c r="BA6">
+        <v>5</v>
+      </c>
+      <c r="BB6">
+        <v>5</v>
+      </c>
+      <c r="BC6">
+        <v>10</v>
+      </c>
+      <c r="BD6">
+        <v>1.74</v>
+      </c>
+      <c r="BE6">
+        <v>6.75</v>
+      </c>
+      <c r="BF6">
+        <v>2.3</v>
+      </c>
+      <c r="BG6">
+        <v>1.27</v>
+      </c>
+      <c r="BH6">
+        <v>3.3</v>
+      </c>
+      <c r="BI6">
+        <v>1.48</v>
+      </c>
+      <c r="BJ6">
+        <v>2.45</v>
+      </c>
+      <c r="BK6">
+        <v>1.76</v>
+      </c>
+      <c r="BL6">
+        <v>1.93</v>
+      </c>
+      <c r="BM6">
+        <v>2.18</v>
+      </c>
+      <c r="BN6">
+        <v>1.58</v>
+      </c>
+      <c r="BO6">
+        <v>2.8</v>
+      </c>
+      <c r="BP6">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7478754</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45514.35416666666</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7">
+        <v>2.88</v>
+      </c>
+      <c r="R7">
+        <v>2.2</v>
+      </c>
+      <c r="S7">
+        <v>3.5</v>
+      </c>
+      <c r="T7">
+        <v>1.36</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>2.63</v>
+      </c>
+      <c r="W7">
+        <v>1.44</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>1.1</v>
+      </c>
+      <c r="Z7">
+        <v>2.2</v>
+      </c>
+      <c r="AA7">
+        <v>3.7</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>1.01</v>
+      </c>
+      <c r="AD7">
+        <v>10.25</v>
+      </c>
+      <c r="AE7">
+        <v>1.22</v>
+      </c>
+      <c r="AF7">
+        <v>3.66</v>
+      </c>
+      <c r="AG7">
+        <v>1.8</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>1.67</v>
+      </c>
+      <c r="AJ7">
+        <v>2.1</v>
+      </c>
+      <c r="AK7">
+        <v>1.28</v>
+      </c>
+      <c r="AL7">
+        <v>1.3</v>
+      </c>
+      <c r="AM7">
+        <v>1.62</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>3</v>
+      </c>
+      <c r="AV7">
+        <v>2</v>
+      </c>
+      <c r="AW7">
+        <v>4</v>
+      </c>
+      <c r="AX7">
+        <v>4</v>
+      </c>
+      <c r="AY7">
+        <v>7</v>
+      </c>
+      <c r="AZ7">
+        <v>6</v>
+      </c>
+      <c r="BA7">
+        <v>9</v>
+      </c>
+      <c r="BB7">
+        <v>7</v>
+      </c>
+      <c r="BC7">
+        <v>16</v>
+      </c>
+      <c r="BD7">
+        <v>1.77</v>
+      </c>
+      <c r="BE7">
+        <v>6.75</v>
+      </c>
+      <c r="BF7">
+        <v>2.23</v>
+      </c>
+      <c r="BG7">
+        <v>1.14</v>
+      </c>
+      <c r="BH7">
+        <v>4.6</v>
+      </c>
+      <c r="BI7">
+        <v>1.28</v>
+      </c>
+      <c r="BJ7">
+        <v>3.3</v>
+      </c>
+      <c r="BK7">
+        <v>1.47</v>
+      </c>
+      <c r="BL7">
+        <v>2.48</v>
+      </c>
+      <c r="BM7">
+        <v>1.73</v>
+      </c>
+      <c r="BN7">
+        <v>1.96</v>
+      </c>
+      <c r="BO7">
+        <v>2.12</v>
+      </c>
+      <c r="BP7">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7478749</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45514.35416666666</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8">
+        <v>1.83</v>
+      </c>
+      <c r="R8">
+        <v>2.6</v>
+      </c>
+      <c r="S8">
+        <v>6.5</v>
+      </c>
+      <c r="T8">
+        <v>1.29</v>
+      </c>
+      <c r="U8">
+        <v>3.5</v>
+      </c>
+      <c r="V8">
+        <v>2.25</v>
+      </c>
+      <c r="W8">
+        <v>1.57</v>
+      </c>
+      <c r="X8">
+        <v>5.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.14</v>
+      </c>
+      <c r="Z8">
+        <v>1.28</v>
+      </c>
+      <c r="AA8">
+        <v>7.83</v>
+      </c>
+      <c r="AB8">
+        <v>4.98</v>
+      </c>
+      <c r="AC8">
+        <v>1.02</v>
+      </c>
+      <c r="AD8">
+        <v>19</v>
+      </c>
+      <c r="AE8">
+        <v>1.18</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <v>1.57</v>
+      </c>
+      <c r="AH8">
+        <v>2.25</v>
+      </c>
+      <c r="AI8">
+        <v>1.83</v>
+      </c>
+      <c r="AJ8">
+        <v>1.83</v>
+      </c>
+      <c r="AK8">
+        <v>1.07</v>
+      </c>
+      <c r="AL8">
+        <v>1.13</v>
+      </c>
+      <c r="AM8">
+        <v>3.1</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>11</v>
+      </c>
+      <c r="AV8">
+        <v>5</v>
+      </c>
+      <c r="AW8">
+        <v>6</v>
+      </c>
+      <c r="AX8">
+        <v>2</v>
+      </c>
+      <c r="AY8">
+        <v>17</v>
+      </c>
+      <c r="AZ8">
+        <v>7</v>
+      </c>
+      <c r="BA8">
+        <v>12</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>12</v>
+      </c>
+      <c r="BD8">
+        <v>1.32</v>
+      </c>
+      <c r="BE8">
+        <v>7</v>
+      </c>
+      <c r="BF8">
+        <v>3.65</v>
+      </c>
+      <c r="BG8">
+        <v>1.3</v>
+      </c>
+      <c r="BH8">
+        <v>3.05</v>
+      </c>
+      <c r="BI8">
+        <v>1.53</v>
+      </c>
+      <c r="BJ8">
+        <v>2.32</v>
+      </c>
+      <c r="BK8">
+        <v>1.86</v>
+      </c>
+      <c r="BL8">
+        <v>1.82</v>
+      </c>
+      <c r="BM8">
+        <v>2.33</v>
+      </c>
+      <c r="BN8">
+        <v>1.52</v>
+      </c>
+      <c r="BO8">
+        <v>3.05</v>
+      </c>
+      <c r="BP8">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7478748</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45514.35416666666</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9">
+        <v>2.88</v>
+      </c>
+      <c r="R9">
+        <v>2.1</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>1.44</v>
+      </c>
+      <c r="U9">
+        <v>2.63</v>
+      </c>
+      <c r="V9">
+        <v>3.25</v>
+      </c>
+      <c r="W9">
+        <v>1.33</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>1.07</v>
+      </c>
+      <c r="Z9">
+        <v>1.72</v>
+      </c>
+      <c r="AA9">
+        <v>3.27</v>
+      </c>
+      <c r="AB9">
+        <v>4.52</v>
+      </c>
+      <c r="AC9">
+        <v>1.07</v>
+      </c>
+      <c r="AD9">
+        <v>10</v>
+      </c>
+      <c r="AE9">
+        <v>1.36</v>
+      </c>
+      <c r="AF9">
+        <v>3.2</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>1.73</v>
+      </c>
+      <c r="AI9">
+        <v>1.83</v>
+      </c>
+      <c r="AJ9">
+        <v>1.83</v>
+      </c>
+      <c r="AK9">
+        <v>1.32</v>
+      </c>
+      <c r="AL9">
+        <v>1.27</v>
+      </c>
+      <c r="AM9">
+        <v>1.6</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>6</v>
+      </c>
+      <c r="AV9">
+        <v>4</v>
+      </c>
+      <c r="AW9">
+        <v>3</v>
+      </c>
+      <c r="AX9">
+        <v>8</v>
+      </c>
+      <c r="AY9">
+        <v>9</v>
+      </c>
+      <c r="AZ9">
+        <v>12</v>
+      </c>
+      <c r="BA9">
+        <v>2</v>
+      </c>
+      <c r="BB9">
+        <v>8</v>
+      </c>
+      <c r="BC9">
+        <v>10</v>
+      </c>
+      <c r="BD9">
+        <v>1.79</v>
+      </c>
+      <c r="BE9">
+        <v>6.75</v>
+      </c>
+      <c r="BF9">
+        <v>2.2</v>
+      </c>
+      <c r="BG9">
+        <v>1.26</v>
+      </c>
+      <c r="BH9">
+        <v>3.4</v>
+      </c>
+      <c r="BI9">
+        <v>1.47</v>
+      </c>
+      <c r="BJ9">
+        <v>2.48</v>
+      </c>
+      <c r="BK9">
+        <v>1.76</v>
+      </c>
+      <c r="BL9">
+        <v>1.94</v>
+      </c>
+      <c r="BM9">
+        <v>2.18</v>
+      </c>
+      <c r="BN9">
+        <v>1.58</v>
+      </c>
+      <c r="BO9">
+        <v>2.8</v>
+      </c>
+      <c r="BP9">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7478747</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45514.35416666666</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10">
+        <v>3.6</v>
+      </c>
+      <c r="R10">
+        <v>2.05</v>
+      </c>
+      <c r="S10">
+        <v>3.2</v>
+      </c>
+      <c r="T10">
+        <v>1.5</v>
+      </c>
+      <c r="U10">
+        <v>2.5</v>
+      </c>
+      <c r="V10">
+        <v>3.4</v>
+      </c>
+      <c r="W10">
+        <v>1.3</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>1.06</v>
+      </c>
+      <c r="Z10">
+        <v>1.76</v>
+      </c>
+      <c r="AA10">
+        <v>2.82</v>
+      </c>
+      <c r="AB10">
+        <v>5.32</v>
+      </c>
+      <c r="AC10">
+        <v>1.04</v>
+      </c>
+      <c r="AD10">
+        <v>7.8</v>
+      </c>
+      <c r="AE10">
+        <v>1.35</v>
+      </c>
+      <c r="AF10">
+        <v>2.9</v>
+      </c>
+      <c r="AG10">
+        <v>2.2</v>
+      </c>
+      <c r="AH10">
+        <v>1.6</v>
+      </c>
+      <c r="AI10">
+        <v>1.91</v>
+      </c>
+      <c r="AJ10">
+        <v>1.8</v>
+      </c>
+      <c r="AK10">
+        <v>1.52</v>
+      </c>
+      <c r="AL10">
+        <v>1.25</v>
+      </c>
+      <c r="AM10">
+        <v>1.42</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>5</v>
+      </c>
+      <c r="AV10">
+        <v>5</v>
+      </c>
+      <c r="AW10">
+        <v>4</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>9</v>
+      </c>
+      <c r="AZ10">
+        <v>9</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
+        <v>4</v>
+      </c>
+      <c r="BC10">
+        <v>8</v>
+      </c>
+      <c r="BD10">
+        <v>2.17</v>
+      </c>
+      <c r="BE10">
+        <v>6.4</v>
+      </c>
+      <c r="BF10">
+        <v>1.84</v>
+      </c>
+      <c r="BG10">
+        <v>1.33</v>
+      </c>
+      <c r="BH10">
+        <v>2.95</v>
+      </c>
+      <c r="BI10">
+        <v>1.57</v>
+      </c>
+      <c r="BJ10">
+        <v>2.23</v>
+      </c>
+      <c r="BK10">
+        <v>1.94</v>
+      </c>
+      <c r="BL10">
+        <v>1.76</v>
+      </c>
+      <c r="BM10">
+        <v>2.45</v>
+      </c>
+      <c r="BN10">
+        <v>1.48</v>
+      </c>
+      <c r="BO10">
+        <v>3.15</v>
+      </c>
+      <c r="BP10">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7478750</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45514.35416666666</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11">
+        <v>2.4</v>
+      </c>
+      <c r="R11">
+        <v>2.25</v>
+      </c>
+      <c r="S11">
+        <v>4.5</v>
+      </c>
+      <c r="T11">
+        <v>1.33</v>
+      </c>
+      <c r="U11">
+        <v>3.25</v>
+      </c>
+      <c r="V11">
+        <v>2.63</v>
+      </c>
+      <c r="W11">
+        <v>1.44</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1.1</v>
+      </c>
+      <c r="Z11">
+        <v>1.76</v>
+      </c>
+      <c r="AA11">
+        <v>3.82</v>
+      </c>
+      <c r="AB11">
+        <v>4.08</v>
+      </c>
+      <c r="AC11">
+        <v>1.04</v>
+      </c>
+      <c r="AD11">
+        <v>10.25</v>
+      </c>
+      <c r="AE11">
+        <v>1.22</v>
+      </c>
+      <c r="AF11">
+        <v>3.66</v>
+      </c>
+      <c r="AG11">
+        <v>1.7</v>
+      </c>
+      <c r="AH11">
+        <v>2.05</v>
+      </c>
+      <c r="AI11">
+        <v>1.67</v>
+      </c>
+      <c r="AJ11">
+        <v>2.1</v>
+      </c>
+      <c r="AK11">
+        <v>1.24</v>
+      </c>
+      <c r="AL11">
+        <v>1.27</v>
+      </c>
+      <c r="AM11">
+        <v>1.97</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>5</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>7</v>
+      </c>
+      <c r="AX11">
+        <v>3</v>
+      </c>
+      <c r="AY11">
+        <v>12</v>
+      </c>
+      <c r="AZ11">
+        <v>3</v>
+      </c>
+      <c r="BA11">
+        <v>6</v>
+      </c>
+      <c r="BB11">
+        <v>9</v>
+      </c>
+      <c r="BC11">
+        <v>15</v>
+      </c>
+      <c r="BD11">
+        <v>1.73</v>
+      </c>
+      <c r="BE11">
+        <v>6.75</v>
+      </c>
+      <c r="BF11">
+        <v>2.32</v>
+      </c>
+      <c r="BG11">
+        <v>1.17</v>
+      </c>
+      <c r="BH11">
+        <v>4.35</v>
+      </c>
+      <c r="BI11">
+        <v>1.3</v>
+      </c>
+      <c r="BJ11">
+        <v>3.15</v>
+      </c>
+      <c r="BK11">
+        <v>1.5</v>
+      </c>
+      <c r="BL11">
+        <v>2.38</v>
+      </c>
+      <c r="BM11">
+        <v>1.79</v>
+      </c>
+      <c r="BN11">
+        <v>1.9</v>
+      </c>
+      <c r="BO11">
+        <v>2.23</v>
+      </c>
+      <c r="BP11">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,6 +256,9 @@
     <t>Middlesbrough</t>
   </si>
   <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
     <t>Derby County</t>
   </si>
   <si>
@@ -286,6 +289,9 @@
     <t>Swansea City</t>
   </si>
   <si>
+    <t>Plymouth Argyle</t>
+  </si>
+  <si>
     <t>['19', '72', '76', '84']</t>
   </si>
   <si>
@@ -311,6 +317,9 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['35', '52', '82', '90+6']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -693,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,7 +937,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -949,10 +958,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1134,7 +1143,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1155,10 +1164,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1340,7 +1349,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1361,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1475,13 +1484,13 @@
         <v>6</v>
       </c>
       <c r="BA4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB4">
         <v>3</v>
       </c>
       <c r="BC4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD4">
         <v>1.95</v>
@@ -1546,7 +1555,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1567,10 +1576,10 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" t="s">
         <v>93</v>
-      </c>
-      <c r="P5" t="s">
-        <v>91</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1752,7 +1761,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1773,10 +1782,10 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1958,7 +1967,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1979,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2164,7 +2173,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2185,10 +2194,10 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2370,7 +2379,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2391,10 +2400,10 @@
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2576,7 +2585,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2597,10 +2606,10 @@
         <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2782,7 +2791,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2803,10 +2812,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -2962,6 +2971,212 @@
         <v>2.23</v>
       </c>
       <c r="BP11">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7478755</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45515.5</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12">
+        <v>2.5</v>
+      </c>
+      <c r="R12">
+        <v>2.2</v>
+      </c>
+      <c r="S12">
+        <v>4.75</v>
+      </c>
+      <c r="T12">
+        <v>1.4</v>
+      </c>
+      <c r="U12">
+        <v>2.75</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>1.36</v>
+      </c>
+      <c r="X12">
+        <v>8</v>
+      </c>
+      <c r="Y12">
+        <v>1.08</v>
+      </c>
+      <c r="Z12">
+        <v>1.9</v>
+      </c>
+      <c r="AA12">
+        <v>3.48</v>
+      </c>
+      <c r="AB12">
+        <v>4.07</v>
+      </c>
+      <c r="AC12">
+        <v>1.05</v>
+      </c>
+      <c r="AD12">
+        <v>11</v>
+      </c>
+      <c r="AE12">
+        <v>1.33</v>
+      </c>
+      <c r="AF12">
+        <v>3.4</v>
+      </c>
+      <c r="AG12">
+        <v>1.76</v>
+      </c>
+      <c r="AH12">
+        <v>1.95</v>
+      </c>
+      <c r="AI12">
+        <v>1.83</v>
+      </c>
+      <c r="AJ12">
+        <v>1.83</v>
+      </c>
+      <c r="AK12">
+        <v>1.22</v>
+      </c>
+      <c r="AL12">
+        <v>1.25</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>11</v>
+      </c>
+      <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>9</v>
+      </c>
+      <c r="AX12">
+        <v>4</v>
+      </c>
+      <c r="AY12">
+        <v>20</v>
+      </c>
+      <c r="AZ12">
+        <v>6</v>
+      </c>
+      <c r="BA12">
+        <v>15</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <v>16</v>
+      </c>
+      <c r="BD12">
+        <v>1.43</v>
+      </c>
+      <c r="BE12">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF12">
+        <v>3.42</v>
+      </c>
+      <c r="BG12">
+        <v>1.11</v>
+      </c>
+      <c r="BH12">
+        <v>5.15</v>
+      </c>
+      <c r="BI12">
+        <v>1.25</v>
+      </c>
+      <c r="BJ12">
+        <v>3.42</v>
+      </c>
+      <c r="BK12">
+        <v>1.47</v>
+      </c>
+      <c r="BL12">
+        <v>2.49</v>
+      </c>
+      <c r="BM12">
+        <v>1.8</v>
+      </c>
+      <c r="BN12">
+        <v>1.91</v>
+      </c>
+      <c r="BO12">
+        <v>2.25</v>
+      </c>
+      <c r="BP12">
         <v>1.57</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,6 +259,9 @@
     <t>Sheffield Wednesday</t>
   </si>
   <si>
+    <t>Luton Town</t>
+  </si>
+  <si>
     <t>Derby County</t>
   </si>
   <si>
@@ -292,6 +295,9 @@
     <t>Plymouth Argyle</t>
   </si>
   <si>
+    <t>Burnley</t>
+  </si>
+  <si>
     <t>['19', '72', '76', '84']</t>
   </si>
   <si>
@@ -322,6 +328,9 @@
     <t>['35', '52', '82', '90+6']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -341,6 +350,9 @@
   </si>
   <si>
     <t>['18', '89']</t>
+  </si>
+  <si>
+    <t>['6', '37', '72', '80']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,7 +949,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -958,10 +970,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1143,7 +1155,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1164,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1349,7 +1361,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1370,10 +1382,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1555,7 +1567,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1576,10 +1588,10 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" t="s">
         <v>95</v>
-      </c>
-      <c r="P5" t="s">
-        <v>93</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1761,7 +1773,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1782,10 +1794,10 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1967,7 +1979,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1988,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2173,7 +2185,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2194,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2379,7 +2391,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2400,10 +2412,10 @@
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2585,7 +2597,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2606,10 +2618,10 @@
         <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2791,7 +2803,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2812,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q11">
         <v>2.4</v>
@@ -2997,7 +3009,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3018,10 +3030,10 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3178,6 +3190,212 @@
       </c>
       <c r="BP12">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7478756</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45516.66666666666</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>2.2</v>
+      </c>
+      <c r="S13">
+        <v>3.4</v>
+      </c>
+      <c r="T13">
+        <v>1.36</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>2.75</v>
+      </c>
+      <c r="W13">
+        <v>1.4</v>
+      </c>
+      <c r="X13">
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <v>1.1</v>
+      </c>
+      <c r="Z13">
+        <v>2.4</v>
+      </c>
+      <c r="AA13">
+        <v>3.3</v>
+      </c>
+      <c r="AB13">
+        <v>2.8</v>
+      </c>
+      <c r="AC13">
+        <v>1.06</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13">
+        <v>1.3</v>
+      </c>
+      <c r="AF13">
+        <v>3.6</v>
+      </c>
+      <c r="AG13">
+        <v>1.8</v>
+      </c>
+      <c r="AH13">
+        <v>1.91</v>
+      </c>
+      <c r="AI13">
+        <v>1.67</v>
+      </c>
+      <c r="AJ13">
+        <v>2.1</v>
+      </c>
+      <c r="AK13">
+        <v>1.37</v>
+      </c>
+      <c r="AL13">
+        <v>1.28</v>
+      </c>
+      <c r="AM13">
+        <v>1.48</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>4</v>
+      </c>
+      <c r="AV13">
+        <v>7</v>
+      </c>
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13">
+        <v>6</v>
+      </c>
+      <c r="AZ13">
+        <v>10</v>
+      </c>
+      <c r="BA13">
+        <v>5</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>9</v>
+      </c>
+      <c r="BD13">
+        <v>1.68</v>
+      </c>
+      <c r="BE13">
+        <v>6.95</v>
+      </c>
+      <c r="BF13">
+        <v>2.82</v>
+      </c>
+      <c r="BG13">
+        <v>1.12</v>
+      </c>
+      <c r="BH13">
+        <v>4.9</v>
+      </c>
+      <c r="BI13">
+        <v>1.27</v>
+      </c>
+      <c r="BJ13">
+        <v>3.28</v>
+      </c>
+      <c r="BK13">
+        <v>1.5</v>
+      </c>
+      <c r="BL13">
+        <v>2.41</v>
+      </c>
+      <c r="BM13">
+        <v>1.85</v>
+      </c>
+      <c r="BN13">
+        <v>1.85</v>
+      </c>
+      <c r="BO13">
+        <v>2.36</v>
+      </c>
+      <c r="BP13">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,6 +262,9 @@
     <t>Luton Town</t>
   </si>
   <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
     <t>Derby County</t>
   </si>
   <si>
@@ -277,9 +280,6 @@
     <t>Watford</t>
   </si>
   <si>
-    <t>Coventry City</t>
-  </si>
-  <si>
     <t>Portsmouth</t>
   </si>
   <si>
@@ -331,6 +331,9 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['15', '31', '90+6']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -353,6 +356,9 @@
   </si>
   <si>
     <t>['6', '37', '72', '80']</t>
+  </si>
+  <si>
+    <t>['22', '55']</t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +955,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -973,7 +979,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1155,7 +1161,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1179,7 +1185,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1361,7 +1367,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1385,7 +1391,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1567,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1773,7 +1779,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1797,7 +1803,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1979,7 +1985,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2209,7 +2215,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2415,7 +2421,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2621,7 +2627,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3239,7 +3245,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3396,6 +3402,212 @@
       </c>
       <c r="BP13">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7478759</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45520.66666666666</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14">
+        <v>2.2</v>
+      </c>
+      <c r="R14">
+        <v>2.38</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>1.33</v>
+      </c>
+      <c r="U14">
+        <v>3.25</v>
+      </c>
+      <c r="V14">
+        <v>2.63</v>
+      </c>
+      <c r="W14">
+        <v>1.44</v>
+      </c>
+      <c r="X14">
+        <v>6.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.11</v>
+      </c>
+      <c r="Z14">
+        <v>1.6</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <v>5.3</v>
+      </c>
+      <c r="AC14">
+        <v>1.05</v>
+      </c>
+      <c r="AD14">
+        <v>9.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.22</v>
+      </c>
+      <c r="AF14">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>1.7</v>
+      </c>
+      <c r="AH14">
+        <v>2.15</v>
+      </c>
+      <c r="AI14">
+        <v>1.73</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
+        <v>1.15</v>
+      </c>
+      <c r="AL14">
+        <v>1.2</v>
+      </c>
+      <c r="AM14">
+        <v>2.2</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>11</v>
+      </c>
+      <c r="AV14">
+        <v>3</v>
+      </c>
+      <c r="AW14">
+        <v>8</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>19</v>
+      </c>
+      <c r="AZ14">
+        <v>5</v>
+      </c>
+      <c r="BA14">
+        <v>13</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <v>14</v>
+      </c>
+      <c r="BD14">
+        <v>1.42</v>
+      </c>
+      <c r="BE14">
+        <v>7</v>
+      </c>
+      <c r="BF14">
+        <v>3.15</v>
+      </c>
+      <c r="BG14">
+        <v>1.12</v>
+      </c>
+      <c r="BH14">
+        <v>5.21</v>
+      </c>
+      <c r="BI14">
+        <v>1.28</v>
+      </c>
+      <c r="BJ14">
+        <v>3.4</v>
+      </c>
+      <c r="BK14">
+        <v>1.52</v>
+      </c>
+      <c r="BL14">
+        <v>2.47</v>
+      </c>
+      <c r="BM14">
+        <v>1.85</v>
+      </c>
+      <c r="BN14">
+        <v>1.95</v>
+      </c>
+      <c r="BO14">
+        <v>2.32</v>
+      </c>
+      <c r="BP14">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -265,39 +265,39 @@
     <t>Coventry City</t>
   </si>
   <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
     <t>Derby County</t>
   </si>
   <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
     <t>Sheffield United</t>
   </si>
   <si>
-    <t>West Bromwich Albion</t>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
   </si>
   <si>
     <t>Norwich City</t>
   </si>
   <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Plymouth Argyle</t>
   </si>
   <si>
     <t>Sunderland</t>
   </si>
   <si>
-    <t>Swansea City</t>
-  </si>
-  <si>
-    <t>Plymouth Argyle</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
     <t>['19', '72', '76', '84']</t>
   </si>
   <si>
@@ -334,6 +334,30 @@
     <t>['15', '31', '90+6']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['6', '13']</t>
+  </si>
+  <si>
+    <t>['47', '49', '73']</t>
+  </si>
+  <si>
+    <t>['40', '61', '83']</t>
+  </si>
+  <si>
+    <t>['3', '12', '78', '88']</t>
+  </si>
+  <si>
+    <t>['65', '73']</t>
+  </si>
+  <si>
+    <t>['9', '31', '51', '88', '90+2']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -359,6 +383,18 @@
   </si>
   <si>
     <t>['22', '55']</t>
+  </si>
+  <si>
+    <t>['55', '88']</t>
+  </si>
+  <si>
+    <t>['51', '54', '64']</t>
+  </si>
+  <si>
+    <t>['20', '87']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP14"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +991,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -979,7 +1015,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1161,7 +1197,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1185,7 +1221,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1367,7 +1403,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1391,7 +1427,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1573,7 +1609,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1803,7 +1839,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2191,7 +2227,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2215,7 +2251,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2421,7 +2457,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2603,7 +2639,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2627,7 +2663,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2809,7 +2845,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3221,7 +3257,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3245,7 +3281,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3451,7 +3487,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3608,6 +3644,2066 @@
       </c>
       <c r="BP14">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7478768</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45521.35416666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>2.1</v>
+      </c>
+      <c r="S15">
+        <v>2.75</v>
+      </c>
+      <c r="T15">
+        <v>1.4</v>
+      </c>
+      <c r="U15">
+        <v>2.75</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>1.36</v>
+      </c>
+      <c r="X15">
+        <v>9</v>
+      </c>
+      <c r="Y15">
+        <v>1.07</v>
+      </c>
+      <c r="Z15">
+        <v>3.21</v>
+      </c>
+      <c r="AA15">
+        <v>3.13</v>
+      </c>
+      <c r="AB15">
+        <v>2.01</v>
+      </c>
+      <c r="AC15">
+        <v>1.06</v>
+      </c>
+      <c r="AD15">
+        <v>8.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.33</v>
+      </c>
+      <c r="AF15">
+        <v>3.2</v>
+      </c>
+      <c r="AG15">
+        <v>2.08</v>
+      </c>
+      <c r="AH15">
+        <v>1.8</v>
+      </c>
+      <c r="AI15">
+        <v>1.83</v>
+      </c>
+      <c r="AJ15">
+        <v>1.83</v>
+      </c>
+      <c r="AK15">
+        <v>1.77</v>
+      </c>
+      <c r="AL15">
+        <v>1.25</v>
+      </c>
+      <c r="AM15">
+        <v>1.28</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>-1</v>
+      </c>
+      <c r="AV15">
+        <v>-1</v>
+      </c>
+      <c r="AW15">
+        <v>-1</v>
+      </c>
+      <c r="AX15">
+        <v>-1</v>
+      </c>
+      <c r="AY15">
+        <v>-1</v>
+      </c>
+      <c r="AZ15">
+        <v>-1</v>
+      </c>
+      <c r="BA15">
+        <v>-1</v>
+      </c>
+      <c r="BB15">
+        <v>-1</v>
+      </c>
+      <c r="BC15">
+        <v>-1</v>
+      </c>
+      <c r="BD15">
+        <v>2.3</v>
+      </c>
+      <c r="BE15">
+        <v>6.75</v>
+      </c>
+      <c r="BF15">
+        <v>1.74</v>
+      </c>
+      <c r="BG15">
+        <v>1.1</v>
+      </c>
+      <c r="BH15">
+        <v>5.65</v>
+      </c>
+      <c r="BI15">
+        <v>1.25</v>
+      </c>
+      <c r="BJ15">
+        <v>3.63</v>
+      </c>
+      <c r="BK15">
+        <v>1.47</v>
+      </c>
+      <c r="BL15">
+        <v>2.6</v>
+      </c>
+      <c r="BM15">
+        <v>1.79</v>
+      </c>
+      <c r="BN15">
+        <v>2.02</v>
+      </c>
+      <c r="BO15">
+        <v>2.21</v>
+      </c>
+      <c r="BP15">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7478760</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45521.35416666666</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16">
+        <v>3.75</v>
+      </c>
+      <c r="R16">
+        <v>2.2</v>
+      </c>
+      <c r="S16">
+        <v>2.75</v>
+      </c>
+      <c r="T16">
+        <v>1.36</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>2.63</v>
+      </c>
+      <c r="W16">
+        <v>1.44</v>
+      </c>
+      <c r="X16">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <v>1.1</v>
+      </c>
+      <c r="Z16">
+        <v>3.08</v>
+      </c>
+      <c r="AA16">
+        <v>3.29</v>
+      </c>
+      <c r="AB16">
+        <v>2.11</v>
+      </c>
+      <c r="AC16">
+        <v>1.02</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>1.25</v>
+      </c>
+      <c r="AF16">
+        <v>3.6</v>
+      </c>
+      <c r="AG16">
+        <v>1.88</v>
+      </c>
+      <c r="AH16">
+        <v>2</v>
+      </c>
+      <c r="AI16">
+        <v>1.67</v>
+      </c>
+      <c r="AJ16">
+        <v>2.1</v>
+      </c>
+      <c r="AK16">
+        <v>1.7</v>
+      </c>
+      <c r="AL16">
+        <v>1.29</v>
+      </c>
+      <c r="AM16">
+        <v>1.36</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>3</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>-1</v>
+      </c>
+      <c r="AV16">
+        <v>-1</v>
+      </c>
+      <c r="AW16">
+        <v>-1</v>
+      </c>
+      <c r="AX16">
+        <v>-1</v>
+      </c>
+      <c r="AY16">
+        <v>-1</v>
+      </c>
+      <c r="AZ16">
+        <v>-1</v>
+      </c>
+      <c r="BA16">
+        <v>-1</v>
+      </c>
+      <c r="BB16">
+        <v>-1</v>
+      </c>
+      <c r="BC16">
+        <v>-1</v>
+      </c>
+      <c r="BD16">
+        <v>2.3</v>
+      </c>
+      <c r="BE16">
+        <v>6.75</v>
+      </c>
+      <c r="BF16">
+        <v>1.74</v>
+      </c>
+      <c r="BG16">
+        <v>1.15</v>
+      </c>
+      <c r="BH16">
+        <v>4.58</v>
+      </c>
+      <c r="BI16">
+        <v>1.34</v>
+      </c>
+      <c r="BJ16">
+        <v>3.06</v>
+      </c>
+      <c r="BK16">
+        <v>1.62</v>
+      </c>
+      <c r="BL16">
+        <v>2.28</v>
+      </c>
+      <c r="BM16">
+        <v>2</v>
+      </c>
+      <c r="BN16">
+        <v>1.8</v>
+      </c>
+      <c r="BO16">
+        <v>2.52</v>
+      </c>
+      <c r="BP16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7478763</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45521.35416666666</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17">
+        <v>3.6</v>
+      </c>
+      <c r="R17">
+        <v>2.2</v>
+      </c>
+      <c r="S17">
+        <v>2.88</v>
+      </c>
+      <c r="T17">
+        <v>1.36</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>2.63</v>
+      </c>
+      <c r="W17">
+        <v>1.44</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>1.1</v>
+      </c>
+      <c r="Z17">
+        <v>2.9</v>
+      </c>
+      <c r="AA17">
+        <v>3.17</v>
+      </c>
+      <c r="AB17">
+        <v>2.12</v>
+      </c>
+      <c r="AC17">
+        <v>1.02</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <v>1.25</v>
+      </c>
+      <c r="AF17">
+        <v>3.6</v>
+      </c>
+      <c r="AG17">
+        <v>1.89</v>
+      </c>
+      <c r="AH17">
+        <v>1.99</v>
+      </c>
+      <c r="AI17">
+        <v>1.67</v>
+      </c>
+      <c r="AJ17">
+        <v>2.1</v>
+      </c>
+      <c r="AK17">
+        <v>1.66</v>
+      </c>
+      <c r="AL17">
+        <v>1.3</v>
+      </c>
+      <c r="AM17">
+        <v>1.38</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>-1</v>
+      </c>
+      <c r="AV17">
+        <v>-1</v>
+      </c>
+      <c r="AW17">
+        <v>-1</v>
+      </c>
+      <c r="AX17">
+        <v>-1</v>
+      </c>
+      <c r="AY17">
+        <v>-1</v>
+      </c>
+      <c r="AZ17">
+        <v>-1</v>
+      </c>
+      <c r="BA17">
+        <v>-1</v>
+      </c>
+      <c r="BB17">
+        <v>-1</v>
+      </c>
+      <c r="BC17">
+        <v>-1</v>
+      </c>
+      <c r="BD17">
+        <v>2.12</v>
+      </c>
+      <c r="BE17">
+        <v>6.75</v>
+      </c>
+      <c r="BF17">
+        <v>1.84</v>
+      </c>
+      <c r="BG17">
+        <v>1.2</v>
+      </c>
+      <c r="BH17">
+        <v>4.03</v>
+      </c>
+      <c r="BI17">
+        <v>1.42</v>
+      </c>
+      <c r="BJ17">
+        <v>2.77</v>
+      </c>
+      <c r="BK17">
+        <v>1.73</v>
+      </c>
+      <c r="BL17">
+        <v>2.11</v>
+      </c>
+      <c r="BM17">
+        <v>2.14</v>
+      </c>
+      <c r="BN17">
+        <v>1.7</v>
+      </c>
+      <c r="BO17">
+        <v>2.78</v>
+      </c>
+      <c r="BP17">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7478764</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18">
+        <v>2.4</v>
+      </c>
+      <c r="R18">
+        <v>2.2</v>
+      </c>
+      <c r="S18">
+        <v>4.75</v>
+      </c>
+      <c r="T18">
+        <v>1.4</v>
+      </c>
+      <c r="U18">
+        <v>2.75</v>
+      </c>
+      <c r="V18">
+        <v>2.75</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>1.08</v>
+      </c>
+      <c r="Z18">
+        <v>1.75</v>
+      </c>
+      <c r="AA18">
+        <v>3.5</v>
+      </c>
+      <c r="AB18">
+        <v>4.5</v>
+      </c>
+      <c r="AC18">
+        <v>1.05</v>
+      </c>
+      <c r="AD18">
+        <v>12</v>
+      </c>
+      <c r="AE18">
+        <v>1.3</v>
+      </c>
+      <c r="AF18">
+        <v>3.6</v>
+      </c>
+      <c r="AG18">
+        <v>1.95</v>
+      </c>
+      <c r="AH18">
+        <v>1.85</v>
+      </c>
+      <c r="AI18">
+        <v>1.83</v>
+      </c>
+      <c r="AJ18">
+        <v>1.83</v>
+      </c>
+      <c r="AK18">
+        <v>1.2</v>
+      </c>
+      <c r="AL18">
+        <v>1.24</v>
+      </c>
+      <c r="AM18">
+        <v>2.1</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>4</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <v>8</v>
+      </c>
+      <c r="AZ18">
+        <v>6</v>
+      </c>
+      <c r="BA18">
+        <v>4</v>
+      </c>
+      <c r="BB18">
+        <v>9</v>
+      </c>
+      <c r="BC18">
+        <v>13</v>
+      </c>
+      <c r="BD18">
+        <v>1.52</v>
+      </c>
+      <c r="BE18">
+        <v>7</v>
+      </c>
+      <c r="BF18">
+        <v>2.75</v>
+      </c>
+      <c r="BG18">
+        <v>1.17</v>
+      </c>
+      <c r="BH18">
+        <v>4.42</v>
+      </c>
+      <c r="BI18">
+        <v>1.36</v>
+      </c>
+      <c r="BJ18">
+        <v>2.98</v>
+      </c>
+      <c r="BK18">
+        <v>1.65</v>
+      </c>
+      <c r="BL18">
+        <v>2.23</v>
+      </c>
+      <c r="BM18">
+        <v>2.03</v>
+      </c>
+      <c r="BN18">
+        <v>1.79</v>
+      </c>
+      <c r="BO18">
+        <v>2.59</v>
+      </c>
+      <c r="BP18">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7478767</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19">
+        <v>3.25</v>
+      </c>
+      <c r="R19">
+        <v>2.1</v>
+      </c>
+      <c r="S19">
+        <v>3.4</v>
+      </c>
+      <c r="T19">
+        <v>1.44</v>
+      </c>
+      <c r="U19">
+        <v>2.63</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>1.36</v>
+      </c>
+      <c r="X19">
+        <v>9</v>
+      </c>
+      <c r="Y19">
+        <v>1.07</v>
+      </c>
+      <c r="Z19">
+        <v>2.5</v>
+      </c>
+      <c r="AA19">
+        <v>3.3</v>
+      </c>
+      <c r="AB19">
+        <v>2.8</v>
+      </c>
+      <c r="AC19">
+        <v>1.04</v>
+      </c>
+      <c r="AD19">
+        <v>8.5</v>
+      </c>
+      <c r="AE19">
+        <v>1.3</v>
+      </c>
+      <c r="AF19">
+        <v>3.2</v>
+      </c>
+      <c r="AG19">
+        <v>2.1</v>
+      </c>
+      <c r="AH19">
+        <v>1.78</v>
+      </c>
+      <c r="AI19">
+        <v>1.8</v>
+      </c>
+      <c r="AJ19">
+        <v>1.91</v>
+      </c>
+      <c r="AK19">
+        <v>1.48</v>
+      </c>
+      <c r="AL19">
+        <v>1.28</v>
+      </c>
+      <c r="AM19">
+        <v>1.5</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>9</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>9</v>
+      </c>
+      <c r="AX19">
+        <v>3</v>
+      </c>
+      <c r="AY19">
+        <v>18</v>
+      </c>
+      <c r="AZ19">
+        <v>7</v>
+      </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
+      <c r="BB19">
+        <v>4</v>
+      </c>
+      <c r="BC19">
+        <v>6</v>
+      </c>
+      <c r="BD19">
+        <v>2</v>
+      </c>
+      <c r="BE19">
+        <v>6.75</v>
+      </c>
+      <c r="BF19">
+        <v>1.96</v>
+      </c>
+      <c r="BG19">
+        <v>1.15</v>
+      </c>
+      <c r="BH19">
+        <v>4.58</v>
+      </c>
+      <c r="BI19">
+        <v>1.34</v>
+      </c>
+      <c r="BJ19">
+        <v>3.06</v>
+      </c>
+      <c r="BK19">
+        <v>1.62</v>
+      </c>
+      <c r="BL19">
+        <v>2.28</v>
+      </c>
+      <c r="BM19">
+        <v>2</v>
+      </c>
+      <c r="BN19">
+        <v>1.8</v>
+      </c>
+      <c r="BO19">
+        <v>2.52</v>
+      </c>
+      <c r="BP19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7478766</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20">
+        <v>2.6</v>
+      </c>
+      <c r="R20">
+        <v>2.1</v>
+      </c>
+      <c r="S20">
+        <v>4.5</v>
+      </c>
+      <c r="T20">
+        <v>1.44</v>
+      </c>
+      <c r="U20">
+        <v>2.63</v>
+      </c>
+      <c r="V20">
+        <v>3.25</v>
+      </c>
+      <c r="W20">
+        <v>1.33</v>
+      </c>
+      <c r="X20">
+        <v>9</v>
+      </c>
+      <c r="Y20">
+        <v>1.07</v>
+      </c>
+      <c r="Z20">
+        <v>1.83</v>
+      </c>
+      <c r="AA20">
+        <v>3.5</v>
+      </c>
+      <c r="AB20">
+        <v>4.33</v>
+      </c>
+      <c r="AC20">
+        <v>1.03</v>
+      </c>
+      <c r="AD20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>1.32</v>
+      </c>
+      <c r="AF20">
+        <v>2.98</v>
+      </c>
+      <c r="AG20">
+        <v>2.05</v>
+      </c>
+      <c r="AH20">
+        <v>1.8</v>
+      </c>
+      <c r="AI20">
+        <v>1.83</v>
+      </c>
+      <c r="AJ20">
+        <v>1.83</v>
+      </c>
+      <c r="AK20">
+        <v>1.26</v>
+      </c>
+      <c r="AL20">
+        <v>1.28</v>
+      </c>
+      <c r="AM20">
+        <v>1.85</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>7</v>
+      </c>
+      <c r="AV20">
+        <v>3</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>2</v>
+      </c>
+      <c r="AY20">
+        <v>11</v>
+      </c>
+      <c r="AZ20">
+        <v>5</v>
+      </c>
+      <c r="BA20">
+        <v>5</v>
+      </c>
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
+        <v>8</v>
+      </c>
+      <c r="BD20">
+        <v>1.41</v>
+      </c>
+      <c r="BE20">
+        <v>7</v>
+      </c>
+      <c r="BF20">
+        <v>3.3</v>
+      </c>
+      <c r="BG20">
+        <v>1.27</v>
+      </c>
+      <c r="BH20">
+        <v>3.48</v>
+      </c>
+      <c r="BI20">
+        <v>1.52</v>
+      </c>
+      <c r="BJ20">
+        <v>2.47</v>
+      </c>
+      <c r="BK20">
+        <v>1.88</v>
+      </c>
+      <c r="BL20">
+        <v>1.92</v>
+      </c>
+      <c r="BM20">
+        <v>2.38</v>
+      </c>
+      <c r="BN20">
+        <v>1.57</v>
+      </c>
+      <c r="BO20">
+        <v>3.18</v>
+      </c>
+      <c r="BP20">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7478757</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21">
+        <v>2.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>4.75</v>
+      </c>
+      <c r="T21">
+        <v>1.53</v>
+      </c>
+      <c r="U21">
+        <v>2.38</v>
+      </c>
+      <c r="V21">
+        <v>3.5</v>
+      </c>
+      <c r="W21">
+        <v>1.29</v>
+      </c>
+      <c r="X21">
+        <v>11</v>
+      </c>
+      <c r="Y21">
+        <v>1.05</v>
+      </c>
+      <c r="Z21">
+        <v>1.91</v>
+      </c>
+      <c r="AA21">
+        <v>3.3</v>
+      </c>
+      <c r="AB21">
+        <v>4.2</v>
+      </c>
+      <c r="AC21">
+        <v>1.05</v>
+      </c>
+      <c r="AD21">
+        <v>7</v>
+      </c>
+      <c r="AE21">
+        <v>1.41</v>
+      </c>
+      <c r="AF21">
+        <v>2.61</v>
+      </c>
+      <c r="AG21">
+        <v>2.38</v>
+      </c>
+      <c r="AH21">
+        <v>1.57</v>
+      </c>
+      <c r="AI21">
+        <v>2.1</v>
+      </c>
+      <c r="AJ21">
+        <v>1.67</v>
+      </c>
+      <c r="AK21">
+        <v>1.25</v>
+      </c>
+      <c r="AL21">
+        <v>1.3</v>
+      </c>
+      <c r="AM21">
+        <v>1.75</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>8</v>
+      </c>
+      <c r="AV21">
+        <v>5</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>5</v>
+      </c>
+      <c r="AY21">
+        <v>12</v>
+      </c>
+      <c r="AZ21">
+        <v>10</v>
+      </c>
+      <c r="BA21">
+        <v>5</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>9</v>
+      </c>
+      <c r="BD21">
+        <v>1.46</v>
+      </c>
+      <c r="BE21">
+        <v>7</v>
+      </c>
+      <c r="BF21">
+        <v>2.95</v>
+      </c>
+      <c r="BG21">
+        <v>1.15</v>
+      </c>
+      <c r="BH21">
+        <v>4.58</v>
+      </c>
+      <c r="BI21">
+        <v>1.34</v>
+      </c>
+      <c r="BJ21">
+        <v>3.06</v>
+      </c>
+      <c r="BK21">
+        <v>1.62</v>
+      </c>
+      <c r="BL21">
+        <v>2.28</v>
+      </c>
+      <c r="BM21">
+        <v>2</v>
+      </c>
+      <c r="BN21">
+        <v>1.8</v>
+      </c>
+      <c r="BO21">
+        <v>2.52</v>
+      </c>
+      <c r="BP21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7478761</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22">
+        <v>2.6</v>
+      </c>
+      <c r="R22">
+        <v>2.25</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>1.36</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>2.63</v>
+      </c>
+      <c r="W22">
+        <v>1.44</v>
+      </c>
+      <c r="X22">
+        <v>7</v>
+      </c>
+      <c r="Y22">
+        <v>1.1</v>
+      </c>
+      <c r="Z22">
+        <v>1.73</v>
+      </c>
+      <c r="AA22">
+        <v>3.75</v>
+      </c>
+      <c r="AB22">
+        <v>4.5</v>
+      </c>
+      <c r="AC22">
+        <v>1.01</v>
+      </c>
+      <c r="AD22">
+        <v>10.25</v>
+      </c>
+      <c r="AE22">
+        <v>1.22</v>
+      </c>
+      <c r="AF22">
+        <v>3.66</v>
+      </c>
+      <c r="AG22">
+        <v>1.8</v>
+      </c>
+      <c r="AH22">
+        <v>1.98</v>
+      </c>
+      <c r="AI22">
+        <v>1.67</v>
+      </c>
+      <c r="AJ22">
+        <v>2.1</v>
+      </c>
+      <c r="AK22">
+        <v>1.25</v>
+      </c>
+      <c r="AL22">
+        <v>1.25</v>
+      </c>
+      <c r="AM22">
+        <v>1.8</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>4</v>
+      </c>
+      <c r="AW22">
+        <v>9</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>14</v>
+      </c>
+      <c r="AZ22">
+        <v>6</v>
+      </c>
+      <c r="BA22">
+        <v>6</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>10</v>
+      </c>
+      <c r="BD22">
+        <v>1.52</v>
+      </c>
+      <c r="BE22">
+        <v>7</v>
+      </c>
+      <c r="BF22">
+        <v>2.8</v>
+      </c>
+      <c r="BG22">
+        <v>1.13</v>
+      </c>
+      <c r="BH22">
+        <v>4.99</v>
+      </c>
+      <c r="BI22">
+        <v>1.3</v>
+      </c>
+      <c r="BJ22">
+        <v>3.28</v>
+      </c>
+      <c r="BK22">
+        <v>1.55</v>
+      </c>
+      <c r="BL22">
+        <v>2.4</v>
+      </c>
+      <c r="BM22">
+        <v>1.9</v>
+      </c>
+      <c r="BN22">
+        <v>1.9</v>
+      </c>
+      <c r="BO22">
+        <v>2.38</v>
+      </c>
+      <c r="BP22">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7478758</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23">
+        <v>2.05</v>
+      </c>
+      <c r="R23">
+        <v>2.38</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>1.33</v>
+      </c>
+      <c r="U23">
+        <v>3.25</v>
+      </c>
+      <c r="V23">
+        <v>2.63</v>
+      </c>
+      <c r="W23">
+        <v>1.44</v>
+      </c>
+      <c r="X23">
+        <v>6.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.11</v>
+      </c>
+      <c r="Z23">
+        <v>1.62</v>
+      </c>
+      <c r="AA23">
+        <v>3.75</v>
+      </c>
+      <c r="AB23">
+        <v>5.5</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>13</v>
+      </c>
+      <c r="AE23">
+        <v>1.25</v>
+      </c>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>1.71</v>
+      </c>
+      <c r="AH23">
+        <v>2.12</v>
+      </c>
+      <c r="AI23">
+        <v>1.83</v>
+      </c>
+      <c r="AJ23">
+        <v>1.83</v>
+      </c>
+      <c r="AK23">
+        <v>1.11</v>
+      </c>
+      <c r="AL23">
+        <v>1.18</v>
+      </c>
+      <c r="AM23">
+        <v>2.65</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>3</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>4</v>
+      </c>
+      <c r="AX23">
+        <v>3</v>
+      </c>
+      <c r="AY23">
+        <v>9</v>
+      </c>
+      <c r="AZ23">
+        <v>8</v>
+      </c>
+      <c r="BA23">
+        <v>2</v>
+      </c>
+      <c r="BB23">
+        <v>5</v>
+      </c>
+      <c r="BC23">
+        <v>7</v>
+      </c>
+      <c r="BD23">
+        <v>1.34</v>
+      </c>
+      <c r="BE23">
+        <v>7.5</v>
+      </c>
+      <c r="BF23">
+        <v>3.55</v>
+      </c>
+      <c r="BG23">
+        <v>1.19</v>
+      </c>
+      <c r="BH23">
+        <v>4.1</v>
+      </c>
+      <c r="BI23">
+        <v>1.4</v>
+      </c>
+      <c r="BJ23">
+        <v>2.81</v>
+      </c>
+      <c r="BK23">
+        <v>1.71</v>
+      </c>
+      <c r="BL23">
+        <v>2.13</v>
+      </c>
+      <c r="BM23">
+        <v>2.12</v>
+      </c>
+      <c r="BN23">
+        <v>1.72</v>
+      </c>
+      <c r="BO23">
+        <v>2.74</v>
+      </c>
+      <c r="BP23">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7478762</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q24">
+        <v>3.4</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>2.88</v>
+      </c>
+      <c r="T24">
+        <v>1.33</v>
+      </c>
+      <c r="U24">
+        <v>3.25</v>
+      </c>
+      <c r="V24">
+        <v>2.5</v>
+      </c>
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>6.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.11</v>
+      </c>
+      <c r="Z24">
+        <v>2.4</v>
+      </c>
+      <c r="AA24">
+        <v>3.4</v>
+      </c>
+      <c r="AB24">
+        <v>2.8</v>
+      </c>
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AE24">
+        <v>1.2</v>
+      </c>
+      <c r="AF24">
+        <v>4</v>
+      </c>
+      <c r="AG24">
+        <v>1.68</v>
+      </c>
+      <c r="AH24">
+        <v>2.15</v>
+      </c>
+      <c r="AI24">
+        <v>1.57</v>
+      </c>
+      <c r="AJ24">
+        <v>2.25</v>
+      </c>
+      <c r="AK24">
+        <v>1.62</v>
+      </c>
+      <c r="AL24">
+        <v>1.28</v>
+      </c>
+      <c r="AM24">
+        <v>1.42</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>8</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>5</v>
+      </c>
+      <c r="AX24">
+        <v>6</v>
+      </c>
+      <c r="AY24">
+        <v>13</v>
+      </c>
+      <c r="AZ24">
+        <v>9</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>9</v>
+      </c>
+      <c r="BD24">
+        <v>2.18</v>
+      </c>
+      <c r="BE24">
+        <v>7</v>
+      </c>
+      <c r="BF24">
+        <v>1.78</v>
+      </c>
+      <c r="BG24">
+        <v>1.1</v>
+      </c>
+      <c r="BH24">
+        <v>5.52</v>
+      </c>
+      <c r="BI24">
+        <v>1.25</v>
+      </c>
+      <c r="BJ24">
+        <v>3.56</v>
+      </c>
+      <c r="BK24">
+        <v>1.49</v>
+      </c>
+      <c r="BL24">
+        <v>2.56</v>
+      </c>
+      <c r="BM24">
+        <v>1.81</v>
+      </c>
+      <c r="BN24">
+        <v>2</v>
+      </c>
+      <c r="BO24">
+        <v>2.24</v>
+      </c>
+      <c r="BP24">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['11', '15', '24', '47']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -756,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1018,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1221,7 +1224,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1427,7 +1430,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1839,7 +1842,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2251,7 +2254,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2457,7 +2460,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2663,7 +2666,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3281,7 +3284,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3487,7 +3490,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3786,31 +3789,31 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW15">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB15">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD15">
         <v>2.3</v>
@@ -3992,31 +3995,31 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX16">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ16">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC16">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD16">
         <v>2.3</v>
@@ -4198,31 +4201,31 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY17">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB17">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD17">
         <v>2.12</v>
@@ -4311,7 +4314,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4929,7 +4932,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5135,7 +5138,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5547,7 +5550,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5704,6 +5707,212 @@
       </c>
       <c r="BP24">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7478765</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45522.33333333334</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25">
+        <v>2.88</v>
+      </c>
+      <c r="R25">
+        <v>2.1</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>1.44</v>
+      </c>
+      <c r="U25">
+        <v>2.63</v>
+      </c>
+      <c r="V25">
+        <v>3.25</v>
+      </c>
+      <c r="W25">
+        <v>1.33</v>
+      </c>
+      <c r="X25">
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <v>1.07</v>
+      </c>
+      <c r="Z25">
+        <v>1.64</v>
+      </c>
+      <c r="AA25">
+        <v>2.98</v>
+      </c>
+      <c r="AB25">
+        <v>6.07</v>
+      </c>
+      <c r="AC25">
+        <v>1.03</v>
+      </c>
+      <c r="AD25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>1.32</v>
+      </c>
+      <c r="AF25">
+        <v>2.98</v>
+      </c>
+      <c r="AG25">
+        <v>1.98</v>
+      </c>
+      <c r="AH25">
+        <v>1.83</v>
+      </c>
+      <c r="AI25">
+        <v>1.8</v>
+      </c>
+      <c r="AJ25">
+        <v>1.91</v>
+      </c>
+      <c r="AK25">
+        <v>1.3</v>
+      </c>
+      <c r="AL25">
+        <v>1.33</v>
+      </c>
+      <c r="AM25">
+        <v>1.67</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>3</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>7</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
+        <v>11</v>
+      </c>
+      <c r="AZ25">
+        <v>6</v>
+      </c>
+      <c r="BA25">
+        <v>5</v>
+      </c>
+      <c r="BB25">
+        <v>8</v>
+      </c>
+      <c r="BC25">
+        <v>13</v>
+      </c>
+      <c r="BD25">
+        <v>1.88</v>
+      </c>
+      <c r="BE25">
+        <v>6.75</v>
+      </c>
+      <c r="BF25">
+        <v>2.08</v>
+      </c>
+      <c r="BG25">
+        <v>1.2</v>
+      </c>
+      <c r="BH25">
+        <v>4.03</v>
+      </c>
+      <c r="BI25">
+        <v>1.42</v>
+      </c>
+      <c r="BJ25">
+        <v>2.77</v>
+      </c>
+      <c r="BK25">
+        <v>1.73</v>
+      </c>
+      <c r="BL25">
+        <v>2.11</v>
+      </c>
+      <c r="BM25">
+        <v>2.14</v>
+      </c>
+      <c r="BN25">
+        <v>1.7</v>
+      </c>
+      <c r="BO25">
+        <v>2.78</v>
+      </c>
+      <c r="BP25">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['24', '48']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3156,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3777,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5913,6 +5916,212 @@
       </c>
       <c r="BP25">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7478775</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45527.66666666666</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26">
+        <v>4.5</v>
+      </c>
+      <c r="R26">
+        <v>2.25</v>
+      </c>
+      <c r="S26">
+        <v>2.4</v>
+      </c>
+      <c r="T26">
+        <v>1.33</v>
+      </c>
+      <c r="U26">
+        <v>3.25</v>
+      </c>
+      <c r="V26">
+        <v>2.63</v>
+      </c>
+      <c r="W26">
+        <v>1.44</v>
+      </c>
+      <c r="X26">
+        <v>7</v>
+      </c>
+      <c r="Y26">
+        <v>1.1</v>
+      </c>
+      <c r="Z26">
+        <v>4.52</v>
+      </c>
+      <c r="AA26">
+        <v>3.4</v>
+      </c>
+      <c r="AB26">
+        <v>1.84</v>
+      </c>
+      <c r="AC26">
+        <v>1.05</v>
+      </c>
+      <c r="AD26">
+        <v>9.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.25</v>
+      </c>
+      <c r="AF26">
+        <v>3.7</v>
+      </c>
+      <c r="AG26">
+        <v>1.85</v>
+      </c>
+      <c r="AH26">
+        <v>1.85</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.95</v>
+      </c>
+      <c r="AL26">
+        <v>1.25</v>
+      </c>
+      <c r="AM26">
+        <v>1.2</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>2.62</v>
+      </c>
+      <c r="AS26">
+        <v>0.8</v>
+      </c>
+      <c r="AT26">
+        <v>3.42</v>
+      </c>
+      <c r="AU26">
+        <v>3</v>
+      </c>
+      <c r="AV26">
+        <v>6</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>4</v>
+      </c>
+      <c r="AY26">
+        <v>7</v>
+      </c>
+      <c r="AZ26">
+        <v>10</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>2</v>
+      </c>
+      <c r="BC26">
+        <v>5</v>
+      </c>
+      <c r="BD26">
+        <v>2.4</v>
+      </c>
+      <c r="BE26">
+        <v>6.75</v>
+      </c>
+      <c r="BF26">
+        <v>1.7</v>
+      </c>
+      <c r="BG26">
+        <v>1.19</v>
+      </c>
+      <c r="BH26">
+        <v>4.1</v>
+      </c>
+      <c r="BI26">
+        <v>1.34</v>
+      </c>
+      <c r="BJ26">
+        <v>2.9</v>
+      </c>
+      <c r="BK26">
+        <v>1.56</v>
+      </c>
+      <c r="BL26">
+        <v>2.23</v>
+      </c>
+      <c r="BM26">
+        <v>1.89</v>
+      </c>
+      <c r="BN26">
+        <v>1.8</v>
+      </c>
+      <c r="BO26">
+        <v>2.33</v>
+      </c>
+      <c r="BP26">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,33 @@
     <t>['11', '15', '24', '47']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['11', '90']</t>
+  </si>
+  <si>
+    <t>['31', '76']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['45+2', '83']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -401,6 +428,27 @@
   </si>
   <si>
     <t>['24', '48']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['2', '25']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['18', '31']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,7 +1069,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1227,7 +1275,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1305,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1433,7 +1481,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1511,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>3</v>
@@ -1845,7 +1893,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2129,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2257,7 +2305,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2463,7 +2511,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2669,7 +2717,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2953,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3162,7 +3210,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3287,7 +3335,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3368,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3493,7 +3541,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4192,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4317,7 +4365,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4935,7 +4983,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5013,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5141,7 +5189,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5553,7 +5601,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5965,7 +6013,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6122,6 +6170,2066 @@
       </c>
       <c r="BP26">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7478771</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45528.35416666666</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27">
+        <v>2.88</v>
+      </c>
+      <c r="R27">
+        <v>2.1</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>1.44</v>
+      </c>
+      <c r="U27">
+        <v>2.63</v>
+      </c>
+      <c r="V27">
+        <v>3.25</v>
+      </c>
+      <c r="W27">
+        <v>1.33</v>
+      </c>
+      <c r="X27">
+        <v>9</v>
+      </c>
+      <c r="Y27">
+        <v>1.07</v>
+      </c>
+      <c r="Z27">
+        <v>2.2</v>
+      </c>
+      <c r="AA27">
+        <v>3.25</v>
+      </c>
+      <c r="AB27">
+        <v>3.25</v>
+      </c>
+      <c r="AC27">
+        <v>1.07</v>
+      </c>
+      <c r="AD27">
+        <v>8</v>
+      </c>
+      <c r="AE27">
+        <v>1.36</v>
+      </c>
+      <c r="AF27">
+        <v>3.1</v>
+      </c>
+      <c r="AG27">
+        <v>2.15</v>
+      </c>
+      <c r="AH27">
+        <v>1.7</v>
+      </c>
+      <c r="AI27">
+        <v>1.83</v>
+      </c>
+      <c r="AJ27">
+        <v>1.83</v>
+      </c>
+      <c r="AK27">
+        <v>1.28</v>
+      </c>
+      <c r="AL27">
+        <v>1.28</v>
+      </c>
+      <c r="AM27">
+        <v>1.7</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>0.5</v>
+      </c>
+      <c r="AR27">
+        <v>1.22</v>
+      </c>
+      <c r="AS27">
+        <v>1.31</v>
+      </c>
+      <c r="AT27">
+        <v>2.53</v>
+      </c>
+      <c r="AU27">
+        <v>-1</v>
+      </c>
+      <c r="AV27">
+        <v>-1</v>
+      </c>
+      <c r="AW27">
+        <v>-1</v>
+      </c>
+      <c r="AX27">
+        <v>-1</v>
+      </c>
+      <c r="AY27">
+        <v>-1</v>
+      </c>
+      <c r="AZ27">
+        <v>-1</v>
+      </c>
+      <c r="BA27">
+        <v>-1</v>
+      </c>
+      <c r="BB27">
+        <v>-1</v>
+      </c>
+      <c r="BC27">
+        <v>-1</v>
+      </c>
+      <c r="BD27">
+        <v>1.44</v>
+      </c>
+      <c r="BE27">
+        <v>7</v>
+      </c>
+      <c r="BF27">
+        <v>3.05</v>
+      </c>
+      <c r="BG27">
+        <v>1.21</v>
+      </c>
+      <c r="BH27">
+        <v>3.8</v>
+      </c>
+      <c r="BI27">
+        <v>1.38</v>
+      </c>
+      <c r="BJ27">
+        <v>2.7</v>
+      </c>
+      <c r="BK27">
+        <v>1.63</v>
+      </c>
+      <c r="BL27">
+        <v>2.12</v>
+      </c>
+      <c r="BM27">
+        <v>1.97</v>
+      </c>
+      <c r="BN27">
+        <v>1.73</v>
+      </c>
+      <c r="BO27">
+        <v>2.43</v>
+      </c>
+      <c r="BP27">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7479293</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45528.35416666666</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q28">
+        <v>2.25</v>
+      </c>
+      <c r="R28">
+        <v>2.3</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>1.33</v>
+      </c>
+      <c r="U28">
+        <v>3.25</v>
+      </c>
+      <c r="V28">
+        <v>2.63</v>
+      </c>
+      <c r="W28">
+        <v>1.44</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>1.1</v>
+      </c>
+      <c r="Z28">
+        <v>1.73</v>
+      </c>
+      <c r="AA28">
+        <v>3.8</v>
+      </c>
+      <c r="AB28">
+        <v>4.6</v>
+      </c>
+      <c r="AC28">
+        <v>1.05</v>
+      </c>
+      <c r="AD28">
+        <v>9.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.25</v>
+      </c>
+      <c r="AF28">
+        <v>3.75</v>
+      </c>
+      <c r="AG28">
+        <v>1.8</v>
+      </c>
+      <c r="AH28">
+        <v>1.98</v>
+      </c>
+      <c r="AI28">
+        <v>1.73</v>
+      </c>
+      <c r="AJ28">
+        <v>2</v>
+      </c>
+      <c r="AK28">
+        <v>1.15</v>
+      </c>
+      <c r="AL28">
+        <v>1.22</v>
+      </c>
+      <c r="AM28">
+        <v>2.15</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.52</v>
+      </c>
+      <c r="AS28">
+        <v>0.64</v>
+      </c>
+      <c r="AT28">
+        <v>2.16</v>
+      </c>
+      <c r="AU28">
+        <v>-1</v>
+      </c>
+      <c r="AV28">
+        <v>-1</v>
+      </c>
+      <c r="AW28">
+        <v>-1</v>
+      </c>
+      <c r="AX28">
+        <v>-1</v>
+      </c>
+      <c r="AY28">
+        <v>-1</v>
+      </c>
+      <c r="AZ28">
+        <v>-1</v>
+      </c>
+      <c r="BA28">
+        <v>-1</v>
+      </c>
+      <c r="BB28">
+        <v>-1</v>
+      </c>
+      <c r="BC28">
+        <v>-1</v>
+      </c>
+      <c r="BD28">
+        <v>1.45</v>
+      </c>
+      <c r="BE28">
+        <v>7</v>
+      </c>
+      <c r="BF28">
+        <v>3.05</v>
+      </c>
+      <c r="BG28">
+        <v>1.13</v>
+      </c>
+      <c r="BH28">
+        <v>4.8</v>
+      </c>
+      <c r="BI28">
+        <v>1.26</v>
+      </c>
+      <c r="BJ28">
+        <v>3.4</v>
+      </c>
+      <c r="BK28">
+        <v>1.46</v>
+      </c>
+      <c r="BL28">
+        <v>2.5</v>
+      </c>
+      <c r="BM28">
+        <v>1.72</v>
+      </c>
+      <c r="BN28">
+        <v>1.98</v>
+      </c>
+      <c r="BO28">
+        <v>2.08</v>
+      </c>
+      <c r="BP28">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7478770</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45528.35416666666</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q29">
+        <v>3.2</v>
+      </c>
+      <c r="R29">
+        <v>2.2</v>
+      </c>
+      <c r="S29">
+        <v>3.4</v>
+      </c>
+      <c r="T29">
+        <v>1.4</v>
+      </c>
+      <c r="U29">
+        <v>2.75</v>
+      </c>
+      <c r="V29">
+        <v>2.75</v>
+      </c>
+      <c r="W29">
+        <v>1.4</v>
+      </c>
+      <c r="X29">
+        <v>8</v>
+      </c>
+      <c r="Y29">
+        <v>1.08</v>
+      </c>
+      <c r="Z29">
+        <v>2.45</v>
+      </c>
+      <c r="AA29">
+        <v>3.4</v>
+      </c>
+      <c r="AB29">
+        <v>2.75</v>
+      </c>
+      <c r="AC29">
+        <v>1.05</v>
+      </c>
+      <c r="AD29">
+        <v>9</v>
+      </c>
+      <c r="AE29">
+        <v>1.3</v>
+      </c>
+      <c r="AF29">
+        <v>3.45</v>
+      </c>
+      <c r="AG29">
+        <v>1.94</v>
+      </c>
+      <c r="AH29">
+        <v>1.85</v>
+      </c>
+      <c r="AI29">
+        <v>1.73</v>
+      </c>
+      <c r="AJ29">
+        <v>2</v>
+      </c>
+      <c r="AK29">
+        <v>1.44</v>
+      </c>
+      <c r="AL29">
+        <v>1.25</v>
+      </c>
+      <c r="AM29">
+        <v>1.53</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>1.69</v>
+      </c>
+      <c r="AS29">
+        <v>0.93</v>
+      </c>
+      <c r="AT29">
+        <v>2.62</v>
+      </c>
+      <c r="AU29">
+        <v>-1</v>
+      </c>
+      <c r="AV29">
+        <v>-1</v>
+      </c>
+      <c r="AW29">
+        <v>-1</v>
+      </c>
+      <c r="AX29">
+        <v>-1</v>
+      </c>
+      <c r="AY29">
+        <v>-1</v>
+      </c>
+      <c r="AZ29">
+        <v>-1</v>
+      </c>
+      <c r="BA29">
+        <v>-1</v>
+      </c>
+      <c r="BB29">
+        <v>-1</v>
+      </c>
+      <c r="BC29">
+        <v>-1</v>
+      </c>
+      <c r="BD29">
+        <v>1.85</v>
+      </c>
+      <c r="BE29">
+        <v>6.75</v>
+      </c>
+      <c r="BF29">
+        <v>2.1</v>
+      </c>
+      <c r="BG29">
+        <v>1.15</v>
+      </c>
+      <c r="BH29">
+        <v>4.6</v>
+      </c>
+      <c r="BI29">
+        <v>1.27</v>
+      </c>
+      <c r="BJ29">
+        <v>3.3</v>
+      </c>
+      <c r="BK29">
+        <v>1.46</v>
+      </c>
+      <c r="BL29">
+        <v>2.5</v>
+      </c>
+      <c r="BM29">
+        <v>1.72</v>
+      </c>
+      <c r="BN29">
+        <v>1.98</v>
+      </c>
+      <c r="BO29">
+        <v>2.08</v>
+      </c>
+      <c r="BP29">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7478772</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>2.4</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>1.33</v>
+      </c>
+      <c r="U30">
+        <v>3.25</v>
+      </c>
+      <c r="V30">
+        <v>2.5</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>1.13</v>
+      </c>
+      <c r="Z30">
+        <v>1.6</v>
+      </c>
+      <c r="AA30">
+        <v>4.2</v>
+      </c>
+      <c r="AB30">
+        <v>5.5</v>
+      </c>
+      <c r="AC30">
+        <v>1.04</v>
+      </c>
+      <c r="AD30">
+        <v>10</v>
+      </c>
+      <c r="AE30">
+        <v>1.25</v>
+      </c>
+      <c r="AF30">
+        <v>3.85</v>
+      </c>
+      <c r="AG30">
+        <v>1.8</v>
+      </c>
+      <c r="AH30">
+        <v>1.95</v>
+      </c>
+      <c r="AI30">
+        <v>1.8</v>
+      </c>
+      <c r="AJ30">
+        <v>1.91</v>
+      </c>
+      <c r="AK30">
+        <v>1.11</v>
+      </c>
+      <c r="AL30">
+        <v>1.17</v>
+      </c>
+      <c r="AM30">
+        <v>2.55</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1.4</v>
+      </c>
+      <c r="AS30">
+        <v>0.93</v>
+      </c>
+      <c r="AT30">
+        <v>2.33</v>
+      </c>
+      <c r="AU30">
+        <v>8</v>
+      </c>
+      <c r="AV30">
+        <v>4</v>
+      </c>
+      <c r="AW30">
+        <v>9</v>
+      </c>
+      <c r="AX30">
+        <v>3</v>
+      </c>
+      <c r="AY30">
+        <v>17</v>
+      </c>
+      <c r="AZ30">
+        <v>7</v>
+      </c>
+      <c r="BA30">
+        <v>15</v>
+      </c>
+      <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
+        <v>17</v>
+      </c>
+      <c r="BD30">
+        <v>1.36</v>
+      </c>
+      <c r="BE30">
+        <v>7</v>
+      </c>
+      <c r="BF30">
+        <v>3.45</v>
+      </c>
+      <c r="BG30">
+        <v>1.37</v>
+      </c>
+      <c r="BH30">
+        <v>2.8</v>
+      </c>
+      <c r="BI30">
+        <v>1.63</v>
+      </c>
+      <c r="BJ30">
+        <v>2.12</v>
+      </c>
+      <c r="BK30">
+        <v>1.98</v>
+      </c>
+      <c r="BL30">
+        <v>1.72</v>
+      </c>
+      <c r="BM30">
+        <v>2.55</v>
+      </c>
+      <c r="BN30">
+        <v>1.44</v>
+      </c>
+      <c r="BO30">
+        <v>3.3</v>
+      </c>
+      <c r="BP30">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7478779</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>118</v>
+      </c>
+      <c r="P31" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q31">
+        <v>2.5</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>4.33</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.75</v>
+      </c>
+      <c r="V31">
+        <v>2.75</v>
+      </c>
+      <c r="W31">
+        <v>1.4</v>
+      </c>
+      <c r="X31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>1.91</v>
+      </c>
+      <c r="AA31">
+        <v>3.6</v>
+      </c>
+      <c r="AB31">
+        <v>4</v>
+      </c>
+      <c r="AC31">
+        <v>1.06</v>
+      </c>
+      <c r="AD31">
+        <v>8.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.3</v>
+      </c>
+      <c r="AF31">
+        <v>3.45</v>
+      </c>
+      <c r="AG31">
+        <v>1.85</v>
+      </c>
+      <c r="AH31">
+        <v>1.85</v>
+      </c>
+      <c r="AI31">
+        <v>1.73</v>
+      </c>
+      <c r="AJ31">
+        <v>2</v>
+      </c>
+      <c r="AK31">
+        <v>1.25</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
+        <v>1.8</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>2.07</v>
+      </c>
+      <c r="AS31">
+        <v>1.36</v>
+      </c>
+      <c r="AT31">
+        <v>3.43</v>
+      </c>
+      <c r="AU31">
+        <v>4</v>
+      </c>
+      <c r="AV31">
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <v>6</v>
+      </c>
+      <c r="AX31">
+        <v>3</v>
+      </c>
+      <c r="AY31">
+        <v>10</v>
+      </c>
+      <c r="AZ31">
+        <v>7</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>2</v>
+      </c>
+      <c r="BC31">
+        <v>6</v>
+      </c>
+      <c r="BD31">
+        <v>1.5</v>
+      </c>
+      <c r="BE31">
+        <v>7.5</v>
+      </c>
+      <c r="BF31">
+        <v>2.75</v>
+      </c>
+      <c r="BG31">
+        <v>1.15</v>
+      </c>
+      <c r="BH31">
+        <v>4.6</v>
+      </c>
+      <c r="BI31">
+        <v>1.26</v>
+      </c>
+      <c r="BJ31">
+        <v>3.4</v>
+      </c>
+      <c r="BK31">
+        <v>1.46</v>
+      </c>
+      <c r="BL31">
+        <v>2.5</v>
+      </c>
+      <c r="BM31">
+        <v>1.72</v>
+      </c>
+      <c r="BN31">
+        <v>1.98</v>
+      </c>
+      <c r="BO31">
+        <v>2.08</v>
+      </c>
+      <c r="BP31">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7478777</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q32">
+        <v>3.5</v>
+      </c>
+      <c r="R32">
+        <v>2.2</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>1.4</v>
+      </c>
+      <c r="U32">
+        <v>2.75</v>
+      </c>
+      <c r="V32">
+        <v>2.75</v>
+      </c>
+      <c r="W32">
+        <v>1.4</v>
+      </c>
+      <c r="X32">
+        <v>8</v>
+      </c>
+      <c r="Y32">
+        <v>1.08</v>
+      </c>
+      <c r="Z32">
+        <v>3.3</v>
+      </c>
+      <c r="AA32">
+        <v>3.5</v>
+      </c>
+      <c r="AB32">
+        <v>2.15</v>
+      </c>
+      <c r="AC32">
+        <v>1.06</v>
+      </c>
+      <c r="AD32">
+        <v>8.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.3</v>
+      </c>
+      <c r="AF32">
+        <v>3.45</v>
+      </c>
+      <c r="AG32">
+        <v>1.85</v>
+      </c>
+      <c r="AH32">
+        <v>1.85</v>
+      </c>
+      <c r="AI32">
+        <v>1.67</v>
+      </c>
+      <c r="AJ32">
+        <v>2.1</v>
+      </c>
+      <c r="AK32">
+        <v>1.57</v>
+      </c>
+      <c r="AL32">
+        <v>1.28</v>
+      </c>
+      <c r="AM32">
+        <v>1.36</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.46</v>
+      </c>
+      <c r="AS32">
+        <v>1.44</v>
+      </c>
+      <c r="AT32">
+        <v>2.9</v>
+      </c>
+      <c r="AU32">
+        <v>4</v>
+      </c>
+      <c r="AV32">
+        <v>2</v>
+      </c>
+      <c r="AW32">
+        <v>6</v>
+      </c>
+      <c r="AX32">
+        <v>2</v>
+      </c>
+      <c r="AY32">
+        <v>10</v>
+      </c>
+      <c r="AZ32">
+        <v>4</v>
+      </c>
+      <c r="BA32">
+        <v>3</v>
+      </c>
+      <c r="BB32">
+        <v>1</v>
+      </c>
+      <c r="BC32">
+        <v>4</v>
+      </c>
+      <c r="BD32">
+        <v>2.07</v>
+      </c>
+      <c r="BE32">
+        <v>6.75</v>
+      </c>
+      <c r="BF32">
+        <v>1.9</v>
+      </c>
+      <c r="BG32">
+        <v>1.21</v>
+      </c>
+      <c r="BH32">
+        <v>3.8</v>
+      </c>
+      <c r="BI32">
+        <v>1.4</v>
+      </c>
+      <c r="BJ32">
+        <v>2.7</v>
+      </c>
+      <c r="BK32">
+        <v>1.65</v>
+      </c>
+      <c r="BL32">
+        <v>2.08</v>
+      </c>
+      <c r="BM32">
+        <v>2</v>
+      </c>
+      <c r="BN32">
+        <v>1.71</v>
+      </c>
+      <c r="BO32">
+        <v>2.55</v>
+      </c>
+      <c r="BP32">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7478774</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33">
+        <v>3.75</v>
+      </c>
+      <c r="R33">
+        <v>2.2</v>
+      </c>
+      <c r="S33">
+        <v>2.88</v>
+      </c>
+      <c r="T33">
+        <v>1.36</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>2.75</v>
+      </c>
+      <c r="W33">
+        <v>1.4</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>3.2</v>
+      </c>
+      <c r="AA33">
+        <v>3.3</v>
+      </c>
+      <c r="AB33">
+        <v>2.2</v>
+      </c>
+      <c r="AC33">
+        <v>1.06</v>
+      </c>
+      <c r="AD33">
+        <v>8.5</v>
+      </c>
+      <c r="AE33">
+        <v>1.3</v>
+      </c>
+      <c r="AF33">
+        <v>3.45</v>
+      </c>
+      <c r="AG33">
+        <v>1.9</v>
+      </c>
+      <c r="AH33">
+        <v>1.9</v>
+      </c>
+      <c r="AI33">
+        <v>1.67</v>
+      </c>
+      <c r="AJ33">
+        <v>2.1</v>
+      </c>
+      <c r="AK33">
+        <v>1.65</v>
+      </c>
+      <c r="AL33">
+        <v>1.25</v>
+      </c>
+      <c r="AM33">
+        <v>1.33</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>1.1</v>
+      </c>
+      <c r="AT33">
+        <v>1.1</v>
+      </c>
+      <c r="AU33">
+        <v>3</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>2</v>
+      </c>
+      <c r="AX33">
+        <v>7</v>
+      </c>
+      <c r="AY33">
+        <v>5</v>
+      </c>
+      <c r="AZ33">
+        <v>12</v>
+      </c>
+      <c r="BA33">
+        <v>2</v>
+      </c>
+      <c r="BB33">
+        <v>13</v>
+      </c>
+      <c r="BC33">
+        <v>15</v>
+      </c>
+      <c r="BD33">
+        <v>2.5</v>
+      </c>
+      <c r="BE33">
+        <v>6.75</v>
+      </c>
+      <c r="BF33">
+        <v>1.63</v>
+      </c>
+      <c r="BG33">
+        <v>1.21</v>
+      </c>
+      <c r="BH33">
+        <v>3.8</v>
+      </c>
+      <c r="BI33">
+        <v>1.38</v>
+      </c>
+      <c r="BJ33">
+        <v>2.7</v>
+      </c>
+      <c r="BK33">
+        <v>1.64</v>
+      </c>
+      <c r="BL33">
+        <v>2.1</v>
+      </c>
+      <c r="BM33">
+        <v>1.98</v>
+      </c>
+      <c r="BN33">
+        <v>1.72</v>
+      </c>
+      <c r="BO33">
+        <v>2.48</v>
+      </c>
+      <c r="BP33">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7478769</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q34">
+        <v>2.3</v>
+      </c>
+      <c r="R34">
+        <v>2.3</v>
+      </c>
+      <c r="S34">
+        <v>4.75</v>
+      </c>
+      <c r="T34">
+        <v>1.33</v>
+      </c>
+      <c r="U34">
+        <v>3.25</v>
+      </c>
+      <c r="V34">
+        <v>2.63</v>
+      </c>
+      <c r="W34">
+        <v>1.44</v>
+      </c>
+      <c r="X34">
+        <v>6.5</v>
+      </c>
+      <c r="Y34">
+        <v>1.11</v>
+      </c>
+      <c r="Z34">
+        <v>1.91</v>
+      </c>
+      <c r="AA34">
+        <v>3.7</v>
+      </c>
+      <c r="AB34">
+        <v>3.8</v>
+      </c>
+      <c r="AC34">
+        <v>1.05</v>
+      </c>
+      <c r="AD34">
+        <v>9.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.25</v>
+      </c>
+      <c r="AF34">
+        <v>3.9</v>
+      </c>
+      <c r="AG34">
+        <v>1.75</v>
+      </c>
+      <c r="AH34">
+        <v>1.95</v>
+      </c>
+      <c r="AI34">
+        <v>1.67</v>
+      </c>
+      <c r="AJ34">
+        <v>2.1</v>
+      </c>
+      <c r="AK34">
+        <v>1.21</v>
+      </c>
+      <c r="AL34">
+        <v>1.26</v>
+      </c>
+      <c r="AM34">
+        <v>2.06</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>1.56</v>
+      </c>
+      <c r="AS34">
+        <v>0.63</v>
+      </c>
+      <c r="AT34">
+        <v>2.19</v>
+      </c>
+      <c r="AU34">
+        <v>5</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
+        <v>7</v>
+      </c>
+      <c r="AX34">
+        <v>6</v>
+      </c>
+      <c r="AY34">
+        <v>12</v>
+      </c>
+      <c r="AZ34">
+        <v>10</v>
+      </c>
+      <c r="BA34">
+        <v>7</v>
+      </c>
+      <c r="BB34">
+        <v>5</v>
+      </c>
+      <c r="BC34">
+        <v>12</v>
+      </c>
+      <c r="BD34">
+        <v>1.55</v>
+      </c>
+      <c r="BE34">
+        <v>6.5</v>
+      </c>
+      <c r="BF34">
+        <v>2.7</v>
+      </c>
+      <c r="BG34">
+        <v>1.3</v>
+      </c>
+      <c r="BH34">
+        <v>3.15</v>
+      </c>
+      <c r="BI34">
+        <v>1.52</v>
+      </c>
+      <c r="BJ34">
+        <v>2.32</v>
+      </c>
+      <c r="BK34">
+        <v>1.86</v>
+      </c>
+      <c r="BL34">
+        <v>1.82</v>
+      </c>
+      <c r="BM34">
+        <v>2.33</v>
+      </c>
+      <c r="BN34">
+        <v>1.5</v>
+      </c>
+      <c r="BO34">
+        <v>3.05</v>
+      </c>
+      <c r="BP34">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7478776</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q35">
+        <v>3.25</v>
+      </c>
+      <c r="R35">
+        <v>2.05</v>
+      </c>
+      <c r="S35">
+        <v>3.6</v>
+      </c>
+      <c r="T35">
+        <v>1.5</v>
+      </c>
+      <c r="U35">
+        <v>2.5</v>
+      </c>
+      <c r="V35">
+        <v>3.4</v>
+      </c>
+      <c r="W35">
+        <v>1.3</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>2.45</v>
+      </c>
+      <c r="AA35">
+        <v>3.3</v>
+      </c>
+      <c r="AB35">
+        <v>2.87</v>
+      </c>
+      <c r="AC35">
+        <v>1.07</v>
+      </c>
+      <c r="AD35">
+        <v>8</v>
+      </c>
+      <c r="AE35">
+        <v>1.4</v>
+      </c>
+      <c r="AF35">
+        <v>2.9</v>
+      </c>
+      <c r="AG35">
+        <v>2.1</v>
+      </c>
+      <c r="AH35">
+        <v>1.67</v>
+      </c>
+      <c r="AI35">
+        <v>1.91</v>
+      </c>
+      <c r="AJ35">
+        <v>1.8</v>
+      </c>
+      <c r="AK35">
+        <v>1.4</v>
+      </c>
+      <c r="AL35">
+        <v>1.28</v>
+      </c>
+      <c r="AM35">
+        <v>1.5</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>1.5</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>0.95</v>
+      </c>
+      <c r="AS35">
+        <v>1.04</v>
+      </c>
+      <c r="AT35">
+        <v>1.99</v>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>6</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>3</v>
+      </c>
+      <c r="AY35">
+        <v>8</v>
+      </c>
+      <c r="AZ35">
+        <v>9</v>
+      </c>
+      <c r="BA35">
+        <v>2</v>
+      </c>
+      <c r="BB35">
+        <v>5</v>
+      </c>
+      <c r="BC35">
+        <v>7</v>
+      </c>
+      <c r="BD35">
+        <v>1.9</v>
+      </c>
+      <c r="BE35">
+        <v>6.75</v>
+      </c>
+      <c r="BF35">
+        <v>2.08</v>
+      </c>
+      <c r="BG35">
+        <v>1.2</v>
+      </c>
+      <c r="BH35">
+        <v>3.9</v>
+      </c>
+      <c r="BI35">
+        <v>1.36</v>
+      </c>
+      <c r="BJ35">
+        <v>2.8</v>
+      </c>
+      <c r="BK35">
+        <v>1.6</v>
+      </c>
+      <c r="BL35">
+        <v>2.17</v>
+      </c>
+      <c r="BM35">
+        <v>1.95</v>
+      </c>
+      <c r="BN35">
+        <v>1.75</v>
+      </c>
+      <c r="BO35">
+        <v>2.43</v>
+      </c>
+      <c r="BP35">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7478773</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>123</v>
+      </c>
+      <c r="P36" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q36">
+        <v>3.25</v>
+      </c>
+      <c r="R36">
+        <v>2.25</v>
+      </c>
+      <c r="S36">
+        <v>3.1</v>
+      </c>
+      <c r="T36">
+        <v>1.33</v>
+      </c>
+      <c r="U36">
+        <v>3.25</v>
+      </c>
+      <c r="V36">
+        <v>2.63</v>
+      </c>
+      <c r="W36">
+        <v>1.44</v>
+      </c>
+      <c r="X36">
+        <v>7</v>
+      </c>
+      <c r="Y36">
+        <v>1.1</v>
+      </c>
+      <c r="Z36">
+        <v>2.7</v>
+      </c>
+      <c r="AA36">
+        <v>3.4</v>
+      </c>
+      <c r="AB36">
+        <v>2.5</v>
+      </c>
+      <c r="AC36">
+        <v>1.05</v>
+      </c>
+      <c r="AD36">
+        <v>9.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.25</v>
+      </c>
+      <c r="AF36">
+        <v>3.9</v>
+      </c>
+      <c r="AG36">
+        <v>1.78</v>
+      </c>
+      <c r="AH36">
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <v>1.57</v>
+      </c>
+      <c r="AJ36">
+        <v>2.25</v>
+      </c>
+      <c r="AK36">
+        <v>1.5</v>
+      </c>
+      <c r="AL36">
+        <v>1.28</v>
+      </c>
+      <c r="AM36">
+        <v>1.42</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>1.57</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>1.57</v>
+      </c>
+      <c r="AU36">
+        <v>6</v>
+      </c>
+      <c r="AV36">
+        <v>5</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>7</v>
+      </c>
+      <c r="AZ36">
+        <v>9</v>
+      </c>
+      <c r="BA36">
+        <v>1</v>
+      </c>
+      <c r="BB36">
+        <v>5</v>
+      </c>
+      <c r="BC36">
+        <v>6</v>
+      </c>
+      <c r="BD36">
+        <v>1.95</v>
+      </c>
+      <c r="BE36">
+        <v>7</v>
+      </c>
+      <c r="BF36">
+        <v>1.98</v>
+      </c>
+      <c r="BG36">
+        <v>1.14</v>
+      </c>
+      <c r="BH36">
+        <v>4.8</v>
+      </c>
+      <c r="BI36">
+        <v>1.25</v>
+      </c>
+      <c r="BJ36">
+        <v>3.4</v>
+      </c>
+      <c r="BK36">
+        <v>1.43</v>
+      </c>
+      <c r="BL36">
+        <v>2.55</v>
+      </c>
+      <c r="BM36">
+        <v>1.68</v>
+      </c>
+      <c r="BN36">
+        <v>2.04</v>
+      </c>
+      <c r="BO36">
+        <v>2.04</v>
+      </c>
+      <c r="BP36">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,9 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -449,6 +452,9 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1075,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1275,7 +1281,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1481,7 +1487,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1893,7 +1899,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2305,7 +2311,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2511,7 +2517,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2717,7 +2723,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3335,7 +3341,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3541,7 +3547,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4365,7 +4371,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4855,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -4983,7 +4989,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5189,7 +5195,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5476,7 +5482,7 @@
         <v>3</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5601,7 +5607,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6013,7 +6019,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6312,31 +6318,31 @@
         <v>2.53</v>
       </c>
       <c r="AU27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD27">
         <v>1.44</v>
@@ -6425,7 +6431,7 @@
         <v>115</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6518,31 +6524,31 @@
         <v>2.16</v>
       </c>
       <c r="AU28">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY28">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ28">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA28">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC28">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD28">
         <v>1.45</v>
@@ -6631,7 +6637,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6724,31 +6730,31 @@
         <v>2.62</v>
       </c>
       <c r="AU29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD29">
         <v>1.85</v>
@@ -6837,7 +6843,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7043,7 +7049,7 @@
         <v>118</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7661,7 +7667,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7867,7 +7873,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8073,7 +8079,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8230,6 +8236,212 @@
       </c>
       <c r="BP36">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7478778</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45529.45833333334</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>124</v>
+      </c>
+      <c r="P37" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37">
+        <v>2.5</v>
+      </c>
+      <c r="R37">
+        <v>2.2</v>
+      </c>
+      <c r="S37">
+        <v>4.33</v>
+      </c>
+      <c r="T37">
+        <v>1.36</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>2.75</v>
+      </c>
+      <c r="W37">
+        <v>1.4</v>
+      </c>
+      <c r="X37">
+        <v>7</v>
+      </c>
+      <c r="Y37">
+        <v>1.1</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>3.6</v>
+      </c>
+      <c r="AB37">
+        <v>3.7</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE37">
+        <v>1.26</v>
+      </c>
+      <c r="AF37">
+        <v>3.34</v>
+      </c>
+      <c r="AG37">
+        <v>1.85</v>
+      </c>
+      <c r="AH37">
+        <v>1.85</v>
+      </c>
+      <c r="AI37">
+        <v>1.73</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>1.25</v>
+      </c>
+      <c r="AL37">
+        <v>1.3</v>
+      </c>
+      <c r="AM37">
+        <v>1.88</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>2</v>
+      </c>
+      <c r="AQ37">
+        <v>0.5</v>
+      </c>
+      <c r="AR37">
+        <v>1.5</v>
+      </c>
+      <c r="AS37">
+        <v>1.17</v>
+      </c>
+      <c r="AT37">
+        <v>2.67</v>
+      </c>
+      <c r="AU37">
+        <v>5</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>3</v>
+      </c>
+      <c r="AY37">
+        <v>9</v>
+      </c>
+      <c r="AZ37">
+        <v>7</v>
+      </c>
+      <c r="BA37">
+        <v>2</v>
+      </c>
+      <c r="BB37">
+        <v>5</v>
+      </c>
+      <c r="BC37">
+        <v>7</v>
+      </c>
+      <c r="BD37">
+        <v>1.56</v>
+      </c>
+      <c r="BE37">
+        <v>7</v>
+      </c>
+      <c r="BF37">
+        <v>2.65</v>
+      </c>
+      <c r="BG37">
+        <v>1.2</v>
+      </c>
+      <c r="BH37">
+        <v>3.9</v>
+      </c>
+      <c r="BI37">
+        <v>1.37</v>
+      </c>
+      <c r="BJ37">
+        <v>2.8</v>
+      </c>
+      <c r="BK37">
+        <v>1.61</v>
+      </c>
+      <c r="BL37">
+        <v>2.15</v>
+      </c>
+      <c r="BM37">
+        <v>1.96</v>
+      </c>
+      <c r="BN37">
+        <v>1.74</v>
+      </c>
+      <c r="BO37">
+        <v>2.48</v>
+      </c>
+      <c r="BP37">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -455,6 +458,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['59', '62']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1081,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1281,7 +1287,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1487,7 +1493,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1899,7 +1905,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2311,7 +2317,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2517,7 +2523,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2723,7 +2729,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3341,7 +3347,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3547,7 +3553,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4371,7 +4377,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4452,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4989,7 +4995,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5195,7 +5201,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5607,7 +5613,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6019,7 +6025,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6431,7 +6437,7 @@
         <v>115</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6637,7 +6643,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6843,7 +6849,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7049,7 +7055,7 @@
         <v>118</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7667,7 +7673,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7873,7 +7879,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8079,7 +8085,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8285,7 +8291,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8442,6 +8448,212 @@
       </c>
       <c r="BP37">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7478785</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q38">
+        <v>2.4</v>
+      </c>
+      <c r="R38">
+        <v>2.25</v>
+      </c>
+      <c r="S38">
+        <v>4.5</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2.63</v>
+      </c>
+      <c r="W38">
+        <v>1.44</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>1.1</v>
+      </c>
+      <c r="Z38">
+        <v>1.8</v>
+      </c>
+      <c r="AA38">
+        <v>3.55</v>
+      </c>
+      <c r="AB38">
+        <v>4.4</v>
+      </c>
+      <c r="AC38">
+        <v>1.05</v>
+      </c>
+      <c r="AD38">
+        <v>9.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.25</v>
+      </c>
+      <c r="AF38">
+        <v>3.7</v>
+      </c>
+      <c r="AG38">
+        <v>1.85</v>
+      </c>
+      <c r="AH38">
+        <v>1.94</v>
+      </c>
+      <c r="AI38">
+        <v>1.73</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>1.22</v>
+      </c>
+      <c r="AL38">
+        <v>1.22</v>
+      </c>
+      <c r="AM38">
+        <v>1.95</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1.01</v>
+      </c>
+      <c r="AS38">
+        <v>1.03</v>
+      </c>
+      <c r="AT38">
+        <v>2.04</v>
+      </c>
+      <c r="AU38">
+        <v>6</v>
+      </c>
+      <c r="AV38">
+        <v>5</v>
+      </c>
+      <c r="AW38">
+        <v>2</v>
+      </c>
+      <c r="AX38">
+        <v>2</v>
+      </c>
+      <c r="AY38">
+        <v>8</v>
+      </c>
+      <c r="AZ38">
+        <v>7</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>5</v>
+      </c>
+      <c r="BC38">
+        <v>9</v>
+      </c>
+      <c r="BD38">
+        <v>1.47</v>
+      </c>
+      <c r="BE38">
+        <v>7</v>
+      </c>
+      <c r="BF38">
+        <v>2.95</v>
+      </c>
+      <c r="BG38">
+        <v>1.13</v>
+      </c>
+      <c r="BH38">
+        <v>4.99</v>
+      </c>
+      <c r="BI38">
+        <v>1.3</v>
+      </c>
+      <c r="BJ38">
+        <v>3.28</v>
+      </c>
+      <c r="BK38">
+        <v>1.55</v>
+      </c>
+      <c r="BL38">
+        <v>2.4</v>
+      </c>
+      <c r="BM38">
+        <v>1.9</v>
+      </c>
+      <c r="BN38">
+        <v>1.9</v>
+      </c>
+      <c r="BO38">
+        <v>2.38</v>
+      </c>
+      <c r="BP38">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,21 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['58', '71', '88']</t>
+  </si>
+  <si>
+    <t>['63', '81']</t>
+  </si>
+  <si>
+    <t>['28', '60', '89']</t>
+  </si>
+  <si>
+    <t>['20', '53', '71']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -461,6 +476,21 @@
   </si>
   <si>
     <t>['59', '62']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['55', '82']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['31', '51', '56']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1111,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1287,7 +1317,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1493,7 +1523,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1780,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1905,7 +1935,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1983,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -2317,7 +2347,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2395,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2523,7 +2553,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2604,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2729,7 +2759,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3347,7 +3377,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3553,7 +3583,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3631,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3837,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4046,7 +4076,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4249,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4377,7 +4407,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4664,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4995,7 +5025,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5201,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5485,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -5613,7 +5643,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5691,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6025,7 +6055,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6437,7 +6467,7 @@
         <v>115</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6643,7 +6673,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6849,7 +6879,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7055,7 +7085,7 @@
         <v>118</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7673,7 +7703,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7879,7 +7909,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8085,7 +8115,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8291,7 +8321,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8497,7 +8527,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8654,6 +8684,2066 @@
       </c>
       <c r="BP38">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7478780</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q39">
+        <v>2.4</v>
+      </c>
+      <c r="R39">
+        <v>2.3</v>
+      </c>
+      <c r="S39">
+        <v>4.5</v>
+      </c>
+      <c r="T39">
+        <v>1.33</v>
+      </c>
+      <c r="U39">
+        <v>3.25</v>
+      </c>
+      <c r="V39">
+        <v>2.63</v>
+      </c>
+      <c r="W39">
+        <v>1.44</v>
+      </c>
+      <c r="X39">
+        <v>6.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.11</v>
+      </c>
+      <c r="Z39">
+        <v>1.61</v>
+      </c>
+      <c r="AA39">
+        <v>4</v>
+      </c>
+      <c r="AB39">
+        <v>5.5</v>
+      </c>
+      <c r="AC39">
+        <v>1.02</v>
+      </c>
+      <c r="AD39">
+        <v>10.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.22</v>
+      </c>
+      <c r="AF39">
+        <v>3.66</v>
+      </c>
+      <c r="AG39">
+        <v>1.72</v>
+      </c>
+      <c r="AH39">
+        <v>2.1</v>
+      </c>
+      <c r="AI39">
+        <v>1.67</v>
+      </c>
+      <c r="AJ39">
+        <v>2.1</v>
+      </c>
+      <c r="AK39">
+        <v>1.24</v>
+      </c>
+      <c r="AL39">
+        <v>1.27</v>
+      </c>
+      <c r="AM39">
+        <v>1.99</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>2</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1.03</v>
+      </c>
+      <c r="AS39">
+        <v>0.89</v>
+      </c>
+      <c r="AT39">
+        <v>1.92</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>9</v>
+      </c>
+      <c r="AX39">
+        <v>6</v>
+      </c>
+      <c r="AY39">
+        <v>13</v>
+      </c>
+      <c r="AZ39">
+        <v>10</v>
+      </c>
+      <c r="BA39">
+        <v>9</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>9</v>
+      </c>
+      <c r="BD39">
+        <v>1.57</v>
+      </c>
+      <c r="BE39">
+        <v>6.75</v>
+      </c>
+      <c r="BF39">
+        <v>2.65</v>
+      </c>
+      <c r="BG39">
+        <v>1.21</v>
+      </c>
+      <c r="BH39">
+        <v>3.8</v>
+      </c>
+      <c r="BI39">
+        <v>1.37</v>
+      </c>
+      <c r="BJ39">
+        <v>2.8</v>
+      </c>
+      <c r="BK39">
+        <v>1.63</v>
+      </c>
+      <c r="BL39">
+        <v>2.12</v>
+      </c>
+      <c r="BM39">
+        <v>1.97</v>
+      </c>
+      <c r="BN39">
+        <v>1.73</v>
+      </c>
+      <c r="BO39">
+        <v>2.48</v>
+      </c>
+      <c r="BP39">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7478781</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q40">
+        <v>4.5</v>
+      </c>
+      <c r="R40">
+        <v>2.2</v>
+      </c>
+      <c r="S40">
+        <v>2.5</v>
+      </c>
+      <c r="T40">
+        <v>1.36</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2.75</v>
+      </c>
+      <c r="W40">
+        <v>1.4</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>3.6</v>
+      </c>
+      <c r="AA40">
+        <v>3.6</v>
+      </c>
+      <c r="AB40">
+        <v>1.98</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE40">
+        <v>1.24</v>
+      </c>
+      <c r="AF40">
+        <v>3.5</v>
+      </c>
+      <c r="AG40">
+        <v>1.88</v>
+      </c>
+      <c r="AH40">
+        <v>1.98</v>
+      </c>
+      <c r="AI40">
+        <v>1.73</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>1.91</v>
+      </c>
+      <c r="AL40">
+        <v>1.28</v>
+      </c>
+      <c r="AM40">
+        <v>1.26</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>1.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.28</v>
+      </c>
+      <c r="AS40">
+        <v>1.88</v>
+      </c>
+      <c r="AT40">
+        <v>3.16</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>5</v>
+      </c>
+      <c r="AX40">
+        <v>4</v>
+      </c>
+      <c r="AY40">
+        <v>9</v>
+      </c>
+      <c r="AZ40">
+        <v>10</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>5</v>
+      </c>
+      <c r="BC40">
+        <v>9</v>
+      </c>
+      <c r="BD40">
+        <v>2.65</v>
+      </c>
+      <c r="BE40">
+        <v>6.75</v>
+      </c>
+      <c r="BF40">
+        <v>1.57</v>
+      </c>
+      <c r="BG40">
+        <v>1.29</v>
+      </c>
+      <c r="BH40">
+        <v>3.15</v>
+      </c>
+      <c r="BI40">
+        <v>1.5</v>
+      </c>
+      <c r="BJ40">
+        <v>2.38</v>
+      </c>
+      <c r="BK40">
+        <v>1.83</v>
+      </c>
+      <c r="BL40">
+        <v>1.85</v>
+      </c>
+      <c r="BM40">
+        <v>2.3</v>
+      </c>
+      <c r="BN40">
+        <v>1.54</v>
+      </c>
+      <c r="BO40">
+        <v>2.95</v>
+      </c>
+      <c r="BP40">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7478782</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q41">
+        <v>2.4</v>
+      </c>
+      <c r="R41">
+        <v>2.3</v>
+      </c>
+      <c r="S41">
+        <v>4.33</v>
+      </c>
+      <c r="T41">
+        <v>1.33</v>
+      </c>
+      <c r="U41">
+        <v>3.25</v>
+      </c>
+      <c r="V41">
+        <v>2.5</v>
+      </c>
+      <c r="W41">
+        <v>1.5</v>
+      </c>
+      <c r="X41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>1.13</v>
+      </c>
+      <c r="Z41">
+        <v>1.87</v>
+      </c>
+      <c r="AA41">
+        <v>3.7</v>
+      </c>
+      <c r="AB41">
+        <v>4</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>11</v>
+      </c>
+      <c r="AE41">
+        <v>1.18</v>
+      </c>
+      <c r="AF41">
+        <v>4.05</v>
+      </c>
+      <c r="AG41">
+        <v>1.71</v>
+      </c>
+      <c r="AH41">
+        <v>2.12</v>
+      </c>
+      <c r="AI41">
+        <v>1.62</v>
+      </c>
+      <c r="AJ41">
+        <v>2.2</v>
+      </c>
+      <c r="AK41">
+        <v>1.22</v>
+      </c>
+      <c r="AL41">
+        <v>1.22</v>
+      </c>
+      <c r="AM41">
+        <v>1.91</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>1.5</v>
+      </c>
+      <c r="AQ41">
+        <v>1.5</v>
+      </c>
+      <c r="AR41">
+        <v>2.58</v>
+      </c>
+      <c r="AS41">
+        <v>0.87</v>
+      </c>
+      <c r="AT41">
+        <v>3.45</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>2</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>11</v>
+      </c>
+      <c r="AZ41">
+        <v>5</v>
+      </c>
+      <c r="BA41">
+        <v>6</v>
+      </c>
+      <c r="BB41">
+        <v>3</v>
+      </c>
+      <c r="BC41">
+        <v>9</v>
+      </c>
+      <c r="BD41">
+        <v>1.61</v>
+      </c>
+      <c r="BE41">
+        <v>6.75</v>
+      </c>
+      <c r="BF41">
+        <v>2.55</v>
+      </c>
+      <c r="BG41">
+        <v>1.15</v>
+      </c>
+      <c r="BH41">
+        <v>4.4</v>
+      </c>
+      <c r="BI41">
+        <v>1.3</v>
+      </c>
+      <c r="BJ41">
+        <v>3.15</v>
+      </c>
+      <c r="BK41">
+        <v>1.5</v>
+      </c>
+      <c r="BL41">
+        <v>2.4</v>
+      </c>
+      <c r="BM41">
+        <v>1.8</v>
+      </c>
+      <c r="BN41">
+        <v>1.89</v>
+      </c>
+      <c r="BO41">
+        <v>2.23</v>
+      </c>
+      <c r="BP41">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7478791</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>126</v>
+      </c>
+      <c r="P42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q42">
+        <v>2.5</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>4.5</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>2.75</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1.36</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>1.8</v>
+      </c>
+      <c r="AA42">
+        <v>3.6</v>
+      </c>
+      <c r="AB42">
+        <v>4.5</v>
+      </c>
+      <c r="AC42">
+        <v>1.02</v>
+      </c>
+      <c r="AD42">
+        <v>8.9</v>
+      </c>
+      <c r="AE42">
+        <v>1.28</v>
+      </c>
+      <c r="AF42">
+        <v>3.22</v>
+      </c>
+      <c r="AG42">
+        <v>2.08</v>
+      </c>
+      <c r="AH42">
+        <v>1.73</v>
+      </c>
+      <c r="AI42">
+        <v>1.8</v>
+      </c>
+      <c r="AJ42">
+        <v>1.91</v>
+      </c>
+      <c r="AK42">
+        <v>1.23</v>
+      </c>
+      <c r="AL42">
+        <v>1.28</v>
+      </c>
+      <c r="AM42">
+        <v>1.94</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>2</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS42">
+        <v>0.62</v>
+      </c>
+      <c r="AT42">
+        <v>1.43</v>
+      </c>
+      <c r="AU42">
+        <v>6</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>10</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
+        <v>3</v>
+      </c>
+      <c r="BA42">
+        <v>6</v>
+      </c>
+      <c r="BB42">
+        <v>7</v>
+      </c>
+      <c r="BC42">
+        <v>13</v>
+      </c>
+      <c r="BD42">
+        <v>1.4</v>
+      </c>
+      <c r="BE42">
+        <v>7.5</v>
+      </c>
+      <c r="BF42">
+        <v>3.2</v>
+      </c>
+      <c r="BG42">
+        <v>1.17</v>
+      </c>
+      <c r="BH42">
+        <v>4.35</v>
+      </c>
+      <c r="BI42">
+        <v>1.3</v>
+      </c>
+      <c r="BJ42">
+        <v>3.05</v>
+      </c>
+      <c r="BK42">
+        <v>1.52</v>
+      </c>
+      <c r="BL42">
+        <v>2.33</v>
+      </c>
+      <c r="BM42">
+        <v>1.82</v>
+      </c>
+      <c r="BN42">
+        <v>1.86</v>
+      </c>
+      <c r="BO42">
+        <v>2.23</v>
+      </c>
+      <c r="BP42">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7478789</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>101</v>
+      </c>
+      <c r="P43" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q43">
+        <v>4.33</v>
+      </c>
+      <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
+        <v>2.6</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
+        <v>2.75</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>3</v>
+      </c>
+      <c r="AA43">
+        <v>3.5</v>
+      </c>
+      <c r="AB43">
+        <v>2.25</v>
+      </c>
+      <c r="AC43">
+        <v>1.02</v>
+      </c>
+      <c r="AD43">
+        <v>9.1</v>
+      </c>
+      <c r="AE43">
+        <v>1.27</v>
+      </c>
+      <c r="AF43">
+        <v>3.28</v>
+      </c>
+      <c r="AG43">
+        <v>1.88</v>
+      </c>
+      <c r="AH43">
+        <v>1.92</v>
+      </c>
+      <c r="AI43">
+        <v>1.8</v>
+      </c>
+      <c r="AJ43">
+        <v>1.91</v>
+      </c>
+      <c r="AK43">
+        <v>1.85</v>
+      </c>
+      <c r="AL43">
+        <v>1.29</v>
+      </c>
+      <c r="AM43">
+        <v>1.27</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>0.5</v>
+      </c>
+      <c r="AQ43">
+        <v>3</v>
+      </c>
+      <c r="AR43">
+        <v>1.59</v>
+      </c>
+      <c r="AS43">
+        <v>1.13</v>
+      </c>
+      <c r="AT43">
+        <v>2.72</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>5</v>
+      </c>
+      <c r="AW43">
+        <v>2</v>
+      </c>
+      <c r="AX43">
+        <v>3</v>
+      </c>
+      <c r="AY43">
+        <v>5</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>2.4</v>
+      </c>
+      <c r="BE43">
+        <v>6.75</v>
+      </c>
+      <c r="BF43">
+        <v>1.68</v>
+      </c>
+      <c r="BG43">
+        <v>1.24</v>
+      </c>
+      <c r="BH43">
+        <v>3.55</v>
+      </c>
+      <c r="BI43">
+        <v>1.44</v>
+      </c>
+      <c r="BJ43">
+        <v>2.55</v>
+      </c>
+      <c r="BK43">
+        <v>1.72</v>
+      </c>
+      <c r="BL43">
+        <v>1.98</v>
+      </c>
+      <c r="BM43">
+        <v>2.1</v>
+      </c>
+      <c r="BN43">
+        <v>1.64</v>
+      </c>
+      <c r="BO43">
+        <v>2.65</v>
+      </c>
+      <c r="BP43">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7478788</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>95</v>
+      </c>
+      <c r="P44" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q44">
+        <v>3.6</v>
+      </c>
+      <c r="R44">
+        <v>2.3</v>
+      </c>
+      <c r="S44">
+        <v>2.75</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
+        <v>2.63</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>6.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.11</v>
+      </c>
+      <c r="Z44">
+        <v>3.2</v>
+      </c>
+      <c r="AA44">
+        <v>3.5</v>
+      </c>
+      <c r="AB44">
+        <v>2.2</v>
+      </c>
+      <c r="AC44">
+        <v>1.05</v>
+      </c>
+      <c r="AD44">
+        <v>9.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.22</v>
+      </c>
+      <c r="AF44">
+        <v>4</v>
+      </c>
+      <c r="AG44">
+        <v>1.72</v>
+      </c>
+      <c r="AH44">
+        <v>2.1</v>
+      </c>
+      <c r="AI44">
+        <v>1.57</v>
+      </c>
+      <c r="AJ44">
+        <v>2.25</v>
+      </c>
+      <c r="AK44">
+        <v>1.6</v>
+      </c>
+      <c r="AL44">
+        <v>1.3</v>
+      </c>
+      <c r="AM44">
+        <v>1.32</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0.5</v>
+      </c>
+      <c r="AQ44">
+        <v>1.5</v>
+      </c>
+      <c r="AR44">
+        <v>1.62</v>
+      </c>
+      <c r="AS44">
+        <v>1.07</v>
+      </c>
+      <c r="AT44">
+        <v>2.69</v>
+      </c>
+      <c r="AU44">
+        <v>8</v>
+      </c>
+      <c r="AV44">
+        <v>8</v>
+      </c>
+      <c r="AW44">
+        <v>5</v>
+      </c>
+      <c r="AX44">
+        <v>2</v>
+      </c>
+      <c r="AY44">
+        <v>13</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>10</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>14</v>
+      </c>
+      <c r="BD44">
+        <v>2</v>
+      </c>
+      <c r="BE44">
+        <v>7</v>
+      </c>
+      <c r="BF44">
+        <v>1.95</v>
+      </c>
+      <c r="BG44">
+        <v>1.14</v>
+      </c>
+      <c r="BH44">
+        <v>4.8</v>
+      </c>
+      <c r="BI44">
+        <v>1.26</v>
+      </c>
+      <c r="BJ44">
+        <v>3.4</v>
+      </c>
+      <c r="BK44">
+        <v>1.44</v>
+      </c>
+      <c r="BL44">
+        <v>2.55</v>
+      </c>
+      <c r="BM44">
+        <v>1.7</v>
+      </c>
+      <c r="BN44">
+        <v>2.02</v>
+      </c>
+      <c r="BO44">
+        <v>2.06</v>
+      </c>
+      <c r="BP44">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7478786</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>127</v>
+      </c>
+      <c r="P45" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q45">
+        <v>3.1</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
+        <v>3.6</v>
+      </c>
+      <c r="T45">
+        <v>1.44</v>
+      </c>
+      <c r="U45">
+        <v>2.63</v>
+      </c>
+      <c r="V45">
+        <v>3.25</v>
+      </c>
+      <c r="W45">
+        <v>1.33</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45">
+        <v>1.06</v>
+      </c>
+      <c r="Z45">
+        <v>2.3</v>
+      </c>
+      <c r="AA45">
+        <v>3.3</v>
+      </c>
+      <c r="AB45">
+        <v>3</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>8</v>
+      </c>
+      <c r="AE45">
+        <v>1.36</v>
+      </c>
+      <c r="AF45">
+        <v>2.9</v>
+      </c>
+      <c r="AG45">
+        <v>2.08</v>
+      </c>
+      <c r="AH45">
+        <v>1.74</v>
+      </c>
+      <c r="AI45">
+        <v>1.83</v>
+      </c>
+      <c r="AJ45">
+        <v>1.83</v>
+      </c>
+      <c r="AK45">
+        <v>1.4</v>
+      </c>
+      <c r="AL45">
+        <v>1.25</v>
+      </c>
+      <c r="AM45">
+        <v>1.57</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>1.5</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>1.47</v>
+      </c>
+      <c r="AS45">
+        <v>0.95</v>
+      </c>
+      <c r="AT45">
+        <v>2.42</v>
+      </c>
+      <c r="AU45">
+        <v>5</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>8</v>
+      </c>
+      <c r="AX45">
+        <v>1</v>
+      </c>
+      <c r="AY45">
+        <v>13</v>
+      </c>
+      <c r="AZ45">
+        <v>3</v>
+      </c>
+      <c r="BA45">
+        <v>6</v>
+      </c>
+      <c r="BB45">
+        <v>6</v>
+      </c>
+      <c r="BC45">
+        <v>12</v>
+      </c>
+      <c r="BD45">
+        <v>2.07</v>
+      </c>
+      <c r="BE45">
+        <v>6.75</v>
+      </c>
+      <c r="BF45">
+        <v>1.9</v>
+      </c>
+      <c r="BG45">
+        <v>1.2</v>
+      </c>
+      <c r="BH45">
+        <v>3.9</v>
+      </c>
+      <c r="BI45">
+        <v>1.36</v>
+      </c>
+      <c r="BJ45">
+        <v>2.8</v>
+      </c>
+      <c r="BK45">
+        <v>1.61</v>
+      </c>
+      <c r="BL45">
+        <v>2.15</v>
+      </c>
+      <c r="BM45">
+        <v>1.96</v>
+      </c>
+      <c r="BN45">
+        <v>1.74</v>
+      </c>
+      <c r="BO45">
+        <v>2.43</v>
+      </c>
+      <c r="BP45">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7478784</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>128</v>
+      </c>
+      <c r="P46" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q46">
+        <v>1.83</v>
+      </c>
+      <c r="R46">
+        <v>2.5</v>
+      </c>
+      <c r="S46">
+        <v>7</v>
+      </c>
+      <c r="T46">
+        <v>1.3</v>
+      </c>
+      <c r="U46">
+        <v>3.4</v>
+      </c>
+      <c r="V46">
+        <v>2.5</v>
+      </c>
+      <c r="W46">
+        <v>1.5</v>
+      </c>
+      <c r="X46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>1.13</v>
+      </c>
+      <c r="Z46">
+        <v>1.39</v>
+      </c>
+      <c r="AA46">
+        <v>4.5</v>
+      </c>
+      <c r="AB46">
+        <v>9</v>
+      </c>
+      <c r="AC46">
+        <v>1.03</v>
+      </c>
+      <c r="AD46">
+        <v>16.75</v>
+      </c>
+      <c r="AE46">
+        <v>1.21</v>
+      </c>
+      <c r="AF46">
+        <v>4.52</v>
+      </c>
+      <c r="AG46">
+        <v>1.72</v>
+      </c>
+      <c r="AH46">
+        <v>2</v>
+      </c>
+      <c r="AI46">
+        <v>1.83</v>
+      </c>
+      <c r="AJ46">
+        <v>1.83</v>
+      </c>
+      <c r="AK46">
+        <v>1.11</v>
+      </c>
+      <c r="AL46">
+        <v>1.18</v>
+      </c>
+      <c r="AM46">
+        <v>2.95</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>0.5</v>
+      </c>
+      <c r="AR46">
+        <v>2.31</v>
+      </c>
+      <c r="AS46">
+        <v>1.03</v>
+      </c>
+      <c r="AT46">
+        <v>3.34</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>4</v>
+      </c>
+      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
+        <v>10</v>
+      </c>
+      <c r="AZ46">
+        <v>7</v>
+      </c>
+      <c r="BA46">
+        <v>8</v>
+      </c>
+      <c r="BB46">
+        <v>7</v>
+      </c>
+      <c r="BC46">
+        <v>15</v>
+      </c>
+      <c r="BD46">
+        <v>1.3</v>
+      </c>
+      <c r="BE46">
+        <v>7.5</v>
+      </c>
+      <c r="BF46">
+        <v>3.8</v>
+      </c>
+      <c r="BG46">
+        <v>1.24</v>
+      </c>
+      <c r="BH46">
+        <v>3.55</v>
+      </c>
+      <c r="BI46">
+        <v>1.44</v>
+      </c>
+      <c r="BJ46">
+        <v>2.55</v>
+      </c>
+      <c r="BK46">
+        <v>1.72</v>
+      </c>
+      <c r="BL46">
+        <v>1.98</v>
+      </c>
+      <c r="BM46">
+        <v>2.1</v>
+      </c>
+      <c r="BN46">
+        <v>1.63</v>
+      </c>
+      <c r="BO46">
+        <v>2.65</v>
+      </c>
+      <c r="BP46">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7478783</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>129</v>
+      </c>
+      <c r="P47" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47">
+        <v>3.5</v>
+      </c>
+      <c r="R47">
+        <v>2.1</v>
+      </c>
+      <c r="S47">
+        <v>3.1</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47">
+        <v>2.75</v>
+      </c>
+      <c r="V47">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>1.36</v>
+      </c>
+      <c r="X47">
+        <v>8</v>
+      </c>
+      <c r="Y47">
+        <v>1.08</v>
+      </c>
+      <c r="Z47">
+        <v>2.3</v>
+      </c>
+      <c r="AA47">
+        <v>3.5</v>
+      </c>
+      <c r="AB47">
+        <v>3</v>
+      </c>
+      <c r="AC47">
+        <v>1.04</v>
+      </c>
+      <c r="AD47">
+        <v>7.8</v>
+      </c>
+      <c r="AE47">
+        <v>1.28</v>
+      </c>
+      <c r="AF47">
+        <v>3.3</v>
+      </c>
+      <c r="AG47">
+        <v>1.94</v>
+      </c>
+      <c r="AH47">
+        <v>1.86</v>
+      </c>
+      <c r="AI47">
+        <v>1.73</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>1.49</v>
+      </c>
+      <c r="AL47">
+        <v>1.28</v>
+      </c>
+      <c r="AM47">
+        <v>1.44</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>3</v>
+      </c>
+      <c r="AQ47">
+        <v>0.5</v>
+      </c>
+      <c r="AR47">
+        <v>0.68</v>
+      </c>
+      <c r="AS47">
+        <v>1.5</v>
+      </c>
+      <c r="AT47">
+        <v>2.18</v>
+      </c>
+      <c r="AU47">
+        <v>8</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>3</v>
+      </c>
+      <c r="AY47">
+        <v>15</v>
+      </c>
+      <c r="AZ47">
+        <v>9</v>
+      </c>
+      <c r="BA47">
+        <v>6</v>
+      </c>
+      <c r="BB47">
+        <v>9</v>
+      </c>
+      <c r="BC47">
+        <v>15</v>
+      </c>
+      <c r="BD47">
+        <v>2</v>
+      </c>
+      <c r="BE47">
+        <v>6.5</v>
+      </c>
+      <c r="BF47">
+        <v>1.97</v>
+      </c>
+      <c r="BG47">
+        <v>1.22</v>
+      </c>
+      <c r="BH47">
+        <v>3.7</v>
+      </c>
+      <c r="BI47">
+        <v>1.4</v>
+      </c>
+      <c r="BJ47">
+        <v>2.7</v>
+      </c>
+      <c r="BK47">
+        <v>1.65</v>
+      </c>
+      <c r="BL47">
+        <v>2.08</v>
+      </c>
+      <c r="BM47">
+        <v>2</v>
+      </c>
+      <c r="BN47">
+        <v>1.71</v>
+      </c>
+      <c r="BO47">
+        <v>2.55</v>
+      </c>
+      <c r="BP47">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7478787</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>130</v>
+      </c>
+      <c r="P48" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>3.6</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48">
+        <v>2.75</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>1.36</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>2.45</v>
+      </c>
+      <c r="AA48">
+        <v>3.3</v>
+      </c>
+      <c r="AB48">
+        <v>2.85</v>
+      </c>
+      <c r="AC48">
+        <v>1.02</v>
+      </c>
+      <c r="AD48">
+        <v>8.6</v>
+      </c>
+      <c r="AE48">
+        <v>1.3</v>
+      </c>
+      <c r="AF48">
+        <v>3.1</v>
+      </c>
+      <c r="AG48">
+        <v>2.02</v>
+      </c>
+      <c r="AH48">
+        <v>1.78</v>
+      </c>
+      <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
+        <v>1.91</v>
+      </c>
+      <c r="AK48">
+        <v>1.38</v>
+      </c>
+      <c r="AL48">
+        <v>1.3</v>
+      </c>
+      <c r="AM48">
+        <v>1.52</v>
+      </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>3</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>1.23</v>
+      </c>
+      <c r="AS48">
+        <v>0.74</v>
+      </c>
+      <c r="AT48">
+        <v>1.97</v>
+      </c>
+      <c r="AU48">
+        <v>6</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>5</v>
+      </c>
+      <c r="AY48">
+        <v>9</v>
+      </c>
+      <c r="AZ48">
+        <v>10</v>
+      </c>
+      <c r="BA48">
+        <v>2</v>
+      </c>
+      <c r="BB48">
+        <v>5</v>
+      </c>
+      <c r="BC48">
+        <v>7</v>
+      </c>
+      <c r="BD48">
+        <v>1.68</v>
+      </c>
+      <c r="BE48">
+        <v>6.75</v>
+      </c>
+      <c r="BF48">
+        <v>2.4</v>
+      </c>
+      <c r="BG48">
+        <v>1.29</v>
+      </c>
+      <c r="BH48">
+        <v>3.15</v>
+      </c>
+      <c r="BI48">
+        <v>1.5</v>
+      </c>
+      <c r="BJ48">
+        <v>2.35</v>
+      </c>
+      <c r="BK48">
+        <v>1.82</v>
+      </c>
+      <c r="BL48">
+        <v>1.86</v>
+      </c>
+      <c r="BM48">
+        <v>2.3</v>
+      </c>
+      <c r="BN48">
+        <v>1.54</v>
+      </c>
+      <c r="BO48">
+        <v>2.95</v>
+      </c>
+      <c r="BP48">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,9 @@
     <t>['20', '53', '71']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -458,9 +461,6 @@
   </si>
   <si>
     <t>['2', '25']</t>
-  </si>
-  <si>
-    <t>['2']</t>
   </si>
   <si>
     <t>['44']</t>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1111,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1317,7 +1317,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1523,7 +1523,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1935,7 +1935,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2016,7 +2016,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2553,7 +2553,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2759,7 +2759,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3377,7 +3377,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3583,7 +3583,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4407,7 +4407,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5025,7 +5025,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5231,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5643,7 +5643,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6055,7 +6055,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6467,7 +6467,7 @@
         <v>115</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6673,7 +6673,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6879,7 +6879,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7085,7 +7085,7 @@
         <v>118</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -10744,6 +10744,212 @@
       </c>
       <c r="BP48">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7478790</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q49">
+        <v>2.38</v>
+      </c>
+      <c r="R49">
+        <v>2.3</v>
+      </c>
+      <c r="S49">
+        <v>4.5</v>
+      </c>
+      <c r="T49">
+        <v>1.33</v>
+      </c>
+      <c r="U49">
+        <v>3.25</v>
+      </c>
+      <c r="V49">
+        <v>2.63</v>
+      </c>
+      <c r="W49">
+        <v>1.44</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.1</v>
+      </c>
+      <c r="Z49">
+        <v>1.76</v>
+      </c>
+      <c r="AA49">
+        <v>3.8</v>
+      </c>
+      <c r="AB49">
+        <v>4.35</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>10.25</v>
+      </c>
+      <c r="AE49">
+        <v>1.22</v>
+      </c>
+      <c r="AF49">
+        <v>3.66</v>
+      </c>
+      <c r="AG49">
+        <v>1.82</v>
+      </c>
+      <c r="AH49">
+        <v>1.98</v>
+      </c>
+      <c r="AI49">
+        <v>1.73</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <v>1.13</v>
+      </c>
+      <c r="AL49">
+        <v>1.2</v>
+      </c>
+      <c r="AM49">
+        <v>2.14</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>3</v>
+      </c>
+      <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
+        <v>1.5</v>
+      </c>
+      <c r="AR49">
+        <v>1.17</v>
+      </c>
+      <c r="AS49">
+        <v>1.04</v>
+      </c>
+      <c r="AT49">
+        <v>2.21</v>
+      </c>
+      <c r="AU49">
+        <v>8</v>
+      </c>
+      <c r="AV49">
+        <v>2</v>
+      </c>
+      <c r="AW49">
+        <v>6</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>14</v>
+      </c>
+      <c r="AZ49">
+        <v>6</v>
+      </c>
+      <c r="BA49">
+        <v>8</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>13</v>
+      </c>
+      <c r="BD49">
+        <v>1.46</v>
+      </c>
+      <c r="BE49">
+        <v>7</v>
+      </c>
+      <c r="BF49">
+        <v>3.15</v>
+      </c>
+      <c r="BG49">
+        <v>1.2</v>
+      </c>
+      <c r="BH49">
+        <v>3.9</v>
+      </c>
+      <c r="BI49">
+        <v>1.36</v>
+      </c>
+      <c r="BJ49">
+        <v>2.8</v>
+      </c>
+      <c r="BK49">
+        <v>1.58</v>
+      </c>
+      <c r="BL49">
+        <v>2.18</v>
+      </c>
+      <c r="BM49">
+        <v>1.94</v>
+      </c>
+      <c r="BN49">
+        <v>1.76</v>
+      </c>
+      <c r="BO49">
+        <v>2.4</v>
+      </c>
+      <c r="BP49">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['15', '66']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1401,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2631,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -6339,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -8196,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -10950,6 +10953,212 @@
       </c>
       <c r="BP49">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7478794</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45548.66666666666</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>95</v>
+      </c>
+      <c r="P50" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q50">
+        <v>3.75</v>
+      </c>
+      <c r="R50">
+        <v>2.2</v>
+      </c>
+      <c r="S50">
+        <v>2.75</v>
+      </c>
+      <c r="T50">
+        <v>1.36</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>2.75</v>
+      </c>
+      <c r="W50">
+        <v>1.4</v>
+      </c>
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>3.4</v>
+      </c>
+      <c r="AA50">
+        <v>3.4</v>
+      </c>
+      <c r="AB50">
+        <v>2.1</v>
+      </c>
+      <c r="AC50">
+        <v>1.03</v>
+      </c>
+      <c r="AD50">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>1.25</v>
+      </c>
+      <c r="AF50">
+        <v>3.6</v>
+      </c>
+      <c r="AG50">
+        <v>1.91</v>
+      </c>
+      <c r="AH50">
+        <v>1.91</v>
+      </c>
+      <c r="AI50">
+        <v>1.67</v>
+      </c>
+      <c r="AJ50">
+        <v>2.1</v>
+      </c>
+      <c r="AK50">
+        <v>1.75</v>
+      </c>
+      <c r="AL50">
+        <v>1.26</v>
+      </c>
+      <c r="AM50">
+        <v>1.33</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>0.67</v>
+      </c>
+      <c r="AQ50">
+        <v>2.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.4</v>
+      </c>
+      <c r="AS50">
+        <v>1.3</v>
+      </c>
+      <c r="AT50">
+        <v>2.7</v>
+      </c>
+      <c r="AU50">
+        <v>3</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>9</v>
+      </c>
+      <c r="AZ50">
+        <v>8</v>
+      </c>
+      <c r="BA50">
+        <v>16</v>
+      </c>
+      <c r="BB50">
+        <v>3</v>
+      </c>
+      <c r="BC50">
+        <v>19</v>
+      </c>
+      <c r="BD50">
+        <v>2.18</v>
+      </c>
+      <c r="BE50">
+        <v>6.75</v>
+      </c>
+      <c r="BF50">
+        <v>1.8</v>
+      </c>
+      <c r="BG50">
+        <v>1.19</v>
+      </c>
+      <c r="BH50">
+        <v>4</v>
+      </c>
+      <c r="BI50">
+        <v>1.34</v>
+      </c>
+      <c r="BJ50">
+        <v>2.9</v>
+      </c>
+      <c r="BK50">
+        <v>1.56</v>
+      </c>
+      <c r="BL50">
+        <v>2.23</v>
+      </c>
+      <c r="BM50">
+        <v>1.89</v>
+      </c>
+      <c r="BN50">
+        <v>1.8</v>
+      </c>
+      <c r="BO50">
+        <v>2.35</v>
+      </c>
+      <c r="BP50">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,27 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['54', '73', '90+3']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['17', '55', '70']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -454,9 +475,6 @@
     <t>['24', '48']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['76']</t>
   </si>
   <si>
@@ -494,6 +512,15 @@
   </si>
   <si>
     <t>['15', '66']</t>
+  </si>
+  <si>
+    <t>['24', '86']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['43']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1141,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1320,7 +1347,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1526,7 +1553,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1813,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1938,7 +1965,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2016,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2225,7 +2252,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2350,7 +2377,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2428,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2556,7 +2583,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2637,7 +2664,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2762,7 +2789,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2843,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3046,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3252,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3380,7 +3407,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3461,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3586,7 +3613,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4285,7 +4312,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4410,7 +4437,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4491,7 +4518,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4694,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4900,10 +4927,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5028,7 +5055,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5234,7 +5261,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5521,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5646,7 +5673,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5724,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -6058,7 +6085,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6136,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6470,7 +6497,7 @@
         <v>115</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6676,7 +6703,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6757,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -6882,7 +6909,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6960,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7166,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7375,7 +7402,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -7581,7 +7608,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -7706,7 +7733,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7912,7 +7939,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8118,7 +8145,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8324,7 +8351,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8402,10 +8429,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8530,7 +8557,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8611,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.01</v>
@@ -8736,7 +8763,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -8942,7 +8969,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9148,7 +9175,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9229,7 +9256,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9560,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9641,7 +9668,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -9766,7 +9793,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9844,10 +9871,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10050,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10256,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -10465,7 +10492,7 @@
         <v>3</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -10671,7 +10698,7 @@
         <v>3</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11002,7 +11029,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11159,6 +11186,2066 @@
       </c>
       <c r="BP50">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7478795</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45549.35416666666</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>95</v>
+      </c>
+      <c r="P51" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q51">
+        <v>2.3</v>
+      </c>
+      <c r="R51">
+        <v>2.25</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>1.36</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>7</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>1.67</v>
+      </c>
+      <c r="AA51">
+        <v>3.85</v>
+      </c>
+      <c r="AB51">
+        <v>4.7</v>
+      </c>
+      <c r="AC51">
+        <v>1.04</v>
+      </c>
+      <c r="AD51">
+        <v>13</v>
+      </c>
+      <c r="AE51">
+        <v>1.28</v>
+      </c>
+      <c r="AF51">
+        <v>3.75</v>
+      </c>
+      <c r="AG51">
+        <v>1.8</v>
+      </c>
+      <c r="AH51">
+        <v>1.9</v>
+      </c>
+      <c r="AI51">
+        <v>1.83</v>
+      </c>
+      <c r="AJ51">
+        <v>1.83</v>
+      </c>
+      <c r="AK51">
+        <v>1.18</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>2.2</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>1.5</v>
+      </c>
+      <c r="AP51">
+        <v>1.33</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>1.83</v>
+      </c>
+      <c r="AS51">
+        <v>0.98</v>
+      </c>
+      <c r="AT51">
+        <v>2.81</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>8</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>13</v>
+      </c>
+      <c r="AZ51">
+        <v>7</v>
+      </c>
+      <c r="BA51">
+        <v>9</v>
+      </c>
+      <c r="BB51">
+        <v>3</v>
+      </c>
+      <c r="BC51">
+        <v>12</v>
+      </c>
+      <c r="BD51">
+        <v>1.44</v>
+      </c>
+      <c r="BE51">
+        <v>7</v>
+      </c>
+      <c r="BF51">
+        <v>3.15</v>
+      </c>
+      <c r="BG51">
+        <v>1.24</v>
+      </c>
+      <c r="BH51">
+        <v>3.55</v>
+      </c>
+      <c r="BI51">
+        <v>1.41</v>
+      </c>
+      <c r="BJ51">
+        <v>2.65</v>
+      </c>
+      <c r="BK51">
+        <v>1.68</v>
+      </c>
+      <c r="BL51">
+        <v>2.04</v>
+      </c>
+      <c r="BM51">
+        <v>2.06</v>
+      </c>
+      <c r="BN51">
+        <v>1.66</v>
+      </c>
+      <c r="BO51">
+        <v>2.55</v>
+      </c>
+      <c r="BP51">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7478797</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45549.35416666666</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>95</v>
+      </c>
+      <c r="P52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q52">
+        <v>3.25</v>
+      </c>
+      <c r="R52">
+        <v>2.1</v>
+      </c>
+      <c r="S52">
+        <v>3.4</v>
+      </c>
+      <c r="T52">
+        <v>1.44</v>
+      </c>
+      <c r="U52">
+        <v>2.63</v>
+      </c>
+      <c r="V52">
+        <v>3.25</v>
+      </c>
+      <c r="W52">
+        <v>1.33</v>
+      </c>
+      <c r="X52">
+        <v>9</v>
+      </c>
+      <c r="Y52">
+        <v>1.07</v>
+      </c>
+      <c r="Z52">
+        <v>2.65</v>
+      </c>
+      <c r="AA52">
+        <v>3.25</v>
+      </c>
+      <c r="AB52">
+        <v>2.65</v>
+      </c>
+      <c r="AC52">
+        <v>1.06</v>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52">
+        <v>1.35</v>
+      </c>
+      <c r="AF52">
+        <v>3.25</v>
+      </c>
+      <c r="AG52">
+        <v>2.02</v>
+      </c>
+      <c r="AH52">
+        <v>1.79</v>
+      </c>
+      <c r="AI52">
+        <v>1.8</v>
+      </c>
+      <c r="AJ52">
+        <v>1.91</v>
+      </c>
+      <c r="AK52">
+        <v>1.48</v>
+      </c>
+      <c r="AL52">
+        <v>1.28</v>
+      </c>
+      <c r="AM52">
+        <v>1.53</v>
+      </c>
+      <c r="AN52">
+        <v>1.5</v>
+      </c>
+      <c r="AO52">
+        <v>0.5</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>1.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.45</v>
+      </c>
+      <c r="AS52">
+        <v>1.31</v>
+      </c>
+      <c r="AT52">
+        <v>2.76</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>7</v>
+      </c>
+      <c r="AW52">
+        <v>5</v>
+      </c>
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>9</v>
+      </c>
+      <c r="AZ52">
+        <v>10</v>
+      </c>
+      <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>10</v>
+      </c>
+      <c r="BD52">
+        <v>2.4</v>
+      </c>
+      <c r="BE52">
+        <v>6.75</v>
+      </c>
+      <c r="BF52">
+        <v>1.67</v>
+      </c>
+      <c r="BG52">
+        <v>1.19</v>
+      </c>
+      <c r="BH52">
+        <v>4.1</v>
+      </c>
+      <c r="BI52">
+        <v>1.34</v>
+      </c>
+      <c r="BJ52">
+        <v>2.9</v>
+      </c>
+      <c r="BK52">
+        <v>1.55</v>
+      </c>
+      <c r="BL52">
+        <v>2.25</v>
+      </c>
+      <c r="BM52">
+        <v>1.9</v>
+      </c>
+      <c r="BN52">
+        <v>1.79</v>
+      </c>
+      <c r="BO52">
+        <v>2.35</v>
+      </c>
+      <c r="BP52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7478798</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45549.35416666666</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>132</v>
+      </c>
+      <c r="P53" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q53">
+        <v>3.6</v>
+      </c>
+      <c r="R53">
+        <v>2.2</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
+      </c>
+      <c r="T53">
+        <v>1.4</v>
+      </c>
+      <c r="U53">
+        <v>2.75</v>
+      </c>
+      <c r="V53">
+        <v>2.75</v>
+      </c>
+      <c r="W53">
+        <v>1.4</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1.08</v>
+      </c>
+      <c r="Z53">
+        <v>3.1</v>
+      </c>
+      <c r="AA53">
+        <v>3.35</v>
+      </c>
+      <c r="AB53">
+        <v>2.25</v>
+      </c>
+      <c r="AC53">
+        <v>1.06</v>
+      </c>
+      <c r="AD53">
+        <v>10</v>
+      </c>
+      <c r="AE53">
+        <v>1.33</v>
+      </c>
+      <c r="AF53">
+        <v>3.4</v>
+      </c>
+      <c r="AG53">
+        <v>1.92</v>
+      </c>
+      <c r="AH53">
+        <v>1.88</v>
+      </c>
+      <c r="AI53">
+        <v>1.73</v>
+      </c>
+      <c r="AJ53">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>1.63</v>
+      </c>
+      <c r="AL53">
+        <v>1.28</v>
+      </c>
+      <c r="AM53">
+        <v>1.38</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>1.5</v>
+      </c>
+      <c r="AP53">
+        <v>3</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1.18</v>
+      </c>
+      <c r="AS53">
+        <v>1.29</v>
+      </c>
+      <c r="AT53">
+        <v>2.47</v>
+      </c>
+      <c r="AU53">
+        <v>9</v>
+      </c>
+      <c r="AV53">
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>3</v>
+      </c>
+      <c r="AY53">
+        <v>11</v>
+      </c>
+      <c r="AZ53">
+        <v>5</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>6</v>
+      </c>
+      <c r="BC53">
+        <v>10</v>
+      </c>
+      <c r="BD53">
+        <v>2.07</v>
+      </c>
+      <c r="BE53">
+        <v>6.4</v>
+      </c>
+      <c r="BF53">
+        <v>1.93</v>
+      </c>
+      <c r="BG53">
+        <v>1.24</v>
+      </c>
+      <c r="BH53">
+        <v>3.55</v>
+      </c>
+      <c r="BI53">
+        <v>1.44</v>
+      </c>
+      <c r="BJ53">
+        <v>2.55</v>
+      </c>
+      <c r="BK53">
+        <v>1.71</v>
+      </c>
+      <c r="BL53">
+        <v>2</v>
+      </c>
+      <c r="BM53">
+        <v>2.1</v>
+      </c>
+      <c r="BN53">
+        <v>1.63</v>
+      </c>
+      <c r="BO53">
+        <v>2.65</v>
+      </c>
+      <c r="BP53">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7478793</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q54">
+        <v>3.1</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>3.6</v>
+      </c>
+      <c r="T54">
+        <v>1.44</v>
+      </c>
+      <c r="U54">
+        <v>2.63</v>
+      </c>
+      <c r="V54">
+        <v>3.25</v>
+      </c>
+      <c r="W54">
+        <v>1.33</v>
+      </c>
+      <c r="X54">
+        <v>9</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>2.35</v>
+      </c>
+      <c r="AA54">
+        <v>3.3</v>
+      </c>
+      <c r="AB54">
+        <v>3</v>
+      </c>
+      <c r="AC54">
+        <v>1.06</v>
+      </c>
+      <c r="AD54">
+        <v>10</v>
+      </c>
+      <c r="AE54">
+        <v>1.36</v>
+      </c>
+      <c r="AF54">
+        <v>3.2</v>
+      </c>
+      <c r="AG54">
+        <v>2.02</v>
+      </c>
+      <c r="AH54">
+        <v>1.8</v>
+      </c>
+      <c r="AI54">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54">
+        <v>1.91</v>
+      </c>
+      <c r="AK54">
+        <v>1.4</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.6</v>
+      </c>
+      <c r="AN54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>0.5</v>
+      </c>
+      <c r="AP54">
+        <v>3</v>
+      </c>
+      <c r="AQ54">
+        <v>0.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.24</v>
+      </c>
+      <c r="AS54">
+        <v>1.07</v>
+      </c>
+      <c r="AT54">
+        <v>2.31</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>5</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>9</v>
+      </c>
+      <c r="AZ54">
+        <v>9</v>
+      </c>
+      <c r="BA54">
+        <v>7</v>
+      </c>
+      <c r="BB54">
+        <v>6</v>
+      </c>
+      <c r="BC54">
+        <v>13</v>
+      </c>
+      <c r="BD54">
+        <v>1.82</v>
+      </c>
+      <c r="BE54">
+        <v>6.5</v>
+      </c>
+      <c r="BF54">
+        <v>2.18</v>
+      </c>
+      <c r="BG54">
+        <v>1.26</v>
+      </c>
+      <c r="BH54">
+        <v>3.4</v>
+      </c>
+      <c r="BI54">
+        <v>1.46</v>
+      </c>
+      <c r="BJ54">
+        <v>2.48</v>
+      </c>
+      <c r="BK54">
+        <v>1.75</v>
+      </c>
+      <c r="BL54">
+        <v>1.95</v>
+      </c>
+      <c r="BM54">
+        <v>2.18</v>
+      </c>
+      <c r="BN54">
+        <v>1.58</v>
+      </c>
+      <c r="BO54">
+        <v>2.8</v>
+      </c>
+      <c r="BP54">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7478803</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>134</v>
+      </c>
+      <c r="P55" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q55">
+        <v>3.2</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>3.2</v>
+      </c>
+      <c r="T55">
+        <v>1.36</v>
+      </c>
+      <c r="U55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>2.63</v>
+      </c>
+      <c r="W55">
+        <v>1.44</v>
+      </c>
+      <c r="X55">
+        <v>7</v>
+      </c>
+      <c r="Y55">
+        <v>1.1</v>
+      </c>
+      <c r="Z55">
+        <v>2.6</v>
+      </c>
+      <c r="AA55">
+        <v>3.35</v>
+      </c>
+      <c r="AB55">
+        <v>2.65</v>
+      </c>
+      <c r="AC55">
+        <v>1.04</v>
+      </c>
+      <c r="AD55">
+        <v>13</v>
+      </c>
+      <c r="AE55">
+        <v>1.28</v>
+      </c>
+      <c r="AF55">
+        <v>3.75</v>
+      </c>
+      <c r="AG55">
+        <v>1.75</v>
+      </c>
+      <c r="AH55">
+        <v>1.95</v>
+      </c>
+      <c r="AI55">
+        <v>1.62</v>
+      </c>
+      <c r="AJ55">
+        <v>2.2</v>
+      </c>
+      <c r="AK55">
+        <v>1.53</v>
+      </c>
+      <c r="AL55">
+        <v>1.26</v>
+      </c>
+      <c r="AM55">
+        <v>1.5</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>0.5</v>
+      </c>
+      <c r="AP55">
+        <v>2.33</v>
+      </c>
+      <c r="AQ55">
+        <v>0.67</v>
+      </c>
+      <c r="AR55">
+        <v>1.71</v>
+      </c>
+      <c r="AS55">
+        <v>0.85</v>
+      </c>
+      <c r="AT55">
+        <v>2.56</v>
+      </c>
+      <c r="AU55">
+        <v>7</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55">
+        <v>8</v>
+      </c>
+      <c r="AX55">
+        <v>7</v>
+      </c>
+      <c r="AY55">
+        <v>15</v>
+      </c>
+      <c r="AZ55">
+        <v>13</v>
+      </c>
+      <c r="BA55">
+        <v>6</v>
+      </c>
+      <c r="BB55">
+        <v>10</v>
+      </c>
+      <c r="BC55">
+        <v>16</v>
+      </c>
+      <c r="BD55">
+        <v>1.98</v>
+      </c>
+      <c r="BE55">
+        <v>6.75</v>
+      </c>
+      <c r="BF55">
+        <v>1.98</v>
+      </c>
+      <c r="BG55">
+        <v>1.19</v>
+      </c>
+      <c r="BH55">
+        <v>4.1</v>
+      </c>
+      <c r="BI55">
+        <v>1.33</v>
+      </c>
+      <c r="BJ55">
+        <v>2.95</v>
+      </c>
+      <c r="BK55">
+        <v>1.55</v>
+      </c>
+      <c r="BL55">
+        <v>2.25</v>
+      </c>
+      <c r="BM55">
+        <v>1.88</v>
+      </c>
+      <c r="BN55">
+        <v>1.81</v>
+      </c>
+      <c r="BO55">
+        <v>2.32</v>
+      </c>
+      <c r="BP55">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7478799</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56" t="s">
+        <v>135</v>
+      </c>
+      <c r="P56" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q56">
+        <v>4.5</v>
+      </c>
+      <c r="R56">
+        <v>2.25</v>
+      </c>
+      <c r="S56">
+        <v>2.4</v>
+      </c>
+      <c r="T56">
+        <v>1.33</v>
+      </c>
+      <c r="U56">
+        <v>3.25</v>
+      </c>
+      <c r="V56">
+        <v>2.63</v>
+      </c>
+      <c r="W56">
+        <v>1.44</v>
+      </c>
+      <c r="X56">
+        <v>7</v>
+      </c>
+      <c r="Y56">
+        <v>1.1</v>
+      </c>
+      <c r="Z56">
+        <v>4.3</v>
+      </c>
+      <c r="AA56">
+        <v>3.75</v>
+      </c>
+      <c r="AB56">
+        <v>1.77</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>10.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.2</v>
+      </c>
+      <c r="AF56">
+        <v>3.88</v>
+      </c>
+      <c r="AG56">
+        <v>1.75</v>
+      </c>
+      <c r="AH56">
+        <v>1.95</v>
+      </c>
+      <c r="AI56">
+        <v>1.67</v>
+      </c>
+      <c r="AJ56">
+        <v>2.1</v>
+      </c>
+      <c r="AK56">
+        <v>2</v>
+      </c>
+      <c r="AL56">
+        <v>1.24</v>
+      </c>
+      <c r="AM56">
+        <v>1.22</v>
+      </c>
+      <c r="AN56">
+        <v>0.5</v>
+      </c>
+      <c r="AO56">
+        <v>3</v>
+      </c>
+      <c r="AP56">
+        <v>1.33</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>1.63</v>
+      </c>
+      <c r="AS56">
+        <v>1.14</v>
+      </c>
+      <c r="AT56">
+        <v>2.77</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>8</v>
+      </c>
+      <c r="AW56">
+        <v>4</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>11</v>
+      </c>
+      <c r="AZ56">
+        <v>14</v>
+      </c>
+      <c r="BA56">
+        <v>3</v>
+      </c>
+      <c r="BB56">
+        <v>5</v>
+      </c>
+      <c r="BC56">
+        <v>8</v>
+      </c>
+      <c r="BD56">
+        <v>2.95</v>
+      </c>
+      <c r="BE56">
+        <v>7.5</v>
+      </c>
+      <c r="BF56">
+        <v>1.45</v>
+      </c>
+      <c r="BG56">
+        <v>1.11</v>
+      </c>
+      <c r="BH56">
+        <v>5.3</v>
+      </c>
+      <c r="BI56">
+        <v>1.21</v>
+      </c>
+      <c r="BJ56">
+        <v>3.8</v>
+      </c>
+      <c r="BK56">
+        <v>1.37</v>
+      </c>
+      <c r="BL56">
+        <v>2.8</v>
+      </c>
+      <c r="BM56">
+        <v>1.6</v>
+      </c>
+      <c r="BN56">
+        <v>2.17</v>
+      </c>
+      <c r="BO56">
+        <v>1.92</v>
+      </c>
+      <c r="BP56">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7478801</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>136</v>
+      </c>
+      <c r="P57" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>2.1</v>
+      </c>
+      <c r="S57">
+        <v>3.75</v>
+      </c>
+      <c r="T57">
+        <v>1.44</v>
+      </c>
+      <c r="U57">
+        <v>2.63</v>
+      </c>
+      <c r="V57">
+        <v>3.25</v>
+      </c>
+      <c r="W57">
+        <v>1.33</v>
+      </c>
+      <c r="X57">
+        <v>9</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>2.3</v>
+      </c>
+      <c r="AA57">
+        <v>3.25</v>
+      </c>
+      <c r="AB57">
+        <v>3.1</v>
+      </c>
+      <c r="AC57">
+        <v>1.07</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.33</v>
+      </c>
+      <c r="AF57">
+        <v>3.3</v>
+      </c>
+      <c r="AG57">
+        <v>2.01</v>
+      </c>
+      <c r="AH57">
+        <v>1.8</v>
+      </c>
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>1.91</v>
+      </c>
+      <c r="AK57">
+        <v>1.36</v>
+      </c>
+      <c r="AL57">
+        <v>1.28</v>
+      </c>
+      <c r="AM57">
+        <v>1.65</v>
+      </c>
+      <c r="AN57">
+        <v>1.5</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>1.33</v>
+      </c>
+      <c r="AQ57">
+        <v>1.67</v>
+      </c>
+      <c r="AR57">
+        <v>1.82</v>
+      </c>
+      <c r="AS57">
+        <v>1</v>
+      </c>
+      <c r="AT57">
+        <v>2.82</v>
+      </c>
+      <c r="AU57">
+        <v>3</v>
+      </c>
+      <c r="AV57">
+        <v>5</v>
+      </c>
+      <c r="AW57">
+        <v>7</v>
+      </c>
+      <c r="AX57">
+        <v>6</v>
+      </c>
+      <c r="AY57">
+        <v>10</v>
+      </c>
+      <c r="AZ57">
+        <v>11</v>
+      </c>
+      <c r="BA57">
+        <v>11</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>15</v>
+      </c>
+      <c r="BD57">
+        <v>1.7</v>
+      </c>
+      <c r="BE57">
+        <v>6.75</v>
+      </c>
+      <c r="BF57">
+        <v>2.4</v>
+      </c>
+      <c r="BG57">
+        <v>1.2</v>
+      </c>
+      <c r="BH57">
+        <v>3.8</v>
+      </c>
+      <c r="BI57">
+        <v>1.37</v>
+      </c>
+      <c r="BJ57">
+        <v>2.8</v>
+      </c>
+      <c r="BK57">
+        <v>1.61</v>
+      </c>
+      <c r="BL57">
+        <v>2.15</v>
+      </c>
+      <c r="BM57">
+        <v>1.96</v>
+      </c>
+      <c r="BN57">
+        <v>1.73</v>
+      </c>
+      <c r="BO57">
+        <v>2.45</v>
+      </c>
+      <c r="BP57">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7478802</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>137</v>
+      </c>
+      <c r="P58" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>3.5</v>
+      </c>
+      <c r="T58">
+        <v>1.36</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>2.75</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>8</v>
+      </c>
+      <c r="Y58">
+        <v>1.08</v>
+      </c>
+      <c r="Z58">
+        <v>2.35</v>
+      </c>
+      <c r="AA58">
+        <v>3.35</v>
+      </c>
+      <c r="AB58">
+        <v>2.95</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>9.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.25</v>
+      </c>
+      <c r="AF58">
+        <v>3.42</v>
+      </c>
+      <c r="AG58">
+        <v>1.83</v>
+      </c>
+      <c r="AH58">
+        <v>1.97</v>
+      </c>
+      <c r="AI58">
+        <v>1.67</v>
+      </c>
+      <c r="AJ58">
+        <v>2.1</v>
+      </c>
+      <c r="AK58">
+        <v>1.4</v>
+      </c>
+      <c r="AL58">
+        <v>1.28</v>
+      </c>
+      <c r="AM58">
+        <v>1.6</v>
+      </c>
+      <c r="AN58">
+        <v>2</v>
+      </c>
+      <c r="AO58">
+        <v>1.5</v>
+      </c>
+      <c r="AP58">
+        <v>2.33</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.35</v>
+      </c>
+      <c r="AS58">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT58">
+        <v>2.16</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>5</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>9</v>
+      </c>
+      <c r="BA58">
+        <v>4</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+      <c r="BD58">
+        <v>1.7</v>
+      </c>
+      <c r="BE58">
+        <v>6.75</v>
+      </c>
+      <c r="BF58">
+        <v>2.4</v>
+      </c>
+      <c r="BG58">
+        <v>1.23</v>
+      </c>
+      <c r="BH58">
+        <v>3.65</v>
+      </c>
+      <c r="BI58">
+        <v>1.41</v>
+      </c>
+      <c r="BJ58">
+        <v>2.65</v>
+      </c>
+      <c r="BK58">
+        <v>1.67</v>
+      </c>
+      <c r="BL58">
+        <v>2.05</v>
+      </c>
+      <c r="BM58">
+        <v>2.05</v>
+      </c>
+      <c r="BN58">
+        <v>1.67</v>
+      </c>
+      <c r="BO58">
+        <v>2.55</v>
+      </c>
+      <c r="BP58">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7478792</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>138</v>
+      </c>
+      <c r="P59" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q59">
+        <v>2.63</v>
+      </c>
+      <c r="R59">
+        <v>2.2</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2.75</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>8</v>
+      </c>
+      <c r="Y59">
+        <v>1.08</v>
+      </c>
+      <c r="Z59">
+        <v>2.15</v>
+      </c>
+      <c r="AA59">
+        <v>3.4</v>
+      </c>
+      <c r="AB59">
+        <v>3.3</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>12</v>
+      </c>
+      <c r="AE59">
+        <v>1.3</v>
+      </c>
+      <c r="AF59">
+        <v>3.6</v>
+      </c>
+      <c r="AG59">
+        <v>1.86</v>
+      </c>
+      <c r="AH59">
+        <v>1.94</v>
+      </c>
+      <c r="AI59">
+        <v>1.73</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>1.3</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.83</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>0.5</v>
+      </c>
+      <c r="AP59">
+        <v>3</v>
+      </c>
+      <c r="AQ59">
+        <v>0.33</v>
+      </c>
+      <c r="AR59">
+        <v>1.55</v>
+      </c>
+      <c r="AS59">
+        <v>1.44</v>
+      </c>
+      <c r="AT59">
+        <v>2.99</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>2</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>6</v>
+      </c>
+      <c r="AZ59">
+        <v>7</v>
+      </c>
+      <c r="BA59">
+        <v>6</v>
+      </c>
+      <c r="BB59">
+        <v>6</v>
+      </c>
+      <c r="BC59">
+        <v>12</v>
+      </c>
+      <c r="BD59">
+        <v>1.58</v>
+      </c>
+      <c r="BE59">
+        <v>7</v>
+      </c>
+      <c r="BF59">
+        <v>2.55</v>
+      </c>
+      <c r="BG59">
+        <v>1.17</v>
+      </c>
+      <c r="BH59">
+        <v>4.3</v>
+      </c>
+      <c r="BI59">
+        <v>1.3</v>
+      </c>
+      <c r="BJ59">
+        <v>3.05</v>
+      </c>
+      <c r="BK59">
+        <v>1.52</v>
+      </c>
+      <c r="BL59">
+        <v>2.33</v>
+      </c>
+      <c r="BM59">
+        <v>1.81</v>
+      </c>
+      <c r="BN59">
+        <v>1.88</v>
+      </c>
+      <c r="BO59">
+        <v>2.23</v>
+      </c>
+      <c r="BP59">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7478796</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>96</v>
+      </c>
+      <c r="P60" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>2.4</v>
+      </c>
+      <c r="S60">
+        <v>6.5</v>
+      </c>
+      <c r="T60">
+        <v>1.33</v>
+      </c>
+      <c r="U60">
+        <v>3.25</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.11</v>
+      </c>
+      <c r="Z60">
+        <v>1.47</v>
+      </c>
+      <c r="AA60">
+        <v>4.4</v>
+      </c>
+      <c r="AB60">
+        <v>6.5</v>
+      </c>
+      <c r="AC60">
+        <v>1.03</v>
+      </c>
+      <c r="AD60">
+        <v>15</v>
+      </c>
+      <c r="AE60">
+        <v>1.24</v>
+      </c>
+      <c r="AF60">
+        <v>4.2</v>
+      </c>
+      <c r="AG60">
+        <v>1.7</v>
+      </c>
+      <c r="AH60">
+        <v>2</v>
+      </c>
+      <c r="AI60">
+        <v>1.83</v>
+      </c>
+      <c r="AJ60">
+        <v>1.83</v>
+      </c>
+      <c r="AK60">
+        <v>1.1</v>
+      </c>
+      <c r="AL60">
+        <v>1.17</v>
+      </c>
+      <c r="AM60">
+        <v>2.75</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>1.67</v>
+      </c>
+      <c r="AQ60">
+        <v>0.33</v>
+      </c>
+      <c r="AR60">
+        <v>1.85</v>
+      </c>
+      <c r="AS60">
+        <v>1</v>
+      </c>
+      <c r="AT60">
+        <v>2.85</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>6</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>13</v>
+      </c>
+      <c r="AZ60">
+        <v>7</v>
+      </c>
+      <c r="BA60">
+        <v>9</v>
+      </c>
+      <c r="BB60">
+        <v>2</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>1.3</v>
+      </c>
+      <c r="BE60">
+        <v>7.5</v>
+      </c>
+      <c r="BF60">
+        <v>3.8</v>
+      </c>
+      <c r="BG60">
+        <v>1.23</v>
+      </c>
+      <c r="BH60">
+        <v>3.65</v>
+      </c>
+      <c r="BI60">
+        <v>1.41</v>
+      </c>
+      <c r="BJ60">
+        <v>2.65</v>
+      </c>
+      <c r="BK60">
+        <v>1.66</v>
+      </c>
+      <c r="BL60">
+        <v>2.06</v>
+      </c>
+      <c r="BM60">
+        <v>2.04</v>
+      </c>
+      <c r="BN60">
+        <v>1.68</v>
+      </c>
+      <c r="BO60">
+        <v>2.55</v>
+      </c>
+      <c r="BP60">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['1', '51', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4309,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -9665,7 +9668,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -13246,6 +13249,212 @@
       </c>
       <c r="BP60">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7478800</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45550.45833333334</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>95</v>
+      </c>
+      <c r="P61" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q61">
+        <v>4.33</v>
+      </c>
+      <c r="R61">
+        <v>2.2</v>
+      </c>
+      <c r="S61">
+        <v>2.6</v>
+      </c>
+      <c r="T61">
+        <v>1.4</v>
+      </c>
+      <c r="U61">
+        <v>2.75</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>1.36</v>
+      </c>
+      <c r="X61">
+        <v>8</v>
+      </c>
+      <c r="Y61">
+        <v>1.08</v>
+      </c>
+      <c r="Z61">
+        <v>3.5</v>
+      </c>
+      <c r="AA61">
+        <v>3.45</v>
+      </c>
+      <c r="AB61">
+        <v>1.99</v>
+      </c>
+      <c r="AC61">
+        <v>1.03</v>
+      </c>
+      <c r="AD61">
+        <v>9</v>
+      </c>
+      <c r="AE61">
+        <v>1.29</v>
+      </c>
+      <c r="AF61">
+        <v>3.3</v>
+      </c>
+      <c r="AG61">
+        <v>2.01</v>
+      </c>
+      <c r="AH61">
+        <v>1.85</v>
+      </c>
+      <c r="AI61">
+        <v>1.8</v>
+      </c>
+      <c r="AJ61">
+        <v>1.91</v>
+      </c>
+      <c r="AK61">
+        <v>1.87</v>
+      </c>
+      <c r="AL61">
+        <v>1.23</v>
+      </c>
+      <c r="AM61">
+        <v>1.18</v>
+      </c>
+      <c r="AN61">
+        <v>0.5</v>
+      </c>
+      <c r="AO61">
+        <v>3</v>
+      </c>
+      <c r="AP61">
+        <v>0.33</v>
+      </c>
+      <c r="AQ61">
+        <v>3</v>
+      </c>
+      <c r="AR61">
+        <v>1.22</v>
+      </c>
+      <c r="AS61">
+        <v>1.14</v>
+      </c>
+      <c r="AT61">
+        <v>2.36</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>8</v>
+      </c>
+      <c r="AW61">
+        <v>6</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>6</v>
+      </c>
+      <c r="AZ61">
+        <v>15</v>
+      </c>
+      <c r="BA61">
+        <v>10</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>14</v>
+      </c>
+      <c r="BD61">
+        <v>2.18</v>
+      </c>
+      <c r="BE61">
+        <v>6.75</v>
+      </c>
+      <c r="BF61">
+        <v>1.79</v>
+      </c>
+      <c r="BG61">
+        <v>1.21</v>
+      </c>
+      <c r="BH61">
+        <v>3.8</v>
+      </c>
+      <c r="BI61">
+        <v>1.38</v>
+      </c>
+      <c r="BJ61">
+        <v>2.7</v>
+      </c>
+      <c r="BK61">
+        <v>1.64</v>
+      </c>
+      <c r="BL61">
+        <v>2.1</v>
+      </c>
+      <c r="BM61">
+        <v>1.98</v>
+      </c>
+      <c r="BN61">
+        <v>1.72</v>
+      </c>
+      <c r="BO61">
+        <v>2.5</v>
+      </c>
+      <c r="BP61">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,15 @@
     <t>['17', '55', '70']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -524,6 +533,12 @@
   </si>
   <si>
     <t>['1', '51', '90+2']</t>
+  </si>
+  <si>
+    <t>['63', '77', '79']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1159,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1350,7 +1365,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1556,7 +1571,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1634,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ4">
         <v>3</v>
@@ -1968,7 +1983,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2252,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2380,7 +2395,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2586,7 +2601,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2792,7 +2807,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3410,7 +3425,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3616,7 +3631,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4109,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4440,7 +4455,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5058,7 +5073,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5139,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5264,7 +5279,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5676,7 +5691,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5757,7 +5772,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6088,7 +6103,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6375,7 +6390,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6578,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -6706,7 +6721,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6912,7 +6927,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7736,7 +7751,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7942,7 +7957,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8020,7 +8035,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>3</v>
@@ -8148,7 +8163,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8354,7 +8369,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8560,7 +8575,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8766,7 +8781,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -8972,7 +8987,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9053,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9178,7 +9193,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9590,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9796,7 +9811,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10289,7 +10304,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -11032,7 +11047,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12268,7 +12283,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12474,7 +12489,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13092,7 +13107,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13298,7 +13313,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13455,6 +13470,624 @@
       </c>
       <c r="BP61">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7478813</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45555.66666666666</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>139</v>
+      </c>
+      <c r="P62" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q62">
+        <v>2.6</v>
+      </c>
+      <c r="R62">
+        <v>2.1</v>
+      </c>
+      <c r="S62">
+        <v>3.95</v>
+      </c>
+      <c r="T62">
+        <v>1.38</v>
+      </c>
+      <c r="U62">
+        <v>2.8</v>
+      </c>
+      <c r="V62">
+        <v>2.7</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62">
+        <v>6.25</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>2.05</v>
+      </c>
+      <c r="AA62">
+        <v>3.45</v>
+      </c>
+      <c r="AB62">
+        <v>3.5</v>
+      </c>
+      <c r="AC62">
+        <v>1.05</v>
+      </c>
+      <c r="AD62">
+        <v>9</v>
+      </c>
+      <c r="AE62">
+        <v>1.28</v>
+      </c>
+      <c r="AF62">
+        <v>3.5</v>
+      </c>
+      <c r="AG62">
+        <v>1.84</v>
+      </c>
+      <c r="AH62">
+        <v>1.96</v>
+      </c>
+      <c r="AI62">
+        <v>1.7</v>
+      </c>
+      <c r="AJ62">
+        <v>2.05</v>
+      </c>
+      <c r="AK62">
+        <v>1.3</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>1.73</v>
+      </c>
+      <c r="AN62">
+        <v>1.5</v>
+      </c>
+      <c r="AO62">
+        <v>0.5</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>1.33</v>
+      </c>
+      <c r="AR62">
+        <v>0.99</v>
+      </c>
+      <c r="AS62">
+        <v>0.98</v>
+      </c>
+      <c r="AT62">
+        <v>1.97</v>
+      </c>
+      <c r="AU62">
+        <v>3</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>9</v>
+      </c>
+      <c r="AX62">
+        <v>7</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
+        <v>2</v>
+      </c>
+      <c r="BB62">
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62">
+        <v>1.55</v>
+      </c>
+      <c r="BE62">
+        <v>7</v>
+      </c>
+      <c r="BF62">
+        <v>2.65</v>
+      </c>
+      <c r="BG62">
+        <v>1.2</v>
+      </c>
+      <c r="BH62">
+        <v>3.95</v>
+      </c>
+      <c r="BI62">
+        <v>1.35</v>
+      </c>
+      <c r="BJ62">
+        <v>2.9</v>
+      </c>
+      <c r="BK62">
+        <v>1.57</v>
+      </c>
+      <c r="BL62">
+        <v>2.2</v>
+      </c>
+      <c r="BM62">
+        <v>1.91</v>
+      </c>
+      <c r="BN62">
+        <v>1.78</v>
+      </c>
+      <c r="BO62">
+        <v>2.38</v>
+      </c>
+      <c r="BP62">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7478814</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45556.35416666666</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>140</v>
+      </c>
+      <c r="P63" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q63">
+        <v>3.1</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>3.4</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
+        <v>2.45</v>
+      </c>
+      <c r="AA63">
+        <v>3.3</v>
+      </c>
+      <c r="AB63">
+        <v>2.8</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>9</v>
+      </c>
+      <c r="AE63">
+        <v>1.28</v>
+      </c>
+      <c r="AF63">
+        <v>3.5</v>
+      </c>
+      <c r="AG63">
+        <v>1.8</v>
+      </c>
+      <c r="AH63">
+        <v>1.91</v>
+      </c>
+      <c r="AI63">
+        <v>1.67</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.42</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.53</v>
+      </c>
+      <c r="AN63">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>1.5</v>
+      </c>
+      <c r="AP63">
+        <v>3</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1.34</v>
+      </c>
+      <c r="AS63">
+        <v>1.6</v>
+      </c>
+      <c r="AT63">
+        <v>2.94</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63">
+        <v>7</v>
+      </c>
+      <c r="AX63">
+        <v>9</v>
+      </c>
+      <c r="AY63">
+        <v>10</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>5</v>
+      </c>
+      <c r="BC63">
+        <v>8</v>
+      </c>
+      <c r="BD63">
+        <v>1.7</v>
+      </c>
+      <c r="BE63">
+        <v>6.75</v>
+      </c>
+      <c r="BF63">
+        <v>2.38</v>
+      </c>
+      <c r="BG63">
+        <v>1.19</v>
+      </c>
+      <c r="BH63">
+        <v>4.1</v>
+      </c>
+      <c r="BI63">
+        <v>1.33</v>
+      </c>
+      <c r="BJ63">
+        <v>2.95</v>
+      </c>
+      <c r="BK63">
+        <v>1.54</v>
+      </c>
+      <c r="BL63">
+        <v>2.3</v>
+      </c>
+      <c r="BM63">
+        <v>1.86</v>
+      </c>
+      <c r="BN63">
+        <v>1.82</v>
+      </c>
+      <c r="BO63">
+        <v>2.33</v>
+      </c>
+      <c r="BP63">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7478811</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45556.35416666666</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>141</v>
+      </c>
+      <c r="P64" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>1.5</v>
+      </c>
+      <c r="U64">
+        <v>2.5</v>
+      </c>
+      <c r="V64">
+        <v>3.5</v>
+      </c>
+      <c r="W64">
+        <v>1.29</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>2.2</v>
+      </c>
+      <c r="AA64">
+        <v>3.1</v>
+      </c>
+      <c r="AB64">
+        <v>3.6</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>7.2</v>
+      </c>
+      <c r="AE64">
+        <v>1.4</v>
+      </c>
+      <c r="AF64">
+        <v>2.64</v>
+      </c>
+      <c r="AG64">
+        <v>2.1</v>
+      </c>
+      <c r="AH64">
+        <v>1.67</v>
+      </c>
+      <c r="AI64">
+        <v>2</v>
+      </c>
+      <c r="AJ64">
+        <v>1.73</v>
+      </c>
+      <c r="AK64">
+        <v>1.35</v>
+      </c>
+      <c r="AL64">
+        <v>1.35</v>
+      </c>
+      <c r="AM64">
+        <v>1.62</v>
+      </c>
+      <c r="AN64">
+        <v>0.5</v>
+      </c>
+      <c r="AO64">
+        <v>0.5</v>
+      </c>
+      <c r="AP64">
+        <v>0.67</v>
+      </c>
+      <c r="AQ64">
+        <v>0.67</v>
+      </c>
+      <c r="AR64">
+        <v>2.07</v>
+      </c>
+      <c r="AS64">
+        <v>1.41</v>
+      </c>
+      <c r="AT64">
+        <v>3.48</v>
+      </c>
+      <c r="AU64">
+        <v>3</v>
+      </c>
+      <c r="AV64">
+        <v>7</v>
+      </c>
+      <c r="AW64">
+        <v>5</v>
+      </c>
+      <c r="AX64">
+        <v>10</v>
+      </c>
+      <c r="AY64">
+        <v>8</v>
+      </c>
+      <c r="AZ64">
+        <v>17</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>10</v>
+      </c>
+      <c r="BC64">
+        <v>15</v>
+      </c>
+      <c r="BD64">
+        <v>1.49</v>
+      </c>
+      <c r="BE64">
+        <v>7</v>
+      </c>
+      <c r="BF64">
+        <v>2.9</v>
+      </c>
+      <c r="BG64">
+        <v>1.24</v>
+      </c>
+      <c r="BH64">
+        <v>3.55</v>
+      </c>
+      <c r="BI64">
+        <v>1.41</v>
+      </c>
+      <c r="BJ64">
+        <v>2.63</v>
+      </c>
+      <c r="BK64">
+        <v>1.68</v>
+      </c>
+      <c r="BL64">
+        <v>2.04</v>
+      </c>
+      <c r="BM64">
+        <v>2.06</v>
+      </c>
+      <c r="BN64">
+        <v>1.66</v>
+      </c>
+      <c r="BO64">
+        <v>2.55</v>
+      </c>
+      <c r="BP64">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,9 +439,30 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['3', '45+3', '54', '89']</t>
+  </si>
+  <si>
     <t>['40']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['57', '76']</t>
+  </si>
+  <si>
+    <t>['63', '90+4']</t>
+  </si>
+  <si>
+    <t>['77', '88']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -538,7 +559,13 @@
     <t>['63', '77', '79']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['30', '87']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['8', '32']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1186,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1365,7 +1392,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1571,7 +1598,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1983,7 +2010,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2064,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2395,7 +2422,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2476,7 +2503,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2601,7 +2628,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2807,7 +2834,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3094,7 +3121,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3300,7 +3327,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3425,7 +3452,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3503,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3631,7 +3658,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3709,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3915,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4455,7 +4482,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4533,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -5073,7 +5100,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5151,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -5279,7 +5306,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5357,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5563,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23">
         <v>0.33</v>
@@ -5691,7 +5718,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6103,7 +6130,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6184,7 +6211,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -6596,7 +6623,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -6721,7 +6748,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6799,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0.67</v>
@@ -6927,7 +6954,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7008,7 +7035,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7751,7 +7778,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7957,7 +7984,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8163,7 +8190,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8241,7 +8268,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>2.33</v>
@@ -8369,7 +8396,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8575,7 +8602,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8653,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.67</v>
@@ -8781,7 +8808,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -8859,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8987,7 +9014,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9193,7 +9220,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9271,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9477,10 +9504,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -9605,7 +9632,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9811,7 +9838,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10919,10 +10946,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -11047,7 +11074,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12283,7 +12310,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12489,7 +12516,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13107,7 +13134,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13313,7 +13340,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13519,7 +13546,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13824,25 +13851,25 @@
         <v>2</v>
       </c>
       <c r="AW63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX63">
+        <v>6</v>
+      </c>
+      <c r="AY63">
         <v>9</v>
       </c>
-      <c r="AY63">
-        <v>10</v>
-      </c>
       <c r="AZ63">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB63">
         <v>5</v>
       </c>
       <c r="BC63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD63">
         <v>1.7</v>
@@ -13889,7 +13916,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7478811</v>
+        <v>7478809</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13904,190 +13931,1838 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O64" t="s">
         <v>141</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S64">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V64">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="W64">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y64">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z64">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA64">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB64">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AC64">
         <v>1.05</v>
       </c>
       <c r="AD64">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AE64">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AF64">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="AG64">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AH64">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AI64">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AJ64">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AK64">
         <v>1.35</v>
       </c>
       <c r="AL64">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AM64">
         <v>1.62</v>
       </c>
       <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>1.5</v>
+      </c>
+      <c r="AP64">
+        <v>1.67</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1.36</v>
+      </c>
+      <c r="AS64">
+        <v>0.96</v>
+      </c>
+      <c r="AT64">
+        <v>2.32</v>
+      </c>
+      <c r="AU64">
+        <v>9</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>8</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>17</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>5</v>
+      </c>
+      <c r="BC64">
+        <v>8</v>
+      </c>
+      <c r="BD64">
+        <v>1.57</v>
+      </c>
+      <c r="BE64">
+        <v>6.75</v>
+      </c>
+      <c r="BF64">
+        <v>2.65</v>
+      </c>
+      <c r="BG64">
+        <v>1.25</v>
+      </c>
+      <c r="BH64">
+        <v>3.4</v>
+      </c>
+      <c r="BI64">
+        <v>1.44</v>
+      </c>
+      <c r="BJ64">
+        <v>2.55</v>
+      </c>
+      <c r="BK64">
+        <v>1.72</v>
+      </c>
+      <c r="BL64">
+        <v>1.98</v>
+      </c>
+      <c r="BM64">
+        <v>2.12</v>
+      </c>
+      <c r="BN64">
+        <v>1.63</v>
+      </c>
+      <c r="BO64">
+        <v>2.7</v>
+      </c>
+      <c r="BP64">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7478811</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45556.35416666666</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>142</v>
+      </c>
+      <c r="P65" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>1.5</v>
+      </c>
+      <c r="U65">
+        <v>2.5</v>
+      </c>
+      <c r="V65">
+        <v>3.5</v>
+      </c>
+      <c r="W65">
+        <v>1.29</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>2.2</v>
+      </c>
+      <c r="AA65">
+        <v>3.1</v>
+      </c>
+      <c r="AB65">
+        <v>3.6</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>7.2</v>
+      </c>
+      <c r="AE65">
+        <v>1.4</v>
+      </c>
+      <c r="AF65">
+        <v>2.64</v>
+      </c>
+      <c r="AG65">
+        <v>2.1</v>
+      </c>
+      <c r="AH65">
+        <v>1.67</v>
+      </c>
+      <c r="AI65">
+        <v>2</v>
+      </c>
+      <c r="AJ65">
+        <v>1.73</v>
+      </c>
+      <c r="AK65">
+        <v>1.35</v>
+      </c>
+      <c r="AL65">
+        <v>1.35</v>
+      </c>
+      <c r="AM65">
+        <v>1.62</v>
+      </c>
+      <c r="AN65">
         <v>0.5</v>
       </c>
-      <c r="AO64">
+      <c r="AO65">
         <v>0.5</v>
       </c>
-      <c r="AP64">
+      <c r="AP65">
         <v>0.67</v>
       </c>
-      <c r="AQ64">
+      <c r="AQ65">
         <v>0.67</v>
       </c>
-      <c r="AR64">
+      <c r="AR65">
         <v>2.07</v>
       </c>
-      <c r="AS64">
+      <c r="AS65">
         <v>1.41</v>
       </c>
-      <c r="AT64">
+      <c r="AT65">
         <v>3.48</v>
       </c>
-      <c r="AU64">
-        <v>3</v>
-      </c>
-      <c r="AV64">
+      <c r="AU65">
+        <v>3</v>
+      </c>
+      <c r="AV65">
+        <v>6</v>
+      </c>
+      <c r="AW65">
+        <v>1</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>4</v>
+      </c>
+      <c r="AZ65">
+        <v>12</v>
+      </c>
+      <c r="BA65">
+        <v>5</v>
+      </c>
+      <c r="BB65">
+        <v>10</v>
+      </c>
+      <c r="BC65">
+        <v>15</v>
+      </c>
+      <c r="BD65">
+        <v>1.49</v>
+      </c>
+      <c r="BE65">
         <v>7</v>
       </c>
-      <c r="AW64">
+      <c r="BF65">
+        <v>2.9</v>
+      </c>
+      <c r="BG65">
+        <v>1.24</v>
+      </c>
+      <c r="BH65">
+        <v>3.55</v>
+      </c>
+      <c r="BI65">
+        <v>1.41</v>
+      </c>
+      <c r="BJ65">
+        <v>2.63</v>
+      </c>
+      <c r="BK65">
+        <v>1.68</v>
+      </c>
+      <c r="BL65">
+        <v>2.04</v>
+      </c>
+      <c r="BM65">
+        <v>2.06</v>
+      </c>
+      <c r="BN65">
+        <v>1.66</v>
+      </c>
+      <c r="BO65">
+        <v>2.55</v>
+      </c>
+      <c r="BP65">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7478806</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>95</v>
+      </c>
+      <c r="P66" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q66">
+        <v>5.5</v>
+      </c>
+      <c r="R66">
+        <v>2.25</v>
+      </c>
+      <c r="S66">
+        <v>2.25</v>
+      </c>
+      <c r="T66">
+        <v>1.36</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+      <c r="V66">
+        <v>2.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>8</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
         <v>5</v>
       </c>
-      <c r="AX64">
+      <c r="AA66">
+        <v>3.6</v>
+      </c>
+      <c r="AB66">
+        <v>1.7</v>
+      </c>
+      <c r="AC66">
+        <v>1.05</v>
+      </c>
+      <c r="AD66">
+        <v>9.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.28</v>
+      </c>
+      <c r="AF66">
+        <v>3.55</v>
+      </c>
+      <c r="AG66">
+        <v>1.83</v>
+      </c>
+      <c r="AH66">
+        <v>1.85</v>
+      </c>
+      <c r="AI66">
+        <v>1.83</v>
+      </c>
+      <c r="AJ66">
+        <v>1.83</v>
+      </c>
+      <c r="AK66">
+        <v>2.29</v>
+      </c>
+      <c r="AL66">
+        <v>1.25</v>
+      </c>
+      <c r="AM66">
+        <v>1.15</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>2.33</v>
+      </c>
+      <c r="AR66">
+        <v>1.23</v>
+      </c>
+      <c r="AS66">
+        <v>1.08</v>
+      </c>
+      <c r="AT66">
+        <v>2.31</v>
+      </c>
+      <c r="AU66">
+        <v>3</v>
+      </c>
+      <c r="AV66">
+        <v>8</v>
+      </c>
+      <c r="AW66">
+        <v>1</v>
+      </c>
+      <c r="AX66">
+        <v>5</v>
+      </c>
+      <c r="AY66">
+        <v>4</v>
+      </c>
+      <c r="AZ66">
+        <v>13</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
+      <c r="BC66">
+        <v>4</v>
+      </c>
+      <c r="BD66">
+        <v>2.95</v>
+      </c>
+      <c r="BE66">
+        <v>6.75</v>
+      </c>
+      <c r="BF66">
+        <v>1.48</v>
+      </c>
+      <c r="BG66">
+        <v>1.27</v>
+      </c>
+      <c r="BH66">
+        <v>3.3</v>
+      </c>
+      <c r="BI66">
+        <v>1.48</v>
+      </c>
+      <c r="BJ66">
+        <v>2.45</v>
+      </c>
+      <c r="BK66">
+        <v>1.77</v>
+      </c>
+      <c r="BL66">
+        <v>1.92</v>
+      </c>
+      <c r="BM66">
+        <v>2.18</v>
+      </c>
+      <c r="BN66">
+        <v>1.58</v>
+      </c>
+      <c r="BO66">
+        <v>2.8</v>
+      </c>
+      <c r="BP66">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7478815</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>143</v>
+      </c>
+      <c r="P67" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q67">
+        <v>1.91</v>
+      </c>
+      <c r="R67">
+        <v>2.5</v>
+      </c>
+      <c r="S67">
+        <v>6.5</v>
+      </c>
+      <c r="T67">
+        <v>1.29</v>
+      </c>
+      <c r="U67">
+        <v>3.5</v>
+      </c>
+      <c r="V67">
+        <v>2.38</v>
+      </c>
+      <c r="W67">
+        <v>1.53</v>
+      </c>
+      <c r="X67">
+        <v>5.5</v>
+      </c>
+      <c r="Y67">
+        <v>1.14</v>
+      </c>
+      <c r="Z67">
+        <v>1.55</v>
+      </c>
+      <c r="AA67">
+        <v>4</v>
+      </c>
+      <c r="AB67">
+        <v>6</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
         <v>10</v>
       </c>
-      <c r="AY64">
+      <c r="AE67">
+        <v>1.2</v>
+      </c>
+      <c r="AF67">
+        <v>4.5</v>
+      </c>
+      <c r="AG67">
+        <v>1.75</v>
+      </c>
+      <c r="AH67">
+        <v>2</v>
+      </c>
+      <c r="AI67">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67">
+        <v>1.91</v>
+      </c>
+      <c r="AK67">
+        <v>1.08</v>
+      </c>
+      <c r="AL67">
+        <v>1.14</v>
+      </c>
+      <c r="AM67">
+        <v>2.85</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <v>0.5</v>
+      </c>
+      <c r="AP67">
+        <v>2.33</v>
+      </c>
+      <c r="AQ67">
+        <v>0.33</v>
+      </c>
+      <c r="AR67">
+        <v>1.29</v>
+      </c>
+      <c r="AS67">
+        <v>0.63</v>
+      </c>
+      <c r="AT67">
+        <v>1.92</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>9</v>
+      </c>
+      <c r="AX67">
+        <v>7</v>
+      </c>
+      <c r="AY67">
+        <v>14</v>
+      </c>
+      <c r="AZ67">
+        <v>12</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67">
+        <v>1.33</v>
+      </c>
+      <c r="BE67">
         <v>8</v>
       </c>
-      <c r="AZ64">
-        <v>17</v>
-      </c>
-      <c r="BA64">
+      <c r="BF67">
+        <v>3.55</v>
+      </c>
+      <c r="BG67">
+        <v>1.12</v>
+      </c>
+      <c r="BH67">
+        <v>5.1</v>
+      </c>
+      <c r="BI67">
+        <v>1.22</v>
+      </c>
+      <c r="BJ67">
+        <v>3.7</v>
+      </c>
+      <c r="BK67">
+        <v>1.37</v>
+      </c>
+      <c r="BL67">
+        <v>2.8</v>
+      </c>
+      <c r="BM67">
+        <v>1.58</v>
+      </c>
+      <c r="BN67">
+        <v>2.18</v>
+      </c>
+      <c r="BO67">
+        <v>1.92</v>
+      </c>
+      <c r="BP67">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7478804</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>144</v>
+      </c>
+      <c r="P68" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q68">
+        <v>2.38</v>
+      </c>
+      <c r="R68">
+        <v>2.2</v>
+      </c>
+      <c r="S68">
         <v>5</v>
       </c>
-      <c r="BB64">
+      <c r="T68">
+        <v>1.4</v>
+      </c>
+      <c r="U68">
+        <v>2.75</v>
+      </c>
+      <c r="V68">
+        <v>3</v>
+      </c>
+      <c r="W68">
+        <v>1.36</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>1.7</v>
+      </c>
+      <c r="AA68">
+        <v>3.75</v>
+      </c>
+      <c r="AB68">
+        <v>5</v>
+      </c>
+      <c r="AC68">
+        <v>1.03</v>
+      </c>
+      <c r="AD68">
+        <v>8.4</v>
+      </c>
+      <c r="AE68">
+        <v>1.28</v>
+      </c>
+      <c r="AF68">
+        <v>3.22</v>
+      </c>
+      <c r="AG68">
+        <v>1.73</v>
+      </c>
+      <c r="AH68">
+        <v>2</v>
+      </c>
+      <c r="AI68">
+        <v>1.83</v>
+      </c>
+      <c r="AJ68">
+        <v>1.83</v>
+      </c>
+      <c r="AK68">
+        <v>1.18</v>
+      </c>
+      <c r="AL68">
+        <v>1.3</v>
+      </c>
+      <c r="AM68">
+        <v>2.06</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>2.33</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>1.6</v>
+      </c>
+      <c r="AS68">
+        <v>0.89</v>
+      </c>
+      <c r="AT68">
+        <v>2.49</v>
+      </c>
+      <c r="AU68">
+        <v>7</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>15</v>
+      </c>
+      <c r="AZ68">
+        <v>7</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>1</v>
+      </c>
+      <c r="BC68">
+        <v>6</v>
+      </c>
+      <c r="BD68">
+        <v>1.46</v>
+      </c>
+      <c r="BE68">
+        <v>7</v>
+      </c>
+      <c r="BF68">
+        <v>2.95</v>
+      </c>
+      <c r="BG68">
+        <v>1.11</v>
+      </c>
+      <c r="BH68">
+        <v>5.33</v>
+      </c>
+      <c r="BI68">
+        <v>1.27</v>
+      </c>
+      <c r="BJ68">
+        <v>3.46</v>
+      </c>
+      <c r="BK68">
+        <v>1.51</v>
+      </c>
+      <c r="BL68">
+        <v>2.5</v>
+      </c>
+      <c r="BM68">
+        <v>1.82</v>
+      </c>
+      <c r="BN68">
+        <v>1.98</v>
+      </c>
+      <c r="BO68">
+        <v>2.29</v>
+      </c>
+      <c r="BP68">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7478805</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>145</v>
+      </c>
+      <c r="P69" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q69">
+        <v>2.05</v>
+      </c>
+      <c r="R69">
+        <v>2.38</v>
+      </c>
+      <c r="S69">
+        <v>6</v>
+      </c>
+      <c r="T69">
+        <v>1.33</v>
+      </c>
+      <c r="U69">
+        <v>3.25</v>
+      </c>
+      <c r="V69">
+        <v>2.63</v>
+      </c>
+      <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>6.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.11</v>
+      </c>
+      <c r="Z69">
+        <v>1.47</v>
+      </c>
+      <c r="AA69">
+        <v>4.2</v>
+      </c>
+      <c r="AB69">
+        <v>6.5</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
         <v>10</v>
       </c>
-      <c r="BC64">
-        <v>15</v>
-      </c>
-      <c r="BD64">
-        <v>1.49</v>
-      </c>
-      <c r="BE64">
+      <c r="AE69">
+        <v>1.25</v>
+      </c>
+      <c r="AF69">
+        <v>3.9</v>
+      </c>
+      <c r="AG69">
+        <v>1.67</v>
+      </c>
+      <c r="AH69">
+        <v>2.05</v>
+      </c>
+      <c r="AI69">
+        <v>1.83</v>
+      </c>
+      <c r="AJ69">
+        <v>1.83</v>
+      </c>
+      <c r="AK69">
+        <v>1.12</v>
+      </c>
+      <c r="AL69">
+        <v>1.17</v>
+      </c>
+      <c r="AM69">
+        <v>2.5</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>2.33</v>
+      </c>
+      <c r="AQ69">
+        <v>0.67</v>
+      </c>
+      <c r="AR69">
+        <v>1.36</v>
+      </c>
+      <c r="AS69">
+        <v>0.89</v>
+      </c>
+      <c r="AT69">
+        <v>2.25</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
         <v>7</v>
       </c>
-      <c r="BF64">
+      <c r="AX69">
+        <v>2</v>
+      </c>
+      <c r="AY69">
+        <v>12</v>
+      </c>
+      <c r="AZ69">
+        <v>5</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>6</v>
+      </c>
+      <c r="BD69">
+        <v>1.34</v>
+      </c>
+      <c r="BE69">
+        <v>7.5</v>
+      </c>
+      <c r="BF69">
+        <v>3.55</v>
+      </c>
+      <c r="BG69">
+        <v>1.25</v>
+      </c>
+      <c r="BH69">
+        <v>3.45</v>
+      </c>
+      <c r="BI69">
+        <v>1.44</v>
+      </c>
+      <c r="BJ69">
+        <v>2.55</v>
+      </c>
+      <c r="BK69">
+        <v>1.72</v>
+      </c>
+      <c r="BL69">
+        <v>1.98</v>
+      </c>
+      <c r="BM69">
+        <v>2.12</v>
+      </c>
+      <c r="BN69">
+        <v>1.63</v>
+      </c>
+      <c r="BO69">
+        <v>2.65</v>
+      </c>
+      <c r="BP69">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7478808</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>146</v>
+      </c>
+      <c r="P70" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q70">
+        <v>2.5</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>4.33</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.75</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>1.75</v>
+      </c>
+      <c r="AA70">
+        <v>3.5</v>
+      </c>
+      <c r="AB70">
+        <v>4.75</v>
+      </c>
+      <c r="AC70">
+        <v>1.03</v>
+      </c>
+      <c r="AD70">
+        <v>9</v>
+      </c>
+      <c r="AE70">
+        <v>1.25</v>
+      </c>
+      <c r="AF70">
+        <v>3.6</v>
+      </c>
+      <c r="AG70">
+        <v>1.95</v>
+      </c>
+      <c r="AH70">
+        <v>1.75</v>
+      </c>
+      <c r="AI70">
+        <v>1.73</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>1.25</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.85</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>1.2</v>
+      </c>
+      <c r="AS70">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT70">
+        <v>2.01</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>10</v>
+      </c>
+      <c r="AZ70">
+        <v>13</v>
+      </c>
+      <c r="BA70">
+        <v>8</v>
+      </c>
+      <c r="BB70">
+        <v>5</v>
+      </c>
+      <c r="BC70">
+        <v>13</v>
+      </c>
+      <c r="BD70">
+        <v>1.58</v>
+      </c>
+      <c r="BE70">
+        <v>7</v>
+      </c>
+      <c r="BF70">
+        <v>2.55</v>
+      </c>
+      <c r="BG70">
+        <v>1.14</v>
+      </c>
+      <c r="BH70">
+        <v>4.8</v>
+      </c>
+      <c r="BI70">
+        <v>1.25</v>
+      </c>
+      <c r="BJ70">
+        <v>3.45</v>
+      </c>
+      <c r="BK70">
+        <v>1.41</v>
+      </c>
+      <c r="BL70">
+        <v>2.65</v>
+      </c>
+      <c r="BM70">
+        <v>1.66</v>
+      </c>
+      <c r="BN70">
+        <v>2.07</v>
+      </c>
+      <c r="BO70">
+        <v>2</v>
+      </c>
+      <c r="BP70">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7478807</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s">
+        <v>88</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>147</v>
+      </c>
+      <c r="P71" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q71">
+        <v>2.3</v>
+      </c>
+      <c r="R71">
+        <v>2.3</v>
+      </c>
+      <c r="S71">
+        <v>4.5</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3.25</v>
+      </c>
+      <c r="V71">
+        <v>2.5</v>
+      </c>
+      <c r="W71">
+        <v>1.5</v>
+      </c>
+      <c r="X71">
+        <v>6.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>1.83</v>
+      </c>
+      <c r="AA71">
+        <v>3.6</v>
+      </c>
+      <c r="AB71">
+        <v>4.2</v>
+      </c>
+      <c r="AC71">
+        <v>1.01</v>
+      </c>
+      <c r="AD71">
+        <v>11</v>
+      </c>
+      <c r="AE71">
+        <v>1.2</v>
+      </c>
+      <c r="AF71">
+        <v>4</v>
+      </c>
+      <c r="AG71">
+        <v>1.75</v>
+      </c>
+      <c r="AH71">
+        <v>1.95</v>
+      </c>
+      <c r="AI71">
+        <v>1.67</v>
+      </c>
+      <c r="AJ71">
+        <v>2.1</v>
+      </c>
+      <c r="AK71">
+        <v>1.2</v>
+      </c>
+      <c r="AL71">
+        <v>1.28</v>
+      </c>
+      <c r="AM71">
+        <v>2.05</v>
+      </c>
+      <c r="AN71">
+        <v>1.5</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>2.05</v>
+      </c>
+      <c r="AS71">
+        <v>0.66</v>
+      </c>
+      <c r="AT71">
+        <v>2.71</v>
+      </c>
+      <c r="AU71">
+        <v>8</v>
+      </c>
+      <c r="AV71">
+        <v>5</v>
+      </c>
+      <c r="AW71">
+        <v>10</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>18</v>
+      </c>
+      <c r="AZ71">
+        <v>9</v>
+      </c>
+      <c r="BA71">
+        <v>6</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>9</v>
+      </c>
+      <c r="BD71">
+        <v>1.78</v>
+      </c>
+      <c r="BE71">
+        <v>7</v>
+      </c>
+      <c r="BF71">
+        <v>2.18</v>
+      </c>
+      <c r="BG71">
+        <v>1.18</v>
+      </c>
+      <c r="BH71">
+        <v>4</v>
+      </c>
+      <c r="BI71">
+        <v>1.34</v>
+      </c>
+      <c r="BJ71">
         <v>2.9</v>
       </c>
-      <c r="BG64">
-        <v>1.24</v>
-      </c>
-      <c r="BH64">
-        <v>3.55</v>
-      </c>
-      <c r="BI64">
-        <v>1.41</v>
-      </c>
-      <c r="BJ64">
+      <c r="BK71">
+        <v>1.56</v>
+      </c>
+      <c r="BL71">
+        <v>2.23</v>
+      </c>
+      <c r="BM71">
+        <v>1.88</v>
+      </c>
+      <c r="BN71">
+        <v>1.81</v>
+      </c>
+      <c r="BO71">
+        <v>2.33</v>
+      </c>
+      <c r="BP71">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7478812</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>148</v>
+      </c>
+      <c r="P72" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q72">
+        <v>2.25</v>
+      </c>
+      <c r="R72">
+        <v>2.3</v>
+      </c>
+      <c r="S72">
+        <v>5</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
         <v>2.63</v>
       </c>
-      <c r="BK64">
-        <v>1.68</v>
-      </c>
-      <c r="BL64">
-        <v>2.04</v>
-      </c>
-      <c r="BM64">
-        <v>2.06</v>
-      </c>
-      <c r="BN64">
-        <v>1.66</v>
-      </c>
-      <c r="BO64">
-        <v>2.55</v>
-      </c>
-      <c r="BP64">
-        <v>1.43</v>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+      <c r="Y72">
+        <v>1.1</v>
+      </c>
+      <c r="Z72">
+        <v>1.67</v>
+      </c>
+      <c r="AA72">
+        <v>3.9</v>
+      </c>
+      <c r="AB72">
+        <v>5</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>9.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.25</v>
+      </c>
+      <c r="AF72">
+        <v>3.75</v>
+      </c>
+      <c r="AG72">
+        <v>1.8</v>
+      </c>
+      <c r="AH72">
+        <v>2</v>
+      </c>
+      <c r="AI72">
+        <v>1.8</v>
+      </c>
+      <c r="AJ72">
+        <v>1.91</v>
+      </c>
+      <c r="AK72">
+        <v>1.17</v>
+      </c>
+      <c r="AL72">
+        <v>1.2</v>
+      </c>
+      <c r="AM72">
+        <v>2.2</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>2.33</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>1.52</v>
+      </c>
+      <c r="AS72">
+        <v>1.18</v>
+      </c>
+      <c r="AT72">
+        <v>2.7</v>
+      </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>11</v>
+      </c>
+      <c r="AZ72">
+        <v>4</v>
+      </c>
+      <c r="BA72">
+        <v>11</v>
+      </c>
+      <c r="BB72">
+        <v>2</v>
+      </c>
+      <c r="BC72">
+        <v>13</v>
+      </c>
+      <c r="BD72">
+        <v>1.32</v>
+      </c>
+      <c r="BE72">
+        <v>7.5</v>
+      </c>
+      <c r="BF72">
+        <v>3.65</v>
+      </c>
+      <c r="BG72">
+        <v>1.17</v>
+      </c>
+      <c r="BH72">
+        <v>4.35</v>
+      </c>
+      <c r="BI72">
+        <v>1.3</v>
+      </c>
+      <c r="BJ72">
+        <v>3.15</v>
+      </c>
+      <c r="BK72">
+        <v>1.5</v>
+      </c>
+      <c r="BL72">
+        <v>2.38</v>
+      </c>
+      <c r="BM72">
+        <v>1.79</v>
+      </c>
+      <c r="BN72">
+        <v>1.9</v>
+      </c>
+      <c r="BO72">
+        <v>2.2</v>
+      </c>
+      <c r="BP72">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,9 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -443,9 +446,6 @@
   </si>
   <si>
     <t>['40']</t>
-  </si>
-  <si>
-    <t>['62']</t>
   </si>
   <si>
     <t>['57', '76']</t>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>2.33</v>
@@ -7650,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>1.33</v>
@@ -13710,7 +13710,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7478814</v>
+        <v>7478815</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13719,25 +13719,25 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45556.35416666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F63">
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -13755,160 +13755,160 @@
         <v>95</v>
       </c>
       <c r="Q63">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="R63">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S63">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="T63">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U63">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V63">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W63">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X63">
+        <v>5.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.14</v>
+      </c>
+      <c r="Z63">
+        <v>1.55</v>
+      </c>
+      <c r="AA63">
+        <v>4</v>
+      </c>
+      <c r="AB63">
+        <v>6</v>
+      </c>
+      <c r="AC63">
+        <v>1.04</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.2</v>
+      </c>
+      <c r="AF63">
+        <v>4.5</v>
+      </c>
+      <c r="AG63">
+        <v>1.75</v>
+      </c>
+      <c r="AH63">
+        <v>2</v>
+      </c>
+      <c r="AI63">
+        <v>1.8</v>
+      </c>
+      <c r="AJ63">
+        <v>1.91</v>
+      </c>
+      <c r="AK63">
+        <v>1.08</v>
+      </c>
+      <c r="AL63">
+        <v>1.14</v>
+      </c>
+      <c r="AM63">
+        <v>2.85</v>
+      </c>
+      <c r="AN63">
+        <v>2</v>
+      </c>
+      <c r="AO63">
+        <v>0.5</v>
+      </c>
+      <c r="AP63">
+        <v>2.33</v>
+      </c>
+      <c r="AQ63">
+        <v>0.33</v>
+      </c>
+      <c r="AR63">
+        <v>1.29</v>
+      </c>
+      <c r="AS63">
+        <v>0.63</v>
+      </c>
+      <c r="AT63">
+        <v>1.92</v>
+      </c>
+      <c r="AU63">
+        <v>-1</v>
+      </c>
+      <c r="AV63">
+        <v>-1</v>
+      </c>
+      <c r="AW63">
+        <v>-1</v>
+      </c>
+      <c r="AX63">
+        <v>-1</v>
+      </c>
+      <c r="AY63">
+        <v>-1</v>
+      </c>
+      <c r="AZ63">
+        <v>-1</v>
+      </c>
+      <c r="BA63">
+        <v>-1</v>
+      </c>
+      <c r="BB63">
+        <v>-1</v>
+      </c>
+      <c r="BC63">
+        <v>-1</v>
+      </c>
+      <c r="BD63">
+        <v>1.33</v>
+      </c>
+      <c r="BE63">
         <v>8</v>
       </c>
-      <c r="Y63">
-        <v>1.08</v>
-      </c>
-      <c r="Z63">
-        <v>2.45</v>
-      </c>
-      <c r="AA63">
-        <v>3.3</v>
-      </c>
-      <c r="AB63">
+      <c r="BF63">
+        <v>3.55</v>
+      </c>
+      <c r="BG63">
+        <v>1.12</v>
+      </c>
+      <c r="BH63">
+        <v>5.1</v>
+      </c>
+      <c r="BI63">
+        <v>1.22</v>
+      </c>
+      <c r="BJ63">
+        <v>3.7</v>
+      </c>
+      <c r="BK63">
+        <v>1.37</v>
+      </c>
+      <c r="BL63">
         <v>2.8</v>
       </c>
-      <c r="AC63">
-        <v>1.05</v>
-      </c>
-      <c r="AD63">
-        <v>9</v>
-      </c>
-      <c r="AE63">
-        <v>1.28</v>
-      </c>
-      <c r="AF63">
-        <v>3.5</v>
-      </c>
-      <c r="AG63">
-        <v>1.8</v>
-      </c>
-      <c r="AH63">
-        <v>1.91</v>
-      </c>
-      <c r="AI63">
-        <v>1.67</v>
-      </c>
-      <c r="AJ63">
-        <v>2.1</v>
-      </c>
-      <c r="AK63">
-        <v>1.42</v>
-      </c>
-      <c r="AL63">
-        <v>1.25</v>
-      </c>
-      <c r="AM63">
-        <v>1.53</v>
-      </c>
-      <c r="AN63">
-        <v>3</v>
-      </c>
-      <c r="AO63">
-        <v>1.5</v>
-      </c>
-      <c r="AP63">
-        <v>3</v>
-      </c>
-      <c r="AQ63">
-        <v>1</v>
-      </c>
-      <c r="AR63">
-        <v>1.34</v>
-      </c>
-      <c r="AS63">
-        <v>1.6</v>
-      </c>
-      <c r="AT63">
-        <v>2.94</v>
-      </c>
-      <c r="AU63">
-        <v>3</v>
-      </c>
-      <c r="AV63">
-        <v>2</v>
-      </c>
-      <c r="AW63">
-        <v>6</v>
-      </c>
-      <c r="AX63">
-        <v>6</v>
-      </c>
-      <c r="AY63">
-        <v>9</v>
-      </c>
-      <c r="AZ63">
-        <v>8</v>
-      </c>
-      <c r="BA63">
-        <v>4</v>
-      </c>
-      <c r="BB63">
-        <v>5</v>
-      </c>
-      <c r="BC63">
-        <v>9</v>
-      </c>
-      <c r="BD63">
-        <v>1.7</v>
-      </c>
-      <c r="BE63">
-        <v>6.75</v>
-      </c>
-      <c r="BF63">
-        <v>2.38</v>
-      </c>
-      <c r="BG63">
-        <v>1.19</v>
-      </c>
-      <c r="BH63">
-        <v>4.1</v>
-      </c>
-      <c r="BI63">
-        <v>1.33</v>
-      </c>
-      <c r="BJ63">
-        <v>2.95</v>
-      </c>
-      <c r="BK63">
-        <v>1.54</v>
-      </c>
-      <c r="BL63">
-        <v>2.3</v>
-      </c>
       <c r="BM63">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="BN63">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="BO63">
-        <v>2.33</v>
+        <v>1.92</v>
       </c>
       <c r="BP63">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13916,7 +13916,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7478809</v>
+        <v>7478814</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13931,49 +13931,49 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>141</v>
       </c>
       <c r="P64" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="Q64">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R64">
         <v>2.2</v>
       </c>
       <c r="S64">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T64">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V64">
         <v>2.75</v>
@@ -13988,13 +13988,13 @@
         <v>1.08</v>
       </c>
       <c r="Z64">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AA64">
         <v>3.3</v>
       </c>
       <c r="AB64">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC64">
         <v>1.05</v>
@@ -14009,112 +14009,112 @@
         <v>3.5</v>
       </c>
       <c r="AG64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AH64">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AI64">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AJ64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK64">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AL64">
         <v>1.25</v>
       </c>
       <c r="AM64">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AN64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO64">
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AQ64">
         <v>1</v>
       </c>
       <c r="AR64">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS64">
-        <v>0.96</v>
+        <v>1.6</v>
       </c>
       <c r="AT64">
-        <v>2.32</v>
+        <v>2.94</v>
       </c>
       <c r="AU64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX64">
         <v>6</v>
       </c>
       <c r="AY64">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB64">
         <v>5</v>
       </c>
       <c r="BC64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD64">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BE64">
         <v>6.75</v>
       </c>
       <c r="BF64">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="BG64">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="BH64">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="BI64">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="BJ64">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="BK64">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="BL64">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="BM64">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="BN64">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="BO64">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="BP64">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14122,7 +14122,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7478811</v>
+        <v>7478809</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14137,190 +14137,190 @@
         <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O65" t="s">
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S65">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T65">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V65">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="W65">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y65">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z65">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA65">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB65">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AC65">
         <v>1.05</v>
       </c>
       <c r="AD65">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AE65">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AF65">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="AG65">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AH65">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AI65">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AJ65">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AK65">
         <v>1.35</v>
       </c>
       <c r="AL65">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AM65">
         <v>1.62</v>
       </c>
       <c r="AN65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>2.07</v>
+        <v>1.36</v>
       </c>
       <c r="AS65">
-        <v>1.41</v>
+        <v>0.96</v>
       </c>
       <c r="AT65">
-        <v>3.48</v>
+        <v>2.32</v>
       </c>
       <c r="AU65">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW65">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX65">
         <v>6</v>
       </c>
       <c r="AY65">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AZ65">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA65">
+        <v>3</v>
+      </c>
+      <c r="BB65">
         <v>5</v>
       </c>
-      <c r="BB65">
-        <v>10</v>
-      </c>
       <c r="BC65">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BD65">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="BE65">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF65">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BG65">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BH65">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="BI65">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BJ65">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BK65">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="BL65">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="BM65">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="BN65">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="BO65">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BP65">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14328,7 +14328,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7478806</v>
+        <v>7478811</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14337,196 +14337,196 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45556.45833333334</v>
+        <v>45556.35416666666</v>
       </c>
       <c r="F66">
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="Q66">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="R66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="T66">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V66">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="W66">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="X66">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y66">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z66">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="AA66">
+        <v>3.1</v>
+      </c>
+      <c r="AB66">
         <v>3.6</v>
-      </c>
-      <c r="AB66">
-        <v>1.7</v>
       </c>
       <c r="AC66">
         <v>1.05</v>
       </c>
       <c r="AD66">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE66">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AF66">
-        <v>3.55</v>
+        <v>2.64</v>
       </c>
       <c r="AG66">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AH66">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AI66">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AJ66">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK66">
-        <v>2.29</v>
+        <v>1.35</v>
       </c>
       <c r="AL66">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AM66">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="AN66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AQ66">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
-        <v>1.23</v>
+        <v>2.07</v>
       </c>
       <c r="AS66">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="AT66">
-        <v>2.31</v>
+        <v>3.48</v>
       </c>
       <c r="AU66">
         <v>3</v>
       </c>
       <c r="AV66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW66">
         <v>1</v>
       </c>
       <c r="AX66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY66">
         <v>4</v>
       </c>
       <c r="AZ66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC66">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BD66">
-        <v>2.95</v>
+        <v>1.49</v>
       </c>
       <c r="BE66">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF66">
-        <v>1.48</v>
+        <v>2.9</v>
       </c>
       <c r="BG66">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BH66">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BI66">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BJ66">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="BK66">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BL66">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="BM66">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="BN66">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="BO66">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BP66">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14534,7 +14534,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7478815</v>
+        <v>7478806</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14549,190 +14549,190 @@
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="P67" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="Q67">
-        <v>1.91</v>
+        <v>5.5</v>
       </c>
       <c r="R67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S67">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="T67">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U67">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V67">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="W67">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X67">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y67">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Z67">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="AA67">
+        <v>3.6</v>
+      </c>
+      <c r="AB67">
+        <v>1.7</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>9.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.28</v>
+      </c>
+      <c r="AF67">
+        <v>3.55</v>
+      </c>
+      <c r="AG67">
+        <v>1.83</v>
+      </c>
+      <c r="AH67">
+        <v>1.85</v>
+      </c>
+      <c r="AI67">
+        <v>1.83</v>
+      </c>
+      <c r="AJ67">
+        <v>1.83</v>
+      </c>
+      <c r="AK67">
+        <v>2.29</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.15</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>2.33</v>
+      </c>
+      <c r="AR67">
+        <v>1.23</v>
+      </c>
+      <c r="AS67">
+        <v>1.08</v>
+      </c>
+      <c r="AT67">
+        <v>2.31</v>
+      </c>
+      <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
+        <v>8</v>
+      </c>
+      <c r="AW67">
+        <v>1</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
         <v>4</v>
       </c>
-      <c r="AB67">
-        <v>6</v>
-      </c>
-      <c r="AC67">
-        <v>1.04</v>
-      </c>
-      <c r="AD67">
-        <v>10</v>
-      </c>
-      <c r="AE67">
-        <v>1.2</v>
-      </c>
-      <c r="AF67">
-        <v>4.5</v>
-      </c>
-      <c r="AG67">
-        <v>1.75</v>
-      </c>
-      <c r="AH67">
-        <v>2</v>
-      </c>
-      <c r="AI67">
-        <v>1.8</v>
-      </c>
-      <c r="AJ67">
-        <v>1.91</v>
-      </c>
-      <c r="AK67">
-        <v>1.08</v>
-      </c>
-      <c r="AL67">
-        <v>1.14</v>
-      </c>
-      <c r="AM67">
-        <v>2.85</v>
-      </c>
-      <c r="AN67">
-        <v>2</v>
-      </c>
-      <c r="AO67">
-        <v>0.5</v>
-      </c>
-      <c r="AP67">
-        <v>2.33</v>
-      </c>
-      <c r="AQ67">
-        <v>0.33</v>
-      </c>
-      <c r="AR67">
-        <v>1.29</v>
-      </c>
-      <c r="AS67">
-        <v>0.63</v>
-      </c>
-      <c r="AT67">
+      <c r="AZ67">
+        <v>13</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
+        <v>4</v>
+      </c>
+      <c r="BD67">
+        <v>2.95</v>
+      </c>
+      <c r="BE67">
+        <v>6.75</v>
+      </c>
+      <c r="BF67">
+        <v>1.48</v>
+      </c>
+      <c r="BG67">
+        <v>1.27</v>
+      </c>
+      <c r="BH67">
+        <v>3.3</v>
+      </c>
+      <c r="BI67">
+        <v>1.48</v>
+      </c>
+      <c r="BJ67">
+        <v>2.45</v>
+      </c>
+      <c r="BK67">
+        <v>1.77</v>
+      </c>
+      <c r="BL67">
         <v>1.92</v>
       </c>
-      <c r="AU67">
-        <v>5</v>
-      </c>
-      <c r="AV67">
-        <v>5</v>
-      </c>
-      <c r="AW67">
-        <v>9</v>
-      </c>
-      <c r="AX67">
-        <v>7</v>
-      </c>
-      <c r="AY67">
-        <v>14</v>
-      </c>
-      <c r="AZ67">
-        <v>12</v>
-      </c>
-      <c r="BA67">
-        <v>5</v>
-      </c>
-      <c r="BB67">
-        <v>2</v>
-      </c>
-      <c r="BC67">
-        <v>7</v>
-      </c>
-      <c r="BD67">
-        <v>1.33</v>
-      </c>
-      <c r="BE67">
-        <v>8</v>
-      </c>
-      <c r="BF67">
-        <v>3.55</v>
-      </c>
-      <c r="BG67">
-        <v>1.12</v>
-      </c>
-      <c r="BH67">
-        <v>5.1</v>
-      </c>
-      <c r="BI67">
-        <v>1.22</v>
-      </c>
-      <c r="BJ67">
-        <v>3.7</v>
-      </c>
-      <c r="BK67">
+      <c r="BM67">
+        <v>2.18</v>
+      </c>
+      <c r="BN67">
+        <v>1.58</v>
+      </c>
+      <c r="BO67">
+        <v>2.8</v>
+      </c>
+      <c r="BP67">
         <v>1.37</v>
-      </c>
-      <c r="BL67">
-        <v>2.8</v>
-      </c>
-      <c r="BM67">
-        <v>1.58</v>
-      </c>
-      <c r="BN67">
-        <v>2.18</v>
-      </c>
-      <c r="BO67">
-        <v>1.92</v>
-      </c>
-      <c r="BP67">
-        <v>1.77</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -15763,6 +15763,212 @@
       </c>
       <c r="BP72">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7478810</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>95</v>
+      </c>
+      <c r="P73" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q73">
+        <v>3.5</v>
+      </c>
+      <c r="R73">
+        <v>2.1</v>
+      </c>
+      <c r="S73">
+        <v>3.2</v>
+      </c>
+      <c r="T73">
+        <v>1.44</v>
+      </c>
+      <c r="U73">
+        <v>2.63</v>
+      </c>
+      <c r="V73">
+        <v>3.25</v>
+      </c>
+      <c r="W73">
+        <v>1.33</v>
+      </c>
+      <c r="X73">
+        <v>9</v>
+      </c>
+      <c r="Y73">
+        <v>1.07</v>
+      </c>
+      <c r="Z73">
+        <v>2.8</v>
+      </c>
+      <c r="AA73">
+        <v>3.5</v>
+      </c>
+      <c r="AB73">
+        <v>2.4</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>7.8</v>
+      </c>
+      <c r="AE73">
+        <v>1.29</v>
+      </c>
+      <c r="AF73">
+        <v>2.98</v>
+      </c>
+      <c r="AG73">
+        <v>1.76</v>
+      </c>
+      <c r="AH73">
+        <v>1.95</v>
+      </c>
+      <c r="AI73">
+        <v>1.8</v>
+      </c>
+      <c r="AJ73">
+        <v>1.91</v>
+      </c>
+      <c r="AK73">
+        <v>1.55</v>
+      </c>
+      <c r="AL73">
+        <v>1.28</v>
+      </c>
+      <c r="AM73">
+        <v>1.45</v>
+      </c>
+      <c r="AN73">
+        <v>1.5</v>
+      </c>
+      <c r="AO73">
+        <v>1</v>
+      </c>
+      <c r="AP73">
+        <v>1.33</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>0.68</v>
+      </c>
+      <c r="AS73">
+        <v>0.93</v>
+      </c>
+      <c r="AT73">
+        <v>1.61</v>
+      </c>
+      <c r="AU73">
+        <v>-1</v>
+      </c>
+      <c r="AV73">
+        <v>-1</v>
+      </c>
+      <c r="AW73">
+        <v>-1</v>
+      </c>
+      <c r="AX73">
+        <v>-1</v>
+      </c>
+      <c r="AY73">
+        <v>-1</v>
+      </c>
+      <c r="AZ73">
+        <v>-1</v>
+      </c>
+      <c r="BA73">
+        <v>-1</v>
+      </c>
+      <c r="BB73">
+        <v>-1</v>
+      </c>
+      <c r="BC73">
+        <v>-1</v>
+      </c>
+      <c r="BD73">
+        <v>1.77</v>
+      </c>
+      <c r="BE73">
+        <v>6.75</v>
+      </c>
+      <c r="BF73">
+        <v>2.23</v>
+      </c>
+      <c r="BG73">
+        <v>1.22</v>
+      </c>
+      <c r="BH73">
+        <v>3.7</v>
+      </c>
+      <c r="BI73">
+        <v>1.4</v>
+      </c>
+      <c r="BJ73">
+        <v>2.7</v>
+      </c>
+      <c r="BK73">
+        <v>1.65</v>
+      </c>
+      <c r="BL73">
+        <v>2.08</v>
+      </c>
+      <c r="BM73">
+        <v>2</v>
+      </c>
+      <c r="BN73">
+        <v>1.7</v>
+      </c>
+      <c r="BO73">
+        <v>2.55</v>
+      </c>
+      <c r="BP73">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14069,13 +14069,13 @@
         <v>8</v>
       </c>
       <c r="BA64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB64">
         <v>5</v>
       </c>
       <c r="BC64">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD64">
         <v>1.7</v>
@@ -15905,31 +15905,31 @@
         <v>1.61</v>
       </c>
       <c r="AU73">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV73">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY73">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ73">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB73">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC73">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD73">
         <v>1.77</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['8', '69', '90+3']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -566,6 +569,9 @@
   </si>
   <si>
     <t>['8', '32']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1192,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1392,7 +1398,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1598,7 +1604,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2010,7 +2016,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2422,7 +2428,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2628,7 +2634,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2834,7 +2840,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3452,7 +3458,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3658,7 +3664,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4357,7 +4363,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4482,7 +4488,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5100,7 +5106,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5306,7 +5312,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5718,7 +5724,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5796,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -6130,7 +6136,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6748,7 +6754,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6954,7 +6960,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7653,7 +7659,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -7778,7 +7784,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7984,7 +7990,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8190,7 +8196,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8396,7 +8402,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8602,7 +8608,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8808,7 +8814,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9014,7 +9020,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9220,7 +9226,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9632,7 +9638,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9838,7 +9844,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9916,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -11074,7 +11080,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11567,7 +11573,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -12310,7 +12316,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12388,7 +12394,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12516,7 +12522,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13134,7 +13140,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13340,7 +13346,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13546,7 +13552,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14576,7 +14582,7 @@
         <v>95</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14988,7 +14994,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15400,7 +15406,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15969,6 +15975,212 @@
       </c>
       <c r="BP73">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7478823</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45562.66666666666</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>149</v>
+      </c>
+      <c r="P74" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q74">
+        <v>3.9</v>
+      </c>
+      <c r="R74">
+        <v>2.35</v>
+      </c>
+      <c r="S74">
+        <v>2.38</v>
+      </c>
+      <c r="T74">
+        <v>1.3</v>
+      </c>
+      <c r="U74">
+        <v>3.4</v>
+      </c>
+      <c r="V74">
+        <v>2.35</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>5.3</v>
+      </c>
+      <c r="Y74">
+        <v>1.11</v>
+      </c>
+      <c r="Z74">
+        <v>3.65</v>
+      </c>
+      <c r="AA74">
+        <v>3.75</v>
+      </c>
+      <c r="AB74">
+        <v>1.96</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>15.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.21</v>
+      </c>
+      <c r="AF74">
+        <v>4.48</v>
+      </c>
+      <c r="AG74">
+        <v>1.63</v>
+      </c>
+      <c r="AH74">
+        <v>2.19</v>
+      </c>
+      <c r="AI74">
+        <v>1.63</v>
+      </c>
+      <c r="AJ74">
+        <v>2.15</v>
+      </c>
+      <c r="AK74">
+        <v>1.85</v>
+      </c>
+      <c r="AL74">
+        <v>1.28</v>
+      </c>
+      <c r="AM74">
+        <v>1.27</v>
+      </c>
+      <c r="AN74">
+        <v>1.33</v>
+      </c>
+      <c r="AO74">
+        <v>1.33</v>
+      </c>
+      <c r="AP74">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1.58</v>
+      </c>
+      <c r="AS74">
+        <v>1.31</v>
+      </c>
+      <c r="AT74">
+        <v>2.89</v>
+      </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
+        <v>7</v>
+      </c>
+      <c r="AX74">
+        <v>7</v>
+      </c>
+      <c r="AY74">
+        <v>14</v>
+      </c>
+      <c r="AZ74">
+        <v>11</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>15</v>
+      </c>
+      <c r="BC74">
+        <v>18</v>
+      </c>
+      <c r="BD74">
+        <v>2.48</v>
+      </c>
+      <c r="BE74">
+        <v>7</v>
+      </c>
+      <c r="BF74">
+        <v>1.63</v>
+      </c>
+      <c r="BG74">
+        <v>1.09</v>
+      </c>
+      <c r="BH74">
+        <v>5.8</v>
+      </c>
+      <c r="BI74">
+        <v>1.18</v>
+      </c>
+      <c r="BJ74">
+        <v>4.1</v>
+      </c>
+      <c r="BK74">
+        <v>1.3</v>
+      </c>
+      <c r="BL74">
+        <v>3.05</v>
+      </c>
+      <c r="BM74">
+        <v>1.5</v>
+      </c>
+      <c r="BN74">
+        <v>2.38</v>
+      </c>
+      <c r="BO74">
+        <v>1.77</v>
+      </c>
+      <c r="BP74">
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,30 @@
     <t>['8', '69', '90+3']</t>
   </si>
   <si>
+    <t>['53', '63']</t>
+  </si>
+  <si>
+    <t>['60', '90+1']</t>
+  </si>
+  <si>
+    <t>['9', '23', '86']</t>
+  </si>
+  <si>
+    <t>['34', '73']</t>
+  </si>
+  <si>
+    <t>['24', '38', '47']</t>
+  </si>
+  <si>
+    <t>['22', '35', '51', '90+1']</t>
+  </si>
+  <si>
+    <t>['16', '49', '79']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -572,6 +596,15 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['45+3', '65', '87']</t>
+  </si>
+  <si>
+    <t>['65', '84']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1225,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1398,7 +1431,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1479,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1604,7 +1637,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1685,7 +1718,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1888,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2016,7 +2049,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2094,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2303,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2428,7 +2461,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2506,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -2634,7 +2667,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2712,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2840,7 +2873,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3124,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3330,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3458,7 +3491,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3539,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3664,7 +3697,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4154,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4360,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4488,7 +4521,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4569,7 +4602,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4775,7 +4808,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4978,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5106,7 +5139,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5312,7 +5345,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5599,7 +5632,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5724,7 +5757,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6136,7 +6169,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6214,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>2.33</v>
@@ -6420,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>0.67</v>
@@ -6754,7 +6787,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6835,7 +6868,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -6960,7 +6993,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7038,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7453,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -7784,7 +7817,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7990,7 +8023,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8071,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8196,7 +8229,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8277,7 +8310,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8402,7 +8435,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8480,10 +8513,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8608,7 +8641,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8689,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.01</v>
@@ -8814,7 +8847,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9020,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9226,7 +9259,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9307,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9638,7 +9671,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9716,7 +9749,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -9844,7 +9877,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9925,7 +9958,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10128,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10334,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10540,10 +10573,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -10746,10 +10779,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11080,7 +11113,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11158,10 +11191,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11364,10 +11397,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11570,7 +11603,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11776,10 +11809,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>1.18</v>
@@ -11982,10 +12015,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12191,7 +12224,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12316,7 +12349,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12522,7 +12555,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12600,10 +12633,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.82</v>
@@ -12806,10 +12839,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.35</v>
@@ -13015,7 +13048,7 @@
         <v>3</v>
       </c>
       <c r="AQ59">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13140,7 +13173,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13218,10 +13251,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13346,7 +13379,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13424,10 +13457,10 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ61">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -13552,7 +13585,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14582,7 +14615,7 @@
         <v>95</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14994,7 +15027,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15406,7 +15439,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16024,7 +16057,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16181,6 +16214,2066 @@
       </c>
       <c r="BP74">
         <v>1.92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7478816</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>150</v>
+      </c>
+      <c r="P75" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q75">
+        <v>2.6</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>4.33</v>
+      </c>
+      <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.75</v>
+      </c>
+      <c r="V75">
+        <v>2.75</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>8</v>
+      </c>
+      <c r="Y75">
+        <v>1.08</v>
+      </c>
+      <c r="Z75">
+        <v>2.04</v>
+      </c>
+      <c r="AA75">
+        <v>3.54</v>
+      </c>
+      <c r="AB75">
+        <v>3.54</v>
+      </c>
+      <c r="AC75">
+        <v>1.05</v>
+      </c>
+      <c r="AD75">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE75">
+        <v>1.27</v>
+      </c>
+      <c r="AF75">
+        <v>3.08</v>
+      </c>
+      <c r="AG75">
+        <v>1.87</v>
+      </c>
+      <c r="AH75">
+        <v>1.83</v>
+      </c>
+      <c r="AI75">
+        <v>1.8</v>
+      </c>
+      <c r="AJ75">
+        <v>1.91</v>
+      </c>
+      <c r="AK75">
+        <v>1.28</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.88</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>1.67</v>
+      </c>
+      <c r="AP75">
+        <v>3</v>
+      </c>
+      <c r="AQ75">
+        <v>1.25</v>
+      </c>
+      <c r="AR75">
+        <v>1.35</v>
+      </c>
+      <c r="AS75">
+        <v>1.07</v>
+      </c>
+      <c r="AT75">
+        <v>2.42</v>
+      </c>
+      <c r="AU75">
+        <v>10</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>4</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>14</v>
+      </c>
+      <c r="AZ75">
+        <v>4</v>
+      </c>
+      <c r="BA75">
+        <v>8</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>1.64</v>
+      </c>
+      <c r="BE75">
+        <v>7</v>
+      </c>
+      <c r="BF75">
+        <v>2.48</v>
+      </c>
+      <c r="BG75">
+        <v>1.12</v>
+      </c>
+      <c r="BH75">
+        <v>5.21</v>
+      </c>
+      <c r="BI75">
+        <v>1.28</v>
+      </c>
+      <c r="BJ75">
+        <v>3.4</v>
+      </c>
+      <c r="BK75">
+        <v>1.52</v>
+      </c>
+      <c r="BL75">
+        <v>2.47</v>
+      </c>
+      <c r="BM75">
+        <v>1.85</v>
+      </c>
+      <c r="BN75">
+        <v>1.95</v>
+      </c>
+      <c r="BO75">
+        <v>2.32</v>
+      </c>
+      <c r="BP75">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7478817</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="O76" t="s">
+        <v>151</v>
+      </c>
+      <c r="P76" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q76">
+        <v>3.4</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>3.1</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.73</v>
+      </c>
+      <c r="AA76">
+        <v>3.42</v>
+      </c>
+      <c r="AB76">
+        <v>2.52</v>
+      </c>
+      <c r="AC76">
+        <v>1.05</v>
+      </c>
+      <c r="AD76">
+        <v>11</v>
+      </c>
+      <c r="AE76">
+        <v>1.32</v>
+      </c>
+      <c r="AF76">
+        <v>3.4</v>
+      </c>
+      <c r="AG76">
+        <v>1.85</v>
+      </c>
+      <c r="AH76">
+        <v>1.85</v>
+      </c>
+      <c r="AI76">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76">
+        <v>1.91</v>
+      </c>
+      <c r="AK76">
+        <v>1.52</v>
+      </c>
+      <c r="AL76">
+        <v>1.28</v>
+      </c>
+      <c r="AM76">
+        <v>1.5</v>
+      </c>
+      <c r="AN76">
+        <v>3</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>2.25</v>
+      </c>
+      <c r="AQ76">
+        <v>1.5</v>
+      </c>
+      <c r="AR76">
+        <v>1.2</v>
+      </c>
+      <c r="AS76">
+        <v>0.93</v>
+      </c>
+      <c r="AT76">
+        <v>2.13</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>5</v>
+      </c>
+      <c r="AW76">
+        <v>6</v>
+      </c>
+      <c r="AX76">
+        <v>3</v>
+      </c>
+      <c r="AY76">
+        <v>12</v>
+      </c>
+      <c r="AZ76">
+        <v>8</v>
+      </c>
+      <c r="BA76">
+        <v>9</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
+        <v>14</v>
+      </c>
+      <c r="BD76">
+        <v>2.25</v>
+      </c>
+      <c r="BE76">
+        <v>6.75</v>
+      </c>
+      <c r="BF76">
+        <v>1.75</v>
+      </c>
+      <c r="BG76">
+        <v>1.15</v>
+      </c>
+      <c r="BH76">
+        <v>4.68</v>
+      </c>
+      <c r="BI76">
+        <v>1.33</v>
+      </c>
+      <c r="BJ76">
+        <v>3.12</v>
+      </c>
+      <c r="BK76">
+        <v>1.6</v>
+      </c>
+      <c r="BL76">
+        <v>2.31</v>
+      </c>
+      <c r="BM76">
+        <v>1.98</v>
+      </c>
+      <c r="BN76">
+        <v>1.82</v>
+      </c>
+      <c r="BO76">
+        <v>2.49</v>
+      </c>
+      <c r="BP76">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7478825</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77" t="s">
+        <v>152</v>
+      </c>
+      <c r="P77" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q77">
+        <v>3.75</v>
+      </c>
+      <c r="R77">
+        <v>2.1</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>1.44</v>
+      </c>
+      <c r="U77">
+        <v>2.63</v>
+      </c>
+      <c r="V77">
+        <v>3.25</v>
+      </c>
+      <c r="W77">
+        <v>1.33</v>
+      </c>
+      <c r="X77">
+        <v>9</v>
+      </c>
+      <c r="Y77">
+        <v>1.07</v>
+      </c>
+      <c r="Z77">
+        <v>3.08</v>
+      </c>
+      <c r="AA77">
+        <v>3.36</v>
+      </c>
+      <c r="AB77">
+        <v>2.31</v>
+      </c>
+      <c r="AC77">
+        <v>1.06</v>
+      </c>
+      <c r="AD77">
+        <v>10</v>
+      </c>
+      <c r="AE77">
+        <v>1.36</v>
+      </c>
+      <c r="AF77">
+        <v>3.2</v>
+      </c>
+      <c r="AG77">
+        <v>2.05</v>
+      </c>
+      <c r="AH77">
+        <v>1.69</v>
+      </c>
+      <c r="AI77">
+        <v>1.83</v>
+      </c>
+      <c r="AJ77">
+        <v>1.83</v>
+      </c>
+      <c r="AK77">
+        <v>1.63</v>
+      </c>
+      <c r="AL77">
+        <v>1.28</v>
+      </c>
+      <c r="AM77">
+        <v>1.38</v>
+      </c>
+      <c r="AN77">
+        <v>1.33</v>
+      </c>
+      <c r="AO77">
+        <v>3</v>
+      </c>
+      <c r="AP77">
+        <v>1.75</v>
+      </c>
+      <c r="AQ77">
+        <v>2.25</v>
+      </c>
+      <c r="AR77">
+        <v>1.68</v>
+      </c>
+      <c r="AS77">
+        <v>1.34</v>
+      </c>
+      <c r="AT77">
+        <v>3.02</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>6</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>12</v>
+      </c>
+      <c r="AZ77">
+        <v>8</v>
+      </c>
+      <c r="BA77">
+        <v>5</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>9</v>
+      </c>
+      <c r="BD77">
+        <v>1.9</v>
+      </c>
+      <c r="BE77">
+        <v>6.75</v>
+      </c>
+      <c r="BF77">
+        <v>2.08</v>
+      </c>
+      <c r="BG77">
+        <v>1.2</v>
+      </c>
+      <c r="BH77">
+        <v>3.9</v>
+      </c>
+      <c r="BI77">
+        <v>1.37</v>
+      </c>
+      <c r="BJ77">
+        <v>2.8</v>
+      </c>
+      <c r="BK77">
+        <v>1.61</v>
+      </c>
+      <c r="BL77">
+        <v>2.15</v>
+      </c>
+      <c r="BM77">
+        <v>1.96</v>
+      </c>
+      <c r="BN77">
+        <v>1.74</v>
+      </c>
+      <c r="BO77">
+        <v>2.45</v>
+      </c>
+      <c r="BP77">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7478822</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>95</v>
+      </c>
+      <c r="P78" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q78">
+        <v>4</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>2.63</v>
+      </c>
+      <c r="T78">
+        <v>1.36</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.75</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>7</v>
+      </c>
+      <c r="Y78">
+        <v>1.1</v>
+      </c>
+      <c r="Z78">
+        <v>3.58</v>
+      </c>
+      <c r="AA78">
+        <v>3.6</v>
+      </c>
+      <c r="AB78">
+        <v>2.01</v>
+      </c>
+      <c r="AC78">
+        <v>1.05</v>
+      </c>
+      <c r="AD78">
+        <v>12</v>
+      </c>
+      <c r="AE78">
+        <v>1.3</v>
+      </c>
+      <c r="AF78">
+        <v>3.6</v>
+      </c>
+      <c r="AG78">
+        <v>1.76</v>
+      </c>
+      <c r="AH78">
+        <v>1.95</v>
+      </c>
+      <c r="AI78">
+        <v>1.73</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AK78">
+        <v>1.83</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.3</v>
+      </c>
+      <c r="AN78">
+        <v>3</v>
+      </c>
+      <c r="AO78">
+        <v>2</v>
+      </c>
+      <c r="AP78">
+        <v>2.5</v>
+      </c>
+      <c r="AQ78">
+        <v>1.75</v>
+      </c>
+      <c r="AR78">
+        <v>1.32</v>
+      </c>
+      <c r="AS78">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT78">
+        <v>2.26</v>
+      </c>
+      <c r="AU78">
+        <v>2</v>
+      </c>
+      <c r="AV78">
+        <v>2</v>
+      </c>
+      <c r="AW78">
+        <v>1</v>
+      </c>
+      <c r="AX78">
+        <v>8</v>
+      </c>
+      <c r="AY78">
+        <v>3</v>
+      </c>
+      <c r="AZ78">
+        <v>10</v>
+      </c>
+      <c r="BA78">
+        <v>2</v>
+      </c>
+      <c r="BB78">
+        <v>6</v>
+      </c>
+      <c r="BC78">
+        <v>8</v>
+      </c>
+      <c r="BD78">
+        <v>2.23</v>
+      </c>
+      <c r="BE78">
+        <v>6.75</v>
+      </c>
+      <c r="BF78">
+        <v>1.77</v>
+      </c>
+      <c r="BG78">
+        <v>1.19</v>
+      </c>
+      <c r="BH78">
+        <v>4.16</v>
+      </c>
+      <c r="BI78">
+        <v>1.4</v>
+      </c>
+      <c r="BJ78">
+        <v>2.84</v>
+      </c>
+      <c r="BK78">
+        <v>1.7</v>
+      </c>
+      <c r="BL78">
+        <v>2.15</v>
+      </c>
+      <c r="BM78">
+        <v>2.1</v>
+      </c>
+      <c r="BN78">
+        <v>1.73</v>
+      </c>
+      <c r="BO78">
+        <v>2.71</v>
+      </c>
+      <c r="BP78">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7478820</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>153</v>
+      </c>
+      <c r="P79" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q79">
+        <v>2.2</v>
+      </c>
+      <c r="R79">
+        <v>2.38</v>
+      </c>
+      <c r="S79">
+        <v>5</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.25</v>
+      </c>
+      <c r="V79">
+        <v>2.5</v>
+      </c>
+      <c r="W79">
+        <v>1.5</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.11</v>
+      </c>
+      <c r="Z79">
+        <v>1.64</v>
+      </c>
+      <c r="AA79">
+        <v>4.1</v>
+      </c>
+      <c r="AB79">
+        <v>4.95</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>15</v>
+      </c>
+      <c r="AE79">
+        <v>1.24</v>
+      </c>
+      <c r="AF79">
+        <v>4.2</v>
+      </c>
+      <c r="AG79">
+        <v>1.69</v>
+      </c>
+      <c r="AH79">
+        <v>2.05</v>
+      </c>
+      <c r="AI79">
+        <v>1.73</v>
+      </c>
+      <c r="AJ79">
+        <v>2</v>
+      </c>
+      <c r="AK79">
+        <v>1.18</v>
+      </c>
+      <c r="AL79">
+        <v>1.2</v>
+      </c>
+      <c r="AM79">
+        <v>2.25</v>
+      </c>
+      <c r="AN79">
+        <v>1.67</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>0.75</v>
+      </c>
+      <c r="AR79">
+        <v>1.8</v>
+      </c>
+      <c r="AS79">
+        <v>1.1</v>
+      </c>
+      <c r="AT79">
+        <v>2.9</v>
+      </c>
+      <c r="AU79">
+        <v>10</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>9</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
+        <v>19</v>
+      </c>
+      <c r="AZ79">
+        <v>7</v>
+      </c>
+      <c r="BA79">
+        <v>7</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>9</v>
+      </c>
+      <c r="BD79">
+        <v>1.63</v>
+      </c>
+      <c r="BE79">
+        <v>7</v>
+      </c>
+      <c r="BF79">
+        <v>2.5</v>
+      </c>
+      <c r="BG79">
+        <v>1.12</v>
+      </c>
+      <c r="BH79">
+        <v>5.1</v>
+      </c>
+      <c r="BI79">
+        <v>1.29</v>
+      </c>
+      <c r="BJ79">
+        <v>3.34</v>
+      </c>
+      <c r="BK79">
+        <v>1.54</v>
+      </c>
+      <c r="BL79">
+        <v>2.44</v>
+      </c>
+      <c r="BM79">
+        <v>1.88</v>
+      </c>
+      <c r="BN79">
+        <v>1.92</v>
+      </c>
+      <c r="BO79">
+        <v>2.35</v>
+      </c>
+      <c r="BP79">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7478821</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>154</v>
+      </c>
+      <c r="P80" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q80">
+        <v>2.63</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>5</v>
+      </c>
+      <c r="T80">
+        <v>1.53</v>
+      </c>
+      <c r="U80">
+        <v>2.38</v>
+      </c>
+      <c r="V80">
+        <v>3.5</v>
+      </c>
+      <c r="W80">
+        <v>1.29</v>
+      </c>
+      <c r="X80">
+        <v>11</v>
+      </c>
+      <c r="Y80">
+        <v>1.05</v>
+      </c>
+      <c r="Z80">
+        <v>1.85</v>
+      </c>
+      <c r="AA80">
+        <v>3.42</v>
+      </c>
+      <c r="AB80">
+        <v>4.5</v>
+      </c>
+      <c r="AC80">
+        <v>1.03</v>
+      </c>
+      <c r="AD80">
+        <v>6.65</v>
+      </c>
+      <c r="AE80">
+        <v>1.39</v>
+      </c>
+      <c r="AF80">
+        <v>2.54</v>
+      </c>
+      <c r="AG80">
+        <v>2.05</v>
+      </c>
+      <c r="AH80">
+        <v>1.69</v>
+      </c>
+      <c r="AI80">
+        <v>2.2</v>
+      </c>
+      <c r="AJ80">
+        <v>1.62</v>
+      </c>
+      <c r="AK80">
+        <v>1.22</v>
+      </c>
+      <c r="AL80">
+        <v>1.28</v>
+      </c>
+      <c r="AM80">
+        <v>1.92</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>0.33</v>
+      </c>
+      <c r="AP80">
+        <v>1.5</v>
+      </c>
+      <c r="AQ80">
+        <v>0.25</v>
+      </c>
+      <c r="AR80">
+        <v>1.39</v>
+      </c>
+      <c r="AS80">
+        <v>0.93</v>
+      </c>
+      <c r="AT80">
+        <v>2.32</v>
+      </c>
+      <c r="AU80">
+        <v>7</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>11</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
+        <v>3</v>
+      </c>
+      <c r="BB80">
+        <v>8</v>
+      </c>
+      <c r="BC80">
+        <v>11</v>
+      </c>
+      <c r="BD80">
+        <v>1.66</v>
+      </c>
+      <c r="BE80">
+        <v>6.4</v>
+      </c>
+      <c r="BF80">
+        <v>2.48</v>
+      </c>
+      <c r="BG80">
+        <v>1.27</v>
+      </c>
+      <c r="BH80">
+        <v>3.48</v>
+      </c>
+      <c r="BI80">
+        <v>1.52</v>
+      </c>
+      <c r="BJ80">
+        <v>2.47</v>
+      </c>
+      <c r="BK80">
+        <v>1.88</v>
+      </c>
+      <c r="BL80">
+        <v>1.92</v>
+      </c>
+      <c r="BM80">
+        <v>2.38</v>
+      </c>
+      <c r="BN80">
+        <v>1.57</v>
+      </c>
+      <c r="BO80">
+        <v>3.18</v>
+      </c>
+      <c r="BP80">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7478818</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F81">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>155</v>
+      </c>
+      <c r="P81" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q81">
+        <v>2.6</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>4.33</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>1.88</v>
+      </c>
+      <c r="AA81">
+        <v>3.68</v>
+      </c>
+      <c r="AB81">
+        <v>3.98</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>8.1</v>
+      </c>
+      <c r="AE81">
+        <v>1.25</v>
+      </c>
+      <c r="AF81">
+        <v>3.2</v>
+      </c>
+      <c r="AG81">
+        <v>1.95</v>
+      </c>
+      <c r="AH81">
+        <v>1.76</v>
+      </c>
+      <c r="AI81">
+        <v>1.83</v>
+      </c>
+      <c r="AJ81">
+        <v>1.83</v>
+      </c>
+      <c r="AK81">
+        <v>1.26</v>
+      </c>
+      <c r="AL81">
+        <v>1.24</v>
+      </c>
+      <c r="AM81">
+        <v>1.9</v>
+      </c>
+      <c r="AN81">
+        <v>0.67</v>
+      </c>
+      <c r="AO81">
+        <v>0.33</v>
+      </c>
+      <c r="AP81">
+        <v>1.25</v>
+      </c>
+      <c r="AQ81">
+        <v>0.25</v>
+      </c>
+      <c r="AR81">
+        <v>1.37</v>
+      </c>
+      <c r="AS81">
+        <v>1.12</v>
+      </c>
+      <c r="AT81">
+        <v>2.49</v>
+      </c>
+      <c r="AU81">
+        <v>10</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>7</v>
+      </c>
+      <c r="AY81">
+        <v>16</v>
+      </c>
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>7</v>
+      </c>
+      <c r="BB81">
+        <v>5</v>
+      </c>
+      <c r="BC81">
+        <v>12</v>
+      </c>
+      <c r="BD81">
+        <v>1.46</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>2.95</v>
+      </c>
+      <c r="BG81">
+        <v>1.18</v>
+      </c>
+      <c r="BH81">
+        <v>4.24</v>
+      </c>
+      <c r="BI81">
+        <v>1.38</v>
+      </c>
+      <c r="BJ81">
+        <v>2.88</v>
+      </c>
+      <c r="BK81">
+        <v>1.68</v>
+      </c>
+      <c r="BL81">
+        <v>2.17</v>
+      </c>
+      <c r="BM81">
+        <v>2.08</v>
+      </c>
+      <c r="BN81">
+        <v>1.75</v>
+      </c>
+      <c r="BO81">
+        <v>2.67</v>
+      </c>
+      <c r="BP81">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7478824</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s">
+        <v>86</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>95</v>
+      </c>
+      <c r="P82" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q82">
+        <v>4.5</v>
+      </c>
+      <c r="R82">
+        <v>2.25</v>
+      </c>
+      <c r="S82">
+        <v>2.4</v>
+      </c>
+      <c r="T82">
+        <v>1.36</v>
+      </c>
+      <c r="U82">
+        <v>3</v>
+      </c>
+      <c r="V82">
+        <v>2.63</v>
+      </c>
+      <c r="W82">
+        <v>1.44</v>
+      </c>
+      <c r="X82">
+        <v>7</v>
+      </c>
+      <c r="Y82">
+        <v>1.1</v>
+      </c>
+      <c r="Z82">
+        <v>4.05</v>
+      </c>
+      <c r="AA82">
+        <v>3.78</v>
+      </c>
+      <c r="AB82">
+        <v>1.84</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>13</v>
+      </c>
+      <c r="AE82">
+        <v>1.28</v>
+      </c>
+      <c r="AF82">
+        <v>3.75</v>
+      </c>
+      <c r="AG82">
+        <v>1.76</v>
+      </c>
+      <c r="AH82">
+        <v>1.95</v>
+      </c>
+      <c r="AI82">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.91</v>
+      </c>
+      <c r="AK82">
+        <v>2</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>1.24</v>
+      </c>
+      <c r="AN82">
+        <v>0.33</v>
+      </c>
+      <c r="AO82">
+        <v>2.33</v>
+      </c>
+      <c r="AP82">
+        <v>0.5</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>1.1</v>
+      </c>
+      <c r="AS82">
+        <v>1.2</v>
+      </c>
+      <c r="AT82">
+        <v>2.3</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>3</v>
+      </c>
+      <c r="AY82">
+        <v>8</v>
+      </c>
+      <c r="AZ82">
+        <v>8</v>
+      </c>
+      <c r="BA82">
+        <v>14</v>
+      </c>
+      <c r="BB82">
+        <v>9</v>
+      </c>
+      <c r="BC82">
+        <v>23</v>
+      </c>
+      <c r="BD82">
+        <v>2.23</v>
+      </c>
+      <c r="BE82">
+        <v>6.75</v>
+      </c>
+      <c r="BF82">
+        <v>1.75</v>
+      </c>
+      <c r="BG82">
+        <v>1.15</v>
+      </c>
+      <c r="BH82">
+        <v>4.58</v>
+      </c>
+      <c r="BI82">
+        <v>1.34</v>
+      </c>
+      <c r="BJ82">
+        <v>3.06</v>
+      </c>
+      <c r="BK82">
+        <v>1.62</v>
+      </c>
+      <c r="BL82">
+        <v>2.28</v>
+      </c>
+      <c r="BM82">
+        <v>2</v>
+      </c>
+      <c r="BN82">
+        <v>1.8</v>
+      </c>
+      <c r="BO82">
+        <v>2.52</v>
+      </c>
+      <c r="BP82">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7478819</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s">
+        <v>82</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>156</v>
+      </c>
+      <c r="P83" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q83">
+        <v>2.1</v>
+      </c>
+      <c r="R83">
+        <v>2.4</v>
+      </c>
+      <c r="S83">
+        <v>5.5</v>
+      </c>
+      <c r="T83">
+        <v>1.3</v>
+      </c>
+      <c r="U83">
+        <v>3.4</v>
+      </c>
+      <c r="V83">
+        <v>2.5</v>
+      </c>
+      <c r="W83">
+        <v>1.5</v>
+      </c>
+      <c r="X83">
+        <v>6</v>
+      </c>
+      <c r="Y83">
+        <v>1.13</v>
+      </c>
+      <c r="Z83">
+        <v>1.58</v>
+      </c>
+      <c r="AA83">
+        <v>4.3</v>
+      </c>
+      <c r="AB83">
+        <v>5.25</v>
+      </c>
+      <c r="AC83">
+        <v>1.03</v>
+      </c>
+      <c r="AD83">
+        <v>15</v>
+      </c>
+      <c r="AE83">
+        <v>1.2</v>
+      </c>
+      <c r="AF83">
+        <v>4.5</v>
+      </c>
+      <c r="AG83">
+        <v>1.76</v>
+      </c>
+      <c r="AH83">
+        <v>1.95</v>
+      </c>
+      <c r="AI83">
+        <v>1.73</v>
+      </c>
+      <c r="AJ83">
+        <v>2</v>
+      </c>
+      <c r="AK83">
+        <v>1.15</v>
+      </c>
+      <c r="AL83">
+        <v>1.18</v>
+      </c>
+      <c r="AM83">
+        <v>2.5</v>
+      </c>
+      <c r="AN83">
+        <v>1.33</v>
+      </c>
+      <c r="AO83">
+        <v>0.67</v>
+      </c>
+      <c r="AP83">
+        <v>1.75</v>
+      </c>
+      <c r="AQ83">
+        <v>0.5</v>
+      </c>
+      <c r="AR83">
+        <v>1.79</v>
+      </c>
+      <c r="AS83">
+        <v>1.09</v>
+      </c>
+      <c r="AT83">
+        <v>2.88</v>
+      </c>
+      <c r="AU83">
+        <v>9</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>3</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+      <c r="AY83">
+        <v>12</v>
+      </c>
+      <c r="AZ83">
+        <v>7</v>
+      </c>
+      <c r="BA83">
+        <v>7</v>
+      </c>
+      <c r="BB83">
+        <v>3</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>1.49</v>
+      </c>
+      <c r="BE83">
+        <v>7</v>
+      </c>
+      <c r="BF83">
+        <v>2.8</v>
+      </c>
+      <c r="BG83">
+        <v>1.13</v>
+      </c>
+      <c r="BH83">
+        <v>4.99</v>
+      </c>
+      <c r="BI83">
+        <v>1.3</v>
+      </c>
+      <c r="BJ83">
+        <v>3.28</v>
+      </c>
+      <c r="BK83">
+        <v>1.55</v>
+      </c>
+      <c r="BL83">
+        <v>2.4</v>
+      </c>
+      <c r="BM83">
+        <v>1.9</v>
+      </c>
+      <c r="BN83">
+        <v>1.9</v>
+      </c>
+      <c r="BO83">
+        <v>2.38</v>
+      </c>
+      <c r="BP83">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7478826</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s">
+        <v>89</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>157</v>
+      </c>
+      <c r="P84" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q84">
+        <v>2.88</v>
+      </c>
+      <c r="R84">
+        <v>2.2</v>
+      </c>
+      <c r="S84">
+        <v>3.6</v>
+      </c>
+      <c r="T84">
+        <v>1.36</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>2.75</v>
+      </c>
+      <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>8</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>2.6</v>
+      </c>
+      <c r="AA84">
+        <v>3.3</v>
+      </c>
+      <c r="AB84">
+        <v>2.7</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE84">
+        <v>1.23</v>
+      </c>
+      <c r="AF84">
+        <v>3.34</v>
+      </c>
+      <c r="AG84">
+        <v>1.95</v>
+      </c>
+      <c r="AH84">
+        <v>1.8</v>
+      </c>
+      <c r="AI84">
+        <v>1.73</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>1.4</v>
+      </c>
+      <c r="AL84">
+        <v>1.26</v>
+      </c>
+      <c r="AM84">
+        <v>1.65</v>
+      </c>
+      <c r="AN84">
+        <v>2.33</v>
+      </c>
+      <c r="AO84">
+        <v>0.33</v>
+      </c>
+      <c r="AP84">
+        <v>2</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
+      <c r="AR84">
+        <v>1.34</v>
+      </c>
+      <c r="AS84">
+        <v>1.29</v>
+      </c>
+      <c r="AT84">
+        <v>2.63</v>
+      </c>
+      <c r="AU84">
+        <v>3</v>
+      </c>
+      <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>4</v>
+      </c>
+      <c r="AX84">
+        <v>5</v>
+      </c>
+      <c r="AY84">
+        <v>7</v>
+      </c>
+      <c r="AZ84">
+        <v>12</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>8</v>
+      </c>
+      <c r="BC84">
+        <v>11</v>
+      </c>
+      <c r="BD84">
+        <v>1.93</v>
+      </c>
+      <c r="BE84">
+        <v>7</v>
+      </c>
+      <c r="BF84">
+        <v>2.07</v>
+      </c>
+      <c r="BG84">
+        <v>1.24</v>
+      </c>
+      <c r="BH84">
+        <v>3.66</v>
+      </c>
+      <c r="BI84">
+        <v>1.48</v>
+      </c>
+      <c r="BJ84">
+        <v>2.57</v>
+      </c>
+      <c r="BK84">
+        <v>1.82</v>
+      </c>
+      <c r="BL84">
+        <v>1.98</v>
+      </c>
+      <c r="BM84">
+        <v>2.29</v>
+      </c>
+      <c r="BN84">
+        <v>1.61</v>
+      </c>
+      <c r="BO84">
+        <v>3.03</v>
+      </c>
+      <c r="BP84">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,22 +469,25 @@
     <t>['53', '63']</t>
   </si>
   <si>
+    <t>['22', '35', '51', '90+1']</t>
+  </si>
+  <si>
+    <t>['16', '49', '79']</t>
+  </si>
+  <si>
+    <t>['34', '73']</t>
+  </si>
+  <si>
     <t>['60', '90+1']</t>
   </si>
   <si>
     <t>['9', '23', '86']</t>
   </si>
   <si>
-    <t>['34', '73']</t>
+    <t>['28', '84']</t>
   </si>
   <si>
     <t>['24', '38', '47']</t>
-  </si>
-  <si>
-    <t>['22', '35', '51', '90+1']</t>
-  </si>
-  <si>
-    <t>['16', '49', '79']</t>
   </si>
   <si>
     <t>['15']</t>
@@ -966,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1228,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1431,7 +1434,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1637,7 +1640,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2049,7 +2052,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2461,7 +2464,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2667,7 +2670,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2873,7 +2876,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2954,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3491,7 +3494,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3697,7 +3700,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4521,7 +4524,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4805,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5139,7 +5142,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5345,7 +5348,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5757,7 +5760,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6169,7 +6172,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6787,7 +6790,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6993,7 +6996,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7277,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7817,7 +7820,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8023,7 +8026,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8229,7 +8232,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8435,7 +8438,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8641,7 +8644,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8847,7 +8850,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9053,7 +9056,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9259,7 +9262,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9671,7 +9674,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9752,7 +9755,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -9877,7 +9880,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -11113,7 +11116,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12221,7 +12224,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12349,7 +12352,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12430,7 +12433,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12555,7 +12558,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13173,7 +13176,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13379,7 +13382,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13585,7 +13588,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14615,7 +14618,7 @@
         <v>95</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -15027,7 +15030,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15439,7 +15442,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16057,7 +16060,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16230,7 +16233,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45563.35416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F75">
         <v>7</v>
@@ -16356,22 +16359,22 @@
         <v>2.42</v>
       </c>
       <c r="AU75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW75">
+        <v>8</v>
+      </c>
+      <c r="AX75">
         <v>4</v>
       </c>
-      <c r="AX75">
-        <v>2</v>
-      </c>
       <c r="AY75">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA75">
         <v>8</v>
@@ -16427,7 +16430,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7478817</v>
+        <v>7478818</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16436,31 +16439,31 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45563.35416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F76">
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N76">
         <v>5</v>
@@ -16469,16 +16472,16 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="Q76">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R76">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S76">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="T76">
         <v>1.4</v>
@@ -16499,133 +16502,133 @@
         <v>1.08</v>
       </c>
       <c r="Z76">
-        <v>2.73</v>
+        <v>1.88</v>
       </c>
       <c r="AA76">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="AB76">
-        <v>2.52</v>
+        <v>3.98</v>
       </c>
       <c r="AC76">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD76">
-        <v>11</v>
+        <v>8.1</v>
       </c>
       <c r="AE76">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AF76">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AG76">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AH76">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AI76">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ76">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK76">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="AL76">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AM76">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AN76">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR76">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AS76">
-        <v>0.93</v>
+        <v>1.12</v>
       </c>
       <c r="AT76">
-        <v>2.13</v>
+        <v>2.49</v>
       </c>
       <c r="AU76">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV76">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW76">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX76">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY76">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ76">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA76">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BB76">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC76">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BD76">
-        <v>2.25</v>
+        <v>1.46</v>
       </c>
       <c r="BE76">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF76">
+        <v>2.95</v>
+      </c>
+      <c r="BG76">
+        <v>1.18</v>
+      </c>
+      <c r="BH76">
+        <v>4.24</v>
+      </c>
+      <c r="BI76">
+        <v>1.38</v>
+      </c>
+      <c r="BJ76">
+        <v>2.88</v>
+      </c>
+      <c r="BK76">
+        <v>1.68</v>
+      </c>
+      <c r="BL76">
+        <v>2.17</v>
+      </c>
+      <c r="BM76">
+        <v>2.08</v>
+      </c>
+      <c r="BN76">
         <v>1.75</v>
       </c>
-      <c r="BG76">
-        <v>1.15</v>
-      </c>
-      <c r="BH76">
-        <v>4.68</v>
-      </c>
-      <c r="BI76">
-        <v>1.33</v>
-      </c>
-      <c r="BJ76">
-        <v>3.12</v>
-      </c>
-      <c r="BK76">
-        <v>1.6</v>
-      </c>
-      <c r="BL76">
-        <v>2.31</v>
-      </c>
-      <c r="BM76">
-        <v>1.98</v>
-      </c>
-      <c r="BN76">
-        <v>1.82</v>
-      </c>
       <c r="BO76">
-        <v>2.49</v>
+        <v>2.67</v>
       </c>
       <c r="BP76">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16633,7 +16636,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7478825</v>
+        <v>7478819</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16642,196 +16645,196 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45563.35416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F77">
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O77" t="s">
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="Q77">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="R77">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S77">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="T77">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U77">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V77">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="W77">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y77">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z77">
-        <v>3.08</v>
+        <v>1.58</v>
       </c>
       <c r="AA77">
-        <v>3.36</v>
+        <v>4.3</v>
       </c>
       <c r="AB77">
-        <v>2.31</v>
+        <v>5.25</v>
       </c>
       <c r="AC77">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD77">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE77">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AF77">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AG77">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="AH77">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AI77">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ77">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK77">
-        <v>1.63</v>
+        <v>1.15</v>
       </c>
       <c r="AL77">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM77">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="AN77">
         <v>1.33</v>
       </c>
       <c r="AO77">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AP77">
         <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="AR77">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AS77">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="AT77">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="AU77">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV77">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW77">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX77">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY77">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ77">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA77">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB77">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC77">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD77">
+        <v>1.49</v>
+      </c>
+      <c r="BE77">
+        <v>7</v>
+      </c>
+      <c r="BF77">
+        <v>2.8</v>
+      </c>
+      <c r="BG77">
+        <v>1.13</v>
+      </c>
+      <c r="BH77">
+        <v>4.99</v>
+      </c>
+      <c r="BI77">
+        <v>1.3</v>
+      </c>
+      <c r="BJ77">
+        <v>3.28</v>
+      </c>
+      <c r="BK77">
+        <v>1.55</v>
+      </c>
+      <c r="BL77">
+        <v>2.4</v>
+      </c>
+      <c r="BM77">
         <v>1.9</v>
       </c>
-      <c r="BE77">
-        <v>6.75</v>
-      </c>
-      <c r="BF77">
-        <v>2.08</v>
-      </c>
-      <c r="BG77">
-        <v>1.2</v>
-      </c>
-      <c r="BH77">
-        <v>3.9</v>
-      </c>
-      <c r="BI77">
-        <v>1.37</v>
-      </c>
-      <c r="BJ77">
-        <v>2.8</v>
-      </c>
-      <c r="BK77">
-        <v>1.61</v>
-      </c>
-      <c r="BL77">
-        <v>2.15</v>
-      </c>
-      <c r="BM77">
-        <v>1.96</v>
-      </c>
       <c r="BN77">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="BO77">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BP77">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16839,7 +16842,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7478822</v>
+        <v>7478820</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16848,94 +16851,94 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F78">
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O78" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="P78" t="s">
         <v>95</v>
       </c>
       <c r="Q78">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="R78">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S78">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="T78">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W78">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y78">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z78">
-        <v>3.58</v>
+        <v>1.64</v>
       </c>
       <c r="AA78">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AB78">
-        <v>2.01</v>
+        <v>4.95</v>
       </c>
       <c r="AC78">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD78">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE78">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AF78">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AG78">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AH78">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AI78">
         <v>1.73</v>
@@ -16944,100 +16947,100 @@
         <v>2</v>
       </c>
       <c r="AK78">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AL78">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM78">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="AN78">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP78">
+        <v>2</v>
+      </c>
+      <c r="AQ78">
+        <v>0.75</v>
+      </c>
+      <c r="AR78">
+        <v>1.8</v>
+      </c>
+      <c r="AS78">
+        <v>1.1</v>
+      </c>
+      <c r="AT78">
+        <v>2.9</v>
+      </c>
+      <c r="AU78">
+        <v>-1</v>
+      </c>
+      <c r="AV78">
+        <v>-1</v>
+      </c>
+      <c r="AW78">
+        <v>-1</v>
+      </c>
+      <c r="AX78">
+        <v>-1</v>
+      </c>
+      <c r="AY78">
+        <v>-1</v>
+      </c>
+      <c r="AZ78">
+        <v>-1</v>
+      </c>
+      <c r="BA78">
+        <v>-1</v>
+      </c>
+      <c r="BB78">
+        <v>-1</v>
+      </c>
+      <c r="BC78">
+        <v>-1</v>
+      </c>
+      <c r="BD78">
+        <v>1.63</v>
+      </c>
+      <c r="BE78">
+        <v>7</v>
+      </c>
+      <c r="BF78">
         <v>2.5</v>
       </c>
-      <c r="AQ78">
-        <v>1.75</v>
-      </c>
-      <c r="AR78">
-        <v>1.32</v>
-      </c>
-      <c r="AS78">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT78">
-        <v>2.26</v>
-      </c>
-      <c r="AU78">
-        <v>2</v>
-      </c>
-      <c r="AV78">
-        <v>2</v>
-      </c>
-      <c r="AW78">
-        <v>1</v>
-      </c>
-      <c r="AX78">
-        <v>8</v>
-      </c>
-      <c r="AY78">
-        <v>3</v>
-      </c>
-      <c r="AZ78">
-        <v>10</v>
-      </c>
-      <c r="BA78">
-        <v>2</v>
-      </c>
-      <c r="BB78">
-        <v>6</v>
-      </c>
-      <c r="BC78">
-        <v>8</v>
-      </c>
-      <c r="BD78">
-        <v>2.23</v>
-      </c>
-      <c r="BE78">
-        <v>6.75</v>
-      </c>
-      <c r="BF78">
-        <v>1.77</v>
-      </c>
       <c r="BG78">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="BH78">
-        <v>4.16</v>
+        <v>5.1</v>
       </c>
       <c r="BI78">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BJ78">
-        <v>2.84</v>
+        <v>3.34</v>
       </c>
       <c r="BK78">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="BL78">
-        <v>2.15</v>
+        <v>2.44</v>
       </c>
       <c r="BM78">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="BN78">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="BO78">
-        <v>2.71</v>
+        <v>2.35</v>
       </c>
       <c r="BP78">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17045,7 +17048,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7478820</v>
+        <v>7478817</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17054,22 +17057,22 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45563.45833333334</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F79">
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -17078,172 +17081,172 @@
         <v>2</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P79" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="Q79">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="R79">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
+        <v>3.1</v>
+      </c>
+      <c r="T79">
+        <v>1.4</v>
+      </c>
+      <c r="U79">
+        <v>2.75</v>
+      </c>
+      <c r="V79">
+        <v>2.75</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>8</v>
+      </c>
+      <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>2.73</v>
+      </c>
+      <c r="AA79">
+        <v>3.42</v>
+      </c>
+      <c r="AB79">
+        <v>2.52</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>11</v>
+      </c>
+      <c r="AE79">
+        <v>1.32</v>
+      </c>
+      <c r="AF79">
+        <v>3.4</v>
+      </c>
+      <c r="AG79">
+        <v>1.85</v>
+      </c>
+      <c r="AH79">
+        <v>1.85</v>
+      </c>
+      <c r="AI79">
+        <v>1.8</v>
+      </c>
+      <c r="AJ79">
+        <v>1.91</v>
+      </c>
+      <c r="AK79">
+        <v>1.52</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.5</v>
+      </c>
+      <c r="AN79">
+        <v>3</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>2.25</v>
+      </c>
+      <c r="AQ79">
+        <v>1.5</v>
+      </c>
+      <c r="AR79">
+        <v>1.2</v>
+      </c>
+      <c r="AS79">
+        <v>0.93</v>
+      </c>
+      <c r="AT79">
+        <v>2.13</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
         <v>5</v>
       </c>
-      <c r="T79">
+      <c r="AW79">
+        <v>6</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>12</v>
+      </c>
+      <c r="AZ79">
+        <v>8</v>
+      </c>
+      <c r="BA79">
+        <v>9</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
+        <v>14</v>
+      </c>
+      <c r="BD79">
+        <v>2.25</v>
+      </c>
+      <c r="BE79">
+        <v>6.75</v>
+      </c>
+      <c r="BF79">
+        <v>1.75</v>
+      </c>
+      <c r="BG79">
+        <v>1.15</v>
+      </c>
+      <c r="BH79">
+        <v>4.68</v>
+      </c>
+      <c r="BI79">
         <v>1.33</v>
       </c>
-      <c r="U79">
-        <v>3.25</v>
-      </c>
-      <c r="V79">
-        <v>2.5</v>
-      </c>
-      <c r="W79">
-        <v>1.5</v>
-      </c>
-      <c r="X79">
-        <v>6.5</v>
-      </c>
-      <c r="Y79">
-        <v>1.11</v>
-      </c>
-      <c r="Z79">
-        <v>1.64</v>
-      </c>
-      <c r="AA79">
-        <v>4.1</v>
-      </c>
-      <c r="AB79">
-        <v>4.95</v>
-      </c>
-      <c r="AC79">
-        <v>1.03</v>
-      </c>
-      <c r="AD79">
-        <v>15</v>
-      </c>
-      <c r="AE79">
-        <v>1.24</v>
-      </c>
-      <c r="AF79">
-        <v>4.2</v>
-      </c>
-      <c r="AG79">
-        <v>1.69</v>
-      </c>
-      <c r="AH79">
-        <v>2.05</v>
-      </c>
-      <c r="AI79">
-        <v>1.73</v>
-      </c>
-      <c r="AJ79">
-        <v>2</v>
-      </c>
-      <c r="AK79">
-        <v>1.18</v>
-      </c>
-      <c r="AL79">
-        <v>1.2</v>
-      </c>
-      <c r="AM79">
-        <v>2.25</v>
-      </c>
-      <c r="AN79">
-        <v>1.67</v>
-      </c>
-      <c r="AO79">
-        <v>1</v>
-      </c>
-      <c r="AP79">
-        <v>2</v>
-      </c>
-      <c r="AQ79">
-        <v>0.75</v>
-      </c>
-      <c r="AR79">
-        <v>1.8</v>
-      </c>
-      <c r="AS79">
-        <v>1.1</v>
-      </c>
-      <c r="AT79">
-        <v>2.9</v>
-      </c>
-      <c r="AU79">
-        <v>10</v>
-      </c>
-      <c r="AV79">
-        <v>3</v>
-      </c>
-      <c r="AW79">
-        <v>9</v>
-      </c>
-      <c r="AX79">
-        <v>4</v>
-      </c>
-      <c r="AY79">
-        <v>19</v>
-      </c>
-      <c r="AZ79">
-        <v>7</v>
-      </c>
-      <c r="BA79">
-        <v>7</v>
-      </c>
-      <c r="BB79">
-        <v>2</v>
-      </c>
-      <c r="BC79">
-        <v>9</v>
-      </c>
-      <c r="BD79">
-        <v>1.63</v>
-      </c>
-      <c r="BE79">
-        <v>7</v>
-      </c>
-      <c r="BF79">
-        <v>2.5</v>
-      </c>
-      <c r="BG79">
-        <v>1.12</v>
-      </c>
-      <c r="BH79">
-        <v>5.1</v>
-      </c>
-      <c r="BI79">
-        <v>1.29</v>
-      </c>
       <c r="BJ79">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="BK79">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="BL79">
-        <v>2.44</v>
+        <v>2.31</v>
       </c>
       <c r="BM79">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BN79">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="BO79">
-        <v>2.35</v>
+        <v>2.49</v>
       </c>
       <c r="BP79">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17251,7 +17254,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7478821</v>
+        <v>7478825</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17260,16 +17263,16 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45563.45833333334</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F80">
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -17284,64 +17287,64 @@
         <v>3</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O80" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P80" t="s">
         <v>196</v>
       </c>
       <c r="Q80">
+        <v>3.75</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>3</v>
+      </c>
+      <c r="T80">
+        <v>1.44</v>
+      </c>
+      <c r="U80">
         <v>2.63</v>
       </c>
-      <c r="R80">
-        <v>2</v>
-      </c>
-      <c r="S80">
-        <v>5</v>
-      </c>
-      <c r="T80">
-        <v>1.53</v>
-      </c>
-      <c r="U80">
-        <v>2.38</v>
-      </c>
       <c r="V80">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W80">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X80">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y80">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z80">
-        <v>1.85</v>
+        <v>3.08</v>
       </c>
       <c r="AA80">
-        <v>3.42</v>
+        <v>3.36</v>
       </c>
       <c r="AB80">
-        <v>4.5</v>
+        <v>2.31</v>
       </c>
       <c r="AC80">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD80">
-        <v>6.65</v>
+        <v>10</v>
       </c>
       <c r="AE80">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AF80">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="AG80">
         <v>2.05</v>
@@ -17350,106 +17353,106 @@
         <v>1.69</v>
       </c>
       <c r="AI80">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ80">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AK80">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="AL80">
         <v>1.28</v>
       </c>
       <c r="AM80">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="AN80">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO80">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="AR80">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AS80">
-        <v>0.93</v>
+        <v>1.34</v>
       </c>
       <c r="AT80">
-        <v>2.32</v>
+        <v>3.02</v>
       </c>
       <c r="AU80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX80">
         <v>4</v>
       </c>
       <c r="AY80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ80">
+        <v>8</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
+      <c r="BB80">
+        <v>4</v>
+      </c>
+      <c r="BC80">
         <v>9</v>
       </c>
-      <c r="BA80">
-        <v>3</v>
-      </c>
-      <c r="BB80">
-        <v>8</v>
-      </c>
-      <c r="BC80">
-        <v>11</v>
-      </c>
       <c r="BD80">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="BE80">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF80">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="BG80">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="BH80">
-        <v>3.48</v>
+        <v>3.9</v>
       </c>
       <c r="BI80">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="BJ80">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="BK80">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="BL80">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="BM80">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="BN80">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="BO80">
-        <v>3.18</v>
+        <v>2.45</v>
       </c>
       <c r="BP80">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17457,7 +17460,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7478818</v>
+        <v>7478827</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17472,43 +17475,43 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M81">
         <v>1</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O81" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P81" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="Q81">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="R81">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="T81">
         <v>1.4</v>
@@ -17517,10 +17520,10 @@
         <v>2.75</v>
       </c>
       <c r="V81">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W81">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X81">
         <v>8</v>
@@ -17529,133 +17532,133 @@
         <v>1.08</v>
       </c>
       <c r="Z81">
-        <v>1.88</v>
+        <v>2.88</v>
       </c>
       <c r="AA81">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="AB81">
-        <v>3.98</v>
+        <v>2.41</v>
       </c>
       <c r="AC81">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD81">
-        <v>8.1</v>
+        <v>11</v>
       </c>
       <c r="AE81">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AF81">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG81">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AH81">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AI81">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ81">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK81">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="AL81">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AM81">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="AN81">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO81">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AQ81">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="AS81">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="AT81">
-        <v>2.49</v>
+        <v>3.1</v>
       </c>
       <c r="AU81">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX81">
         <v>7</v>
       </c>
       <c r="AY81">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD81">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="BE81">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF81">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="BG81">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH81">
-        <v>4.24</v>
+        <v>4.09</v>
       </c>
       <c r="BI81">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="BJ81">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="BK81">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="BL81">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="BM81">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="BN81">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="BO81">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="BP81">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17663,7 +17666,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7478824</v>
+        <v>7478822</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17678,10 +17681,10 @@
         <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H82" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -17708,13 +17711,13 @@
         <v>95</v>
       </c>
       <c r="Q82">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R82">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S82">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="T82">
         <v>1.36</v>
@@ -17723,10 +17726,10 @@
         <v>3</v>
       </c>
       <c r="V82">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W82">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X82">
         <v>7</v>
@@ -17735,25 +17738,25 @@
         <v>1.1</v>
       </c>
       <c r="Z82">
-        <v>4.05</v>
+        <v>3.58</v>
       </c>
       <c r="AA82">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="AB82">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="AC82">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD82">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE82">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF82">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AG82">
         <v>1.76</v>
@@ -17762,67 +17765,67 @@
         <v>1.95</v>
       </c>
       <c r="AI82">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AJ82">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK82">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AL82">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM82">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AN82">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AO82">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="AS82">
-        <v>1.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT82">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="AU82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX82">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY82">
+        <v>3</v>
+      </c>
+      <c r="AZ82">
+        <v>10</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
         <v>8</v>
-      </c>
-      <c r="AZ82">
-        <v>8</v>
-      </c>
-      <c r="BA82">
-        <v>14</v>
-      </c>
-      <c r="BB82">
-        <v>9</v>
-      </c>
-      <c r="BC82">
-        <v>23</v>
       </c>
       <c r="BD82">
         <v>2.23</v>
@@ -17831,37 +17834,37 @@
         <v>6.75</v>
       </c>
       <c r="BF82">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="BG82">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="BH82">
-        <v>4.58</v>
+        <v>4.16</v>
       </c>
       <c r="BI82">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="BJ82">
-        <v>3.06</v>
+        <v>2.84</v>
       </c>
       <c r="BK82">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BL82">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="BM82">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BN82">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BO82">
-        <v>2.52</v>
+        <v>2.71</v>
       </c>
       <c r="BP82">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17869,7 +17872,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7478819</v>
+        <v>7478821</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17884,190 +17887,190 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H83" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <v>3</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="Q83">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="R83">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T83">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="U83">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="V83">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="X83">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y83">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="Z83">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AA83">
-        <v>4.3</v>
+        <v>3.42</v>
       </c>
       <c r="AB83">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AC83">
         <v>1.03</v>
       </c>
       <c r="AD83">
-        <v>15</v>
+        <v>6.65</v>
       </c>
       <c r="AE83">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="AF83">
-        <v>4.5</v>
+        <v>2.54</v>
       </c>
       <c r="AG83">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="AH83">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AI83">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AJ83">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AK83">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AL83">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM83">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="AN83">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO83">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR83">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="AS83">
-        <v>1.09</v>
+        <v>0.93</v>
       </c>
       <c r="AT83">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
       <c r="AU83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX83">
         <v>4</v>
       </c>
       <c r="AY83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA83">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB83">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD83">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="BE83">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF83">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BG83">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="BH83">
-        <v>4.99</v>
+        <v>3.48</v>
       </c>
       <c r="BI83">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="BJ83">
-        <v>3.28</v>
+        <v>2.47</v>
       </c>
       <c r="BK83">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="BL83">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="BM83">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="BN83">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="BO83">
-        <v>2.38</v>
+        <v>3.18</v>
       </c>
       <c r="BP83">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18075,7 +18078,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7478826</v>
+        <v>7478824</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18084,49 +18087,49 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45564.45833333334</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F84">
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="P84" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="Q84">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="R84">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S84">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="T84">
         <v>1.36</v>
@@ -18135,144 +18138,350 @@
         <v>3</v>
       </c>
       <c r="V84">
+        <v>2.63</v>
+      </c>
+      <c r="W84">
+        <v>1.44</v>
+      </c>
+      <c r="X84">
+        <v>7</v>
+      </c>
+      <c r="Y84">
+        <v>1.1</v>
+      </c>
+      <c r="Z84">
+        <v>4.05</v>
+      </c>
+      <c r="AA84">
+        <v>3.78</v>
+      </c>
+      <c r="AB84">
+        <v>1.84</v>
+      </c>
+      <c r="AC84">
+        <v>1.04</v>
+      </c>
+      <c r="AD84">
+        <v>13</v>
+      </c>
+      <c r="AE84">
+        <v>1.28</v>
+      </c>
+      <c r="AF84">
+        <v>3.75</v>
+      </c>
+      <c r="AG84">
+        <v>1.76</v>
+      </c>
+      <c r="AH84">
+        <v>1.95</v>
+      </c>
+      <c r="AI84">
+        <v>1.8</v>
+      </c>
+      <c r="AJ84">
+        <v>1.91</v>
+      </c>
+      <c r="AK84">
+        <v>2</v>
+      </c>
+      <c r="AL84">
+        <v>1.22</v>
+      </c>
+      <c r="AM84">
+        <v>1.24</v>
+      </c>
+      <c r="AN84">
+        <v>0.33</v>
+      </c>
+      <c r="AO84">
+        <v>2.33</v>
+      </c>
+      <c r="AP84">
+        <v>0.5</v>
+      </c>
+      <c r="AQ84">
+        <v>2</v>
+      </c>
+      <c r="AR84">
+        <v>1.1</v>
+      </c>
+      <c r="AS84">
+        <v>1.2</v>
+      </c>
+      <c r="AT84">
+        <v>2.3</v>
+      </c>
+      <c r="AU84">
+        <v>3</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>8</v>
+      </c>
+      <c r="AZ84">
+        <v>8</v>
+      </c>
+      <c r="BA84">
+        <v>14</v>
+      </c>
+      <c r="BB84">
+        <v>9</v>
+      </c>
+      <c r="BC84">
+        <v>23</v>
+      </c>
+      <c r="BD84">
+        <v>2.23</v>
+      </c>
+      <c r="BE84">
+        <v>6.75</v>
+      </c>
+      <c r="BF84">
+        <v>1.75</v>
+      </c>
+      <c r="BG84">
+        <v>1.15</v>
+      </c>
+      <c r="BH84">
+        <v>4.58</v>
+      </c>
+      <c r="BI84">
+        <v>1.34</v>
+      </c>
+      <c r="BJ84">
+        <v>3.06</v>
+      </c>
+      <c r="BK84">
+        <v>1.62</v>
+      </c>
+      <c r="BL84">
+        <v>2.28</v>
+      </c>
+      <c r="BM84">
+        <v>2</v>
+      </c>
+      <c r="BN84">
+        <v>1.8</v>
+      </c>
+      <c r="BO84">
+        <v>2.52</v>
+      </c>
+      <c r="BP84">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7478826</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H85" t="s">
+        <v>89</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>158</v>
+      </c>
+      <c r="P85" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q85">
+        <v>2.88</v>
+      </c>
+      <c r="R85">
+        <v>2.2</v>
+      </c>
+      <c r="S85">
+        <v>3.6</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
         <v>2.75</v>
       </c>
-      <c r="W84">
+      <c r="W85">
         <v>1.4</v>
       </c>
-      <c r="X84">
+      <c r="X85">
         <v>8</v>
       </c>
-      <c r="Y84">
+      <c r="Y85">
         <v>1.08</v>
       </c>
-      <c r="Z84">
+      <c r="Z85">
         <v>2.6</v>
       </c>
-      <c r="AA84">
+      <c r="AA85">
         <v>3.3</v>
       </c>
-      <c r="AB84">
+      <c r="AB85">
         <v>2.7</v>
       </c>
-      <c r="AC84">
+      <c r="AC85">
         <v>1.01</v>
       </c>
-      <c r="AD84">
+      <c r="AD85">
         <v>8.199999999999999</v>
       </c>
-      <c r="AE84">
+      <c r="AE85">
         <v>1.23</v>
       </c>
-      <c r="AF84">
+      <c r="AF85">
         <v>3.34</v>
       </c>
-      <c r="AG84">
+      <c r="AG85">
         <v>1.95</v>
       </c>
-      <c r="AH84">
+      <c r="AH85">
         <v>1.8</v>
       </c>
-      <c r="AI84">
+      <c r="AI85">
         <v>1.73</v>
       </c>
-      <c r="AJ84">
-        <v>2</v>
-      </c>
-      <c r="AK84">
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
         <v>1.4</v>
       </c>
-      <c r="AL84">
+      <c r="AL85">
         <v>1.26</v>
       </c>
-      <c r="AM84">
+      <c r="AM85">
         <v>1.65</v>
       </c>
-      <c r="AN84">
+      <c r="AN85">
         <v>2.33</v>
       </c>
-      <c r="AO84">
+      <c r="AO85">
         <v>0.33</v>
       </c>
-      <c r="AP84">
-        <v>2</v>
-      </c>
-      <c r="AQ84">
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
         <v>0.5</v>
       </c>
-      <c r="AR84">
+      <c r="AR85">
         <v>1.34</v>
       </c>
-      <c r="AS84">
+      <c r="AS85">
         <v>1.29</v>
       </c>
-      <c r="AT84">
+      <c r="AT85">
         <v>2.63</v>
       </c>
-      <c r="AU84">
-        <v>3</v>
-      </c>
-      <c r="AV84">
+      <c r="AU85">
+        <v>3</v>
+      </c>
+      <c r="AV85">
         <v>7</v>
       </c>
-      <c r="AW84">
+      <c r="AW85">
         <v>4</v>
       </c>
-      <c r="AX84">
+      <c r="AX85">
         <v>5</v>
       </c>
-      <c r="AY84">
+      <c r="AY85">
         <v>7</v>
       </c>
-      <c r="AZ84">
+      <c r="AZ85">
         <v>12</v>
       </c>
-      <c r="BA84">
-        <v>3</v>
-      </c>
-      <c r="BB84">
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
         <v>8</v>
       </c>
-      <c r="BC84">
+      <c r="BC85">
         <v>11</v>
       </c>
-      <c r="BD84">
+      <c r="BD85">
         <v>1.93</v>
       </c>
-      <c r="BE84">
+      <c r="BE85">
         <v>7</v>
       </c>
-      <c r="BF84">
+      <c r="BF85">
         <v>2.07</v>
       </c>
-      <c r="BG84">
+      <c r="BG85">
         <v>1.24</v>
       </c>
-      <c r="BH84">
+      <c r="BH85">
         <v>3.66</v>
       </c>
-      <c r="BI84">
+      <c r="BI85">
         <v>1.48</v>
       </c>
-      <c r="BJ84">
+      <c r="BJ85">
         <v>2.57</v>
       </c>
-      <c r="BK84">
+      <c r="BK85">
         <v>1.82</v>
       </c>
-      <c r="BL84">
+      <c r="BL85">
         <v>1.98</v>
       </c>
-      <c r="BM84">
+      <c r="BM85">
         <v>2.29</v>
       </c>
-      <c r="BN84">
+      <c r="BN85">
         <v>1.61</v>
       </c>
-      <c r="BO84">
+      <c r="BO85">
         <v>3.03</v>
       </c>
-      <c r="BP84">
+      <c r="BP85">
         <v>1.35</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,31 +466,16 @@
     <t>['8', '69', '90+3']</t>
   </si>
   <si>
-    <t>['53', '63']</t>
-  </si>
-  <si>
-    <t>['22', '35', '51', '90+1']</t>
-  </si>
-  <si>
-    <t>['16', '49', '79']</t>
-  </si>
-  <si>
-    <t>['34', '73']</t>
-  </si>
-  <si>
-    <t>['60', '90+1']</t>
-  </si>
-  <si>
-    <t>['9', '23', '86']</t>
-  </si>
-  <si>
-    <t>['28', '84']</t>
-  </si>
-  <si>
-    <t>['24', '38', '47']</t>
-  </si>
-  <si>
-    <t>['15']</t>
+    <t>['11', '48', '84']</t>
+  </si>
+  <si>
+    <t>['10', '37']</t>
+  </si>
+  <si>
+    <t>['40', '55']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -541,9 +526,6 @@
     <t>['2', '25']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['18', '31']</t>
   </si>
   <si>
@@ -598,16 +580,16 @@
     <t>['8', '32']</t>
   </si>
   <si>
-    <t>['71']</t>
-  </si>
-  <si>
-    <t>['45+3', '65', '87']</t>
-  </si>
-  <si>
-    <t>['65', '84']</t>
-  </si>
-  <si>
-    <t>['87']</t>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['45', '54']</t>
+  </si>
+  <si>
+    <t>['25', '36', '71']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1210,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1434,7 +1416,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1515,7 +1497,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1640,7 +1622,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1718,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1924,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2052,7 +2034,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2130,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2339,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2464,7 +2446,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2542,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -2670,7 +2652,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2748,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2876,7 +2858,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2954,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3160,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3366,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3494,7 +3476,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3575,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3700,7 +3682,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3778,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3984,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>2.33</v>
@@ -4190,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4396,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4524,7 +4506,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4605,7 +4587,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4808,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5014,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5142,7 +5124,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5223,7 +5205,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5348,7 +5330,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5429,7 +5411,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5632,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ23">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5760,7 +5742,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5841,7 +5823,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6172,7 +6154,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6250,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>2.33</v>
@@ -6456,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6662,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -6790,7 +6772,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6871,7 +6853,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -6996,7 +6978,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7074,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7280,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7489,7 +7471,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -7820,7 +7802,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7901,7 +7883,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8026,7 +8008,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8107,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8232,7 +8214,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8313,7 +8295,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8438,7 +8420,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8516,10 +8498,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8644,7 +8626,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8725,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.01</v>
@@ -8850,7 +8832,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -8928,10 +8910,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9056,7 +9038,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9134,10 +9116,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9262,7 +9244,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9340,10 +9322,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9546,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9674,7 +9656,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9752,10 +9734,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -9880,7 +9862,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9961,7 +9943,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10164,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10370,10 +10352,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
+        <v>1.33</v>
+      </c>
+      <c r="AQ46">
         <v>1.75</v>
-      </c>
-      <c r="AQ46">
-        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -10576,10 +10558,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -10782,10 +10764,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11116,7 +11098,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11194,10 +11176,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11400,10 +11382,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11606,7 +11588,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11812,10 +11794,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.18</v>
@@ -12018,10 +12000,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ54">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12224,10 +12206,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12352,7 +12334,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12433,7 +12415,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12558,7 +12540,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12636,10 +12618,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
         <v>1.82</v>
@@ -12842,10 +12824,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.35</v>
@@ -13051,7 +13033,7 @@
         <v>3</v>
       </c>
       <c r="AQ59">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13176,7 +13158,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13254,10 +13236,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13382,7 +13364,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13460,10 +13442,10 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ61">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -13588,7 +13570,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13669,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -13872,10 +13854,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14081,7 +14063,7 @@
         <v>3</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -14490,10 +14472,10 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>2.07</v>
@@ -14618,7 +14600,7 @@
         <v>95</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>5.5</v>
@@ -14696,7 +14678,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67">
         <v>2.33</v>
@@ -14905,7 +14887,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15030,7 +15012,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15108,7 +15090,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15442,7 +15424,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15520,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15935,7 +15917,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR73">
         <v>0.68</v>
@@ -16027,7 +16009,7 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45562.66666666666</v>
+        <v>45561.875</v>
       </c>
       <c r="F74">
         <v>7</v>
@@ -16060,7 +16042,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16153,31 +16135,31 @@
         <v>2.89</v>
       </c>
       <c r="AU74">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV74">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW74">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX74">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY74">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ74">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB74">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BC74">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BD74">
         <v>2.48</v>
@@ -16224,7 +16206,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7478816</v>
+        <v>7478828</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16233,196 +16215,196 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45562.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H75" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O75" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="P75" t="s">
         <v>95</v>
       </c>
       <c r="Q75">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="R75">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="S75">
-        <v>4.33</v>
+        <v>5.75</v>
       </c>
       <c r="T75">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="U75">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V75">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="W75">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X75">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="Y75">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z75">
-        <v>2.04</v>
+        <v>1.44</v>
       </c>
       <c r="AA75">
-        <v>3.54</v>
+        <v>4.9</v>
       </c>
       <c r="AB75">
-        <v>3.54</v>
+        <v>6.6</v>
       </c>
       <c r="AC75">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD75">
-        <v>8.199999999999999</v>
+        <v>18.75</v>
       </c>
       <c r="AE75">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AF75">
-        <v>3.08</v>
+        <v>4.82</v>
       </c>
       <c r="AG75">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AH75">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="AI75">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AJ75">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK75">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AL75">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AM75">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="AN75">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO75">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AR75">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AS75">
-        <v>1.07</v>
+        <v>0.63</v>
       </c>
       <c r="AT75">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="AU75">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY75">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AZ75">
         <v>7</v>
       </c>
       <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
         <v>8</v>
       </c>
-      <c r="BB75">
-        <v>2</v>
-      </c>
-      <c r="BC75">
-        <v>10</v>
-      </c>
       <c r="BD75">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="BE75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BF75">
-        <v>2.48</v>
+        <v>4.4</v>
       </c>
       <c r="BG75">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="BH75">
-        <v>5.21</v>
+        <v>5.6</v>
       </c>
       <c r="BI75">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="BJ75">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="BK75">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="BL75">
-        <v>2.47</v>
+        <v>2.95</v>
       </c>
       <c r="BM75">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="BN75">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="BO75">
-        <v>2.32</v>
+        <v>1.81</v>
       </c>
       <c r="BP75">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16430,7 +16412,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7478818</v>
+        <v>7478829</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16439,196 +16421,196 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45562.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>120</v>
+      </c>
+      <c r="P76" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q76">
+        <v>3.6</v>
+      </c>
+      <c r="R76">
+        <v>1.91</v>
+      </c>
+      <c r="S76">
+        <v>3.3</v>
+      </c>
+      <c r="T76">
+        <v>1.55</v>
+      </c>
+      <c r="U76">
+        <v>2.25</v>
+      </c>
+      <c r="V76">
+        <v>3.5</v>
+      </c>
+      <c r="W76">
+        <v>1.25</v>
+      </c>
+      <c r="X76">
+        <v>8.25</v>
+      </c>
+      <c r="Y76">
+        <v>1.04</v>
+      </c>
+      <c r="Z76">
+        <v>3</v>
+      </c>
+      <c r="AA76">
+        <v>3</v>
+      </c>
+      <c r="AB76">
+        <v>2.34</v>
+      </c>
+      <c r="AC76">
+        <v>1.08</v>
+      </c>
+      <c r="AD76">
+        <v>6.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.5</v>
+      </c>
+      <c r="AF76">
+        <v>2.45</v>
+      </c>
+      <c r="AG76">
+        <v>2.45</v>
+      </c>
+      <c r="AH76">
+        <v>1.49</v>
+      </c>
+      <c r="AI76">
+        <v>2.1</v>
+      </c>
+      <c r="AJ76">
+        <v>1.68</v>
+      </c>
+      <c r="AK76">
+        <v>1.5</v>
+      </c>
+      <c r="AL76">
+        <v>1.38</v>
+      </c>
+      <c r="AM76">
+        <v>1.42</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0.67</v>
+      </c>
+      <c r="AP76">
+        <v>0.75</v>
+      </c>
+      <c r="AQ76">
+        <v>0.5</v>
+      </c>
+      <c r="AR76">
+        <v>1.02</v>
+      </c>
+      <c r="AS76">
+        <v>1.46</v>
+      </c>
+      <c r="AT76">
+        <v>2.48</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>6</v>
+      </c>
+      <c r="AW76">
         <v>4</v>
       </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>10</v>
+      </c>
+      <c r="AZ76">
+        <v>10</v>
+      </c>
+      <c r="BA76">
         <v>5</v>
       </c>
-      <c r="O76" t="s">
-        <v>151</v>
-      </c>
-      <c r="P76" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q76">
-        <v>2.6</v>
-      </c>
-      <c r="R76">
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>11</v>
+      </c>
+      <c r="BD76">
+        <v>1.58</v>
+      </c>
+      <c r="BE76">
+        <v>6.5</v>
+      </c>
+      <c r="BF76">
+        <v>2.65</v>
+      </c>
+      <c r="BG76">
+        <v>1.33</v>
+      </c>
+      <c r="BH76">
+        <v>2.95</v>
+      </c>
+      <c r="BI76">
+        <v>1.57</v>
+      </c>
+      <c r="BJ76">
         <v>2.2</v>
       </c>
-      <c r="S76">
-        <v>4.33</v>
-      </c>
-      <c r="T76">
-        <v>1.4</v>
-      </c>
-      <c r="U76">
-        <v>2.75</v>
-      </c>
-      <c r="V76">
-        <v>2.75</v>
-      </c>
-      <c r="W76">
-        <v>1.4</v>
-      </c>
-      <c r="X76">
-        <v>8</v>
-      </c>
-      <c r="Y76">
-        <v>1.08</v>
-      </c>
-      <c r="Z76">
-        <v>1.88</v>
-      </c>
-      <c r="AA76">
-        <v>3.68</v>
-      </c>
-      <c r="AB76">
-        <v>3.98</v>
-      </c>
-      <c r="AC76">
-        <v>1.01</v>
-      </c>
-      <c r="AD76">
-        <v>8.1</v>
-      </c>
-      <c r="AE76">
-        <v>1.25</v>
-      </c>
-      <c r="AF76">
-        <v>3.2</v>
-      </c>
-      <c r="AG76">
+      <c r="BK76">
         <v>1.95</v>
       </c>
-      <c r="AH76">
-        <v>1.76</v>
-      </c>
-      <c r="AI76">
-        <v>1.83</v>
-      </c>
-      <c r="AJ76">
-        <v>1.83</v>
-      </c>
-      <c r="AK76">
-        <v>1.26</v>
-      </c>
-      <c r="AL76">
-        <v>1.24</v>
-      </c>
-      <c r="AM76">
-        <v>1.9</v>
-      </c>
-      <c r="AN76">
-        <v>0.67</v>
-      </c>
-      <c r="AO76">
-        <v>0.33</v>
-      </c>
-      <c r="AP76">
-        <v>1.25</v>
-      </c>
-      <c r="AQ76">
-        <v>0.25</v>
-      </c>
-      <c r="AR76">
-        <v>1.37</v>
-      </c>
-      <c r="AS76">
-        <v>1.12</v>
-      </c>
-      <c r="AT76">
-        <v>2.49</v>
-      </c>
-      <c r="AU76">
-        <v>-1</v>
-      </c>
-      <c r="AV76">
-        <v>-1</v>
-      </c>
-      <c r="AW76">
-        <v>-1</v>
-      </c>
-      <c r="AX76">
-        <v>-1</v>
-      </c>
-      <c r="AY76">
-        <v>-1</v>
-      </c>
-      <c r="AZ76">
-        <v>-1</v>
-      </c>
-      <c r="BA76">
-        <v>-1</v>
-      </c>
-      <c r="BB76">
-        <v>-1</v>
-      </c>
-      <c r="BC76">
-        <v>-1</v>
-      </c>
-      <c r="BD76">
-        <v>1.46</v>
-      </c>
-      <c r="BE76">
-        <v>7</v>
-      </c>
-      <c r="BF76">
-        <v>2.95</v>
-      </c>
-      <c r="BG76">
-        <v>1.18</v>
-      </c>
-      <c r="BH76">
-        <v>4.24</v>
-      </c>
-      <c r="BI76">
-        <v>1.38</v>
-      </c>
-      <c r="BJ76">
-        <v>2.88</v>
-      </c>
-      <c r="BK76">
-        <v>1.68</v>
-      </c>
       <c r="BL76">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="BM76">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="BN76">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="BO76">
-        <v>2.67</v>
+        <v>3.15</v>
       </c>
       <c r="BP76">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16636,7 +16618,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7478819</v>
+        <v>7478830</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16645,16 +16627,16 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45562.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -16675,166 +16657,166 @@
         <v>3</v>
       </c>
       <c r="O77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P77" t="s">
         <v>95</v>
       </c>
       <c r="Q77">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R77">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S77">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T77">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U77">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="V77">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="W77">
         <v>1.5</v>
       </c>
       <c r="X77">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y77">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z77">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="AA77">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="AB77">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="AC77">
         <v>1.03</v>
       </c>
       <c r="AD77">
-        <v>15</v>
+        <v>15.25</v>
       </c>
       <c r="AE77">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF77">
-        <v>4.5</v>
+        <v>3.88</v>
       </c>
       <c r="AG77">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AH77">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AI77">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AJ77">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK77">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="AL77">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM77">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="AN77">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO77">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="AS77">
-        <v>1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT77">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="AU77">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV77">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW77">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY77">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ77">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA77">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC77">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD77">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="BE77">
         <v>7</v>
       </c>
       <c r="BF77">
+        <v>2.48</v>
+      </c>
+      <c r="BG77">
+        <v>1.11</v>
+      </c>
+      <c r="BH77">
+        <v>5.3</v>
+      </c>
+      <c r="BI77">
+        <v>1.21</v>
+      </c>
+      <c r="BJ77">
+        <v>3.8</v>
+      </c>
+      <c r="BK77">
+        <v>1.37</v>
+      </c>
+      <c r="BL77">
         <v>2.8</v>
       </c>
-      <c r="BG77">
-        <v>1.13</v>
-      </c>
-      <c r="BH77">
-        <v>4.99</v>
-      </c>
-      <c r="BI77">
-        <v>1.3</v>
-      </c>
-      <c r="BJ77">
-        <v>3.28</v>
-      </c>
-      <c r="BK77">
-        <v>1.55</v>
-      </c>
-      <c r="BL77">
-        <v>2.4</v>
-      </c>
       <c r="BM77">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="BN77">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="BO77">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="BP77">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16842,7 +16824,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7478820</v>
+        <v>7478831</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16851,196 +16833,196 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45562.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <v>2</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P78" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="Q78">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R78">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S78">
         <v>5</v>
       </c>
       <c r="T78">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U78">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="V78">
         <v>2.5</v>
       </c>
       <c r="W78">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X78">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y78">
         <v>1.11</v>
       </c>
       <c r="Z78">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AA78">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AB78">
-        <v>4.95</v>
+        <v>4.7</v>
       </c>
       <c r="AC78">
         <v>1.03</v>
       </c>
       <c r="AD78">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE78">
+        <v>1.25</v>
+      </c>
+      <c r="AF78">
+        <v>3.9</v>
+      </c>
+      <c r="AG78">
+        <v>1.75</v>
+      </c>
+      <c r="AH78">
+        <v>1.95</v>
+      </c>
+      <c r="AI78">
+        <v>1.78</v>
+      </c>
+      <c r="AJ78">
+        <v>1.95</v>
+      </c>
+      <c r="AK78">
+        <v>1.19</v>
+      </c>
+      <c r="AL78">
         <v>1.24</v>
-      </c>
-      <c r="AF78">
-        <v>4.2</v>
-      </c>
-      <c r="AG78">
-        <v>1.69</v>
-      </c>
-      <c r="AH78">
-        <v>2.05</v>
-      </c>
-      <c r="AI78">
-        <v>1.73</v>
-      </c>
-      <c r="AJ78">
-        <v>2</v>
-      </c>
-      <c r="AK78">
-        <v>1.18</v>
-      </c>
-      <c r="AL78">
-        <v>1.2</v>
       </c>
       <c r="AM78">
         <v>2.25</v>
       </c>
       <c r="AN78">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR78">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="AS78">
-        <v>1.1</v>
+        <v>0.87</v>
       </c>
       <c r="AT78">
+        <v>2.13</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>9</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>9</v>
+      </c>
+      <c r="AZ78">
+        <v>16</v>
+      </c>
+      <c r="BA78">
+        <v>5</v>
+      </c>
+      <c r="BB78">
+        <v>6</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.38</v>
+      </c>
+      <c r="BE78">
+        <v>7.5</v>
+      </c>
+      <c r="BF78">
+        <v>3.3</v>
+      </c>
+      <c r="BG78">
+        <v>1.2</v>
+      </c>
+      <c r="BH78">
+        <v>3.95</v>
+      </c>
+      <c r="BI78">
+        <v>1.35</v>
+      </c>
+      <c r="BJ78">
         <v>2.9</v>
       </c>
-      <c r="AU78">
-        <v>-1</v>
-      </c>
-      <c r="AV78">
-        <v>-1</v>
-      </c>
-      <c r="AW78">
-        <v>-1</v>
-      </c>
-      <c r="AX78">
-        <v>-1</v>
-      </c>
-      <c r="AY78">
-        <v>-1</v>
-      </c>
-      <c r="AZ78">
-        <v>-1</v>
-      </c>
-      <c r="BA78">
-        <v>-1</v>
-      </c>
-      <c r="BB78">
-        <v>-1</v>
-      </c>
-      <c r="BC78">
-        <v>-1</v>
-      </c>
-      <c r="BD78">
-        <v>1.63</v>
-      </c>
-      <c r="BE78">
-        <v>7</v>
-      </c>
-      <c r="BF78">
-        <v>2.5</v>
-      </c>
-      <c r="BG78">
-        <v>1.12</v>
-      </c>
-      <c r="BH78">
-        <v>5.1</v>
-      </c>
-      <c r="BI78">
-        <v>1.29</v>
-      </c>
-      <c r="BJ78">
-        <v>3.34</v>
-      </c>
       <c r="BK78">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="BL78">
-        <v>2.44</v>
+        <v>2.23</v>
       </c>
       <c r="BM78">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BN78">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="BO78">
         <v>2.35</v>
       </c>
       <c r="BP78">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17048,7 +17030,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7478817</v>
+        <v>7478834</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17057,22 +17039,22 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45563.35416666666</v>
+        <v>45566.65625</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G79" t="s">
+        <v>93</v>
+      </c>
+      <c r="H79" t="s">
         <v>84</v>
       </c>
-      <c r="H79" t="s">
-        <v>90</v>
-      </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -17081,172 +17063,172 @@
         <v>2</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="Q79">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="S79">
-        <v>3.1</v>
+        <v>5.28</v>
       </c>
       <c r="T79">
         <v>1.4</v>
       </c>
       <c r="U79">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="V79">
-        <v>2.75</v>
+        <v>3.02</v>
       </c>
       <c r="W79">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X79">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Y79">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z79">
-        <v>2.73</v>
+        <v>1.73</v>
       </c>
       <c r="AA79">
-        <v>3.42</v>
+        <v>3.8</v>
       </c>
       <c r="AB79">
-        <v>2.52</v>
+        <v>4.8</v>
       </c>
       <c r="AC79">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD79">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE79">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AF79">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AG79">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="AH79">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AI79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AJ79">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="AK79">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="AL79">
         <v>1.28</v>
       </c>
       <c r="AM79">
+        <v>2.06</v>
+      </c>
+      <c r="AN79">
+        <v>3</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>3</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>1.26</v>
+      </c>
+      <c r="AS79">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT79">
+        <v>2.2</v>
+      </c>
+      <c r="AU79">
+        <v>4</v>
+      </c>
+      <c r="AV79">
+        <v>7</v>
+      </c>
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>9</v>
+      </c>
+      <c r="AZ79">
+        <v>10</v>
+      </c>
+      <c r="BA79">
+        <v>1</v>
+      </c>
+      <c r="BB79">
+        <v>8</v>
+      </c>
+      <c r="BC79">
+        <v>9</v>
+      </c>
+      <c r="BD79">
+        <v>1.45</v>
+      </c>
+      <c r="BE79">
+        <v>7</v>
+      </c>
+      <c r="BF79">
+        <v>3.05</v>
+      </c>
+      <c r="BG79">
+        <v>1.2</v>
+      </c>
+      <c r="BH79">
+        <v>3.95</v>
+      </c>
+      <c r="BI79">
+        <v>1.35</v>
+      </c>
+      <c r="BJ79">
+        <v>2.9</v>
+      </c>
+      <c r="BK79">
+        <v>1.58</v>
+      </c>
+      <c r="BL79">
+        <v>2.2</v>
+      </c>
+      <c r="BM79">
+        <v>1.91</v>
+      </c>
+      <c r="BN79">
+        <v>1.78</v>
+      </c>
+      <c r="BO79">
+        <v>2.38</v>
+      </c>
+      <c r="BP79">
         <v>1.5</v>
-      </c>
-      <c r="AN79">
-        <v>3</v>
-      </c>
-      <c r="AO79">
-        <v>1</v>
-      </c>
-      <c r="AP79">
-        <v>2.25</v>
-      </c>
-      <c r="AQ79">
-        <v>1.5</v>
-      </c>
-      <c r="AR79">
-        <v>1.2</v>
-      </c>
-      <c r="AS79">
-        <v>0.93</v>
-      </c>
-      <c r="AT79">
-        <v>2.13</v>
-      </c>
-      <c r="AU79">
-        <v>6</v>
-      </c>
-      <c r="AV79">
-        <v>5</v>
-      </c>
-      <c r="AW79">
-        <v>6</v>
-      </c>
-      <c r="AX79">
-        <v>3</v>
-      </c>
-      <c r="AY79">
-        <v>12</v>
-      </c>
-      <c r="AZ79">
-        <v>8</v>
-      </c>
-      <c r="BA79">
-        <v>9</v>
-      </c>
-      <c r="BB79">
-        <v>5</v>
-      </c>
-      <c r="BC79">
-        <v>14</v>
-      </c>
-      <c r="BD79">
-        <v>2.25</v>
-      </c>
-      <c r="BE79">
-        <v>6.75</v>
-      </c>
-      <c r="BF79">
-        <v>1.75</v>
-      </c>
-      <c r="BG79">
-        <v>1.15</v>
-      </c>
-      <c r="BH79">
-        <v>4.68</v>
-      </c>
-      <c r="BI79">
-        <v>1.33</v>
-      </c>
-      <c r="BJ79">
-        <v>3.12</v>
-      </c>
-      <c r="BK79">
-        <v>1.6</v>
-      </c>
-      <c r="BL79">
-        <v>2.31</v>
-      </c>
-      <c r="BM79">
-        <v>1.98</v>
-      </c>
-      <c r="BN79">
-        <v>1.82</v>
-      </c>
-      <c r="BO79">
-        <v>2.49</v>
-      </c>
-      <c r="BP79">
-        <v>1.52</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17254,7 +17236,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7478825</v>
+        <v>7478832</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17263,196 +17245,196 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45563.35416666666</v>
+        <v>45566.65625</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H80" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q80">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="R80">
         <v>2.1</v>
       </c>
       <c r="S80">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T80">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U80">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="V80">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W80">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X80">
-        <v>9</v>
+        <v>6.25</v>
       </c>
       <c r="Y80">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Z80">
-        <v>3.08</v>
+        <v>2.42</v>
       </c>
       <c r="AA80">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="AB80">
-        <v>2.31</v>
+        <v>2.7</v>
       </c>
       <c r="AC80">
         <v>1.06</v>
       </c>
       <c r="AD80">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AE80">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AF80">
-        <v>3.2</v>
+        <v>3.57</v>
       </c>
       <c r="AG80">
+        <v>1.91</v>
+      </c>
+      <c r="AH80">
+        <v>1.9</v>
+      </c>
+      <c r="AI80">
+        <v>1.7</v>
+      </c>
+      <c r="AJ80">
         <v>2.05</v>
       </c>
-      <c r="AH80">
-        <v>1.69</v>
-      </c>
-      <c r="AI80">
-        <v>1.83</v>
-      </c>
-      <c r="AJ80">
-        <v>1.83</v>
-      </c>
       <c r="AK80">
+        <v>1.38</v>
+      </c>
+      <c r="AL80">
+        <v>1.32</v>
+      </c>
+      <c r="AM80">
+        <v>1.62</v>
+      </c>
+      <c r="AN80">
+        <v>0.67</v>
+      </c>
+      <c r="AO80">
+        <v>1.33</v>
+      </c>
+      <c r="AP80">
+        <v>0.5</v>
+      </c>
+      <c r="AQ80">
+        <v>1.75</v>
+      </c>
+      <c r="AR80">
         <v>1.63</v>
       </c>
-      <c r="AL80">
-        <v>1.28</v>
-      </c>
-      <c r="AM80">
-        <v>1.38</v>
-      </c>
-      <c r="AN80">
-        <v>1.33</v>
-      </c>
-      <c r="AO80">
-        <v>3</v>
-      </c>
-      <c r="AP80">
-        <v>1.75</v>
-      </c>
-      <c r="AQ80">
-        <v>2.25</v>
-      </c>
-      <c r="AR80">
-        <v>1.68</v>
-      </c>
       <c r="AS80">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="AT80">
-        <v>3.02</v>
+        <v>2.73</v>
       </c>
       <c r="AU80">
+        <v>8</v>
+      </c>
+      <c r="AV80">
+        <v>7</v>
+      </c>
+      <c r="AW80">
+        <v>5</v>
+      </c>
+      <c r="AX80">
         <v>6</v>
       </c>
-      <c r="AV80">
-        <v>4</v>
-      </c>
-      <c r="AW80">
-        <v>6</v>
-      </c>
-      <c r="AX80">
-        <v>4</v>
-      </c>
       <c r="AY80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ80">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA80">
         <v>5</v>
       </c>
       <c r="BB80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC80">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD80">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="BE80">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF80">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="BG80">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BH80">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BI80">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BJ80">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BK80">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="BL80">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="BM80">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="BN80">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="BO80">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BP80">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17460,7 +17442,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7478827</v>
+        <v>7478835</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17469,49 +17451,49 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.66666666666</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>1</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O81" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="P81" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q81">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="R81">
         <v>2.1</v>
       </c>
       <c r="S81">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T81">
         <v>1.4</v>
@@ -17520,969 +17502,145 @@
         <v>2.75</v>
       </c>
       <c r="V81">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="W81">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X81">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Y81">
         <v>1.08</v>
       </c>
       <c r="Z81">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="AA81">
-        <v>3.42</v>
+        <v>3.2</v>
       </c>
       <c r="AB81">
-        <v>2.41</v>
+        <v>2.7</v>
       </c>
       <c r="AC81">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD81">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE81">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AF81">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="AG81">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AH81">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AI81">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AJ81">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK81">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AL81">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM81">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AN81">
         <v>2.33</v>
       </c>
       <c r="AO81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
       </c>
       <c r="AR81">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="AS81">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT81">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="AU81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
+        <v>10</v>
+      </c>
+      <c r="AY81">
+        <v>7</v>
+      </c>
+      <c r="AZ81">
+        <v>15</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
         <v>4</v>
       </c>
-      <c r="AX81">
+      <c r="BC81">
+        <v>9</v>
+      </c>
+      <c r="BD81">
+        <v>1.8</v>
+      </c>
+      <c r="BE81">
         <v>7</v>
       </c>
-      <c r="AY81">
-        <v>10</v>
-      </c>
-      <c r="AZ81">
-        <v>13</v>
-      </c>
-      <c r="BA81">
-        <v>4</v>
-      </c>
-      <c r="BB81">
-        <v>6</v>
-      </c>
-      <c r="BC81">
-        <v>10</v>
-      </c>
-      <c r="BD81">
-        <v>1.84</v>
-      </c>
-      <c r="BE81">
-        <v>6.75</v>
-      </c>
       <c r="BF81">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="BG81">
         <v>1.19</v>
       </c>
       <c r="BH81">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="BI81">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="BJ81">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BK81">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="BL81">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="BM81">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="BN81">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BO81">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="BP81">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:68">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>7478822</v>
-      </c>
-      <c r="C82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="2">
-        <v>45563.45833333334</v>
-      </c>
-      <c r="F82">
-        <v>7</v>
-      </c>
-      <c r="G82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H82" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82" t="s">
-        <v>95</v>
-      </c>
-      <c r="P82" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q82">
-        <v>4</v>
-      </c>
-      <c r="R82">
-        <v>2.2</v>
-      </c>
-      <c r="S82">
-        <v>2.63</v>
-      </c>
-      <c r="T82">
-        <v>1.36</v>
-      </c>
-      <c r="U82">
-        <v>3</v>
-      </c>
-      <c r="V82">
-        <v>2.75</v>
-      </c>
-      <c r="W82">
-        <v>1.4</v>
-      </c>
-      <c r="X82">
-        <v>7</v>
-      </c>
-      <c r="Y82">
-        <v>1.1</v>
-      </c>
-      <c r="Z82">
-        <v>3.58</v>
-      </c>
-      <c r="AA82">
-        <v>3.6</v>
-      </c>
-      <c r="AB82">
-        <v>2.01</v>
-      </c>
-      <c r="AC82">
-        <v>1.05</v>
-      </c>
-      <c r="AD82">
-        <v>12</v>
-      </c>
-      <c r="AE82">
-        <v>1.3</v>
-      </c>
-      <c r="AF82">
-        <v>3.6</v>
-      </c>
-      <c r="AG82">
-        <v>1.76</v>
-      </c>
-      <c r="AH82">
-        <v>1.95</v>
-      </c>
-      <c r="AI82">
-        <v>1.73</v>
-      </c>
-      <c r="AJ82">
-        <v>2</v>
-      </c>
-      <c r="AK82">
-        <v>1.83</v>
-      </c>
-      <c r="AL82">
-        <v>1.25</v>
-      </c>
-      <c r="AM82">
-        <v>1.3</v>
-      </c>
-      <c r="AN82">
-        <v>3</v>
-      </c>
-      <c r="AO82">
-        <v>2</v>
-      </c>
-      <c r="AP82">
-        <v>2.5</v>
-      </c>
-      <c r="AQ82">
-        <v>1.75</v>
-      </c>
-      <c r="AR82">
-        <v>1.32</v>
-      </c>
-      <c r="AS82">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT82">
-        <v>2.26</v>
-      </c>
-      <c r="AU82">
-        <v>2</v>
-      </c>
-      <c r="AV82">
-        <v>2</v>
-      </c>
-      <c r="AW82">
-        <v>1</v>
-      </c>
-      <c r="AX82">
-        <v>8</v>
-      </c>
-      <c r="AY82">
-        <v>3</v>
-      </c>
-      <c r="AZ82">
-        <v>10</v>
-      </c>
-      <c r="BA82">
-        <v>2</v>
-      </c>
-      <c r="BB82">
-        <v>6</v>
-      </c>
-      <c r="BC82">
-        <v>8</v>
-      </c>
-      <c r="BD82">
-        <v>2.23</v>
-      </c>
-      <c r="BE82">
-        <v>6.75</v>
-      </c>
-      <c r="BF82">
-        <v>1.77</v>
-      </c>
-      <c r="BG82">
-        <v>1.19</v>
-      </c>
-      <c r="BH82">
-        <v>4.16</v>
-      </c>
-      <c r="BI82">
-        <v>1.4</v>
-      </c>
-      <c r="BJ82">
-        <v>2.84</v>
-      </c>
-      <c r="BK82">
-        <v>1.7</v>
-      </c>
-      <c r="BL82">
-        <v>2.15</v>
-      </c>
-      <c r="BM82">
-        <v>2.1</v>
-      </c>
-      <c r="BN82">
-        <v>1.73</v>
-      </c>
-      <c r="BO82">
-        <v>2.71</v>
-      </c>
-      <c r="BP82">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:68">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>7478821</v>
-      </c>
-      <c r="C83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" s="2">
-        <v>45563.45833333334</v>
-      </c>
-      <c r="F83">
-        <v>7</v>
-      </c>
-      <c r="G83" t="s">
-        <v>74</v>
-      </c>
-      <c r="H83" t="s">
-        <v>71</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <v>3</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>4</v>
-      </c>
-      <c r="O83" t="s">
-        <v>157</v>
-      </c>
-      <c r="P83" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q83">
-        <v>2.63</v>
-      </c>
-      <c r="R83">
-        <v>2</v>
-      </c>
-      <c r="S83">
-        <v>5</v>
-      </c>
-      <c r="T83">
-        <v>1.53</v>
-      </c>
-      <c r="U83">
-        <v>2.38</v>
-      </c>
-      <c r="V83">
-        <v>3.5</v>
-      </c>
-      <c r="W83">
-        <v>1.29</v>
-      </c>
-      <c r="X83">
-        <v>11</v>
-      </c>
-      <c r="Y83">
-        <v>1.05</v>
-      </c>
-      <c r="Z83">
-        <v>1.85</v>
-      </c>
-      <c r="AA83">
-        <v>3.42</v>
-      </c>
-      <c r="AB83">
-        <v>4.5</v>
-      </c>
-      <c r="AC83">
-        <v>1.03</v>
-      </c>
-      <c r="AD83">
-        <v>6.65</v>
-      </c>
-      <c r="AE83">
-        <v>1.39</v>
-      </c>
-      <c r="AF83">
-        <v>2.54</v>
-      </c>
-      <c r="AG83">
-        <v>2.05</v>
-      </c>
-      <c r="AH83">
-        <v>1.69</v>
-      </c>
-      <c r="AI83">
-        <v>2.2</v>
-      </c>
-      <c r="AJ83">
-        <v>1.62</v>
-      </c>
-      <c r="AK83">
-        <v>1.22</v>
-      </c>
-      <c r="AL83">
-        <v>1.28</v>
-      </c>
-      <c r="AM83">
-        <v>1.92</v>
-      </c>
-      <c r="AN83">
-        <v>1</v>
-      </c>
-      <c r="AO83">
-        <v>0.33</v>
-      </c>
-      <c r="AP83">
-        <v>1.5</v>
-      </c>
-      <c r="AQ83">
-        <v>0.25</v>
-      </c>
-      <c r="AR83">
-        <v>1.39</v>
-      </c>
-      <c r="AS83">
-        <v>0.93</v>
-      </c>
-      <c r="AT83">
-        <v>2.32</v>
-      </c>
-      <c r="AU83">
-        <v>7</v>
-      </c>
-      <c r="AV83">
-        <v>5</v>
-      </c>
-      <c r="AW83">
-        <v>4</v>
-      </c>
-      <c r="AX83">
-        <v>4</v>
-      </c>
-      <c r="AY83">
-        <v>11</v>
-      </c>
-      <c r="AZ83">
-        <v>9</v>
-      </c>
-      <c r="BA83">
-        <v>3</v>
-      </c>
-      <c r="BB83">
-        <v>8</v>
-      </c>
-      <c r="BC83">
-        <v>11</v>
-      </c>
-      <c r="BD83">
-        <v>1.66</v>
-      </c>
-      <c r="BE83">
-        <v>6.4</v>
-      </c>
-      <c r="BF83">
-        <v>2.48</v>
-      </c>
-      <c r="BG83">
-        <v>1.27</v>
-      </c>
-      <c r="BH83">
-        <v>3.48</v>
-      </c>
-      <c r="BI83">
         <v>1.52</v>
-      </c>
-      <c r="BJ83">
-        <v>2.47</v>
-      </c>
-      <c r="BK83">
-        <v>1.88</v>
-      </c>
-      <c r="BL83">
-        <v>1.92</v>
-      </c>
-      <c r="BM83">
-        <v>2.38</v>
-      </c>
-      <c r="BN83">
-        <v>1.57</v>
-      </c>
-      <c r="BO83">
-        <v>3.18</v>
-      </c>
-      <c r="BP83">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:68">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>7478824</v>
-      </c>
-      <c r="C84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" s="2">
-        <v>45563.45833333334</v>
-      </c>
-      <c r="F84">
-        <v>7</v>
-      </c>
-      <c r="G84" t="s">
-        <v>85</v>
-      </c>
-      <c r="H84" t="s">
-        <v>86</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84" t="s">
-        <v>95</v>
-      </c>
-      <c r="P84" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q84">
-        <v>4.5</v>
-      </c>
-      <c r="R84">
-        <v>2.25</v>
-      </c>
-      <c r="S84">
-        <v>2.4</v>
-      </c>
-      <c r="T84">
-        <v>1.36</v>
-      </c>
-      <c r="U84">
-        <v>3</v>
-      </c>
-      <c r="V84">
-        <v>2.63</v>
-      </c>
-      <c r="W84">
-        <v>1.44</v>
-      </c>
-      <c r="X84">
-        <v>7</v>
-      </c>
-      <c r="Y84">
-        <v>1.1</v>
-      </c>
-      <c r="Z84">
-        <v>4.05</v>
-      </c>
-      <c r="AA84">
-        <v>3.78</v>
-      </c>
-      <c r="AB84">
-        <v>1.84</v>
-      </c>
-      <c r="AC84">
-        <v>1.04</v>
-      </c>
-      <c r="AD84">
-        <v>13</v>
-      </c>
-      <c r="AE84">
-        <v>1.28</v>
-      </c>
-      <c r="AF84">
-        <v>3.75</v>
-      </c>
-      <c r="AG84">
-        <v>1.76</v>
-      </c>
-      <c r="AH84">
-        <v>1.95</v>
-      </c>
-      <c r="AI84">
-        <v>1.8</v>
-      </c>
-      <c r="AJ84">
-        <v>1.91</v>
-      </c>
-      <c r="AK84">
-        <v>2</v>
-      </c>
-      <c r="AL84">
-        <v>1.22</v>
-      </c>
-      <c r="AM84">
-        <v>1.24</v>
-      </c>
-      <c r="AN84">
-        <v>0.33</v>
-      </c>
-      <c r="AO84">
-        <v>2.33</v>
-      </c>
-      <c r="AP84">
-        <v>0.5</v>
-      </c>
-      <c r="AQ84">
-        <v>2</v>
-      </c>
-      <c r="AR84">
-        <v>1.1</v>
-      </c>
-      <c r="AS84">
-        <v>1.2</v>
-      </c>
-      <c r="AT84">
-        <v>2.3</v>
-      </c>
-      <c r="AU84">
-        <v>3</v>
-      </c>
-      <c r="AV84">
-        <v>5</v>
-      </c>
-      <c r="AW84">
-        <v>5</v>
-      </c>
-      <c r="AX84">
-        <v>3</v>
-      </c>
-      <c r="AY84">
-        <v>8</v>
-      </c>
-      <c r="AZ84">
-        <v>8</v>
-      </c>
-      <c r="BA84">
-        <v>14</v>
-      </c>
-      <c r="BB84">
-        <v>9</v>
-      </c>
-      <c r="BC84">
-        <v>23</v>
-      </c>
-      <c r="BD84">
-        <v>2.23</v>
-      </c>
-      <c r="BE84">
-        <v>6.75</v>
-      </c>
-      <c r="BF84">
-        <v>1.75</v>
-      </c>
-      <c r="BG84">
-        <v>1.15</v>
-      </c>
-      <c r="BH84">
-        <v>4.58</v>
-      </c>
-      <c r="BI84">
-        <v>1.34</v>
-      </c>
-      <c r="BJ84">
-        <v>3.06</v>
-      </c>
-      <c r="BK84">
-        <v>1.62</v>
-      </c>
-      <c r="BL84">
-        <v>2.28</v>
-      </c>
-      <c r="BM84">
-        <v>2</v>
-      </c>
-      <c r="BN84">
-        <v>1.8</v>
-      </c>
-      <c r="BO84">
-        <v>2.52</v>
-      </c>
-      <c r="BP84">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:68">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>7478826</v>
-      </c>
-      <c r="C85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" s="2">
-        <v>45564.45833333334</v>
-      </c>
-      <c r="F85">
-        <v>7</v>
-      </c>
-      <c r="G85" t="s">
-        <v>88</v>
-      </c>
-      <c r="H85" t="s">
-        <v>89</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85" t="s">
-        <v>158</v>
-      </c>
-      <c r="P85" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q85">
-        <v>2.88</v>
-      </c>
-      <c r="R85">
-        <v>2.2</v>
-      </c>
-      <c r="S85">
-        <v>3.6</v>
-      </c>
-      <c r="T85">
-        <v>1.36</v>
-      </c>
-      <c r="U85">
-        <v>3</v>
-      </c>
-      <c r="V85">
-        <v>2.75</v>
-      </c>
-      <c r="W85">
-        <v>1.4</v>
-      </c>
-      <c r="X85">
-        <v>8</v>
-      </c>
-      <c r="Y85">
-        <v>1.08</v>
-      </c>
-      <c r="Z85">
-        <v>2.6</v>
-      </c>
-      <c r="AA85">
-        <v>3.3</v>
-      </c>
-      <c r="AB85">
-        <v>2.7</v>
-      </c>
-      <c r="AC85">
-        <v>1.01</v>
-      </c>
-      <c r="AD85">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE85">
-        <v>1.23</v>
-      </c>
-      <c r="AF85">
-        <v>3.34</v>
-      </c>
-      <c r="AG85">
-        <v>1.95</v>
-      </c>
-      <c r="AH85">
-        <v>1.8</v>
-      </c>
-      <c r="AI85">
-        <v>1.73</v>
-      </c>
-      <c r="AJ85">
-        <v>2</v>
-      </c>
-      <c r="AK85">
-        <v>1.4</v>
-      </c>
-      <c r="AL85">
-        <v>1.26</v>
-      </c>
-      <c r="AM85">
-        <v>1.65</v>
-      </c>
-      <c r="AN85">
-        <v>2.33</v>
-      </c>
-      <c r="AO85">
-        <v>0.33</v>
-      </c>
-      <c r="AP85">
-        <v>2</v>
-      </c>
-      <c r="AQ85">
-        <v>0.5</v>
-      </c>
-      <c r="AR85">
-        <v>1.34</v>
-      </c>
-      <c r="AS85">
-        <v>1.29</v>
-      </c>
-      <c r="AT85">
-        <v>2.63</v>
-      </c>
-      <c r="AU85">
-        <v>3</v>
-      </c>
-      <c r="AV85">
-        <v>7</v>
-      </c>
-      <c r="AW85">
-        <v>4</v>
-      </c>
-      <c r="AX85">
-        <v>5</v>
-      </c>
-      <c r="AY85">
-        <v>7</v>
-      </c>
-      <c r="AZ85">
-        <v>12</v>
-      </c>
-      <c r="BA85">
-        <v>3</v>
-      </c>
-      <c r="BB85">
-        <v>8</v>
-      </c>
-      <c r="BC85">
-        <v>11</v>
-      </c>
-      <c r="BD85">
-        <v>1.93</v>
-      </c>
-      <c r="BE85">
-        <v>7</v>
-      </c>
-      <c r="BF85">
-        <v>2.07</v>
-      </c>
-      <c r="BG85">
-        <v>1.24</v>
-      </c>
-      <c r="BH85">
-        <v>3.66</v>
-      </c>
-      <c r="BI85">
-        <v>1.48</v>
-      </c>
-      <c r="BJ85">
-        <v>2.57</v>
-      </c>
-      <c r="BK85">
-        <v>1.82</v>
-      </c>
-      <c r="BL85">
-        <v>1.98</v>
-      </c>
-      <c r="BM85">
-        <v>2.29</v>
-      </c>
-      <c r="BN85">
-        <v>1.61</v>
-      </c>
-      <c r="BO85">
-        <v>3.03</v>
-      </c>
-      <c r="BP85">
-        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,9 +436,6 @@
     <t>['30']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
   <si>
     <t>['57', '76']</t>
@@ -466,6 +466,33 @@
     <t>['8', '69', '90+3']</t>
   </si>
   <si>
+    <t>['53', '63']</t>
+  </si>
+  <si>
+    <t>['60', '90+1']</t>
+  </si>
+  <si>
+    <t>['9', '23', '86']</t>
+  </si>
+  <si>
+    <t>['28', '84']</t>
+  </si>
+  <si>
+    <t>['34', '73']</t>
+  </si>
+  <si>
+    <t>['24', '38', '47']</t>
+  </si>
+  <si>
+    <t>['22', '35', '51', '90+1']</t>
+  </si>
+  <si>
+    <t>['16', '49', '79']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['11', '48', '84']</t>
   </si>
   <si>
@@ -476,6 +503,12 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['53', '65', '75']</t>
+  </si>
+  <si>
+    <t>['13', '43', '45+1', '48', '51', '53']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -583,13 +616,25 @@
     <t>['70']</t>
   </si>
   <si>
+    <t>['45+3', '65', '87']</t>
+  </si>
+  <si>
+    <t>['65', '84']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['45', '54']</t>
   </si>
   <si>
-    <t>['25', '36', '71']</t>
+    <t>['73']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['25', '36', '71']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,7 +1255,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1318,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="AZ2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA2">
         <v>1</v>
@@ -1416,7 +1461,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1494,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1622,7 +1667,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1703,7 +1748,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1727,10 +1772,10 @@
         <v>1</v>
       </c>
       <c r="AY4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA4">
         <v>11</v>
@@ -1906,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1933,10 +1978,10 @@
         <v>4</v>
       </c>
       <c r="AY5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA5">
         <v>5</v>
@@ -2034,7 +2079,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2112,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2139,10 +2184,10 @@
         <v>3</v>
       </c>
       <c r="AY6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA6">
         <v>5</v>
@@ -2318,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2345,10 +2390,10 @@
         <v>4</v>
       </c>
       <c r="AY7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA7">
         <v>9</v>
@@ -2446,7 +2491,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2524,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2551,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="AY8">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ8">
         <v>7</v>
@@ -2652,7 +2697,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2730,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2757,10 +2802,10 @@
         <v>8</v>
       </c>
       <c r="AY9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA9">
         <v>2</v>
@@ -2858,7 +2903,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2939,7 +2984,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2963,10 +3008,10 @@
         <v>4</v>
       </c>
       <c r="AY10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA10">
         <v>4</v>
@@ -3142,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3169,10 +3214,10 @@
         <v>3</v>
       </c>
       <c r="AY11">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA11">
         <v>6</v>
@@ -3348,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3375,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="AY12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ12">
         <v>6</v>
@@ -3476,7 +3521,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3557,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3581,10 +3626,10 @@
         <v>3</v>
       </c>
       <c r="AY13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -3682,7 +3727,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3787,10 +3832,10 @@
         <v>2</v>
       </c>
       <c r="AY14">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA14">
         <v>13</v>
@@ -3969,7 +4014,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3993,10 +4038,10 @@
         <v>6</v>
       </c>
       <c r="AY15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA15">
         <v>5</v>
@@ -4172,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4199,10 +4244,10 @@
         <v>11</v>
       </c>
       <c r="AY16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA16">
         <v>3</v>
@@ -4378,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4405,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA17">
         <v>5</v>
@@ -4506,7 +4551,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4584,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4611,10 +4656,10 @@
         <v>2</v>
       </c>
       <c r="AY18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ18">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BA18">
         <v>4</v>
@@ -4790,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4817,10 +4862,10 @@
         <v>3</v>
       </c>
       <c r="AY19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA19">
         <v>2</v>
@@ -4996,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5023,10 +5068,10 @@
         <v>2</v>
       </c>
       <c r="AY20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA20">
         <v>5</v>
@@ -5124,7 +5169,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5202,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5229,10 +5274,10 @@
         <v>5</v>
       </c>
       <c r="AY21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA21">
         <v>5</v>
@@ -5330,7 +5375,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5408,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5435,10 +5480,10 @@
         <v>2</v>
       </c>
       <c r="AY22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA22">
         <v>6</v>
@@ -5617,7 +5662,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5641,10 +5686,10 @@
         <v>3</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA23">
         <v>2</v>
@@ -5742,7 +5787,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5847,10 +5892,10 @@
         <v>6</v>
       </c>
       <c r="AY24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ24">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6029,7 +6074,7 @@
         <v>3</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6053,10 +6098,10 @@
         <v>2</v>
       </c>
       <c r="AY25">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA25">
         <v>5</v>
@@ -6154,7 +6199,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6232,10 +6277,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -6259,10 +6304,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA26">
         <v>3</v>
@@ -6438,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6465,10 +6510,10 @@
         <v>6</v>
       </c>
       <c r="AY27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA27">
         <v>5</v>
@@ -6671,10 +6716,10 @@
         <v>2</v>
       </c>
       <c r="AY28">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AZ28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA28">
         <v>11</v>
@@ -6772,7 +6817,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6850,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -6877,10 +6922,10 @@
         <v>5</v>
       </c>
       <c r="AY29">
+        <v>13</v>
+      </c>
+      <c r="AZ29">
         <v>10</v>
-      </c>
-      <c r="AZ29">
-        <v>7</v>
       </c>
       <c r="BA29">
         <v>8</v>
@@ -6978,7 +7023,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7056,10 +7101,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7083,10 +7128,10 @@
         <v>3</v>
       </c>
       <c r="AY30">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AZ30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA30">
         <v>15</v>
@@ -7262,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7289,10 +7334,10 @@
         <v>3</v>
       </c>
       <c r="AY31">
+        <v>13</v>
+      </c>
+      <c r="AZ31">
         <v>10</v>
-      </c>
-      <c r="AZ31">
-        <v>7</v>
       </c>
       <c r="BA31">
         <v>4</v>
@@ -7471,7 +7516,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -7495,10 +7540,10 @@
         <v>2</v>
       </c>
       <c r="AY32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA32">
         <v>3</v>
@@ -7674,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7701,10 +7746,10 @@
         <v>7</v>
       </c>
       <c r="AY33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ33">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA33">
         <v>2</v>
@@ -7802,7 +7847,7 @@
         <v>121</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7907,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ34">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA34">
         <v>7</v>
@@ -8008,7 +8053,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8086,10 +8131,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8116,7 +8161,7 @@
         <v>8</v>
       </c>
       <c r="AZ35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA35">
         <v>2</v>
@@ -8214,7 +8259,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8292,10 +8337,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8319,10 +8364,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA36">
         <v>1</v>
@@ -8420,7 +8465,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8498,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8525,10 +8570,10 @@
         <v>3</v>
       </c>
       <c r="AY37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA37">
         <v>2</v>
@@ -8626,7 +8671,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8707,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.01</v>
@@ -8731,10 +8776,10 @@
         <v>2</v>
       </c>
       <c r="AY38">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ38">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -8832,7 +8877,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -8937,10 +8982,10 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA39">
         <v>9</v>
@@ -9038,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9143,10 +9188,10 @@
         <v>4</v>
       </c>
       <c r="AY40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA40">
         <v>4</v>
@@ -9244,7 +9289,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9325,7 +9370,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9349,10 +9394,10 @@
         <v>3</v>
       </c>
       <c r="AY41">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA41">
         <v>6</v>
@@ -9531,7 +9576,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -9555,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AY42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA42">
         <v>6</v>
@@ -9656,7 +9701,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9734,10 +9779,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -9761,10 +9806,10 @@
         <v>3</v>
       </c>
       <c r="AY43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ43">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA43">
         <v>4</v>
@@ -9862,7 +9907,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9943,7 +9988,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -9967,10 +10012,10 @@
         <v>2</v>
       </c>
       <c r="AY44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ44">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA44">
         <v>10</v>
@@ -10146,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10173,10 +10218,10 @@
         <v>1</v>
       </c>
       <c r="AY45">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA45">
         <v>6</v>
@@ -10352,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>1.75</v>
@@ -10379,10 +10424,10 @@
         <v>4</v>
       </c>
       <c r="AY46">
+        <v>17</v>
+      </c>
+      <c r="AZ46">
         <v>10</v>
-      </c>
-      <c r="AZ46">
-        <v>7</v>
       </c>
       <c r="BA46">
         <v>8</v>
@@ -10558,10 +10603,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -10585,10 +10630,10 @@
         <v>3</v>
       </c>
       <c r="AY47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ47">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA47">
         <v>6</v>
@@ -10764,10 +10809,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -10791,10 +10836,10 @@
         <v>5</v>
       </c>
       <c r="AY48">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA48">
         <v>2</v>
@@ -10970,10 +11015,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -10997,10 +11042,10 @@
         <v>4</v>
       </c>
       <c r="AY49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA49">
         <v>8</v>
@@ -11098,7 +11143,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11176,10 +11221,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11203,10 +11248,10 @@
         <v>3</v>
       </c>
       <c r="AY50">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA50">
         <v>16</v>
@@ -11382,10 +11427,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11409,10 +11454,10 @@
         <v>3</v>
       </c>
       <c r="AY51">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA51">
         <v>9</v>
@@ -11588,7 +11633,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11615,10 +11660,10 @@
         <v>3</v>
       </c>
       <c r="AY52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA52">
         <v>6</v>
@@ -11794,10 +11839,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>1.18</v>
@@ -11821,10 +11866,10 @@
         <v>3</v>
       </c>
       <c r="AY53">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12000,10 +12045,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12027,10 +12072,10 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA54">
         <v>7</v>
@@ -12206,10 +12251,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12233,10 +12278,10 @@
         <v>7</v>
       </c>
       <c r="AY55">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ55">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA55">
         <v>6</v>
@@ -12334,7 +12379,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12415,7 +12460,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12439,10 +12484,10 @@
         <v>6</v>
       </c>
       <c r="AY56">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ56">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA56">
         <v>3</v>
@@ -12540,7 +12585,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12618,10 +12663,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.82</v>
@@ -12645,10 +12690,10 @@
         <v>6</v>
       </c>
       <c r="AY57">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ57">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA57">
         <v>11</v>
@@ -12824,10 +12869,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.35</v>
@@ -12851,10 +12896,10 @@
         <v>5</v>
       </c>
       <c r="AY58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ58">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA58">
         <v>4</v>
@@ -13033,7 +13078,7 @@
         <v>3</v>
       </c>
       <c r="AQ59">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13057,10 +13102,10 @@
         <v>4</v>
       </c>
       <c r="AY59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ59">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA59">
         <v>6</v>
@@ -13158,7 +13203,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13236,10 +13281,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13263,7 +13308,7 @@
         <v>4</v>
       </c>
       <c r="AY60">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ60">
         <v>7</v>
@@ -13364,7 +13409,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13442,10 +13487,10 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ61">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -13469,10 +13514,10 @@
         <v>7</v>
       </c>
       <c r="AY61">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ61">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA61">
         <v>10</v>
@@ -13570,7 +13615,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13648,7 +13693,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>1.75</v>
@@ -13675,10 +13720,10 @@
         <v>7</v>
       </c>
       <c r="AY62">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ62">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA62">
         <v>2</v>
@@ -13734,7 +13779,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7478815</v>
+        <v>7478814</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13743,25 +13788,25 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45555.875</v>
+        <v>45556.35416666666</v>
       </c>
       <c r="F63">
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -13779,160 +13824,160 @@
         <v>95</v>
       </c>
       <c r="Q63">
+        <v>3.1</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>3.4</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
+        <v>2.45</v>
+      </c>
+      <c r="AA63">
+        <v>3.3</v>
+      </c>
+      <c r="AB63">
+        <v>2.8</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>9</v>
+      </c>
+      <c r="AE63">
+        <v>1.28</v>
+      </c>
+      <c r="AF63">
+        <v>3.5</v>
+      </c>
+      <c r="AG63">
+        <v>1.8</v>
+      </c>
+      <c r="AH63">
         <v>1.91</v>
       </c>
-      <c r="R63">
-        <v>2.5</v>
-      </c>
-      <c r="S63">
-        <v>6.5</v>
-      </c>
-      <c r="T63">
-        <v>1.29</v>
-      </c>
-      <c r="U63">
-        <v>3.5</v>
-      </c>
-      <c r="V63">
+      <c r="AI63">
+        <v>1.67</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.42</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.53</v>
+      </c>
+      <c r="AN63">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>1.5</v>
+      </c>
+      <c r="AP63">
+        <v>3</v>
+      </c>
+      <c r="AQ63">
+        <v>1.5</v>
+      </c>
+      <c r="AR63">
+        <v>1.34</v>
+      </c>
+      <c r="AS63">
+        <v>1.6</v>
+      </c>
+      <c r="AT63">
+        <v>2.94</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63">
+        <v>6</v>
+      </c>
+      <c r="AX63">
+        <v>6</v>
+      </c>
+      <c r="AY63">
+        <v>10</v>
+      </c>
+      <c r="AZ63">
+        <v>12</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>5</v>
+      </c>
+      <c r="BC63">
+        <v>8</v>
+      </c>
+      <c r="BD63">
+        <v>1.7</v>
+      </c>
+      <c r="BE63">
+        <v>6.75</v>
+      </c>
+      <c r="BF63">
         <v>2.38</v>
       </c>
-      <c r="W63">
-        <v>1.53</v>
-      </c>
-      <c r="X63">
-        <v>5.5</v>
-      </c>
-      <c r="Y63">
-        <v>1.14</v>
-      </c>
-      <c r="Z63">
-        <v>1.55</v>
-      </c>
-      <c r="AA63">
-        <v>4</v>
-      </c>
-      <c r="AB63">
-        <v>6</v>
-      </c>
-      <c r="AC63">
-        <v>1.04</v>
-      </c>
-      <c r="AD63">
-        <v>10</v>
-      </c>
-      <c r="AE63">
-        <v>1.2</v>
-      </c>
-      <c r="AF63">
-        <v>4.5</v>
-      </c>
-      <c r="AG63">
-        <v>1.75</v>
-      </c>
-      <c r="AH63">
-        <v>2</v>
-      </c>
-      <c r="AI63">
-        <v>1.8</v>
-      </c>
-      <c r="AJ63">
-        <v>1.91</v>
-      </c>
-      <c r="AK63">
-        <v>1.08</v>
-      </c>
-      <c r="AL63">
-        <v>1.14</v>
-      </c>
-      <c r="AM63">
-        <v>2.85</v>
-      </c>
-      <c r="AN63">
-        <v>2</v>
-      </c>
-      <c r="AO63">
-        <v>0.5</v>
-      </c>
-      <c r="AP63">
-        <v>1.75</v>
-      </c>
-      <c r="AQ63">
-        <v>0.25</v>
-      </c>
-      <c r="AR63">
-        <v>1.29</v>
-      </c>
-      <c r="AS63">
-        <v>0.63</v>
-      </c>
-      <c r="AT63">
-        <v>1.92</v>
-      </c>
-      <c r="AU63">
-        <v>-1</v>
-      </c>
-      <c r="AV63">
-        <v>-1</v>
-      </c>
-      <c r="AW63">
-        <v>-1</v>
-      </c>
-      <c r="AX63">
-        <v>-1</v>
-      </c>
-      <c r="AY63">
-        <v>-1</v>
-      </c>
-      <c r="AZ63">
-        <v>-1</v>
-      </c>
-      <c r="BA63">
-        <v>-1</v>
-      </c>
-      <c r="BB63">
-        <v>-1</v>
-      </c>
-      <c r="BC63">
-        <v>-1</v>
-      </c>
-      <c r="BD63">
+      <c r="BG63">
+        <v>1.19</v>
+      </c>
+      <c r="BH63">
+        <v>4.1</v>
+      </c>
+      <c r="BI63">
         <v>1.33</v>
       </c>
-      <c r="BE63">
-        <v>8</v>
-      </c>
-      <c r="BF63">
-        <v>3.55</v>
-      </c>
-      <c r="BG63">
-        <v>1.12</v>
-      </c>
-      <c r="BH63">
-        <v>5.1</v>
-      </c>
-      <c r="BI63">
-        <v>1.22</v>
-      </c>
       <c r="BJ63">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="BK63">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="BL63">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="BM63">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="BN63">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="BO63">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="BP63">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13940,7 +13985,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7478814</v>
+        <v>7478809</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13955,49 +14000,49 @@
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O64" t="s">
         <v>141</v>
       </c>
       <c r="P64" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="Q64">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R64">
         <v>2.2</v>
       </c>
       <c r="S64">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T64">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V64">
         <v>2.75</v>
@@ -14012,13 +14057,13 @@
         <v>1.08</v>
       </c>
       <c r="Z64">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AA64">
         <v>3.3</v>
       </c>
       <c r="AB64">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AC64">
         <v>1.05</v>
@@ -14033,64 +14078,64 @@
         <v>3.5</v>
       </c>
       <c r="AG64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH64">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AI64">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AJ64">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK64">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AL64">
         <v>1.25</v>
       </c>
       <c r="AM64">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO64">
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AS64">
-        <v>1.6</v>
+        <v>0.96</v>
       </c>
       <c r="AT64">
-        <v>2.94</v>
+        <v>2.32</v>
       </c>
       <c r="AU64">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX64">
         <v>6</v>
       </c>
       <c r="AY64">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AZ64">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA64">
         <v>3</v>
@@ -14102,43 +14147,43 @@
         <v>8</v>
       </c>
       <c r="BD64">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="BE64">
         <v>6.75</v>
       </c>
       <c r="BF64">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="BG64">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BH64">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="BI64">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="BJ64">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BK64">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="BL64">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="BM64">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="BN64">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="BO64">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="BP64">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14146,7 +14191,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7478809</v>
+        <v>7478811</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14161,190 +14206,190 @@
         <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O65" t="s">
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Q65">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>1.5</v>
+      </c>
+      <c r="U65">
+        <v>2.5</v>
+      </c>
+      <c r="V65">
+        <v>3.5</v>
+      </c>
+      <c r="W65">
+        <v>1.29</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
         <v>2.2</v>
       </c>
-      <c r="S65">
-        <v>3.75</v>
-      </c>
-      <c r="T65">
-        <v>1.4</v>
-      </c>
-      <c r="U65">
-        <v>2.75</v>
-      </c>
-      <c r="V65">
-        <v>2.75</v>
-      </c>
-      <c r="W65">
-        <v>1.4</v>
-      </c>
-      <c r="X65">
-        <v>8</v>
-      </c>
-      <c r="Y65">
-        <v>1.08</v>
-      </c>
-      <c r="Z65">
-        <v>2.25</v>
-      </c>
       <c r="AA65">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB65">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AC65">
         <v>1.05</v>
       </c>
       <c r="AD65">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AE65">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AF65">
-        <v>3.5</v>
+        <v>2.64</v>
       </c>
       <c r="AG65">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AH65">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AI65">
+        <v>2</v>
+      </c>
+      <c r="AJ65">
         <v>1.73</v>
-      </c>
-      <c r="AJ65">
-        <v>2</v>
       </c>
       <c r="AK65">
         <v>1.35</v>
       </c>
       <c r="AL65">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AM65">
         <v>1.62</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
-        <v>1.36</v>
+        <v>2.07</v>
       </c>
       <c r="AS65">
-        <v>0.96</v>
+        <v>1.41</v>
       </c>
       <c r="AT65">
-        <v>2.32</v>
+        <v>3.48</v>
       </c>
       <c r="AU65">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AX65">
         <v>6</v>
       </c>
       <c r="AY65">
+        <v>9</v>
+      </c>
+      <c r="AZ65">
         <v>17</v>
       </c>
-      <c r="AZ65">
+      <c r="BA65">
+        <v>5</v>
+      </c>
+      <c r="BB65">
         <v>10</v>
       </c>
-      <c r="BA65">
-        <v>3</v>
-      </c>
-      <c r="BB65">
-        <v>5</v>
-      </c>
       <c r="BC65">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD65">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="BE65">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF65">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BG65">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BH65">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="BI65">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="BJ65">
+        <v>2.63</v>
+      </c>
+      <c r="BK65">
+        <v>1.68</v>
+      </c>
+      <c r="BL65">
+        <v>2.04</v>
+      </c>
+      <c r="BM65">
+        <v>2.06</v>
+      </c>
+      <c r="BN65">
+        <v>1.66</v>
+      </c>
+      <c r="BO65">
         <v>2.55</v>
       </c>
-      <c r="BK65">
-        <v>1.72</v>
-      </c>
-      <c r="BL65">
-        <v>1.98</v>
-      </c>
-      <c r="BM65">
-        <v>2.12</v>
-      </c>
-      <c r="BN65">
-        <v>1.63</v>
-      </c>
-      <c r="BO65">
-        <v>2.7</v>
-      </c>
       <c r="BP65">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14352,7 +14397,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7478811</v>
+        <v>7478806</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14361,196 +14406,196 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45556.35416666666</v>
+        <v>45556.45833333334</v>
       </c>
       <c r="F66">
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N66">
         <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="T66">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U66">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V66">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="W66">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X66">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y66">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z66">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="AA66">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB66">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="AC66">
         <v>1.05</v>
       </c>
       <c r="AD66">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="AE66">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AF66">
-        <v>2.64</v>
+        <v>3.55</v>
       </c>
       <c r="AG66">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AH66">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AI66">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ66">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AK66">
-        <v>1.35</v>
+        <v>2.29</v>
       </c>
       <c r="AL66">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AM66">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="AN66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO66">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR66">
-        <v>2.07</v>
+        <v>1.23</v>
       </c>
       <c r="AS66">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="AT66">
-        <v>3.48</v>
+        <v>2.31</v>
       </c>
       <c r="AU66">
         <v>3</v>
       </c>
       <c r="AV66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW66">
         <v>1</v>
       </c>
       <c r="AX66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY66">
         <v>4</v>
       </c>
       <c r="AZ66">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB66">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BC66">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="BD66">
-        <v>1.49</v>
+        <v>2.95</v>
       </c>
       <c r="BE66">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF66">
-        <v>2.9</v>
+        <v>1.48</v>
       </c>
       <c r="BG66">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH66">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI66">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BJ66">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="BK66">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="BL66">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="BM66">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="BN66">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BO66">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BP66">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14558,7 +14603,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7478806</v>
+        <v>7478815</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14570,193 +14615,193 @@
         <v>45556.45833333334</v>
       </c>
       <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>143</v>
+      </c>
+      <c r="P67" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q67">
+        <v>1.91</v>
+      </c>
+      <c r="R67">
+        <v>2.5</v>
+      </c>
+      <c r="S67">
+        <v>6.5</v>
+      </c>
+      <c r="T67">
+        <v>1.29</v>
+      </c>
+      <c r="U67">
+        <v>3.5</v>
+      </c>
+      <c r="V67">
+        <v>2.38</v>
+      </c>
+      <c r="W67">
+        <v>1.53</v>
+      </c>
+      <c r="X67">
+        <v>5.5</v>
+      </c>
+      <c r="Y67">
+        <v>1.14</v>
+      </c>
+      <c r="Z67">
+        <v>1.55</v>
+      </c>
+      <c r="AA67">
+        <v>4</v>
+      </c>
+      <c r="AB67">
         <v>6</v>
       </c>
-      <c r="G67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s">
-        <v>76</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>2</v>
-      </c>
-      <c r="N67">
-        <v>2</v>
-      </c>
-      <c r="O67" t="s">
-        <v>95</v>
-      </c>
-      <c r="P67" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q67">
-        <v>5.5</v>
-      </c>
-      <c r="R67">
-        <v>2.25</v>
-      </c>
-      <c r="S67">
-        <v>2.25</v>
-      </c>
-      <c r="T67">
-        <v>1.36</v>
-      </c>
-      <c r="U67">
-        <v>3</v>
-      </c>
-      <c r="V67">
-        <v>2.75</v>
-      </c>
-      <c r="W67">
-        <v>1.4</v>
-      </c>
-      <c r="X67">
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>1.2</v>
+      </c>
+      <c r="AF67">
+        <v>4.5</v>
+      </c>
+      <c r="AG67">
+        <v>1.75</v>
+      </c>
+      <c r="AH67">
+        <v>2</v>
+      </c>
+      <c r="AI67">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67">
+        <v>1.91</v>
+      </c>
+      <c r="AK67">
+        <v>1.08</v>
+      </c>
+      <c r="AL67">
+        <v>1.14</v>
+      </c>
+      <c r="AM67">
+        <v>2.85</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <v>0.5</v>
+      </c>
+      <c r="AP67">
+        <v>1.75</v>
+      </c>
+      <c r="AQ67">
+        <v>0.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.29</v>
+      </c>
+      <c r="AS67">
+        <v>0.63</v>
+      </c>
+      <c r="AT67">
+        <v>1.92</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>9</v>
+      </c>
+      <c r="AX67">
+        <v>7</v>
+      </c>
+      <c r="AY67">
+        <v>19</v>
+      </c>
+      <c r="AZ67">
+        <v>17</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
         <v>8</v>
       </c>
-      <c r="Y67">
-        <v>1.08</v>
-      </c>
-      <c r="Z67">
-        <v>5</v>
-      </c>
-      <c r="AA67">
-        <v>3.6</v>
-      </c>
-      <c r="AB67">
-        <v>1.7</v>
-      </c>
-      <c r="AC67">
-        <v>1.05</v>
-      </c>
-      <c r="AD67">
-        <v>9.5</v>
-      </c>
-      <c r="AE67">
-        <v>1.28</v>
-      </c>
-      <c r="AF67">
+      <c r="BD67">
+        <v>1.33</v>
+      </c>
+      <c r="BE67">
+        <v>8</v>
+      </c>
+      <c r="BF67">
         <v>3.55</v>
       </c>
-      <c r="AG67">
-        <v>1.83</v>
-      </c>
-      <c r="AH67">
-        <v>1.85</v>
-      </c>
-      <c r="AI67">
-        <v>1.83</v>
-      </c>
-      <c r="AJ67">
-        <v>1.83</v>
-      </c>
-      <c r="AK67">
-        <v>2.29</v>
-      </c>
-      <c r="AL67">
-        <v>1.25</v>
-      </c>
-      <c r="AM67">
-        <v>1.15</v>
-      </c>
-      <c r="AN67">
-        <v>0</v>
-      </c>
-      <c r="AO67">
-        <v>2</v>
-      </c>
-      <c r="AP67">
-        <v>0.75</v>
-      </c>
-      <c r="AQ67">
-        <v>2.33</v>
-      </c>
-      <c r="AR67">
-        <v>1.23</v>
-      </c>
-      <c r="AS67">
-        <v>1.08</v>
-      </c>
-      <c r="AT67">
-        <v>2.31</v>
-      </c>
-      <c r="AU67">
-        <v>3</v>
-      </c>
-      <c r="AV67">
-        <v>8</v>
-      </c>
-      <c r="AW67">
-        <v>1</v>
-      </c>
-      <c r="AX67">
-        <v>5</v>
-      </c>
-      <c r="AY67">
-        <v>4</v>
-      </c>
-      <c r="AZ67">
-        <v>13</v>
-      </c>
-      <c r="BA67">
-        <v>0</v>
-      </c>
-      <c r="BB67">
-        <v>4</v>
-      </c>
-      <c r="BC67">
-        <v>4</v>
-      </c>
-      <c r="BD67">
-        <v>2.95</v>
-      </c>
-      <c r="BE67">
-        <v>6.75</v>
-      </c>
-      <c r="BF67">
-        <v>1.48</v>
-      </c>
       <c r="BG67">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="BH67">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="BI67">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="BJ67">
-        <v>2.45</v>
+        <v>3.7</v>
       </c>
       <c r="BK67">
+        <v>1.37</v>
+      </c>
+      <c r="BL67">
+        <v>2.8</v>
+      </c>
+      <c r="BM67">
+        <v>1.58</v>
+      </c>
+      <c r="BN67">
+        <v>2.18</v>
+      </c>
+      <c r="BO67">
+        <v>1.92</v>
+      </c>
+      <c r="BP67">
         <v>1.77</v>
-      </c>
-      <c r="BL67">
-        <v>1.92</v>
-      </c>
-      <c r="BM67">
-        <v>2.18</v>
-      </c>
-      <c r="BN67">
-        <v>1.58</v>
-      </c>
-      <c r="BO67">
-        <v>2.8</v>
-      </c>
-      <c r="BP67">
-        <v>1.37</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14884,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.25</v>
@@ -14911,10 +14956,10 @@
         <v>4</v>
       </c>
       <c r="AY68">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA68">
         <v>5</v>
@@ -15012,7 +15057,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15093,7 +15138,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15117,10 +15162,10 @@
         <v>2</v>
       </c>
       <c r="AY69">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA69">
         <v>4</v>
@@ -15299,7 +15344,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15323,7 +15368,7 @@
         <v>6</v>
       </c>
       <c r="AY70">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ70">
         <v>13</v>
@@ -15424,7 +15469,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15505,7 +15550,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR71">
         <v>2.05</v>
@@ -15529,10 +15574,10 @@
         <v>4</v>
       </c>
       <c r="AY71">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ71">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA71">
         <v>6</v>
@@ -15708,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ72">
         <v>0</v>
@@ -15735,7 +15780,7 @@
         <v>4</v>
       </c>
       <c r="AY72">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ72">
         <v>4</v>
@@ -15803,7 +15848,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45556.875</v>
+        <v>45557.33333333334</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -15914,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73">
         <v>0.75</v>
@@ -15935,10 +15980,10 @@
         <v>4</v>
       </c>
       <c r="AW73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY73">
         <v>8</v>
@@ -16009,7 +16054,7 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45561.875</v>
+        <v>45562.66666666666</v>
       </c>
       <c r="F74">
         <v>7</v>
@@ -16042,7 +16087,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16135,31 +16180,31 @@
         <v>2.89</v>
       </c>
       <c r="AU74">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV74">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW74">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX74">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY74">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ74">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB74">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BC74">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BD74">
         <v>2.48</v>
@@ -16206,7 +16251,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7478828</v>
+        <v>7478816</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16215,196 +16260,196 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45566.65625</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="P75" t="s">
         <v>95</v>
       </c>
       <c r="Q75">
+        <v>2.6</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>4.33</v>
+      </c>
+      <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.75</v>
+      </c>
+      <c r="V75">
+        <v>2.75</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>8</v>
+      </c>
+      <c r="Y75">
+        <v>1.08</v>
+      </c>
+      <c r="Z75">
+        <v>2.04</v>
+      </c>
+      <c r="AA75">
+        <v>3.54</v>
+      </c>
+      <c r="AB75">
+        <v>3.54</v>
+      </c>
+      <c r="AC75">
+        <v>1.05</v>
+      </c>
+      <c r="AD75">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE75">
+        <v>1.27</v>
+      </c>
+      <c r="AF75">
+        <v>3.08</v>
+      </c>
+      <c r="AG75">
+        <v>1.87</v>
+      </c>
+      <c r="AH75">
+        <v>1.83</v>
+      </c>
+      <c r="AI75">
+        <v>1.8</v>
+      </c>
+      <c r="AJ75">
+        <v>1.91</v>
+      </c>
+      <c r="AK75">
+        <v>1.28</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
         <v>1.88</v>
       </c>
-      <c r="R75">
-        <v>2.45</v>
-      </c>
-      <c r="S75">
-        <v>5.75</v>
-      </c>
-      <c r="T75">
-        <v>1.28</v>
-      </c>
-      <c r="U75">
-        <v>3.4</v>
-      </c>
-      <c r="V75">
-        <v>2.3</v>
-      </c>
-      <c r="W75">
-        <v>1.55</v>
-      </c>
-      <c r="X75">
-        <v>4.9</v>
-      </c>
-      <c r="Y75">
-        <v>1.14</v>
-      </c>
-      <c r="Z75">
-        <v>1.44</v>
-      </c>
-      <c r="AA75">
-        <v>4.9</v>
-      </c>
-      <c r="AB75">
-        <v>6.6</v>
-      </c>
-      <c r="AC75">
-        <v>1.02</v>
-      </c>
-      <c r="AD75">
-        <v>18.75</v>
-      </c>
-      <c r="AE75">
-        <v>1.19</v>
-      </c>
-      <c r="AF75">
-        <v>4.82</v>
-      </c>
-      <c r="AG75">
-        <v>1.55</v>
-      </c>
-      <c r="AH75">
-        <v>2.3</v>
-      </c>
-      <c r="AI75">
-        <v>1.72</v>
-      </c>
-      <c r="AJ75">
-        <v>2</v>
-      </c>
-      <c r="AK75">
-        <v>1.13</v>
-      </c>
-      <c r="AL75">
-        <v>1.19</v>
-      </c>
-      <c r="AM75">
-        <v>2.7</v>
-      </c>
       <c r="AN75">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO75">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="AS75">
-        <v>0.63</v>
+        <v>1.07</v>
       </c>
       <c r="AT75">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="AU75">
+        <v>10</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
         <v>4</v>
       </c>
-      <c r="AV75">
-        <v>0</v>
-      </c>
-      <c r="AW75">
-        <v>5</v>
-      </c>
       <c r="AX75">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY75">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ75">
         <v>7</v>
       </c>
       <c r="BA75">
+        <v>8</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>1.64</v>
+      </c>
+      <c r="BE75">
         <v>7</v>
       </c>
-      <c r="BB75">
-        <v>1</v>
-      </c>
-      <c r="BC75">
-        <v>8</v>
-      </c>
-      <c r="BD75">
-        <v>1.23</v>
-      </c>
-      <c r="BE75">
-        <v>9</v>
-      </c>
       <c r="BF75">
-        <v>4.4</v>
+        <v>2.48</v>
       </c>
       <c r="BG75">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="BH75">
-        <v>5.6</v>
+        <v>5.21</v>
       </c>
       <c r="BI75">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="BJ75">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="BK75">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="BL75">
-        <v>2.95</v>
+        <v>2.47</v>
       </c>
       <c r="BM75">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="BN75">
+        <v>1.95</v>
+      </c>
+      <c r="BO75">
         <v>2.32</v>
       </c>
-      <c r="BO75">
-        <v>1.81</v>
-      </c>
       <c r="BP75">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16412,7 +16457,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7478829</v>
+        <v>7478817</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16421,196 +16466,196 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45566.65625</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="O76" t="s">
+        <v>151</v>
+      </c>
+      <c r="P76" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q76">
+        <v>3.4</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>3.1</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
         <v>8</v>
       </c>
-      <c r="G76" t="s">
-        <v>78</v>
-      </c>
-      <c r="H76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76" t="s">
-        <v>120</v>
-      </c>
-      <c r="P76" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q76">
-        <v>3.6</v>
-      </c>
-      <c r="R76">
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.73</v>
+      </c>
+      <c r="AA76">
+        <v>3.42</v>
+      </c>
+      <c r="AB76">
+        <v>2.52</v>
+      </c>
+      <c r="AC76">
+        <v>1.05</v>
+      </c>
+      <c r="AD76">
+        <v>11</v>
+      </c>
+      <c r="AE76">
+        <v>1.32</v>
+      </c>
+      <c r="AF76">
+        <v>3.4</v>
+      </c>
+      <c r="AG76">
+        <v>1.85</v>
+      </c>
+      <c r="AH76">
+        <v>1.85</v>
+      </c>
+      <c r="AI76">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76">
         <v>1.91</v>
       </c>
-      <c r="S76">
-        <v>3.3</v>
-      </c>
-      <c r="T76">
-        <v>1.55</v>
-      </c>
-      <c r="U76">
+      <c r="AK76">
+        <v>1.52</v>
+      </c>
+      <c r="AL76">
+        <v>1.28</v>
+      </c>
+      <c r="AM76">
+        <v>1.5</v>
+      </c>
+      <c r="AN76">
+        <v>3</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
         <v>2.25</v>
       </c>
-      <c r="V76">
-        <v>3.5</v>
-      </c>
-      <c r="W76">
-        <v>1.25</v>
-      </c>
-      <c r="X76">
-        <v>8.25</v>
-      </c>
-      <c r="Y76">
-        <v>1.04</v>
-      </c>
-      <c r="Z76">
-        <v>3</v>
-      </c>
-      <c r="AA76">
-        <v>3</v>
-      </c>
-      <c r="AB76">
-        <v>2.34</v>
-      </c>
-      <c r="AC76">
-        <v>1.08</v>
-      </c>
-      <c r="AD76">
-        <v>6.5</v>
-      </c>
-      <c r="AE76">
+      <c r="AQ76">
         <v>1.5</v>
       </c>
-      <c r="AF76">
-        <v>2.45</v>
-      </c>
-      <c r="AG76">
-        <v>2.45</v>
-      </c>
-      <c r="AH76">
-        <v>1.49</v>
-      </c>
-      <c r="AI76">
-        <v>2.1</v>
-      </c>
-      <c r="AJ76">
-        <v>1.68</v>
-      </c>
-      <c r="AK76">
-        <v>1.5</v>
-      </c>
-      <c r="AL76">
-        <v>1.38</v>
-      </c>
-      <c r="AM76">
-        <v>1.42</v>
-      </c>
-      <c r="AN76">
-        <v>0</v>
-      </c>
-      <c r="AO76">
-        <v>0.67</v>
-      </c>
-      <c r="AP76">
-        <v>0.75</v>
-      </c>
-      <c r="AQ76">
-        <v>0.5</v>
-      </c>
       <c r="AR76">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="AS76">
-        <v>1.46</v>
+        <v>0.93</v>
       </c>
       <c r="AT76">
-        <v>2.48</v>
+        <v>2.13</v>
       </c>
       <c r="AU76">
         <v>6</v>
       </c>
       <c r="AV76">
+        <v>5</v>
+      </c>
+      <c r="AW76">
         <v>6</v>
       </c>
-      <c r="AW76">
-        <v>4</v>
-      </c>
       <c r="AX76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY76">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ76">
         <v>10</v>
       </c>
       <c r="BA76">
+        <v>9</v>
+      </c>
+      <c r="BB76">
         <v>5</v>
       </c>
-      <c r="BB76">
-        <v>6</v>
-      </c>
       <c r="BC76">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD76">
-        <v>1.58</v>
+        <v>2.25</v>
       </c>
       <c r="BE76">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF76">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
       <c r="BG76">
+        <v>1.15</v>
+      </c>
+      <c r="BH76">
+        <v>4.68</v>
+      </c>
+      <c r="BI76">
         <v>1.33</v>
       </c>
-      <c r="BH76">
-        <v>2.95</v>
-      </c>
-      <c r="BI76">
-        <v>1.57</v>
-      </c>
       <c r="BJ76">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="BK76">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="BL76">
-        <v>1.75</v>
+        <v>2.31</v>
       </c>
       <c r="BM76">
-        <v>2.43</v>
+        <v>1.98</v>
       </c>
       <c r="BN76">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="BO76">
-        <v>3.15</v>
+        <v>2.49</v>
       </c>
       <c r="BP76">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16618,7 +16663,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7478830</v>
+        <v>7478825</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16627,196 +16672,196 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45566.65625</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77">
         <v>3</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O77" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="Q77">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="R77">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T77">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="U77">
-        <v>3.22</v>
+        <v>2.63</v>
       </c>
       <c r="V77">
-        <v>2.49</v>
+        <v>3.25</v>
       </c>
       <c r="W77">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X77">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="Y77">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z77">
+        <v>3.08</v>
+      </c>
+      <c r="AA77">
+        <v>3.36</v>
+      </c>
+      <c r="AB77">
+        <v>2.31</v>
+      </c>
+      <c r="AC77">
+        <v>1.06</v>
+      </c>
+      <c r="AD77">
+        <v>10</v>
+      </c>
+      <c r="AE77">
+        <v>1.36</v>
+      </c>
+      <c r="AF77">
+        <v>3.2</v>
+      </c>
+      <c r="AG77">
         <v>2.05</v>
       </c>
-      <c r="AA77">
-        <v>3.3</v>
-      </c>
-      <c r="AB77">
-        <v>3.2</v>
-      </c>
-      <c r="AC77">
-        <v>1.03</v>
-      </c>
-      <c r="AD77">
-        <v>15.25</v>
-      </c>
-      <c r="AE77">
-        <v>1.17</v>
-      </c>
-      <c r="AF77">
-        <v>3.88</v>
-      </c>
-      <c r="AG77">
-        <v>1.67</v>
-      </c>
       <c r="AH77">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="AI77">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AJ77">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK77">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
       <c r="AL77">
         <v>1.28</v>
       </c>
       <c r="AM77">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AN77">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="AR77">
-        <v>2.03</v>
+        <v>1.68</v>
       </c>
       <c r="AS77">
-        <v>0.9399999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="AT77">
-        <v>2.97</v>
+        <v>3.02</v>
       </c>
       <c r="AU77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV77">
         <v>4</v>
       </c>
       <c r="AW77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY77">
         <v>14</v>
       </c>
       <c r="AZ77">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA77">
         <v>5</v>
       </c>
       <c r="BB77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD77">
+        <v>1.9</v>
+      </c>
+      <c r="BE77">
+        <v>6.75</v>
+      </c>
+      <c r="BF77">
+        <v>2.08</v>
+      </c>
+      <c r="BG77">
+        <v>1.2</v>
+      </c>
+      <c r="BH77">
+        <v>3.9</v>
+      </c>
+      <c r="BI77">
+        <v>1.37</v>
+      </c>
+      <c r="BJ77">
+        <v>2.8</v>
+      </c>
+      <c r="BK77">
         <v>1.61</v>
       </c>
-      <c r="BE77">
-        <v>7</v>
-      </c>
-      <c r="BF77">
-        <v>2.48</v>
-      </c>
-      <c r="BG77">
-        <v>1.11</v>
-      </c>
-      <c r="BH77">
-        <v>5.3</v>
-      </c>
-      <c r="BI77">
-        <v>1.21</v>
-      </c>
-      <c r="BJ77">
-        <v>3.8</v>
-      </c>
-      <c r="BK77">
-        <v>1.37</v>
-      </c>
       <c r="BL77">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="BM77">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="BN77">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="BO77">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="BP77">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16824,7 +16869,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7478831</v>
+        <v>7478822</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16833,196 +16878,196 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45566.65625</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H78" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>95</v>
+      </c>
+      <c r="P78" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q78">
         <v>4</v>
       </c>
-      <c r="O78" t="s">
-        <v>151</v>
-      </c>
-      <c r="P78" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q78">
-        <v>2.1</v>
-      </c>
       <c r="R78">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S78">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="T78">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U78">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="V78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W78">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="X78">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y78">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z78">
-        <v>1.62</v>
+        <v>3.58</v>
       </c>
       <c r="AA78">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB78">
-        <v>4.7</v>
+        <v>2.01</v>
       </c>
       <c r="AC78">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD78">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE78">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF78">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AG78">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AH78">
         <v>1.95</v>
       </c>
       <c r="AI78">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AJ78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK78">
-        <v>1.19</v>
+        <v>1.83</v>
       </c>
       <c r="AL78">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AM78">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="AN78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR78">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AS78">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT78">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="AU78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW78">
+        <v>1</v>
+      </c>
+      <c r="AX78">
+        <v>8</v>
+      </c>
+      <c r="AY78">
         <v>4</v>
       </c>
-      <c r="AX78">
-        <v>7</v>
-      </c>
-      <c r="AY78">
-        <v>9</v>
-      </c>
       <c r="AZ78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB78">
         <v>6</v>
       </c>
       <c r="BC78">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD78">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="BE78">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF78">
-        <v>3.3</v>
+        <v>1.77</v>
       </c>
       <c r="BG78">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH78">
-        <v>3.95</v>
+        <v>4.16</v>
       </c>
       <c r="BI78">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="BJ78">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="BK78">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BL78">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="BM78">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="BN78">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="BO78">
-        <v>2.35</v>
+        <v>2.71</v>
       </c>
       <c r="BP78">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17030,7 +17075,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7478834</v>
+        <v>7478827</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17039,17 +17084,17 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45566.65625</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s">
         <v>93</v>
       </c>
-      <c r="H79" t="s">
-        <v>84</v>
-      </c>
       <c r="I79">
         <v>1</v>
       </c>
@@ -17063,172 +17108,172 @@
         <v>2</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="Q79">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="R79">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>5.28</v>
+        <v>3.2</v>
       </c>
       <c r="T79">
         <v>1.4</v>
       </c>
       <c r="U79">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="V79">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="W79">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X79">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="Y79">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z79">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="AA79">
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="AB79">
-        <v>4.8</v>
+        <v>2.41</v>
       </c>
       <c r="AC79">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD79">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AE79">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AF79">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG79">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="AH79">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AI79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AJ79">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AK79">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AL79">
         <v>1.28</v>
       </c>
       <c r="AM79">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
       <c r="AN79">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP79">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ79">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
-        <v>1.26</v>
+        <v>1.74</v>
       </c>
       <c r="AS79">
-        <v>0.9399999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="AT79">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
         <v>4</v>
       </c>
-      <c r="AV79">
+      <c r="AX79">
         <v>7</v>
       </c>
-      <c r="AW79">
-        <v>5</v>
-      </c>
-      <c r="AX79">
-        <v>3</v>
-      </c>
       <c r="AY79">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ79">
+        <v>18</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
+        <v>6</v>
+      </c>
+      <c r="BC79">
         <v>10</v>
       </c>
-      <c r="BA79">
-        <v>1</v>
-      </c>
-      <c r="BB79">
-        <v>8</v>
-      </c>
-      <c r="BC79">
-        <v>9</v>
-      </c>
       <c r="BD79">
-        <v>1.45</v>
+        <v>1.84</v>
       </c>
       <c r="BE79">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF79">
-        <v>3.05</v>
+        <v>2.15</v>
       </c>
       <c r="BG79">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH79">
-        <v>3.95</v>
+        <v>4.09</v>
       </c>
       <c r="BI79">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="BJ79">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BK79">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="BL79">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="BM79">
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="BN79">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="BO79">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="BP79">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17236,7 +17281,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7478832</v>
+        <v>7478820</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17245,196 +17290,196 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45566.65625</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="Q80">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S80">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="T80">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U80">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="V80">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W80">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X80">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y80">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Z80">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="AA80">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB80">
-        <v>2.7</v>
+        <v>4.95</v>
       </c>
       <c r="AC80">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD80">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AE80">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AF80">
-        <v>3.57</v>
+        <v>4.2</v>
       </c>
       <c r="AG80">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="AH80">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AI80">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AJ80">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK80">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AL80">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AM80">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="AN80">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AO80">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AS80">
         <v>1.1</v>
       </c>
       <c r="AT80">
-        <v>2.73</v>
+        <v>2.9</v>
       </c>
       <c r="AU80">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>9</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>27</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
         <v>7</v>
       </c>
-      <c r="AW80">
-        <v>5</v>
-      </c>
-      <c r="AX80">
-        <v>6</v>
-      </c>
-      <c r="AY80">
-        <v>13</v>
-      </c>
-      <c r="AZ80">
-        <v>13</v>
-      </c>
-      <c r="BA80">
-        <v>5</v>
-      </c>
       <c r="BB80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC80">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD80">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BE80">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF80">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="BG80">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="BH80">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="BI80">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="BJ80">
-        <v>2.65</v>
+        <v>3.34</v>
       </c>
       <c r="BK80">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="BL80">
-        <v>2.05</v>
+        <v>2.44</v>
       </c>
       <c r="BM80">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="BN80">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="BO80">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="BP80">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17442,7 +17487,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7478835</v>
+        <v>7478821</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17451,196 +17496,3492 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45566.66666666666</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H81" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M81">
         <v>1</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O81" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="Q81">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S81">
+        <v>5</v>
+      </c>
+      <c r="T81">
+        <v>1.53</v>
+      </c>
+      <c r="U81">
+        <v>2.38</v>
+      </c>
+      <c r="V81">
         <v>3.5</v>
       </c>
-      <c r="T81">
-        <v>1.4</v>
-      </c>
-      <c r="U81">
-        <v>2.75</v>
-      </c>
-      <c r="V81">
-        <v>2.82</v>
-      </c>
       <c r="W81">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="X81">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="Y81">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z81">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
       <c r="AA81">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="AB81">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AC81">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD81">
-        <v>11.25</v>
+        <v>6.65</v>
       </c>
       <c r="AE81">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AF81">
-        <v>3.52</v>
+        <v>2.54</v>
       </c>
       <c r="AG81">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AH81">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AI81">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="AJ81">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AK81">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AL81">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM81">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AN81">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO81">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR81">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AS81">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AT81">
-        <v>2.76</v>
+        <v>2.32</v>
       </c>
       <c r="AU81">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV81">
         <v>5</v>
       </c>
       <c r="AW81">
+        <v>4</v>
+      </c>
+      <c r="AX81">
+        <v>4</v>
+      </c>
+      <c r="AY81">
+        <v>15</v>
+      </c>
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>8</v>
+      </c>
+      <c r="BC81">
+        <v>11</v>
+      </c>
+      <c r="BD81">
+        <v>1.66</v>
+      </c>
+      <c r="BE81">
+        <v>6.4</v>
+      </c>
+      <c r="BF81">
+        <v>2.48</v>
+      </c>
+      <c r="BG81">
+        <v>1.27</v>
+      </c>
+      <c r="BH81">
+        <v>3.48</v>
+      </c>
+      <c r="BI81">
+        <v>1.52</v>
+      </c>
+      <c r="BJ81">
+        <v>2.47</v>
+      </c>
+      <c r="BK81">
+        <v>1.88</v>
+      </c>
+      <c r="BL81">
+        <v>1.92</v>
+      </c>
+      <c r="BM81">
+        <v>2.38</v>
+      </c>
+      <c r="BN81">
+        <v>1.57</v>
+      </c>
+      <c r="BO81">
+        <v>3.18</v>
+      </c>
+      <c r="BP81">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7478818</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
         <v>5</v>
       </c>
-      <c r="AX81">
+      <c r="O82" t="s">
+        <v>156</v>
+      </c>
+      <c r="P82" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q82">
+        <v>2.6</v>
+      </c>
+      <c r="R82">
+        <v>2.2</v>
+      </c>
+      <c r="S82">
+        <v>4.33</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>2.75</v>
+      </c>
+      <c r="W82">
+        <v>1.4</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>1.88</v>
+      </c>
+      <c r="AA82">
+        <v>3.68</v>
+      </c>
+      <c r="AB82">
+        <v>3.98</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>8.1</v>
+      </c>
+      <c r="AE82">
+        <v>1.25</v>
+      </c>
+      <c r="AF82">
+        <v>3.2</v>
+      </c>
+      <c r="AG82">
+        <v>1.95</v>
+      </c>
+      <c r="AH82">
+        <v>1.76</v>
+      </c>
+      <c r="AI82">
+        <v>1.83</v>
+      </c>
+      <c r="AJ82">
+        <v>1.83</v>
+      </c>
+      <c r="AK82">
+        <v>1.26</v>
+      </c>
+      <c r="AL82">
+        <v>1.24</v>
+      </c>
+      <c r="AM82">
+        <v>1.9</v>
+      </c>
+      <c r="AN82">
+        <v>0.67</v>
+      </c>
+      <c r="AO82">
+        <v>0.33</v>
+      </c>
+      <c r="AP82">
+        <v>1.25</v>
+      </c>
+      <c r="AQ82">
+        <v>0.25</v>
+      </c>
+      <c r="AR82">
+        <v>1.37</v>
+      </c>
+      <c r="AS82">
+        <v>1.12</v>
+      </c>
+      <c r="AT82">
+        <v>2.49</v>
+      </c>
+      <c r="AU82">
         <v>10</v>
       </c>
-      <c r="AY81">
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>6</v>
+      </c>
+      <c r="AX82">
         <v>7</v>
       </c>
-      <c r="AZ81">
+      <c r="AY82">
+        <v>19</v>
+      </c>
+      <c r="AZ82">
+        <v>17</v>
+      </c>
+      <c r="BA82">
+        <v>7</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>12</v>
+      </c>
+      <c r="BD82">
+        <v>1.46</v>
+      </c>
+      <c r="BE82">
+        <v>7</v>
+      </c>
+      <c r="BF82">
+        <v>2.95</v>
+      </c>
+      <c r="BG82">
+        <v>1.18</v>
+      </c>
+      <c r="BH82">
+        <v>4.24</v>
+      </c>
+      <c r="BI82">
+        <v>1.38</v>
+      </c>
+      <c r="BJ82">
+        <v>2.88</v>
+      </c>
+      <c r="BK82">
+        <v>1.68</v>
+      </c>
+      <c r="BL82">
+        <v>2.17</v>
+      </c>
+      <c r="BM82">
+        <v>2.08</v>
+      </c>
+      <c r="BN82">
+        <v>1.75</v>
+      </c>
+      <c r="BO82">
+        <v>2.67</v>
+      </c>
+      <c r="BP82">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7478824</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>85</v>
+      </c>
+      <c r="H83" t="s">
+        <v>86</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>95</v>
+      </c>
+      <c r="P83" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q83">
+        <v>4.5</v>
+      </c>
+      <c r="R83">
+        <v>2.25</v>
+      </c>
+      <c r="S83">
+        <v>2.4</v>
+      </c>
+      <c r="T83">
+        <v>1.36</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83">
+        <v>2.63</v>
+      </c>
+      <c r="W83">
+        <v>1.44</v>
+      </c>
+      <c r="X83">
+        <v>7</v>
+      </c>
+      <c r="Y83">
+        <v>1.1</v>
+      </c>
+      <c r="Z83">
+        <v>4.05</v>
+      </c>
+      <c r="AA83">
+        <v>3.78</v>
+      </c>
+      <c r="AB83">
+        <v>1.84</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>13</v>
+      </c>
+      <c r="AE83">
+        <v>1.28</v>
+      </c>
+      <c r="AF83">
+        <v>3.75</v>
+      </c>
+      <c r="AG83">
+        <v>1.76</v>
+      </c>
+      <c r="AH83">
+        <v>1.95</v>
+      </c>
+      <c r="AI83">
+        <v>1.8</v>
+      </c>
+      <c r="AJ83">
+        <v>1.91</v>
+      </c>
+      <c r="AK83">
+        <v>2</v>
+      </c>
+      <c r="AL83">
+        <v>1.22</v>
+      </c>
+      <c r="AM83">
+        <v>1.24</v>
+      </c>
+      <c r="AN83">
+        <v>0.33</v>
+      </c>
+      <c r="AO83">
+        <v>2.33</v>
+      </c>
+      <c r="AP83">
+        <v>0.5</v>
+      </c>
+      <c r="AQ83">
+        <v>2</v>
+      </c>
+      <c r="AR83">
+        <v>1.1</v>
+      </c>
+      <c r="AS83">
+        <v>1.2</v>
+      </c>
+      <c r="AT83">
+        <v>2.3</v>
+      </c>
+      <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>5</v>
+      </c>
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>13</v>
+      </c>
+      <c r="BA83">
+        <v>14</v>
+      </c>
+      <c r="BB83">
+        <v>9</v>
+      </c>
+      <c r="BC83">
+        <v>23</v>
+      </c>
+      <c r="BD83">
+        <v>2.23</v>
+      </c>
+      <c r="BE83">
+        <v>6.75</v>
+      </c>
+      <c r="BF83">
+        <v>1.75</v>
+      </c>
+      <c r="BG83">
+        <v>1.15</v>
+      </c>
+      <c r="BH83">
+        <v>4.58</v>
+      </c>
+      <c r="BI83">
+        <v>1.34</v>
+      </c>
+      <c r="BJ83">
+        <v>3.06</v>
+      </c>
+      <c r="BK83">
+        <v>1.62</v>
+      </c>
+      <c r="BL83">
+        <v>2.28</v>
+      </c>
+      <c r="BM83">
+        <v>2</v>
+      </c>
+      <c r="BN83">
+        <v>1.8</v>
+      </c>
+      <c r="BO83">
+        <v>2.52</v>
+      </c>
+      <c r="BP83">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7478819</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>157</v>
+      </c>
+      <c r="P84" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q84">
+        <v>2.1</v>
+      </c>
+      <c r="R84">
+        <v>2.4</v>
+      </c>
+      <c r="S84">
+        <v>5.5</v>
+      </c>
+      <c r="T84">
+        <v>1.3</v>
+      </c>
+      <c r="U84">
+        <v>3.4</v>
+      </c>
+      <c r="V84">
+        <v>2.5</v>
+      </c>
+      <c r="W84">
+        <v>1.5</v>
+      </c>
+      <c r="X84">
+        <v>6</v>
+      </c>
+      <c r="Y84">
+        <v>1.13</v>
+      </c>
+      <c r="Z84">
+        <v>1.58</v>
+      </c>
+      <c r="AA84">
+        <v>4.3</v>
+      </c>
+      <c r="AB84">
+        <v>5.25</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
         <v>15</v>
       </c>
-      <c r="BA81">
+      <c r="AE84">
+        <v>1.2</v>
+      </c>
+      <c r="AF84">
+        <v>4.5</v>
+      </c>
+      <c r="AG84">
+        <v>1.76</v>
+      </c>
+      <c r="AH84">
+        <v>1.95</v>
+      </c>
+      <c r="AI84">
+        <v>1.73</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>1.15</v>
+      </c>
+      <c r="AL84">
+        <v>1.18</v>
+      </c>
+      <c r="AM84">
+        <v>2.5</v>
+      </c>
+      <c r="AN84">
+        <v>1.33</v>
+      </c>
+      <c r="AO84">
+        <v>0.67</v>
+      </c>
+      <c r="AP84">
+        <v>1.75</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
+      <c r="AR84">
+        <v>1.79</v>
+      </c>
+      <c r="AS84">
+        <v>1.09</v>
+      </c>
+      <c r="AT84">
+        <v>2.88</v>
+      </c>
+      <c r="AU84">
+        <v>9</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>14</v>
+      </c>
+      <c r="AZ84">
+        <v>8</v>
+      </c>
+      <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
+        <v>10</v>
+      </c>
+      <c r="BD84">
+        <v>1.49</v>
+      </c>
+      <c r="BE84">
+        <v>7</v>
+      </c>
+      <c r="BF84">
+        <v>2.8</v>
+      </c>
+      <c r="BG84">
+        <v>1.13</v>
+      </c>
+      <c r="BH84">
+        <v>4.99</v>
+      </c>
+      <c r="BI84">
+        <v>1.3</v>
+      </c>
+      <c r="BJ84">
+        <v>3.28</v>
+      </c>
+      <c r="BK84">
+        <v>1.55</v>
+      </c>
+      <c r="BL84">
+        <v>2.4</v>
+      </c>
+      <c r="BM84">
+        <v>1.9</v>
+      </c>
+      <c r="BN84">
+        <v>1.9</v>
+      </c>
+      <c r="BO84">
+        <v>2.38</v>
+      </c>
+      <c r="BP84">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7478826</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H85" t="s">
+        <v>89</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>158</v>
+      </c>
+      <c r="P85" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q85">
+        <v>2.88</v>
+      </c>
+      <c r="R85">
+        <v>2.2</v>
+      </c>
+      <c r="S85">
+        <v>3.6</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>2.75</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>8</v>
+      </c>
+      <c r="Y85">
+        <v>1.08</v>
+      </c>
+      <c r="Z85">
+        <v>2.6</v>
+      </c>
+      <c r="AA85">
+        <v>3.3</v>
+      </c>
+      <c r="AB85">
+        <v>2.7</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE85">
+        <v>1.23</v>
+      </c>
+      <c r="AF85">
+        <v>3.34</v>
+      </c>
+      <c r="AG85">
+        <v>1.95</v>
+      </c>
+      <c r="AH85">
+        <v>1.8</v>
+      </c>
+      <c r="AI85">
+        <v>1.73</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>1.4</v>
+      </c>
+      <c r="AL85">
+        <v>1.26</v>
+      </c>
+      <c r="AM85">
+        <v>1.65</v>
+      </c>
+      <c r="AN85">
+        <v>2.33</v>
+      </c>
+      <c r="AO85">
+        <v>0.33</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>0.5</v>
+      </c>
+      <c r="AR85">
+        <v>1.34</v>
+      </c>
+      <c r="AS85">
+        <v>1.29</v>
+      </c>
+      <c r="AT85">
+        <v>2.63</v>
+      </c>
+      <c r="AU85">
+        <v>3</v>
+      </c>
+      <c r="AV85">
+        <v>7</v>
+      </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
         <v>5</v>
       </c>
-      <c r="BB81">
+      <c r="AY85">
+        <v>8</v>
+      </c>
+      <c r="AZ85">
+        <v>16</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>8</v>
+      </c>
+      <c r="BC85">
+        <v>11</v>
+      </c>
+      <c r="BD85">
+        <v>1.93</v>
+      </c>
+      <c r="BE85">
+        <v>7</v>
+      </c>
+      <c r="BF85">
+        <v>2.07</v>
+      </c>
+      <c r="BG85">
+        <v>1.24</v>
+      </c>
+      <c r="BH85">
+        <v>3.66</v>
+      </c>
+      <c r="BI85">
+        <v>1.48</v>
+      </c>
+      <c r="BJ85">
+        <v>2.57</v>
+      </c>
+      <c r="BK85">
+        <v>1.82</v>
+      </c>
+      <c r="BL85">
+        <v>1.98</v>
+      </c>
+      <c r="BM85">
+        <v>2.29</v>
+      </c>
+      <c r="BN85">
+        <v>1.61</v>
+      </c>
+      <c r="BO85">
+        <v>3.03</v>
+      </c>
+      <c r="BP85">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7478828</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" t="s">
+        <v>92</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>119</v>
+      </c>
+      <c r="P86" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q86">
+        <v>1.88</v>
+      </c>
+      <c r="R86">
+        <v>2.45</v>
+      </c>
+      <c r="S86">
+        <v>5.75</v>
+      </c>
+      <c r="T86">
+        <v>1.28</v>
+      </c>
+      <c r="U86">
+        <v>3.4</v>
+      </c>
+      <c r="V86">
+        <v>2.3</v>
+      </c>
+      <c r="W86">
+        <v>1.55</v>
+      </c>
+      <c r="X86">
+        <v>4.9</v>
+      </c>
+      <c r="Y86">
+        <v>1.14</v>
+      </c>
+      <c r="Z86">
+        <v>1.44</v>
+      </c>
+      <c r="AA86">
+        <v>4.9</v>
+      </c>
+      <c r="AB86">
+        <v>6.6</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>18.75</v>
+      </c>
+      <c r="AE86">
+        <v>1.19</v>
+      </c>
+      <c r="AF86">
+        <v>4.82</v>
+      </c>
+      <c r="AG86">
+        <v>1.55</v>
+      </c>
+      <c r="AH86">
+        <v>2.3</v>
+      </c>
+      <c r="AI86">
+        <v>1.72</v>
+      </c>
+      <c r="AJ86">
+        <v>2</v>
+      </c>
+      <c r="AK86">
+        <v>1.13</v>
+      </c>
+      <c r="AL86">
+        <v>1.19</v>
+      </c>
+      <c r="AM86">
+        <v>2.7</v>
+      </c>
+      <c r="AN86">
+        <v>2.33</v>
+      </c>
+      <c r="AO86">
+        <v>0.33</v>
+      </c>
+      <c r="AP86">
+        <v>2.5</v>
+      </c>
+      <c r="AQ86">
+        <v>0.25</v>
+      </c>
+      <c r="AR86">
+        <v>1.43</v>
+      </c>
+      <c r="AS86">
+        <v>0.89</v>
+      </c>
+      <c r="AT86">
+        <v>2.32</v>
+      </c>
+      <c r="AU86">
+        <v>-1</v>
+      </c>
+      <c r="AV86">
+        <v>-1</v>
+      </c>
+      <c r="AW86">
+        <v>-1</v>
+      </c>
+      <c r="AX86">
+        <v>-1</v>
+      </c>
+      <c r="AY86">
+        <v>-1</v>
+      </c>
+      <c r="AZ86">
+        <v>-1</v>
+      </c>
+      <c r="BA86">
+        <v>-1</v>
+      </c>
+      <c r="BB86">
+        <v>-1</v>
+      </c>
+      <c r="BC86">
+        <v>-1</v>
+      </c>
+      <c r="BD86">
+        <v>1.23</v>
+      </c>
+      <c r="BE86">
+        <v>9</v>
+      </c>
+      <c r="BF86">
+        <v>4.4</v>
+      </c>
+      <c r="BG86">
+        <v>1.1</v>
+      </c>
+      <c r="BH86">
+        <v>5.6</v>
+      </c>
+      <c r="BI86">
+        <v>1.2</v>
+      </c>
+      <c r="BJ86">
+        <v>3.95</v>
+      </c>
+      <c r="BK86">
+        <v>1.33</v>
+      </c>
+      <c r="BL86">
+        <v>2.95</v>
+      </c>
+      <c r="BM86">
+        <v>1.53</v>
+      </c>
+      <c r="BN86">
+        <v>2.32</v>
+      </c>
+      <c r="BO86">
+        <v>1.81</v>
+      </c>
+      <c r="BP86">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7478829</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s">
+        <v>74</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>120</v>
+      </c>
+      <c r="P87" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q87">
+        <v>3.6</v>
+      </c>
+      <c r="R87">
+        <v>1.91</v>
+      </c>
+      <c r="S87">
+        <v>3.3</v>
+      </c>
+      <c r="T87">
+        <v>1.55</v>
+      </c>
+      <c r="U87">
+        <v>2.25</v>
+      </c>
+      <c r="V87">
+        <v>3.5</v>
+      </c>
+      <c r="W87">
+        <v>1.25</v>
+      </c>
+      <c r="X87">
+        <v>8.25</v>
+      </c>
+      <c r="Y87">
+        <v>1.04</v>
+      </c>
+      <c r="Z87">
+        <v>3</v>
+      </c>
+      <c r="AA87">
+        <v>3</v>
+      </c>
+      <c r="AB87">
+        <v>2.34</v>
+      </c>
+      <c r="AC87">
+        <v>1.08</v>
+      </c>
+      <c r="AD87">
+        <v>6.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.5</v>
+      </c>
+      <c r="AF87">
+        <v>2.45</v>
+      </c>
+      <c r="AG87">
+        <v>2.45</v>
+      </c>
+      <c r="AH87">
+        <v>1.49</v>
+      </c>
+      <c r="AI87">
+        <v>2.1</v>
+      </c>
+      <c r="AJ87">
+        <v>1.68</v>
+      </c>
+      <c r="AK87">
+        <v>1.5</v>
+      </c>
+      <c r="AL87">
+        <v>1.38</v>
+      </c>
+      <c r="AM87">
+        <v>1.42</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0.67</v>
+      </c>
+      <c r="AP87">
+        <v>0.75</v>
+      </c>
+      <c r="AQ87">
+        <v>0.5</v>
+      </c>
+      <c r="AR87">
+        <v>1.02</v>
+      </c>
+      <c r="AS87">
+        <v>1.46</v>
+      </c>
+      <c r="AT87">
+        <v>2.48</v>
+      </c>
+      <c r="AU87">
+        <v>-1</v>
+      </c>
+      <c r="AV87">
+        <v>-1</v>
+      </c>
+      <c r="AW87">
+        <v>-1</v>
+      </c>
+      <c r="AX87">
+        <v>-1</v>
+      </c>
+      <c r="AY87">
+        <v>-1</v>
+      </c>
+      <c r="AZ87">
+        <v>-1</v>
+      </c>
+      <c r="BA87">
+        <v>-1</v>
+      </c>
+      <c r="BB87">
+        <v>-1</v>
+      </c>
+      <c r="BC87">
+        <v>-1</v>
+      </c>
+      <c r="BD87">
+        <v>1.58</v>
+      </c>
+      <c r="BE87">
+        <v>6.5</v>
+      </c>
+      <c r="BF87">
+        <v>2.65</v>
+      </c>
+      <c r="BG87">
+        <v>1.33</v>
+      </c>
+      <c r="BH87">
+        <v>2.95</v>
+      </c>
+      <c r="BI87">
+        <v>1.57</v>
+      </c>
+      <c r="BJ87">
+        <v>2.2</v>
+      </c>
+      <c r="BK87">
+        <v>1.95</v>
+      </c>
+      <c r="BL87">
+        <v>1.75</v>
+      </c>
+      <c r="BM87">
+        <v>2.43</v>
+      </c>
+      <c r="BN87">
+        <v>1.48</v>
+      </c>
+      <c r="BO87">
+        <v>3.15</v>
+      </c>
+      <c r="BP87">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7478830</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>159</v>
+      </c>
+      <c r="P88" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q88">
+        <v>2.4</v>
+      </c>
+      <c r="R88">
+        <v>2.25</v>
+      </c>
+      <c r="S88">
         <v>4</v>
       </c>
-      <c r="BC81">
+      <c r="T88">
+        <v>1.32</v>
+      </c>
+      <c r="U88">
+        <v>3.22</v>
+      </c>
+      <c r="V88">
+        <v>2.49</v>
+      </c>
+      <c r="W88">
+        <v>1.5</v>
+      </c>
+      <c r="X88">
+        <v>5.9</v>
+      </c>
+      <c r="Y88">
+        <v>1.11</v>
+      </c>
+      <c r="Z88">
+        <v>2.05</v>
+      </c>
+      <c r="AA88">
+        <v>3.3</v>
+      </c>
+      <c r="AB88">
+        <v>3.2</v>
+      </c>
+      <c r="AC88">
+        <v>1.03</v>
+      </c>
+      <c r="AD88">
+        <v>15.25</v>
+      </c>
+      <c r="AE88">
+        <v>1.17</v>
+      </c>
+      <c r="AF88">
+        <v>3.88</v>
+      </c>
+      <c r="AG88">
+        <v>1.67</v>
+      </c>
+      <c r="AH88">
+        <v>2.1</v>
+      </c>
+      <c r="AI88">
+        <v>1.6</v>
+      </c>
+      <c r="AJ88">
+        <v>2.2</v>
+      </c>
+      <c r="AK88">
+        <v>1.28</v>
+      </c>
+      <c r="AL88">
+        <v>1.28</v>
+      </c>
+      <c r="AM88">
+        <v>1.85</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>1.5</v>
+      </c>
+      <c r="AQ88">
+        <v>0.75</v>
+      </c>
+      <c r="AR88">
+        <v>2.03</v>
+      </c>
+      <c r="AS88">
+        <v>0.9</v>
+      </c>
+      <c r="AT88">
+        <v>2.93</v>
+      </c>
+      <c r="AU88">
+        <v>-1</v>
+      </c>
+      <c r="AV88">
+        <v>-1</v>
+      </c>
+      <c r="AW88">
+        <v>-1</v>
+      </c>
+      <c r="AX88">
+        <v>-1</v>
+      </c>
+      <c r="AY88">
+        <v>-1</v>
+      </c>
+      <c r="AZ88">
+        <v>-1</v>
+      </c>
+      <c r="BA88">
+        <v>-1</v>
+      </c>
+      <c r="BB88">
+        <v>-1</v>
+      </c>
+      <c r="BC88">
+        <v>-1</v>
+      </c>
+      <c r="BD88">
+        <v>1.61</v>
+      </c>
+      <c r="BE88">
+        <v>7</v>
+      </c>
+      <c r="BF88">
+        <v>2.48</v>
+      </c>
+      <c r="BG88">
+        <v>1.11</v>
+      </c>
+      <c r="BH88">
+        <v>5.3</v>
+      </c>
+      <c r="BI88">
+        <v>1.21</v>
+      </c>
+      <c r="BJ88">
+        <v>3.8</v>
+      </c>
+      <c r="BK88">
+        <v>1.37</v>
+      </c>
+      <c r="BL88">
+        <v>2.8</v>
+      </c>
+      <c r="BM88">
+        <v>1.58</v>
+      </c>
+      <c r="BN88">
+        <v>2.18</v>
+      </c>
+      <c r="BO88">
+        <v>1.91</v>
+      </c>
+      <c r="BP88">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7478831</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>73</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>160</v>
+      </c>
+      <c r="P89" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q89">
+        <v>2.1</v>
+      </c>
+      <c r="R89">
+        <v>2.25</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1.35</v>
+      </c>
+      <c r="U89">
+        <v>3.1</v>
+      </c>
+      <c r="V89">
+        <v>2.5</v>
+      </c>
+      <c r="W89">
+        <v>1.48</v>
+      </c>
+      <c r="X89">
+        <v>5.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.11</v>
+      </c>
+      <c r="Z89">
+        <v>1.62</v>
+      </c>
+      <c r="AA89">
+        <v>3.7</v>
+      </c>
+      <c r="AB89">
+        <v>4.7</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>14.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.25</v>
+      </c>
+      <c r="AF89">
+        <v>3.9</v>
+      </c>
+      <c r="AG89">
+        <v>1.75</v>
+      </c>
+      <c r="AH89">
+        <v>1.95</v>
+      </c>
+      <c r="AI89">
+        <v>1.78</v>
+      </c>
+      <c r="AJ89">
+        <v>1.95</v>
+      </c>
+      <c r="AK89">
+        <v>1.19</v>
+      </c>
+      <c r="AL89">
+        <v>1.24</v>
+      </c>
+      <c r="AM89">
+        <v>2.25</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>0.25</v>
+      </c>
+      <c r="AR89">
+        <v>1.26</v>
+      </c>
+      <c r="AS89">
+        <v>0.87</v>
+      </c>
+      <c r="AT89">
+        <v>2.13</v>
+      </c>
+      <c r="AU89">
+        <v>-1</v>
+      </c>
+      <c r="AV89">
+        <v>-1</v>
+      </c>
+      <c r="AW89">
+        <v>-1</v>
+      </c>
+      <c r="AX89">
+        <v>-1</v>
+      </c>
+      <c r="AY89">
+        <v>-1</v>
+      </c>
+      <c r="AZ89">
+        <v>-1</v>
+      </c>
+      <c r="BA89">
+        <v>-1</v>
+      </c>
+      <c r="BB89">
+        <v>-1</v>
+      </c>
+      <c r="BC89">
+        <v>-1</v>
+      </c>
+      <c r="BD89">
+        <v>1.38</v>
+      </c>
+      <c r="BE89">
+        <v>7.5</v>
+      </c>
+      <c r="BF89">
+        <v>3.3</v>
+      </c>
+      <c r="BG89">
+        <v>1.2</v>
+      </c>
+      <c r="BH89">
+        <v>3.95</v>
+      </c>
+      <c r="BI89">
+        <v>1.35</v>
+      </c>
+      <c r="BJ89">
+        <v>2.9</v>
+      </c>
+      <c r="BK89">
+        <v>1.57</v>
+      </c>
+      <c r="BL89">
+        <v>2.23</v>
+      </c>
+      <c r="BM89">
+        <v>1.9</v>
+      </c>
+      <c r="BN89">
+        <v>1.78</v>
+      </c>
+      <c r="BO89">
+        <v>2.35</v>
+      </c>
+      <c r="BP89">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7478834</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>93</v>
+      </c>
+      <c r="H90" t="s">
+        <v>84</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>161</v>
+      </c>
+      <c r="P90" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q90">
+        <v>2.35</v>
+      </c>
+      <c r="R90">
+        <v>2.26</v>
+      </c>
+      <c r="S90">
+        <v>5.28</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.95</v>
+      </c>
+      <c r="V90">
+        <v>3.02</v>
+      </c>
+      <c r="W90">
+        <v>1.39</v>
+      </c>
+      <c r="X90">
+        <v>7.4</v>
+      </c>
+      <c r="Y90">
+        <v>1.07</v>
+      </c>
+      <c r="Z90">
+        <v>1.73</v>
+      </c>
+      <c r="AA90">
+        <v>3.8</v>
+      </c>
+      <c r="AB90">
+        <v>4.8</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE90">
+        <v>1.25</v>
+      </c>
+      <c r="AF90">
+        <v>3.2</v>
+      </c>
+      <c r="AG90">
+        <v>1.94</v>
+      </c>
+      <c r="AH90">
+        <v>1.87</v>
+      </c>
+      <c r="AI90">
+        <v>1.95</v>
+      </c>
+      <c r="AJ90">
+        <v>1.78</v>
+      </c>
+      <c r="AK90">
+        <v>1.2</v>
+      </c>
+      <c r="AL90">
+        <v>1.28</v>
+      </c>
+      <c r="AM90">
+        <v>2.06</v>
+      </c>
+      <c r="AN90">
+        <v>3</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>3</v>
+      </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <v>1.26</v>
+      </c>
+      <c r="AS90">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT90">
+        <v>2.2</v>
+      </c>
+      <c r="AU90">
+        <v>-1</v>
+      </c>
+      <c r="AV90">
+        <v>-1</v>
+      </c>
+      <c r="AW90">
+        <v>-1</v>
+      </c>
+      <c r="AX90">
+        <v>-1</v>
+      </c>
+      <c r="AY90">
+        <v>-1</v>
+      </c>
+      <c r="AZ90">
+        <v>-1</v>
+      </c>
+      <c r="BA90">
+        <v>-1</v>
+      </c>
+      <c r="BB90">
+        <v>-1</v>
+      </c>
+      <c r="BC90">
+        <v>-1</v>
+      </c>
+      <c r="BD90">
+        <v>1.45</v>
+      </c>
+      <c r="BE90">
+        <v>7</v>
+      </c>
+      <c r="BF90">
+        <v>3.05</v>
+      </c>
+      <c r="BG90">
+        <v>1.2</v>
+      </c>
+      <c r="BH90">
+        <v>3.95</v>
+      </c>
+      <c r="BI90">
+        <v>1.35</v>
+      </c>
+      <c r="BJ90">
+        <v>2.9</v>
+      </c>
+      <c r="BK90">
+        <v>1.58</v>
+      </c>
+      <c r="BL90">
+        <v>2.2</v>
+      </c>
+      <c r="BM90">
+        <v>1.91</v>
+      </c>
+      <c r="BN90">
+        <v>1.78</v>
+      </c>
+      <c r="BO90">
+        <v>2.38</v>
+      </c>
+      <c r="BP90">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7478835</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>83</v>
+      </c>
+      <c r="H91" t="s">
+        <v>79</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>95</v>
+      </c>
+      <c r="P91" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q91">
+        <v>2.9</v>
+      </c>
+      <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
+        <v>3.5</v>
+      </c>
+      <c r="T91">
+        <v>1.4</v>
+      </c>
+      <c r="U91">
+        <v>2.75</v>
+      </c>
+      <c r="V91">
+        <v>2.82</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>7.2</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>2.42</v>
+      </c>
+      <c r="AA91">
+        <v>3.2</v>
+      </c>
+      <c r="AB91">
+        <v>2.7</v>
+      </c>
+      <c r="AC91">
+        <v>1.06</v>
+      </c>
+      <c r="AD91">
+        <v>11.25</v>
+      </c>
+      <c r="AE91">
+        <v>1.31</v>
+      </c>
+      <c r="AF91">
+        <v>3.52</v>
+      </c>
+      <c r="AG91">
+        <v>1.93</v>
+      </c>
+      <c r="AH91">
+        <v>1.88</v>
+      </c>
+      <c r="AI91">
+        <v>1.72</v>
+      </c>
+      <c r="AJ91">
+        <v>2</v>
+      </c>
+      <c r="AK91">
+        <v>1.4</v>
+      </c>
+      <c r="AL91">
+        <v>1.32</v>
+      </c>
+      <c r="AM91">
+        <v>1.6</v>
+      </c>
+      <c r="AN91">
+        <v>2.33</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>1.75</v>
+      </c>
+      <c r="AQ91">
+        <v>1.5</v>
+      </c>
+      <c r="AR91">
+        <v>1.4</v>
+      </c>
+      <c r="AS91">
+        <v>1.47</v>
+      </c>
+      <c r="AT91">
+        <v>2.87</v>
+      </c>
+      <c r="AU91">
+        <v>-1</v>
+      </c>
+      <c r="AV91">
+        <v>-1</v>
+      </c>
+      <c r="AW91">
+        <v>-1</v>
+      </c>
+      <c r="AX91">
+        <v>-1</v>
+      </c>
+      <c r="AY91">
+        <v>-1</v>
+      </c>
+      <c r="AZ91">
+        <v>-1</v>
+      </c>
+      <c r="BA91">
+        <v>-1</v>
+      </c>
+      <c r="BB91">
+        <v>-1</v>
+      </c>
+      <c r="BC91">
+        <v>-1</v>
+      </c>
+      <c r="BD91">
+        <v>1.8</v>
+      </c>
+      <c r="BE91">
+        <v>7</v>
+      </c>
+      <c r="BF91">
+        <v>2.18</v>
+      </c>
+      <c r="BG91">
+        <v>1.19</v>
+      </c>
+      <c r="BH91">
+        <v>4.1</v>
+      </c>
+      <c r="BI91">
+        <v>1.33</v>
+      </c>
+      <c r="BJ91">
+        <v>2.95</v>
+      </c>
+      <c r="BK91">
+        <v>1.55</v>
+      </c>
+      <c r="BL91">
+        <v>2.25</v>
+      </c>
+      <c r="BM91">
+        <v>1.88</v>
+      </c>
+      <c r="BN91">
+        <v>1.8</v>
+      </c>
+      <c r="BO91">
+        <v>2.33</v>
+      </c>
+      <c r="BP91">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7478837</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>90</v>
+      </c>
+      <c r="H92" t="s">
+        <v>76</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>158</v>
+      </c>
+      <c r="P92" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>2.5</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3.2</v>
+      </c>
+      <c r="V92">
+        <v>2.7</v>
+      </c>
+      <c r="W92">
+        <v>1.47</v>
+      </c>
+      <c r="X92">
+        <v>6.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.1</v>
+      </c>
+      <c r="Z92">
+        <v>3.9</v>
+      </c>
+      <c r="AA92">
+        <v>3.75</v>
+      </c>
+      <c r="AB92">
+        <v>1.89</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>11</v>
+      </c>
+      <c r="AE92">
+        <v>1.2</v>
+      </c>
+      <c r="AF92">
+        <v>4</v>
+      </c>
+      <c r="AG92">
+        <v>1.75</v>
+      </c>
+      <c r="AH92">
+        <v>1.95</v>
+      </c>
+      <c r="AI92">
+        <v>1.65</v>
+      </c>
+      <c r="AJ92">
+        <v>2.2</v>
+      </c>
+      <c r="AK92">
+        <v>1.9</v>
+      </c>
+      <c r="AL92">
+        <v>1.24</v>
+      </c>
+      <c r="AM92">
+        <v>1.28</v>
+      </c>
+      <c r="AN92">
+        <v>1.67</v>
+      </c>
+      <c r="AO92">
+        <v>2.33</v>
+      </c>
+      <c r="AP92">
+        <v>1.5</v>
+      </c>
+      <c r="AQ92">
+        <v>2</v>
+      </c>
+      <c r="AR92">
+        <v>1.53</v>
+      </c>
+      <c r="AS92">
+        <v>1.34</v>
+      </c>
+      <c r="AT92">
+        <v>2.87</v>
+      </c>
+      <c r="AU92">
+        <v>-1</v>
+      </c>
+      <c r="AV92">
+        <v>-1</v>
+      </c>
+      <c r="AW92">
+        <v>-1</v>
+      </c>
+      <c r="AX92">
+        <v>-1</v>
+      </c>
+      <c r="AY92">
+        <v>-1</v>
+      </c>
+      <c r="AZ92">
+        <v>-1</v>
+      </c>
+      <c r="BA92">
+        <v>-1</v>
+      </c>
+      <c r="BB92">
+        <v>-1</v>
+      </c>
+      <c r="BC92">
+        <v>-1</v>
+      </c>
+      <c r="BD92">
+        <v>1.71</v>
+      </c>
+      <c r="BE92">
+        <v>6.75</v>
+      </c>
+      <c r="BF92">
+        <v>2.33</v>
+      </c>
+      <c r="BG92">
+        <v>1.17</v>
+      </c>
+      <c r="BH92">
+        <v>4.35</v>
+      </c>
+      <c r="BI92">
+        <v>1.3</v>
+      </c>
+      <c r="BJ92">
+        <v>3.15</v>
+      </c>
+      <c r="BK92">
+        <v>1.5</v>
+      </c>
+      <c r="BL92">
+        <v>2.4</v>
+      </c>
+      <c r="BM92">
+        <v>1.79</v>
+      </c>
+      <c r="BN92">
+        <v>1.9</v>
+      </c>
+      <c r="BO92">
+        <v>2.2</v>
+      </c>
+      <c r="BP92">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7478832</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45565.875</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>77</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>162</v>
+      </c>
+      <c r="P93" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q93">
+        <v>2.85</v>
+      </c>
+      <c r="R93">
+        <v>2.1</v>
+      </c>
+      <c r="S93">
+        <v>3.5</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.8</v>
+      </c>
+      <c r="V93">
+        <v>2.75</v>
+      </c>
+      <c r="W93">
+        <v>1.4</v>
+      </c>
+      <c r="X93">
+        <v>6.25</v>
+      </c>
+      <c r="Y93">
+        <v>1.09</v>
+      </c>
+      <c r="Z93">
+        <v>2.42</v>
+      </c>
+      <c r="AA93">
+        <v>3.2</v>
+      </c>
+      <c r="AB93">
+        <v>2.7</v>
+      </c>
+      <c r="AC93">
+        <v>1.06</v>
+      </c>
+      <c r="AD93">
+        <v>11.75</v>
+      </c>
+      <c r="AE93">
+        <v>1.3</v>
+      </c>
+      <c r="AF93">
+        <v>3.57</v>
+      </c>
+      <c r="AG93">
+        <v>1.91</v>
+      </c>
+      <c r="AH93">
+        <v>1.9</v>
+      </c>
+      <c r="AI93">
+        <v>1.7</v>
+      </c>
+      <c r="AJ93">
+        <v>2.05</v>
+      </c>
+      <c r="AK93">
+        <v>1.38</v>
+      </c>
+      <c r="AL93">
+        <v>1.32</v>
+      </c>
+      <c r="AM93">
+        <v>1.62</v>
+      </c>
+      <c r="AN93">
+        <v>0.67</v>
+      </c>
+      <c r="AO93">
+        <v>1.33</v>
+      </c>
+      <c r="AP93">
+        <v>0.5</v>
+      </c>
+      <c r="AQ93">
+        <v>1.75</v>
+      </c>
+      <c r="AR93">
+        <v>1.63</v>
+      </c>
+      <c r="AS93">
+        <v>1.1</v>
+      </c>
+      <c r="AT93">
+        <v>2.73</v>
+      </c>
+      <c r="AU93">
+        <v>-1</v>
+      </c>
+      <c r="AV93">
+        <v>-1</v>
+      </c>
+      <c r="AW93">
+        <v>-1</v>
+      </c>
+      <c r="AX93">
+        <v>-1</v>
+      </c>
+      <c r="AY93">
+        <v>-1</v>
+      </c>
+      <c r="AZ93">
+        <v>-1</v>
+      </c>
+      <c r="BA93">
+        <v>-1</v>
+      </c>
+      <c r="BB93">
+        <v>-1</v>
+      </c>
+      <c r="BC93">
+        <v>-1</v>
+      </c>
+      <c r="BD93">
+        <v>1.7</v>
+      </c>
+      <c r="BE93">
+        <v>6.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.23</v>
+      </c>
+      <c r="BG93">
+        <v>1.23</v>
+      </c>
+      <c r="BH93">
+        <v>3.65</v>
+      </c>
+      <c r="BI93">
+        <v>1.41</v>
+      </c>
+      <c r="BJ93">
+        <v>2.65</v>
+      </c>
+      <c r="BK93">
+        <v>1.67</v>
+      </c>
+      <c r="BL93">
+        <v>2.05</v>
+      </c>
+      <c r="BM93">
+        <v>2.02</v>
+      </c>
+      <c r="BN93">
+        <v>1.67</v>
+      </c>
+      <c r="BO93">
+        <v>2.55</v>
+      </c>
+      <c r="BP93">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7478833</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45566.875</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s">
+        <v>88</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>162</v>
+      </c>
+      <c r="P94" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q94">
+        <v>2.3</v>
+      </c>
+      <c r="R94">
+        <v>2.3</v>
+      </c>
+      <c r="S94">
+        <v>4.75</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
+        <v>3.25</v>
+      </c>
+      <c r="V94">
+        <v>2.63</v>
+      </c>
+      <c r="W94">
+        <v>1.44</v>
+      </c>
+      <c r="X94">
+        <v>7</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>1.75</v>
+      </c>
+      <c r="AA94">
+        <v>3.7</v>
+      </c>
+      <c r="AB94">
+        <v>4.2</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>10</v>
+      </c>
+      <c r="AE94">
+        <v>1.2</v>
+      </c>
+      <c r="AF94">
+        <v>4</v>
+      </c>
+      <c r="AG94">
+        <v>1.85</v>
+      </c>
+      <c r="AH94">
+        <v>2.01</v>
+      </c>
+      <c r="AI94">
+        <v>1.73</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>1.2</v>
+      </c>
+      <c r="AL94">
+        <v>1.22</v>
+      </c>
+      <c r="AM94">
+        <v>2.1</v>
+      </c>
+      <c r="AN94">
+        <v>2.33</v>
+      </c>
+      <c r="AO94">
+        <v>1</v>
+      </c>
+      <c r="AP94">
+        <v>2.5</v>
+      </c>
+      <c r="AQ94">
+        <v>0.75</v>
+      </c>
+      <c r="AR94">
+        <v>1.56</v>
+      </c>
+      <c r="AS94">
+        <v>0.85</v>
+      </c>
+      <c r="AT94">
+        <v>2.41</v>
+      </c>
+      <c r="AU94">
+        <v>-1</v>
+      </c>
+      <c r="AV94">
+        <v>-1</v>
+      </c>
+      <c r="AW94">
+        <v>-1</v>
+      </c>
+      <c r="AX94">
+        <v>-1</v>
+      </c>
+      <c r="AY94">
+        <v>-1</v>
+      </c>
+      <c r="AZ94">
+        <v>-1</v>
+      </c>
+      <c r="BA94">
+        <v>-1</v>
+      </c>
+      <c r="BB94">
+        <v>-1</v>
+      </c>
+      <c r="BC94">
+        <v>-1</v>
+      </c>
+      <c r="BD94">
+        <v>1.63</v>
+      </c>
+      <c r="BE94">
+        <v>7</v>
+      </c>
+      <c r="BF94">
+        <v>2.97</v>
+      </c>
+      <c r="BG94">
+        <v>1.13</v>
+      </c>
+      <c r="BH94">
+        <v>4.25</v>
+      </c>
+      <c r="BI94">
+        <v>1.29</v>
+      </c>
+      <c r="BJ94">
+        <v>2.92</v>
+      </c>
+      <c r="BK94">
+        <v>1.57</v>
+      </c>
+      <c r="BL94">
+        <v>2.19</v>
+      </c>
+      <c r="BM94">
+        <v>1.98</v>
+      </c>
+      <c r="BN94">
+        <v>1.77</v>
+      </c>
+      <c r="BO94">
+        <v>2.54</v>
+      </c>
+      <c r="BP94">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7478836</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45566.875</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>89</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>95</v>
+      </c>
+      <c r="P95" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q95">
+        <v>3</v>
+      </c>
+      <c r="R95">
+        <v>2.1</v>
+      </c>
+      <c r="S95">
+        <v>3.6</v>
+      </c>
+      <c r="T95">
+        <v>1.4</v>
+      </c>
+      <c r="U95">
+        <v>2.75</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>1.36</v>
+      </c>
+      <c r="X95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>2.15</v>
+      </c>
+      <c r="AA95">
+        <v>3.3</v>
+      </c>
+      <c r="AB95">
+        <v>3.05</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>12</v>
+      </c>
+      <c r="AE95">
+        <v>1.29</v>
+      </c>
+      <c r="AF95">
+        <v>3.65</v>
+      </c>
+      <c r="AG95">
+        <v>2.04</v>
+      </c>
+      <c r="AH95">
+        <v>1.82</v>
+      </c>
+      <c r="AI95">
+        <v>1.8</v>
+      </c>
+      <c r="AJ95">
+        <v>1.91</v>
+      </c>
+      <c r="AK95">
+        <v>1.35</v>
+      </c>
+      <c r="AL95">
+        <v>1.32</v>
+      </c>
+      <c r="AM95">
+        <v>1.67</v>
+      </c>
+      <c r="AN95">
+        <v>2.33</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
+        <v>0.25</v>
+      </c>
+      <c r="AR95">
+        <v>1.65</v>
+      </c>
+      <c r="AS95">
+        <v>1.08</v>
+      </c>
+      <c r="AT95">
+        <v>2.73</v>
+      </c>
+      <c r="AU95">
+        <v>-1</v>
+      </c>
+      <c r="AV95">
+        <v>-1</v>
+      </c>
+      <c r="AW95">
+        <v>-1</v>
+      </c>
+      <c r="AX95">
+        <v>-1</v>
+      </c>
+      <c r="AY95">
+        <v>-1</v>
+      </c>
+      <c r="AZ95">
+        <v>-1</v>
+      </c>
+      <c r="BA95">
+        <v>-1</v>
+      </c>
+      <c r="BB95">
+        <v>-1</v>
+      </c>
+      <c r="BC95">
+        <v>-1</v>
+      </c>
+      <c r="BD95">
+        <v>1.79</v>
+      </c>
+      <c r="BE95">
+        <v>6.95</v>
+      </c>
+      <c r="BF95">
+        <v>2.56</v>
+      </c>
+      <c r="BG95">
+        <v>1.16</v>
+      </c>
+      <c r="BH95">
+        <v>4.3</v>
+      </c>
+      <c r="BI95">
+        <v>1.3</v>
+      </c>
+      <c r="BJ95">
+        <v>3.1</v>
+      </c>
+      <c r="BK95">
+        <v>1.5</v>
+      </c>
+      <c r="BL95">
+        <v>2.35</v>
+      </c>
+      <c r="BM95">
+        <v>1.81</v>
+      </c>
+      <c r="BN95">
+        <v>1.88</v>
+      </c>
+      <c r="BO95">
+        <v>2.23</v>
+      </c>
+      <c r="BP95">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7478838</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45566.875</v>
+      </c>
+      <c r="F96">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>87</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>163</v>
+      </c>
+      <c r="P96" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q96">
+        <v>3.2</v>
+      </c>
+      <c r="R96">
+        <v>2.05</v>
+      </c>
+      <c r="S96">
+        <v>3.25</v>
+      </c>
+      <c r="T96">
+        <v>1.4</v>
+      </c>
+      <c r="U96">
+        <v>2.75</v>
+      </c>
+      <c r="V96">
+        <v>2.88</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
         <v>9</v>
       </c>
-      <c r="BD81">
-        <v>1.8</v>
-      </c>
-      <c r="BE81">
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2.51</v>
+      </c>
+      <c r="AA96">
+        <v>3.25</v>
+      </c>
+      <c r="AB96">
+        <v>2.69</v>
+      </c>
+      <c r="AC96">
+        <v>1.07</v>
+      </c>
+      <c r="AD96">
+        <v>9.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.35</v>
+      </c>
+      <c r="AF96">
+        <v>3.25</v>
+      </c>
+      <c r="AG96">
+        <v>1.95</v>
+      </c>
+      <c r="AH96">
+        <v>1.75</v>
+      </c>
+      <c r="AI96">
+        <v>1.73</v>
+      </c>
+      <c r="AJ96">
+        <v>2</v>
+      </c>
+      <c r="AK96">
+        <v>1.45</v>
+      </c>
+      <c r="AL96">
+        <v>1.3</v>
+      </c>
+      <c r="AM96">
+        <v>1.52</v>
+      </c>
+      <c r="AN96">
+        <v>1.33</v>
+      </c>
+      <c r="AO96">
+        <v>1</v>
+      </c>
+      <c r="AP96">
+        <v>1.75</v>
+      </c>
+      <c r="AQ96">
+        <v>0.75</v>
+      </c>
+      <c r="AR96">
+        <v>0.98</v>
+      </c>
+      <c r="AS96">
+        <v>1.06</v>
+      </c>
+      <c r="AT96">
+        <v>2.04</v>
+      </c>
+      <c r="AU96">
+        <v>-1</v>
+      </c>
+      <c r="AV96">
+        <v>-1</v>
+      </c>
+      <c r="AW96">
+        <v>-1</v>
+      </c>
+      <c r="AX96">
+        <v>-1</v>
+      </c>
+      <c r="AY96">
+        <v>-1</v>
+      </c>
+      <c r="AZ96">
+        <v>-1</v>
+      </c>
+      <c r="BA96">
+        <v>-1</v>
+      </c>
+      <c r="BB96">
+        <v>-1</v>
+      </c>
+      <c r="BC96">
+        <v>-1</v>
+      </c>
+      <c r="BD96">
+        <v>1.98</v>
+      </c>
+      <c r="BE96">
+        <v>6.4</v>
+      </c>
+      <c r="BF96">
+        <v>1.98</v>
+      </c>
+      <c r="BG96">
+        <v>1.3</v>
+      </c>
+      <c r="BH96">
+        <v>3.15</v>
+      </c>
+      <c r="BI96">
+        <v>1.5</v>
+      </c>
+      <c r="BJ96">
+        <v>2.33</v>
+      </c>
+      <c r="BK96">
+        <v>1.84</v>
+      </c>
+      <c r="BL96">
+        <v>1.84</v>
+      </c>
+      <c r="BM96">
+        <v>2.3</v>
+      </c>
+      <c r="BN96">
+        <v>1.53</v>
+      </c>
+      <c r="BO96">
+        <v>2.95</v>
+      </c>
+      <c r="BP96">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7478839</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45566.875</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>6</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
         <v>7</v>
       </c>
-      <c r="BF81">
-        <v>2.18</v>
-      </c>
-      <c r="BG81">
-        <v>1.19</v>
-      </c>
-      <c r="BH81">
-        <v>4.1</v>
-      </c>
-      <c r="BI81">
-        <v>1.33</v>
-      </c>
-      <c r="BJ81">
-        <v>2.95</v>
-      </c>
-      <c r="BK81">
-        <v>1.55</v>
-      </c>
-      <c r="BL81">
+      <c r="O97" t="s">
+        <v>164</v>
+      </c>
+      <c r="P97" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q97">
+        <v>2.3</v>
+      </c>
+      <c r="R97">
         <v>2.25</v>
       </c>
-      <c r="BM81">
-        <v>1.88</v>
-      </c>
-      <c r="BN81">
-        <v>1.8</v>
-      </c>
-      <c r="BO81">
-        <v>2.33</v>
-      </c>
-      <c r="BP81">
-        <v>1.52</v>
+      <c r="S97">
+        <v>4.75</v>
+      </c>
+      <c r="T97">
+        <v>1.36</v>
+      </c>
+      <c r="U97">
+        <v>3</v>
+      </c>
+      <c r="V97">
+        <v>2.63</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>7</v>
+      </c>
+      <c r="Y97">
+        <v>1.1</v>
+      </c>
+      <c r="Z97">
+        <v>1.75</v>
+      </c>
+      <c r="AA97">
+        <v>3.7</v>
+      </c>
+      <c r="AB97">
+        <v>4.2</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>11</v>
+      </c>
+      <c r="AE97">
+        <v>1.2</v>
+      </c>
+      <c r="AF97">
+        <v>4</v>
+      </c>
+      <c r="AG97">
+        <v>1.83</v>
+      </c>
+      <c r="AH97">
+        <v>2.03</v>
+      </c>
+      <c r="AI97">
+        <v>1.73</v>
+      </c>
+      <c r="AJ97">
+        <v>2</v>
+      </c>
+      <c r="AK97">
+        <v>1.22</v>
+      </c>
+      <c r="AL97">
+        <v>1.2</v>
+      </c>
+      <c r="AM97">
+        <v>2.15</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>0.67</v>
+      </c>
+      <c r="AP97">
+        <v>1.5</v>
+      </c>
+      <c r="AQ97">
+        <v>0.5</v>
+      </c>
+      <c r="AR97">
+        <v>1.07</v>
+      </c>
+      <c r="AS97">
+        <v>0.84</v>
+      </c>
+      <c r="AT97">
+        <v>1.91</v>
+      </c>
+      <c r="AU97">
+        <v>-1</v>
+      </c>
+      <c r="AV97">
+        <v>-1</v>
+      </c>
+      <c r="AW97">
+        <v>-1</v>
+      </c>
+      <c r="AX97">
+        <v>-1</v>
+      </c>
+      <c r="AY97">
+        <v>-1</v>
+      </c>
+      <c r="AZ97">
+        <v>-1</v>
+      </c>
+      <c r="BA97">
+        <v>-1</v>
+      </c>
+      <c r="BB97">
+        <v>-1</v>
+      </c>
+      <c r="BC97">
+        <v>-1</v>
+      </c>
+      <c r="BD97">
+        <v>1.37</v>
+      </c>
+      <c r="BE97">
+        <v>8</v>
+      </c>
+      <c r="BF97">
+        <v>4.2</v>
+      </c>
+      <c r="BG97">
+        <v>1.11</v>
+      </c>
+      <c r="BH97">
+        <v>4.65</v>
+      </c>
+      <c r="BI97">
+        <v>1.25</v>
+      </c>
+      <c r="BJ97">
+        <v>3.14</v>
+      </c>
+      <c r="BK97">
+        <v>1.49</v>
+      </c>
+      <c r="BL97">
+        <v>2.38</v>
+      </c>
+      <c r="BM97">
+        <v>1.87</v>
+      </c>
+      <c r="BN97">
+        <v>1.87</v>
+      </c>
+      <c r="BO97">
+        <v>2.34</v>
+      </c>
+      <c r="BP97">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,27 @@
     <t>['13', '43', '45+1', '48', '51', '53']</t>
   </si>
   <si>
+    <t>['9', '90+7']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['16', '20', '66', '78']</t>
+  </si>
+  <si>
+    <t>['15', '90+7']</t>
+  </si>
+  <si>
+    <t>['12', '52']</t>
+  </si>
+  <si>
+    <t>['75', '87']</t>
+  </si>
+  <si>
+    <t>['54', '55']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -635,6 +656,21 @@
   </si>
   <si>
     <t>['25', '36', '71']</t>
+  </si>
+  <si>
+    <t>['22', '56']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+3']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1291,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1461,7 +1497,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1667,7 +1703,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2079,7 +2115,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2491,7 +2527,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2697,7 +2733,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2903,7 +2939,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3521,7 +3557,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3727,7 +3763,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3805,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4011,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4217,10 +4253,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4423,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4551,7 +4587,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4629,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4835,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5041,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5169,7 +5205,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5250,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5375,7 +5411,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5453,10 +5489,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5659,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ23">
         <v>0.25</v>
@@ -5787,7 +5823,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -5865,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6071,10 +6107,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6199,7 +6235,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6280,7 +6316,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -6486,7 +6522,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6817,7 +6853,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7023,7 +7059,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7307,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7513,7 +7549,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32">
         <v>1.75</v>
@@ -7722,7 +7758,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -7928,7 +7964,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8053,7 +8089,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8259,7 +8295,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8337,7 +8373,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8465,7 +8501,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8543,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
         <v>0.25</v>
@@ -8671,7 +8707,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8752,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.01</v>
@@ -8877,7 +8913,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -8955,10 +8991,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9083,7 +9119,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9164,7 +9200,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9289,7 +9325,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9367,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9573,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9701,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9779,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -9907,7 +9943,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9985,10 +10021,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10194,7 +10230,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10400,7 +10436,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -10603,7 +10639,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -10812,7 +10848,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11015,7 +11051,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -11143,7 +11179,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11636,7 +11672,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -11842,7 +11878,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>1.18</v>
@@ -12045,7 +12081,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ54">
         <v>0.25</v>
@@ -12251,7 +12287,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12379,7 +12415,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12457,7 +12493,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12585,7 +12621,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12666,7 +12702,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.82</v>
@@ -12869,7 +12905,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -13203,7 +13239,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13284,7 +13320,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13409,7 +13445,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13487,7 +13523,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ61">
         <v>2.25</v>
@@ -13615,7 +13651,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13696,7 +13732,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -13899,10 +13935,10 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14105,7 +14141,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ64">
         <v>0.75</v>
@@ -14314,7 +14350,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR65">
         <v>2.07</v>
@@ -14439,7 +14475,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14520,7 +14556,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14723,7 +14759,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ67">
         <v>0.25</v>
@@ -14932,7 +14968,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15057,7 +15093,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15135,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15344,7 +15380,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15469,7 +15505,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15547,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ71">
         <v>0.75</v>
@@ -15753,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
         <v>0</v>
@@ -15962,7 +15998,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ73">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR73">
         <v>0.68</v>
@@ -16087,7 +16123,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16165,10 +16201,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16374,7 +16410,7 @@
         <v>3</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.35</v>
@@ -16499,7 +16535,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16577,7 +16613,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -16705,7 +16741,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17117,7 +17153,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17195,7 +17231,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17404,7 +17440,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR80">
         <v>1.8</v>
@@ -17529,7 +17565,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17610,7 +17646,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR81">
         <v>1.39</v>
@@ -18019,7 +18055,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ83">
         <v>2</v>
@@ -18353,7 +18389,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18431,7 +18467,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -18637,7 +18673,7 @@
         <v>0.33</v>
       </c>
       <c r="AP86">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86">
         <v>0.25</v>
@@ -18652,31 +18688,31 @@
         <v>2.32</v>
       </c>
       <c r="AU86">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW86">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX86">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY86">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ86">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA86">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC86">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD86">
         <v>1.23</v>
@@ -18846,7 +18882,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ87">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR87">
         <v>1.02</v>
@@ -18858,31 +18894,31 @@
         <v>2.48</v>
       </c>
       <c r="AU87">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV87">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW87">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX87">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY87">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ87">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA87">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB87">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC87">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD87">
         <v>1.58</v>
@@ -19049,10 +19085,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ88">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR88">
         <v>2.03</v>
@@ -19064,31 +19100,31 @@
         <v>2.93</v>
       </c>
       <c r="AU88">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV88">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW88">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY88">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ88">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA88">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC88">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD88">
         <v>1.61</v>
@@ -19177,7 +19213,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19258,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR89">
         <v>1.26</v>
@@ -19270,31 +19306,31 @@
         <v>2.13</v>
       </c>
       <c r="AU89">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV89">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW89">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX89">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY89">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ89">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BA89">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB89">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC89">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD89">
         <v>1.38</v>
@@ -19461,7 +19497,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ90">
         <v>0</v>
@@ -19476,31 +19512,31 @@
         <v>2.2</v>
       </c>
       <c r="AU90">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV90">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW90">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX90">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY90">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ90">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB90">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC90">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD90">
         <v>1.45</v>
@@ -19589,7 +19625,7 @@
         <v>95</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>2.9</v>
@@ -19667,10 +19703,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR91">
         <v>1.4</v>
@@ -19682,31 +19718,31 @@
         <v>2.87</v>
       </c>
       <c r="AU91">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV91">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW91">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX91">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY91">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ91">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA91">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB91">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC91">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD91">
         <v>1.8</v>
@@ -19795,7 +19831,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19873,10 +19909,10 @@
         <v>2.33</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR92">
         <v>1.53</v>
@@ -19888,31 +19924,31 @@
         <v>2.87</v>
       </c>
       <c r="AU92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV92">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW92">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX92">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY92">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ92">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA92">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB92">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC92">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD92">
         <v>1.71</v>
@@ -20001,7 +20037,7 @@
         <v>162</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20082,7 +20118,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ93">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR93">
         <v>1.63</v>
@@ -20094,31 +20130,31 @@
         <v>2.73</v>
       </c>
       <c r="AU93">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV93">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW93">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX93">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY93">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ93">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA93">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB93">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC93">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD93">
         <v>1.7</v>
@@ -20285,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ94">
         <v>0.75</v>
@@ -20300,31 +20336,31 @@
         <v>2.41</v>
       </c>
       <c r="AU94">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV94">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW94">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX94">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY94">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ94">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA94">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB94">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC94">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD94">
         <v>1.63</v>
@@ -20494,7 +20530,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
         <v>1.65</v>
@@ -20506,31 +20542,31 @@
         <v>2.73</v>
       </c>
       <c r="AU95">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV95">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW95">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX95">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY95">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ95">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA95">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB95">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC95">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD95">
         <v>1.79</v>
@@ -20712,31 +20748,31 @@
         <v>2.04</v>
       </c>
       <c r="AU96">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV96">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW96">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX96">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY96">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ96">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA96">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB96">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC96">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD96">
         <v>1.98</v>
@@ -20918,31 +20954,31 @@
         <v>1.91</v>
       </c>
       <c r="AU97">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW97">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY97">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ97">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB97">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC97">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD97">
         <v>1.37</v>
@@ -20981,6 +21017,2272 @@
         <v>2.34</v>
       </c>
       <c r="BP97">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7478848</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>93</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>165</v>
+      </c>
+      <c r="P98" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q98">
+        <v>3.75</v>
+      </c>
+      <c r="R98">
+        <v>2.2</v>
+      </c>
+      <c r="S98">
+        <v>2.88</v>
+      </c>
+      <c r="T98">
+        <v>1.4</v>
+      </c>
+      <c r="U98">
+        <v>2.75</v>
+      </c>
+      <c r="V98">
+        <v>2.75</v>
+      </c>
+      <c r="W98">
+        <v>1.4</v>
+      </c>
+      <c r="X98">
+        <v>8</v>
+      </c>
+      <c r="Y98">
+        <v>1.08</v>
+      </c>
+      <c r="Z98">
+        <v>2.8</v>
+      </c>
+      <c r="AA98">
+        <v>3.5</v>
+      </c>
+      <c r="AB98">
+        <v>2.31</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>9</v>
+      </c>
+      <c r="AE98">
+        <v>1.25</v>
+      </c>
+      <c r="AF98">
+        <v>3.6</v>
+      </c>
+      <c r="AG98">
+        <v>2</v>
+      </c>
+      <c r="AH98">
+        <v>1.86</v>
+      </c>
+      <c r="AI98">
+        <v>1.73</v>
+      </c>
+      <c r="AJ98">
+        <v>2</v>
+      </c>
+      <c r="AK98">
+        <v>1.67</v>
+      </c>
+      <c r="AL98">
+        <v>1.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.3</v>
+      </c>
+      <c r="AN98">
+        <v>3</v>
+      </c>
+      <c r="AO98">
+        <v>2</v>
+      </c>
+      <c r="AP98">
+        <v>2.6</v>
+      </c>
+      <c r="AQ98">
+        <v>1.8</v>
+      </c>
+      <c r="AR98">
+        <v>1.21</v>
+      </c>
+      <c r="AS98">
+        <v>1.32</v>
+      </c>
+      <c r="AT98">
+        <v>2.53</v>
+      </c>
+      <c r="AU98">
+        <v>-1</v>
+      </c>
+      <c r="AV98">
+        <v>-1</v>
+      </c>
+      <c r="AW98">
+        <v>-1</v>
+      </c>
+      <c r="AX98">
+        <v>-1</v>
+      </c>
+      <c r="AY98">
+        <v>-1</v>
+      </c>
+      <c r="AZ98">
+        <v>-1</v>
+      </c>
+      <c r="BA98">
+        <v>-1</v>
+      </c>
+      <c r="BB98">
+        <v>-1</v>
+      </c>
+      <c r="BC98">
+        <v>-1</v>
+      </c>
+      <c r="BD98">
+        <v>2</v>
+      </c>
+      <c r="BE98">
+        <v>8</v>
+      </c>
+      <c r="BF98">
+        <v>2.05</v>
+      </c>
+      <c r="BG98">
+        <v>1.2</v>
+      </c>
+      <c r="BH98">
+        <v>3.95</v>
+      </c>
+      <c r="BI98">
+        <v>1.36</v>
+      </c>
+      <c r="BJ98">
+        <v>2.85</v>
+      </c>
+      <c r="BK98">
+        <v>1.58</v>
+      </c>
+      <c r="BL98">
+        <v>2.18</v>
+      </c>
+      <c r="BM98">
+        <v>1.98</v>
+      </c>
+      <c r="BN98">
+        <v>1.82</v>
+      </c>
+      <c r="BO98">
+        <v>2.4</v>
+      </c>
+      <c r="BP98">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7478846</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>166</v>
+      </c>
+      <c r="P99" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q99">
+        <v>2.88</v>
+      </c>
+      <c r="R99">
+        <v>2.2</v>
+      </c>
+      <c r="S99">
+        <v>3.6</v>
+      </c>
+      <c r="T99">
+        <v>1.4</v>
+      </c>
+      <c r="U99">
+        <v>2.75</v>
+      </c>
+      <c r="V99">
+        <v>2.75</v>
+      </c>
+      <c r="W99">
+        <v>1.4</v>
+      </c>
+      <c r="X99">
+        <v>8</v>
+      </c>
+      <c r="Y99">
+        <v>1.08</v>
+      </c>
+      <c r="Z99">
+        <v>2.3</v>
+      </c>
+      <c r="AA99">
+        <v>3.4</v>
+      </c>
+      <c r="AB99">
+        <v>3.2</v>
+      </c>
+      <c r="AC99">
+        <v>1.03</v>
+      </c>
+      <c r="AD99">
+        <v>9</v>
+      </c>
+      <c r="AE99">
+        <v>1.25</v>
+      </c>
+      <c r="AF99">
+        <v>3.6</v>
+      </c>
+      <c r="AG99">
+        <v>1.9</v>
+      </c>
+      <c r="AH99">
+        <v>1.9</v>
+      </c>
+      <c r="AI99">
+        <v>1.73</v>
+      </c>
+      <c r="AJ99">
+        <v>2</v>
+      </c>
+      <c r="AK99">
+        <v>1.36</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.68</v>
+      </c>
+      <c r="AN99">
+        <v>0.5</v>
+      </c>
+      <c r="AO99">
+        <v>0.25</v>
+      </c>
+      <c r="AP99">
+        <v>0.6</v>
+      </c>
+      <c r="AQ99">
+        <v>0.4</v>
+      </c>
+      <c r="AR99">
+        <v>1.08</v>
+      </c>
+      <c r="AS99">
+        <v>1.13</v>
+      </c>
+      <c r="AT99">
+        <v>2.21</v>
+      </c>
+      <c r="AU99">
+        <v>-1</v>
+      </c>
+      <c r="AV99">
+        <v>-1</v>
+      </c>
+      <c r="AW99">
+        <v>-1</v>
+      </c>
+      <c r="AX99">
+        <v>-1</v>
+      </c>
+      <c r="AY99">
+        <v>-1</v>
+      </c>
+      <c r="AZ99">
+        <v>-1</v>
+      </c>
+      <c r="BA99">
+        <v>-1</v>
+      </c>
+      <c r="BB99">
+        <v>-1</v>
+      </c>
+      <c r="BC99">
+        <v>-1</v>
+      </c>
+      <c r="BD99">
+        <v>1.69</v>
+      </c>
+      <c r="BE99">
+        <v>8.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.53</v>
+      </c>
+      <c r="BG99">
+        <v>1.21</v>
+      </c>
+      <c r="BH99">
+        <v>3.8</v>
+      </c>
+      <c r="BI99">
+        <v>1.38</v>
+      </c>
+      <c r="BJ99">
+        <v>2.7</v>
+      </c>
+      <c r="BK99">
+        <v>1.64</v>
+      </c>
+      <c r="BL99">
+        <v>2.1</v>
+      </c>
+      <c r="BM99">
+        <v>2</v>
+      </c>
+      <c r="BN99">
+        <v>1.8</v>
+      </c>
+      <c r="BO99">
+        <v>2.48</v>
+      </c>
+      <c r="BP99">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7478844</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F100">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>90</v>
+      </c>
+      <c r="H100" t="s">
+        <v>77</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>167</v>
+      </c>
+      <c r="P100" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q100">
+        <v>2.63</v>
+      </c>
+      <c r="R100">
+        <v>2.25</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3.25</v>
+      </c>
+      <c r="V100">
+        <v>2.63</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>6.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>2.05</v>
+      </c>
+      <c r="AA100">
+        <v>3.6</v>
+      </c>
+      <c r="AB100">
+        <v>3.6</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>11</v>
+      </c>
+      <c r="AE100">
+        <v>1.2</v>
+      </c>
+      <c r="AF100">
+        <v>4</v>
+      </c>
+      <c r="AG100">
+        <v>1.68</v>
+      </c>
+      <c r="AH100">
+        <v>2.18</v>
+      </c>
+      <c r="AI100">
+        <v>1.62</v>
+      </c>
+      <c r="AJ100">
+        <v>2.2</v>
+      </c>
+      <c r="AK100">
+        <v>1.31</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.79</v>
+      </c>
+      <c r="AN100">
+        <v>1.5</v>
+      </c>
+      <c r="AO100">
+        <v>1.75</v>
+      </c>
+      <c r="AP100">
+        <v>1.8</v>
+      </c>
+      <c r="AQ100">
+        <v>1.4</v>
+      </c>
+      <c r="AR100">
+        <v>1.33</v>
+      </c>
+      <c r="AS100">
+        <v>1.24</v>
+      </c>
+      <c r="AT100">
+        <v>2.57</v>
+      </c>
+      <c r="AU100">
+        <v>-1</v>
+      </c>
+      <c r="AV100">
+        <v>-1</v>
+      </c>
+      <c r="AW100">
+        <v>-1</v>
+      </c>
+      <c r="AX100">
+        <v>-1</v>
+      </c>
+      <c r="AY100">
+        <v>-1</v>
+      </c>
+      <c r="AZ100">
+        <v>-1</v>
+      </c>
+      <c r="BA100">
+        <v>-1</v>
+      </c>
+      <c r="BB100">
+        <v>-1</v>
+      </c>
+      <c r="BC100">
+        <v>-1</v>
+      </c>
+      <c r="BD100">
+        <v>1.69</v>
+      </c>
+      <c r="BE100">
+        <v>8.5</v>
+      </c>
+      <c r="BF100">
+        <v>2.62</v>
+      </c>
+      <c r="BG100">
+        <v>1.18</v>
+      </c>
+      <c r="BH100">
+        <v>4.24</v>
+      </c>
+      <c r="BI100">
+        <v>1.38</v>
+      </c>
+      <c r="BJ100">
+        <v>2.89</v>
+      </c>
+      <c r="BK100">
+        <v>1.68</v>
+      </c>
+      <c r="BL100">
+        <v>2.17</v>
+      </c>
+      <c r="BM100">
+        <v>2.08</v>
+      </c>
+      <c r="BN100">
+        <v>1.75</v>
+      </c>
+      <c r="BO100">
+        <v>2.67</v>
+      </c>
+      <c r="BP100">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7478841</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F101">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
+        <v>91</v>
+      </c>
+      <c r="H101" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>95</v>
+      </c>
+      <c r="P101" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q101">
+        <v>2.2</v>
+      </c>
+      <c r="R101">
+        <v>2.25</v>
+      </c>
+      <c r="S101">
+        <v>5.5</v>
+      </c>
+      <c r="T101">
+        <v>1.36</v>
+      </c>
+      <c r="U101">
+        <v>3</v>
+      </c>
+      <c r="V101">
+        <v>2.75</v>
+      </c>
+      <c r="W101">
+        <v>1.4</v>
+      </c>
+      <c r="X101">
+        <v>7</v>
+      </c>
+      <c r="Y101">
+        <v>1.1</v>
+      </c>
+      <c r="Z101">
+        <v>1.62</v>
+      </c>
+      <c r="AA101">
+        <v>3.9</v>
+      </c>
+      <c r="AB101">
+        <v>5.8</v>
+      </c>
+      <c r="AC101">
+        <v>1.02</v>
+      </c>
+      <c r="AD101">
+        <v>10</v>
+      </c>
+      <c r="AE101">
+        <v>1.23</v>
+      </c>
+      <c r="AF101">
+        <v>3.34</v>
+      </c>
+      <c r="AG101">
+        <v>1.9</v>
+      </c>
+      <c r="AH101">
+        <v>1.9</v>
+      </c>
+      <c r="AI101">
+        <v>1.83</v>
+      </c>
+      <c r="AJ101">
+        <v>1.83</v>
+      </c>
+      <c r="AK101">
+        <v>1.15</v>
+      </c>
+      <c r="AL101">
+        <v>1.2</v>
+      </c>
+      <c r="AM101">
+        <v>2.35</v>
+      </c>
+      <c r="AN101">
+        <v>2.5</v>
+      </c>
+      <c r="AO101">
+        <v>0.25</v>
+      </c>
+      <c r="AP101">
+        <v>2.2</v>
+      </c>
+      <c r="AQ101">
+        <v>0.4</v>
+      </c>
+      <c r="AR101">
+        <v>1.39</v>
+      </c>
+      <c r="AS101">
+        <v>1.02</v>
+      </c>
+      <c r="AT101">
+        <v>2.41</v>
+      </c>
+      <c r="AU101">
+        <v>-1</v>
+      </c>
+      <c r="AV101">
+        <v>-1</v>
+      </c>
+      <c r="AW101">
+        <v>-1</v>
+      </c>
+      <c r="AX101">
+        <v>-1</v>
+      </c>
+      <c r="AY101">
+        <v>-1</v>
+      </c>
+      <c r="AZ101">
+        <v>-1</v>
+      </c>
+      <c r="BA101">
+        <v>-1</v>
+      </c>
+      <c r="BB101">
+        <v>-1</v>
+      </c>
+      <c r="BC101">
+        <v>-1</v>
+      </c>
+      <c r="BD101">
+        <v>1.37</v>
+      </c>
+      <c r="BE101">
+        <v>9</v>
+      </c>
+      <c r="BF101">
+        <v>3.7</v>
+      </c>
+      <c r="BG101">
+        <v>1.26</v>
+      </c>
+      <c r="BH101">
+        <v>3.4</v>
+      </c>
+      <c r="BI101">
+        <v>1.44</v>
+      </c>
+      <c r="BJ101">
+        <v>2.55</v>
+      </c>
+      <c r="BK101">
+        <v>1.73</v>
+      </c>
+      <c r="BL101">
+        <v>1.97</v>
+      </c>
+      <c r="BM101">
+        <v>2.1</v>
+      </c>
+      <c r="BN101">
+        <v>1.64</v>
+      </c>
+      <c r="BO101">
+        <v>2.7</v>
+      </c>
+      <c r="BP101">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7478842</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F102">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>82</v>
+      </c>
+      <c r="H102" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>119</v>
+      </c>
+      <c r="P102" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q102">
+        <v>2.5</v>
+      </c>
+      <c r="R102">
+        <v>2.3</v>
+      </c>
+      <c r="S102">
+        <v>4</v>
+      </c>
+      <c r="T102">
+        <v>1.33</v>
+      </c>
+      <c r="U102">
+        <v>3.25</v>
+      </c>
+      <c r="V102">
+        <v>2.63</v>
+      </c>
+      <c r="W102">
+        <v>1.44</v>
+      </c>
+      <c r="X102">
+        <v>6.5</v>
+      </c>
+      <c r="Y102">
+        <v>1.11</v>
+      </c>
+      <c r="Z102">
+        <v>1.95</v>
+      </c>
+      <c r="AA102">
+        <v>3.7</v>
+      </c>
+      <c r="AB102">
+        <v>3.8</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>11</v>
+      </c>
+      <c r="AE102">
+        <v>1.18</v>
+      </c>
+      <c r="AF102">
+        <v>3.74</v>
+      </c>
+      <c r="AG102">
+        <v>1.67</v>
+      </c>
+      <c r="AH102">
+        <v>2.2</v>
+      </c>
+      <c r="AI102">
+        <v>1.62</v>
+      </c>
+      <c r="AJ102">
+        <v>2.2</v>
+      </c>
+      <c r="AK102">
+        <v>1.28</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.87</v>
+      </c>
+      <c r="AN102">
+        <v>1.5</v>
+      </c>
+      <c r="AO102">
+        <v>0.25</v>
+      </c>
+      <c r="AP102">
+        <v>1.2</v>
+      </c>
+      <c r="AQ102">
+        <v>0.8</v>
+      </c>
+      <c r="AR102">
+        <v>1.98</v>
+      </c>
+      <c r="AS102">
+        <v>0.99</v>
+      </c>
+      <c r="AT102">
+        <v>2.97</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>6</v>
+      </c>
+      <c r="AW102">
+        <v>8</v>
+      </c>
+      <c r="AX102">
+        <v>3</v>
+      </c>
+      <c r="AY102">
+        <v>15</v>
+      </c>
+      <c r="AZ102">
+        <v>14</v>
+      </c>
+      <c r="BA102">
+        <v>6</v>
+      </c>
+      <c r="BB102">
+        <v>6</v>
+      </c>
+      <c r="BC102">
+        <v>12</v>
+      </c>
+      <c r="BD102">
+        <v>1.75</v>
+      </c>
+      <c r="BE102">
+        <v>8.5</v>
+      </c>
+      <c r="BF102">
+        <v>2.43</v>
+      </c>
+      <c r="BG102">
+        <v>1.16</v>
+      </c>
+      <c r="BH102">
+        <v>4.4</v>
+      </c>
+      <c r="BI102">
+        <v>1.29</v>
+      </c>
+      <c r="BJ102">
+        <v>3.15</v>
+      </c>
+      <c r="BK102">
+        <v>1.49</v>
+      </c>
+      <c r="BL102">
+        <v>2.4</v>
+      </c>
+      <c r="BM102">
+        <v>1.8</v>
+      </c>
+      <c r="BN102">
+        <v>2</v>
+      </c>
+      <c r="BO102">
+        <v>2.17</v>
+      </c>
+      <c r="BP102">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7478845</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F103">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>92</v>
+      </c>
+      <c r="H103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>168</v>
+      </c>
+      <c r="P103" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q103">
+        <v>3.75</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>2.6</v>
+      </c>
+      <c r="T103">
+        <v>1.33</v>
+      </c>
+      <c r="U103">
+        <v>3.25</v>
+      </c>
+      <c r="V103">
+        <v>2.5</v>
+      </c>
+      <c r="W103">
+        <v>1.5</v>
+      </c>
+      <c r="X103">
+        <v>6</v>
+      </c>
+      <c r="Y103">
+        <v>1.13</v>
+      </c>
+      <c r="Z103">
+        <v>3.6</v>
+      </c>
+      <c r="AA103">
+        <v>3.7</v>
+      </c>
+      <c r="AB103">
+        <v>2</v>
+      </c>
+      <c r="AC103">
+        <v>1.04</v>
+      </c>
+      <c r="AD103">
+        <v>10</v>
+      </c>
+      <c r="AE103">
+        <v>1.22</v>
+      </c>
+      <c r="AF103">
+        <v>4.2</v>
+      </c>
+      <c r="AG103">
+        <v>1.66</v>
+      </c>
+      <c r="AH103">
+        <v>2.23</v>
+      </c>
+      <c r="AI103">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.8</v>
+      </c>
+      <c r="AL103">
+        <v>1.22</v>
+      </c>
+      <c r="AM103">
+        <v>1.28</v>
+      </c>
+      <c r="AN103">
+        <v>1.75</v>
+      </c>
+      <c r="AO103">
+        <v>0.75</v>
+      </c>
+      <c r="AP103">
+        <v>2</v>
+      </c>
+      <c r="AQ103">
+        <v>0.6</v>
+      </c>
+      <c r="AR103">
+        <v>1.59</v>
+      </c>
+      <c r="AS103">
+        <v>0.87</v>
+      </c>
+      <c r="AT103">
+        <v>2.46</v>
+      </c>
+      <c r="AU103">
+        <v>8</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>7</v>
+      </c>
+      <c r="AX103">
+        <v>1</v>
+      </c>
+      <c r="AY103">
+        <v>18</v>
+      </c>
+      <c r="AZ103">
+        <v>8</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>5</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>2.2</v>
+      </c>
+      <c r="BE103">
+        <v>8.5</v>
+      </c>
+      <c r="BF103">
+        <v>1.83</v>
+      </c>
+      <c r="BG103">
+        <v>1.07</v>
+      </c>
+      <c r="BH103">
+        <v>6.27</v>
+      </c>
+      <c r="BI103">
+        <v>1.21</v>
+      </c>
+      <c r="BJ103">
+        <v>3.96</v>
+      </c>
+      <c r="BK103">
+        <v>1.41</v>
+      </c>
+      <c r="BL103">
+        <v>2.78</v>
+      </c>
+      <c r="BM103">
+        <v>1.71</v>
+      </c>
+      <c r="BN103">
+        <v>2.14</v>
+      </c>
+      <c r="BO103">
+        <v>2.09</v>
+      </c>
+      <c r="BP103">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7478847</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>86</v>
+      </c>
+      <c r="H104" t="s">
+        <v>81</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>169</v>
+      </c>
+      <c r="P104" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q104">
+        <v>2.63</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>2.75</v>
+      </c>
+      <c r="W104">
+        <v>1.4</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+      <c r="Y104">
+        <v>1.1</v>
+      </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
+      <c r="AA104">
+        <v>3.6</v>
+      </c>
+      <c r="AB104">
+        <v>3.75</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>9.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.28</v>
+      </c>
+      <c r="AF104">
+        <v>3.55</v>
+      </c>
+      <c r="AG104">
+        <v>1.9</v>
+      </c>
+      <c r="AH104">
+        <v>1.9</v>
+      </c>
+      <c r="AI104">
+        <v>1.73</v>
+      </c>
+      <c r="AJ104">
+        <v>2</v>
+      </c>
+      <c r="AK104">
+        <v>1.3</v>
+      </c>
+      <c r="AL104">
+        <v>1.22</v>
+      </c>
+      <c r="AM104">
+        <v>1.77</v>
+      </c>
+      <c r="AN104">
+        <v>2.5</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>2.6</v>
+      </c>
+      <c r="AQ104">
+        <v>0.8</v>
+      </c>
+      <c r="AR104">
+        <v>1.46</v>
+      </c>
+      <c r="AS104">
+        <v>1.35</v>
+      </c>
+      <c r="AT104">
+        <v>2.81</v>
+      </c>
+      <c r="AU104">
+        <v>8</v>
+      </c>
+      <c r="AV104">
+        <v>3</v>
+      </c>
+      <c r="AW104">
+        <v>5</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>16</v>
+      </c>
+      <c r="AZ104">
+        <v>9</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>6</v>
+      </c>
+      <c r="BC104">
+        <v>11</v>
+      </c>
+      <c r="BD104">
+        <v>1.95</v>
+      </c>
+      <c r="BE104">
+        <v>8.5</v>
+      </c>
+      <c r="BF104">
+        <v>2.05</v>
+      </c>
+      <c r="BG104">
+        <v>1.16</v>
+      </c>
+      <c r="BH104">
+        <v>4.54</v>
+      </c>
+      <c r="BI104">
+        <v>1.35</v>
+      </c>
+      <c r="BJ104">
+        <v>3.04</v>
+      </c>
+      <c r="BK104">
+        <v>1.62</v>
+      </c>
+      <c r="BL104">
+        <v>2.26</v>
+      </c>
+      <c r="BM104">
+        <v>1.92</v>
+      </c>
+      <c r="BN104">
+        <v>1.88</v>
+      </c>
+      <c r="BO104">
+        <v>2.54</v>
+      </c>
+      <c r="BP104">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7478849</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F105">
+        <v>9</v>
+      </c>
+      <c r="G105" t="s">
+        <v>88</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" t="s">
+        <v>95</v>
+      </c>
+      <c r="P105" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q105">
+        <v>2.75</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>4</v>
+      </c>
+      <c r="T105">
+        <v>1.4</v>
+      </c>
+      <c r="U105">
+        <v>2.75</v>
+      </c>
+      <c r="V105">
+        <v>2.75</v>
+      </c>
+      <c r="W105">
+        <v>1.4</v>
+      </c>
+      <c r="X105">
+        <v>8</v>
+      </c>
+      <c r="Y105">
+        <v>1.08</v>
+      </c>
+      <c r="Z105">
+        <v>2.15</v>
+      </c>
+      <c r="AA105">
+        <v>3.4</v>
+      </c>
+      <c r="AB105">
+        <v>3.5</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
+        <v>1.28</v>
+      </c>
+      <c r="AF105">
+        <v>3.5</v>
+      </c>
+      <c r="AG105">
+        <v>1.91</v>
+      </c>
+      <c r="AH105">
+        <v>1.9</v>
+      </c>
+      <c r="AI105">
+        <v>1.73</v>
+      </c>
+      <c r="AJ105">
+        <v>2</v>
+      </c>
+      <c r="AK105">
+        <v>1.3</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.7</v>
+      </c>
+      <c r="AN105">
+        <v>2</v>
+      </c>
+      <c r="AO105">
+        <v>0.75</v>
+      </c>
+      <c r="AP105">
+        <v>1.8</v>
+      </c>
+      <c r="AQ105">
+        <v>0.8</v>
+      </c>
+      <c r="AR105">
+        <v>1.25</v>
+      </c>
+      <c r="AS105">
+        <v>1.03</v>
+      </c>
+      <c r="AT105">
+        <v>2.28</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>5</v>
+      </c>
+      <c r="AW105">
+        <v>8</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>20</v>
+      </c>
+      <c r="AZ105">
+        <v>11</v>
+      </c>
+      <c r="BA105">
+        <v>5</v>
+      </c>
+      <c r="BB105">
+        <v>9</v>
+      </c>
+      <c r="BC105">
+        <v>14</v>
+      </c>
+      <c r="BD105">
+        <v>1.67</v>
+      </c>
+      <c r="BE105">
+        <v>7.85</v>
+      </c>
+      <c r="BF105">
+        <v>3.09</v>
+      </c>
+      <c r="BG105">
+        <v>1.21</v>
+      </c>
+      <c r="BH105">
+        <v>3.93</v>
+      </c>
+      <c r="BI105">
+        <v>1.43</v>
+      </c>
+      <c r="BJ105">
+        <v>2.72</v>
+      </c>
+      <c r="BK105">
+        <v>1.75</v>
+      </c>
+      <c r="BL105">
+        <v>2.07</v>
+      </c>
+      <c r="BM105">
+        <v>2.18</v>
+      </c>
+      <c r="BN105">
+        <v>1.68</v>
+      </c>
+      <c r="BO105">
+        <v>2.84</v>
+      </c>
+      <c r="BP105">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7478850</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>87</v>
+      </c>
+      <c r="H106" t="s">
+        <v>79</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>170</v>
+      </c>
+      <c r="P106" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q106">
+        <v>3.75</v>
+      </c>
+      <c r="R106">
+        <v>2.25</v>
+      </c>
+      <c r="S106">
+        <v>2.63</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.25</v>
+      </c>
+      <c r="V106">
+        <v>2.63</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>6.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.11</v>
+      </c>
+      <c r="Z106">
+        <v>3.4</v>
+      </c>
+      <c r="AA106">
+        <v>3.6</v>
+      </c>
+      <c r="AB106">
+        <v>2.1</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>10</v>
+      </c>
+      <c r="AE106">
+        <v>1.22</v>
+      </c>
+      <c r="AF106">
+        <v>4</v>
+      </c>
+      <c r="AG106">
+        <v>1.67</v>
+      </c>
+      <c r="AH106">
+        <v>2.2</v>
+      </c>
+      <c r="AI106">
+        <v>1.62</v>
+      </c>
+      <c r="AJ106">
+        <v>2.2</v>
+      </c>
+      <c r="AK106">
+        <v>1.75</v>
+      </c>
+      <c r="AL106">
+        <v>1.22</v>
+      </c>
+      <c r="AM106">
+        <v>1.3</v>
+      </c>
+      <c r="AN106">
+        <v>2.5</v>
+      </c>
+      <c r="AO106">
+        <v>1.5</v>
+      </c>
+      <c r="AP106">
+        <v>2.6</v>
+      </c>
+      <c r="AQ106">
+        <v>1.2</v>
+      </c>
+      <c r="AR106">
+        <v>1.67</v>
+      </c>
+      <c r="AS106">
+        <v>1.49</v>
+      </c>
+      <c r="AT106">
+        <v>3.16</v>
+      </c>
+      <c r="AU106">
+        <v>5</v>
+      </c>
+      <c r="AV106">
+        <v>6</v>
+      </c>
+      <c r="AW106">
+        <v>3</v>
+      </c>
+      <c r="AX106">
+        <v>3</v>
+      </c>
+      <c r="AY106">
+        <v>10</v>
+      </c>
+      <c r="AZ106">
+        <v>13</v>
+      </c>
+      <c r="BA106">
+        <v>7</v>
+      </c>
+      <c r="BB106">
+        <v>5</v>
+      </c>
+      <c r="BC106">
+        <v>12</v>
+      </c>
+      <c r="BD106">
+        <v>2.3</v>
+      </c>
+      <c r="BE106">
+        <v>6.5</v>
+      </c>
+      <c r="BF106">
+        <v>1.75</v>
+      </c>
+      <c r="BG106">
+        <v>1.23</v>
+      </c>
+      <c r="BH106">
+        <v>3.65</v>
+      </c>
+      <c r="BI106">
+        <v>1.4</v>
+      </c>
+      <c r="BJ106">
+        <v>2.7</v>
+      </c>
+      <c r="BK106">
+        <v>1.65</v>
+      </c>
+      <c r="BL106">
+        <v>2.08</v>
+      </c>
+      <c r="BM106">
+        <v>2</v>
+      </c>
+      <c r="BN106">
+        <v>1.71</v>
+      </c>
+      <c r="BO106">
+        <v>2.55</v>
+      </c>
+      <c r="BP106">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7478851</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F107">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>83</v>
+      </c>
+      <c r="H107" t="s">
+        <v>74</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>95</v>
+      </c>
+      <c r="P107" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q107">
+        <v>2.6</v>
+      </c>
+      <c r="R107">
+        <v>2.05</v>
+      </c>
+      <c r="S107">
+        <v>5</v>
+      </c>
+      <c r="T107">
+        <v>1.5</v>
+      </c>
+      <c r="U107">
+        <v>2.5</v>
+      </c>
+      <c r="V107">
+        <v>3.4</v>
+      </c>
+      <c r="W107">
+        <v>1.3</v>
+      </c>
+      <c r="X107">
+        <v>10</v>
+      </c>
+      <c r="Y107">
+        <v>1.06</v>
+      </c>
+      <c r="Z107">
+        <v>1.91</v>
+      </c>
+      <c r="AA107">
+        <v>3.3</v>
+      </c>
+      <c r="AB107">
+        <v>4.5</v>
+      </c>
+      <c r="AC107">
+        <v>1.07</v>
+      </c>
+      <c r="AD107">
+        <v>8</v>
+      </c>
+      <c r="AE107">
+        <v>1.42</v>
+      </c>
+      <c r="AF107">
+        <v>2.8</v>
+      </c>
+      <c r="AG107">
+        <v>2.43</v>
+      </c>
+      <c r="AH107">
+        <v>1.57</v>
+      </c>
+      <c r="AI107">
+        <v>2.1</v>
+      </c>
+      <c r="AJ107">
+        <v>1.67</v>
+      </c>
+      <c r="AK107">
+        <v>1.22</v>
+      </c>
+      <c r="AL107">
+        <v>1.25</v>
+      </c>
+      <c r="AM107">
+        <v>1.85</v>
+      </c>
+      <c r="AN107">
+        <v>1.75</v>
+      </c>
+      <c r="AO107">
+        <v>0.5</v>
+      </c>
+      <c r="AP107">
+        <v>1.6</v>
+      </c>
+      <c r="AQ107">
+        <v>0.6</v>
+      </c>
+      <c r="AR107">
+        <v>1.31</v>
+      </c>
+      <c r="AS107">
+        <v>1.42</v>
+      </c>
+      <c r="AT107">
+        <v>2.73</v>
+      </c>
+      <c r="AU107">
+        <v>4</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>3</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>14</v>
+      </c>
+      <c r="AZ107">
+        <v>7</v>
+      </c>
+      <c r="BA107">
+        <v>5</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>7</v>
+      </c>
+      <c r="BD107">
+        <v>1.31</v>
+      </c>
+      <c r="BE107">
+        <v>10</v>
+      </c>
+      <c r="BF107">
+        <v>5.35</v>
+      </c>
+      <c r="BG107">
+        <v>1.16</v>
+      </c>
+      <c r="BH107">
+        <v>4.46</v>
+      </c>
+      <c r="BI107">
+        <v>1.36</v>
+      </c>
+      <c r="BJ107">
+        <v>3</v>
+      </c>
+      <c r="BK107">
+        <v>1.64</v>
+      </c>
+      <c r="BL107">
+        <v>2.24</v>
+      </c>
+      <c r="BM107">
+        <v>2.02</v>
+      </c>
+      <c r="BN107">
+        <v>1.8</v>
+      </c>
+      <c r="BO107">
+        <v>2.57</v>
+      </c>
+      <c r="BP107">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7478843</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F108">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>84</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>171</v>
+      </c>
+      <c r="P108" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q108">
+        <v>3.1</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>3.6</v>
+      </c>
+      <c r="T108">
+        <v>1.44</v>
+      </c>
+      <c r="U108">
+        <v>2.63</v>
+      </c>
+      <c r="V108">
+        <v>3.25</v>
+      </c>
+      <c r="W108">
+        <v>1.33</v>
+      </c>
+      <c r="X108">
+        <v>9</v>
+      </c>
+      <c r="Y108">
+        <v>1.07</v>
+      </c>
+      <c r="Z108">
+        <v>2.38</v>
+      </c>
+      <c r="AA108">
+        <v>3.3</v>
+      </c>
+      <c r="AB108">
+        <v>3.1</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>7.8</v>
+      </c>
+      <c r="AE108">
+        <v>1.29</v>
+      </c>
+      <c r="AF108">
+        <v>2.96</v>
+      </c>
+      <c r="AG108">
+        <v>2.01</v>
+      </c>
+      <c r="AH108">
+        <v>1.81</v>
+      </c>
+      <c r="AI108">
+        <v>1.83</v>
+      </c>
+      <c r="AJ108">
+        <v>1.83</v>
+      </c>
+      <c r="AK108">
+        <v>1.4</v>
+      </c>
+      <c r="AL108">
+        <v>1.25</v>
+      </c>
+      <c r="AM108">
+        <v>1.57</v>
+      </c>
+      <c r="AN108">
+        <v>2.25</v>
+      </c>
+      <c r="AO108">
+        <v>1.25</v>
+      </c>
+      <c r="AP108">
+        <v>2.4</v>
+      </c>
+      <c r="AQ108">
+        <v>1</v>
+      </c>
+      <c r="AR108">
+        <v>1.27</v>
+      </c>
+      <c r="AS108">
+        <v>0.95</v>
+      </c>
+      <c r="AT108">
+        <v>2.22</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>2</v>
+      </c>
+      <c r="AX108">
+        <v>4</v>
+      </c>
+      <c r="AY108">
+        <v>11</v>
+      </c>
+      <c r="AZ108">
+        <v>13</v>
+      </c>
+      <c r="BA108">
+        <v>6</v>
+      </c>
+      <c r="BB108">
+        <v>9</v>
+      </c>
+      <c r="BC108">
+        <v>15</v>
+      </c>
+      <c r="BD108">
+        <v>1.91</v>
+      </c>
+      <c r="BE108">
+        <v>8.5</v>
+      </c>
+      <c r="BF108">
+        <v>2.1</v>
+      </c>
+      <c r="BG108">
+        <v>1.16</v>
+      </c>
+      <c r="BH108">
+        <v>4.56</v>
+      </c>
+      <c r="BI108">
+        <v>1.34</v>
+      </c>
+      <c r="BJ108">
+        <v>3.06</v>
+      </c>
+      <c r="BK108">
+        <v>1.62</v>
+      </c>
+      <c r="BL108">
+        <v>2.27</v>
+      </c>
+      <c r="BM108">
+        <v>1.9</v>
+      </c>
+      <c r="BN108">
+        <v>1.9</v>
+      </c>
+      <c r="BO108">
+        <v>2.53</v>
+      </c>
+      <c r="BP108">
         <v>1.5</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,9 @@
     <t>['54', '55']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -647,9 +650,6 @@
   </si>
   <si>
     <t>['45', '54']</t>
-  </si>
-  <si>
-    <t>['73']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -1032,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1291,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1497,7 +1497,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1703,7 +1703,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2115,7 +2115,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2527,7 +2527,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2733,7 +2733,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2939,7 +2939,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3557,7 +3557,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3763,7 +3763,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4587,7 +4587,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5205,7 +5205,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>0.6</v>
@@ -5411,7 +5411,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5698,7 +5698,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ23">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5823,7 +5823,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6235,7 +6235,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6853,7 +6853,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7059,7 +7059,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8089,7 +8089,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8295,7 +8295,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8501,7 +8501,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8582,7 +8582,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8707,7 +8707,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8913,7 +8913,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9119,7 +9119,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9325,7 +9325,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9737,7 +9737,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9943,7 +9943,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -11179,7 +11179,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12084,7 +12084,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ54">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12415,7 +12415,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12621,7 +12621,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13239,7 +13239,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13445,7 +13445,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13651,7 +13651,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14475,7 +14475,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
         <v>0.4</v>
@@ -15093,7 +15093,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15505,7 +15505,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16123,7 +16123,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16535,7 +16535,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16741,7 +16741,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17153,7 +17153,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17565,7 +17565,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17852,7 +17852,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR82">
         <v>1.37</v>
@@ -18389,7 +18389,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18562,7 +18562,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F86">
         <v>8</v>
@@ -18694,16 +18694,16 @@
         <v>0</v>
       </c>
       <c r="AW86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX86">
         <v>7</v>
       </c>
       <c r="AY86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA86">
         <v>7</v>
@@ -18768,7 +18768,7 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F87">
         <v>8</v>
@@ -18897,13 +18897,13 @@
         <v>6</v>
       </c>
       <c r="AV87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY87">
         <v>11</v>
@@ -18974,7 +18974,7 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F88">
         <v>8</v>
@@ -19100,19 +19100,19 @@
         <v>2.93</v>
       </c>
       <c r="AU88">
+        <v>8</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
         <v>9</v>
       </c>
-      <c r="AV88">
-        <v>4</v>
-      </c>
-      <c r="AW88">
-        <v>5</v>
-      </c>
       <c r="AX88">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY88">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ88">
         <v>11</v>
@@ -19180,7 +19180,7 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F89">
         <v>8</v>
@@ -19213,7 +19213,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19306,22 +19306,22 @@
         <v>2.13</v>
       </c>
       <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>13</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
         <v>5</v>
       </c>
-      <c r="AV89">
-        <v>9</v>
-      </c>
-      <c r="AW89">
-        <v>4</v>
-      </c>
-      <c r="AX89">
-        <v>7</v>
-      </c>
       <c r="AY89">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ89">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA89">
         <v>5</v>
@@ -19386,7 +19386,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F90">
         <v>8</v>
@@ -19515,19 +19515,19 @@
         <v>4</v>
       </c>
       <c r="AV90">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX90">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY90">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA90">
         <v>1</v>
@@ -19583,7 +19583,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7478835</v>
+        <v>7478837</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19592,196 +19592,196 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F91">
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O91" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q91">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="R91">
         <v>2.1</v>
       </c>
       <c r="S91">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T91">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U91">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="V91">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="W91">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X91">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="Y91">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z91">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="AA91">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AB91">
-        <v>2.7</v>
+        <v>1.89</v>
       </c>
       <c r="AC91">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD91">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE91">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AF91">
-        <v>3.52</v>
+        <v>4</v>
       </c>
       <c r="AG91">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="AH91">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AI91">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AJ91">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK91">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AL91">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AM91">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="AN91">
+        <v>1.67</v>
+      </c>
+      <c r="AO91">
         <v>2.33</v>
       </c>
-      <c r="AO91">
-        <v>1</v>
-      </c>
       <c r="AP91">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ91">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AR91">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS91">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AT91">
         <v>2.87</v>
       </c>
       <c r="AU91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX91">
         <v>10</v>
       </c>
       <c r="AY91">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AZ91">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA91">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC91">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD91">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="BE91">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF91">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="BG91">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="BH91">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="BI91">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BJ91">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="BK91">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="BL91">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="BM91">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="BN91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="BO91">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="BP91">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19789,7 +19789,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7478837</v>
+        <v>7478832</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19798,196 +19798,196 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F92">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H92" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O92" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q92">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="R92">
         <v>2.1</v>
       </c>
       <c r="S92">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T92">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U92">
+        <v>2.8</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>6.25</v>
+      </c>
+      <c r="Y92">
+        <v>1.09</v>
+      </c>
+      <c r="Z92">
+        <v>2.42</v>
+      </c>
+      <c r="AA92">
         <v>3.2</v>
       </c>
-      <c r="V92">
+      <c r="AB92">
         <v>2.7</v>
       </c>
-      <c r="W92">
-        <v>1.47</v>
-      </c>
-      <c r="X92">
-        <v>6.5</v>
-      </c>
-      <c r="Y92">
+      <c r="AC92">
+        <v>1.06</v>
+      </c>
+      <c r="AD92">
+        <v>11.75</v>
+      </c>
+      <c r="AE92">
+        <v>1.3</v>
+      </c>
+      <c r="AF92">
+        <v>3.57</v>
+      </c>
+      <c r="AG92">
+        <v>1.91</v>
+      </c>
+      <c r="AH92">
+        <v>1.9</v>
+      </c>
+      <c r="AI92">
+        <v>1.7</v>
+      </c>
+      <c r="AJ92">
+        <v>2.05</v>
+      </c>
+      <c r="AK92">
+        <v>1.38</v>
+      </c>
+      <c r="AL92">
+        <v>1.32</v>
+      </c>
+      <c r="AM92">
+        <v>1.62</v>
+      </c>
+      <c r="AN92">
+        <v>0.67</v>
+      </c>
+      <c r="AO92">
+        <v>1.33</v>
+      </c>
+      <c r="AP92">
+        <v>0.5</v>
+      </c>
+      <c r="AQ92">
+        <v>1.4</v>
+      </c>
+      <c r="AR92">
+        <v>1.63</v>
+      </c>
+      <c r="AS92">
         <v>1.1</v>
       </c>
-      <c r="Z92">
-        <v>3.9</v>
-      </c>
-      <c r="AA92">
-        <v>3.75</v>
-      </c>
-      <c r="AB92">
-        <v>1.89</v>
-      </c>
-      <c r="AC92">
-        <v>1.01</v>
-      </c>
-      <c r="AD92">
-        <v>11</v>
-      </c>
-      <c r="AE92">
-        <v>1.2</v>
-      </c>
-      <c r="AF92">
-        <v>4</v>
-      </c>
-      <c r="AG92">
-        <v>1.75</v>
-      </c>
-      <c r="AH92">
-        <v>1.95</v>
-      </c>
-      <c r="AI92">
-        <v>1.65</v>
-      </c>
-      <c r="AJ92">
-        <v>2.2</v>
-      </c>
-      <c r="AK92">
-        <v>1.9</v>
-      </c>
-      <c r="AL92">
-        <v>1.24</v>
-      </c>
-      <c r="AM92">
-        <v>1.28</v>
-      </c>
-      <c r="AN92">
-        <v>1.67</v>
-      </c>
-      <c r="AO92">
-        <v>2.33</v>
-      </c>
-      <c r="AP92">
-        <v>1.8</v>
-      </c>
-      <c r="AQ92">
-        <v>1.8</v>
-      </c>
-      <c r="AR92">
-        <v>1.53</v>
-      </c>
-      <c r="AS92">
-        <v>1.34</v>
-      </c>
       <c r="AT92">
-        <v>2.87</v>
+        <v>2.73</v>
       </c>
       <c r="AU92">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW92">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AX92">
+        <v>8</v>
+      </c>
+      <c r="AY92">
+        <v>22</v>
+      </c>
+      <c r="AZ92">
+        <v>16</v>
+      </c>
+      <c r="BA92">
         <v>5</v>
-      </c>
-      <c r="AY92">
-        <v>8</v>
-      </c>
-      <c r="AZ92">
-        <v>15</v>
-      </c>
-      <c r="BA92">
-        <v>9</v>
       </c>
       <c r="BB92">
         <v>6</v>
       </c>
       <c r="BC92">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD92">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="BE92">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF92">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="BG92">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="BH92">
-        <v>4.35</v>
+        <v>3.65</v>
       </c>
       <c r="BI92">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="BJ92">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="BK92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BL92">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BM92">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="BN92">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="BO92">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="BP92">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -19995,7 +19995,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7478832</v>
+        <v>7478835</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20004,43 +20004,43 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45565.875</v>
+        <v>45566.66666666666</v>
       </c>
       <c r="F93">
         <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H93" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="Q93">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="R93">
         <v>2.1</v>
@@ -20052,19 +20052,19 @@
         <v>1.4</v>
       </c>
       <c r="U93">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="V93">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="W93">
         <v>1.4</v>
       </c>
       <c r="X93">
-        <v>6.25</v>
+        <v>7.2</v>
       </c>
       <c r="Y93">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z93">
         <v>2.42</v>
@@ -20079,70 +20079,70 @@
         <v>1.06</v>
       </c>
       <c r="AD93">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE93">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AF93">
-        <v>3.57</v>
+        <v>3.52</v>
       </c>
       <c r="AG93">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AH93">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AI93">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AJ93">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK93">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AL93">
         <v>1.32</v>
       </c>
       <c r="AM93">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AN93">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO93">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93">
+        <v>1.2</v>
+      </c>
+      <c r="AR93">
         <v>1.4</v>
       </c>
-      <c r="AR93">
-        <v>1.63</v>
-      </c>
       <c r="AS93">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="AT93">
-        <v>2.73</v>
+        <v>2.87</v>
       </c>
       <c r="AU93">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV93">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW93">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX93">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY93">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AZ93">
         <v>16</v>
@@ -20151,49 +20151,49 @@
         <v>5</v>
       </c>
       <c r="BB93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD93">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BE93">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF93">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BG93">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="BH93">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="BI93">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="BJ93">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="BK93">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="BL93">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="BM93">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="BN93">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BO93">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BP93">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20210,7 +20210,7 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45566.875</v>
+        <v>45567.65625</v>
       </c>
       <c r="F94">
         <v>8</v>
@@ -20336,19 +20336,19 @@
         <v>2.41</v>
       </c>
       <c r="AU94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW94">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX94">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ94">
         <v>8</v>
@@ -20407,7 +20407,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7478836</v>
+        <v>7478838</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20416,16 +20416,16 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45566.875</v>
+        <v>45567.65625</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H95" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -20437,28 +20437,28 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O95" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="P95" t="s">
         <v>95</v>
       </c>
       <c r="Q95">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R95">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T95">
         <v>1.4</v>
@@ -20467,145 +20467,145 @@
         <v>2.75</v>
       </c>
       <c r="V95">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="W95">
         <v>1.36</v>
       </c>
       <c r="X95">
+        <v>9</v>
+      </c>
+      <c r="Y95">
+        <v>1.07</v>
+      </c>
+      <c r="Z95">
+        <v>2.51</v>
+      </c>
+      <c r="AA95">
+        <v>3.25</v>
+      </c>
+      <c r="AB95">
+        <v>2.69</v>
+      </c>
+      <c r="AC95">
+        <v>1.07</v>
+      </c>
+      <c r="AD95">
+        <v>9.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.35</v>
+      </c>
+      <c r="AF95">
+        <v>3.25</v>
+      </c>
+      <c r="AG95">
+        <v>1.95</v>
+      </c>
+      <c r="AH95">
+        <v>1.75</v>
+      </c>
+      <c r="AI95">
+        <v>1.73</v>
+      </c>
+      <c r="AJ95">
+        <v>2</v>
+      </c>
+      <c r="AK95">
+        <v>1.45</v>
+      </c>
+      <c r="AL95">
+        <v>1.3</v>
+      </c>
+      <c r="AM95">
+        <v>1.52</v>
+      </c>
+      <c r="AN95">
+        <v>1.33</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>1.75</v>
+      </c>
+      <c r="AQ95">
+        <v>0.75</v>
+      </c>
+      <c r="AR95">
+        <v>0.98</v>
+      </c>
+      <c r="AS95">
+        <v>1.06</v>
+      </c>
+      <c r="AT95">
+        <v>2.04</v>
+      </c>
+      <c r="AU95">
         <v>8</v>
       </c>
-      <c r="Y95">
-        <v>1.08</v>
-      </c>
-      <c r="Z95">
-        <v>2.15</v>
-      </c>
-      <c r="AA95">
-        <v>3.3</v>
-      </c>
-      <c r="AB95">
-        <v>3.05</v>
-      </c>
-      <c r="AC95">
-        <v>1.03</v>
-      </c>
-      <c r="AD95">
-        <v>12</v>
-      </c>
-      <c r="AE95">
-        <v>1.29</v>
-      </c>
-      <c r="AF95">
-        <v>3.65</v>
-      </c>
-      <c r="AG95">
-        <v>2.04</v>
-      </c>
-      <c r="AH95">
-        <v>1.82</v>
-      </c>
-      <c r="AI95">
-        <v>1.8</v>
-      </c>
-      <c r="AJ95">
-        <v>1.91</v>
-      </c>
-      <c r="AK95">
-        <v>1.35</v>
-      </c>
-      <c r="AL95">
-        <v>1.32</v>
-      </c>
-      <c r="AM95">
-        <v>1.67</v>
-      </c>
-      <c r="AN95">
-        <v>2.33</v>
-      </c>
-      <c r="AO95">
-        <v>0</v>
-      </c>
-      <c r="AP95">
-        <v>2</v>
-      </c>
-      <c r="AQ95">
-        <v>0.8</v>
-      </c>
-      <c r="AR95">
-        <v>1.65</v>
-      </c>
-      <c r="AS95">
-        <v>1.08</v>
-      </c>
-      <c r="AT95">
-        <v>2.73</v>
-      </c>
-      <c r="AU95">
-        <v>3</v>
-      </c>
       <c r="AV95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW95">
         <v>7</v>
       </c>
       <c r="AX95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY95">
+        <v>15</v>
+      </c>
+      <c r="AZ95">
         <v>11</v>
       </c>
-      <c r="AZ95">
-        <v>9</v>
-      </c>
       <c r="BA95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB95">
         <v>5</v>
       </c>
       <c r="BC95">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD95">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="BE95">
-        <v>6.95</v>
+        <v>6.4</v>
       </c>
       <c r="BF95">
-        <v>2.56</v>
+        <v>1.98</v>
       </c>
       <c r="BG95">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="BH95">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="BI95">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="BJ95">
-        <v>3.1</v>
+        <v>2.33</v>
       </c>
       <c r="BK95">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="BL95">
-        <v>2.35</v>
+        <v>1.84</v>
       </c>
       <c r="BM95">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="BN95">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="BO95">
-        <v>2.23</v>
+        <v>2.95</v>
       </c>
       <c r="BP95">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20613,7 +20613,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7478838</v>
+        <v>7478839</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20622,94 +20622,94 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45566.875</v>
+        <v>45567.65625</v>
       </c>
       <c r="F96">
         <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H96" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O96" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P96" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="Q96">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="R96">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S96">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="T96">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U96">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V96">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="W96">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X96">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y96">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z96">
-        <v>2.51</v>
+        <v>1.75</v>
       </c>
       <c r="AA96">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="AB96">
-        <v>2.69</v>
+        <v>4.2</v>
       </c>
       <c r="AC96">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AD96">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE96">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AF96">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AG96">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AH96">
-        <v>1.75</v>
+        <v>2.03</v>
       </c>
       <c r="AI96">
         <v>1.73</v>
@@ -20718,100 +20718,100 @@
         <v>2</v>
       </c>
       <c r="AK96">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AL96">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AM96">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="AN96">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO96">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AR96">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="AS96">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AT96">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="AU96">
+        <v>12</v>
+      </c>
+      <c r="AV96">
+        <v>3</v>
+      </c>
+      <c r="AW96">
+        <v>11</v>
+      </c>
+      <c r="AX96">
         <v>7</v>
       </c>
-      <c r="AV96">
-        <v>7</v>
-      </c>
-      <c r="AW96">
-        <v>6</v>
-      </c>
-      <c r="AX96">
-        <v>2</v>
-      </c>
       <c r="AY96">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA96">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC96">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD96">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="BE96">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF96">
-        <v>1.98</v>
+        <v>4.2</v>
       </c>
       <c r="BG96">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="BH96">
-        <v>3.15</v>
+        <v>4.65</v>
       </c>
       <c r="BI96">
+        <v>1.25</v>
+      </c>
+      <c r="BJ96">
+        <v>3.14</v>
+      </c>
+      <c r="BK96">
+        <v>1.49</v>
+      </c>
+      <c r="BL96">
+        <v>2.38</v>
+      </c>
+      <c r="BM96">
+        <v>1.87</v>
+      </c>
+      <c r="BN96">
+        <v>1.87</v>
+      </c>
+      <c r="BO96">
+        <v>2.34</v>
+      </c>
+      <c r="BP96">
         <v>1.5</v>
-      </c>
-      <c r="BJ96">
-        <v>2.33</v>
-      </c>
-      <c r="BK96">
-        <v>1.84</v>
-      </c>
-      <c r="BL96">
-        <v>1.84</v>
-      </c>
-      <c r="BM96">
-        <v>2.3</v>
-      </c>
-      <c r="BN96">
-        <v>1.53</v>
-      </c>
-      <c r="BO96">
-        <v>2.95</v>
-      </c>
-      <c r="BP96">
-        <v>1.33</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20819,7 +20819,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7478839</v>
+        <v>7478836</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20828,196 +20828,196 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45566.875</v>
+        <v>45567.66666666666</v>
       </c>
       <c r="F97">
         <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H97" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>95</v>
+      </c>
+      <c r="P97" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q97">
+        <v>3</v>
+      </c>
+      <c r="R97">
+        <v>2.1</v>
+      </c>
+      <c r="S97">
+        <v>3.6</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>2.15</v>
+      </c>
+      <c r="AA97">
+        <v>3.3</v>
+      </c>
+      <c r="AB97">
+        <v>3.05</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>12</v>
+      </c>
+      <c r="AE97">
+        <v>1.29</v>
+      </c>
+      <c r="AF97">
+        <v>3.65</v>
+      </c>
+      <c r="AG97">
+        <v>2.04</v>
+      </c>
+      <c r="AH97">
+        <v>1.82</v>
+      </c>
+      <c r="AI97">
+        <v>1.8</v>
+      </c>
+      <c r="AJ97">
+        <v>1.91</v>
+      </c>
+      <c r="AK97">
+        <v>1.35</v>
+      </c>
+      <c r="AL97">
+        <v>1.32</v>
+      </c>
+      <c r="AM97">
+        <v>1.67</v>
+      </c>
+      <c r="AN97">
+        <v>2.33</v>
+      </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>1.8</v>
+      </c>
+      <c r="AQ97">
+        <v>0.8</v>
+      </c>
+      <c r="AR97">
+        <v>1.65</v>
+      </c>
+      <c r="AS97">
+        <v>1.08</v>
+      </c>
+      <c r="AT97">
+        <v>2.73</v>
+      </c>
+      <c r="AU97">
+        <v>3</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>8</v>
+      </c>
+      <c r="AX97">
         <v>6</v>
       </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <v>7</v>
-      </c>
-      <c r="O97" t="s">
-        <v>164</v>
-      </c>
-      <c r="P97" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q97">
-        <v>2.3</v>
-      </c>
-      <c r="R97">
-        <v>2.25</v>
-      </c>
-      <c r="S97">
-        <v>4.75</v>
-      </c>
-      <c r="T97">
-        <v>1.36</v>
-      </c>
-      <c r="U97">
-        <v>3</v>
-      </c>
-      <c r="V97">
-        <v>2.63</v>
-      </c>
-      <c r="W97">
-        <v>1.44</v>
-      </c>
-      <c r="X97">
-        <v>7</v>
-      </c>
-      <c r="Y97">
-        <v>1.1</v>
-      </c>
-      <c r="Z97">
-        <v>1.75</v>
-      </c>
-      <c r="AA97">
-        <v>3.7</v>
-      </c>
-      <c r="AB97">
-        <v>4.2</v>
-      </c>
-      <c r="AC97">
-        <v>1.01</v>
-      </c>
-      <c r="AD97">
+      <c r="AY97">
         <v>11</v>
       </c>
-      <c r="AE97">
-        <v>1.2</v>
-      </c>
-      <c r="AF97">
-        <v>4</v>
-      </c>
-      <c r="AG97">
-        <v>1.83</v>
-      </c>
-      <c r="AH97">
-        <v>2.03</v>
-      </c>
-      <c r="AI97">
-        <v>1.73</v>
-      </c>
-      <c r="AJ97">
-        <v>2</v>
-      </c>
-      <c r="AK97">
-        <v>1.22</v>
-      </c>
-      <c r="AL97">
-        <v>1.2</v>
-      </c>
-      <c r="AM97">
-        <v>2.15</v>
-      </c>
-      <c r="AN97">
-        <v>1</v>
-      </c>
-      <c r="AO97">
-        <v>0.67</v>
-      </c>
-      <c r="AP97">
-        <v>1.5</v>
-      </c>
-      <c r="AQ97">
-        <v>0.5</v>
-      </c>
-      <c r="AR97">
-        <v>1.07</v>
-      </c>
-      <c r="AS97">
-        <v>0.84</v>
-      </c>
-      <c r="AT97">
-        <v>1.91</v>
-      </c>
-      <c r="AU97">
-        <v>9</v>
-      </c>
-      <c r="AV97">
-        <v>3</v>
-      </c>
-      <c r="AW97">
+      <c r="AZ97">
+        <v>8</v>
+      </c>
+      <c r="BA97">
         <v>6</v>
-      </c>
-      <c r="AX97">
-        <v>3</v>
-      </c>
-      <c r="AY97">
-        <v>21</v>
-      </c>
-      <c r="AZ97">
-        <v>10</v>
-      </c>
-      <c r="BA97">
-        <v>3</v>
       </c>
       <c r="BB97">
         <v>5</v>
       </c>
       <c r="BC97">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD97">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="BE97">
-        <v>8</v>
+        <v>6.95</v>
       </c>
       <c r="BF97">
-        <v>4.2</v>
+        <v>2.56</v>
       </c>
       <c r="BG97">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="BH97">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="BI97">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BJ97">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="BK97">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BL97">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="BM97">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="BN97">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="BO97">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
       <c r="BP97">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21034,10 +21034,10 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45568.875</v>
+        <v>45569.66666666666</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G98" t="s">
         <v>93</v>
@@ -21151,40 +21151,40 @@
         <v>1.8</v>
       </c>
       <c r="AR98">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS98">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AT98">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="AU98">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV98">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW98">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX98">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY98">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ98">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA98">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC98">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD98">
         <v>2</v>
@@ -21240,7 +21240,7 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45569.875</v>
+        <v>45570.35416666666</v>
       </c>
       <c r="F99">
         <v>9</v>
@@ -21360,37 +21360,37 @@
         <v>1.08</v>
       </c>
       <c r="AS99">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT99">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="AU99">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW99">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX99">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY99">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ99">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA99">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC99">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD99">
         <v>1.69</v>
@@ -21446,7 +21446,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45569.875</v>
+        <v>45570.35416666666</v>
       </c>
       <c r="F100">
         <v>9</v>
@@ -21563,40 +21563,40 @@
         <v>1.4</v>
       </c>
       <c r="AR100">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS100">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AT100">
-        <v>2.57</v>
+        <v>2.68</v>
       </c>
       <c r="AU100">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV100">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW100">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX100">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY100">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ100">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA100">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB100">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC100">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD100">
         <v>1.69</v>
@@ -21652,7 +21652,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45569.875</v>
+        <v>45570.35416666666</v>
       </c>
       <c r="F101">
         <v>9</v>
@@ -21769,40 +21769,40 @@
         <v>0.4</v>
       </c>
       <c r="AR101">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AS101">
         <v>1.02</v>
       </c>
       <c r="AT101">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AU101">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW101">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX101">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY101">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ101">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA101">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC101">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD101">
         <v>1.37</v>
@@ -21861,7 +21861,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F102">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G102" t="s">
         <v>82</v>
@@ -21975,13 +21975,13 @@
         <v>0.8</v>
       </c>
       <c r="AR102">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="AS102">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="AT102">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22184,10 +22184,10 @@
         <v>1.59</v>
       </c>
       <c r="AS103">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="AT103">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="AU103">
         <v>8</v>
@@ -22273,7 +22273,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G104" t="s">
         <v>86</v>
@@ -22387,13 +22387,13 @@
         <v>0.8</v>
       </c>
       <c r="AR104">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AS104">
         <v>1.35</v>
       </c>
       <c r="AT104">
-        <v>2.81</v>
+        <v>2.9</v>
       </c>
       <c r="AU104">
         <v>8</v>
@@ -22479,7 +22479,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F105">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
         <v>88</v>
@@ -22685,7 +22685,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G106" t="s">
         <v>87</v>
@@ -22802,10 +22802,10 @@
         <v>1.67</v>
       </c>
       <c r="AS106">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AT106">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23005,13 +23005,13 @@
         <v>0.6</v>
       </c>
       <c r="AR107">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AS107">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT107">
-        <v>2.73</v>
+        <v>2.81</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23284,6 +23284,212 @@
       </c>
       <c r="BP108">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7478840</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45571.45833333334</v>
+      </c>
+      <c r="F109">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>89</v>
+      </c>
+      <c r="H109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>172</v>
+      </c>
+      <c r="P109" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q109">
+        <v>2.38</v>
+      </c>
+      <c r="R109">
+        <v>2.2</v>
+      </c>
+      <c r="S109">
+        <v>5</v>
+      </c>
+      <c r="T109">
+        <v>1.4</v>
+      </c>
+      <c r="U109">
+        <v>2.75</v>
+      </c>
+      <c r="V109">
+        <v>2.75</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>8</v>
+      </c>
+      <c r="Y109">
+        <v>1.08</v>
+      </c>
+      <c r="Z109">
+        <v>1.83</v>
+      </c>
+      <c r="AA109">
+        <v>3.75</v>
+      </c>
+      <c r="AB109">
+        <v>4</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE109">
+        <v>1.25</v>
+      </c>
+      <c r="AF109">
+        <v>3.2</v>
+      </c>
+      <c r="AG109">
+        <v>1.7</v>
+      </c>
+      <c r="AH109">
+        <v>2.05</v>
+      </c>
+      <c r="AI109">
+        <v>1.83</v>
+      </c>
+      <c r="AJ109">
+        <v>1.83</v>
+      </c>
+      <c r="AK109">
+        <v>1.2</v>
+      </c>
+      <c r="AL109">
+        <v>1.28</v>
+      </c>
+      <c r="AM109">
+        <v>2.06</v>
+      </c>
+      <c r="AN109">
+        <v>2</v>
+      </c>
+      <c r="AO109">
+        <v>0.25</v>
+      </c>
+      <c r="AP109">
+        <v>1.8</v>
+      </c>
+      <c r="AQ109">
+        <v>0.4</v>
+      </c>
+      <c r="AR109">
+        <v>1.56</v>
+      </c>
+      <c r="AS109">
+        <v>1.21</v>
+      </c>
+      <c r="AT109">
+        <v>2.77</v>
+      </c>
+      <c r="AU109">
+        <v>3</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>8</v>
+      </c>
+      <c r="AX109">
+        <v>7</v>
+      </c>
+      <c r="AY109">
+        <v>17</v>
+      </c>
+      <c r="AZ109">
+        <v>17</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>6</v>
+      </c>
+      <c r="BC109">
+        <v>10</v>
+      </c>
+      <c r="BD109">
+        <v>1.41</v>
+      </c>
+      <c r="BE109">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="BF109">
+        <v>4.38</v>
+      </c>
+      <c r="BG109">
+        <v>1.21</v>
+      </c>
+      <c r="BH109">
+        <v>3.95</v>
+      </c>
+      <c r="BI109">
+        <v>1.43</v>
+      </c>
+      <c r="BJ109">
+        <v>2.73</v>
+      </c>
+      <c r="BK109">
+        <v>1.75</v>
+      </c>
+      <c r="BL109">
+        <v>2.08</v>
+      </c>
+      <c r="BM109">
+        <v>2.17</v>
+      </c>
+      <c r="BN109">
+        <v>1.68</v>
+      </c>
+      <c r="BO109">
+        <v>2.83</v>
+      </c>
+      <c r="BP109">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['45+6']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -1062,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1327,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1402,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1527,7 +1533,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1733,7 +1739,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2145,7 +2151,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>0.6</v>
@@ -2557,7 +2563,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2763,7 +2769,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2841,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2969,7 +2975,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3050,7 +3056,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3256,7 +3262,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3587,7 +3593,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3793,7 +3799,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4617,7 +4623,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5235,7 +5241,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5441,7 +5447,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5853,7 +5859,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6265,7 +6271,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6549,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>0.6</v>
@@ -6883,7 +6889,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7089,7 +7095,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7376,7 +7382,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -8119,7 +8125,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8325,7 +8331,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8531,7 +8537,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8737,7 +8743,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8943,7 +8949,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9149,7 +9155,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9355,7 +9361,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9642,7 +9648,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -9767,7 +9773,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9848,7 +9854,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -9973,7 +9979,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10257,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45">
         <v>0.8</v>
@@ -11209,7 +11215,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11287,7 +11293,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>1.6</v>
@@ -11699,7 +11705,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -12445,7 +12451,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12526,7 +12532,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12651,7 +12657,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13269,7 +13275,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13475,7 +13481,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13681,7 +13687,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14505,7 +14511,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15123,7 +15129,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15535,7 +15541,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15616,7 +15622,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ71">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR71">
         <v>2.05</v>
@@ -15822,7 +15828,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16153,7 +16159,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16565,7 +16571,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16771,7 +16777,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17183,7 +17189,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17264,7 +17270,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17595,7 +17601,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17673,7 +17679,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ81">
         <v>0.4</v>
@@ -17879,7 +17885,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>0.4</v>
@@ -18419,7 +18425,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -19243,7 +19249,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19530,7 +19536,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ90">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19655,7 +19661,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19861,7 +19867,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20354,7 +20360,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ94">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -21097,7 +21103,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21921,7 +21927,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22127,7 +22133,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22745,7 +22751,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23363,7 +23369,7 @@
         <v>172</v>
       </c>
       <c r="P109" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23662,22 +23668,22 @@
         <v>2.97</v>
       </c>
       <c r="AU110">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW110">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY110">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ110">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA110">
         <v>7</v>
@@ -23951,7 +23957,7 @@
         <v>45584.35416666666</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G112" t="s">
         <v>81</v>
@@ -24599,7 +24605,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24775,7 +24781,7 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G116" t="s">
         <v>72</v>
@@ -24805,7 +24811,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25011,7 +25017,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25217,7 +25223,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25374,6 +25380,624 @@
       </c>
       <c r="BP118">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7478852</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>70</v>
+      </c>
+      <c r="H119" t="s">
+        <v>88</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>180</v>
+      </c>
+      <c r="P119" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q119">
+        <v>2.63</v>
+      </c>
+      <c r="R119">
+        <v>2.2</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>1.36</v>
+      </c>
+      <c r="U119">
+        <v>3</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>8</v>
+      </c>
+      <c r="Y119">
+        <v>1.08</v>
+      </c>
+      <c r="Z119">
+        <v>1.98</v>
+      </c>
+      <c r="AA119">
+        <v>3.17</v>
+      </c>
+      <c r="AB119">
+        <v>3.26</v>
+      </c>
+      <c r="AC119">
+        <v>1.05</v>
+      </c>
+      <c r="AD119">
+        <v>12</v>
+      </c>
+      <c r="AE119">
+        <v>1.3</v>
+      </c>
+      <c r="AF119">
+        <v>3.6</v>
+      </c>
+      <c r="AG119">
+        <v>1.87</v>
+      </c>
+      <c r="AH119">
+        <v>1.97</v>
+      </c>
+      <c r="AI119">
+        <v>1.73</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>1.3</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.83</v>
+      </c>
+      <c r="AN119">
+        <v>3</v>
+      </c>
+      <c r="AO119">
+        <v>0.75</v>
+      </c>
+      <c r="AP119">
+        <v>3</v>
+      </c>
+      <c r="AQ119">
+        <v>0.6</v>
+      </c>
+      <c r="AR119">
+        <v>1.51</v>
+      </c>
+      <c r="AS119">
+        <v>0.87</v>
+      </c>
+      <c r="AT119">
+        <v>2.38</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>3</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>9</v>
+      </c>
+      <c r="AZ119">
+        <v>15</v>
+      </c>
+      <c r="BA119">
+        <v>3</v>
+      </c>
+      <c r="BB119">
+        <v>8</v>
+      </c>
+      <c r="BC119">
+        <v>11</v>
+      </c>
+      <c r="BD119">
+        <v>1.71</v>
+      </c>
+      <c r="BE119">
+        <v>6.75</v>
+      </c>
+      <c r="BF119">
+        <v>2.38</v>
+      </c>
+      <c r="BG119">
+        <v>1.26</v>
+      </c>
+      <c r="BH119">
+        <v>3.4</v>
+      </c>
+      <c r="BI119">
+        <v>1.46</v>
+      </c>
+      <c r="BJ119">
+        <v>2.5</v>
+      </c>
+      <c r="BK119">
+        <v>1.73</v>
+      </c>
+      <c r="BL119">
+        <v>1.96</v>
+      </c>
+      <c r="BM119">
+        <v>2.15</v>
+      </c>
+      <c r="BN119">
+        <v>1.61</v>
+      </c>
+      <c r="BO119">
+        <v>2.7</v>
+      </c>
+      <c r="BP119">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7478858</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>74</v>
+      </c>
+      <c r="H120" t="s">
+        <v>84</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>181</v>
+      </c>
+      <c r="P120" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q120">
+        <v>2.75</v>
+      </c>
+      <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
+        <v>4.5</v>
+      </c>
+      <c r="T120">
+        <v>1.5</v>
+      </c>
+      <c r="U120">
+        <v>2.5</v>
+      </c>
+      <c r="V120">
+        <v>3.4</v>
+      </c>
+      <c r="W120">
+        <v>1.3</v>
+      </c>
+      <c r="X120">
+        <v>10</v>
+      </c>
+      <c r="Y120">
+        <v>1.06</v>
+      </c>
+      <c r="Z120">
+        <v>1.99</v>
+      </c>
+      <c r="AA120">
+        <v>2.99</v>
+      </c>
+      <c r="AB120">
+        <v>3.43</v>
+      </c>
+      <c r="AC120">
+        <v>1.08</v>
+      </c>
+      <c r="AD120">
+        <v>8.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.42</v>
+      </c>
+      <c r="AF120">
+        <v>2.9</v>
+      </c>
+      <c r="AG120">
+        <v>2.2</v>
+      </c>
+      <c r="AH120">
+        <v>1.6</v>
+      </c>
+      <c r="AI120">
+        <v>2</v>
+      </c>
+      <c r="AJ120">
+        <v>1.73</v>
+      </c>
+      <c r="AK120">
+        <v>1.25</v>
+      </c>
+      <c r="AL120">
+        <v>1.28</v>
+      </c>
+      <c r="AM120">
+        <v>1.85</v>
+      </c>
+      <c r="AN120">
+        <v>1.5</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>1.4</v>
+      </c>
+      <c r="AQ120">
+        <v>0.2</v>
+      </c>
+      <c r="AR120">
+        <v>1.42</v>
+      </c>
+      <c r="AS120">
+        <v>1.11</v>
+      </c>
+      <c r="AT120">
+        <v>2.53</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>2</v>
+      </c>
+      <c r="AW120">
+        <v>4</v>
+      </c>
+      <c r="AX120">
+        <v>4</v>
+      </c>
+      <c r="AY120">
+        <v>17</v>
+      </c>
+      <c r="AZ120">
+        <v>6</v>
+      </c>
+      <c r="BA120">
+        <v>9</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>14</v>
+      </c>
+      <c r="BD120">
+        <v>1.67</v>
+      </c>
+      <c r="BE120">
+        <v>6.75</v>
+      </c>
+      <c r="BF120">
+        <v>2.45</v>
+      </c>
+      <c r="BG120">
+        <v>1.23</v>
+      </c>
+      <c r="BH120">
+        <v>3.65</v>
+      </c>
+      <c r="BI120">
+        <v>1.41</v>
+      </c>
+      <c r="BJ120">
+        <v>2.65</v>
+      </c>
+      <c r="BK120">
+        <v>1.68</v>
+      </c>
+      <c r="BL120">
+        <v>2.04</v>
+      </c>
+      <c r="BM120">
+        <v>2.07</v>
+      </c>
+      <c r="BN120">
+        <v>1.66</v>
+      </c>
+      <c r="BO120">
+        <v>2.65</v>
+      </c>
+      <c r="BP120">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7478854</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45585.45833333334</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>93</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>95</v>
+      </c>
+      <c r="P121" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q121">
+        <v>3.4</v>
+      </c>
+      <c r="R121">
+        <v>2.25</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>1.33</v>
+      </c>
+      <c r="U121">
+        <v>3.25</v>
+      </c>
+      <c r="V121">
+        <v>2.63</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>6.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.11</v>
+      </c>
+      <c r="Z121">
+        <v>2.75</v>
+      </c>
+      <c r="AA121">
+        <v>3.25</v>
+      </c>
+      <c r="AB121">
+        <v>2.4</v>
+      </c>
+      <c r="AC121">
+        <v>1.04</v>
+      </c>
+      <c r="AD121">
+        <v>13</v>
+      </c>
+      <c r="AE121">
+        <v>1.28</v>
+      </c>
+      <c r="AF121">
+        <v>3.75</v>
+      </c>
+      <c r="AG121">
+        <v>1.76</v>
+      </c>
+      <c r="AH121">
+        <v>1.95</v>
+      </c>
+      <c r="AI121">
+        <v>1.62</v>
+      </c>
+      <c r="AJ121">
+        <v>2.2</v>
+      </c>
+      <c r="AK121">
+        <v>1.6</v>
+      </c>
+      <c r="AL121">
+        <v>1.26</v>
+      </c>
+      <c r="AM121">
+        <v>1.45</v>
+      </c>
+      <c r="AN121">
+        <v>1.25</v>
+      </c>
+      <c r="AO121">
+        <v>1.5</v>
+      </c>
+      <c r="AP121">
+        <v>1</v>
+      </c>
+      <c r="AQ121">
+        <v>1.8</v>
+      </c>
+      <c r="AR121">
+        <v>1.53</v>
+      </c>
+      <c r="AS121">
+        <v>1.46</v>
+      </c>
+      <c r="AT121">
+        <v>2.99</v>
+      </c>
+      <c r="AU121">
+        <v>0</v>
+      </c>
+      <c r="AV121">
+        <v>3</v>
+      </c>
+      <c r="AW121">
+        <v>7</v>
+      </c>
+      <c r="AX121">
+        <v>3</v>
+      </c>
+      <c r="AY121">
+        <v>9</v>
+      </c>
+      <c r="AZ121">
+        <v>11</v>
+      </c>
+      <c r="BA121">
+        <v>4</v>
+      </c>
+      <c r="BB121">
+        <v>4</v>
+      </c>
+      <c r="BC121">
+        <v>8</v>
+      </c>
+      <c r="BD121">
+        <v>2.1</v>
+      </c>
+      <c r="BE121">
+        <v>7</v>
+      </c>
+      <c r="BF121">
+        <v>2.1</v>
+      </c>
+      <c r="BG121">
+        <v>1.11</v>
+      </c>
+      <c r="BH121">
+        <v>4.55</v>
+      </c>
+      <c r="BI121">
+        <v>1.33</v>
+      </c>
+      <c r="BJ121">
+        <v>3.1</v>
+      </c>
+      <c r="BK121">
+        <v>1.91</v>
+      </c>
+      <c r="BL121">
+        <v>2.3</v>
+      </c>
+      <c r="BM121">
+        <v>1.92</v>
+      </c>
+      <c r="BN121">
+        <v>1.83</v>
+      </c>
+      <c r="BO121">
+        <v>2.45</v>
+      </c>
+      <c r="BP121">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -25808,7 +25808,7 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45585.45833333334</v>
+        <v>45584.875</v>
       </c>
       <c r="F121">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,21 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['6', '12']</t>
+  </si>
+  <si>
+    <t>['2', '14']</t>
+  </si>
+  <si>
+    <t>['4', '7']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -596,9 +611,6 @@
   </si>
   <si>
     <t>['20', '87']</t>
-  </si>
-  <si>
-    <t>['63']</t>
   </si>
   <si>
     <t>['24', '48']</t>
@@ -707,6 +719,15 @@
   </si>
   <si>
     <t>['27', '45+2']</t>
+  </si>
+  <si>
+    <t>['45+2', '61']</t>
+  </si>
+  <si>
+    <t>['50', '52']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1348,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1408,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1533,7 +1554,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1611,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3">
         <v>1.6</v>
@@ -1739,7 +1760,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1817,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -2023,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2151,7 +2172,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2232,7 +2253,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2435,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2563,7 +2584,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2641,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2769,7 +2790,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2975,7 +2996,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3053,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.8</v>
@@ -3262,7 +3283,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3465,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>0.2</v>
@@ -3593,7 +3614,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3799,7 +3820,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4623,7 +4644,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5241,7 +5262,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5447,7 +5468,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5859,7 +5880,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6271,7 +6292,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6349,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.8</v>
@@ -6761,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
         <v>0.2</v>
@@ -6889,7 +6910,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6970,7 +6991,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ29">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -7095,7 +7116,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7176,7 +7197,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7382,7 +7403,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ31">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -7791,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -8125,7 +8146,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8203,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8331,7 +8352,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8537,7 +8558,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8743,7 +8764,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8949,7 +8970,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9155,7 +9176,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9233,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.2</v>
@@ -9361,7 +9382,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9442,7 +9463,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9648,7 +9669,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -9773,7 +9794,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9979,7 +10000,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10469,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
         <v>1.4</v>
@@ -10881,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.4</v>
@@ -11090,7 +11111,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ49">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -11215,7 +11236,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11499,7 +11520,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -11911,7 +11932,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>0.8</v>
@@ -12326,7 +12347,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ55">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12451,7 +12472,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12657,7 +12678,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12735,7 +12756,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12944,7 +12965,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.35</v>
@@ -13275,7 +13296,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13481,7 +13502,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13687,7 +13708,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13765,7 +13786,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>1.4</v>
@@ -14180,7 +14201,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14383,7 +14404,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ65">
         <v>0.6</v>
@@ -14511,7 +14532,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14589,7 +14610,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1.8</v>
@@ -15129,7 +15150,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15210,7 +15231,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15541,7 +15562,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15622,7 +15643,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ71">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR71">
         <v>2.05</v>
@@ -15828,7 +15849,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ72">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16031,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ73">
         <v>0.6</v>
@@ -16159,7 +16180,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16571,7 +16592,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16652,7 +16673,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.2</v>
@@ -16777,7 +16798,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -16855,7 +16876,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17061,7 +17082,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17189,7 +17210,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17601,7 +17622,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18297,10 +18318,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ84">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -18425,7 +18446,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18915,7 +18936,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>0.6</v>
@@ -19249,7 +19270,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19536,7 +19557,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ90">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19661,7 +19682,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19867,7 +19888,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -19945,7 +19966,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ92">
         <v>1.4</v>
@@ -20360,7 +20381,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ94">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -20563,10 +20584,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ95">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR95">
         <v>0.98</v>
@@ -20769,10 +20790,10 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR96">
         <v>1.07</v>
@@ -21103,7 +21124,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21927,7 +21948,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22133,7 +22154,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22751,7 +22772,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23369,7 +23390,7 @@
         <v>172</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23653,7 +23674,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ110">
         <v>1.6</v>
@@ -23859,7 +23880,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>0.2</v>
@@ -24068,7 +24089,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ112">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24271,10 +24292,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ113">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24477,7 +24498,7 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
         <v>2</v>
@@ -24605,7 +24626,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24683,7 +24704,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
         <v>2</v>
@@ -24811,7 +24832,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -24889,10 +24910,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR116">
         <v>1.81</v>
@@ -25017,7 +25038,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25095,10 +25116,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25223,7 +25244,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25510,7 +25531,7 @@
         <v>3</v>
       </c>
       <c r="AQ119">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25716,7 +25737,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ120">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR120">
         <v>1.42</v>
@@ -25841,7 +25862,7 @@
         <v>95</v>
       </c>
       <c r="P121" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25998,6 +26019,1448 @@
       </c>
       <c r="BP121">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7478870</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F122">
+        <v>11</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>95</v>
+      </c>
+      <c r="P122" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q122">
+        <v>2.88</v>
+      </c>
+      <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
+        <v>3.75</v>
+      </c>
+      <c r="T122">
+        <v>1.44</v>
+      </c>
+      <c r="U122">
+        <v>2.63</v>
+      </c>
+      <c r="V122">
+        <v>3</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>9</v>
+      </c>
+      <c r="Y122">
+        <v>1.07</v>
+      </c>
+      <c r="Z122">
+        <v>2.32</v>
+      </c>
+      <c r="AA122">
+        <v>3.3</v>
+      </c>
+      <c r="AB122">
+        <v>3.12</v>
+      </c>
+      <c r="AC122">
+        <v>1.06</v>
+      </c>
+      <c r="AD122">
+        <v>10</v>
+      </c>
+      <c r="AE122">
+        <v>1.33</v>
+      </c>
+      <c r="AF122">
+        <v>3.3</v>
+      </c>
+      <c r="AG122">
+        <v>2.01</v>
+      </c>
+      <c r="AH122">
+        <v>1.75</v>
+      </c>
+      <c r="AI122">
+        <v>1.8</v>
+      </c>
+      <c r="AJ122">
+        <v>1.91</v>
+      </c>
+      <c r="AK122">
+        <v>1.38</v>
+      </c>
+      <c r="AL122">
+        <v>1.28</v>
+      </c>
+      <c r="AM122">
+        <v>1.63</v>
+      </c>
+      <c r="AN122">
+        <v>1.4</v>
+      </c>
+      <c r="AO122">
+        <v>0.6</v>
+      </c>
+      <c r="AP122">
+        <v>1.33</v>
+      </c>
+      <c r="AQ122">
+        <v>0.67</v>
+      </c>
+      <c r="AR122">
+        <v>1.52</v>
+      </c>
+      <c r="AS122">
+        <v>0.93</v>
+      </c>
+      <c r="AT122">
+        <v>2.45</v>
+      </c>
+      <c r="AU122">
+        <v>0</v>
+      </c>
+      <c r="AV122">
+        <v>2</v>
+      </c>
+      <c r="AW122">
+        <v>9</v>
+      </c>
+      <c r="AX122">
+        <v>3</v>
+      </c>
+      <c r="AY122">
+        <v>10</v>
+      </c>
+      <c r="AZ122">
+        <v>10</v>
+      </c>
+      <c r="BA122">
+        <v>9</v>
+      </c>
+      <c r="BB122">
+        <v>6</v>
+      </c>
+      <c r="BC122">
+        <v>15</v>
+      </c>
+      <c r="BD122">
+        <v>1.77</v>
+      </c>
+      <c r="BE122">
+        <v>6.75</v>
+      </c>
+      <c r="BF122">
+        <v>2.23</v>
+      </c>
+      <c r="BG122">
+        <v>1.23</v>
+      </c>
+      <c r="BH122">
+        <v>3.65</v>
+      </c>
+      <c r="BI122">
+        <v>1.38</v>
+      </c>
+      <c r="BJ122">
+        <v>2.7</v>
+      </c>
+      <c r="BK122">
+        <v>1.65</v>
+      </c>
+      <c r="BL122">
+        <v>2.08</v>
+      </c>
+      <c r="BM122">
+        <v>2</v>
+      </c>
+      <c r="BN122">
+        <v>1.71</v>
+      </c>
+      <c r="BO122">
+        <v>2.55</v>
+      </c>
+      <c r="BP122">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7478868</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F123">
+        <v>11</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>90</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123" t="s">
+        <v>182</v>
+      </c>
+      <c r="P123" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q123">
+        <v>3.4</v>
+      </c>
+      <c r="R123">
+        <v>2.2</v>
+      </c>
+      <c r="S123">
+        <v>3</v>
+      </c>
+      <c r="T123">
+        <v>1.36</v>
+      </c>
+      <c r="U123">
+        <v>3</v>
+      </c>
+      <c r="V123">
+        <v>2.75</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>7</v>
+      </c>
+      <c r="Y123">
+        <v>1.1</v>
+      </c>
+      <c r="Z123">
+        <v>2.91</v>
+      </c>
+      <c r="AA123">
+        <v>3.3</v>
+      </c>
+      <c r="AB123">
+        <v>2.45</v>
+      </c>
+      <c r="AC123">
+        <v>1.07</v>
+      </c>
+      <c r="AD123">
+        <v>10</v>
+      </c>
+      <c r="AE123">
+        <v>1.35</v>
+      </c>
+      <c r="AF123">
+        <v>3.25</v>
+      </c>
+      <c r="AG123">
+        <v>2.02</v>
+      </c>
+      <c r="AH123">
+        <v>1.74</v>
+      </c>
+      <c r="AI123">
+        <v>1.67</v>
+      </c>
+      <c r="AJ123">
+        <v>2.1</v>
+      </c>
+      <c r="AK123">
+        <v>1.58</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.42</v>
+      </c>
+      <c r="AN123">
+        <v>2</v>
+      </c>
+      <c r="AO123">
+        <v>1.4</v>
+      </c>
+      <c r="AP123">
+        <v>1.83</v>
+      </c>
+      <c r="AQ123">
+        <v>1.33</v>
+      </c>
+      <c r="AR123">
+        <v>1.29</v>
+      </c>
+      <c r="AS123">
+        <v>1</v>
+      </c>
+      <c r="AT123">
+        <v>2.29</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>3</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>10</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
+        <v>7</v>
+      </c>
+      <c r="BD123">
+        <v>1.98</v>
+      </c>
+      <c r="BE123">
+        <v>6.4</v>
+      </c>
+      <c r="BF123">
+        <v>1.98</v>
+      </c>
+      <c r="BG123">
+        <v>1.28</v>
+      </c>
+      <c r="BH123">
+        <v>3.3</v>
+      </c>
+      <c r="BI123">
+        <v>1.47</v>
+      </c>
+      <c r="BJ123">
+        <v>2.43</v>
+      </c>
+      <c r="BK123">
+        <v>1.78</v>
+      </c>
+      <c r="BL123">
+        <v>1.91</v>
+      </c>
+      <c r="BM123">
+        <v>2.23</v>
+      </c>
+      <c r="BN123">
+        <v>1.56</v>
+      </c>
+      <c r="BO123">
+        <v>2.9</v>
+      </c>
+      <c r="BP123">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7478871</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F124">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>75</v>
+      </c>
+      <c r="H124" t="s">
+        <v>89</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>183</v>
+      </c>
+      <c r="P124" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="R124">
+        <v>2.1</v>
+      </c>
+      <c r="S124">
+        <v>3.75</v>
+      </c>
+      <c r="T124">
+        <v>1.4</v>
+      </c>
+      <c r="U124">
+        <v>2.75</v>
+      </c>
+      <c r="V124">
+        <v>3</v>
+      </c>
+      <c r="W124">
+        <v>1.36</v>
+      </c>
+      <c r="X124">
+        <v>9</v>
+      </c>
+      <c r="Y124">
+        <v>1.07</v>
+      </c>
+      <c r="Z124">
+        <v>2.4</v>
+      </c>
+      <c r="AA124">
+        <v>3.3</v>
+      </c>
+      <c r="AB124">
+        <v>2.98</v>
+      </c>
+      <c r="AC124">
+        <v>1.07</v>
+      </c>
+      <c r="AD124">
+        <v>10</v>
+      </c>
+      <c r="AE124">
+        <v>1.36</v>
+      </c>
+      <c r="AF124">
+        <v>3.2</v>
+      </c>
+      <c r="AG124">
+        <v>2.05</v>
+      </c>
+      <c r="AH124">
+        <v>1.72</v>
+      </c>
+      <c r="AI124">
+        <v>1.8</v>
+      </c>
+      <c r="AJ124">
+        <v>1.91</v>
+      </c>
+      <c r="AK124">
+        <v>1.4</v>
+      </c>
+      <c r="AL124">
+        <v>1.28</v>
+      </c>
+      <c r="AM124">
+        <v>1.6</v>
+      </c>
+      <c r="AN124">
+        <v>1.4</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>1.33</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.42</v>
+      </c>
+      <c r="AS124">
+        <v>1.33</v>
+      </c>
+      <c r="AT124">
+        <v>2.75</v>
+      </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
+      <c r="AV124">
+        <v>11</v>
+      </c>
+      <c r="AW124">
+        <v>3</v>
+      </c>
+      <c r="AX124">
+        <v>10</v>
+      </c>
+      <c r="AY124">
+        <v>11</v>
+      </c>
+      <c r="AZ124">
+        <v>29</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>13</v>
+      </c>
+      <c r="BC124">
+        <v>19</v>
+      </c>
+      <c r="BD124">
+        <v>1.8</v>
+      </c>
+      <c r="BE124">
+        <v>6.5</v>
+      </c>
+      <c r="BF124">
+        <v>2.2</v>
+      </c>
+      <c r="BG124">
+        <v>1.26</v>
+      </c>
+      <c r="BH124">
+        <v>3.4</v>
+      </c>
+      <c r="BI124">
+        <v>1.44</v>
+      </c>
+      <c r="BJ124">
+        <v>2.55</v>
+      </c>
+      <c r="BK124">
+        <v>1.72</v>
+      </c>
+      <c r="BL124">
+        <v>1.97</v>
+      </c>
+      <c r="BM124">
+        <v>2.15</v>
+      </c>
+      <c r="BN124">
+        <v>1.61</v>
+      </c>
+      <c r="BO124">
+        <v>2.7</v>
+      </c>
+      <c r="BP124">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7478866</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F125">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>76</v>
+      </c>
+      <c r="H125" t="s">
+        <v>87</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>184</v>
+      </c>
+      <c r="P125" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q125">
+        <v>1.83</v>
+      </c>
+      <c r="R125">
+        <v>2.5</v>
+      </c>
+      <c r="S125">
+        <v>7</v>
+      </c>
+      <c r="T125">
+        <v>1.3</v>
+      </c>
+      <c r="U125">
+        <v>3.4</v>
+      </c>
+      <c r="V125">
+        <v>2.5</v>
+      </c>
+      <c r="W125">
+        <v>1.5</v>
+      </c>
+      <c r="X125">
+        <v>6</v>
+      </c>
+      <c r="Y125">
+        <v>1.13</v>
+      </c>
+      <c r="Z125">
+        <v>1.4</v>
+      </c>
+      <c r="AA125">
+        <v>4.9</v>
+      </c>
+      <c r="AB125">
+        <v>7.32</v>
+      </c>
+      <c r="AC125">
+        <v>1.03</v>
+      </c>
+      <c r="AD125">
+        <v>15</v>
+      </c>
+      <c r="AE125">
+        <v>1.22</v>
+      </c>
+      <c r="AF125">
+        <v>4.33</v>
+      </c>
+      <c r="AG125">
+        <v>1.55</v>
+      </c>
+      <c r="AH125">
+        <v>2.36</v>
+      </c>
+      <c r="AI125">
+        <v>1.83</v>
+      </c>
+      <c r="AJ125">
+        <v>1.83</v>
+      </c>
+      <c r="AK125">
+        <v>1.08</v>
+      </c>
+      <c r="AL125">
+        <v>1.16</v>
+      </c>
+      <c r="AM125">
+        <v>2.85</v>
+      </c>
+      <c r="AN125">
+        <v>2</v>
+      </c>
+      <c r="AO125">
+        <v>0.6</v>
+      </c>
+      <c r="AP125">
+        <v>2.17</v>
+      </c>
+      <c r="AQ125">
+        <v>0.5</v>
+      </c>
+      <c r="AR125">
+        <v>1.76</v>
+      </c>
+      <c r="AS125">
+        <v>1.04</v>
+      </c>
+      <c r="AT125">
+        <v>2.8</v>
+      </c>
+      <c r="AU125">
+        <v>8</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>11</v>
+      </c>
+      <c r="AX125">
+        <v>3</v>
+      </c>
+      <c r="AY125">
+        <v>25</v>
+      </c>
+      <c r="AZ125">
+        <v>12</v>
+      </c>
+      <c r="BA125">
+        <v>10</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>14</v>
+      </c>
+      <c r="BD125">
+        <v>1.38</v>
+      </c>
+      <c r="BE125">
+        <v>7</v>
+      </c>
+      <c r="BF125">
+        <v>3.4</v>
+      </c>
+      <c r="BG125">
+        <v>1.3</v>
+      </c>
+      <c r="BH125">
+        <v>3.05</v>
+      </c>
+      <c r="BI125">
+        <v>1.54</v>
+      </c>
+      <c r="BJ125">
+        <v>2.3</v>
+      </c>
+      <c r="BK125">
+        <v>1.88</v>
+      </c>
+      <c r="BL125">
+        <v>1.81</v>
+      </c>
+      <c r="BM125">
+        <v>2.38</v>
+      </c>
+      <c r="BN125">
+        <v>1.5</v>
+      </c>
+      <c r="BO125">
+        <v>3.05</v>
+      </c>
+      <c r="BP125">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7478864</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F126">
+        <v>11</v>
+      </c>
+      <c r="G126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s">
+        <v>85</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>107</v>
+      </c>
+      <c r="P126" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q126">
+        <v>2.63</v>
+      </c>
+      <c r="R126">
+        <v>2.25</v>
+      </c>
+      <c r="S126">
+        <v>3.75</v>
+      </c>
+      <c r="T126">
+        <v>1.33</v>
+      </c>
+      <c r="U126">
+        <v>3.25</v>
+      </c>
+      <c r="V126">
+        <v>2.63</v>
+      </c>
+      <c r="W126">
+        <v>1.44</v>
+      </c>
+      <c r="X126">
+        <v>6.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.11</v>
+      </c>
+      <c r="Z126">
+        <v>2</v>
+      </c>
+      <c r="AA126">
+        <v>3.7</v>
+      </c>
+      <c r="AB126">
+        <v>3.51</v>
+      </c>
+      <c r="AC126">
+        <v>1.04</v>
+      </c>
+      <c r="AD126">
+        <v>12</v>
+      </c>
+      <c r="AE126">
+        <v>1.3</v>
+      </c>
+      <c r="AF126">
+        <v>3.6</v>
+      </c>
+      <c r="AG126">
+        <v>1.85</v>
+      </c>
+      <c r="AH126">
+        <v>1.89</v>
+      </c>
+      <c r="AI126">
+        <v>1.62</v>
+      </c>
+      <c r="AJ126">
+        <v>2.2</v>
+      </c>
+      <c r="AK126">
+        <v>1.3</v>
+      </c>
+      <c r="AL126">
+        <v>1.24</v>
+      </c>
+      <c r="AM126">
+        <v>1.83</v>
+      </c>
+      <c r="AN126">
+        <v>1.2</v>
+      </c>
+      <c r="AO126">
+        <v>1</v>
+      </c>
+      <c r="AP126">
+        <v>1.5</v>
+      </c>
+      <c r="AQ126">
+        <v>0.83</v>
+      </c>
+      <c r="AR126">
+        <v>1.35</v>
+      </c>
+      <c r="AS126">
+        <v>0.91</v>
+      </c>
+      <c r="AT126">
+        <v>2.26</v>
+      </c>
+      <c r="AU126">
+        <v>11</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>9</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>27</v>
+      </c>
+      <c r="AZ126">
+        <v>9</v>
+      </c>
+      <c r="BA126">
+        <v>12</v>
+      </c>
+      <c r="BB126">
+        <v>5</v>
+      </c>
+      <c r="BC126">
+        <v>17</v>
+      </c>
+      <c r="BD126">
+        <v>1.5</v>
+      </c>
+      <c r="BE126">
+        <v>6.75</v>
+      </c>
+      <c r="BF126">
+        <v>2.9</v>
+      </c>
+      <c r="BG126">
+        <v>1.38</v>
+      </c>
+      <c r="BH126">
+        <v>2.75</v>
+      </c>
+      <c r="BI126">
+        <v>1.66</v>
+      </c>
+      <c r="BJ126">
+        <v>2.07</v>
+      </c>
+      <c r="BK126">
+        <v>2.06</v>
+      </c>
+      <c r="BL126">
+        <v>1.66</v>
+      </c>
+      <c r="BM126">
+        <v>2.65</v>
+      </c>
+      <c r="BN126">
+        <v>1.41</v>
+      </c>
+      <c r="BO126">
+        <v>3.45</v>
+      </c>
+      <c r="BP126">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7478867</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F127">
+        <v>11</v>
+      </c>
+      <c r="G127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H127" t="s">
+        <v>84</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>185</v>
+      </c>
+      <c r="P127" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>2.2</v>
+      </c>
+      <c r="S127">
+        <v>3.4</v>
+      </c>
+      <c r="T127">
+        <v>1.36</v>
+      </c>
+      <c r="U127">
+        <v>3</v>
+      </c>
+      <c r="V127">
+        <v>2.75</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>7</v>
+      </c>
+      <c r="Y127">
+        <v>1.1</v>
+      </c>
+      <c r="Z127">
+        <v>2.38</v>
+      </c>
+      <c r="AA127">
+        <v>3.45</v>
+      </c>
+      <c r="AB127">
+        <v>2.9</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>11</v>
+      </c>
+      <c r="AE127">
+        <v>1.32</v>
+      </c>
+      <c r="AF127">
+        <v>3.4</v>
+      </c>
+      <c r="AG127">
+        <v>1.95</v>
+      </c>
+      <c r="AH127">
+        <v>1.8</v>
+      </c>
+      <c r="AI127">
+        <v>1.67</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>1.42</v>
+      </c>
+      <c r="AL127">
+        <v>1.28</v>
+      </c>
+      <c r="AM127">
+        <v>1.58</v>
+      </c>
+      <c r="AN127">
+        <v>2.2</v>
+      </c>
+      <c r="AO127">
+        <v>0.2</v>
+      </c>
+      <c r="AP127">
+        <v>2</v>
+      </c>
+      <c r="AQ127">
+        <v>0.33</v>
+      </c>
+      <c r="AR127">
+        <v>1.11</v>
+      </c>
+      <c r="AS127">
+        <v>1.03</v>
+      </c>
+      <c r="AT127">
+        <v>2.14</v>
+      </c>
+      <c r="AU127">
+        <v>4</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>8</v>
+      </c>
+      <c r="AY127">
+        <v>12</v>
+      </c>
+      <c r="AZ127">
+        <v>19</v>
+      </c>
+      <c r="BA127">
+        <v>1</v>
+      </c>
+      <c r="BB127">
+        <v>6</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>2.12</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>1.84</v>
+      </c>
+      <c r="BG127">
+        <v>1.2</v>
+      </c>
+      <c r="BH127">
+        <v>3.9</v>
+      </c>
+      <c r="BI127">
+        <v>1.36</v>
+      </c>
+      <c r="BJ127">
+        <v>2.8</v>
+      </c>
+      <c r="BK127">
+        <v>1.6</v>
+      </c>
+      <c r="BL127">
+        <v>2.17</v>
+      </c>
+      <c r="BM127">
+        <v>1.94</v>
+      </c>
+      <c r="BN127">
+        <v>1.76</v>
+      </c>
+      <c r="BO127">
+        <v>2.4</v>
+      </c>
+      <c r="BP127">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7478869</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45587.66666666666</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+      <c r="G128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" t="s">
+        <v>82</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>186</v>
+      </c>
+      <c r="P128" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q128">
+        <v>3.2</v>
+      </c>
+      <c r="R128">
+        <v>2.2</v>
+      </c>
+      <c r="S128">
+        <v>3.2</v>
+      </c>
+      <c r="T128">
+        <v>1.36</v>
+      </c>
+      <c r="U128">
+        <v>3</v>
+      </c>
+      <c r="V128">
+        <v>2.75</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>7</v>
+      </c>
+      <c r="Y128">
+        <v>1.1</v>
+      </c>
+      <c r="Z128">
+        <v>2.94</v>
+      </c>
+      <c r="AA128">
+        <v>3.3</v>
+      </c>
+      <c r="AB128">
+        <v>2.43</v>
+      </c>
+      <c r="AC128">
+        <v>1.06</v>
+      </c>
+      <c r="AD128">
+        <v>11</v>
+      </c>
+      <c r="AE128">
+        <v>1.3</v>
+      </c>
+      <c r="AF128">
+        <v>3.6</v>
+      </c>
+      <c r="AG128">
+        <v>1.88</v>
+      </c>
+      <c r="AH128">
+        <v>1.86</v>
+      </c>
+      <c r="AI128">
+        <v>1.62</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>1.58</v>
+      </c>
+      <c r="AL128">
+        <v>1.28</v>
+      </c>
+      <c r="AM128">
+        <v>1.44</v>
+      </c>
+      <c r="AN128">
+        <v>0.4</v>
+      </c>
+      <c r="AO128">
+        <v>0.4</v>
+      </c>
+      <c r="AP128">
+        <v>0.5</v>
+      </c>
+      <c r="AQ128">
+        <v>0.5</v>
+      </c>
+      <c r="AR128">
+        <v>1.8</v>
+      </c>
+      <c r="AS128">
+        <v>1.07</v>
+      </c>
+      <c r="AT128">
+        <v>2.87</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>3</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>17</v>
+      </c>
+      <c r="AZ128">
+        <v>9</v>
+      </c>
+      <c r="BA128">
+        <v>7</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>1.98</v>
+      </c>
+      <c r="BE128">
+        <v>6.75</v>
+      </c>
+      <c r="BF128">
+        <v>1.97</v>
+      </c>
+      <c r="BG128">
+        <v>1.16</v>
+      </c>
+      <c r="BH128">
+        <v>4.4</v>
+      </c>
+      <c r="BI128">
+        <v>1.29</v>
+      </c>
+      <c r="BJ128">
+        <v>3.2</v>
+      </c>
+      <c r="BK128">
+        <v>1.49</v>
+      </c>
+      <c r="BL128">
+        <v>2.4</v>
+      </c>
+      <c r="BM128">
+        <v>1.76</v>
+      </c>
+      <c r="BN128">
+        <v>1.94</v>
+      </c>
+      <c r="BO128">
+        <v>2.17</v>
+      </c>
+      <c r="BP128">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,9 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['6', '12']</t>
   </si>
   <si>
@@ -571,10 +574,16 @@
     <t>['4', '7']</t>
   </si>
   <si>
+    <t>['5', '13']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
-    <t>['63']</t>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -715,9 +724,6 @@
     <t>['18', '57']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['27', '45+2']</t>
   </si>
   <si>
@@ -728,6 +734,12 @@
   </si>
   <si>
     <t>['47']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['55', '66']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1360,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1426,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ2">
         <v>0.33</v>
@@ -1554,7 +1566,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1635,7 +1647,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1760,7 +1772,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1841,7 +1853,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2172,7 +2184,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2250,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2584,7 +2596,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2790,7 +2802,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2996,7 +3008,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3077,7 +3089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3280,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3489,7 +3501,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3614,7 +3626,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3692,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3820,7 +3832,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4644,7 +4656,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5262,7 +5274,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5468,7 +5480,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5880,7 +5892,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6292,7 +6304,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6785,7 +6797,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -6910,7 +6922,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7116,7 +7128,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7194,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ30">
         <v>0.83</v>
@@ -7609,7 +7621,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -8018,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ34">
         <v>0.4</v>
@@ -8146,7 +8158,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8227,7 +8239,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8352,7 +8364,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8433,7 +8445,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8558,7 +8570,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8764,7 +8776,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8842,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8970,7 +8982,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9176,7 +9188,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9382,7 +9394,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9794,7 +9806,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9875,7 +9887,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ43">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10000,7 +10012,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10284,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>0.8</v>
@@ -11236,7 +11248,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11317,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11523,7 +11535,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11726,7 +11738,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -12472,7 +12484,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12553,7 +12565,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12678,7 +12690,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13168,7 +13180,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13296,7 +13308,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13374,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ60">
         <v>0.4</v>
@@ -13502,7 +13514,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13583,7 +13595,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -13708,7 +13720,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14532,7 +14544,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14819,7 +14831,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ67">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15150,7 +15162,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15434,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70">
         <v>0.8</v>
@@ -15562,7 +15574,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16180,7 +16192,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16464,7 +16476,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16592,7 +16604,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16798,7 +16810,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -16879,7 +16891,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR77">
         <v>1.68</v>
@@ -17085,7 +17097,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR78">
         <v>1.32</v>
@@ -17210,7 +17222,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17291,7 +17303,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17494,7 +17506,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ80">
         <v>0.8</v>
@@ -17622,7 +17634,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17700,7 +17712,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
         <v>0.4</v>
@@ -18115,7 +18127,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ83">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -18446,7 +18458,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18733,7 +18745,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ86">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19270,7 +19282,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19348,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ89">
         <v>0.4</v>
@@ -19682,7 +19694,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19888,7 +19900,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -21124,7 +21136,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21948,7 +21960,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22154,7 +22166,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22772,7 +22784,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23390,7 +23402,7 @@
         <v>172</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23677,7 +23689,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ110">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23883,7 +23895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR111">
         <v>1.11</v>
@@ -24086,7 +24098,7 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ112">
         <v>0.5</v>
@@ -24501,7 +24513,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR114">
         <v>1.12</v>
@@ -24626,7 +24638,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24707,7 +24719,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -24832,7 +24844,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25038,7 +25050,7 @@
         <v>179</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25244,7 +25256,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25322,7 +25334,7 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25528,7 +25540,7 @@
         <v>0.75</v>
       </c>
       <c r="AP119">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ119">
         <v>0.67</v>
@@ -25734,7 +25746,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ120">
         <v>0.33</v>
@@ -25829,7 +25841,7 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45584.875</v>
+        <v>45585.45833333334</v>
       </c>
       <c r="F121">
         <v>10</v>
@@ -25862,7 +25874,7 @@
         <v>95</v>
       </c>
       <c r="P121" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25943,7 +25955,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -25961,10 +25973,10 @@
         <v>3</v>
       </c>
       <c r="AW121">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX121">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY121">
         <v>9</v>
@@ -26035,7 +26047,7 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45587.65625</v>
+        <v>45586.875</v>
       </c>
       <c r="F122">
         <v>11</v>
@@ -26232,7 +26244,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7478868</v>
+        <v>7478869</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26241,49 +26253,49 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45587.65625</v>
+        <v>45586.875</v>
       </c>
       <c r="F123">
         <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H123" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123">
         <v>1</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O123" t="s">
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="Q123">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R123">
         <v>2.2</v>
       </c>
       <c r="S123">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T123">
         <v>1.36</v>
@@ -26304,70 +26316,70 @@
         <v>1.1</v>
       </c>
       <c r="Z123">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="AA123">
         <v>3.3</v>
       </c>
       <c r="AB123">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="AC123">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE123">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AF123">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AG123">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="AH123">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="AI123">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ123">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK123">
         <v>1.58</v>
       </c>
       <c r="AL123">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM123">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AN123">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="AO123">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR123">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="AS123">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AT123">
-        <v>2.29</v>
+        <v>2.87</v>
       </c>
       <c r="AU123">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV123">
         <v>4</v>
@@ -26379,58 +26391,58 @@
         <v>3</v>
       </c>
       <c r="AY123">
+        <v>17</v>
+      </c>
+      <c r="AZ123">
         <v>9</v>
       </c>
-      <c r="AZ123">
+      <c r="BA123">
+        <v>7</v>
+      </c>
+      <c r="BB123">
+        <v>3</v>
+      </c>
+      <c r="BC123">
         <v>10</v>
-      </c>
-      <c r="BA123">
-        <v>5</v>
-      </c>
-      <c r="BB123">
-        <v>2</v>
-      </c>
-      <c r="BC123">
-        <v>7</v>
       </c>
       <c r="BD123">
         <v>1.98</v>
       </c>
       <c r="BE123">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF123">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="BG123">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="BH123">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="BI123">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="BJ123">
-        <v>2.43</v>
+        <v>3.2</v>
       </c>
       <c r="BK123">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="BL123">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="BM123">
-        <v>2.23</v>
+        <v>1.76</v>
       </c>
       <c r="BN123">
-        <v>1.56</v>
+        <v>1.94</v>
       </c>
       <c r="BO123">
-        <v>2.9</v>
+        <v>2.17</v>
       </c>
       <c r="BP123">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26438,7 +26450,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7478871</v>
+        <v>7478868</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26447,25 +26459,25 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45587.65625</v>
+        <v>45586.875</v>
       </c>
       <c r="F124">
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L124">
         <v>2</v>
@@ -26480,43 +26492,43 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q124">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R124">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S124">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
         <v>1.4</v>
       </c>
-      <c r="U124">
-        <v>2.75</v>
-      </c>
-      <c r="V124">
-        <v>3</v>
-      </c>
-      <c r="W124">
-        <v>1.36</v>
-      </c>
       <c r="X124">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y124">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z124">
-        <v>2.4</v>
+        <v>2.91</v>
       </c>
       <c r="AA124">
         <v>3.3</v>
       </c>
       <c r="AB124">
-        <v>2.98</v>
+        <v>2.45</v>
       </c>
       <c r="AC124">
         <v>1.07</v>
@@ -26525,118 +26537,118 @@
         <v>10</v>
       </c>
       <c r="AE124">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AF124">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AG124">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AH124">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="AI124">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ124">
+        <v>2.1</v>
+      </c>
+      <c r="AK124">
+        <v>1.58</v>
+      </c>
+      <c r="AL124">
+        <v>1.3</v>
+      </c>
+      <c r="AM124">
+        <v>1.42</v>
+      </c>
+      <c r="AN124">
+        <v>2</v>
+      </c>
+      <c r="AO124">
+        <v>1.4</v>
+      </c>
+      <c r="AP124">
+        <v>1.83</v>
+      </c>
+      <c r="AQ124">
+        <v>1.33</v>
+      </c>
+      <c r="AR124">
+        <v>1.29</v>
+      </c>
+      <c r="AS124">
+        <v>1</v>
+      </c>
+      <c r="AT124">
+        <v>2.29</v>
+      </c>
+      <c r="AU124">
+        <v>3</v>
+      </c>
+      <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>3</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>9</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
+        <v>5</v>
+      </c>
+      <c r="BB124">
+        <v>2</v>
+      </c>
+      <c r="BC124">
+        <v>7</v>
+      </c>
+      <c r="BD124">
+        <v>1.98</v>
+      </c>
+      <c r="BE124">
+        <v>6.4</v>
+      </c>
+      <c r="BF124">
+        <v>1.98</v>
+      </c>
+      <c r="BG124">
+        <v>1.28</v>
+      </c>
+      <c r="BH124">
+        <v>3.3</v>
+      </c>
+      <c r="BI124">
+        <v>1.47</v>
+      </c>
+      <c r="BJ124">
+        <v>2.43</v>
+      </c>
+      <c r="BK124">
+        <v>1.78</v>
+      </c>
+      <c r="BL124">
         <v>1.91</v>
       </c>
-      <c r="AK124">
-        <v>1.4</v>
-      </c>
-      <c r="AL124">
-        <v>1.28</v>
-      </c>
-      <c r="AM124">
-        <v>1.6</v>
-      </c>
-      <c r="AN124">
-        <v>1.4</v>
-      </c>
-      <c r="AO124">
-        <v>1</v>
-      </c>
-      <c r="AP124">
-        <v>1.33</v>
-      </c>
-      <c r="AQ124">
-        <v>1</v>
-      </c>
-      <c r="AR124">
-        <v>1.42</v>
-      </c>
-      <c r="AS124">
-        <v>1.33</v>
-      </c>
-      <c r="AT124">
-        <v>2.75</v>
-      </c>
-      <c r="AU124">
-        <v>7</v>
-      </c>
-      <c r="AV124">
-        <v>11</v>
-      </c>
-      <c r="AW124">
-        <v>3</v>
-      </c>
-      <c r="AX124">
-        <v>10</v>
-      </c>
-      <c r="AY124">
-        <v>11</v>
-      </c>
-      <c r="AZ124">
-        <v>29</v>
-      </c>
-      <c r="BA124">
-        <v>6</v>
-      </c>
-      <c r="BB124">
-        <v>13</v>
-      </c>
-      <c r="BC124">
-        <v>19</v>
-      </c>
-      <c r="BD124">
-        <v>1.8</v>
-      </c>
-      <c r="BE124">
-        <v>6.5</v>
-      </c>
-      <c r="BF124">
-        <v>2.2</v>
-      </c>
-      <c r="BG124">
-        <v>1.26</v>
-      </c>
-      <c r="BH124">
-        <v>3.4</v>
-      </c>
-      <c r="BI124">
-        <v>1.44</v>
-      </c>
-      <c r="BJ124">
-        <v>2.55</v>
-      </c>
-      <c r="BK124">
-        <v>1.72</v>
-      </c>
-      <c r="BL124">
-        <v>1.97</v>
-      </c>
       <c r="BM124">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="BN124">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="BO124">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP124">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26644,7 +26656,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7478866</v>
+        <v>7478871</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26653,16 +26665,16 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45587.65625</v>
+        <v>45586.875</v>
       </c>
       <c r="F125">
         <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H125" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I125">
         <v>2</v>
@@ -26677,172 +26689,172 @@
         <v>2</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O125" t="s">
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q125">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="R125">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="S125">
+        <v>3.75</v>
+      </c>
+      <c r="T125">
+        <v>1.4</v>
+      </c>
+      <c r="U125">
+        <v>2.75</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>9</v>
+      </c>
+      <c r="Y125">
+        <v>1.07</v>
+      </c>
+      <c r="Z125">
+        <v>2.4</v>
+      </c>
+      <c r="AA125">
+        <v>3.3</v>
+      </c>
+      <c r="AB125">
+        <v>2.98</v>
+      </c>
+      <c r="AC125">
+        <v>1.07</v>
+      </c>
+      <c r="AD125">
+        <v>10</v>
+      </c>
+      <c r="AE125">
+        <v>1.36</v>
+      </c>
+      <c r="AF125">
+        <v>3.2</v>
+      </c>
+      <c r="AG125">
+        <v>2.05</v>
+      </c>
+      <c r="AH125">
+        <v>1.72</v>
+      </c>
+      <c r="AI125">
+        <v>1.8</v>
+      </c>
+      <c r="AJ125">
+        <v>1.91</v>
+      </c>
+      <c r="AK125">
+        <v>1.4</v>
+      </c>
+      <c r="AL125">
+        <v>1.28</v>
+      </c>
+      <c r="AM125">
+        <v>1.6</v>
+      </c>
+      <c r="AN125">
+        <v>1.4</v>
+      </c>
+      <c r="AO125">
+        <v>1</v>
+      </c>
+      <c r="AP125">
+        <v>1.33</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AR125">
+        <v>1.42</v>
+      </c>
+      <c r="AS125">
+        <v>1.33</v>
+      </c>
+      <c r="AT125">
+        <v>2.75</v>
+      </c>
+      <c r="AU125">
         <v>7</v>
       </c>
-      <c r="T125">
-        <v>1.3</v>
-      </c>
-      <c r="U125">
+      <c r="AV125">
+        <v>11</v>
+      </c>
+      <c r="AW125">
+        <v>3</v>
+      </c>
+      <c r="AX125">
+        <v>10</v>
+      </c>
+      <c r="AY125">
+        <v>11</v>
+      </c>
+      <c r="AZ125">
+        <v>29</v>
+      </c>
+      <c r="BA125">
+        <v>6</v>
+      </c>
+      <c r="BB125">
+        <v>13</v>
+      </c>
+      <c r="BC125">
+        <v>19</v>
+      </c>
+      <c r="BD125">
+        <v>1.8</v>
+      </c>
+      <c r="BE125">
+        <v>6.5</v>
+      </c>
+      <c r="BF125">
+        <v>2.2</v>
+      </c>
+      <c r="BG125">
+        <v>1.26</v>
+      </c>
+      <c r="BH125">
         <v>3.4</v>
       </c>
-      <c r="V125">
-        <v>2.5</v>
-      </c>
-      <c r="W125">
-        <v>1.5</v>
-      </c>
-      <c r="X125">
-        <v>6</v>
-      </c>
-      <c r="Y125">
-        <v>1.13</v>
-      </c>
-      <c r="Z125">
-        <v>1.4</v>
-      </c>
-      <c r="AA125">
-        <v>4.9</v>
-      </c>
-      <c r="AB125">
-        <v>7.32</v>
-      </c>
-      <c r="AC125">
-        <v>1.03</v>
-      </c>
-      <c r="AD125">
-        <v>15</v>
-      </c>
-      <c r="AE125">
-        <v>1.22</v>
-      </c>
-      <c r="AF125">
-        <v>4.33</v>
-      </c>
-      <c r="AG125">
-        <v>1.55</v>
-      </c>
-      <c r="AH125">
-        <v>2.36</v>
-      </c>
-      <c r="AI125">
-        <v>1.83</v>
-      </c>
-      <c r="AJ125">
-        <v>1.83</v>
-      </c>
-      <c r="AK125">
-        <v>1.08</v>
-      </c>
-      <c r="AL125">
-        <v>1.16</v>
-      </c>
-      <c r="AM125">
-        <v>2.85</v>
-      </c>
-      <c r="AN125">
-        <v>2</v>
-      </c>
-      <c r="AO125">
-        <v>0.6</v>
-      </c>
-      <c r="AP125">
-        <v>2.17</v>
-      </c>
-      <c r="AQ125">
-        <v>0.5</v>
-      </c>
-      <c r="AR125">
-        <v>1.76</v>
-      </c>
-      <c r="AS125">
-        <v>1.04</v>
-      </c>
-      <c r="AT125">
-        <v>2.8</v>
-      </c>
-      <c r="AU125">
-        <v>8</v>
-      </c>
-      <c r="AV125">
-        <v>6</v>
-      </c>
-      <c r="AW125">
-        <v>11</v>
-      </c>
-      <c r="AX125">
-        <v>3</v>
-      </c>
-      <c r="AY125">
-        <v>25</v>
-      </c>
-      <c r="AZ125">
-        <v>12</v>
-      </c>
-      <c r="BA125">
-        <v>10</v>
-      </c>
-      <c r="BB125">
-        <v>4</v>
-      </c>
-      <c r="BC125">
-        <v>14</v>
-      </c>
-      <c r="BD125">
+      <c r="BI125">
+        <v>1.44</v>
+      </c>
+      <c r="BJ125">
+        <v>2.55</v>
+      </c>
+      <c r="BK125">
+        <v>1.72</v>
+      </c>
+      <c r="BL125">
+        <v>1.97</v>
+      </c>
+      <c r="BM125">
+        <v>2.15</v>
+      </c>
+      <c r="BN125">
+        <v>1.61</v>
+      </c>
+      <c r="BO125">
+        <v>2.7</v>
+      </c>
+      <c r="BP125">
         <v>1.38</v>
-      </c>
-      <c r="BE125">
-        <v>7</v>
-      </c>
-      <c r="BF125">
-        <v>3.4</v>
-      </c>
-      <c r="BG125">
-        <v>1.3</v>
-      </c>
-      <c r="BH125">
-        <v>3.05</v>
-      </c>
-      <c r="BI125">
-        <v>1.54</v>
-      </c>
-      <c r="BJ125">
-        <v>2.3</v>
-      </c>
-      <c r="BK125">
-        <v>1.88</v>
-      </c>
-      <c r="BL125">
-        <v>1.81</v>
-      </c>
-      <c r="BM125">
-        <v>2.38</v>
-      </c>
-      <c r="BN125">
-        <v>1.5</v>
-      </c>
-      <c r="BO125">
-        <v>3.05</v>
-      </c>
-      <c r="BP125">
-        <v>1.3</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26850,7 +26862,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7478864</v>
+        <v>7478866</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26859,16 +26871,16 @@
         <v>69</v>
       </c>
       <c r="E126" s="2">
-        <v>45587.65625</v>
+        <v>45586.875</v>
       </c>
       <c r="F126">
         <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H126" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -26883,172 +26895,172 @@
         <v>2</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O126" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="P126" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="Q126">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="R126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S126">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="T126">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U126">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V126">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W126">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X126">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y126">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z126">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AA126">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="AB126">
-        <v>3.51</v>
+        <v>7.32</v>
       </c>
       <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>15</v>
+      </c>
+      <c r="AE126">
+        <v>1.22</v>
+      </c>
+      <c r="AF126">
+        <v>4.33</v>
+      </c>
+      <c r="AG126">
+        <v>1.55</v>
+      </c>
+      <c r="AH126">
+        <v>2.36</v>
+      </c>
+      <c r="AI126">
+        <v>1.83</v>
+      </c>
+      <c r="AJ126">
+        <v>1.83</v>
+      </c>
+      <c r="AK126">
+        <v>1.08</v>
+      </c>
+      <c r="AL126">
+        <v>1.16</v>
+      </c>
+      <c r="AM126">
+        <v>2.85</v>
+      </c>
+      <c r="AN126">
+        <v>2</v>
+      </c>
+      <c r="AO126">
+        <v>0.6</v>
+      </c>
+      <c r="AP126">
+        <v>2.17</v>
+      </c>
+      <c r="AQ126">
+        <v>0.5</v>
+      </c>
+      <c r="AR126">
+        <v>1.76</v>
+      </c>
+      <c r="AS126">
         <v>1.04</v>
       </c>
-      <c r="AD126">
+      <c r="AT126">
+        <v>2.8</v>
+      </c>
+      <c r="AU126">
+        <v>8</v>
+      </c>
+      <c r="AV126">
+        <v>6</v>
+      </c>
+      <c r="AW126">
+        <v>11</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>25</v>
+      </c>
+      <c r="AZ126">
         <v>12</v>
       </c>
-      <c r="AE126">
+      <c r="BA126">
+        <v>10</v>
+      </c>
+      <c r="BB126">
+        <v>4</v>
+      </c>
+      <c r="BC126">
+        <v>14</v>
+      </c>
+      <c r="BD126">
+        <v>1.38</v>
+      </c>
+      <c r="BE126">
+        <v>7</v>
+      </c>
+      <c r="BF126">
+        <v>3.4</v>
+      </c>
+      <c r="BG126">
         <v>1.3</v>
       </c>
-      <c r="AF126">
-        <v>3.6</v>
-      </c>
-      <c r="AG126">
-        <v>1.85</v>
-      </c>
-      <c r="AH126">
-        <v>1.89</v>
-      </c>
-      <c r="AI126">
-        <v>1.62</v>
-      </c>
-      <c r="AJ126">
-        <v>2.2</v>
-      </c>
-      <c r="AK126">
+      <c r="BH126">
+        <v>3.05</v>
+      </c>
+      <c r="BI126">
+        <v>1.54</v>
+      </c>
+      <c r="BJ126">
+        <v>2.3</v>
+      </c>
+      <c r="BK126">
+        <v>1.88</v>
+      </c>
+      <c r="BL126">
+        <v>1.81</v>
+      </c>
+      <c r="BM126">
+        <v>2.38</v>
+      </c>
+      <c r="BN126">
+        <v>1.5</v>
+      </c>
+      <c r="BO126">
+        <v>3.05</v>
+      </c>
+      <c r="BP126">
         <v>1.3</v>
-      </c>
-      <c r="AL126">
-        <v>1.24</v>
-      </c>
-      <c r="AM126">
-        <v>1.83</v>
-      </c>
-      <c r="AN126">
-        <v>1.2</v>
-      </c>
-      <c r="AO126">
-        <v>1</v>
-      </c>
-      <c r="AP126">
-        <v>1.5</v>
-      </c>
-      <c r="AQ126">
-        <v>0.83</v>
-      </c>
-      <c r="AR126">
-        <v>1.35</v>
-      </c>
-      <c r="AS126">
-        <v>0.91</v>
-      </c>
-      <c r="AT126">
-        <v>2.26</v>
-      </c>
-      <c r="AU126">
-        <v>11</v>
-      </c>
-      <c r="AV126">
-        <v>3</v>
-      </c>
-      <c r="AW126">
-        <v>9</v>
-      </c>
-      <c r="AX126">
-        <v>3</v>
-      </c>
-      <c r="AY126">
-        <v>27</v>
-      </c>
-      <c r="AZ126">
-        <v>9</v>
-      </c>
-      <c r="BA126">
-        <v>12</v>
-      </c>
-      <c r="BB126">
-        <v>5</v>
-      </c>
-      <c r="BC126">
-        <v>17</v>
-      </c>
-      <c r="BD126">
-        <v>1.5</v>
-      </c>
-      <c r="BE126">
-        <v>6.75</v>
-      </c>
-      <c r="BF126">
-        <v>2.9</v>
-      </c>
-      <c r="BG126">
-        <v>1.38</v>
-      </c>
-      <c r="BH126">
-        <v>2.75</v>
-      </c>
-      <c r="BI126">
-        <v>1.66</v>
-      </c>
-      <c r="BJ126">
-        <v>2.07</v>
-      </c>
-      <c r="BK126">
-        <v>2.06</v>
-      </c>
-      <c r="BL126">
-        <v>1.66</v>
-      </c>
-      <c r="BM126">
-        <v>2.65</v>
-      </c>
-      <c r="BN126">
-        <v>1.41</v>
-      </c>
-      <c r="BO126">
-        <v>3.45</v>
-      </c>
-      <c r="BP126">
-        <v>1.25</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -27056,7 +27068,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7478867</v>
+        <v>7478864</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27065,196 +27077,196 @@
         <v>69</v>
       </c>
       <c r="E127" s="2">
-        <v>45587.65625</v>
+        <v>45586.875</v>
       </c>
       <c r="F127">
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H127" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>2</v>
       </c>
       <c r="O127" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P127" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="Q127">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R127">
+        <v>2.25</v>
+      </c>
+      <c r="S127">
+        <v>3.75</v>
+      </c>
+      <c r="T127">
+        <v>1.33</v>
+      </c>
+      <c r="U127">
+        <v>3.25</v>
+      </c>
+      <c r="V127">
+        <v>2.63</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>6.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.11</v>
+      </c>
+      <c r="Z127">
+        <v>2</v>
+      </c>
+      <c r="AA127">
+        <v>3.7</v>
+      </c>
+      <c r="AB127">
+        <v>3.51</v>
+      </c>
+      <c r="AC127">
+        <v>1.04</v>
+      </c>
+      <c r="AD127">
+        <v>12</v>
+      </c>
+      <c r="AE127">
+        <v>1.3</v>
+      </c>
+      <c r="AF127">
+        <v>3.6</v>
+      </c>
+      <c r="AG127">
+        <v>1.85</v>
+      </c>
+      <c r="AH127">
+        <v>1.89</v>
+      </c>
+      <c r="AI127">
+        <v>1.62</v>
+      </c>
+      <c r="AJ127">
         <v>2.2</v>
       </c>
-      <c r="S127">
-        <v>3.4</v>
-      </c>
-      <c r="T127">
-        <v>1.36</v>
-      </c>
-      <c r="U127">
-        <v>3</v>
-      </c>
-      <c r="V127">
-        <v>2.75</v>
-      </c>
-      <c r="W127">
-        <v>1.4</v>
-      </c>
-      <c r="X127">
-        <v>7</v>
-      </c>
-      <c r="Y127">
-        <v>1.1</v>
-      </c>
-      <c r="Z127">
-        <v>2.38</v>
-      </c>
-      <c r="AA127">
-        <v>3.45</v>
-      </c>
-      <c r="AB127">
-        <v>2.9</v>
-      </c>
-      <c r="AC127">
-        <v>1.05</v>
-      </c>
-      <c r="AD127">
+      <c r="AK127">
+        <v>1.3</v>
+      </c>
+      <c r="AL127">
+        <v>1.24</v>
+      </c>
+      <c r="AM127">
+        <v>1.83</v>
+      </c>
+      <c r="AN127">
+        <v>1.2</v>
+      </c>
+      <c r="AO127">
+        <v>1</v>
+      </c>
+      <c r="AP127">
+        <v>1.5</v>
+      </c>
+      <c r="AQ127">
+        <v>0.83</v>
+      </c>
+      <c r="AR127">
+        <v>1.35</v>
+      </c>
+      <c r="AS127">
+        <v>0.91</v>
+      </c>
+      <c r="AT127">
+        <v>2.26</v>
+      </c>
+      <c r="AU127">
         <v>11</v>
       </c>
-      <c r="AE127">
-        <v>1.32</v>
-      </c>
-      <c r="AF127">
-        <v>3.4</v>
-      </c>
-      <c r="AG127">
-        <v>1.95</v>
-      </c>
-      <c r="AH127">
-        <v>1.8</v>
-      </c>
-      <c r="AI127">
-        <v>1.67</v>
-      </c>
-      <c r="AJ127">
-        <v>2.1</v>
-      </c>
-      <c r="AK127">
-        <v>1.42</v>
-      </c>
-      <c r="AL127">
-        <v>1.28</v>
-      </c>
-      <c r="AM127">
-        <v>1.58</v>
-      </c>
-      <c r="AN127">
-        <v>2.2</v>
-      </c>
-      <c r="AO127">
-        <v>0.2</v>
-      </c>
-      <c r="AP127">
-        <v>2</v>
-      </c>
-      <c r="AQ127">
-        <v>0.33</v>
-      </c>
-      <c r="AR127">
-        <v>1.11</v>
-      </c>
-      <c r="AS127">
-        <v>1.03</v>
-      </c>
-      <c r="AT127">
-        <v>2.14</v>
-      </c>
-      <c r="AU127">
-        <v>4</v>
-      </c>
       <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>9</v>
+      </c>
+      <c r="AX127">
+        <v>3</v>
+      </c>
+      <c r="AY127">
+        <v>27</v>
+      </c>
+      <c r="AZ127">
+        <v>9</v>
+      </c>
+      <c r="BA127">
+        <v>12</v>
+      </c>
+      <c r="BB127">
         <v>5</v>
       </c>
-      <c r="AW127">
-        <v>3</v>
-      </c>
-      <c r="AX127">
-        <v>8</v>
-      </c>
-      <c r="AY127">
-        <v>12</v>
-      </c>
-      <c r="AZ127">
-        <v>19</v>
-      </c>
-      <c r="BA127">
-        <v>1</v>
-      </c>
-      <c r="BB127">
-        <v>6</v>
-      </c>
       <c r="BC127">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD127">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="BE127">
         <v>6.75</v>
       </c>
       <c r="BF127">
-        <v>1.84</v>
+        <v>2.9</v>
       </c>
       <c r="BG127">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="BH127">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="BI127">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="BJ127">
-        <v>2.8</v>
+        <v>2.07</v>
       </c>
       <c r="BK127">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="BL127">
-        <v>2.17</v>
+        <v>1.66</v>
       </c>
       <c r="BM127">
-        <v>1.94</v>
+        <v>2.65</v>
       </c>
       <c r="BN127">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="BO127">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="BP127">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -27262,7 +27274,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7478869</v>
+        <v>7478867</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27271,22 +27283,22 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45587.66666666666</v>
+        <v>45586.875</v>
       </c>
       <c r="F128">
         <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H128" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128">
         <v>1</v>
@@ -27301,19 +27313,19 @@
         <v>2</v>
       </c>
       <c r="O128" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P128" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="Q128">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R128">
         <v>2.2</v>
       </c>
       <c r="S128">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T128">
         <v>1.36</v>
@@ -27334,133 +27346,1163 @@
         <v>1.1</v>
       </c>
       <c r="Z128">
-        <v>2.94</v>
+        <v>2.38</v>
       </c>
       <c r="AA128">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AB128">
-        <v>2.43</v>
+        <v>2.9</v>
       </c>
       <c r="AC128">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD128">
         <v>11</v>
       </c>
       <c r="AE128">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AF128">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AG128">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AH128">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AI128">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AJ128">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK128">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AL128">
         <v>1.28</v>
       </c>
       <c r="AM128">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AN128">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="AO128">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AP128">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR128">
-        <v>1.8</v>
+        <v>1.11</v>
       </c>
       <c r="AS128">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AT128">
-        <v>2.87</v>
+        <v>2.14</v>
       </c>
       <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>3</v>
+      </c>
+      <c r="AX128">
+        <v>8</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>19</v>
+      </c>
+      <c r="BA128">
+        <v>1</v>
+      </c>
+      <c r="BB128">
         <v>6</v>
       </c>
-      <c r="AV128">
-        <v>4</v>
-      </c>
-      <c r="AW128">
-        <v>3</v>
-      </c>
-      <c r="AX128">
-        <v>3</v>
-      </c>
-      <c r="AY128">
-        <v>17</v>
-      </c>
-      <c r="AZ128">
-        <v>9</v>
-      </c>
-      <c r="BA128">
+      <c r="BC128">
         <v>7</v>
       </c>
-      <c r="BB128">
-        <v>3</v>
-      </c>
-      <c r="BC128">
-        <v>10</v>
-      </c>
       <c r="BD128">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="BE128">
         <v>6.75</v>
       </c>
       <c r="BF128">
+        <v>1.84</v>
+      </c>
+      <c r="BG128">
+        <v>1.2</v>
+      </c>
+      <c r="BH128">
+        <v>3.9</v>
+      </c>
+      <c r="BI128">
+        <v>1.36</v>
+      </c>
+      <c r="BJ128">
+        <v>2.8</v>
+      </c>
+      <c r="BK128">
+        <v>1.6</v>
+      </c>
+      <c r="BL128">
+        <v>2.17</v>
+      </c>
+      <c r="BM128">
+        <v>1.94</v>
+      </c>
+      <c r="BN128">
+        <v>1.76</v>
+      </c>
+      <c r="BO128">
+        <v>2.4</v>
+      </c>
+      <c r="BP128">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7478865</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45588.65625</v>
+      </c>
+      <c r="F129">
+        <v>11</v>
+      </c>
+      <c r="G129" t="s">
+        <v>77</v>
+      </c>
+      <c r="H129" t="s">
+        <v>91</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>188</v>
+      </c>
+      <c r="P129" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q129">
+        <v>3.2</v>
+      </c>
+      <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>3.5</v>
+      </c>
+      <c r="T129">
+        <v>1.44</v>
+      </c>
+      <c r="U129">
+        <v>2.63</v>
+      </c>
+      <c r="V129">
+        <v>3.25</v>
+      </c>
+      <c r="W129">
+        <v>1.33</v>
+      </c>
+      <c r="X129">
+        <v>9</v>
+      </c>
+      <c r="Y129">
+        <v>1.07</v>
+      </c>
+      <c r="Z129">
+        <v>2.6</v>
+      </c>
+      <c r="AA129">
+        <v>3.45</v>
+      </c>
+      <c r="AB129">
+        <v>2.85</v>
+      </c>
+      <c r="AC129">
+        <v>1.06</v>
+      </c>
+      <c r="AD129">
+        <v>10</v>
+      </c>
+      <c r="AE129">
+        <v>1.36</v>
+      </c>
+      <c r="AF129">
+        <v>3.2</v>
+      </c>
+      <c r="AG129">
+        <v>2.05</v>
+      </c>
+      <c r="AH129">
+        <v>1.78</v>
+      </c>
+      <c r="AI129">
+        <v>1.83</v>
+      </c>
+      <c r="AJ129">
+        <v>1.83</v>
+      </c>
+      <c r="AK129">
+        <v>1.47</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.55</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
+        <v>2</v>
+      </c>
+      <c r="AP129">
+        <v>1</v>
+      </c>
+      <c r="AQ129">
+        <v>1.83</v>
+      </c>
+      <c r="AR129">
+        <v>1.4</v>
+      </c>
+      <c r="AS129">
+        <v>1.11</v>
+      </c>
+      <c r="AT129">
+        <v>2.51</v>
+      </c>
+      <c r="AU129">
+        <v>3</v>
+      </c>
+      <c r="AV129">
+        <v>6</v>
+      </c>
+      <c r="AW129">
+        <v>6</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>12</v>
+      </c>
+      <c r="AZ129">
+        <v>12</v>
+      </c>
+      <c r="BA129">
+        <v>4</v>
+      </c>
+      <c r="BB129">
+        <v>8</v>
+      </c>
+      <c r="BC129">
+        <v>12</v>
+      </c>
+      <c r="BD129">
+        <v>1.95</v>
+      </c>
+      <c r="BE129">
+        <v>7</v>
+      </c>
+      <c r="BF129">
+        <v>1.98</v>
+      </c>
+      <c r="BG129">
+        <v>1.14</v>
+      </c>
+      <c r="BH129">
+        <v>4.8</v>
+      </c>
+      <c r="BI129">
+        <v>1.26</v>
+      </c>
+      <c r="BJ129">
+        <v>3.4</v>
+      </c>
+      <c r="BK129">
+        <v>1.44</v>
+      </c>
+      <c r="BL129">
+        <v>2.55</v>
+      </c>
+      <c r="BM129">
+        <v>1.72</v>
+      </c>
+      <c r="BN129">
+        <v>1.98</v>
+      </c>
+      <c r="BO129">
+        <v>2.06</v>
+      </c>
+      <c r="BP129">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7478872</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45588.65625</v>
+      </c>
+      <c r="F130">
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>70</v>
+      </c>
+      <c r="H130" t="s">
+        <v>83</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>95</v>
+      </c>
+      <c r="P130" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q130">
+        <v>3.6</v>
+      </c>
+      <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
+        <v>3.1</v>
+      </c>
+      <c r="T130">
+        <v>1.44</v>
+      </c>
+      <c r="U130">
+        <v>2.63</v>
+      </c>
+      <c r="V130">
+        <v>3.25</v>
+      </c>
+      <c r="W130">
+        <v>1.33</v>
+      </c>
+      <c r="X130">
+        <v>9</v>
+      </c>
+      <c r="Y130">
+        <v>1.07</v>
+      </c>
+      <c r="Z130">
+        <v>3</v>
+      </c>
+      <c r="AA130">
+        <v>3.55</v>
+      </c>
+      <c r="AB130">
+        <v>2.42</v>
+      </c>
+      <c r="AC130">
+        <v>1.07</v>
+      </c>
+      <c r="AD130">
+        <v>9.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.36</v>
+      </c>
+      <c r="AF130">
+        <v>3.2</v>
+      </c>
+      <c r="AG130">
+        <v>2.1</v>
+      </c>
+      <c r="AH130">
+        <v>1.75</v>
+      </c>
+      <c r="AI130">
+        <v>1.83</v>
+      </c>
+      <c r="AJ130">
+        <v>1.83</v>
+      </c>
+      <c r="AK130">
+        <v>1.53</v>
+      </c>
+      <c r="AL130">
+        <v>1.3</v>
+      </c>
+      <c r="AM130">
+        <v>1.47</v>
+      </c>
+      <c r="AN130">
+        <v>3</v>
+      </c>
+      <c r="AO130">
+        <v>2</v>
+      </c>
+      <c r="AP130">
+        <v>2.67</v>
+      </c>
+      <c r="AQ130">
+        <v>1.83</v>
+      </c>
+      <c r="AR130">
+        <v>1.41</v>
+      </c>
+      <c r="AS130">
+        <v>1.26</v>
+      </c>
+      <c r="AT130">
+        <v>2.67</v>
+      </c>
+      <c r="AU130">
+        <v>3</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>3</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>9</v>
+      </c>
+      <c r="AZ130">
+        <v>10</v>
+      </c>
+      <c r="BA130">
+        <v>4</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>2</v>
+      </c>
+      <c r="BE130">
+        <v>6.75</v>
+      </c>
+      <c r="BF130">
+        <v>1.95</v>
+      </c>
+      <c r="BG130">
+        <v>1.16</v>
+      </c>
+      <c r="BH130">
+        <v>4.3</v>
+      </c>
+      <c r="BI130">
+        <v>1.3</v>
+      </c>
+      <c r="BJ130">
+        <v>3.05</v>
+      </c>
+      <c r="BK130">
+        <v>1.52</v>
+      </c>
+      <c r="BL130">
+        <v>2.32</v>
+      </c>
+      <c r="BM130">
+        <v>1.84</v>
+      </c>
+      <c r="BN130">
+        <v>1.84</v>
+      </c>
+      <c r="BO130">
+        <v>2.28</v>
+      </c>
+      <c r="BP130">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7478873</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45588.65625</v>
+      </c>
+      <c r="F131">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>81</v>
+      </c>
+      <c r="H131" t="s">
+        <v>93</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>182</v>
+      </c>
+      <c r="P131" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q131">
+        <v>3.1</v>
+      </c>
+      <c r="R131">
+        <v>2.2</v>
+      </c>
+      <c r="S131">
+        <v>3.4</v>
+      </c>
+      <c r="T131">
+        <v>1.4</v>
+      </c>
+      <c r="U131">
+        <v>2.75</v>
+      </c>
+      <c r="V131">
+        <v>2.75</v>
+      </c>
+      <c r="W131">
+        <v>1.4</v>
+      </c>
+      <c r="X131">
+        <v>8</v>
+      </c>
+      <c r="Y131">
+        <v>1.08</v>
+      </c>
+      <c r="Z131">
+        <v>2.55</v>
+      </c>
+      <c r="AA131">
+        <v>3.45</v>
+      </c>
+      <c r="AB131">
+        <v>2.9</v>
+      </c>
+      <c r="AC131">
+        <v>1.06</v>
+      </c>
+      <c r="AD131">
+        <v>8.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.3</v>
+      </c>
+      <c r="AF131">
+        <v>3.45</v>
+      </c>
+      <c r="AG131">
+        <v>1.94</v>
+      </c>
+      <c r="AH131">
+        <v>1.94</v>
+      </c>
+      <c r="AI131">
+        <v>1.67</v>
+      </c>
+      <c r="AJ131">
+        <v>2.1</v>
+      </c>
+      <c r="AK131">
+        <v>1.42</v>
+      </c>
+      <c r="AL131">
+        <v>1.28</v>
+      </c>
+      <c r="AM131">
+        <v>1.53</v>
+      </c>
+      <c r="AN131">
+        <v>1.4</v>
+      </c>
+      <c r="AO131">
+        <v>1.8</v>
+      </c>
+      <c r="AP131">
+        <v>1.17</v>
+      </c>
+      <c r="AQ131">
+        <v>2</v>
+      </c>
+      <c r="AR131">
+        <v>1.3</v>
+      </c>
+      <c r="AS131">
+        <v>1.43</v>
+      </c>
+      <c r="AT131">
+        <v>2.73</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>6</v>
+      </c>
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>1</v>
+      </c>
+      <c r="AY131">
+        <v>20</v>
+      </c>
+      <c r="AZ131">
+        <v>11</v>
+      </c>
+      <c r="BA131">
+        <v>10</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>13</v>
+      </c>
+      <c r="BD131">
+        <v>1.48</v>
+      </c>
+      <c r="BE131">
+        <v>7.5</v>
+      </c>
+      <c r="BF131">
+        <v>2.9</v>
+      </c>
+      <c r="BG131">
+        <v>1.15</v>
+      </c>
+      <c r="BH131">
+        <v>4.6</v>
+      </c>
+      <c r="BI131">
+        <v>1.28</v>
+      </c>
+      <c r="BJ131">
+        <v>3.25</v>
+      </c>
+      <c r="BK131">
+        <v>1.47</v>
+      </c>
+      <c r="BL131">
+        <v>2.48</v>
+      </c>
+      <c r="BM131">
+        <v>1.72</v>
+      </c>
+      <c r="BN131">
         <v>1.97</v>
       </c>
-      <c r="BG128">
+      <c r="BO131">
+        <v>2.1</v>
+      </c>
+      <c r="BP131">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7478875</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45588.65625</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>74</v>
+      </c>
+      <c r="H132" t="s">
+        <v>92</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>180</v>
+      </c>
+      <c r="P132" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q132">
+        <v>2.2</v>
+      </c>
+      <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>1.4</v>
+      </c>
+      <c r="U132">
+        <v>2.75</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132">
+        <v>1.36</v>
+      </c>
+      <c r="X132">
+        <v>8</v>
+      </c>
+      <c r="Y132">
+        <v>1.08</v>
+      </c>
+      <c r="Z132">
+        <v>1.64</v>
+      </c>
+      <c r="AA132">
+        <v>4.2</v>
+      </c>
+      <c r="AB132">
+        <v>5.6</v>
+      </c>
+      <c r="AC132">
+        <v>1.05</v>
+      </c>
+      <c r="AD132">
+        <v>11</v>
+      </c>
+      <c r="AE132">
+        <v>1.33</v>
+      </c>
+      <c r="AF132">
+        <v>3.4</v>
+      </c>
+      <c r="AG132">
+        <v>2.05</v>
+      </c>
+      <c r="AH132">
+        <v>1.84</v>
+      </c>
+      <c r="AI132">
+        <v>2</v>
+      </c>
+      <c r="AJ132">
+        <v>1.73</v>
+      </c>
+      <c r="AK132">
         <v>1.16</v>
       </c>
-      <c r="BH128">
-        <v>4.4</v>
-      </c>
-      <c r="BI128">
-        <v>1.29</v>
-      </c>
-      <c r="BJ128">
-        <v>3.2</v>
-      </c>
-      <c r="BK128">
-        <v>1.49</v>
-      </c>
-      <c r="BL128">
-        <v>2.4</v>
-      </c>
-      <c r="BM128">
-        <v>1.76</v>
-      </c>
-      <c r="BN128">
-        <v>1.94</v>
-      </c>
-      <c r="BO128">
-        <v>2.17</v>
-      </c>
-      <c r="BP128">
+      <c r="AL132">
+        <v>1.22</v>
+      </c>
+      <c r="AM132">
+        <v>2.3</v>
+      </c>
+      <c r="AN132">
+        <v>1.4</v>
+      </c>
+      <c r="AO132">
+        <v>0.2</v>
+      </c>
+      <c r="AP132">
+        <v>1.67</v>
+      </c>
+      <c r="AQ132">
+        <v>0.17</v>
+      </c>
+      <c r="AR132">
+        <v>1.45</v>
+      </c>
+      <c r="AS132">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT132">
+        <v>2.26</v>
+      </c>
+      <c r="AU132">
+        <v>7</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>2</v>
+      </c>
+      <c r="AY132">
+        <v>14</v>
+      </c>
+      <c r="AZ132">
+        <v>10</v>
+      </c>
+      <c r="BA132">
+        <v>6</v>
+      </c>
+      <c r="BB132">
+        <v>2</v>
+      </c>
+      <c r="BC132">
+        <v>8</v>
+      </c>
+      <c r="BD132">
+        <v>1.63</v>
+      </c>
+      <c r="BE132">
+        <v>6.75</v>
+      </c>
+      <c r="BF132">
+        <v>2.48</v>
+      </c>
+      <c r="BG132">
+        <v>1.15</v>
+      </c>
+      <c r="BH132">
+        <v>4.6</v>
+      </c>
+      <c r="BI132">
+        <v>1.28</v>
+      </c>
+      <c r="BJ132">
+        <v>3.3</v>
+      </c>
+      <c r="BK132">
+        <v>1.46</v>
+      </c>
+      <c r="BL132">
+        <v>2.48</v>
+      </c>
+      <c r="BM132">
+        <v>1.73</v>
+      </c>
+      <c r="BN132">
+        <v>1.96</v>
+      </c>
+      <c r="BO132">
+        <v>2.14</v>
+      </c>
+      <c r="BP132">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7478874</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45588.66666666666</v>
+      </c>
+      <c r="F133">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>79</v>
+      </c>
+      <c r="H133" t="s">
+        <v>86</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>189</v>
+      </c>
+      <c r="P133" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q133">
+        <v>2.75</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>4</v>
+      </c>
+      <c r="T133">
+        <v>1.44</v>
+      </c>
+      <c r="U133">
+        <v>2.63</v>
+      </c>
+      <c r="V133">
+        <v>3</v>
+      </c>
+      <c r="W133">
+        <v>1.36</v>
+      </c>
+      <c r="X133">
+        <v>9</v>
+      </c>
+      <c r="Y133">
+        <v>1.07</v>
+      </c>
+      <c r="Z133">
+        <v>2.16</v>
+      </c>
+      <c r="AA133">
+        <v>3.55</v>
+      </c>
+      <c r="AB133">
+        <v>3.55</v>
+      </c>
+      <c r="AC133">
+        <v>1.06</v>
+      </c>
+      <c r="AD133">
+        <v>11</v>
+      </c>
+      <c r="AE133">
+        <v>1.33</v>
+      </c>
+      <c r="AF133">
+        <v>3.4</v>
+      </c>
+      <c r="AG133">
+        <v>1.88</v>
+      </c>
+      <c r="AH133">
+        <v>1.92</v>
+      </c>
+      <c r="AI133">
+        <v>1.83</v>
+      </c>
+      <c r="AJ133">
+        <v>1.83</v>
+      </c>
+      <c r="AK133">
+        <v>1.32</v>
+      </c>
+      <c r="AL133">
+        <v>1.28</v>
+      </c>
+      <c r="AM133">
+        <v>1.75</v>
+      </c>
+      <c r="AN133">
         <v>1.6</v>
+      </c>
+      <c r="AO133">
+        <v>1.6</v>
+      </c>
+      <c r="AP133">
+        <v>1.83</v>
+      </c>
+      <c r="AQ133">
+        <v>1.33</v>
+      </c>
+      <c r="AR133">
+        <v>1.89</v>
+      </c>
+      <c r="AS133">
+        <v>1.21</v>
+      </c>
+      <c r="AT133">
+        <v>3.1</v>
+      </c>
+      <c r="AU133">
+        <v>7</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>5</v>
+      </c>
+      <c r="AX133">
+        <v>2</v>
+      </c>
+      <c r="AY133">
+        <v>19</v>
+      </c>
+      <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>8</v>
+      </c>
+      <c r="BB133">
+        <v>6</v>
+      </c>
+      <c r="BC133">
+        <v>14</v>
+      </c>
+      <c r="BD133">
+        <v>1.74</v>
+      </c>
+      <c r="BE133">
+        <v>7</v>
+      </c>
+      <c r="BF133">
+        <v>2.25</v>
+      </c>
+      <c r="BG133">
+        <v>1.11</v>
+      </c>
+      <c r="BH133">
+        <v>5.3</v>
+      </c>
+      <c r="BI133">
+        <v>1.2</v>
+      </c>
+      <c r="BJ133">
+        <v>3.9</v>
+      </c>
+      <c r="BK133">
+        <v>1.35</v>
+      </c>
+      <c r="BL133">
+        <v>2.88</v>
+      </c>
+      <c r="BM133">
+        <v>1.57</v>
+      </c>
+      <c r="BN133">
+        <v>2.23</v>
+      </c>
+      <c r="BO133">
+        <v>1.88</v>
+      </c>
+      <c r="BP133">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -562,9 +562,6 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['63']</t>
-  </si>
-  <si>
     <t>['6', '12']</t>
   </si>
   <si>
@@ -578,6 +575,9 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
   <si>
     <t>['45']</t>
@@ -5892,7 +5892,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -25874,7 +25874,7 @@
         <v>95</v>
       </c>
       <c r="P121" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26047,10 +26047,10 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F122">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>80</v>
@@ -26244,7 +26244,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7478869</v>
+        <v>7478868</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26253,49 +26253,49 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F123">
         <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H123" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123">
         <v>1</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O123" t="s">
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="Q123">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R123">
         <v>2.2</v>
       </c>
       <c r="S123">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T123">
         <v>1.36</v>
@@ -26316,70 +26316,70 @@
         <v>1.1</v>
       </c>
       <c r="Z123">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="AA123">
         <v>3.3</v>
       </c>
       <c r="AB123">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="AC123">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD123">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE123">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AF123">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AG123">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="AH123">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="AI123">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AJ123">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK123">
         <v>1.58</v>
       </c>
       <c r="AL123">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM123">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AN123">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="AO123">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ123">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="AS123">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT123">
-        <v>2.87</v>
+        <v>2.29</v>
       </c>
       <c r="AU123">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV123">
         <v>4</v>
@@ -26391,58 +26391,58 @@
         <v>3</v>
       </c>
       <c r="AY123">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
         <v>7</v>
-      </c>
-      <c r="BB123">
-        <v>3</v>
-      </c>
-      <c r="BC123">
-        <v>10</v>
       </c>
       <c r="BD123">
         <v>1.98</v>
       </c>
       <c r="BE123">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF123">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="BG123">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="BH123">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="BI123">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="BJ123">
-        <v>3.2</v>
+        <v>2.43</v>
       </c>
       <c r="BK123">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="BL123">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="BM123">
-        <v>1.76</v>
+        <v>2.23</v>
       </c>
       <c r="BN123">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="BO123">
-        <v>2.17</v>
+        <v>2.9</v>
       </c>
       <c r="BP123">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26450,7 +26450,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7478868</v>
+        <v>7478871</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26459,25 +26459,25 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F124">
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L124">
         <v>2</v>
@@ -26492,43 +26492,43 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q124">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R124">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S124">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T124">
+        <v>1.4</v>
+      </c>
+      <c r="U124">
+        <v>2.75</v>
+      </c>
+      <c r="V124">
+        <v>3</v>
+      </c>
+      <c r="W124">
         <v>1.36</v>
       </c>
-      <c r="U124">
-        <v>3</v>
-      </c>
-      <c r="V124">
-        <v>2.75</v>
-      </c>
-      <c r="W124">
-        <v>1.4</v>
-      </c>
       <c r="X124">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y124">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z124">
-        <v>2.91</v>
+        <v>2.4</v>
       </c>
       <c r="AA124">
         <v>3.3</v>
       </c>
       <c r="AB124">
-        <v>2.45</v>
+        <v>2.98</v>
       </c>
       <c r="AC124">
         <v>1.07</v>
@@ -26537,118 +26537,118 @@
         <v>10</v>
       </c>
       <c r="AE124">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AF124">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AG124">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AH124">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AI124">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ124">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AK124">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AL124">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM124">
+        <v>1.6</v>
+      </c>
+      <c r="AN124">
+        <v>1.4</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>1.33</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
         <v>1.42</v>
       </c>
-      <c r="AN124">
-        <v>2</v>
-      </c>
-      <c r="AO124">
-        <v>1.4</v>
-      </c>
-      <c r="AP124">
-        <v>1.83</v>
-      </c>
-      <c r="AQ124">
+      <c r="AS124">
         <v>1.33</v>
       </c>
-      <c r="AR124">
-        <v>1.29</v>
-      </c>
-      <c r="AS124">
-        <v>1</v>
-      </c>
       <c r="AT124">
-        <v>2.29</v>
+        <v>2.75</v>
       </c>
       <c r="AU124">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV124">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AW124">
         <v>3</v>
       </c>
       <c r="AX124">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AY124">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ124">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="BA124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB124">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BC124">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BD124">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="BE124">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF124">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="BG124">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BH124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI124">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="BJ124">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="BK124">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="BL124">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="BM124">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="BN124">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="BO124">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BP124">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26656,7 +26656,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7478871</v>
+        <v>7478866</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26665,16 +26665,16 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F125">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H125" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I125">
         <v>2</v>
@@ -26689,172 +26689,172 @@
         <v>2</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O125" t="s">
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q125">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="R125">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="S125">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="T125">
+        <v>1.3</v>
+      </c>
+      <c r="U125">
+        <v>3.4</v>
+      </c>
+      <c r="V125">
+        <v>2.5</v>
+      </c>
+      <c r="W125">
+        <v>1.5</v>
+      </c>
+      <c r="X125">
+        <v>6</v>
+      </c>
+      <c r="Y125">
+        <v>1.13</v>
+      </c>
+      <c r="Z125">
         <v>1.4</v>
       </c>
-      <c r="U125">
-        <v>2.75</v>
-      </c>
-      <c r="V125">
-        <v>3</v>
-      </c>
-      <c r="W125">
-        <v>1.36</v>
-      </c>
-      <c r="X125">
-        <v>9</v>
-      </c>
-      <c r="Y125">
-        <v>1.07</v>
-      </c>
-      <c r="Z125">
-        <v>2.4</v>
-      </c>
       <c r="AA125">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="AB125">
-        <v>2.98</v>
+        <v>7.32</v>
       </c>
       <c r="AC125">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AD125">
+        <v>15</v>
+      </c>
+      <c r="AE125">
+        <v>1.22</v>
+      </c>
+      <c r="AF125">
+        <v>4.33</v>
+      </c>
+      <c r="AG125">
+        <v>1.55</v>
+      </c>
+      <c r="AH125">
+        <v>2.36</v>
+      </c>
+      <c r="AI125">
+        <v>1.83</v>
+      </c>
+      <c r="AJ125">
+        <v>1.83</v>
+      </c>
+      <c r="AK125">
+        <v>1.08</v>
+      </c>
+      <c r="AL125">
+        <v>1.16</v>
+      </c>
+      <c r="AM125">
+        <v>2.85</v>
+      </c>
+      <c r="AN125">
+        <v>2</v>
+      </c>
+      <c r="AO125">
+        <v>0.6</v>
+      </c>
+      <c r="AP125">
+        <v>2.17</v>
+      </c>
+      <c r="AQ125">
+        <v>0.5</v>
+      </c>
+      <c r="AR125">
+        <v>1.76</v>
+      </c>
+      <c r="AS125">
+        <v>1.04</v>
+      </c>
+      <c r="AT125">
+        <v>2.8</v>
+      </c>
+      <c r="AU125">
+        <v>8</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>11</v>
+      </c>
+      <c r="AX125">
+        <v>3</v>
+      </c>
+      <c r="AY125">
+        <v>25</v>
+      </c>
+      <c r="AZ125">
+        <v>12</v>
+      </c>
+      <c r="BA125">
         <v>10</v>
       </c>
-      <c r="AE125">
-        <v>1.36</v>
-      </c>
-      <c r="AF125">
-        <v>3.2</v>
-      </c>
-      <c r="AG125">
-        <v>2.05</v>
-      </c>
-      <c r="AH125">
-        <v>1.72</v>
-      </c>
-      <c r="AI125">
-        <v>1.8</v>
-      </c>
-      <c r="AJ125">
-        <v>1.91</v>
-      </c>
-      <c r="AK125">
-        <v>1.4</v>
-      </c>
-      <c r="AL125">
-        <v>1.28</v>
-      </c>
-      <c r="AM125">
-        <v>1.6</v>
-      </c>
-      <c r="AN125">
-        <v>1.4</v>
-      </c>
-      <c r="AO125">
-        <v>1</v>
-      </c>
-      <c r="AP125">
-        <v>1.33</v>
-      </c>
-      <c r="AQ125">
-        <v>1</v>
-      </c>
-      <c r="AR125">
-        <v>1.42</v>
-      </c>
-      <c r="AS125">
-        <v>1.33</v>
-      </c>
-      <c r="AT125">
-        <v>2.75</v>
-      </c>
-      <c r="AU125">
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>14</v>
+      </c>
+      <c r="BD125">
+        <v>1.38</v>
+      </c>
+      <c r="BE125">
         <v>7</v>
       </c>
-      <c r="AV125">
-        <v>11</v>
-      </c>
-      <c r="AW125">
-        <v>3</v>
-      </c>
-      <c r="AX125">
-        <v>10</v>
-      </c>
-      <c r="AY125">
-        <v>11</v>
-      </c>
-      <c r="AZ125">
-        <v>29</v>
-      </c>
-      <c r="BA125">
-        <v>6</v>
-      </c>
-      <c r="BB125">
-        <v>13</v>
-      </c>
-      <c r="BC125">
-        <v>19</v>
-      </c>
-      <c r="BD125">
-        <v>1.8</v>
-      </c>
-      <c r="BE125">
-        <v>6.5</v>
-      </c>
       <c r="BF125">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="BG125">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BH125">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI125">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="BJ125">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="BK125">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="BL125">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="BM125">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="BN125">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BO125">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="BP125">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26862,7 +26862,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7478866</v>
+        <v>7478864</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26871,16 +26871,16 @@
         <v>69</v>
       </c>
       <c r="E126" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F126">
         <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H126" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -26895,172 +26895,172 @@
         <v>2</v>
       </c>
       <c r="M126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O126" t="s">
         <v>185</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="Q126">
+        <v>2.63</v>
+      </c>
+      <c r="R126">
+        <v>2.25</v>
+      </c>
+      <c r="S126">
+        <v>3.75</v>
+      </c>
+      <c r="T126">
+        <v>1.33</v>
+      </c>
+      <c r="U126">
+        <v>3.25</v>
+      </c>
+      <c r="V126">
+        <v>2.63</v>
+      </c>
+      <c r="W126">
+        <v>1.44</v>
+      </c>
+      <c r="X126">
+        <v>6.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.11</v>
+      </c>
+      <c r="Z126">
+        <v>2</v>
+      </c>
+      <c r="AA126">
+        <v>3.7</v>
+      </c>
+      <c r="AB126">
+        <v>3.51</v>
+      </c>
+      <c r="AC126">
+        <v>1.04</v>
+      </c>
+      <c r="AD126">
+        <v>12</v>
+      </c>
+      <c r="AE126">
+        <v>1.3</v>
+      </c>
+      <c r="AF126">
+        <v>3.6</v>
+      </c>
+      <c r="AG126">
+        <v>1.85</v>
+      </c>
+      <c r="AH126">
+        <v>1.89</v>
+      </c>
+      <c r="AI126">
+        <v>1.62</v>
+      </c>
+      <c r="AJ126">
+        <v>2.2</v>
+      </c>
+      <c r="AK126">
+        <v>1.3</v>
+      </c>
+      <c r="AL126">
+        <v>1.24</v>
+      </c>
+      <c r="AM126">
         <v>1.83</v>
       </c>
-      <c r="R126">
-        <v>2.5</v>
-      </c>
-      <c r="S126">
-        <v>7</v>
-      </c>
-      <c r="T126">
-        <v>1.3</v>
-      </c>
-      <c r="U126">
-        <v>3.4</v>
-      </c>
-      <c r="V126">
-        <v>2.5</v>
-      </c>
-      <c r="W126">
+      <c r="AN126">
+        <v>1.2</v>
+      </c>
+      <c r="AO126">
+        <v>1</v>
+      </c>
+      <c r="AP126">
         <v>1.5</v>
       </c>
-      <c r="X126">
-        <v>6</v>
-      </c>
-      <c r="Y126">
-        <v>1.13</v>
-      </c>
-      <c r="Z126">
-        <v>1.4</v>
-      </c>
-      <c r="AA126">
-        <v>4.9</v>
-      </c>
-      <c r="AB126">
-        <v>7.32</v>
-      </c>
-      <c r="AC126">
-        <v>1.03</v>
-      </c>
-      <c r="AD126">
-        <v>15</v>
-      </c>
-      <c r="AE126">
-        <v>1.22</v>
-      </c>
-      <c r="AF126">
-        <v>4.33</v>
-      </c>
-      <c r="AG126">
-        <v>1.55</v>
-      </c>
-      <c r="AH126">
-        <v>2.36</v>
-      </c>
-      <c r="AI126">
-        <v>1.83</v>
-      </c>
-      <c r="AJ126">
-        <v>1.83</v>
-      </c>
-      <c r="AK126">
-        <v>1.08</v>
-      </c>
-      <c r="AL126">
-        <v>1.16</v>
-      </c>
-      <c r="AM126">
-        <v>2.85</v>
-      </c>
-      <c r="AN126">
-        <v>2</v>
-      </c>
-      <c r="AO126">
-        <v>0.6</v>
-      </c>
-      <c r="AP126">
-        <v>2.17</v>
-      </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR126">
-        <v>1.76</v>
+        <v>1.35</v>
       </c>
       <c r="AS126">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="AT126">
-        <v>2.8</v>
+        <v>2.26</v>
       </c>
       <c r="AU126">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV126">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW126">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX126">
         <v>3</v>
       </c>
       <c r="AY126">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ126">
+        <v>9</v>
+      </c>
+      <c r="BA126">
         <v>12</v>
       </c>
-      <c r="BA126">
-        <v>10</v>
-      </c>
       <c r="BB126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC126">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD126">
+        <v>1.5</v>
+      </c>
+      <c r="BE126">
+        <v>6.75</v>
+      </c>
+      <c r="BF126">
+        <v>2.9</v>
+      </c>
+      <c r="BG126">
         <v>1.38</v>
       </c>
-      <c r="BE126">
-        <v>7</v>
-      </c>
-      <c r="BF126">
-        <v>3.4</v>
-      </c>
-      <c r="BG126">
-        <v>1.3</v>
-      </c>
       <c r="BH126">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="BI126">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="BJ126">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="BK126">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="BL126">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="BM126">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="BN126">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BO126">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BP126">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -27068,7 +27068,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7478864</v>
+        <v>7478867</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27077,31 +27077,31 @@
         <v>69</v>
       </c>
       <c r="E127" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F127">
         <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127">
         <v>2</v>
@@ -27110,163 +27110,163 @@
         <v>186</v>
       </c>
       <c r="P127" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q127">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R127">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S127">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T127">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U127">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V127">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W127">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X127">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y127">
+        <v>1.1</v>
+      </c>
+      <c r="Z127">
+        <v>2.38</v>
+      </c>
+      <c r="AA127">
+        <v>3.45</v>
+      </c>
+      <c r="AB127">
+        <v>2.9</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>11</v>
+      </c>
+      <c r="AE127">
+        <v>1.32</v>
+      </c>
+      <c r="AF127">
+        <v>3.4</v>
+      </c>
+      <c r="AG127">
+        <v>1.95</v>
+      </c>
+      <c r="AH127">
+        <v>1.8</v>
+      </c>
+      <c r="AI127">
+        <v>1.67</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>1.42</v>
+      </c>
+      <c r="AL127">
+        <v>1.28</v>
+      </c>
+      <c r="AM127">
+        <v>1.58</v>
+      </c>
+      <c r="AN127">
+        <v>2.2</v>
+      </c>
+      <c r="AO127">
+        <v>0.2</v>
+      </c>
+      <c r="AP127">
+        <v>2</v>
+      </c>
+      <c r="AQ127">
+        <v>0.33</v>
+      </c>
+      <c r="AR127">
         <v>1.11</v>
       </c>
-      <c r="Z127">
-        <v>2</v>
-      </c>
-      <c r="AA127">
-        <v>3.7</v>
-      </c>
-      <c r="AB127">
-        <v>3.51</v>
-      </c>
-      <c r="AC127">
-        <v>1.04</v>
-      </c>
-      <c r="AD127">
+      <c r="AS127">
+        <v>1.03</v>
+      </c>
+      <c r="AT127">
+        <v>2.14</v>
+      </c>
+      <c r="AU127">
+        <v>4</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>8</v>
+      </c>
+      <c r="AY127">
         <v>12</v>
       </c>
-      <c r="AE127">
-        <v>1.3</v>
-      </c>
-      <c r="AF127">
-        <v>3.6</v>
-      </c>
-      <c r="AG127">
-        <v>1.85</v>
-      </c>
-      <c r="AH127">
-        <v>1.89</v>
-      </c>
-      <c r="AI127">
-        <v>1.62</v>
-      </c>
-      <c r="AJ127">
-        <v>2.2</v>
-      </c>
-      <c r="AK127">
-        <v>1.3</v>
-      </c>
-      <c r="AL127">
-        <v>1.24</v>
-      </c>
-      <c r="AM127">
-        <v>1.83</v>
-      </c>
-      <c r="AN127">
-        <v>1.2</v>
-      </c>
-      <c r="AO127">
-        <v>1</v>
-      </c>
-      <c r="AP127">
-        <v>1.5</v>
-      </c>
-      <c r="AQ127">
-        <v>0.83</v>
-      </c>
-      <c r="AR127">
-        <v>1.35</v>
-      </c>
-      <c r="AS127">
-        <v>0.91</v>
-      </c>
-      <c r="AT127">
-        <v>2.26</v>
-      </c>
-      <c r="AU127">
-        <v>11</v>
-      </c>
-      <c r="AV127">
-        <v>3</v>
-      </c>
-      <c r="AW127">
-        <v>9</v>
-      </c>
-      <c r="AX127">
-        <v>3</v>
-      </c>
-      <c r="AY127">
-        <v>27</v>
-      </c>
       <c r="AZ127">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BA127">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BB127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC127">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BD127">
-        <v>1.5</v>
+        <v>2.12</v>
       </c>
       <c r="BE127">
         <v>6.75</v>
       </c>
       <c r="BF127">
-        <v>2.9</v>
+        <v>1.84</v>
       </c>
       <c r="BG127">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="BH127">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="BI127">
-        <v>1.66</v>
+        <v>1.36</v>
       </c>
       <c r="BJ127">
-        <v>2.07</v>
+        <v>2.8</v>
       </c>
       <c r="BK127">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="BL127">
-        <v>1.66</v>
+        <v>2.17</v>
       </c>
       <c r="BM127">
-        <v>2.65</v>
+        <v>1.94</v>
       </c>
       <c r="BN127">
-        <v>1.41</v>
+        <v>1.76</v>
       </c>
       <c r="BO127">
-        <v>3.45</v>
+        <v>2.4</v>
       </c>
       <c r="BP127">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -27274,7 +27274,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7478867</v>
+        <v>7478869</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27283,22 +27283,22 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45586.875</v>
+        <v>45587.66666666666</v>
       </c>
       <c r="F128">
         <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H128" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128">
         <v>1</v>
@@ -27316,16 +27316,16 @@
         <v>187</v>
       </c>
       <c r="P128" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="Q128">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R128">
         <v>2.2</v>
       </c>
       <c r="S128">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T128">
         <v>1.36</v>
@@ -27346,133 +27346,133 @@
         <v>1.1</v>
       </c>
       <c r="Z128">
-        <v>2.38</v>
+        <v>2.94</v>
       </c>
       <c r="AA128">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AB128">
-        <v>2.9</v>
+        <v>2.43</v>
       </c>
       <c r="AC128">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD128">
         <v>11</v>
       </c>
       <c r="AE128">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AF128">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG128">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AH128">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AI128">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ128">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK128">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AL128">
         <v>1.28</v>
       </c>
       <c r="AM128">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AN128">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="AO128">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AQ128">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR128">
-        <v>1.11</v>
+        <v>1.8</v>
       </c>
       <c r="AS128">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AT128">
-        <v>2.14</v>
+        <v>2.87</v>
       </c>
       <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
         <v>4</v>
       </c>
-      <c r="AV128">
-        <v>5</v>
-      </c>
       <c r="AW128">
         <v>3</v>
       </c>
       <c r="AX128">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY128">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ128">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="BA128">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD128">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="BE128">
         <v>6.75</v>
       </c>
       <c r="BF128">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="BG128">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="BH128">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="BI128">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BJ128">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BK128">
+        <v>1.49</v>
+      </c>
+      <c r="BL128">
+        <v>2.4</v>
+      </c>
+      <c r="BM128">
+        <v>1.76</v>
+      </c>
+      <c r="BN128">
+        <v>1.94</v>
+      </c>
+      <c r="BO128">
+        <v>2.17</v>
+      </c>
+      <c r="BP128">
         <v>1.6</v>
-      </c>
-      <c r="BL128">
-        <v>2.17</v>
-      </c>
-      <c r="BM128">
-        <v>1.94</v>
-      </c>
-      <c r="BN128">
-        <v>1.76</v>
-      </c>
-      <c r="BO128">
-        <v>2.4</v>
-      </c>
-      <c r="BP128">
-        <v>1.49</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27931,7 +27931,7 @@
         <v>3</v>
       </c>
       <c r="O131" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P131" t="s">
         <v>241</v>
@@ -28110,7 +28110,7 @@
         <v>45588.65625</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
         <v>74</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -741,6 +741,9 @@
   <si>
     <t>['55', '66']</t>
   </si>
+  <si>
+    <t>['55', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1101,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4528,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>0.8</v>
@@ -6179,7 +6182,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -9884,7 +9887,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -10299,7 +10302,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -13592,7 +13595,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ61">
         <v>1.83</v>
@@ -15449,7 +15452,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ70">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -18124,7 +18127,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ83">
         <v>1.33</v>
@@ -21011,7 +21014,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR97">
         <v>1.65</v>
@@ -21420,7 +21423,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ99">
         <v>0.4</v>
@@ -22041,7 +22044,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ102">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR102">
         <v>2.01</v>
@@ -28503,6 +28506,212 @@
       </c>
       <c r="BP133">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7478882</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45590.66666666666</v>
+      </c>
+      <c r="F134">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H134" t="s">
+        <v>80</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>162</v>
+      </c>
+      <c r="P134" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q134">
+        <v>3.4</v>
+      </c>
+      <c r="R134">
+        <v>2.25</v>
+      </c>
+      <c r="S134">
+        <v>2.88</v>
+      </c>
+      <c r="T134">
+        <v>1.33</v>
+      </c>
+      <c r="U134">
+        <v>3.25</v>
+      </c>
+      <c r="V134">
+        <v>2.63</v>
+      </c>
+      <c r="W134">
+        <v>1.44</v>
+      </c>
+      <c r="X134">
+        <v>6.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.11</v>
+      </c>
+      <c r="Z134">
+        <v>2.89</v>
+      </c>
+      <c r="AA134">
+        <v>3.27</v>
+      </c>
+      <c r="AB134">
+        <v>2.23</v>
+      </c>
+      <c r="AC134">
+        <v>1.04</v>
+      </c>
+      <c r="AD134">
+        <v>13</v>
+      </c>
+      <c r="AE134">
+        <v>1.24</v>
+      </c>
+      <c r="AF134">
+        <v>4.2</v>
+      </c>
+      <c r="AG134">
+        <v>1.7</v>
+      </c>
+      <c r="AH134">
+        <v>2.05</v>
+      </c>
+      <c r="AI134">
+        <v>1.57</v>
+      </c>
+      <c r="AJ134">
+        <v>2.25</v>
+      </c>
+      <c r="AK134">
+        <v>1.63</v>
+      </c>
+      <c r="AL134">
+        <v>1.26</v>
+      </c>
+      <c r="AM134">
+        <v>1.4</v>
+      </c>
+      <c r="AN134">
+        <v>0.6</v>
+      </c>
+      <c r="AO134">
+        <v>0.8</v>
+      </c>
+      <c r="AP134">
+        <v>0.5</v>
+      </c>
+      <c r="AQ134">
+        <v>1.17</v>
+      </c>
+      <c r="AR134">
+        <v>1.28</v>
+      </c>
+      <c r="AS134">
+        <v>1.09</v>
+      </c>
+      <c r="AT134">
+        <v>2.37</v>
+      </c>
+      <c r="AU134">
+        <v>3</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>10</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>7</v>
+      </c>
+      <c r="BB134">
+        <v>7</v>
+      </c>
+      <c r="BC134">
+        <v>14</v>
+      </c>
+      <c r="BD134">
+        <v>2.17</v>
+      </c>
+      <c r="BE134">
+        <v>6.75</v>
+      </c>
+      <c r="BF134">
+        <v>1.82</v>
+      </c>
+      <c r="BG134">
+        <v>1.19</v>
+      </c>
+      <c r="BH134">
+        <v>4.1</v>
+      </c>
+      <c r="BI134">
+        <v>1.33</v>
+      </c>
+      <c r="BJ134">
+        <v>2.95</v>
+      </c>
+      <c r="BK134">
+        <v>1.55</v>
+      </c>
+      <c r="BL134">
+        <v>2.28</v>
+      </c>
+      <c r="BM134">
+        <v>1.86</v>
+      </c>
+      <c r="BN134">
+        <v>1.82</v>
+      </c>
+      <c r="BO134">
+        <v>2.32</v>
+      </c>
+      <c r="BP134">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,24 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['59', '76', '90+2']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['16', '63']</t>
+  </si>
+  <si>
+    <t>['55', '82', '90+2']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['14', '50']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -743,6 +761,18 @@
   </si>
   <si>
     <t>['55', '70']</t>
+  </si>
+  <si>
+    <t>['15', '37']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['16', '45+3', '48']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1393,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1569,7 +1599,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1775,7 +1805,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2187,7 +2217,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2599,7 +2629,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2805,7 +2835,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3011,7 +3041,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3629,7 +3659,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3835,7 +3865,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3913,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4119,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4325,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -4534,7 +4564,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4659,7 +4689,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4737,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4943,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5149,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5277,7 +5307,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5355,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5483,7 +5513,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5564,7 +5594,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ22">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5767,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5973,10 +6003,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6179,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ25">
         <v>1.17</v>
@@ -6307,7 +6337,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6388,7 +6418,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -6594,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6925,7 +6955,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7003,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7131,7 +7161,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7415,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ31">
         <v>0.33</v>
@@ -7621,7 +7651,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ32">
         <v>1.83</v>
@@ -7830,7 +7860,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8036,7 +8066,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ34">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8161,7 +8191,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8367,7 +8397,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8573,7 +8603,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8651,10 +8681,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8779,7 +8809,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8985,7 +9015,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9063,10 +9093,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9191,7 +9221,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9397,7 +9427,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9475,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9681,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -9809,7 +9839,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10015,7 +10045,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10093,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10508,7 +10538,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -10711,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10920,7 +10950,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11123,7 +11153,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ49">
         <v>0.5</v>
@@ -11251,7 +11281,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11744,7 +11774,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -11950,7 +11980,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>1.18</v>
@@ -12153,10 +12183,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ54">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12359,7 +12389,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12487,7 +12517,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12565,7 +12595,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12693,7 +12723,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12977,7 +13007,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.33</v>
@@ -13311,7 +13341,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13392,7 +13422,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13517,7 +13547,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13723,7 +13753,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13804,7 +13834,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -14007,7 +14037,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ63">
         <v>1.2</v>
@@ -14422,7 +14452,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ65">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>2.07</v>
@@ -14547,7 +14577,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14628,7 +14658,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -14831,7 +14861,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>0.17</v>
@@ -15037,10 +15067,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15165,7 +15195,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15243,7 +15273,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.83</v>
@@ -15577,7 +15607,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15655,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>0.67</v>
@@ -15861,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ72">
         <v>0.33</v>
@@ -16070,7 +16100,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ73">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>0.68</v>
@@ -16195,7 +16225,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16273,10 +16303,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16607,7 +16637,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16685,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -16813,7 +16843,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17225,7 +17255,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17303,7 +17333,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -17512,7 +17542,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ80">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR80">
         <v>1.8</v>
@@ -17637,7 +17667,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17718,7 +17748,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.39</v>
@@ -17924,7 +17954,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.37</v>
@@ -18461,7 +18491,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18539,7 +18569,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18745,7 +18775,7 @@
         <v>0.33</v>
       </c>
       <c r="AP86">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>0.17</v>
@@ -18954,7 +18984,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.02</v>
@@ -19157,10 +19187,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR88">
         <v>2.03</v>
@@ -19285,7 +19315,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19366,7 +19396,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ89">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR89">
         <v>1.26</v>
@@ -19569,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ90">
         <v>0.33</v>
@@ -19697,7 +19727,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19778,7 +19808,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ91">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -19903,7 +19933,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -19984,7 +20014,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ92">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.63</v>
@@ -20187,7 +20217,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1.2</v>
@@ -20393,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -21011,7 +21041,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97">
         <v>1.17</v>
@@ -21139,7 +21169,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21217,10 +21247,10 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ98">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.22</v>
@@ -21426,7 +21456,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ99">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR99">
         <v>1.08</v>
@@ -21632,7 +21662,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ100">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -21835,10 +21865,10 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -21963,7 +21993,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22041,7 +22071,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
         <v>1.17</v>
@@ -22169,7 +22199,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22247,10 +22277,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22453,10 +22483,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ104">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -22659,10 +22689,10 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>1.25</v>
@@ -22787,7 +22817,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22865,7 +22895,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ106">
         <v>1.2</v>
@@ -23071,10 +23101,10 @@
         <v>0.5</v>
       </c>
       <c r="AP107">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.37</v>
@@ -23277,7 +23307,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23405,7 +23435,7 @@
         <v>172</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23483,10 +23513,10 @@
         <v>0.25</v>
       </c>
       <c r="AP109">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ109">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR109">
         <v>1.56</v>
@@ -24641,7 +24671,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24847,7 +24877,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25259,7 +25289,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26289,7 +26319,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26495,7 +26525,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26701,7 +26731,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27525,7 +27555,7 @@
         <v>188</v>
       </c>
       <c r="P129" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27937,7 +27967,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28555,7 +28585,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28712,6 +28742,2066 @@
       </c>
       <c r="BP134">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7478878</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45590.875</v>
+      </c>
+      <c r="F135">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>82</v>
+      </c>
+      <c r="H135" t="s">
+        <v>81</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135" t="s">
+        <v>190</v>
+      </c>
+      <c r="P135" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>2.2</v>
+      </c>
+      <c r="S135">
+        <v>3.5</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>2.75</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>8</v>
+      </c>
+      <c r="Y135">
+        <v>1.08</v>
+      </c>
+      <c r="Z135">
+        <v>2.37</v>
+      </c>
+      <c r="AA135">
+        <v>3.5</v>
+      </c>
+      <c r="AB135">
+        <v>2.87</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>9</v>
+      </c>
+      <c r="AE135">
+        <v>1.3</v>
+      </c>
+      <c r="AF135">
+        <v>3.45</v>
+      </c>
+      <c r="AG135">
+        <v>1.83</v>
+      </c>
+      <c r="AH135">
+        <v>1.85</v>
+      </c>
+      <c r="AI135">
+        <v>1.73</v>
+      </c>
+      <c r="AJ135">
+        <v>2</v>
+      </c>
+      <c r="AK135">
+        <v>1.4</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.55</v>
+      </c>
+      <c r="AN135">
+        <v>1.2</v>
+      </c>
+      <c r="AO135">
+        <v>0.8</v>
+      </c>
+      <c r="AP135">
+        <v>1.5</v>
+      </c>
+      <c r="AQ135">
+        <v>0.67</v>
+      </c>
+      <c r="AR135">
+        <v>1.84</v>
+      </c>
+      <c r="AS135">
+        <v>1.26</v>
+      </c>
+      <c r="AT135">
+        <v>3.1</v>
+      </c>
+      <c r="AU135">
+        <v>11</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>9</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>28</v>
+      </c>
+      <c r="AZ135">
+        <v>11</v>
+      </c>
+      <c r="BA135">
+        <v>11</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>16</v>
+      </c>
+      <c r="BD135">
+        <v>1.92</v>
+      </c>
+      <c r="BE135">
+        <v>6.75</v>
+      </c>
+      <c r="BF135">
+        <v>2.05</v>
+      </c>
+      <c r="BG135">
+        <v>1.18</v>
+      </c>
+      <c r="BH135">
+        <v>4.2</v>
+      </c>
+      <c r="BI135">
+        <v>1.3</v>
+      </c>
+      <c r="BJ135">
+        <v>3.05</v>
+      </c>
+      <c r="BK135">
+        <v>1.53</v>
+      </c>
+      <c r="BL135">
+        <v>2.32</v>
+      </c>
+      <c r="BM135">
+        <v>1.84</v>
+      </c>
+      <c r="BN135">
+        <v>1.84</v>
+      </c>
+      <c r="BO135">
+        <v>2.28</v>
+      </c>
+      <c r="BP135">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7478876</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45591.35416666666</v>
+      </c>
+      <c r="F136">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>89</v>
+      </c>
+      <c r="H136" t="s">
+        <v>76</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>95</v>
+      </c>
+      <c r="P136" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q136">
+        <v>4.75</v>
+      </c>
+      <c r="R136">
+        <v>2.2</v>
+      </c>
+      <c r="S136">
+        <v>2.4</v>
+      </c>
+      <c r="T136">
+        <v>1.4</v>
+      </c>
+      <c r="U136">
+        <v>2.75</v>
+      </c>
+      <c r="V136">
+        <v>2.75</v>
+      </c>
+      <c r="W136">
+        <v>1.4</v>
+      </c>
+      <c r="X136">
+        <v>8</v>
+      </c>
+      <c r="Y136">
+        <v>1.08</v>
+      </c>
+      <c r="Z136">
+        <v>4.33</v>
+      </c>
+      <c r="AA136">
+        <v>3.6</v>
+      </c>
+      <c r="AB136">
+        <v>1.82</v>
+      </c>
+      <c r="AC136">
+        <v>1.06</v>
+      </c>
+      <c r="AD136">
+        <v>8.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.3</v>
+      </c>
+      <c r="AF136">
+        <v>3.45</v>
+      </c>
+      <c r="AG136">
+        <v>1.85</v>
+      </c>
+      <c r="AH136">
+        <v>1.83</v>
+      </c>
+      <c r="AI136">
+        <v>1.8</v>
+      </c>
+      <c r="AJ136">
+        <v>1.91</v>
+      </c>
+      <c r="AK136">
+        <v>1.95</v>
+      </c>
+      <c r="AL136">
+        <v>1.25</v>
+      </c>
+      <c r="AM136">
+        <v>1.2</v>
+      </c>
+      <c r="AN136">
+        <v>1.8</v>
+      </c>
+      <c r="AO136">
+        <v>1.8</v>
+      </c>
+      <c r="AP136">
+        <v>1.67</v>
+      </c>
+      <c r="AQ136">
+        <v>1.67</v>
+      </c>
+      <c r="AR136">
+        <v>1.5</v>
+      </c>
+      <c r="AS136">
+        <v>1.36</v>
+      </c>
+      <c r="AT136">
+        <v>2.86</v>
+      </c>
+      <c r="AU136">
+        <v>2</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>2</v>
+      </c>
+      <c r="AX136">
+        <v>7</v>
+      </c>
+      <c r="AY136">
+        <v>6</v>
+      </c>
+      <c r="AZ136">
+        <v>18</v>
+      </c>
+      <c r="BA136">
+        <v>7</v>
+      </c>
+      <c r="BB136">
+        <v>6</v>
+      </c>
+      <c r="BC136">
+        <v>13</v>
+      </c>
+      <c r="BD136">
+        <v>2.38</v>
+      </c>
+      <c r="BE136">
+        <v>6.75</v>
+      </c>
+      <c r="BF136">
+        <v>1.7</v>
+      </c>
+      <c r="BG136">
+        <v>1.23</v>
+      </c>
+      <c r="BH136">
+        <v>3.65</v>
+      </c>
+      <c r="BI136">
+        <v>1.4</v>
+      </c>
+      <c r="BJ136">
+        <v>2.65</v>
+      </c>
+      <c r="BK136">
+        <v>1.66</v>
+      </c>
+      <c r="BL136">
+        <v>2.06</v>
+      </c>
+      <c r="BM136">
+        <v>2.04</v>
+      </c>
+      <c r="BN136">
+        <v>1.68</v>
+      </c>
+      <c r="BO136">
+        <v>2.55</v>
+      </c>
+      <c r="BP136">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7478886</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45591.35416666666</v>
+      </c>
+      <c r="F137">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>87</v>
+      </c>
+      <c r="H137" t="s">
+        <v>70</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>191</v>
+      </c>
+      <c r="P137" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q137">
+        <v>2.88</v>
+      </c>
+      <c r="R137">
+        <v>2.3</v>
+      </c>
+      <c r="S137">
+        <v>3.4</v>
+      </c>
+      <c r="T137">
+        <v>1.33</v>
+      </c>
+      <c r="U137">
+        <v>3.25</v>
+      </c>
+      <c r="V137">
+        <v>2.5</v>
+      </c>
+      <c r="W137">
+        <v>1.5</v>
+      </c>
+      <c r="X137">
+        <v>6.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.11</v>
+      </c>
+      <c r="Z137">
+        <v>2.35</v>
+      </c>
+      <c r="AA137">
+        <v>3.4</v>
+      </c>
+      <c r="AB137">
+        <v>2.9</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>9.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.25</v>
+      </c>
+      <c r="AF137">
+        <v>3.95</v>
+      </c>
+      <c r="AG137">
+        <v>1.68</v>
+      </c>
+      <c r="AH137">
+        <v>2.05</v>
+      </c>
+      <c r="AI137">
+        <v>1.57</v>
+      </c>
+      <c r="AJ137">
+        <v>2.25</v>
+      </c>
+      <c r="AK137">
+        <v>1.4</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.57</v>
+      </c>
+      <c r="AN137">
+        <v>2.6</v>
+      </c>
+      <c r="AO137">
+        <v>0.6</v>
+      </c>
+      <c r="AP137">
+        <v>2.67</v>
+      </c>
+      <c r="AQ137">
+        <v>0.5</v>
+      </c>
+      <c r="AR137">
+        <v>1.56</v>
+      </c>
+      <c r="AS137">
+        <v>0.97</v>
+      </c>
+      <c r="AT137">
+        <v>2.53</v>
+      </c>
+      <c r="AU137">
+        <v>2</v>
+      </c>
+      <c r="AV137">
+        <v>3</v>
+      </c>
+      <c r="AW137">
+        <v>6</v>
+      </c>
+      <c r="AX137">
+        <v>10</v>
+      </c>
+      <c r="AY137">
+        <v>11</v>
+      </c>
+      <c r="AZ137">
+        <v>14</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>9</v>
+      </c>
+      <c r="BD137">
+        <v>1.66</v>
+      </c>
+      <c r="BE137">
+        <v>6.75</v>
+      </c>
+      <c r="BF137">
+        <v>2.45</v>
+      </c>
+      <c r="BG137">
+        <v>1.23</v>
+      </c>
+      <c r="BH137">
+        <v>3.65</v>
+      </c>
+      <c r="BI137">
+        <v>1.41</v>
+      </c>
+      <c r="BJ137">
+        <v>2.65</v>
+      </c>
+      <c r="BK137">
+        <v>1.66</v>
+      </c>
+      <c r="BL137">
+        <v>2.06</v>
+      </c>
+      <c r="BM137">
+        <v>2.04</v>
+      </c>
+      <c r="BN137">
+        <v>1.68</v>
+      </c>
+      <c r="BO137">
+        <v>2.55</v>
+      </c>
+      <c r="BP137">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7478884</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>93</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>192</v>
+      </c>
+      <c r="P138" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q138">
+        <v>2.05</v>
+      </c>
+      <c r="R138">
+        <v>2.38</v>
+      </c>
+      <c r="S138">
+        <v>6</v>
+      </c>
+      <c r="T138">
+        <v>1.33</v>
+      </c>
+      <c r="U138">
+        <v>3.25</v>
+      </c>
+      <c r="V138">
+        <v>2.63</v>
+      </c>
+      <c r="W138">
+        <v>1.44</v>
+      </c>
+      <c r="X138">
+        <v>6.5</v>
+      </c>
+      <c r="Y138">
+        <v>1.11</v>
+      </c>
+      <c r="Z138">
+        <v>1.53</v>
+      </c>
+      <c r="AA138">
+        <v>4.33</v>
+      </c>
+      <c r="AB138">
+        <v>5.75</v>
+      </c>
+      <c r="AC138">
+        <v>1.04</v>
+      </c>
+      <c r="AD138">
+        <v>13</v>
+      </c>
+      <c r="AE138">
+        <v>1.26</v>
+      </c>
+      <c r="AF138">
+        <v>4</v>
+      </c>
+      <c r="AG138">
+        <v>1.73</v>
+      </c>
+      <c r="AH138">
+        <v>1.95</v>
+      </c>
+      <c r="AI138">
+        <v>1.83</v>
+      </c>
+      <c r="AJ138">
+        <v>1.83</v>
+      </c>
+      <c r="AK138">
+        <v>1.12</v>
+      </c>
+      <c r="AL138">
+        <v>1.19</v>
+      </c>
+      <c r="AM138">
+        <v>2.6</v>
+      </c>
+      <c r="AN138">
+        <v>2.6</v>
+      </c>
+      <c r="AO138">
+        <v>0.4</v>
+      </c>
+      <c r="AP138">
+        <v>2.67</v>
+      </c>
+      <c r="AQ138">
+        <v>0.33</v>
+      </c>
+      <c r="AR138">
+        <v>1.3</v>
+      </c>
+      <c r="AS138">
+        <v>1.22</v>
+      </c>
+      <c r="AT138">
+        <v>2.52</v>
+      </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
+        <v>3</v>
+      </c>
+      <c r="AW138">
+        <v>4</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>14</v>
+      </c>
+      <c r="AZ138">
+        <v>6</v>
+      </c>
+      <c r="BA138">
+        <v>8</v>
+      </c>
+      <c r="BB138">
+        <v>2</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>1.27</v>
+      </c>
+      <c r="BE138">
+        <v>8</v>
+      </c>
+      <c r="BF138">
+        <v>4</v>
+      </c>
+      <c r="BG138">
+        <v>1.19</v>
+      </c>
+      <c r="BH138">
+        <v>4.1</v>
+      </c>
+      <c r="BI138">
+        <v>1.33</v>
+      </c>
+      <c r="BJ138">
+        <v>2.95</v>
+      </c>
+      <c r="BK138">
+        <v>1.55</v>
+      </c>
+      <c r="BL138">
+        <v>2.28</v>
+      </c>
+      <c r="BM138">
+        <v>1.89</v>
+      </c>
+      <c r="BN138">
+        <v>1.8</v>
+      </c>
+      <c r="BO138">
+        <v>2.33</v>
+      </c>
+      <c r="BP138">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7478887</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F139">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" t="s">
+        <v>78</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>95</v>
+      </c>
+      <c r="P139" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q139">
+        <v>2.3</v>
+      </c>
+      <c r="R139">
+        <v>2.1</v>
+      </c>
+      <c r="S139">
+        <v>5.5</v>
+      </c>
+      <c r="T139">
+        <v>1.44</v>
+      </c>
+      <c r="U139">
+        <v>2.63</v>
+      </c>
+      <c r="V139">
+        <v>3.25</v>
+      </c>
+      <c r="W139">
+        <v>1.33</v>
+      </c>
+      <c r="X139">
+        <v>9</v>
+      </c>
+      <c r="Y139">
+        <v>1.07</v>
+      </c>
+      <c r="Z139">
+        <v>1.66</v>
+      </c>
+      <c r="AA139">
+        <v>3.8</v>
+      </c>
+      <c r="AB139">
+        <v>5.25</v>
+      </c>
+      <c r="AC139">
+        <v>1.06</v>
+      </c>
+      <c r="AD139">
+        <v>10</v>
+      </c>
+      <c r="AE139">
+        <v>1.36</v>
+      </c>
+      <c r="AF139">
+        <v>3.2</v>
+      </c>
+      <c r="AG139">
+        <v>2</v>
+      </c>
+      <c r="AH139">
+        <v>1.7</v>
+      </c>
+      <c r="AI139">
+        <v>2.1</v>
+      </c>
+      <c r="AJ139">
+        <v>1.67</v>
+      </c>
+      <c r="AK139">
+        <v>1.16</v>
+      </c>
+      <c r="AL139">
+        <v>1.22</v>
+      </c>
+      <c r="AM139">
+        <v>2.25</v>
+      </c>
+      <c r="AN139">
+        <v>1.6</v>
+      </c>
+      <c r="AO139">
+        <v>0.4</v>
+      </c>
+      <c r="AP139">
+        <v>1.5</v>
+      </c>
+      <c r="AQ139">
+        <v>0.5</v>
+      </c>
+      <c r="AR139">
+        <v>1.36</v>
+      </c>
+      <c r="AS139">
+        <v>1.18</v>
+      </c>
+      <c r="AT139">
+        <v>2.54</v>
+      </c>
+      <c r="AU139">
+        <v>5</v>
+      </c>
+      <c r="AV139">
+        <v>0</v>
+      </c>
+      <c r="AW139">
+        <v>7</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+      <c r="AY139">
+        <v>21</v>
+      </c>
+      <c r="AZ139">
+        <v>6</v>
+      </c>
+      <c r="BA139">
+        <v>12</v>
+      </c>
+      <c r="BB139">
+        <v>1</v>
+      </c>
+      <c r="BC139">
+        <v>13</v>
+      </c>
+      <c r="BD139">
+        <v>1.49</v>
+      </c>
+      <c r="BE139">
+        <v>7</v>
+      </c>
+      <c r="BF139">
+        <v>2.9</v>
+      </c>
+      <c r="BG139">
+        <v>1.2</v>
+      </c>
+      <c r="BH139">
+        <v>3.95</v>
+      </c>
+      <c r="BI139">
+        <v>1.35</v>
+      </c>
+      <c r="BJ139">
+        <v>2.88</v>
+      </c>
+      <c r="BK139">
+        <v>1.58</v>
+      </c>
+      <c r="BL139">
+        <v>2.18</v>
+      </c>
+      <c r="BM139">
+        <v>1.92</v>
+      </c>
+      <c r="BN139">
+        <v>1.77</v>
+      </c>
+      <c r="BO139">
+        <v>2.4</v>
+      </c>
+      <c r="BP139">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7478885</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>88</v>
+      </c>
+      <c r="H140" t="s">
+        <v>74</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>95</v>
+      </c>
+      <c r="P140" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q140">
+        <v>3.25</v>
+      </c>
+      <c r="R140">
+        <v>2.05</v>
+      </c>
+      <c r="S140">
+        <v>3.5</v>
+      </c>
+      <c r="T140">
+        <v>1.44</v>
+      </c>
+      <c r="U140">
+        <v>2.63</v>
+      </c>
+      <c r="V140">
+        <v>3.25</v>
+      </c>
+      <c r="W140">
+        <v>1.33</v>
+      </c>
+      <c r="X140">
+        <v>10</v>
+      </c>
+      <c r="Y140">
+        <v>1.06</v>
+      </c>
+      <c r="Z140">
+        <v>2.5</v>
+      </c>
+      <c r="AA140">
+        <v>3.3</v>
+      </c>
+      <c r="AB140">
+        <v>2.8</v>
+      </c>
+      <c r="AC140">
+        <v>1.08</v>
+      </c>
+      <c r="AD140">
+        <v>9</v>
+      </c>
+      <c r="AE140">
+        <v>1.4</v>
+      </c>
+      <c r="AF140">
+        <v>3</v>
+      </c>
+      <c r="AG140">
+        <v>2.1</v>
+      </c>
+      <c r="AH140">
+        <v>1.63</v>
+      </c>
+      <c r="AI140">
+        <v>1.83</v>
+      </c>
+      <c r="AJ140">
+        <v>1.83</v>
+      </c>
+      <c r="AK140">
+        <v>1.42</v>
+      </c>
+      <c r="AL140">
+        <v>1.3</v>
+      </c>
+      <c r="AM140">
+        <v>1.57</v>
+      </c>
+      <c r="AN140">
+        <v>1.8</v>
+      </c>
+      <c r="AO140">
+        <v>0.6</v>
+      </c>
+      <c r="AP140">
+        <v>1.5</v>
+      </c>
+      <c r="AQ140">
+        <v>1</v>
+      </c>
+      <c r="AR140">
+        <v>1.35</v>
+      </c>
+      <c r="AS140">
+        <v>1.34</v>
+      </c>
+      <c r="AT140">
+        <v>2.69</v>
+      </c>
+      <c r="AU140">
+        <v>6</v>
+      </c>
+      <c r="AV140">
+        <v>3</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>4</v>
+      </c>
+      <c r="AY140">
+        <v>19</v>
+      </c>
+      <c r="AZ140">
+        <v>7</v>
+      </c>
+      <c r="BA140">
+        <v>10</v>
+      </c>
+      <c r="BB140">
+        <v>6</v>
+      </c>
+      <c r="BC140">
+        <v>16</v>
+      </c>
+      <c r="BD140">
+        <v>1.65</v>
+      </c>
+      <c r="BE140">
+        <v>6.5</v>
+      </c>
+      <c r="BF140">
+        <v>2.5</v>
+      </c>
+      <c r="BG140">
+        <v>1.27</v>
+      </c>
+      <c r="BH140">
+        <v>3.3</v>
+      </c>
+      <c r="BI140">
+        <v>1.47</v>
+      </c>
+      <c r="BJ140">
+        <v>2.48</v>
+      </c>
+      <c r="BK140">
+        <v>1.74</v>
+      </c>
+      <c r="BL140">
+        <v>1.95</v>
+      </c>
+      <c r="BM140">
+        <v>2.17</v>
+      </c>
+      <c r="BN140">
+        <v>1.6</v>
+      </c>
+      <c r="BO140">
+        <v>2.8</v>
+      </c>
+      <c r="BP140">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7478881</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F141">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>92</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>6</v>
+      </c>
+      <c r="O141" t="s">
+        <v>193</v>
+      </c>
+      <c r="P141" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q141">
+        <v>3.25</v>
+      </c>
+      <c r="R141">
+        <v>2.1</v>
+      </c>
+      <c r="S141">
+        <v>3.25</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>2.63</v>
+      </c>
+      <c r="V141">
+        <v>3</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>9</v>
+      </c>
+      <c r="Y141">
+        <v>1.07</v>
+      </c>
+      <c r="Z141">
+        <v>2.65</v>
+      </c>
+      <c r="AA141">
+        <v>3.3</v>
+      </c>
+      <c r="AB141">
+        <v>2.65</v>
+      </c>
+      <c r="AC141">
+        <v>1.06</v>
+      </c>
+      <c r="AD141">
+        <v>8.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.33</v>
+      </c>
+      <c r="AF141">
+        <v>3.25</v>
+      </c>
+      <c r="AG141">
+        <v>1.93</v>
+      </c>
+      <c r="AH141">
+        <v>1.75</v>
+      </c>
+      <c r="AI141">
+        <v>1.8</v>
+      </c>
+      <c r="AJ141">
+        <v>1.91</v>
+      </c>
+      <c r="AK141">
+        <v>1.48</v>
+      </c>
+      <c r="AL141">
+        <v>1.28</v>
+      </c>
+      <c r="AM141">
+        <v>1.48</v>
+      </c>
+      <c r="AN141">
+        <v>2</v>
+      </c>
+      <c r="AO141">
+        <v>0.4</v>
+      </c>
+      <c r="AP141">
+        <v>1.83</v>
+      </c>
+      <c r="AQ141">
+        <v>0.5</v>
+      </c>
+      <c r="AR141">
+        <v>1.64</v>
+      </c>
+      <c r="AS141">
+        <v>0.99</v>
+      </c>
+      <c r="AT141">
+        <v>2.63</v>
+      </c>
+      <c r="AU141">
+        <v>7</v>
+      </c>
+      <c r="AV141">
+        <v>9</v>
+      </c>
+      <c r="AW141">
+        <v>2</v>
+      </c>
+      <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>13</v>
+      </c>
+      <c r="AZ141">
+        <v>17</v>
+      </c>
+      <c r="BA141">
+        <v>2</v>
+      </c>
+      <c r="BB141">
+        <v>1</v>
+      </c>
+      <c r="BC141">
+        <v>3</v>
+      </c>
+      <c r="BD141">
+        <v>1.9</v>
+      </c>
+      <c r="BE141">
+        <v>6.4</v>
+      </c>
+      <c r="BF141">
+        <v>2.08</v>
+      </c>
+      <c r="BG141">
+        <v>1.26</v>
+      </c>
+      <c r="BH141">
+        <v>3.4</v>
+      </c>
+      <c r="BI141">
+        <v>1.46</v>
+      </c>
+      <c r="BJ141">
+        <v>2.48</v>
+      </c>
+      <c r="BK141">
+        <v>1.74</v>
+      </c>
+      <c r="BL141">
+        <v>1.95</v>
+      </c>
+      <c r="BM141">
+        <v>2.17</v>
+      </c>
+      <c r="BN141">
+        <v>1.6</v>
+      </c>
+      <c r="BO141">
+        <v>2.8</v>
+      </c>
+      <c r="BP141">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7478879</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>84</v>
+      </c>
+      <c r="H142" t="s">
+        <v>77</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>194</v>
+      </c>
+      <c r="P142" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q142">
+        <v>3.1</v>
+      </c>
+      <c r="R142">
+        <v>2.2</v>
+      </c>
+      <c r="S142">
+        <v>3.4</v>
+      </c>
+      <c r="T142">
+        <v>1.36</v>
+      </c>
+      <c r="U142">
+        <v>3</v>
+      </c>
+      <c r="V142">
+        <v>2.75</v>
+      </c>
+      <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>7</v>
+      </c>
+      <c r="Y142">
+        <v>1.1</v>
+      </c>
+      <c r="Z142">
+        <v>2.45</v>
+      </c>
+      <c r="AA142">
+        <v>3.3</v>
+      </c>
+      <c r="AB142">
+        <v>2.8</v>
+      </c>
+      <c r="AC142">
+        <v>1.05</v>
+      </c>
+      <c r="AD142">
+        <v>9</v>
+      </c>
+      <c r="AE142">
+        <v>1.25</v>
+      </c>
+      <c r="AF142">
+        <v>3.7</v>
+      </c>
+      <c r="AG142">
+        <v>1.75</v>
+      </c>
+      <c r="AH142">
+        <v>1.93</v>
+      </c>
+      <c r="AI142">
+        <v>1.67</v>
+      </c>
+      <c r="AJ142">
+        <v>2.1</v>
+      </c>
+      <c r="AK142">
+        <v>1.42</v>
+      </c>
+      <c r="AL142">
+        <v>1.28</v>
+      </c>
+      <c r="AM142">
+        <v>1.53</v>
+      </c>
+      <c r="AN142">
+        <v>2.4</v>
+      </c>
+      <c r="AO142">
+        <v>1.4</v>
+      </c>
+      <c r="AP142">
+        <v>2.17</v>
+      </c>
+      <c r="AQ142">
+        <v>1.33</v>
+      </c>
+      <c r="AR142">
+        <v>1.28</v>
+      </c>
+      <c r="AS142">
+        <v>1.39</v>
+      </c>
+      <c r="AT142">
+        <v>2.67</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>6</v>
+      </c>
+      <c r="AW142">
+        <v>5</v>
+      </c>
+      <c r="AX142">
+        <v>4</v>
+      </c>
+      <c r="AY142">
+        <v>16</v>
+      </c>
+      <c r="AZ142">
+        <v>12</v>
+      </c>
+      <c r="BA142">
+        <v>5</v>
+      </c>
+      <c r="BB142">
+        <v>3</v>
+      </c>
+      <c r="BC142">
+        <v>8</v>
+      </c>
+      <c r="BD142">
+        <v>1.84</v>
+      </c>
+      <c r="BE142">
+        <v>6.75</v>
+      </c>
+      <c r="BF142">
+        <v>2.15</v>
+      </c>
+      <c r="BG142">
+        <v>1.2</v>
+      </c>
+      <c r="BH142">
+        <v>3.9</v>
+      </c>
+      <c r="BI142">
+        <v>1.36</v>
+      </c>
+      <c r="BJ142">
+        <v>2.8</v>
+      </c>
+      <c r="BK142">
+        <v>1.61</v>
+      </c>
+      <c r="BL142">
+        <v>2.15</v>
+      </c>
+      <c r="BM142">
+        <v>1.96</v>
+      </c>
+      <c r="BN142">
+        <v>1.74</v>
+      </c>
+      <c r="BO142">
+        <v>2.43</v>
+      </c>
+      <c r="BP142">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7478883</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F143">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>86</v>
+      </c>
+      <c r="H143" t="s">
+        <v>75</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>195</v>
+      </c>
+      <c r="P143" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q143">
+        <v>2.5</v>
+      </c>
+      <c r="R143">
+        <v>2.1</v>
+      </c>
+      <c r="S143">
+        <v>4.75</v>
+      </c>
+      <c r="T143">
+        <v>1.44</v>
+      </c>
+      <c r="U143">
+        <v>2.63</v>
+      </c>
+      <c r="V143">
+        <v>3.25</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>10</v>
+      </c>
+      <c r="Y143">
+        <v>1.06</v>
+      </c>
+      <c r="Z143">
+        <v>1.87</v>
+      </c>
+      <c r="AA143">
+        <v>3.5</v>
+      </c>
+      <c r="AB143">
+        <v>4.2</v>
+      </c>
+      <c r="AC143">
+        <v>1.07</v>
+      </c>
+      <c r="AD143">
+        <v>8</v>
+      </c>
+      <c r="AE143">
+        <v>1.38</v>
+      </c>
+      <c r="AF143">
+        <v>2.95</v>
+      </c>
+      <c r="AG143">
+        <v>2.1</v>
+      </c>
+      <c r="AH143">
+        <v>1.65</v>
+      </c>
+      <c r="AI143">
+        <v>2</v>
+      </c>
+      <c r="AJ143">
+        <v>1.73</v>
+      </c>
+      <c r="AK143">
+        <v>1.2</v>
+      </c>
+      <c r="AL143">
+        <v>1.25</v>
+      </c>
+      <c r="AM143">
+        <v>1.91</v>
+      </c>
+      <c r="AN143">
+        <v>2.6</v>
+      </c>
+      <c r="AO143">
+        <v>0.8</v>
+      </c>
+      <c r="AP143">
+        <v>2.67</v>
+      </c>
+      <c r="AQ143">
+        <v>0.67</v>
+      </c>
+      <c r="AR143">
+        <v>1.59</v>
+      </c>
+      <c r="AS143">
+        <v>1.04</v>
+      </c>
+      <c r="AT143">
+        <v>2.63</v>
+      </c>
+      <c r="AU143">
+        <v>7</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>20</v>
+      </c>
+      <c r="AZ143">
+        <v>8</v>
+      </c>
+      <c r="BA143">
+        <v>5</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>1.57</v>
+      </c>
+      <c r="BE143">
+        <v>7</v>
+      </c>
+      <c r="BF143">
+        <v>2.6</v>
+      </c>
+      <c r="BG143">
+        <v>1.16</v>
+      </c>
+      <c r="BH143">
+        <v>4.3</v>
+      </c>
+      <c r="BI143">
+        <v>1.3</v>
+      </c>
+      <c r="BJ143">
+        <v>3.05</v>
+      </c>
+      <c r="BK143">
+        <v>1.52</v>
+      </c>
+      <c r="BL143">
+        <v>2.33</v>
+      </c>
+      <c r="BM143">
+        <v>1.83</v>
+      </c>
+      <c r="BN143">
+        <v>1.85</v>
+      </c>
+      <c r="BO143">
+        <v>2.3</v>
+      </c>
+      <c r="BP143">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7478877</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F144">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>91</v>
+      </c>
+      <c r="H144" t="s">
+        <v>72</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>95</v>
+      </c>
+      <c r="P144" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q144">
+        <v>2.3</v>
+      </c>
+      <c r="R144">
+        <v>2.1</v>
+      </c>
+      <c r="S144">
+        <v>5.5</v>
+      </c>
+      <c r="T144">
+        <v>1.44</v>
+      </c>
+      <c r="U144">
+        <v>2.63</v>
+      </c>
+      <c r="V144">
+        <v>3.25</v>
+      </c>
+      <c r="W144">
+        <v>1.33</v>
+      </c>
+      <c r="X144">
+        <v>9</v>
+      </c>
+      <c r="Y144">
+        <v>1.07</v>
+      </c>
+      <c r="Z144">
+        <v>1.8</v>
+      </c>
+      <c r="AA144">
+        <v>3.6</v>
+      </c>
+      <c r="AB144">
+        <v>4.4</v>
+      </c>
+      <c r="AC144">
+        <v>1.06</v>
+      </c>
+      <c r="AD144">
+        <v>10</v>
+      </c>
+      <c r="AE144">
+        <v>1.36</v>
+      </c>
+      <c r="AF144">
+        <v>3.2</v>
+      </c>
+      <c r="AG144">
+        <v>2</v>
+      </c>
+      <c r="AH144">
+        <v>1.7</v>
+      </c>
+      <c r="AI144">
+        <v>2</v>
+      </c>
+      <c r="AJ144">
+        <v>1.73</v>
+      </c>
+      <c r="AK144">
+        <v>1.17</v>
+      </c>
+      <c r="AL144">
+        <v>1.24</v>
+      </c>
+      <c r="AM144">
+        <v>2.25</v>
+      </c>
+      <c r="AN144">
+        <v>2.2</v>
+      </c>
+      <c r="AO144">
+        <v>1</v>
+      </c>
+      <c r="AP144">
+        <v>2</v>
+      </c>
+      <c r="AQ144">
+        <v>1</v>
+      </c>
+      <c r="AR144">
+        <v>1.29</v>
+      </c>
+      <c r="AS144">
+        <v>0.97</v>
+      </c>
+      <c r="AT144">
+        <v>2.26</v>
+      </c>
+      <c r="AU144">
+        <v>5</v>
+      </c>
+      <c r="AV144">
+        <v>0</v>
+      </c>
+      <c r="AW144">
+        <v>8</v>
+      </c>
+      <c r="AX144">
+        <v>2</v>
+      </c>
+      <c r="AY144">
+        <v>23</v>
+      </c>
+      <c r="AZ144">
+        <v>3</v>
+      </c>
+      <c r="BA144">
+        <v>16</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>17</v>
+      </c>
+      <c r="BD144">
+        <v>1.47</v>
+      </c>
+      <c r="BE144">
+        <v>7</v>
+      </c>
+      <c r="BF144">
+        <v>2.95</v>
+      </c>
+      <c r="BG144">
+        <v>1.24</v>
+      </c>
+      <c r="BH144">
+        <v>3.55</v>
+      </c>
+      <c r="BI144">
+        <v>1.41</v>
+      </c>
+      <c r="BJ144">
+        <v>2.65</v>
+      </c>
+      <c r="BK144">
+        <v>1.68</v>
+      </c>
+      <c r="BL144">
+        <v>2.04</v>
+      </c>
+      <c r="BM144">
+        <v>2.06</v>
+      </c>
+      <c r="BN144">
+        <v>1.66</v>
+      </c>
+      <c r="BO144">
+        <v>2.63</v>
+      </c>
+      <c r="BP144">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -586,7 +586,7 @@
     <t>['80']</t>
   </si>
   <si>
-    <t>['59', '76', '90+2']</t>
+    <t>['59', '76', '90+1']</t>
   </si>
   <si>
     <t>['71']</t>
@@ -28552,7 +28552,7 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45590.66666666666</v>
+        <v>45589.875</v>
       </c>
       <c r="F134">
         <v>12</v>
@@ -28749,7 +28749,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7478878</v>
+        <v>7478876</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28764,43 +28764,43 @@
         <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H135" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="R135">
         <v>2.2</v>
       </c>
       <c r="S135">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="T135">
         <v>1.4</v>
@@ -28821,19 +28821,19 @@
         <v>1.08</v>
       </c>
       <c r="Z135">
-        <v>2.37</v>
+        <v>4.33</v>
       </c>
       <c r="AA135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB135">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="AC135">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD135">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE135">
         <v>1.3</v>
@@ -28842,112 +28842,112 @@
         <v>3.45</v>
       </c>
       <c r="AG135">
+        <v>1.85</v>
+      </c>
+      <c r="AH135">
         <v>1.83</v>
       </c>
-      <c r="AH135">
-        <v>1.85</v>
-      </c>
       <c r="AI135">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AJ135">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK135">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="AL135">
         <v>1.25</v>
       </c>
       <c r="AM135">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="AN135">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AO135">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AP135">
+        <v>1.67</v>
+      </c>
+      <c r="AQ135">
+        <v>1.67</v>
+      </c>
+      <c r="AR135">
         <v>1.5</v>
       </c>
-      <c r="AQ135">
-        <v>0.67</v>
-      </c>
-      <c r="AR135">
-        <v>1.84</v>
-      </c>
       <c r="AS135">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AT135">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="AU135">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AV135">
         <v>6</v>
       </c>
       <c r="AW135">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AX135">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY135">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AZ135">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA135">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BB135">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC135">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BD135">
-        <v>1.92</v>
+        <v>2.38</v>
       </c>
       <c r="BE135">
         <v>6.75</v>
       </c>
       <c r="BF135">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="BG135">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="BH135">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="BI135">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BJ135">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BK135">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="BL135">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="BM135">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="BN135">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="BO135">
-        <v>2.28</v>
+        <v>2.55</v>
       </c>
       <c r="BP135">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28955,7 +28955,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7478876</v>
+        <v>7478878</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28964,49 +28964,49 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45591.35416666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F136">
         <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H136" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O136" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="Q136">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="R136">
         <v>2.2</v>
       </c>
       <c r="S136">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="T136">
         <v>1.4</v>
@@ -29027,19 +29027,19 @@
         <v>1.08</v>
       </c>
       <c r="Z136">
-        <v>4.33</v>
+        <v>2.37</v>
       </c>
       <c r="AA136">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB136">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="AC136">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD136">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE136">
         <v>1.3</v>
@@ -29048,112 +29048,112 @@
         <v>3.45</v>
       </c>
       <c r="AG136">
+        <v>1.83</v>
+      </c>
+      <c r="AH136">
         <v>1.85</v>
       </c>
-      <c r="AH136">
-        <v>1.83</v>
-      </c>
       <c r="AI136">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AJ136">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK136">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="AL136">
         <v>1.25</v>
       </c>
       <c r="AM136">
+        <v>1.55</v>
+      </c>
+      <c r="AN136">
         <v>1.2</v>
       </c>
-      <c r="AN136">
-        <v>1.8</v>
-      </c>
       <c r="AO136">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AR136">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="AS136">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AT136">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="AU136">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AV136">
         <v>6</v>
       </c>
       <c r="AW136">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX136">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY136">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AZ136">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BA136">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC136">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD136">
-        <v>2.38</v>
+        <v>1.92</v>
       </c>
       <c r="BE136">
         <v>6.75</v>
       </c>
       <c r="BF136">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="BG136">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BH136">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="BI136">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BJ136">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BK136">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="BL136">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="BM136">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="BN136">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BO136">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="BP136">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -29170,7 +29170,7 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45591.35416666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F137">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['14', '50']</t>
   </si>
   <si>
+    <t>['8', '71', '80']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -773,6 +776,9 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['13', '40', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1399,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1599,7 +1605,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1805,7 +1811,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2217,7 +2223,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2629,7 +2635,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2835,7 +2841,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3041,7 +3047,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3659,7 +3665,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3865,7 +3871,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4358,7 +4364,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4689,7 +4695,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5307,7 +5313,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5513,7 +5519,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5591,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>0.5</v>
@@ -6337,7 +6343,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6955,7 +6961,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7161,7 +7167,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8191,7 +8197,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8397,7 +8403,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8475,7 +8481,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8603,7 +8609,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8809,7 +8815,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9015,7 +9021,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9221,7 +9227,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9302,7 +9308,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9427,7 +9433,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9839,7 +9845,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10045,7 +10051,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -11281,7 +11287,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12517,7 +12523,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12723,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13341,7 +13347,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13547,7 +13553,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13753,7 +13759,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14040,7 +14046,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14243,7 +14249,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14577,7 +14583,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15195,7 +15201,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15607,7 +15613,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16225,7 +16231,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16637,7 +16643,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16843,7 +16849,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17255,7 +17261,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17667,7 +17673,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18491,7 +18497,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -19315,7 +19321,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19727,7 +19733,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19805,7 +19811,7 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91">
         <v>1.67</v>
@@ -19933,7 +19939,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20220,7 +20226,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
         <v>1.4</v>
@@ -21169,7 +21175,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21659,7 +21665,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
         <v>1.33</v>
@@ -21993,7 +21999,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22199,7 +22205,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22817,7 +22823,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22898,7 +22904,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ106">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23435,7 +23441,7 @@
         <v>172</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -24671,7 +24677,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24877,7 +24883,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25289,7 +25295,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -26319,7 +26325,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26525,7 +26531,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26731,7 +26737,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27555,7 +27561,7 @@
         <v>188</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27967,7 +27973,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28552,7 +28558,7 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45589.875</v>
+        <v>45590.66666666666</v>
       </c>
       <c r="F134">
         <v>12</v>
@@ -28585,7 +28591,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28758,7 +28764,7 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45590.875</v>
+        <v>45591.35416666666</v>
       </c>
       <c r="F135">
         <v>12</v>
@@ -28964,7 +28970,7 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45590.875</v>
+        <v>45591.35416666666</v>
       </c>
       <c r="F136">
         <v>12</v>
@@ -28997,7 +29003,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29170,7 +29176,7 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45590.875</v>
+        <v>45591.35416666666</v>
       </c>
       <c r="F137">
         <v>12</v>
@@ -29379,7 +29385,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G138" t="s">
         <v>93</v>
@@ -29791,7 +29797,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G140" t="s">
         <v>88</v>
@@ -29821,7 +29827,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30027,7 +30033,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30203,7 +30209,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G142" t="s">
         <v>84</v>
@@ -30233,7 +30239,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30802,6 +30808,212 @@
       </c>
       <c r="BP144">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7478880</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45592.5</v>
+      </c>
+      <c r="F145">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>90</v>
+      </c>
+      <c r="H145" t="s">
+        <v>79</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>3</v>
+      </c>
+      <c r="K145">
+        <v>4</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>6</v>
+      </c>
+      <c r="O145" t="s">
+        <v>196</v>
+      </c>
+      <c r="P145" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q145">
+        <v>3.2</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>3.2</v>
+      </c>
+      <c r="T145">
+        <v>1.36</v>
+      </c>
+      <c r="U145">
+        <v>3</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>7</v>
+      </c>
+      <c r="Y145">
+        <v>1.1</v>
+      </c>
+      <c r="Z145">
+        <v>2.72</v>
+      </c>
+      <c r="AA145">
+        <v>3.38</v>
+      </c>
+      <c r="AB145">
+        <v>2.53</v>
+      </c>
+      <c r="AC145">
+        <v>1.04</v>
+      </c>
+      <c r="AD145">
+        <v>12</v>
+      </c>
+      <c r="AE145">
+        <v>1.28</v>
+      </c>
+      <c r="AF145">
+        <v>3.75</v>
+      </c>
+      <c r="AG145">
+        <v>1.81</v>
+      </c>
+      <c r="AH145">
+        <v>2</v>
+      </c>
+      <c r="AI145">
+        <v>1.62</v>
+      </c>
+      <c r="AJ145">
+        <v>2.2</v>
+      </c>
+      <c r="AK145">
+        <v>1.52</v>
+      </c>
+      <c r="AL145">
+        <v>1.28</v>
+      </c>
+      <c r="AM145">
+        <v>1.52</v>
+      </c>
+      <c r="AN145">
+        <v>1.8</v>
+      </c>
+      <c r="AO145">
+        <v>1.2</v>
+      </c>
+      <c r="AP145">
+        <v>1.67</v>
+      </c>
+      <c r="AQ145">
+        <v>1.17</v>
+      </c>
+      <c r="AR145">
+        <v>1.49</v>
+      </c>
+      <c r="AS145">
+        <v>1.5</v>
+      </c>
+      <c r="AT145">
+        <v>2.99</v>
+      </c>
+      <c r="AU145">
+        <v>5</v>
+      </c>
+      <c r="AV145">
+        <v>9</v>
+      </c>
+      <c r="AW145">
+        <v>5</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>11</v>
+      </c>
+      <c r="AZ145">
+        <v>16</v>
+      </c>
+      <c r="BA145">
+        <v>3</v>
+      </c>
+      <c r="BB145">
+        <v>2</v>
+      </c>
+      <c r="BC145">
+        <v>5</v>
+      </c>
+      <c r="BD145">
+        <v>1.95</v>
+      </c>
+      <c r="BE145">
+        <v>6.75</v>
+      </c>
+      <c r="BF145">
+        <v>2.02</v>
+      </c>
+      <c r="BG145">
+        <v>1.21</v>
+      </c>
+      <c r="BH145">
+        <v>3.8</v>
+      </c>
+      <c r="BI145">
+        <v>1.4</v>
+      </c>
+      <c r="BJ145">
+        <v>2.7</v>
+      </c>
+      <c r="BK145">
+        <v>1.65</v>
+      </c>
+      <c r="BL145">
+        <v>2.08</v>
+      </c>
+      <c r="BM145">
+        <v>1.98</v>
+      </c>
+      <c r="BN145">
+        <v>1.72</v>
+      </c>
+      <c r="BO145">
+        <v>2.5</v>
+      </c>
+      <c r="BP145">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -604,7 +604,7 @@
     <t>['14', '50']</t>
   </si>
   <si>
-    <t>['8', '71', '80']</t>
+    <t>['9', '71', '80']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -30950,22 +30950,22 @@
         <v>2.99</v>
       </c>
       <c r="AU145">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV145">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW145">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX145">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY145">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ145">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BA145">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -30950,22 +30950,22 @@
         <v>2.99</v>
       </c>
       <c r="AU145">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV145">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW145">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX145">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY145">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ145">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA145">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,9 @@
     <t>['9', '71', '80']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -721,9 +724,6 @@
     <t>['45', '54']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['25', '36', '71']</t>
   </si>
   <si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>['13', '40', '45+2']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1402,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1605,7 +1608,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1811,7 +1814,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1892,7 +1895,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2223,7 +2226,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2635,7 +2638,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2841,7 +2844,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3047,7 +3050,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3665,7 +3668,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3743,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
         <v>1.83</v>
@@ -3871,7 +3874,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4695,7 +4698,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5313,7 +5316,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5519,7 +5522,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6343,7 +6346,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6961,7 +6964,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7167,7 +7170,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8197,7 +8200,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8278,7 +8281,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8403,7 +8406,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8609,7 +8612,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8815,7 +8818,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8893,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9021,7 +9024,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9227,7 +9230,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9433,7 +9436,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9845,7 +9848,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10051,7 +10054,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -11287,7 +11290,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -12523,7 +12526,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12729,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13347,7 +13350,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13553,7 +13556,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13634,7 +13637,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ61">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -13759,7 +13762,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14583,7 +14586,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15201,7 +15204,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15485,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70">
         <v>1.17</v>
@@ -15613,7 +15616,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16231,7 +16234,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16643,7 +16646,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16849,7 +16852,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -16930,7 +16933,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR77">
         <v>1.68</v>
@@ -17261,7 +17264,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17673,7 +17676,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18497,7 +18500,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -19321,7 +19324,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19399,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ89">
         <v>0.33</v>
@@ -19733,7 +19736,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -24137,7 +24140,7 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ112">
         <v>0.5</v>
@@ -24552,7 +24555,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR114">
         <v>1.12</v>
@@ -27848,7 +27851,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ130">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28051,7 +28054,7 @@
         <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ131">
         <v>2</v>
@@ -31014,6 +31017,212 @@
       </c>
       <c r="BP145">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7478892</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45596.875</v>
+      </c>
+      <c r="F146">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>81</v>
+      </c>
+      <c r="H146" t="s">
+        <v>83</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>197</v>
+      </c>
+      <c r="P146" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q146">
+        <v>3.1</v>
+      </c>
+      <c r="R146">
+        <v>2.1</v>
+      </c>
+      <c r="S146">
+        <v>3.5</v>
+      </c>
+      <c r="T146">
+        <v>1.4</v>
+      </c>
+      <c r="U146">
+        <v>2.75</v>
+      </c>
+      <c r="V146">
+        <v>3</v>
+      </c>
+      <c r="W146">
+        <v>1.36</v>
+      </c>
+      <c r="X146">
+        <v>9</v>
+      </c>
+      <c r="Y146">
+        <v>1.07</v>
+      </c>
+      <c r="Z146">
+        <v>2.4</v>
+      </c>
+      <c r="AA146">
+        <v>3.3</v>
+      </c>
+      <c r="AB146">
+        <v>2.9</v>
+      </c>
+      <c r="AC146">
+        <v>1.06</v>
+      </c>
+      <c r="AD146">
+        <v>8.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.33</v>
+      </c>
+      <c r="AF146">
+        <v>3.2</v>
+      </c>
+      <c r="AG146">
+        <v>2.15</v>
+      </c>
+      <c r="AH146">
+        <v>1.65</v>
+      </c>
+      <c r="AI146">
+        <v>1.8</v>
+      </c>
+      <c r="AJ146">
+        <v>1.91</v>
+      </c>
+      <c r="AK146">
+        <v>1.42</v>
+      </c>
+      <c r="AL146">
+        <v>1.28</v>
+      </c>
+      <c r="AM146">
+        <v>1.5</v>
+      </c>
+      <c r="AN146">
+        <v>1.17</v>
+      </c>
+      <c r="AO146">
+        <v>1.83</v>
+      </c>
+      <c r="AP146">
+        <v>1.14</v>
+      </c>
+      <c r="AQ146">
+        <v>1.71</v>
+      </c>
+      <c r="AR146">
+        <v>1.37</v>
+      </c>
+      <c r="AS146">
+        <v>1.24</v>
+      </c>
+      <c r="AT146">
+        <v>2.61</v>
+      </c>
+      <c r="AU146">
+        <v>6</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>5</v>
+      </c>
+      <c r="AX146">
+        <v>2</v>
+      </c>
+      <c r="AY146">
+        <v>14</v>
+      </c>
+      <c r="AZ146">
+        <v>11</v>
+      </c>
+      <c r="BA146">
+        <v>6</v>
+      </c>
+      <c r="BB146">
+        <v>3</v>
+      </c>
+      <c r="BC146">
+        <v>9</v>
+      </c>
+      <c r="BD146">
+        <v>1.36</v>
+      </c>
+      <c r="BE146">
+        <v>7.5</v>
+      </c>
+      <c r="BF146">
+        <v>3.4</v>
+      </c>
+      <c r="BG146">
+        <v>1.18</v>
+      </c>
+      <c r="BH146">
+        <v>4.1</v>
+      </c>
+      <c r="BI146">
+        <v>1.32</v>
+      </c>
+      <c r="BJ146">
+        <v>3.05</v>
+      </c>
+      <c r="BK146">
+        <v>1.53</v>
+      </c>
+      <c r="BL146">
+        <v>2.32</v>
+      </c>
+      <c r="BM146">
+        <v>1.84</v>
+      </c>
+      <c r="BN146">
+        <v>1.84</v>
+      </c>
+      <c r="BO146">
+        <v>2.25</v>
+      </c>
+      <c r="BP146">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,24 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['9', '82']</t>
+  </si>
+  <si>
+    <t>['89', '90+3']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['30', '33', '38']</t>
+  </si>
+  <si>
+    <t>['34', '82']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -782,6 +800,27 @@
   </si>
   <si>
     <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['16', '64']</t>
+  </si>
+  <si>
+    <t>['38', '80']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['42', '76', '81']</t>
+  </si>
+  <si>
+    <t>['6', '51', '81']</t>
+  </si>
+  <si>
+    <t>['29', '52', '58', '67', '85', '88']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1441,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1480,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1608,7 +1647,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1686,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1814,7 +1853,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1892,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ4">
         <v>1.71</v>
@@ -2098,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2226,7 +2265,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2304,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2510,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2638,7 +2677,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2716,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2844,7 +2883,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2925,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3050,7 +3089,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3128,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3334,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3540,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ12">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3668,7 +3707,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3749,7 +3788,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3874,7 +3913,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4698,7 +4737,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5316,7 +5355,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5522,7 +5561,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6346,7 +6385,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6424,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ26">
         <v>1.67</v>
@@ -6836,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ28">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -6964,7 +7003,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7045,7 +7084,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -7170,7 +7209,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7248,10 +7287,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7457,7 +7496,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ31">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -7663,7 +7702,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ32">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -7866,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -8072,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ34">
         <v>0.33</v>
@@ -8200,7 +8239,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8278,7 +8317,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35">
         <v>1.71</v>
@@ -8406,7 +8445,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8487,7 +8526,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8612,7 +8651,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8818,7 +8857,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9024,7 +9063,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9230,7 +9269,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9308,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9436,7 +9475,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9517,7 +9556,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9723,7 +9762,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -9848,7 +9887,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9929,7 +9968,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10054,7 +10093,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10338,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ45">
         <v>1.17</v>
@@ -10544,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10753,7 +10792,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -10956,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -11165,7 +11204,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ49">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -11290,7 +11329,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11371,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11574,10 +11613,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11780,7 +11819,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -11986,7 +12025,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
         <v>0.67</v>
@@ -12401,7 +12440,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12526,7 +12565,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12607,7 +12646,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12732,7 +12771,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12810,7 +12849,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13019,7 +13058,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR58">
         <v>1.35</v>
@@ -13222,10 +13261,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13350,7 +13389,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13428,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ60">
         <v>0.5</v>
@@ -13556,7 +13595,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13762,7 +13801,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13840,7 +13879,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -14255,7 +14294,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14458,7 +14497,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14586,7 +14625,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14664,7 +14703,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ66">
         <v>1.67</v>
@@ -14873,7 +14912,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15204,7 +15243,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15285,7 +15324,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15616,7 +15655,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15697,7 +15736,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>2.05</v>
@@ -15903,7 +15942,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ72">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16106,7 +16145,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16234,7 +16273,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16518,7 +16557,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16646,7 +16685,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16727,7 +16766,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
         <v>1.2</v>
@@ -16852,7 +16891,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -16930,7 +16969,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -17136,10 +17175,10 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR78">
         <v>1.32</v>
@@ -17264,7 +17303,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17345,7 +17384,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17548,7 +17587,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80">
         <v>0.67</v>
@@ -17676,7 +17715,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17754,7 +17793,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ81">
         <v>0.5</v>
@@ -18169,7 +18208,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -18372,10 +18411,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -18500,7 +18539,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18581,7 +18620,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR85">
         <v>1.34</v>
@@ -18787,7 +18826,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -18990,7 +19029,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19324,7 +19363,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19611,7 +19650,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ90">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19942,7 +19981,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20020,7 +20059,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20435,7 +20474,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ94">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -20638,10 +20677,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR95">
         <v>0.98</v>
@@ -20844,10 +20883,10 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ96">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR96">
         <v>1.07</v>
@@ -21178,7 +21217,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -22002,7 +22041,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22208,7 +22247,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22826,7 +22865,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -23444,7 +23483,7 @@
         <v>172</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23728,10 +23767,10 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23934,10 +23973,10 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ111">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR111">
         <v>1.11</v>
@@ -24143,7 +24182,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ112">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24346,10 +24385,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ113">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24552,7 +24591,7 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114">
         <v>1.71</v>
@@ -24680,7 +24719,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24758,10 +24797,10 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ115">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -24886,7 +24925,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -24964,10 +25003,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ116">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR116">
         <v>1.81</v>
@@ -25170,10 +25209,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ117">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25298,7 +25337,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25376,10 +25415,10 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR118">
         <v>1.94</v>
@@ -25582,10 +25621,10 @@
         <v>0.75</v>
       </c>
       <c r="AP119">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ119">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -25788,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ120">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR120">
         <v>1.42</v>
@@ -25997,7 +26036,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -26200,10 +26239,10 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ122">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.52</v>
@@ -26328,7 +26367,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26406,10 +26445,10 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26534,7 +26573,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26612,10 +26651,10 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR124">
         <v>1.42</v>
@@ -26740,7 +26779,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -26818,10 +26857,10 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27024,10 +27063,10 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ126">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR126">
         <v>1.35</v>
@@ -27230,10 +27269,10 @@
         <v>0.2</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ127">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27436,10 +27475,10 @@
         <v>0.4</v>
       </c>
       <c r="AP128">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ128">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR128">
         <v>1.8</v>
@@ -27564,7 +27603,7 @@
         <v>188</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27645,7 +27684,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -27848,7 +27887,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ130">
         <v>1.71</v>
@@ -27976,7 +28015,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28057,7 +28096,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -28260,10 +28299,10 @@
         <v>0.2</v>
       </c>
       <c r="AP132">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ132">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR132">
         <v>1.45</v>
@@ -28466,10 +28505,10 @@
         <v>1.6</v>
       </c>
       <c r="AP133">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ133">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28594,7 +28633,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -29006,7 +29045,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29830,7 +29869,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30036,7 +30075,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30242,7 +30281,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30860,7 +30899,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31033,10 +31072,10 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45596.875</v>
+        <v>45597.70833333334</v>
       </c>
       <c r="F146">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G146" t="s">
         <v>81</v>
@@ -31066,7 +31105,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31223,6 +31262,2272 @@
       </c>
       <c r="BP146">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7478888</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45598.39583333334</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>70</v>
+      </c>
+      <c r="H147" t="s">
+        <v>86</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>95</v>
+      </c>
+      <c r="P147" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q147">
+        <v>3.5</v>
+      </c>
+      <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>3.25</v>
+      </c>
+      <c r="T147">
+        <v>1.44</v>
+      </c>
+      <c r="U147">
+        <v>2.63</v>
+      </c>
+      <c r="V147">
+        <v>3.25</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>10</v>
+      </c>
+      <c r="Y147">
+        <v>1.06</v>
+      </c>
+      <c r="Z147">
+        <v>2.87</v>
+      </c>
+      <c r="AA147">
+        <v>3.22</v>
+      </c>
+      <c r="AB147">
+        <v>2.38</v>
+      </c>
+      <c r="AC147">
+        <v>1.08</v>
+      </c>
+      <c r="AD147">
+        <v>7.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.4</v>
+      </c>
+      <c r="AF147">
+        <v>2.88</v>
+      </c>
+      <c r="AG147">
+        <v>2.23</v>
+      </c>
+      <c r="AH147">
+        <v>1.58</v>
+      </c>
+      <c r="AI147">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.48</v>
+      </c>
+      <c r="AL147">
+        <v>1.3</v>
+      </c>
+      <c r="AM147">
+        <v>1.42</v>
+      </c>
+      <c r="AN147">
+        <v>2.67</v>
+      </c>
+      <c r="AO147">
+        <v>1.33</v>
+      </c>
+      <c r="AP147">
+        <v>2.29</v>
+      </c>
+      <c r="AQ147">
+        <v>1.57</v>
+      </c>
+      <c r="AR147">
+        <v>1.31</v>
+      </c>
+      <c r="AS147">
+        <v>1.21</v>
+      </c>
+      <c r="AT147">
+        <v>2.52</v>
+      </c>
+      <c r="AU147">
+        <v>0</v>
+      </c>
+      <c r="AV147">
+        <v>10</v>
+      </c>
+      <c r="AW147">
+        <v>5</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>11</v>
+      </c>
+      <c r="AZ147">
+        <v>21</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>8</v>
+      </c>
+      <c r="BC147">
+        <v>13</v>
+      </c>
+      <c r="BD147">
+        <v>2.07</v>
+      </c>
+      <c r="BE147">
+        <v>6.75</v>
+      </c>
+      <c r="BF147">
+        <v>1.9</v>
+      </c>
+      <c r="BG147">
+        <v>1.17</v>
+      </c>
+      <c r="BH147">
+        <v>4.3</v>
+      </c>
+      <c r="BI147">
+        <v>1.3</v>
+      </c>
+      <c r="BJ147">
+        <v>3.05</v>
+      </c>
+      <c r="BK147">
+        <v>1.52</v>
+      </c>
+      <c r="BL147">
+        <v>2.33</v>
+      </c>
+      <c r="BM147">
+        <v>1.82</v>
+      </c>
+      <c r="BN147">
+        <v>1.86</v>
+      </c>
+      <c r="BO147">
+        <v>2.23</v>
+      </c>
+      <c r="BP147">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7478895</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45598.39583333334</v>
+      </c>
+      <c r="F148">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s">
+        <v>88</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>198</v>
+      </c>
+      <c r="P148" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q148">
+        <v>3.4</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>3.25</v>
+      </c>
+      <c r="T148">
+        <v>1.44</v>
+      </c>
+      <c r="U148">
+        <v>2.63</v>
+      </c>
+      <c r="V148">
+        <v>3.25</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>9</v>
+      </c>
+      <c r="Y148">
+        <v>1.07</v>
+      </c>
+      <c r="Z148">
+        <v>2.51</v>
+      </c>
+      <c r="AA148">
+        <v>3.15</v>
+      </c>
+      <c r="AB148">
+        <v>2.75</v>
+      </c>
+      <c r="AC148">
+        <v>1.07</v>
+      </c>
+      <c r="AD148">
+        <v>8</v>
+      </c>
+      <c r="AE148">
+        <v>1.38</v>
+      </c>
+      <c r="AF148">
+        <v>3</v>
+      </c>
+      <c r="AG148">
+        <v>2.31</v>
+      </c>
+      <c r="AH148">
+        <v>1.54</v>
+      </c>
+      <c r="AI148">
+        <v>1.83</v>
+      </c>
+      <c r="AJ148">
+        <v>1.83</v>
+      </c>
+      <c r="AK148">
+        <v>1.45</v>
+      </c>
+      <c r="AL148">
+        <v>1.3</v>
+      </c>
+      <c r="AM148">
+        <v>1.45</v>
+      </c>
+      <c r="AN148">
+        <v>2</v>
+      </c>
+      <c r="AO148">
+        <v>0.67</v>
+      </c>
+      <c r="AP148">
+        <v>1.71</v>
+      </c>
+      <c r="AQ148">
+        <v>1</v>
+      </c>
+      <c r="AR148">
+        <v>1.08</v>
+      </c>
+      <c r="AS148">
+        <v>0.93</v>
+      </c>
+      <c r="AT148">
+        <v>2.01</v>
+      </c>
+      <c r="AU148">
+        <v>3</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>6</v>
+      </c>
+      <c r="AY148">
+        <v>10</v>
+      </c>
+      <c r="AZ148">
+        <v>17</v>
+      </c>
+      <c r="BA148">
+        <v>1</v>
+      </c>
+      <c r="BB148">
+        <v>8</v>
+      </c>
+      <c r="BC148">
+        <v>9</v>
+      </c>
+      <c r="BD148">
+        <v>2.48</v>
+      </c>
+      <c r="BE148">
+        <v>6.75</v>
+      </c>
+      <c r="BF148">
+        <v>1.65</v>
+      </c>
+      <c r="BG148">
+        <v>1.24</v>
+      </c>
+      <c r="BH148">
+        <v>3.55</v>
+      </c>
+      <c r="BI148">
+        <v>1.43</v>
+      </c>
+      <c r="BJ148">
+        <v>2.55</v>
+      </c>
+      <c r="BK148">
+        <v>1.7</v>
+      </c>
+      <c r="BL148">
+        <v>2</v>
+      </c>
+      <c r="BM148">
+        <v>2.08</v>
+      </c>
+      <c r="BN148">
+        <v>1.65</v>
+      </c>
+      <c r="BO148">
+        <v>2.65</v>
+      </c>
+      <c r="BP148">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7478899</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45598.39583333334</v>
+      </c>
+      <c r="F149">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>75</v>
+      </c>
+      <c r="H149" t="s">
+        <v>84</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>199</v>
+      </c>
+      <c r="P149" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q149">
+        <v>2.88</v>
+      </c>
+      <c r="R149">
+        <v>2.1</v>
+      </c>
+      <c r="S149">
+        <v>3.75</v>
+      </c>
+      <c r="T149">
+        <v>1.4</v>
+      </c>
+      <c r="U149">
+        <v>2.75</v>
+      </c>
+      <c r="V149">
+        <v>3</v>
+      </c>
+      <c r="W149">
+        <v>1.36</v>
+      </c>
+      <c r="X149">
+        <v>8</v>
+      </c>
+      <c r="Y149">
+        <v>1.08</v>
+      </c>
+      <c r="Z149">
+        <v>1.92</v>
+      </c>
+      <c r="AA149">
+        <v>3.43</v>
+      </c>
+      <c r="AB149">
+        <v>3.72</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.33</v>
+      </c>
+      <c r="AF149">
+        <v>3.2</v>
+      </c>
+      <c r="AG149">
+        <v>1.95</v>
+      </c>
+      <c r="AH149">
+        <v>1.76</v>
+      </c>
+      <c r="AI149">
+        <v>1.73</v>
+      </c>
+      <c r="AJ149">
+        <v>2</v>
+      </c>
+      <c r="AK149">
+        <v>1.33</v>
+      </c>
+      <c r="AL149">
+        <v>1.28</v>
+      </c>
+      <c r="AM149">
+        <v>1.65</v>
+      </c>
+      <c r="AN149">
+        <v>1.33</v>
+      </c>
+      <c r="AO149">
+        <v>0.33</v>
+      </c>
+      <c r="AP149">
+        <v>1.57</v>
+      </c>
+      <c r="AQ149">
+        <v>0.29</v>
+      </c>
+      <c r="AR149">
+        <v>1.41</v>
+      </c>
+      <c r="AS149">
+        <v>1.1</v>
+      </c>
+      <c r="AT149">
+        <v>2.51</v>
+      </c>
+      <c r="AU149">
+        <v>5</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>3</v>
+      </c>
+      <c r="AX149">
+        <v>4</v>
+      </c>
+      <c r="AY149">
+        <v>14</v>
+      </c>
+      <c r="AZ149">
+        <v>10</v>
+      </c>
+      <c r="BA149">
+        <v>9</v>
+      </c>
+      <c r="BB149">
+        <v>4</v>
+      </c>
+      <c r="BC149">
+        <v>13</v>
+      </c>
+      <c r="BD149">
+        <v>1.29</v>
+      </c>
+      <c r="BE149">
+        <v>8</v>
+      </c>
+      <c r="BF149">
+        <v>3.9</v>
+      </c>
+      <c r="BG149">
+        <v>1.16</v>
+      </c>
+      <c r="BH149">
+        <v>4.3</v>
+      </c>
+      <c r="BI149">
+        <v>1.3</v>
+      </c>
+      <c r="BJ149">
+        <v>3.15</v>
+      </c>
+      <c r="BK149">
+        <v>1.5</v>
+      </c>
+      <c r="BL149">
+        <v>2.38</v>
+      </c>
+      <c r="BM149">
+        <v>1.79</v>
+      </c>
+      <c r="BN149">
+        <v>1.9</v>
+      </c>
+      <c r="BO149">
+        <v>2.18</v>
+      </c>
+      <c r="BP149">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7478889</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F150">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s">
+        <v>90</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>200</v>
+      </c>
+      <c r="P150" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q150">
+        <v>3.2</v>
+      </c>
+      <c r="R150">
+        <v>2.2</v>
+      </c>
+      <c r="S150">
+        <v>3.2</v>
+      </c>
+      <c r="T150">
+        <v>1.36</v>
+      </c>
+      <c r="U150">
+        <v>3</v>
+      </c>
+      <c r="V150">
+        <v>2.75</v>
+      </c>
+      <c r="W150">
+        <v>1.4</v>
+      </c>
+      <c r="X150">
+        <v>7</v>
+      </c>
+      <c r="Y150">
+        <v>1.1</v>
+      </c>
+      <c r="Z150">
+        <v>2.61</v>
+      </c>
+      <c r="AA150">
+        <v>3.28</v>
+      </c>
+      <c r="AB150">
+        <v>2.42</v>
+      </c>
+      <c r="AC150">
+        <v>1.05</v>
+      </c>
+      <c r="AD150">
+        <v>9</v>
+      </c>
+      <c r="AE150">
+        <v>1.28</v>
+      </c>
+      <c r="AF150">
+        <v>3.5</v>
+      </c>
+      <c r="AG150">
+        <v>1.91</v>
+      </c>
+      <c r="AH150">
+        <v>1.73</v>
+      </c>
+      <c r="AI150">
+        <v>1.67</v>
+      </c>
+      <c r="AJ150">
+        <v>2.1</v>
+      </c>
+      <c r="AK150">
+        <v>1.48</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.48</v>
+      </c>
+      <c r="AN150">
+        <v>1.5</v>
+      </c>
+      <c r="AO150">
+        <v>1.33</v>
+      </c>
+      <c r="AP150">
+        <v>1.71</v>
+      </c>
+      <c r="AQ150">
+        <v>1.14</v>
+      </c>
+      <c r="AR150">
+        <v>1.54</v>
+      </c>
+      <c r="AS150">
+        <v>1.01</v>
+      </c>
+      <c r="AT150">
+        <v>2.55</v>
+      </c>
+      <c r="AU150">
+        <v>6</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>1</v>
+      </c>
+      <c r="AX150">
+        <v>3</v>
+      </c>
+      <c r="AY150">
+        <v>12</v>
+      </c>
+      <c r="AZ150">
+        <v>16</v>
+      </c>
+      <c r="BA150">
+        <v>4</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>8</v>
+      </c>
+      <c r="BD150">
+        <v>1.72</v>
+      </c>
+      <c r="BE150">
+        <v>6.4</v>
+      </c>
+      <c r="BF150">
+        <v>2.35</v>
+      </c>
+      <c r="BG150">
+        <v>1.29</v>
+      </c>
+      <c r="BH150">
+        <v>3.15</v>
+      </c>
+      <c r="BI150">
+        <v>1.5</v>
+      </c>
+      <c r="BJ150">
+        <v>2.33</v>
+      </c>
+      <c r="BK150">
+        <v>1.84</v>
+      </c>
+      <c r="BL150">
+        <v>1.84</v>
+      </c>
+      <c r="BM150">
+        <v>2.33</v>
+      </c>
+      <c r="BN150">
+        <v>1.52</v>
+      </c>
+      <c r="BO150">
+        <v>2.95</v>
+      </c>
+      <c r="BP150">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7478890</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F151">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s">
+        <v>77</v>
+      </c>
+      <c r="H151" t="s">
+        <v>85</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>201</v>
+      </c>
+      <c r="P151" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q151">
+        <v>2.25</v>
+      </c>
+      <c r="R151">
+        <v>2.38</v>
+      </c>
+      <c r="S151">
+        <v>4.75</v>
+      </c>
+      <c r="T151">
+        <v>1.3</v>
+      </c>
+      <c r="U151">
+        <v>3.4</v>
+      </c>
+      <c r="V151">
+        <v>2.5</v>
+      </c>
+      <c r="W151">
+        <v>1.5</v>
+      </c>
+      <c r="X151">
+        <v>6</v>
+      </c>
+      <c r="Y151">
+        <v>1.13</v>
+      </c>
+      <c r="Z151">
+        <v>1.76</v>
+      </c>
+      <c r="AA151">
+        <v>3.45</v>
+      </c>
+      <c r="AB151">
+        <v>4.15</v>
+      </c>
+      <c r="AC151">
+        <v>1.04</v>
+      </c>
+      <c r="AD151">
+        <v>10</v>
+      </c>
+      <c r="AE151">
+        <v>1.22</v>
+      </c>
+      <c r="AF151">
+        <v>4.2</v>
+      </c>
+      <c r="AG151">
+        <v>1.73</v>
+      </c>
+      <c r="AH151">
+        <v>1.91</v>
+      </c>
+      <c r="AI151">
+        <v>1.62</v>
+      </c>
+      <c r="AJ151">
+        <v>2.2</v>
+      </c>
+      <c r="AK151">
+        <v>1.18</v>
+      </c>
+      <c r="AL151">
+        <v>1.2</v>
+      </c>
+      <c r="AM151">
+        <v>2.15</v>
+      </c>
+      <c r="AN151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
+        <v>0.83</v>
+      </c>
+      <c r="AP151">
+        <v>1</v>
+      </c>
+      <c r="AQ151">
+        <v>0.86</v>
+      </c>
+      <c r="AR151">
+        <v>1.35</v>
+      </c>
+      <c r="AS151">
+        <v>0.89</v>
+      </c>
+      <c r="AT151">
+        <v>2.24</v>
+      </c>
+      <c r="AU151">
+        <v>4</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>3</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>11</v>
+      </c>
+      <c r="AZ151">
+        <v>10</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>3</v>
+      </c>
+      <c r="BC151">
+        <v>8</v>
+      </c>
+      <c r="BD151">
+        <v>1.41</v>
+      </c>
+      <c r="BE151">
+        <v>7</v>
+      </c>
+      <c r="BF151">
+        <v>3.3</v>
+      </c>
+      <c r="BG151">
+        <v>1.24</v>
+      </c>
+      <c r="BH151">
+        <v>3.55</v>
+      </c>
+      <c r="BI151">
+        <v>1.41</v>
+      </c>
+      <c r="BJ151">
+        <v>2.63</v>
+      </c>
+      <c r="BK151">
+        <v>1.68</v>
+      </c>
+      <c r="BL151">
+        <v>2.04</v>
+      </c>
+      <c r="BM151">
+        <v>2.07</v>
+      </c>
+      <c r="BN151">
+        <v>1.65</v>
+      </c>
+      <c r="BO151">
+        <v>2.6</v>
+      </c>
+      <c r="BP151">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7478891</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F152">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>76</v>
+      </c>
+      <c r="H152" t="s">
+        <v>92</v>
+      </c>
+      <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>3</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>202</v>
+      </c>
+      <c r="P152" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q152">
+        <v>1.57</v>
+      </c>
+      <c r="R152">
+        <v>2.88</v>
+      </c>
+      <c r="S152">
+        <v>10</v>
+      </c>
+      <c r="T152">
+        <v>1.22</v>
+      </c>
+      <c r="U152">
+        <v>4</v>
+      </c>
+      <c r="V152">
+        <v>2.1</v>
+      </c>
+      <c r="W152">
+        <v>1.67</v>
+      </c>
+      <c r="X152">
+        <v>4.5</v>
+      </c>
+      <c r="Y152">
+        <v>1.18</v>
+      </c>
+      <c r="Z152">
+        <v>1.23</v>
+      </c>
+      <c r="AA152">
+        <v>5.6</v>
+      </c>
+      <c r="AB152">
+        <v>9.25</v>
+      </c>
+      <c r="AC152">
+        <v>1.02</v>
+      </c>
+      <c r="AD152">
+        <v>26</v>
+      </c>
+      <c r="AE152">
+        <v>1.13</v>
+      </c>
+      <c r="AF152">
+        <v>6</v>
+      </c>
+      <c r="AG152">
+        <v>1.56</v>
+      </c>
+      <c r="AH152">
+        <v>2.18</v>
+      </c>
+      <c r="AI152">
+        <v>2</v>
+      </c>
+      <c r="AJ152">
+        <v>1.73</v>
+      </c>
+      <c r="AK152">
+        <v>1.04</v>
+      </c>
+      <c r="AL152">
+        <v>1.09</v>
+      </c>
+      <c r="AM152">
+        <v>4.5</v>
+      </c>
+      <c r="AN152">
+        <v>2.17</v>
+      </c>
+      <c r="AO152">
+        <v>0.17</v>
+      </c>
+      <c r="AP152">
+        <v>2.29</v>
+      </c>
+      <c r="AQ152">
+        <v>0.14</v>
+      </c>
+      <c r="AR152">
+        <v>1.82</v>
+      </c>
+      <c r="AS152">
+        <v>0.8</v>
+      </c>
+      <c r="AT152">
+        <v>2.62</v>
+      </c>
+      <c r="AU152">
+        <v>8</v>
+      </c>
+      <c r="AV152">
+        <v>0</v>
+      </c>
+      <c r="AW152">
+        <v>8</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>24</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>9</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>9</v>
+      </c>
+      <c r="BD152">
+        <v>1.21</v>
+      </c>
+      <c r="BE152">
+        <v>9</v>
+      </c>
+      <c r="BF152">
+        <v>4.8</v>
+      </c>
+      <c r="BG152">
+        <v>1.15</v>
+      </c>
+      <c r="BH152">
+        <v>4.6</v>
+      </c>
+      <c r="BI152">
+        <v>1.26</v>
+      </c>
+      <c r="BJ152">
+        <v>3.4</v>
+      </c>
+      <c r="BK152">
+        <v>1.44</v>
+      </c>
+      <c r="BL152">
+        <v>2.55</v>
+      </c>
+      <c r="BM152">
+        <v>1.7</v>
+      </c>
+      <c r="BN152">
+        <v>2</v>
+      </c>
+      <c r="BO152">
+        <v>2.05</v>
+      </c>
+      <c r="BP152">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7478893</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F153">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" t="s">
+        <v>82</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>95</v>
+      </c>
+      <c r="P153" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q153">
+        <v>2.25</v>
+      </c>
+      <c r="R153">
+        <v>2.38</v>
+      </c>
+      <c r="S153">
+        <v>4.75</v>
+      </c>
+      <c r="T153">
+        <v>1.33</v>
+      </c>
+      <c r="U153">
+        <v>3.25</v>
+      </c>
+      <c r="V153">
+        <v>2.5</v>
+      </c>
+      <c r="W153">
+        <v>1.5</v>
+      </c>
+      <c r="X153">
+        <v>6</v>
+      </c>
+      <c r="Y153">
+        <v>1.13</v>
+      </c>
+      <c r="Z153">
+        <v>1.78</v>
+      </c>
+      <c r="AA153">
+        <v>3.35</v>
+      </c>
+      <c r="AB153">
+        <v>4.13</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
+      <c r="AE153">
+        <v>1.22</v>
+      </c>
+      <c r="AF153">
+        <v>4.2</v>
+      </c>
+      <c r="AG153">
+        <v>2.09</v>
+      </c>
+      <c r="AH153">
+        <v>1.61</v>
+      </c>
+      <c r="AI153">
+        <v>1.67</v>
+      </c>
+      <c r="AJ153">
+        <v>2.1</v>
+      </c>
+      <c r="AK153">
+        <v>1.18</v>
+      </c>
+      <c r="AL153">
+        <v>1.2</v>
+      </c>
+      <c r="AM153">
+        <v>2.1</v>
+      </c>
+      <c r="AN153">
+        <v>1.83</v>
+      </c>
+      <c r="AO153">
+        <v>0.5</v>
+      </c>
+      <c r="AP153">
+        <v>1.57</v>
+      </c>
+      <c r="AQ153">
+        <v>0.86</v>
+      </c>
+      <c r="AR153">
+        <v>1.84</v>
+      </c>
+      <c r="AS153">
+        <v>1.07</v>
+      </c>
+      <c r="AT153">
+        <v>2.91</v>
+      </c>
+      <c r="AU153">
+        <v>2</v>
+      </c>
+      <c r="AV153">
+        <v>5</v>
+      </c>
+      <c r="AW153">
+        <v>3</v>
+      </c>
+      <c r="AX153">
+        <v>3</v>
+      </c>
+      <c r="AY153">
+        <v>11</v>
+      </c>
+      <c r="AZ153">
+        <v>11</v>
+      </c>
+      <c r="BA153">
+        <v>6</v>
+      </c>
+      <c r="BB153">
+        <v>8</v>
+      </c>
+      <c r="BC153">
+        <v>14</v>
+      </c>
+      <c r="BD153">
+        <v>1.76</v>
+      </c>
+      <c r="BE153">
+        <v>7</v>
+      </c>
+      <c r="BF153">
+        <v>2.18</v>
+      </c>
+      <c r="BG153">
+        <v>1.1</v>
+      </c>
+      <c r="BH153">
+        <v>5.6</v>
+      </c>
+      <c r="BI153">
+        <v>1.2</v>
+      </c>
+      <c r="BJ153">
+        <v>3.95</v>
+      </c>
+      <c r="BK153">
+        <v>1.34</v>
+      </c>
+      <c r="BL153">
+        <v>2.9</v>
+      </c>
+      <c r="BM153">
+        <v>1.55</v>
+      </c>
+      <c r="BN153">
+        <v>2.28</v>
+      </c>
+      <c r="BO153">
+        <v>1.84</v>
+      </c>
+      <c r="BP153">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7478896</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F154">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154" t="s">
+        <v>89</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>132</v>
+      </c>
+      <c r="P154" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q154">
+        <v>3.25</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>3.5</v>
+      </c>
+      <c r="T154">
+        <v>1.44</v>
+      </c>
+      <c r="U154">
+        <v>2.63</v>
+      </c>
+      <c r="V154">
+        <v>3.25</v>
+      </c>
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>10</v>
+      </c>
+      <c r="Y154">
+        <v>1.06</v>
+      </c>
+      <c r="Z154">
+        <v>2.55</v>
+      </c>
+      <c r="AA154">
+        <v>3.15</v>
+      </c>
+      <c r="AB154">
+        <v>2.55</v>
+      </c>
+      <c r="AC154">
+        <v>1.06</v>
+      </c>
+      <c r="AD154">
+        <v>8.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.36</v>
+      </c>
+      <c r="AF154">
+        <v>3.1</v>
+      </c>
+      <c r="AG154">
+        <v>2</v>
+      </c>
+      <c r="AH154">
+        <v>1.66</v>
+      </c>
+      <c r="AI154">
+        <v>1.83</v>
+      </c>
+      <c r="AJ154">
+        <v>1.83</v>
+      </c>
+      <c r="AK154">
+        <v>1.42</v>
+      </c>
+      <c r="AL154">
+        <v>1.28</v>
+      </c>
+      <c r="AM154">
+        <v>1.5</v>
+      </c>
+      <c r="AN154">
+        <v>1.83</v>
+      </c>
+      <c r="AO154">
+        <v>1</v>
+      </c>
+      <c r="AP154">
+        <v>1.57</v>
+      </c>
+      <c r="AQ154">
+        <v>1.29</v>
+      </c>
+      <c r="AR154">
+        <v>1.21</v>
+      </c>
+      <c r="AS154">
+        <v>1.52</v>
+      </c>
+      <c r="AT154">
+        <v>2.73</v>
+      </c>
+      <c r="AU154">
+        <v>3</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
+        <v>1</v>
+      </c>
+      <c r="AY154">
+        <v>16</v>
+      </c>
+      <c r="AZ154">
+        <v>6</v>
+      </c>
+      <c r="BA154">
+        <v>4</v>
+      </c>
+      <c r="BB154">
+        <v>1</v>
+      </c>
+      <c r="BC154">
+        <v>5</v>
+      </c>
+      <c r="BD154">
+        <v>2.23</v>
+      </c>
+      <c r="BE154">
+        <v>6.4</v>
+      </c>
+      <c r="BF154">
+        <v>1.79</v>
+      </c>
+      <c r="BG154">
+        <v>1.24</v>
+      </c>
+      <c r="BH154">
+        <v>3.55</v>
+      </c>
+      <c r="BI154">
+        <v>1.43</v>
+      </c>
+      <c r="BJ154">
+        <v>2.6</v>
+      </c>
+      <c r="BK154">
+        <v>1.71</v>
+      </c>
+      <c r="BL154">
+        <v>2</v>
+      </c>
+      <c r="BM154">
+        <v>2.1</v>
+      </c>
+      <c r="BN154">
+        <v>1.64</v>
+      </c>
+      <c r="BO154">
+        <v>2.65</v>
+      </c>
+      <c r="BP154">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7478897</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F155">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>72</v>
+      </c>
+      <c r="H155" t="s">
+        <v>93</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>95</v>
+      </c>
+      <c r="P155" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q155">
+        <v>4.33</v>
+      </c>
+      <c r="R155">
+        <v>2.1</v>
+      </c>
+      <c r="S155">
+        <v>2.75</v>
+      </c>
+      <c r="T155">
+        <v>1.44</v>
+      </c>
+      <c r="U155">
+        <v>2.63</v>
+      </c>
+      <c r="V155">
+        <v>3.25</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>9</v>
+      </c>
+      <c r="Y155">
+        <v>1.07</v>
+      </c>
+      <c r="Z155">
+        <v>2.89</v>
+      </c>
+      <c r="AA155">
+        <v>3.27</v>
+      </c>
+      <c r="AB155">
+        <v>2.23</v>
+      </c>
+      <c r="AC155">
+        <v>1.06</v>
+      </c>
+      <c r="AD155">
+        <v>8.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.35</v>
+      </c>
+      <c r="AF155">
+        <v>3.1</v>
+      </c>
+      <c r="AG155">
+        <v>1.91</v>
+      </c>
+      <c r="AH155">
+        <v>1.73</v>
+      </c>
+      <c r="AI155">
+        <v>1.83</v>
+      </c>
+      <c r="AJ155">
+        <v>1.83</v>
+      </c>
+      <c r="AK155">
+        <v>1.7</v>
+      </c>
+      <c r="AL155">
+        <v>1.25</v>
+      </c>
+      <c r="AM155">
+        <v>1.28</v>
+      </c>
+      <c r="AN155">
+        <v>0.5</v>
+      </c>
+      <c r="AO155">
+        <v>2</v>
+      </c>
+      <c r="AP155">
+        <v>0.57</v>
+      </c>
+      <c r="AQ155">
+        <v>1.86</v>
+      </c>
+      <c r="AR155">
+        <v>1.73</v>
+      </c>
+      <c r="AS155">
+        <v>1.36</v>
+      </c>
+      <c r="AT155">
+        <v>3.09</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>2</v>
+      </c>
+      <c r="AW155">
+        <v>12</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>18</v>
+      </c>
+      <c r="AZ155">
+        <v>9</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>6</v>
+      </c>
+      <c r="BC155">
+        <v>12</v>
+      </c>
+      <c r="BD155">
+        <v>2.15</v>
+      </c>
+      <c r="BE155">
+        <v>6.75</v>
+      </c>
+      <c r="BF155">
+        <v>1.82</v>
+      </c>
+      <c r="BG155">
+        <v>1.19</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>1.34</v>
+      </c>
+      <c r="BJ155">
+        <v>2.9</v>
+      </c>
+      <c r="BK155">
+        <v>1.58</v>
+      </c>
+      <c r="BL155">
+        <v>2.2</v>
+      </c>
+      <c r="BM155">
+        <v>1.92</v>
+      </c>
+      <c r="BN155">
+        <v>1.77</v>
+      </c>
+      <c r="BO155">
+        <v>2.4</v>
+      </c>
+      <c r="BP155">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7478898</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F156">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>80</v>
+      </c>
+      <c r="H156" t="s">
+        <v>87</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
+        <v>8</v>
+      </c>
+      <c r="O156" t="s">
+        <v>203</v>
+      </c>
+      <c r="P156" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q156">
+        <v>2.6</v>
+      </c>
+      <c r="R156">
+        <v>2.2</v>
+      </c>
+      <c r="S156">
+        <v>4.33</v>
+      </c>
+      <c r="T156">
+        <v>1.4</v>
+      </c>
+      <c r="U156">
+        <v>2.75</v>
+      </c>
+      <c r="V156">
+        <v>2.75</v>
+      </c>
+      <c r="W156">
+        <v>1.4</v>
+      </c>
+      <c r="X156">
+        <v>8</v>
+      </c>
+      <c r="Y156">
+        <v>1.08</v>
+      </c>
+      <c r="Z156">
+        <v>2</v>
+      </c>
+      <c r="AA156">
+        <v>3.38</v>
+      </c>
+      <c r="AB156">
+        <v>3.28</v>
+      </c>
+      <c r="AC156">
+        <v>1.05</v>
+      </c>
+      <c r="AD156">
+        <v>11</v>
+      </c>
+      <c r="AE156">
+        <v>1.32</v>
+      </c>
+      <c r="AF156">
+        <v>3.4</v>
+      </c>
+      <c r="AG156">
+        <v>1.73</v>
+      </c>
+      <c r="AH156">
+        <v>1.91</v>
+      </c>
+      <c r="AI156">
+        <v>1.8</v>
+      </c>
+      <c r="AJ156">
+        <v>1.91</v>
+      </c>
+      <c r="AK156">
+        <v>1.28</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.87</v>
+      </c>
+      <c r="AN156">
+        <v>1.33</v>
+      </c>
+      <c r="AO156">
+        <v>0.5</v>
+      </c>
+      <c r="AP156">
+        <v>1.14</v>
+      </c>
+      <c r="AQ156">
+        <v>0.86</v>
+      </c>
+      <c r="AR156">
+        <v>1.43</v>
+      </c>
+      <c r="AS156">
+        <v>1.07</v>
+      </c>
+      <c r="AT156">
+        <v>2.5</v>
+      </c>
+      <c r="AU156">
+        <v>7</v>
+      </c>
+      <c r="AV156">
+        <v>8</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
+        <v>6</v>
+      </c>
+      <c r="AY156">
+        <v>15</v>
+      </c>
+      <c r="AZ156">
+        <v>15</v>
+      </c>
+      <c r="BA156">
+        <v>7</v>
+      </c>
+      <c r="BB156">
+        <v>2</v>
+      </c>
+      <c r="BC156">
+        <v>9</v>
+      </c>
+      <c r="BD156">
+        <v>1.55</v>
+      </c>
+      <c r="BE156">
+        <v>6.75</v>
+      </c>
+      <c r="BF156">
+        <v>2.65</v>
+      </c>
+      <c r="BG156">
+        <v>1.23</v>
+      </c>
+      <c r="BH156">
+        <v>3.65</v>
+      </c>
+      <c r="BI156">
+        <v>1.4</v>
+      </c>
+      <c r="BJ156">
+        <v>2.65</v>
+      </c>
+      <c r="BK156">
+        <v>1.65</v>
+      </c>
+      <c r="BL156">
+        <v>2.07</v>
+      </c>
+      <c r="BM156">
+        <v>2.04</v>
+      </c>
+      <c r="BN156">
+        <v>1.67</v>
+      </c>
+      <c r="BO156">
+        <v>2.55</v>
+      </c>
+      <c r="BP156">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7478894</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45599.5</v>
+      </c>
+      <c r="F157">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>74</v>
+      </c>
+      <c r="H157" t="s">
+        <v>91</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>113</v>
+      </c>
+      <c r="P157" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q157">
+        <v>3.6</v>
+      </c>
+      <c r="R157">
+        <v>1.91</v>
+      </c>
+      <c r="S157">
+        <v>3.6</v>
+      </c>
+      <c r="T157">
+        <v>1.62</v>
+      </c>
+      <c r="U157">
+        <v>2.2</v>
+      </c>
+      <c r="V157">
+        <v>4</v>
+      </c>
+      <c r="W157">
+        <v>1.22</v>
+      </c>
+      <c r="X157">
+        <v>13</v>
+      </c>
+      <c r="Y157">
+        <v>1.04</v>
+      </c>
+      <c r="Z157">
+        <v>2.65</v>
+      </c>
+      <c r="AA157">
+        <v>3.2</v>
+      </c>
+      <c r="AB157">
+        <v>2.7</v>
+      </c>
+      <c r="AC157">
+        <v>1.12</v>
+      </c>
+      <c r="AD157">
+        <v>6.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.53</v>
+      </c>
+      <c r="AF157">
+        <v>2.3</v>
+      </c>
+      <c r="AG157">
+        <v>2.2</v>
+      </c>
+      <c r="AH157">
+        <v>1.58</v>
+      </c>
+      <c r="AI157">
+        <v>2.2</v>
+      </c>
+      <c r="AJ157">
+        <v>1.62</v>
+      </c>
+      <c r="AK157">
+        <v>1.45</v>
+      </c>
+      <c r="AL157">
+        <v>1.35</v>
+      </c>
+      <c r="AM157">
+        <v>1.47</v>
+      </c>
+      <c r="AN157">
+        <v>1.67</v>
+      </c>
+      <c r="AO157">
+        <v>1.83</v>
+      </c>
+      <c r="AP157">
+        <v>1.86</v>
+      </c>
+      <c r="AQ157">
+        <v>1.57</v>
+      </c>
+      <c r="AR157">
+        <v>1.46</v>
+      </c>
+      <c r="AS157">
+        <v>1.18</v>
+      </c>
+      <c r="AT157">
+        <v>2.64</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>2</v>
+      </c>
+      <c r="AW157">
+        <v>8</v>
+      </c>
+      <c r="AX157">
+        <v>7</v>
+      </c>
+      <c r="AY157">
+        <v>13</v>
+      </c>
+      <c r="AZ157">
+        <v>9</v>
+      </c>
+      <c r="BA157">
+        <v>2</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>5</v>
+      </c>
+      <c r="BD157">
+        <v>2.15</v>
+      </c>
+      <c r="BE157">
+        <v>6.75</v>
+      </c>
+      <c r="BF157">
+        <v>1.84</v>
+      </c>
+      <c r="BG157">
+        <v>1.24</v>
+      </c>
+      <c r="BH157">
+        <v>3.55</v>
+      </c>
+      <c r="BI157">
+        <v>1.41</v>
+      </c>
+      <c r="BJ157">
+        <v>2.65</v>
+      </c>
+      <c r="BK157">
+        <v>1.7</v>
+      </c>
+      <c r="BL157">
+        <v>2.02</v>
+      </c>
+      <c r="BM157">
+        <v>2.08</v>
+      </c>
+      <c r="BN157">
+        <v>1.65</v>
+      </c>
+      <c r="BO157">
+        <v>2.65</v>
+      </c>
+      <c r="BP157">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,22 +610,43 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['9', '82']</t>
+  </si>
+  <si>
     <t>['88']</t>
   </si>
   <si>
-    <t>['9', '82']</t>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['34', '82']</t>
   </si>
   <si>
     <t>['89', '90+3']</t>
   </si>
   <si>
-    <t>['11']</t>
-  </si>
-  <si>
     <t>['30', '33', '38']</t>
   </si>
   <si>
-    <t>['34', '82']</t>
+    <t>['12', '34']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -775,9 +796,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['77']</t>
-  </si>
-  <si>
     <t>['55', '66']</t>
   </si>
   <si>
@@ -793,22 +811,19 @@
     <t>['16', '45+3', '48']</t>
   </si>
   <si>
-    <t>['57']</t>
-  </si>
-  <si>
     <t>['13', '40', '45+2']</t>
   </si>
   <si>
     <t>['45+4']</t>
   </si>
   <si>
-    <t>['16', '64']</t>
+    <t>['68']</t>
   </si>
   <si>
     <t>['38', '80']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['16', '64']</t>
   </si>
   <si>
     <t>['46']</t>
@@ -821,6 +836,18 @@
   </si>
   <si>
     <t>['29', '52', '58', '67', '85', '88']</t>
+  </si>
+  <si>
+    <t>['31', '35', '87', '90+5']</t>
+  </si>
+  <si>
+    <t>['86', '90+8']</t>
+  </si>
+  <si>
+    <t>['57', '85']</t>
+  </si>
+  <si>
+    <t>['11', '73']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1468,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1519,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1647,7 +1674,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1725,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1853,7 +1880,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1931,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>1.71</v>
@@ -2137,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2265,7 +2292,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2343,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2677,7 +2704,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2758,7 +2785,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ8">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2883,7 +2910,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3089,7 +3116,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3170,7 +3197,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ10">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3579,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>0.14</v>
@@ -3707,7 +3734,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3785,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>1.57</v>
@@ -3913,7 +3940,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3991,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
         <v>0.33</v>
@@ -4200,7 +4227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4406,7 +4433,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4737,7 +4764,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5024,7 +5051,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5227,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5355,7 +5382,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5433,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5561,7 +5588,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5848,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6051,10 +6078,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6385,7 +6412,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6463,10 +6490,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -6875,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
         <v>0.14</v>
@@ -7003,7 +7030,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7081,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ29">
         <v>0.86</v>
@@ -7209,7 +7236,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7290,7 +7317,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ30">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>1.4</v>
@@ -7496,7 +7523,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ31">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -7905,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -8111,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.33</v>
@@ -8239,7 +8266,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8445,7 +8472,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8526,7 +8553,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -8651,7 +8678,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8729,10 +8756,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8857,7 +8884,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8935,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9063,7 +9090,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9269,7 +9296,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9350,7 +9377,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>1.28</v>
@@ -9475,7 +9502,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9553,10 +9580,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>2.58</v>
@@ -9887,7 +9914,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9968,7 +9995,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -10093,7 +10120,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10171,10 +10198,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.62</v>
@@ -10377,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.17</v>
@@ -10586,7 +10613,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>2.31</v>
@@ -10995,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -11204,7 +11231,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ49">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.17</v>
@@ -11329,7 +11356,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11410,7 +11437,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11819,7 +11846,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12025,10 +12052,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.18</v>
@@ -12234,7 +12261,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12565,7 +12592,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12643,10 +12670,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12771,7 +12798,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12849,7 +12876,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13055,10 +13082,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.35</v>
@@ -13261,7 +13288,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
         <v>1.29</v>
@@ -13389,7 +13416,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13595,7 +13622,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13801,7 +13828,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13882,7 +13909,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>0.99</v>
@@ -14088,7 +14115,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14294,7 +14321,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14497,7 +14524,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14625,7 +14652,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14706,7 +14733,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -15115,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ68">
         <v>0.33</v>
@@ -15243,7 +15270,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15324,7 +15351,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15527,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
         <v>1.17</v>
@@ -15655,7 +15682,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15733,7 +15760,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15942,7 +15969,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ72">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16145,7 +16172,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16273,7 +16300,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16351,7 +16378,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16557,7 +16584,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16685,7 +16712,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16766,7 +16793,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ76">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.2</v>
@@ -16891,7 +16918,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -16969,7 +16996,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -17175,7 +17202,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>1.57</v>
@@ -17303,7 +17330,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17384,7 +17411,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ79">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17590,7 +17617,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.8</v>
@@ -17715,7 +17742,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17793,7 +17820,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>0.5</v>
@@ -18002,7 +18029,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR82">
         <v>1.37</v>
@@ -18208,7 +18235,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -18539,7 +18566,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18617,7 +18644,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1.29</v>
@@ -19235,7 +19262,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
         <v>0.5</v>
@@ -19363,7 +19390,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19441,7 +19468,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
         <v>0.33</v>
@@ -19650,7 +19677,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ90">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19856,7 +19883,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -19981,7 +20008,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20059,10 +20086,10 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR92">
         <v>1.63</v>
@@ -20268,7 +20295,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR93">
         <v>1.4</v>
@@ -20677,10 +20704,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR95">
         <v>0.98</v>
@@ -20886,7 +20913,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ96">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR96">
         <v>1.07</v>
@@ -21089,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ97">
         <v>1.17</v>
@@ -21217,7 +21244,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21298,7 +21325,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR98">
         <v>1.22</v>
@@ -21710,7 +21737,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22041,7 +22068,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22119,7 +22146,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
         <v>1.17</v>
@@ -22247,7 +22274,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22325,7 +22352,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>0.5</v>
@@ -22737,10 +22764,10 @@
         <v>0.75</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.25</v>
@@ -22865,7 +22892,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22946,7 +22973,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ106">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23483,7 +23510,7 @@
         <v>172</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23561,10 +23588,10 @@
         <v>0.25</v>
       </c>
       <c r="AP109">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ109">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR109">
         <v>1.56</v>
@@ -23770,7 +23797,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ110">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -24179,10 +24206,10 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24385,7 +24412,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>0.86</v>
@@ -24591,7 +24618,7 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ114">
         <v>1.71</v>
@@ -24719,7 +24746,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24797,7 +24824,7 @@
         <v>1.75</v>
       </c>
       <c r="AP115">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ115">
         <v>1.57</v>
@@ -24925,7 +24952,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25003,10 +25030,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ116">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.81</v>
@@ -25212,7 +25239,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ117">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25337,7 +25364,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25621,7 +25648,7 @@
         <v>0.75</v>
       </c>
       <c r="AP119">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25827,10 +25854,10 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR120">
         <v>1.42</v>
@@ -26036,7 +26063,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -26239,7 +26266,7 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26367,7 +26394,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26445,10 +26472,10 @@
         <v>1.4</v>
       </c>
       <c r="AP123">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.29</v>
@@ -26573,7 +26600,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26779,7 +26806,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -26860,7 +26887,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ125">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -27066,7 +27093,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ126">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR126">
         <v>1.35</v>
@@ -27269,10 +27296,10 @@
         <v>0.2</v>
       </c>
       <c r="AP127">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27475,7 +27502,7 @@
         <v>0.4</v>
       </c>
       <c r="AP128">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ128">
         <v>0.86</v>
@@ -27603,7 +27630,7 @@
         <v>188</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27887,7 +27914,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>1.71</v>
@@ -28015,7 +28042,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28093,10 +28120,10 @@
         <v>1.8</v>
       </c>
       <c r="AP131">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -28299,7 +28326,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
         <v>0.14</v>
@@ -28508,7 +28535,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ133">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -28633,7 +28660,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28917,10 +28944,10 @@
         <v>1.8</v>
       </c>
       <c r="AP135">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ135">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -29045,7 +29072,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29123,7 +29150,7 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ136">
         <v>0.67</v>
@@ -29744,7 +29771,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR139">
         <v>1.36</v>
@@ -29869,7 +29896,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -29947,7 +29974,7 @@
         <v>0.6</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30075,7 +30102,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30153,7 +30180,7 @@
         <v>0.4</v>
       </c>
       <c r="AP141">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>0.5</v>
@@ -30281,7 +30308,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30362,7 +30389,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ142">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR142">
         <v>1.28</v>
@@ -30568,7 +30595,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ143">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.59</v>
@@ -30899,7 +30926,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -30980,7 +31007,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ145">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR145">
         <v>1.49</v>
@@ -31105,7 +31132,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31183,7 +31210,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ146">
         <v>1.71</v>
@@ -31269,7 +31296,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7478888</v>
+        <v>7478899</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31281,166 +31308,166 @@
         <v>45598.39583333334</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147">
         <v>1</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q147">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S147">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T147">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U147">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V147">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W147">
+        <v>1.36</v>
+      </c>
+      <c r="X147">
+        <v>8</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>1.92</v>
+      </c>
+      <c r="AA147">
+        <v>3.43</v>
+      </c>
+      <c r="AB147">
+        <v>3.72</v>
+      </c>
+      <c r="AC147">
+        <v>1.06</v>
+      </c>
+      <c r="AD147">
+        <v>8.5</v>
+      </c>
+      <c r="AE147">
         <v>1.33</v>
       </c>
-      <c r="X147">
-        <v>10</v>
-      </c>
-      <c r="Y147">
-        <v>1.06</v>
-      </c>
-      <c r="Z147">
-        <v>2.87</v>
-      </c>
-      <c r="AA147">
-        <v>3.22</v>
-      </c>
-      <c r="AB147">
-        <v>2.38</v>
-      </c>
-      <c r="AC147">
-        <v>1.08</v>
-      </c>
-      <c r="AD147">
-        <v>7.5</v>
-      </c>
-      <c r="AE147">
-        <v>1.4</v>
-      </c>
       <c r="AF147">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AG147">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="AH147">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="AI147">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ147">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK147">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AL147">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM147">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AN147">
-        <v>2.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO147">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AP147">
-        <v>2.29</v>
+        <v>1.57</v>
       </c>
       <c r="AQ147">
-        <v>1.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR147">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS147">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="AT147">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="AU147">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV147">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AW147">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX147">
         <v>4</v>
       </c>
       <c r="AY147">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ147">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BA147">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB147">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC147">
         <v>13</v>
       </c>
       <c r="BD147">
-        <v>2.07</v>
+        <v>1.29</v>
       </c>
       <c r="BE147">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF147">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="BG147">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="BH147">
         <v>4.3</v>
@@ -31449,25 +31476,25 @@
         <v>1.3</v>
       </c>
       <c r="BJ147">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BK147">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BL147">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="BM147">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="BN147">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="BO147">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BP147">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31514,10 +31541,10 @@
         <v>3</v>
       </c>
       <c r="O148" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31595,7 +31622,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31681,7 +31708,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7478899</v>
+        <v>7478888</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31693,166 +31720,166 @@
         <v>45598.39583333334</v>
       </c>
       <c r="F149">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H149" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149">
         <v>1</v>
       </c>
       <c r="L149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O149" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q149">
+        <v>3.5</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>3.25</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>10</v>
+      </c>
+      <c r="Y149">
+        <v>1.06</v>
+      </c>
+      <c r="Z149">
+        <v>2.87</v>
+      </c>
+      <c r="AA149">
+        <v>3.22</v>
+      </c>
+      <c r="AB149">
+        <v>2.38</v>
+      </c>
+      <c r="AC149">
+        <v>1.08</v>
+      </c>
+      <c r="AD149">
+        <v>7.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.4</v>
+      </c>
+      <c r="AF149">
         <v>2.88</v>
       </c>
-      <c r="R149">
-        <v>2.1</v>
-      </c>
-      <c r="S149">
-        <v>3.75</v>
-      </c>
-      <c r="T149">
-        <v>1.4</v>
-      </c>
-      <c r="U149">
-        <v>2.75</v>
-      </c>
-      <c r="V149">
-        <v>3</v>
-      </c>
-      <c r="W149">
-        <v>1.36</v>
-      </c>
-      <c r="X149">
-        <v>8</v>
-      </c>
-      <c r="Y149">
-        <v>1.08</v>
-      </c>
-      <c r="Z149">
-        <v>1.92</v>
-      </c>
-      <c r="AA149">
-        <v>3.43</v>
-      </c>
-      <c r="AB149">
-        <v>3.72</v>
-      </c>
-      <c r="AC149">
-        <v>1.06</v>
-      </c>
-      <c r="AD149">
-        <v>8.5</v>
-      </c>
-      <c r="AE149">
+      <c r="AG149">
+        <v>2.23</v>
+      </c>
+      <c r="AH149">
+        <v>1.58</v>
+      </c>
+      <c r="AI149">
+        <v>1.83</v>
+      </c>
+      <c r="AJ149">
+        <v>1.83</v>
+      </c>
+      <c r="AK149">
+        <v>1.48</v>
+      </c>
+      <c r="AL149">
+        <v>1.3</v>
+      </c>
+      <c r="AM149">
+        <v>1.42</v>
+      </c>
+      <c r="AN149">
+        <v>2.67</v>
+      </c>
+      <c r="AO149">
         <v>1.33</v>
       </c>
-      <c r="AF149">
-        <v>3.2</v>
-      </c>
-      <c r="AG149">
-        <v>1.95</v>
-      </c>
-      <c r="AH149">
-        <v>1.76</v>
-      </c>
-      <c r="AI149">
-        <v>1.73</v>
-      </c>
-      <c r="AJ149">
-        <v>2</v>
-      </c>
-      <c r="AK149">
-        <v>1.33</v>
-      </c>
-      <c r="AL149">
-        <v>1.28</v>
-      </c>
-      <c r="AM149">
-        <v>1.65</v>
-      </c>
-      <c r="AN149">
-        <v>1.33</v>
-      </c>
-      <c r="AO149">
-        <v>0.33</v>
-      </c>
       <c r="AP149">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AQ149">
-        <v>0.29</v>
+        <v>1.75</v>
       </c>
       <c r="AR149">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS149">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AT149">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="AU149">
+        <v>0</v>
+      </c>
+      <c r="AV149">
+        <v>10</v>
+      </c>
+      <c r="AW149">
         <v>5</v>
-      </c>
-      <c r="AV149">
-        <v>4</v>
-      </c>
-      <c r="AW149">
-        <v>3</v>
       </c>
       <c r="AX149">
         <v>4</v>
       </c>
       <c r="AY149">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ149">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BA149">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB149">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC149">
         <v>13</v>
       </c>
       <c r="BD149">
-        <v>1.29</v>
+        <v>2.07</v>
       </c>
       <c r="BE149">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF149">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="BG149">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="BH149">
         <v>4.3</v>
@@ -31861,25 +31888,25 @@
         <v>1.3</v>
       </c>
       <c r="BJ149">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BK149">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BL149">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="BM149">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="BN149">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="BO149">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BP149">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31887,7 +31914,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7478889</v>
+        <v>7478890</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31902,190 +31929,190 @@
         <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H150" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M150">
         <v>1</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O150" t="s">
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="Q150">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R150">
+        <v>2.38</v>
+      </c>
+      <c r="S150">
+        <v>4.75</v>
+      </c>
+      <c r="T150">
+        <v>1.3</v>
+      </c>
+      <c r="U150">
+        <v>3.4</v>
+      </c>
+      <c r="V150">
+        <v>2.5</v>
+      </c>
+      <c r="W150">
+        <v>1.5</v>
+      </c>
+      <c r="X150">
+        <v>6</v>
+      </c>
+      <c r="Y150">
+        <v>1.13</v>
+      </c>
+      <c r="Z150">
+        <v>1.76</v>
+      </c>
+      <c r="AA150">
+        <v>3.45</v>
+      </c>
+      <c r="AB150">
+        <v>4.15</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>10</v>
+      </c>
+      <c r="AE150">
+        <v>1.22</v>
+      </c>
+      <c r="AF150">
+        <v>4.2</v>
+      </c>
+      <c r="AG150">
+        <v>1.73</v>
+      </c>
+      <c r="AH150">
+        <v>1.91</v>
+      </c>
+      <c r="AI150">
+        <v>1.62</v>
+      </c>
+      <c r="AJ150">
         <v>2.2</v>
       </c>
-      <c r="S150">
-        <v>3.2</v>
-      </c>
-      <c r="T150">
-        <v>1.36</v>
-      </c>
-      <c r="U150">
-        <v>3</v>
-      </c>
-      <c r="V150">
-        <v>2.75</v>
-      </c>
-      <c r="W150">
-        <v>1.4</v>
-      </c>
-      <c r="X150">
-        <v>7</v>
-      </c>
-      <c r="Y150">
-        <v>1.1</v>
-      </c>
-      <c r="Z150">
-        <v>2.61</v>
-      </c>
-      <c r="AA150">
-        <v>3.28</v>
-      </c>
-      <c r="AB150">
-        <v>2.42</v>
-      </c>
-      <c r="AC150">
-        <v>1.05</v>
-      </c>
-      <c r="AD150">
-        <v>9</v>
-      </c>
-      <c r="AE150">
-        <v>1.28</v>
-      </c>
-      <c r="AF150">
-        <v>3.5</v>
-      </c>
-      <c r="AG150">
-        <v>1.91</v>
-      </c>
-      <c r="AH150">
-        <v>1.73</v>
-      </c>
-      <c r="AI150">
-        <v>1.67</v>
-      </c>
-      <c r="AJ150">
-        <v>2.1</v>
-      </c>
       <c r="AK150">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="AL150">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM150">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="AN150">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO150">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1.14</v>
+        <v>0.75</v>
       </c>
       <c r="AR150">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AS150">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="AT150">
-        <v>2.55</v>
+        <v>2.24</v>
       </c>
       <c r="AU150">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV150">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX150">
         <v>3</v>
       </c>
       <c r="AY150">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ150">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC150">
         <v>8</v>
       </c>
       <c r="BD150">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="BE150">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF150">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="BG150">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BH150">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="BI150">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BJ150">
-        <v>2.33</v>
+        <v>2.63</v>
       </c>
       <c r="BK150">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="BL150">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="BM150">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="BN150">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="BO150">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="BP150">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32093,7 +32120,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7478890</v>
+        <v>7478893</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32108,34 +32135,34 @@
         <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H151" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151">
         <v>1</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O151" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32147,10 +32174,10 @@
         <v>4.75</v>
       </c>
       <c r="T151">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U151">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V151">
         <v>2.5</v>
@@ -32165,13 +32192,13 @@
         <v>1.13</v>
       </c>
       <c r="Z151">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AA151">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AB151">
-        <v>4.15</v>
+        <v>4.13</v>
       </c>
       <c r="AC151">
         <v>1.04</v>
@@ -32186,16 +32213,16 @@
         <v>4.2</v>
       </c>
       <c r="AG151">
-        <v>1.73</v>
+        <v>2.09</v>
       </c>
       <c r="AH151">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="AI151">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AJ151">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK151">
         <v>1.18</v>
@@ -32204,31 +32231,31 @@
         <v>1.2</v>
       </c>
       <c r="AM151">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AN151">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="AO151">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AQ151">
         <v>0.86</v>
       </c>
       <c r="AR151">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="AS151">
-        <v>0.89</v>
+        <v>1.07</v>
       </c>
       <c r="AT151">
-        <v>2.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV151">
         <v>5</v>
@@ -32243,55 +32270,55 @@
         <v>11</v>
       </c>
       <c r="AZ151">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA151">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB151">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC151">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD151">
-        <v>1.41</v>
+        <v>1.76</v>
       </c>
       <c r="BE151">
         <v>7</v>
       </c>
       <c r="BF151">
-        <v>3.3</v>
+        <v>2.18</v>
       </c>
       <c r="BG151">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="BH151">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="BI151">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="BJ151">
-        <v>2.63</v>
+        <v>3.95</v>
       </c>
       <c r="BK151">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="BL151">
-        <v>2.04</v>
+        <v>2.9</v>
       </c>
       <c r="BM151">
-        <v>2.07</v>
+        <v>1.55</v>
       </c>
       <c r="BN151">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="BO151">
-        <v>2.6</v>
+        <v>1.84</v>
       </c>
       <c r="BP151">
-        <v>1.43</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32299,7 +32326,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7478891</v>
+        <v>7478896</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32314,190 +32341,190 @@
         <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H152" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O152" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="Q152">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="R152">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="S152">
+        <v>3.5</v>
+      </c>
+      <c r="T152">
+        <v>1.44</v>
+      </c>
+      <c r="U152">
+        <v>2.63</v>
+      </c>
+      <c r="V152">
+        <v>3.25</v>
+      </c>
+      <c r="W152">
+        <v>1.33</v>
+      </c>
+      <c r="X152">
         <v>10</v>
       </c>
-      <c r="T152">
-        <v>1.22</v>
-      </c>
-      <c r="U152">
+      <c r="Y152">
+        <v>1.06</v>
+      </c>
+      <c r="Z152">
+        <v>2.55</v>
+      </c>
+      <c r="AA152">
+        <v>3.15</v>
+      </c>
+      <c r="AB152">
+        <v>2.55</v>
+      </c>
+      <c r="AC152">
+        <v>1.06</v>
+      </c>
+      <c r="AD152">
+        <v>8.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.36</v>
+      </c>
+      <c r="AF152">
+        <v>3.1</v>
+      </c>
+      <c r="AG152">
+        <v>2</v>
+      </c>
+      <c r="AH152">
+        <v>1.66</v>
+      </c>
+      <c r="AI152">
+        <v>1.83</v>
+      </c>
+      <c r="AJ152">
+        <v>1.83</v>
+      </c>
+      <c r="AK152">
+        <v>1.42</v>
+      </c>
+      <c r="AL152">
+        <v>1.28</v>
+      </c>
+      <c r="AM152">
+        <v>1.5</v>
+      </c>
+      <c r="AN152">
+        <v>1.83</v>
+      </c>
+      <c r="AO152">
+        <v>1</v>
+      </c>
+      <c r="AP152">
+        <v>1.5</v>
+      </c>
+      <c r="AQ152">
+        <v>1.29</v>
+      </c>
+      <c r="AR152">
+        <v>1.21</v>
+      </c>
+      <c r="AS152">
+        <v>1.52</v>
+      </c>
+      <c r="AT152">
+        <v>2.73</v>
+      </c>
+      <c r="AU152">
+        <v>3</v>
+      </c>
+      <c r="AV152">
         <v>4</v>
       </c>
-      <c r="V152">
+      <c r="AW152">
+        <v>4</v>
+      </c>
+      <c r="AX152">
+        <v>1</v>
+      </c>
+      <c r="AY152">
+        <v>16</v>
+      </c>
+      <c r="AZ152">
+        <v>6</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>1</v>
+      </c>
+      <c r="BC152">
+        <v>5</v>
+      </c>
+      <c r="BD152">
+        <v>2.23</v>
+      </c>
+      <c r="BE152">
+        <v>6.4</v>
+      </c>
+      <c r="BF152">
+        <v>1.79</v>
+      </c>
+      <c r="BG152">
+        <v>1.24</v>
+      </c>
+      <c r="BH152">
+        <v>3.55</v>
+      </c>
+      <c r="BI152">
+        <v>1.43</v>
+      </c>
+      <c r="BJ152">
+        <v>2.6</v>
+      </c>
+      <c r="BK152">
+        <v>1.71</v>
+      </c>
+      <c r="BL152">
+        <v>2</v>
+      </c>
+      <c r="BM152">
         <v>2.1</v>
       </c>
-      <c r="W152">
-        <v>1.67</v>
-      </c>
-      <c r="X152">
-        <v>4.5</v>
-      </c>
-      <c r="Y152">
-        <v>1.18</v>
-      </c>
-      <c r="Z152">
-        <v>1.23</v>
-      </c>
-      <c r="AA152">
-        <v>5.6</v>
-      </c>
-      <c r="AB152">
-        <v>9.25</v>
-      </c>
-      <c r="AC152">
-        <v>1.02</v>
-      </c>
-      <c r="AD152">
-        <v>26</v>
-      </c>
-      <c r="AE152">
-        <v>1.13</v>
-      </c>
-      <c r="AF152">
-        <v>6</v>
-      </c>
-      <c r="AG152">
-        <v>1.56</v>
-      </c>
-      <c r="AH152">
-        <v>2.18</v>
-      </c>
-      <c r="AI152">
-        <v>2</v>
-      </c>
-      <c r="AJ152">
-        <v>1.73</v>
-      </c>
-      <c r="AK152">
-        <v>1.04</v>
-      </c>
-      <c r="AL152">
-        <v>1.09</v>
-      </c>
-      <c r="AM152">
-        <v>4.5</v>
-      </c>
-      <c r="AN152">
-        <v>2.17</v>
-      </c>
-      <c r="AO152">
-        <v>0.17</v>
-      </c>
-      <c r="AP152">
-        <v>2.29</v>
-      </c>
-      <c r="AQ152">
-        <v>0.14</v>
-      </c>
-      <c r="AR152">
-        <v>1.82</v>
-      </c>
-      <c r="AS152">
-        <v>0.8</v>
-      </c>
-      <c r="AT152">
-        <v>2.62</v>
-      </c>
-      <c r="AU152">
-        <v>8</v>
-      </c>
-      <c r="AV152">
-        <v>0</v>
-      </c>
-      <c r="AW152">
-        <v>8</v>
-      </c>
-      <c r="AX152">
-        <v>0</v>
-      </c>
-      <c r="AY152">
-        <v>24</v>
-      </c>
-      <c r="AZ152">
-        <v>0</v>
-      </c>
-      <c r="BA152">
-        <v>9</v>
-      </c>
-      <c r="BB152">
-        <v>0</v>
-      </c>
-      <c r="BC152">
-        <v>9</v>
-      </c>
-      <c r="BD152">
-        <v>1.21</v>
-      </c>
-      <c r="BE152">
-        <v>9</v>
-      </c>
-      <c r="BF152">
-        <v>4.8</v>
-      </c>
-      <c r="BG152">
-        <v>1.15</v>
-      </c>
-      <c r="BH152">
-        <v>4.6</v>
-      </c>
-      <c r="BI152">
-        <v>1.26</v>
-      </c>
-      <c r="BJ152">
-        <v>3.4</v>
-      </c>
-      <c r="BK152">
-        <v>1.44</v>
-      </c>
-      <c r="BL152">
-        <v>2.55</v>
-      </c>
-      <c r="BM152">
-        <v>1.7</v>
-      </c>
       <c r="BN152">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="BO152">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="BP152">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -32505,7 +32532,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7478893</v>
+        <v>7478897</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32520,190 +32547,190 @@
         <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H153" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O153" t="s">
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="Q153">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="R153">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S153">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="T153">
+        <v>1.44</v>
+      </c>
+      <c r="U153">
+        <v>2.63</v>
+      </c>
+      <c r="V153">
+        <v>3.25</v>
+      </c>
+      <c r="W153">
         <v>1.33</v>
       </c>
-      <c r="U153">
-        <v>3.25</v>
-      </c>
-      <c r="V153">
-        <v>2.5</v>
-      </c>
-      <c r="W153">
-        <v>1.5</v>
-      </c>
       <c r="X153">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y153">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="Z153">
-        <v>1.78</v>
+        <v>2.89</v>
       </c>
       <c r="AA153">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="AB153">
-        <v>4.13</v>
+        <v>2.23</v>
       </c>
       <c r="AC153">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD153">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE153">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AF153">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="AG153">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AH153">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AI153">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AJ153">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AK153">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="AL153">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM153">
-        <v>2.1</v>
+        <v>1.28</v>
       </c>
       <c r="AN153">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="AO153">
+        <v>2</v>
+      </c>
+      <c r="AP153">
         <v>0.5</v>
       </c>
-      <c r="AP153">
-        <v>1.57</v>
-      </c>
       <c r="AQ153">
-        <v>0.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR153">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="AS153">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="AT153">
-        <v>2.91</v>
+        <v>3.09</v>
       </c>
       <c r="AU153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV153">
+        <v>2</v>
+      </c>
+      <c r="AW153">
+        <v>12</v>
+      </c>
+      <c r="AX153">
         <v>5</v>
       </c>
-      <c r="AW153">
-        <v>3</v>
-      </c>
-      <c r="AX153">
-        <v>3</v>
-      </c>
       <c r="AY153">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ153">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA153">
         <v>6</v>
       </c>
       <c r="BB153">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC153">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD153">
-        <v>1.76</v>
+        <v>2.15</v>
       </c>
       <c r="BE153">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF153">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="BG153">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="BH153">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="BI153">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="BJ153">
-        <v>3.95</v>
+        <v>2.9</v>
       </c>
       <c r="BK153">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="BL153">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="BM153">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="BN153">
-        <v>2.28</v>
+        <v>1.77</v>
       </c>
       <c r="BO153">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="BP153">
-        <v>1.84</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32711,7 +32738,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7478896</v>
+        <v>7478898</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32726,190 +32753,190 @@
         <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H154" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>1</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M154">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O154" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="P154" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q154">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S154">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="T154">
+        <v>1.4</v>
+      </c>
+      <c r="U154">
+        <v>2.75</v>
+      </c>
+      <c r="V154">
+        <v>2.75</v>
+      </c>
+      <c r="W154">
+        <v>1.4</v>
+      </c>
+      <c r="X154">
+        <v>8</v>
+      </c>
+      <c r="Y154">
+        <v>1.08</v>
+      </c>
+      <c r="Z154">
+        <v>2</v>
+      </c>
+      <c r="AA154">
+        <v>3.38</v>
+      </c>
+      <c r="AB154">
+        <v>3.28</v>
+      </c>
+      <c r="AC154">
+        <v>1.05</v>
+      </c>
+      <c r="AD154">
+        <v>11</v>
+      </c>
+      <c r="AE154">
+        <v>1.32</v>
+      </c>
+      <c r="AF154">
+        <v>3.4</v>
+      </c>
+      <c r="AG154">
+        <v>1.73</v>
+      </c>
+      <c r="AH154">
+        <v>1.91</v>
+      </c>
+      <c r="AI154">
+        <v>1.8</v>
+      </c>
+      <c r="AJ154">
+        <v>1.91</v>
+      </c>
+      <c r="AK154">
+        <v>1.28</v>
+      </c>
+      <c r="AL154">
+        <v>1.25</v>
+      </c>
+      <c r="AM154">
+        <v>1.87</v>
+      </c>
+      <c r="AN154">
+        <v>1.33</v>
+      </c>
+      <c r="AO154">
+        <v>0.5</v>
+      </c>
+      <c r="AP154">
+        <v>1.38</v>
+      </c>
+      <c r="AQ154">
+        <v>0.75</v>
+      </c>
+      <c r="AR154">
+        <v>1.43</v>
+      </c>
+      <c r="AS154">
+        <v>1.07</v>
+      </c>
+      <c r="AT154">
+        <v>2.5</v>
+      </c>
+      <c r="AU154">
+        <v>7</v>
+      </c>
+      <c r="AV154">
+        <v>8</v>
+      </c>
+      <c r="AW154">
+        <v>7</v>
+      </c>
+      <c r="AX154">
+        <v>6</v>
+      </c>
+      <c r="AY154">
+        <v>15</v>
+      </c>
+      <c r="AZ154">
+        <v>15</v>
+      </c>
+      <c r="BA154">
+        <v>7</v>
+      </c>
+      <c r="BB154">
+        <v>2</v>
+      </c>
+      <c r="BC154">
+        <v>9</v>
+      </c>
+      <c r="BD154">
+        <v>1.55</v>
+      </c>
+      <c r="BE154">
+        <v>6.75</v>
+      </c>
+      <c r="BF154">
+        <v>2.65</v>
+      </c>
+      <c r="BG154">
+        <v>1.23</v>
+      </c>
+      <c r="BH154">
+        <v>3.65</v>
+      </c>
+      <c r="BI154">
+        <v>1.4</v>
+      </c>
+      <c r="BJ154">
+        <v>2.65</v>
+      </c>
+      <c r="BK154">
+        <v>1.65</v>
+      </c>
+      <c r="BL154">
+        <v>2.07</v>
+      </c>
+      <c r="BM154">
+        <v>2.04</v>
+      </c>
+      <c r="BN154">
+        <v>1.67</v>
+      </c>
+      <c r="BO154">
+        <v>2.55</v>
+      </c>
+      <c r="BP154">
         <v>1.44</v>
-      </c>
-      <c r="U154">
-        <v>2.63</v>
-      </c>
-      <c r="V154">
-        <v>3.25</v>
-      </c>
-      <c r="W154">
-        <v>1.33</v>
-      </c>
-      <c r="X154">
-        <v>10</v>
-      </c>
-      <c r="Y154">
-        <v>1.06</v>
-      </c>
-      <c r="Z154">
-        <v>2.55</v>
-      </c>
-      <c r="AA154">
-        <v>3.15</v>
-      </c>
-      <c r="AB154">
-        <v>2.55</v>
-      </c>
-      <c r="AC154">
-        <v>1.06</v>
-      </c>
-      <c r="AD154">
-        <v>8.5</v>
-      </c>
-      <c r="AE154">
-        <v>1.36</v>
-      </c>
-      <c r="AF154">
-        <v>3.1</v>
-      </c>
-      <c r="AG154">
-        <v>2</v>
-      </c>
-      <c r="AH154">
-        <v>1.66</v>
-      </c>
-      <c r="AI154">
-        <v>1.83</v>
-      </c>
-      <c r="AJ154">
-        <v>1.83</v>
-      </c>
-      <c r="AK154">
-        <v>1.42</v>
-      </c>
-      <c r="AL154">
-        <v>1.28</v>
-      </c>
-      <c r="AM154">
-        <v>1.5</v>
-      </c>
-      <c r="AN154">
-        <v>1.83</v>
-      </c>
-      <c r="AO154">
-        <v>1</v>
-      </c>
-      <c r="AP154">
-        <v>1.57</v>
-      </c>
-      <c r="AQ154">
-        <v>1.29</v>
-      </c>
-      <c r="AR154">
-        <v>1.21</v>
-      </c>
-      <c r="AS154">
-        <v>1.52</v>
-      </c>
-      <c r="AT154">
-        <v>2.73</v>
-      </c>
-      <c r="AU154">
-        <v>3</v>
-      </c>
-      <c r="AV154">
-        <v>4</v>
-      </c>
-      <c r="AW154">
-        <v>4</v>
-      </c>
-      <c r="AX154">
-        <v>1</v>
-      </c>
-      <c r="AY154">
-        <v>16</v>
-      </c>
-      <c r="AZ154">
-        <v>6</v>
-      </c>
-      <c r="BA154">
-        <v>4</v>
-      </c>
-      <c r="BB154">
-        <v>1</v>
-      </c>
-      <c r="BC154">
-        <v>5</v>
-      </c>
-      <c r="BD154">
-        <v>2.23</v>
-      </c>
-      <c r="BE154">
-        <v>6.4</v>
-      </c>
-      <c r="BF154">
-        <v>1.79</v>
-      </c>
-      <c r="BG154">
-        <v>1.24</v>
-      </c>
-      <c r="BH154">
-        <v>3.55</v>
-      </c>
-      <c r="BI154">
-        <v>1.43</v>
-      </c>
-      <c r="BJ154">
-        <v>2.6</v>
-      </c>
-      <c r="BK154">
-        <v>1.71</v>
-      </c>
-      <c r="BL154">
-        <v>2</v>
-      </c>
-      <c r="BM154">
-        <v>2.1</v>
-      </c>
-      <c r="BN154">
-        <v>1.64</v>
-      </c>
-      <c r="BO154">
-        <v>2.65</v>
-      </c>
-      <c r="BP154">
-        <v>1.4</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32917,7 +32944,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7478897</v>
+        <v>7478889</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32932,10 +32959,10 @@
         <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H155" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -32947,67 +32974,67 @@
         <v>0</v>
       </c>
       <c r="L155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O155" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="P155" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="Q155">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="R155">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S155">
+        <v>3.2</v>
+      </c>
+      <c r="T155">
+        <v>1.36</v>
+      </c>
+      <c r="U155">
+        <v>3</v>
+      </c>
+      <c r="V155">
         <v>2.75</v>
       </c>
-      <c r="T155">
-        <v>1.44</v>
-      </c>
-      <c r="U155">
-        <v>2.63</v>
-      </c>
-      <c r="V155">
-        <v>3.25</v>
-      </c>
       <c r="W155">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X155">
+        <v>7</v>
+      </c>
+      <c r="Y155">
+        <v>1.1</v>
+      </c>
+      <c r="Z155">
+        <v>2.61</v>
+      </c>
+      <c r="AA155">
+        <v>3.28</v>
+      </c>
+      <c r="AB155">
+        <v>2.42</v>
+      </c>
+      <c r="AC155">
+        <v>1.05</v>
+      </c>
+      <c r="AD155">
         <v>9</v>
       </c>
-      <c r="Y155">
-        <v>1.07</v>
-      </c>
-      <c r="Z155">
-        <v>2.89</v>
-      </c>
-      <c r="AA155">
-        <v>3.27</v>
-      </c>
-      <c r="AB155">
-        <v>2.23</v>
-      </c>
-      <c r="AC155">
-        <v>1.06</v>
-      </c>
-      <c r="AD155">
-        <v>8.5</v>
-      </c>
       <c r="AE155">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AF155">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AG155">
         <v>1.91</v>
@@ -33016,106 +33043,106 @@
         <v>1.73</v>
       </c>
       <c r="AI155">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AJ155">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AK155">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AL155">
         <v>1.25</v>
       </c>
       <c r="AM155">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AN155">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO155">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>0.57</v>
+        <v>1.71</v>
       </c>
       <c r="AQ155">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="AS155">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="AT155">
-        <v>3.09</v>
+        <v>2.55</v>
       </c>
       <c r="AU155">
+        <v>6</v>
+      </c>
+      <c r="AV155">
+        <v>6</v>
+      </c>
+      <c r="AW155">
+        <v>1</v>
+      </c>
+      <c r="AX155">
+        <v>3</v>
+      </c>
+      <c r="AY155">
+        <v>12</v>
+      </c>
+      <c r="AZ155">
+        <v>16</v>
+      </c>
+      <c r="BA155">
         <v>4</v>
       </c>
-      <c r="AV155">
-        <v>2</v>
-      </c>
-      <c r="AW155">
-        <v>12</v>
-      </c>
-      <c r="AX155">
-        <v>5</v>
-      </c>
-      <c r="AY155">
-        <v>18</v>
-      </c>
-      <c r="AZ155">
-        <v>9</v>
-      </c>
-      <c r="BA155">
-        <v>6</v>
-      </c>
       <c r="BB155">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC155">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD155">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="BE155">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF155">
-        <v>1.82</v>
+        <v>2.35</v>
       </c>
       <c r="BG155">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BH155">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="BI155">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BJ155">
-        <v>2.9</v>
+        <v>2.33</v>
       </c>
       <c r="BK155">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="BL155">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="BM155">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="BN155">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
       <c r="BO155">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="BP155">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33123,7 +33150,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7478898</v>
+        <v>7478891</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33138,190 +33165,190 @@
         <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H156" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O156" t="s">
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="Q156">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="R156">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="S156">
-        <v>4.33</v>
+        <v>10</v>
       </c>
       <c r="T156">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="U156">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="V156">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="W156">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X156">
+        <v>4.5</v>
+      </c>
+      <c r="Y156">
+        <v>1.18</v>
+      </c>
+      <c r="Z156">
+        <v>1.23</v>
+      </c>
+      <c r="AA156">
+        <v>5.6</v>
+      </c>
+      <c r="AB156">
+        <v>9.25</v>
+      </c>
+      <c r="AC156">
+        <v>1.02</v>
+      </c>
+      <c r="AD156">
+        <v>26</v>
+      </c>
+      <c r="AE156">
+        <v>1.13</v>
+      </c>
+      <c r="AF156">
+        <v>6</v>
+      </c>
+      <c r="AG156">
+        <v>1.56</v>
+      </c>
+      <c r="AH156">
+        <v>2.18</v>
+      </c>
+      <c r="AI156">
+        <v>2</v>
+      </c>
+      <c r="AJ156">
+        <v>1.73</v>
+      </c>
+      <c r="AK156">
+        <v>1.04</v>
+      </c>
+      <c r="AL156">
+        <v>1.09</v>
+      </c>
+      <c r="AM156">
+        <v>4.5</v>
+      </c>
+      <c r="AN156">
+        <v>2.17</v>
+      </c>
+      <c r="AO156">
+        <v>0.17</v>
+      </c>
+      <c r="AP156">
+        <v>2.29</v>
+      </c>
+      <c r="AQ156">
+        <v>0.14</v>
+      </c>
+      <c r="AR156">
+        <v>1.82</v>
+      </c>
+      <c r="AS156">
+        <v>0.8</v>
+      </c>
+      <c r="AT156">
+        <v>2.62</v>
+      </c>
+      <c r="AU156">
         <v>8</v>
       </c>
-      <c r="Y156">
-        <v>1.08</v>
-      </c>
-      <c r="Z156">
-        <v>2</v>
-      </c>
-      <c r="AA156">
-        <v>3.38</v>
-      </c>
-      <c r="AB156">
-        <v>3.28</v>
-      </c>
-      <c r="AC156">
-        <v>1.05</v>
-      </c>
-      <c r="AD156">
-        <v>11</v>
-      </c>
-      <c r="AE156">
-        <v>1.32</v>
-      </c>
-      <c r="AF156">
-        <v>3.4</v>
-      </c>
-      <c r="AG156">
-        <v>1.73</v>
-      </c>
-      <c r="AH156">
-        <v>1.91</v>
-      </c>
-      <c r="AI156">
-        <v>1.8</v>
-      </c>
-      <c r="AJ156">
-        <v>1.91</v>
-      </c>
-      <c r="AK156">
-        <v>1.28</v>
-      </c>
-      <c r="AL156">
-        <v>1.25</v>
-      </c>
-      <c r="AM156">
-        <v>1.87</v>
-      </c>
-      <c r="AN156">
-        <v>1.33</v>
-      </c>
-      <c r="AO156">
-        <v>0.5</v>
-      </c>
-      <c r="AP156">
-        <v>1.14</v>
-      </c>
-      <c r="AQ156">
-        <v>0.86</v>
-      </c>
-      <c r="AR156">
-        <v>1.43</v>
-      </c>
-      <c r="AS156">
-        <v>1.07</v>
-      </c>
-      <c r="AT156">
-        <v>2.5</v>
-      </c>
-      <c r="AU156">
-        <v>7</v>
-      </c>
       <c r="AV156">
+        <v>0</v>
+      </c>
+      <c r="AW156">
         <v>8</v>
       </c>
-      <c r="AW156">
-        <v>7</v>
-      </c>
       <c r="AX156">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY156">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ156">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BA156">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC156">
         <v>9</v>
       </c>
       <c r="BD156">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="BE156">
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="BF156">
-        <v>2.65</v>
+        <v>4.8</v>
       </c>
       <c r="BG156">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="BH156">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="BI156">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="BJ156">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BK156">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="BL156">
-        <v>2.07</v>
+        <v>2.55</v>
       </c>
       <c r="BM156">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="BN156">
+        <v>2</v>
+      </c>
+      <c r="BO156">
+        <v>2.05</v>
+      </c>
+      <c r="BP156">
         <v>1.67</v>
-      </c>
-      <c r="BO156">
-        <v>2.55</v>
-      </c>
-      <c r="BP156">
-        <v>1.44</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33449,7 +33476,7 @@
         <v>1.83</v>
       </c>
       <c r="AP157">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>1.57</v>
@@ -33528,6 +33555,2272 @@
       </c>
       <c r="BP157">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7478905</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45600.875</v>
+      </c>
+      <c r="F158">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>80</v>
+      </c>
+      <c r="H158" t="s">
+        <v>90</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>204</v>
+      </c>
+      <c r="P158" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q158">
+        <v>2.88</v>
+      </c>
+      <c r="R158">
+        <v>2.2</v>
+      </c>
+      <c r="S158">
+        <v>3.6</v>
+      </c>
+      <c r="T158">
+        <v>1.36</v>
+      </c>
+      <c r="U158">
+        <v>3</v>
+      </c>
+      <c r="V158">
+        <v>2.75</v>
+      </c>
+      <c r="W158">
+        <v>1.4</v>
+      </c>
+      <c r="X158">
+        <v>7</v>
+      </c>
+      <c r="Y158">
+        <v>1.1</v>
+      </c>
+      <c r="Z158">
+        <v>2.28</v>
+      </c>
+      <c r="AA158">
+        <v>3.4</v>
+      </c>
+      <c r="AB158">
+        <v>3.05</v>
+      </c>
+      <c r="AC158">
+        <v>1.05</v>
+      </c>
+      <c r="AD158">
+        <v>9</v>
+      </c>
+      <c r="AE158">
+        <v>1.3</v>
+      </c>
+      <c r="AF158">
+        <v>3.45</v>
+      </c>
+      <c r="AG158">
+        <v>1.79</v>
+      </c>
+      <c r="AH158">
+        <v>2.02</v>
+      </c>
+      <c r="AI158">
+        <v>1.67</v>
+      </c>
+      <c r="AJ158">
+        <v>2.1</v>
+      </c>
+      <c r="AK158">
+        <v>1.35</v>
+      </c>
+      <c r="AL158">
+        <v>1.28</v>
+      </c>
+      <c r="AM158">
+        <v>1.62</v>
+      </c>
+      <c r="AN158">
+        <v>1.14</v>
+      </c>
+      <c r="AO158">
+        <v>1.14</v>
+      </c>
+      <c r="AP158">
+        <v>1.38</v>
+      </c>
+      <c r="AQ158">
+        <v>1</v>
+      </c>
+      <c r="AR158">
+        <v>1.46</v>
+      </c>
+      <c r="AS158">
+        <v>1.04</v>
+      </c>
+      <c r="AT158">
+        <v>2.5</v>
+      </c>
+      <c r="AU158">
+        <v>6</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>1</v>
+      </c>
+      <c r="AY158">
+        <v>13</v>
+      </c>
+      <c r="AZ158">
+        <v>6</v>
+      </c>
+      <c r="BA158">
+        <v>2</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>7</v>
+      </c>
+      <c r="BD158">
+        <v>1.51</v>
+      </c>
+      <c r="BE158">
+        <v>9</v>
+      </c>
+      <c r="BF158">
+        <v>3.06</v>
+      </c>
+      <c r="BG158">
+        <v>1.17</v>
+      </c>
+      <c r="BH158">
+        <v>4.65</v>
+      </c>
+      <c r="BI158">
+        <v>1.32</v>
+      </c>
+      <c r="BJ158">
+        <v>3.2</v>
+      </c>
+      <c r="BK158">
+        <v>1.55</v>
+      </c>
+      <c r="BL158">
+        <v>2.36</v>
+      </c>
+      <c r="BM158">
+        <v>1.89</v>
+      </c>
+      <c r="BN158">
+        <v>1.85</v>
+      </c>
+      <c r="BO158">
+        <v>2.39</v>
+      </c>
+      <c r="BP158">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7478906</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45600.875</v>
+      </c>
+      <c r="F159">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>88</v>
+      </c>
+      <c r="H159" t="s">
+        <v>87</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>205</v>
+      </c>
+      <c r="P159" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q159">
+        <v>2.88</v>
+      </c>
+      <c r="R159">
+        <v>2.1</v>
+      </c>
+      <c r="S159">
+        <v>3.75</v>
+      </c>
+      <c r="T159">
+        <v>1.4</v>
+      </c>
+      <c r="U159">
+        <v>2.75</v>
+      </c>
+      <c r="V159">
+        <v>3</v>
+      </c>
+      <c r="W159">
+        <v>1.36</v>
+      </c>
+      <c r="X159">
+        <v>8</v>
+      </c>
+      <c r="Y159">
+        <v>1.08</v>
+      </c>
+      <c r="Z159">
+        <v>2.12</v>
+      </c>
+      <c r="AA159">
+        <v>3.25</v>
+      </c>
+      <c r="AB159">
+        <v>3.45</v>
+      </c>
+      <c r="AC159">
+        <v>1.06</v>
+      </c>
+      <c r="AD159">
+        <v>8.5</v>
+      </c>
+      <c r="AE159">
+        <v>1.32</v>
+      </c>
+      <c r="AF159">
+        <v>3.25</v>
+      </c>
+      <c r="AG159">
+        <v>1.94</v>
+      </c>
+      <c r="AH159">
+        <v>1.86</v>
+      </c>
+      <c r="AI159">
+        <v>1.8</v>
+      </c>
+      <c r="AJ159">
+        <v>1.91</v>
+      </c>
+      <c r="AK159">
+        <v>1.35</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.65</v>
+      </c>
+      <c r="AN159">
+        <v>1.5</v>
+      </c>
+      <c r="AO159">
+        <v>0.86</v>
+      </c>
+      <c r="AP159">
+        <v>1.71</v>
+      </c>
+      <c r="AQ159">
+        <v>0.75</v>
+      </c>
+      <c r="AR159">
+        <v>1.39</v>
+      </c>
+      <c r="AS159">
+        <v>1.16</v>
+      </c>
+      <c r="AT159">
+        <v>2.55</v>
+      </c>
+      <c r="AU159">
+        <v>4</v>
+      </c>
+      <c r="AV159">
+        <v>0</v>
+      </c>
+      <c r="AW159">
+        <v>3</v>
+      </c>
+      <c r="AX159">
+        <v>5</v>
+      </c>
+      <c r="AY159">
+        <v>13</v>
+      </c>
+      <c r="AZ159">
+        <v>8</v>
+      </c>
+      <c r="BA159">
+        <v>6</v>
+      </c>
+      <c r="BB159">
+        <v>8</v>
+      </c>
+      <c r="BC159">
+        <v>14</v>
+      </c>
+      <c r="BD159">
+        <v>1.69</v>
+      </c>
+      <c r="BE159">
+        <v>8</v>
+      </c>
+      <c r="BF159">
+        <v>2.62</v>
+      </c>
+      <c r="BG159">
+        <v>1.26</v>
+      </c>
+      <c r="BH159">
+        <v>3.65</v>
+      </c>
+      <c r="BI159">
+        <v>1.46</v>
+      </c>
+      <c r="BJ159">
+        <v>2.6</v>
+      </c>
+      <c r="BK159">
+        <v>1.77</v>
+      </c>
+      <c r="BL159">
+        <v>1.98</v>
+      </c>
+      <c r="BM159">
+        <v>2.24</v>
+      </c>
+      <c r="BN159">
+        <v>1.61</v>
+      </c>
+      <c r="BO159">
+        <v>2.95</v>
+      </c>
+      <c r="BP159">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7478904</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45600.875</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>72</v>
+      </c>
+      <c r="H160" t="s">
+        <v>79</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>4</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160" t="s">
+        <v>206</v>
+      </c>
+      <c r="P160" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q160">
+        <v>4.75</v>
+      </c>
+      <c r="R160">
+        <v>2.05</v>
+      </c>
+      <c r="S160">
+        <v>2.63</v>
+      </c>
+      <c r="T160">
+        <v>1.44</v>
+      </c>
+      <c r="U160">
+        <v>2.63</v>
+      </c>
+      <c r="V160">
+        <v>3.4</v>
+      </c>
+      <c r="W160">
+        <v>1.3</v>
+      </c>
+      <c r="X160">
+        <v>10</v>
+      </c>
+      <c r="Y160">
+        <v>1.06</v>
+      </c>
+      <c r="Z160">
+        <v>3.9</v>
+      </c>
+      <c r="AA160">
+        <v>3.5</v>
+      </c>
+      <c r="AB160">
+        <v>1.91</v>
+      </c>
+      <c r="AC160">
+        <v>1.06</v>
+      </c>
+      <c r="AD160">
+        <v>8.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.38</v>
+      </c>
+      <c r="AF160">
+        <v>3</v>
+      </c>
+      <c r="AG160">
+        <v>1.92</v>
+      </c>
+      <c r="AH160">
+        <v>1.88</v>
+      </c>
+      <c r="AI160">
+        <v>2</v>
+      </c>
+      <c r="AJ160">
+        <v>1.73</v>
+      </c>
+      <c r="AK160">
+        <v>1.8</v>
+      </c>
+      <c r="AL160">
+        <v>1.25</v>
+      </c>
+      <c r="AM160">
+        <v>1.25</v>
+      </c>
+      <c r="AN160">
+        <v>0.57</v>
+      </c>
+      <c r="AO160">
+        <v>1.17</v>
+      </c>
+      <c r="AP160">
+        <v>0.5</v>
+      </c>
+      <c r="AQ160">
+        <v>1.43</v>
+      </c>
+      <c r="AR160">
+        <v>1.74</v>
+      </c>
+      <c r="AS160">
+        <v>1.56</v>
+      </c>
+      <c r="AT160">
+        <v>3.3</v>
+      </c>
+      <c r="AU160">
+        <v>6</v>
+      </c>
+      <c r="AV160">
+        <v>9</v>
+      </c>
+      <c r="AW160">
+        <v>2</v>
+      </c>
+      <c r="AX160">
+        <v>2</v>
+      </c>
+      <c r="AY160">
+        <v>8</v>
+      </c>
+      <c r="AZ160">
+        <v>13</v>
+      </c>
+      <c r="BA160">
+        <v>8</v>
+      </c>
+      <c r="BB160">
+        <v>5</v>
+      </c>
+      <c r="BC160">
+        <v>13</v>
+      </c>
+      <c r="BD160">
+        <v>2.53</v>
+      </c>
+      <c r="BE160">
+        <v>8.5</v>
+      </c>
+      <c r="BF160">
+        <v>1.69</v>
+      </c>
+      <c r="BG160">
+        <v>1.17</v>
+      </c>
+      <c r="BH160">
+        <v>4.65</v>
+      </c>
+      <c r="BI160">
+        <v>1.32</v>
+      </c>
+      <c r="BJ160">
+        <v>3.2</v>
+      </c>
+      <c r="BK160">
+        <v>1.55</v>
+      </c>
+      <c r="BL160">
+        <v>2.36</v>
+      </c>
+      <c r="BM160">
+        <v>1.89</v>
+      </c>
+      <c r="BN160">
+        <v>1.85</v>
+      </c>
+      <c r="BO160">
+        <v>2.39</v>
+      </c>
+      <c r="BP160">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7478900</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45600.875</v>
+      </c>
+      <c r="F161">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>89</v>
+      </c>
+      <c r="H161" t="s">
+        <v>86</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>207</v>
+      </c>
+      <c r="P161" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q161">
+        <v>3.75</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>3.2</v>
+      </c>
+      <c r="T161">
+        <v>1.5</v>
+      </c>
+      <c r="U161">
+        <v>2.5</v>
+      </c>
+      <c r="V161">
+        <v>3.5</v>
+      </c>
+      <c r="W161">
+        <v>1.29</v>
+      </c>
+      <c r="X161">
+        <v>10</v>
+      </c>
+      <c r="Y161">
+        <v>1.06</v>
+      </c>
+      <c r="Z161">
+        <v>2.7</v>
+      </c>
+      <c r="AA161">
+        <v>3.15</v>
+      </c>
+      <c r="AB161">
+        <v>2.65</v>
+      </c>
+      <c r="AC161">
+        <v>1.07</v>
+      </c>
+      <c r="AD161">
+        <v>8</v>
+      </c>
+      <c r="AE161">
+        <v>1.42</v>
+      </c>
+      <c r="AF161">
+        <v>2.8</v>
+      </c>
+      <c r="AG161">
+        <v>2.18</v>
+      </c>
+      <c r="AH161">
+        <v>1.68</v>
+      </c>
+      <c r="AI161">
+        <v>2</v>
+      </c>
+      <c r="AJ161">
+        <v>1.73</v>
+      </c>
+      <c r="AK161">
+        <v>1.53</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>1.38</v>
+      </c>
+      <c r="AN161">
+        <v>1.67</v>
+      </c>
+      <c r="AO161">
+        <v>1.57</v>
+      </c>
+      <c r="AP161">
+        <v>1.43</v>
+      </c>
+      <c r="AQ161">
+        <v>1.75</v>
+      </c>
+      <c r="AR161">
+        <v>1.36</v>
+      </c>
+      <c r="AS161">
+        <v>1.36</v>
+      </c>
+      <c r="AT161">
+        <v>2.72</v>
+      </c>
+      <c r="AU161">
+        <v>3</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
+        <v>4</v>
+      </c>
+      <c r="AX161">
+        <v>5</v>
+      </c>
+      <c r="AY161">
+        <v>14</v>
+      </c>
+      <c r="AZ161">
+        <v>12</v>
+      </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
+      <c r="BB161">
+        <v>4</v>
+      </c>
+      <c r="BC161">
+        <v>6</v>
+      </c>
+      <c r="BD161">
+        <v>1.82</v>
+      </c>
+      <c r="BE161">
+        <v>8.5</v>
+      </c>
+      <c r="BF161">
+        <v>2.32</v>
+      </c>
+      <c r="BG161">
+        <v>1.14</v>
+      </c>
+      <c r="BH161">
+        <v>5.15</v>
+      </c>
+      <c r="BI161">
+        <v>1.27</v>
+      </c>
+      <c r="BJ161">
+        <v>3.52</v>
+      </c>
+      <c r="BK161">
+        <v>1.47</v>
+      </c>
+      <c r="BL161">
+        <v>2.57</v>
+      </c>
+      <c r="BM161">
+        <v>1.77</v>
+      </c>
+      <c r="BN161">
+        <v>1.98</v>
+      </c>
+      <c r="BO161">
+        <v>2.21</v>
+      </c>
+      <c r="BP161">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7478902</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45600.875</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>73</v>
+      </c>
+      <c r="H162" t="s">
+        <v>77</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>104</v>
+      </c>
+      <c r="P162" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q162">
+        <v>3.4</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>3.25</v>
+      </c>
+      <c r="T162">
+        <v>1.44</v>
+      </c>
+      <c r="U162">
+        <v>2.63</v>
+      </c>
+      <c r="V162">
+        <v>3.25</v>
+      </c>
+      <c r="W162">
+        <v>1.33</v>
+      </c>
+      <c r="X162">
+        <v>9</v>
+      </c>
+      <c r="Y162">
+        <v>1.07</v>
+      </c>
+      <c r="Z162">
+        <v>2.8</v>
+      </c>
+      <c r="AA162">
+        <v>3.3</v>
+      </c>
+      <c r="AB162">
+        <v>2.48</v>
+      </c>
+      <c r="AC162">
+        <v>1.06</v>
+      </c>
+      <c r="AD162">
+        <v>8.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.35</v>
+      </c>
+      <c r="AF162">
+        <v>3.1</v>
+      </c>
+      <c r="AG162">
+        <v>1.95</v>
+      </c>
+      <c r="AH162">
+        <v>1.85</v>
+      </c>
+      <c r="AI162">
+        <v>1.83</v>
+      </c>
+      <c r="AJ162">
+        <v>1.83</v>
+      </c>
+      <c r="AK162">
+        <v>1.48</v>
+      </c>
+      <c r="AL162">
+        <v>1.28</v>
+      </c>
+      <c r="AM162">
+        <v>1.45</v>
+      </c>
+      <c r="AN162">
+        <v>1.71</v>
+      </c>
+      <c r="AO162">
+        <v>1.33</v>
+      </c>
+      <c r="AP162">
+        <v>1.88</v>
+      </c>
+      <c r="AQ162">
+        <v>1.14</v>
+      </c>
+      <c r="AR162">
+        <v>1.05</v>
+      </c>
+      <c r="AS162">
+        <v>1.4</v>
+      </c>
+      <c r="AT162">
+        <v>2.45</v>
+      </c>
+      <c r="AU162">
+        <v>3</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>1</v>
+      </c>
+      <c r="AX162">
+        <v>8</v>
+      </c>
+      <c r="AY162">
+        <v>5</v>
+      </c>
+      <c r="AZ162">
+        <v>13</v>
+      </c>
+      <c r="BA162">
+        <v>2</v>
+      </c>
+      <c r="BB162">
+        <v>6</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>2.1</v>
+      </c>
+      <c r="BE162">
+        <v>8</v>
+      </c>
+      <c r="BF162">
+        <v>1.91</v>
+      </c>
+      <c r="BG162">
+        <v>1.2</v>
+      </c>
+      <c r="BH162">
+        <v>4.2</v>
+      </c>
+      <c r="BI162">
+        <v>1.37</v>
+      </c>
+      <c r="BJ162">
+        <v>2.93</v>
+      </c>
+      <c r="BK162">
+        <v>1.63</v>
+      </c>
+      <c r="BL162">
+        <v>2.19</v>
+      </c>
+      <c r="BM162">
+        <v>2.02</v>
+      </c>
+      <c r="BN162">
+        <v>1.74</v>
+      </c>
+      <c r="BO162">
+        <v>2.6</v>
+      </c>
+      <c r="BP162">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7478903</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45600.875</v>
+      </c>
+      <c r="F163">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>92</v>
+      </c>
+      <c r="H163" t="s">
+        <v>85</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>208</v>
+      </c>
+      <c r="P163" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q163">
+        <v>3</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>3.4</v>
+      </c>
+      <c r="T163">
+        <v>1.36</v>
+      </c>
+      <c r="U163">
+        <v>3</v>
+      </c>
+      <c r="V163">
+        <v>2.63</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>7</v>
+      </c>
+      <c r="Y163">
+        <v>1.1</v>
+      </c>
+      <c r="Z163">
+        <v>2.17</v>
+      </c>
+      <c r="AA163">
+        <v>3.55</v>
+      </c>
+      <c r="AB163">
+        <v>3.1</v>
+      </c>
+      <c r="AC163">
+        <v>1.05</v>
+      </c>
+      <c r="AD163">
+        <v>9.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.25</v>
+      </c>
+      <c r="AF163">
+        <v>3.8</v>
+      </c>
+      <c r="AG163">
+        <v>1.66</v>
+      </c>
+      <c r="AH163">
+        <v>2.23</v>
+      </c>
+      <c r="AI163">
+        <v>1.62</v>
+      </c>
+      <c r="AJ163">
+        <v>2.2</v>
+      </c>
+      <c r="AK163">
+        <v>1.38</v>
+      </c>
+      <c r="AL163">
+        <v>1.25</v>
+      </c>
+      <c r="AM163">
+        <v>1.57</v>
+      </c>
+      <c r="AN163">
+        <v>1.83</v>
+      </c>
+      <c r="AO163">
+        <v>0.86</v>
+      </c>
+      <c r="AP163">
+        <v>2</v>
+      </c>
+      <c r="AQ163">
+        <v>0.75</v>
+      </c>
+      <c r="AR163">
+        <v>1.59</v>
+      </c>
+      <c r="AS163">
+        <v>0.93</v>
+      </c>
+      <c r="AT163">
+        <v>2.52</v>
+      </c>
+      <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
+        <v>5</v>
+      </c>
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>6</v>
+      </c>
+      <c r="AY163">
+        <v>11</v>
+      </c>
+      <c r="AZ163">
+        <v>17</v>
+      </c>
+      <c r="BA163">
+        <v>5</v>
+      </c>
+      <c r="BB163">
+        <v>6</v>
+      </c>
+      <c r="BC163">
+        <v>11</v>
+      </c>
+      <c r="BD163">
+        <v>1.95</v>
+      </c>
+      <c r="BE163">
+        <v>8.5</v>
+      </c>
+      <c r="BF163">
+        <v>2.1</v>
+      </c>
+      <c r="BG163">
+        <v>1.14</v>
+      </c>
+      <c r="BH163">
+        <v>5.15</v>
+      </c>
+      <c r="BI163">
+        <v>1.27</v>
+      </c>
+      <c r="BJ163">
+        <v>3.52</v>
+      </c>
+      <c r="BK163">
+        <v>1.47</v>
+      </c>
+      <c r="BL163">
+        <v>2.57</v>
+      </c>
+      <c r="BM163">
+        <v>1.77</v>
+      </c>
+      <c r="BN163">
+        <v>1.98</v>
+      </c>
+      <c r="BO163">
+        <v>2.21</v>
+      </c>
+      <c r="BP163">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7478901</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45601.875</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>74</v>
+      </c>
+      <c r="H164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>142</v>
+      </c>
+      <c r="P164" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q164">
+        <v>4.5</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>2.6</v>
+      </c>
+      <c r="T164">
+        <v>1.44</v>
+      </c>
+      <c r="U164">
+        <v>2.63</v>
+      </c>
+      <c r="V164">
+        <v>3.25</v>
+      </c>
+      <c r="W164">
+        <v>1.33</v>
+      </c>
+      <c r="X164">
+        <v>9</v>
+      </c>
+      <c r="Y164">
+        <v>1.07</v>
+      </c>
+      <c r="Z164">
+        <v>4.25</v>
+      </c>
+      <c r="AA164">
+        <v>3.41</v>
+      </c>
+      <c r="AB164">
+        <v>1.87</v>
+      </c>
+      <c r="AC164">
+        <v>1.06</v>
+      </c>
+      <c r="AD164">
+        <v>8.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.35</v>
+      </c>
+      <c r="AF164">
+        <v>3.1</v>
+      </c>
+      <c r="AG164">
+        <v>2</v>
+      </c>
+      <c r="AH164">
+        <v>1.68</v>
+      </c>
+      <c r="AI164">
+        <v>1.91</v>
+      </c>
+      <c r="AJ164">
+        <v>1.8</v>
+      </c>
+      <c r="AK164">
+        <v>1.85</v>
+      </c>
+      <c r="AL164">
+        <v>1.22</v>
+      </c>
+      <c r="AM164">
+        <v>1.25</v>
+      </c>
+      <c r="AN164">
+        <v>1.86</v>
+      </c>
+      <c r="AO164">
+        <v>1.67</v>
+      </c>
+      <c r="AP164">
+        <v>2</v>
+      </c>
+      <c r="AQ164">
+        <v>1.43</v>
+      </c>
+      <c r="AR164">
+        <v>1.43</v>
+      </c>
+      <c r="AS164">
+        <v>1.41</v>
+      </c>
+      <c r="AT164">
+        <v>2.84</v>
+      </c>
+      <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>5</v>
+      </c>
+      <c r="AW164">
+        <v>2</v>
+      </c>
+      <c r="AX164">
+        <v>5</v>
+      </c>
+      <c r="AY164">
+        <v>8</v>
+      </c>
+      <c r="AZ164">
+        <v>15</v>
+      </c>
+      <c r="BA164">
+        <v>2</v>
+      </c>
+      <c r="BB164">
+        <v>12</v>
+      </c>
+      <c r="BC164">
+        <v>14</v>
+      </c>
+      <c r="BD164">
+        <v>2.53</v>
+      </c>
+      <c r="BE164">
+        <v>8.5</v>
+      </c>
+      <c r="BF164">
+        <v>1.69</v>
+      </c>
+      <c r="BG164">
+        <v>1.17</v>
+      </c>
+      <c r="BH164">
+        <v>4.38</v>
+      </c>
+      <c r="BI164">
+        <v>1.37</v>
+      </c>
+      <c r="BJ164">
+        <v>2.96</v>
+      </c>
+      <c r="BK164">
+        <v>1.66</v>
+      </c>
+      <c r="BL164">
+        <v>2.22</v>
+      </c>
+      <c r="BM164">
+        <v>2</v>
+      </c>
+      <c r="BN164">
+        <v>1.8</v>
+      </c>
+      <c r="BO164">
+        <v>2.61</v>
+      </c>
+      <c r="BP164">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7478908</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45601.875</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>70</v>
+      </c>
+      <c r="H165" t="s">
+        <v>75</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>95</v>
+      </c>
+      <c r="P165" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q165">
+        <v>2.75</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>4</v>
+      </c>
+      <c r="T165">
+        <v>1.4</v>
+      </c>
+      <c r="U165">
+        <v>2.75</v>
+      </c>
+      <c r="V165">
+        <v>3</v>
+      </c>
+      <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>8</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>2.02</v>
+      </c>
+      <c r="AA165">
+        <v>3.49</v>
+      </c>
+      <c r="AB165">
+        <v>3.55</v>
+      </c>
+      <c r="AC165">
+        <v>1.05</v>
+      </c>
+      <c r="AD165">
+        <v>12</v>
+      </c>
+      <c r="AE165">
+        <v>1.3</v>
+      </c>
+      <c r="AF165">
+        <v>3.6</v>
+      </c>
+      <c r="AG165">
+        <v>1.86</v>
+      </c>
+      <c r="AH165">
+        <v>1.94</v>
+      </c>
+      <c r="AI165">
+        <v>1.73</v>
+      </c>
+      <c r="AJ165">
+        <v>2</v>
+      </c>
+      <c r="AK165">
+        <v>1.3</v>
+      </c>
+      <c r="AL165">
+        <v>1.26</v>
+      </c>
+      <c r="AM165">
+        <v>1.8</v>
+      </c>
+      <c r="AN165">
+        <v>2.29</v>
+      </c>
+      <c r="AO165">
+        <v>0.67</v>
+      </c>
+      <c r="AP165">
+        <v>2</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>1.23</v>
+      </c>
+      <c r="AS165">
+        <v>1.03</v>
+      </c>
+      <c r="AT165">
+        <v>2.26</v>
+      </c>
+      <c r="AU165">
+        <v>9</v>
+      </c>
+      <c r="AV165">
+        <v>8</v>
+      </c>
+      <c r="AW165">
+        <v>9</v>
+      </c>
+      <c r="AX165">
+        <v>3</v>
+      </c>
+      <c r="AY165">
+        <v>26</v>
+      </c>
+      <c r="AZ165">
+        <v>16</v>
+      </c>
+      <c r="BA165">
+        <v>9</v>
+      </c>
+      <c r="BB165">
+        <v>4</v>
+      </c>
+      <c r="BC165">
+        <v>13</v>
+      </c>
+      <c r="BD165">
+        <v>1.82</v>
+      </c>
+      <c r="BE165">
+        <v>8.5</v>
+      </c>
+      <c r="BF165">
+        <v>2.32</v>
+      </c>
+      <c r="BG165">
+        <v>1.17</v>
+      </c>
+      <c r="BH165">
+        <v>4.65</v>
+      </c>
+      <c r="BI165">
+        <v>1.32</v>
+      </c>
+      <c r="BJ165">
+        <v>3.2</v>
+      </c>
+      <c r="BK165">
+        <v>1.55</v>
+      </c>
+      <c r="BL165">
+        <v>2.36</v>
+      </c>
+      <c r="BM165">
+        <v>1.89</v>
+      </c>
+      <c r="BN165">
+        <v>1.85</v>
+      </c>
+      <c r="BO165">
+        <v>2.39</v>
+      </c>
+      <c r="BP165">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7478909</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45601.875</v>
+      </c>
+      <c r="F166">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
+        <v>82</v>
+      </c>
+      <c r="H166" t="s">
+        <v>84</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>209</v>
+      </c>
+      <c r="P166" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q166">
+        <v>2.5</v>
+      </c>
+      <c r="R166">
+        <v>2.2</v>
+      </c>
+      <c r="S166">
+        <v>4.5</v>
+      </c>
+      <c r="T166">
+        <v>1.4</v>
+      </c>
+      <c r="U166">
+        <v>2.75</v>
+      </c>
+      <c r="V166">
+        <v>3</v>
+      </c>
+      <c r="W166">
+        <v>1.36</v>
+      </c>
+      <c r="X166">
+        <v>8</v>
+      </c>
+      <c r="Y166">
+        <v>1.08</v>
+      </c>
+      <c r="Z166">
+        <v>1.83</v>
+      </c>
+      <c r="AA166">
+        <v>3.61</v>
+      </c>
+      <c r="AB166">
+        <v>4.13</v>
+      </c>
+      <c r="AC166">
+        <v>1.06</v>
+      </c>
+      <c r="AD166">
+        <v>8.5</v>
+      </c>
+      <c r="AE166">
+        <v>1.3</v>
+      </c>
+      <c r="AF166">
+        <v>3.35</v>
+      </c>
+      <c r="AG166">
+        <v>1.89</v>
+      </c>
+      <c r="AH166">
+        <v>1.91</v>
+      </c>
+      <c r="AI166">
+        <v>1.83</v>
+      </c>
+      <c r="AJ166">
+        <v>1.83</v>
+      </c>
+      <c r="AK166">
+        <v>1.22</v>
+      </c>
+      <c r="AL166">
+        <v>1.25</v>
+      </c>
+      <c r="AM166">
+        <v>1.91</v>
+      </c>
+      <c r="AN166">
+        <v>1.5</v>
+      </c>
+      <c r="AO166">
+        <v>0.29</v>
+      </c>
+      <c r="AP166">
+        <v>1.29</v>
+      </c>
+      <c r="AQ166">
+        <v>0.63</v>
+      </c>
+      <c r="AR166">
+        <v>1.94</v>
+      </c>
+      <c r="AS166">
+        <v>1.09</v>
+      </c>
+      <c r="AT166">
+        <v>3.03</v>
+      </c>
+      <c r="AU166">
+        <v>4</v>
+      </c>
+      <c r="AV166">
+        <v>2</v>
+      </c>
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>12</v>
+      </c>
+      <c r="AZ166">
+        <v>4</v>
+      </c>
+      <c r="BA166">
+        <v>9</v>
+      </c>
+      <c r="BB166">
+        <v>6</v>
+      </c>
+      <c r="BC166">
+        <v>15</v>
+      </c>
+      <c r="BD166">
+        <v>1.55</v>
+      </c>
+      <c r="BE166">
+        <v>9</v>
+      </c>
+      <c r="BF166">
+        <v>2.9</v>
+      </c>
+      <c r="BG166">
+        <v>1.14</v>
+      </c>
+      <c r="BH166">
+        <v>5.15</v>
+      </c>
+      <c r="BI166">
+        <v>1.27</v>
+      </c>
+      <c r="BJ166">
+        <v>3.52</v>
+      </c>
+      <c r="BK166">
+        <v>1.47</v>
+      </c>
+      <c r="BL166">
+        <v>2.57</v>
+      </c>
+      <c r="BM166">
+        <v>1.77</v>
+      </c>
+      <c r="BN166">
+        <v>1.98</v>
+      </c>
+      <c r="BO166">
+        <v>2.21</v>
+      </c>
+      <c r="BP166">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7478910</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45602.70833333334</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>81</v>
+      </c>
+      <c r="H167" t="s">
+        <v>78</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>210</v>
+      </c>
+      <c r="P167" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q167">
+        <v>2.5</v>
+      </c>
+      <c r="R167">
+        <v>2.2</v>
+      </c>
+      <c r="S167">
+        <v>4.5</v>
+      </c>
+      <c r="T167">
+        <v>1.4</v>
+      </c>
+      <c r="U167">
+        <v>2.75</v>
+      </c>
+      <c r="V167">
+        <v>2.75</v>
+      </c>
+      <c r="W167">
+        <v>1.4</v>
+      </c>
+      <c r="X167">
+        <v>8</v>
+      </c>
+      <c r="Y167">
+        <v>1.08</v>
+      </c>
+      <c r="Z167">
+        <v>1.84</v>
+      </c>
+      <c r="AA167">
+        <v>3.66</v>
+      </c>
+      <c r="AB167">
+        <v>4.04</v>
+      </c>
+      <c r="AC167">
+        <v>1.01</v>
+      </c>
+      <c r="AD167">
+        <v>12.4</v>
+      </c>
+      <c r="AE167">
+        <v>1.27</v>
+      </c>
+      <c r="AF167">
+        <v>3.8</v>
+      </c>
+      <c r="AG167">
+        <v>1.88</v>
+      </c>
+      <c r="AH167">
+        <v>1.93</v>
+      </c>
+      <c r="AI167">
+        <v>1.8</v>
+      </c>
+      <c r="AJ167">
+        <v>1.91</v>
+      </c>
+      <c r="AK167">
+        <v>1.22</v>
+      </c>
+      <c r="AL167">
+        <v>1.25</v>
+      </c>
+      <c r="AM167">
+        <v>1.9</v>
+      </c>
+      <c r="AN167">
+        <v>1.14</v>
+      </c>
+      <c r="AO167">
+        <v>0.5</v>
+      </c>
+      <c r="AP167">
+        <v>1.38</v>
+      </c>
+      <c r="AQ167">
+        <v>0.43</v>
+      </c>
+      <c r="AR167">
+        <v>1.4</v>
+      </c>
+      <c r="AS167">
+        <v>1.07</v>
+      </c>
+      <c r="AT167">
+        <v>2.47</v>
+      </c>
+      <c r="AU167">
+        <v>4</v>
+      </c>
+      <c r="AV167">
+        <v>4</v>
+      </c>
+      <c r="AW167">
+        <v>4</v>
+      </c>
+      <c r="AX167">
+        <v>5</v>
+      </c>
+      <c r="AY167">
+        <v>9</v>
+      </c>
+      <c r="AZ167">
+        <v>11</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>6</v>
+      </c>
+      <c r="BC167">
+        <v>12</v>
+      </c>
+      <c r="BD167">
+        <v>1.31</v>
+      </c>
+      <c r="BE167">
+        <v>10</v>
+      </c>
+      <c r="BF167">
+        <v>5.35</v>
+      </c>
+      <c r="BG167">
+        <v>1.16</v>
+      </c>
+      <c r="BH167">
+        <v>4.46</v>
+      </c>
+      <c r="BI167">
+        <v>1.36</v>
+      </c>
+      <c r="BJ167">
+        <v>3</v>
+      </c>
+      <c r="BK167">
+        <v>1.64</v>
+      </c>
+      <c r="BL167">
+        <v>2.24</v>
+      </c>
+      <c r="BM167">
+        <v>2.02</v>
+      </c>
+      <c r="BN167">
+        <v>1.8</v>
+      </c>
+      <c r="BO167">
+        <v>2.57</v>
+      </c>
+      <c r="BP167">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7478911</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45602.70833333334</v>
+      </c>
+      <c r="F168">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s">
+        <v>71</v>
+      </c>
+      <c r="H168" t="s">
+        <v>93</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>95</v>
+      </c>
+      <c r="P168" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q168">
+        <v>3.75</v>
+      </c>
+      <c r="R168">
+        <v>2.1</v>
+      </c>
+      <c r="S168">
+        <v>2.88</v>
+      </c>
+      <c r="T168">
+        <v>1.4</v>
+      </c>
+      <c r="U168">
+        <v>2.75</v>
+      </c>
+      <c r="V168">
+        <v>3</v>
+      </c>
+      <c r="W168">
+        <v>1.36</v>
+      </c>
+      <c r="X168">
+        <v>8</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>3.22</v>
+      </c>
+      <c r="AA168">
+        <v>3.24</v>
+      </c>
+      <c r="AB168">
+        <v>2.27</v>
+      </c>
+      <c r="AC168">
+        <v>1.04</v>
+      </c>
+      <c r="AD168">
+        <v>6.35</v>
+      </c>
+      <c r="AE168">
+        <v>1.39</v>
+      </c>
+      <c r="AF168">
+        <v>3.02</v>
+      </c>
+      <c r="AG168">
+        <v>1.93</v>
+      </c>
+      <c r="AH168">
+        <v>1.75</v>
+      </c>
+      <c r="AI168">
+        <v>1.8</v>
+      </c>
+      <c r="AJ168">
+        <v>1.91</v>
+      </c>
+      <c r="AK168">
+        <v>1.57</v>
+      </c>
+      <c r="AL168">
+        <v>1.3</v>
+      </c>
+      <c r="AM168">
+        <v>1.36</v>
+      </c>
+      <c r="AN168">
+        <v>1.57</v>
+      </c>
+      <c r="AO168">
+        <v>1.86</v>
+      </c>
+      <c r="AP168">
+        <v>1.5</v>
+      </c>
+      <c r="AQ168">
+        <v>1.75</v>
+      </c>
+      <c r="AR168">
+        <v>1.18</v>
+      </c>
+      <c r="AS168">
+        <v>1.29</v>
+      </c>
+      <c r="AT168">
+        <v>2.47</v>
+      </c>
+      <c r="AU168">
+        <v>3</v>
+      </c>
+      <c r="AV168">
+        <v>3</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>15</v>
+      </c>
+      <c r="AZ168">
+        <v>11</v>
+      </c>
+      <c r="BA168">
+        <v>4</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>8</v>
+      </c>
+      <c r="BD168">
+        <v>3.16</v>
+      </c>
+      <c r="BE168">
+        <v>8</v>
+      </c>
+      <c r="BF168">
+        <v>1.64</v>
+      </c>
+      <c r="BG168">
+        <v>1.2</v>
+      </c>
+      <c r="BH168">
+        <v>4.06</v>
+      </c>
+      <c r="BI168">
+        <v>1.41</v>
+      </c>
+      <c r="BJ168">
+        <v>2.79</v>
+      </c>
+      <c r="BK168">
+        <v>1.72</v>
+      </c>
+      <c r="BL168">
+        <v>2.12</v>
+      </c>
+      <c r="BM168">
+        <v>2.13</v>
+      </c>
+      <c r="BN168">
+        <v>1.71</v>
+      </c>
+      <c r="BO168">
+        <v>2.76</v>
+      </c>
+      <c r="BP168">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,34 +610,34 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['9', '82']</t>
   </si>
   <si>
-    <t>['88']</t>
+    <t>['89', '90+3']</t>
   </si>
   <si>
     <t>['11']</t>
   </si>
   <si>
+    <t>['30', '33', '38']</t>
+  </si>
+  <si>
     <t>['34', '82']</t>
   </si>
   <si>
-    <t>['89', '90+3']</t>
-  </si>
-  <si>
-    <t>['30', '33', '38']</t>
-  </si>
-  <si>
     <t>['12', '34']</t>
-  </si>
-  <si>
-    <t>['35']</t>
   </si>
   <si>
     <t>['69']</t>
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -775,9 +778,6 @@
     <t>['86']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['37', '50']</t>
   </si>
   <si>
@@ -817,13 +817,13 @@
     <t>['45+4']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['16', '64']</t>
   </si>
   <si>
     <t>['38', '80']</t>
   </si>
   <si>
-    <t>['16', '64']</t>
+    <t>['68']</t>
   </si>
   <si>
     <t>['46']</t>
@@ -1209,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1468,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1674,7 +1674,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1880,7 +1880,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2292,7 +2292,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2704,7 +2704,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2910,7 +2910,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3116,7 +3116,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3734,7 +3734,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3815,7 +3815,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4021,7 +4021,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15">
         <v>1.43</v>
@@ -4764,7 +4764,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5382,7 +5382,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5588,7 +5588,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -6412,7 +6412,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -7030,7 +7030,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7236,7 +7236,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ31">
         <v>0.63</v>
@@ -7729,7 +7729,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ32">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.46</v>
@@ -8141,7 +8141,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8266,7 +8266,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8472,7 +8472,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8678,7 +8678,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8884,7 +8884,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9090,7 +9090,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9296,7 +9296,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9502,7 +9502,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9914,7 +9914,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10120,7 +10120,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -11356,7 +11356,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11643,7 +11643,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ51">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -12464,7 +12464,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55">
         <v>0.86</v>
@@ -12592,7 +12592,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12798,7 +12798,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13416,7 +13416,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13622,7 +13622,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13828,7 +13828,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14652,7 +14652,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14936,7 +14936,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ67">
         <v>0.14</v>
@@ -15145,7 +15145,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15270,7 +15270,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15682,7 +15682,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16300,7 +16300,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16712,7 +16712,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16918,7 +16918,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17205,7 +17205,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.32</v>
@@ -17330,7 +17330,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17408,7 +17408,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ79">
         <v>1.75</v>
@@ -17742,7 +17742,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18566,7 +18566,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -19390,7 +19390,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19471,7 +19471,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR89">
         <v>1.26</v>
@@ -20008,7 +20008,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20292,7 +20292,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ93">
         <v>1.43</v>
@@ -21244,7 +21244,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21531,7 +21531,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ99">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR99">
         <v>1.08</v>
@@ -22068,7 +22068,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22274,7 +22274,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22892,7 +22892,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="Q106">
         <v>3.75</v>
@@ -22970,7 +22970,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ106">
         <v>1.43</v>
@@ -23176,7 +23176,7 @@
         <v>0.5</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23510,7 +23510,7 @@
         <v>172</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -24827,7 +24827,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -27711,7 +27711,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -29356,7 +29356,7 @@
         <v>0.6</v>
       </c>
       <c r="AP137">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ137">
         <v>0.5</v>
@@ -29565,7 +29565,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ138">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -29768,7 +29768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ139">
         <v>0.43</v>
@@ -31296,7 +31296,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7478899</v>
+        <v>7478888</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31308,166 +31308,166 @@
         <v>45598.39583333334</v>
       </c>
       <c r="F147">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H147" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147">
         <v>1</v>
       </c>
       <c r="L147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O147" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="P147" t="s">
         <v>267</v>
       </c>
       <c r="Q147">
+        <v>3.5</v>
+      </c>
+      <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>3.25</v>
+      </c>
+      <c r="T147">
+        <v>1.44</v>
+      </c>
+      <c r="U147">
+        <v>2.63</v>
+      </c>
+      <c r="V147">
+        <v>3.25</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>10</v>
+      </c>
+      <c r="Y147">
+        <v>1.06</v>
+      </c>
+      <c r="Z147">
+        <v>2.87</v>
+      </c>
+      <c r="AA147">
+        <v>3.22</v>
+      </c>
+      <c r="AB147">
+        <v>2.38</v>
+      </c>
+      <c r="AC147">
+        <v>1.08</v>
+      </c>
+      <c r="AD147">
+        <v>7.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.4</v>
+      </c>
+      <c r="AF147">
         <v>2.88</v>
       </c>
-      <c r="R147">
-        <v>2.1</v>
-      </c>
-      <c r="S147">
-        <v>3.75</v>
-      </c>
-      <c r="T147">
-        <v>1.4</v>
-      </c>
-      <c r="U147">
-        <v>2.75</v>
-      </c>
-      <c r="V147">
-        <v>3</v>
-      </c>
-      <c r="W147">
-        <v>1.36</v>
-      </c>
-      <c r="X147">
-        <v>8</v>
-      </c>
-      <c r="Y147">
-        <v>1.08</v>
-      </c>
-      <c r="Z147">
-        <v>1.92</v>
-      </c>
-      <c r="AA147">
-        <v>3.43</v>
-      </c>
-      <c r="AB147">
-        <v>3.72</v>
-      </c>
-      <c r="AC147">
-        <v>1.06</v>
-      </c>
-      <c r="AD147">
-        <v>8.5</v>
-      </c>
-      <c r="AE147">
+      <c r="AG147">
+        <v>2.23</v>
+      </c>
+      <c r="AH147">
+        <v>1.58</v>
+      </c>
+      <c r="AI147">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.48</v>
+      </c>
+      <c r="AL147">
+        <v>1.3</v>
+      </c>
+      <c r="AM147">
+        <v>1.42</v>
+      </c>
+      <c r="AN147">
+        <v>2.67</v>
+      </c>
+      <c r="AO147">
         <v>1.33</v>
       </c>
-      <c r="AF147">
-        <v>3.2</v>
-      </c>
-      <c r="AG147">
-        <v>1.95</v>
-      </c>
-      <c r="AH147">
-        <v>1.76</v>
-      </c>
-      <c r="AI147">
-        <v>1.73</v>
-      </c>
-      <c r="AJ147">
-        <v>2</v>
-      </c>
-      <c r="AK147">
-        <v>1.33</v>
-      </c>
-      <c r="AL147">
-        <v>1.28</v>
-      </c>
-      <c r="AM147">
-        <v>1.65</v>
-      </c>
-      <c r="AN147">
-        <v>1.33</v>
-      </c>
-      <c r="AO147">
-        <v>0.33</v>
-      </c>
       <c r="AP147">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AQ147">
-        <v>0.63</v>
+        <v>1.75</v>
       </c>
       <c r="AR147">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS147">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AT147">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="AU147">
+        <v>0</v>
+      </c>
+      <c r="AV147">
+        <v>10</v>
+      </c>
+      <c r="AW147">
         <v>5</v>
-      </c>
-      <c r="AV147">
-        <v>4</v>
-      </c>
-      <c r="AW147">
-        <v>3</v>
       </c>
       <c r="AX147">
         <v>4</v>
       </c>
       <c r="AY147">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ147">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BA147">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB147">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC147">
         <v>13</v>
       </c>
       <c r="BD147">
-        <v>1.29</v>
+        <v>2.07</v>
       </c>
       <c r="BE147">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF147">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="BG147">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="BH147">
         <v>4.3</v>
@@ -31476,25 +31476,25 @@
         <v>1.3</v>
       </c>
       <c r="BJ147">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BK147">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BL147">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="BM147">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="BN147">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="BO147">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BP147">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31541,7 +31541,7 @@
         <v>3</v>
       </c>
       <c r="O148" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P148" t="s">
         <v>268</v>
@@ -31708,7 +31708,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7478888</v>
+        <v>7478899</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31720,166 +31720,166 @@
         <v>45598.39583333334</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H149" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149">
         <v>1</v>
       </c>
       <c r="L149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O149" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="P149" t="s">
         <v>269</v>
       </c>
       <c r="Q149">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="R149">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S149">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T149">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U149">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W149">
+        <v>1.36</v>
+      </c>
+      <c r="X149">
+        <v>8</v>
+      </c>
+      <c r="Y149">
+        <v>1.08</v>
+      </c>
+      <c r="Z149">
+        <v>1.92</v>
+      </c>
+      <c r="AA149">
+        <v>3.43</v>
+      </c>
+      <c r="AB149">
+        <v>3.72</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8.5</v>
+      </c>
+      <c r="AE149">
         <v>1.33</v>
       </c>
-      <c r="X149">
-        <v>10</v>
-      </c>
-      <c r="Y149">
-        <v>1.06</v>
-      </c>
-      <c r="Z149">
-        <v>2.87</v>
-      </c>
-      <c r="AA149">
-        <v>3.22</v>
-      </c>
-      <c r="AB149">
-        <v>2.38</v>
-      </c>
-      <c r="AC149">
-        <v>1.08</v>
-      </c>
-      <c r="AD149">
-        <v>7.5</v>
-      </c>
-      <c r="AE149">
-        <v>1.4</v>
-      </c>
       <c r="AF149">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AG149">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="AH149">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="AI149">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ149">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK149">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AL149">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM149">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AN149">
-        <v>2.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO149">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AP149">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AQ149">
-        <v>1.75</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS149">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="AT149">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="AU149">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV149">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AW149">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX149">
         <v>4</v>
       </c>
       <c r="AY149">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ149">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BA149">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB149">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC149">
         <v>13</v>
       </c>
       <c r="BD149">
-        <v>2.07</v>
+        <v>1.29</v>
       </c>
       <c r="BE149">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF149">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="BG149">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="BH149">
         <v>4.3</v>
@@ -31888,25 +31888,25 @@
         <v>1.3</v>
       </c>
       <c r="BJ149">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BK149">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BL149">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="BM149">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="BN149">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="BO149">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BP149">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31914,7 +31914,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7478890</v>
+        <v>7478889</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31929,190 +31929,190 @@
         <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H150" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M150">
         <v>1</v>
       </c>
       <c r="N150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O150" t="s">
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="Q150">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="R150">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S150">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="T150">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U150">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V150">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W150">
+        <v>1.4</v>
+      </c>
+      <c r="X150">
+        <v>7</v>
+      </c>
+      <c r="Y150">
+        <v>1.1</v>
+      </c>
+      <c r="Z150">
+        <v>2.61</v>
+      </c>
+      <c r="AA150">
+        <v>3.28</v>
+      </c>
+      <c r="AB150">
+        <v>2.42</v>
+      </c>
+      <c r="AC150">
+        <v>1.05</v>
+      </c>
+      <c r="AD150">
+        <v>9</v>
+      </c>
+      <c r="AE150">
+        <v>1.28</v>
+      </c>
+      <c r="AF150">
+        <v>3.5</v>
+      </c>
+      <c r="AG150">
+        <v>1.91</v>
+      </c>
+      <c r="AH150">
+        <v>1.73</v>
+      </c>
+      <c r="AI150">
+        <v>1.67</v>
+      </c>
+      <c r="AJ150">
+        <v>2.1</v>
+      </c>
+      <c r="AK150">
+        <v>1.48</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.48</v>
+      </c>
+      <c r="AN150">
         <v>1.5</v>
       </c>
-      <c r="X150">
+      <c r="AO150">
+        <v>1.33</v>
+      </c>
+      <c r="AP150">
+        <v>1.71</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
+      </c>
+      <c r="AR150">
+        <v>1.54</v>
+      </c>
+      <c r="AS150">
+        <v>1.01</v>
+      </c>
+      <c r="AT150">
+        <v>2.55</v>
+      </c>
+      <c r="AU150">
         <v>6</v>
       </c>
-      <c r="Y150">
-        <v>1.13</v>
-      </c>
-      <c r="Z150">
-        <v>1.76</v>
-      </c>
-      <c r="AA150">
-        <v>3.45</v>
-      </c>
-      <c r="AB150">
-        <v>4.15</v>
-      </c>
-      <c r="AC150">
-        <v>1.04</v>
-      </c>
-      <c r="AD150">
-        <v>10</v>
-      </c>
-      <c r="AE150">
-        <v>1.22</v>
-      </c>
-      <c r="AF150">
-        <v>4.2</v>
-      </c>
-      <c r="AG150">
-        <v>1.73</v>
-      </c>
-      <c r="AH150">
-        <v>1.91</v>
-      </c>
-      <c r="AI150">
-        <v>1.62</v>
-      </c>
-      <c r="AJ150">
-        <v>2.2</v>
-      </c>
-      <c r="AK150">
-        <v>1.18</v>
-      </c>
-      <c r="AL150">
-        <v>1.2</v>
-      </c>
-      <c r="AM150">
-        <v>2.15</v>
-      </c>
-      <c r="AN150">
-        <v>1</v>
-      </c>
-      <c r="AO150">
-        <v>0.83</v>
-      </c>
-      <c r="AP150">
-        <v>1</v>
-      </c>
-      <c r="AQ150">
-        <v>0.75</v>
-      </c>
-      <c r="AR150">
-        <v>1.35</v>
-      </c>
-      <c r="AS150">
-        <v>0.89</v>
-      </c>
-      <c r="AT150">
-        <v>2.24</v>
-      </c>
-      <c r="AU150">
-        <v>4</v>
-      </c>
       <c r="AV150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX150">
         <v>3</v>
       </c>
       <c r="AY150">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ150">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC150">
         <v>8</v>
       </c>
       <c r="BD150">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="BE150">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF150">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="BG150">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BH150">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BI150">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="BJ150">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="BK150">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BL150">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="BM150">
-        <v>2.07</v>
+        <v>2.33</v>
       </c>
       <c r="BN150">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BO150">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="BP150">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32120,7 +32120,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7478893</v>
+        <v>7478890</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32135,34 +32135,34 @@
         <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H151" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>1</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O151" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32174,10 +32174,10 @@
         <v>4.75</v>
       </c>
       <c r="T151">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U151">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V151">
         <v>2.5</v>
@@ -32192,13 +32192,13 @@
         <v>1.13</v>
       </c>
       <c r="Z151">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AA151">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AB151">
-        <v>4.13</v>
+        <v>4.15</v>
       </c>
       <c r="AC151">
         <v>1.04</v>
@@ -32213,16 +32213,16 @@
         <v>4.2</v>
       </c>
       <c r="AG151">
-        <v>2.09</v>
+        <v>1.73</v>
       </c>
       <c r="AH151">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="AI151">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ151">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK151">
         <v>1.18</v>
@@ -32231,31 +32231,31 @@
         <v>1.2</v>
       </c>
       <c r="AM151">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AN151">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="AO151">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AP151">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AQ151">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR151">
-        <v>1.84</v>
+        <v>1.35</v>
       </c>
       <c r="AS151">
-        <v>1.07</v>
+        <v>0.89</v>
       </c>
       <c r="AT151">
-        <v>2.91</v>
+        <v>2.24</v>
       </c>
       <c r="AU151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV151">
         <v>5</v>
@@ -32270,55 +32270,55 @@
         <v>11</v>
       </c>
       <c r="AZ151">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA151">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB151">
+        <v>3</v>
+      </c>
+      <c r="BC151">
         <v>8</v>
       </c>
-      <c r="BC151">
-        <v>14</v>
-      </c>
       <c r="BD151">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="BE151">
         <v>7</v>
       </c>
       <c r="BF151">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="BG151">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="BH151">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="BI151">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="BJ151">
-        <v>3.95</v>
+        <v>2.63</v>
       </c>
       <c r="BK151">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="BL151">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="BM151">
-        <v>1.55</v>
+        <v>2.07</v>
       </c>
       <c r="BN151">
-        <v>2.28</v>
+        <v>1.65</v>
       </c>
       <c r="BO151">
-        <v>1.84</v>
+        <v>2.6</v>
       </c>
       <c r="BP151">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32326,7 +32326,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7478896</v>
+        <v>7478891</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32341,190 +32341,190 @@
         <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H152" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
         <v>3</v>
       </c>
-      <c r="N152">
+      <c r="O152" t="s">
+        <v>202</v>
+      </c>
+      <c r="P152" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q152">
+        <v>1.57</v>
+      </c>
+      <c r="R152">
+        <v>2.88</v>
+      </c>
+      <c r="S152">
+        <v>10</v>
+      </c>
+      <c r="T152">
+        <v>1.22</v>
+      </c>
+      <c r="U152">
         <v>4</v>
       </c>
-      <c r="O152" t="s">
-        <v>132</v>
-      </c>
-      <c r="P152" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q152">
-        <v>3.25</v>
-      </c>
-      <c r="R152">
+      <c r="V152">
+        <v>2.1</v>
+      </c>
+      <c r="W152">
+        <v>1.67</v>
+      </c>
+      <c r="X152">
+        <v>4.5</v>
+      </c>
+      <c r="Y152">
+        <v>1.18</v>
+      </c>
+      <c r="Z152">
+        <v>1.23</v>
+      </c>
+      <c r="AA152">
+        <v>5.6</v>
+      </c>
+      <c r="AB152">
+        <v>9.25</v>
+      </c>
+      <c r="AC152">
+        <v>1.02</v>
+      </c>
+      <c r="AD152">
+        <v>26</v>
+      </c>
+      <c r="AE152">
+        <v>1.13</v>
+      </c>
+      <c r="AF152">
+        <v>6</v>
+      </c>
+      <c r="AG152">
+        <v>1.56</v>
+      </c>
+      <c r="AH152">
+        <v>2.18</v>
+      </c>
+      <c r="AI152">
+        <v>2</v>
+      </c>
+      <c r="AJ152">
+        <v>1.73</v>
+      </c>
+      <c r="AK152">
+        <v>1.04</v>
+      </c>
+      <c r="AL152">
+        <v>1.09</v>
+      </c>
+      <c r="AM152">
+        <v>4.5</v>
+      </c>
+      <c r="AN152">
+        <v>2.17</v>
+      </c>
+      <c r="AO152">
+        <v>0.17</v>
+      </c>
+      <c r="AP152">
+        <v>2.29</v>
+      </c>
+      <c r="AQ152">
+        <v>0.14</v>
+      </c>
+      <c r="AR152">
+        <v>1.82</v>
+      </c>
+      <c r="AS152">
+        <v>0.8</v>
+      </c>
+      <c r="AT152">
+        <v>2.62</v>
+      </c>
+      <c r="AU152">
+        <v>8</v>
+      </c>
+      <c r="AV152">
+        <v>0</v>
+      </c>
+      <c r="AW152">
+        <v>8</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>24</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>9</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>9</v>
+      </c>
+      <c r="BD152">
+        <v>1.21</v>
+      </c>
+      <c r="BE152">
+        <v>9</v>
+      </c>
+      <c r="BF152">
+        <v>4.8</v>
+      </c>
+      <c r="BG152">
+        <v>1.15</v>
+      </c>
+      <c r="BH152">
+        <v>4.6</v>
+      </c>
+      <c r="BI152">
+        <v>1.26</v>
+      </c>
+      <c r="BJ152">
+        <v>3.4</v>
+      </c>
+      <c r="BK152">
+        <v>1.44</v>
+      </c>
+      <c r="BL152">
+        <v>2.55</v>
+      </c>
+      <c r="BM152">
+        <v>1.7</v>
+      </c>
+      <c r="BN152">
+        <v>2</v>
+      </c>
+      <c r="BO152">
         <v>2.05</v>
       </c>
-      <c r="S152">
-        <v>3.5</v>
-      </c>
-      <c r="T152">
-        <v>1.44</v>
-      </c>
-      <c r="U152">
-        <v>2.63</v>
-      </c>
-      <c r="V152">
-        <v>3.25</v>
-      </c>
-      <c r="W152">
-        <v>1.33</v>
-      </c>
-      <c r="X152">
-        <v>10</v>
-      </c>
-      <c r="Y152">
-        <v>1.06</v>
-      </c>
-      <c r="Z152">
-        <v>2.55</v>
-      </c>
-      <c r="AA152">
-        <v>3.15</v>
-      </c>
-      <c r="AB152">
-        <v>2.55</v>
-      </c>
-      <c r="AC152">
-        <v>1.06</v>
-      </c>
-      <c r="AD152">
-        <v>8.5</v>
-      </c>
-      <c r="AE152">
-        <v>1.36</v>
-      </c>
-      <c r="AF152">
-        <v>3.1</v>
-      </c>
-      <c r="AG152">
-        <v>2</v>
-      </c>
-      <c r="AH152">
-        <v>1.66</v>
-      </c>
-      <c r="AI152">
-        <v>1.83</v>
-      </c>
-      <c r="AJ152">
-        <v>1.83</v>
-      </c>
-      <c r="AK152">
-        <v>1.42</v>
-      </c>
-      <c r="AL152">
-        <v>1.28</v>
-      </c>
-      <c r="AM152">
-        <v>1.5</v>
-      </c>
-      <c r="AN152">
-        <v>1.83</v>
-      </c>
-      <c r="AO152">
-        <v>1</v>
-      </c>
-      <c r="AP152">
-        <v>1.5</v>
-      </c>
-      <c r="AQ152">
-        <v>1.29</v>
-      </c>
-      <c r="AR152">
-        <v>1.21</v>
-      </c>
-      <c r="AS152">
-        <v>1.52</v>
-      </c>
-      <c r="AT152">
-        <v>2.73</v>
-      </c>
-      <c r="AU152">
-        <v>3</v>
-      </c>
-      <c r="AV152">
-        <v>4</v>
-      </c>
-      <c r="AW152">
-        <v>4</v>
-      </c>
-      <c r="AX152">
-        <v>1</v>
-      </c>
-      <c r="AY152">
-        <v>16</v>
-      </c>
-      <c r="AZ152">
-        <v>6</v>
-      </c>
-      <c r="BA152">
-        <v>4</v>
-      </c>
-      <c r="BB152">
-        <v>1</v>
-      </c>
-      <c r="BC152">
-        <v>5</v>
-      </c>
-      <c r="BD152">
-        <v>2.23</v>
-      </c>
-      <c r="BE152">
-        <v>6.4</v>
-      </c>
-      <c r="BF152">
-        <v>1.79</v>
-      </c>
-      <c r="BG152">
-        <v>1.24</v>
-      </c>
-      <c r="BH152">
-        <v>3.55</v>
-      </c>
-      <c r="BI152">
-        <v>1.43</v>
-      </c>
-      <c r="BJ152">
-        <v>2.6</v>
-      </c>
-      <c r="BK152">
-        <v>1.71</v>
-      </c>
-      <c r="BL152">
-        <v>2</v>
-      </c>
-      <c r="BM152">
-        <v>2.1</v>
-      </c>
-      <c r="BN152">
-        <v>1.64</v>
-      </c>
-      <c r="BO152">
-        <v>2.65</v>
-      </c>
       <c r="BP152">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -32532,7 +32532,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7478897</v>
+        <v>7478893</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32547,190 +32547,190 @@
         <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H153" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O153" t="s">
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="Q153">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="R153">
+        <v>2.38</v>
+      </c>
+      <c r="S153">
+        <v>4.75</v>
+      </c>
+      <c r="T153">
+        <v>1.33</v>
+      </c>
+      <c r="U153">
+        <v>3.25</v>
+      </c>
+      <c r="V153">
+        <v>2.5</v>
+      </c>
+      <c r="W153">
+        <v>1.5</v>
+      </c>
+      <c r="X153">
+        <v>6</v>
+      </c>
+      <c r="Y153">
+        <v>1.13</v>
+      </c>
+      <c r="Z153">
+        <v>1.78</v>
+      </c>
+      <c r="AA153">
+        <v>3.35</v>
+      </c>
+      <c r="AB153">
+        <v>4.13</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
+      <c r="AE153">
+        <v>1.22</v>
+      </c>
+      <c r="AF153">
+        <v>4.2</v>
+      </c>
+      <c r="AG153">
+        <v>2.09</v>
+      </c>
+      <c r="AH153">
+        <v>1.61</v>
+      </c>
+      <c r="AI153">
+        <v>1.67</v>
+      </c>
+      <c r="AJ153">
         <v>2.1</v>
       </c>
-      <c r="S153">
-        <v>2.75</v>
-      </c>
-      <c r="T153">
-        <v>1.44</v>
-      </c>
-      <c r="U153">
-        <v>2.63</v>
-      </c>
-      <c r="V153">
-        <v>3.25</v>
-      </c>
-      <c r="W153">
-        <v>1.33</v>
-      </c>
-      <c r="X153">
-        <v>9</v>
-      </c>
-      <c r="Y153">
+      <c r="AK153">
+        <v>1.18</v>
+      </c>
+      <c r="AL153">
+        <v>1.2</v>
+      </c>
+      <c r="AM153">
+        <v>2.1</v>
+      </c>
+      <c r="AN153">
+        <v>1.83</v>
+      </c>
+      <c r="AO153">
+        <v>0.5</v>
+      </c>
+      <c r="AP153">
+        <v>1.57</v>
+      </c>
+      <c r="AQ153">
+        <v>0.86</v>
+      </c>
+      <c r="AR153">
+        <v>1.84</v>
+      </c>
+      <c r="AS153">
         <v>1.07</v>
       </c>
-      <c r="Z153">
-        <v>2.89</v>
-      </c>
-      <c r="AA153">
-        <v>3.27</v>
-      </c>
-      <c r="AB153">
-        <v>2.23</v>
-      </c>
-      <c r="AC153">
-        <v>1.06</v>
-      </c>
-      <c r="AD153">
-        <v>8.5</v>
-      </c>
-      <c r="AE153">
-        <v>1.35</v>
-      </c>
-      <c r="AF153">
-        <v>3.1</v>
-      </c>
-      <c r="AG153">
-        <v>1.91</v>
-      </c>
-      <c r="AH153">
-        <v>1.73</v>
-      </c>
-      <c r="AI153">
-        <v>1.83</v>
-      </c>
-      <c r="AJ153">
-        <v>1.83</v>
-      </c>
-      <c r="AK153">
-        <v>1.7</v>
-      </c>
-      <c r="AL153">
-        <v>1.25</v>
-      </c>
-      <c r="AM153">
-        <v>1.28</v>
-      </c>
-      <c r="AN153">
-        <v>0.5</v>
-      </c>
-      <c r="AO153">
-        <v>2</v>
-      </c>
-      <c r="AP153">
-        <v>0.5</v>
-      </c>
-      <c r="AQ153">
-        <v>1.75</v>
-      </c>
-      <c r="AR153">
-        <v>1.73</v>
-      </c>
-      <c r="AS153">
-        <v>1.36</v>
-      </c>
       <c r="AT153">
-        <v>3.09</v>
+        <v>2.91</v>
       </c>
       <c r="AU153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW153">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AX153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY153">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ153">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA153">
         <v>6</v>
       </c>
       <c r="BB153">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC153">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD153">
-        <v>2.15</v>
+        <v>1.76</v>
       </c>
       <c r="BE153">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF153">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="BG153">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="BH153">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="BI153">
+        <v>1.2</v>
+      </c>
+      <c r="BJ153">
+        <v>3.95</v>
+      </c>
+      <c r="BK153">
         <v>1.34</v>
       </c>
-      <c r="BJ153">
+      <c r="BL153">
         <v>2.9</v>
       </c>
-      <c r="BK153">
-        <v>1.58</v>
-      </c>
-      <c r="BL153">
-        <v>2.2</v>
-      </c>
       <c r="BM153">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="BN153">
-        <v>1.77</v>
+        <v>2.28</v>
       </c>
       <c r="BO153">
-        <v>2.4</v>
+        <v>1.84</v>
       </c>
       <c r="BP153">
-        <v>1.49</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32738,7 +32738,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7478898</v>
+        <v>7478896</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32753,190 +32753,190 @@
         <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H154" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <v>1</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M154">
+        <v>3</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>132</v>
+      </c>
+      <c r="P154" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q154">
+        <v>3.25</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>3.5</v>
+      </c>
+      <c r="T154">
+        <v>1.44</v>
+      </c>
+      <c r="U154">
+        <v>2.63</v>
+      </c>
+      <c r="V154">
+        <v>3.25</v>
+      </c>
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>10</v>
+      </c>
+      <c r="Y154">
+        <v>1.06</v>
+      </c>
+      <c r="Z154">
+        <v>2.55</v>
+      </c>
+      <c r="AA154">
+        <v>3.15</v>
+      </c>
+      <c r="AB154">
+        <v>2.55</v>
+      </c>
+      <c r="AC154">
+        <v>1.06</v>
+      </c>
+      <c r="AD154">
+        <v>8.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.36</v>
+      </c>
+      <c r="AF154">
+        <v>3.1</v>
+      </c>
+      <c r="AG154">
+        <v>2</v>
+      </c>
+      <c r="AH154">
+        <v>1.66</v>
+      </c>
+      <c r="AI154">
+        <v>1.83</v>
+      </c>
+      <c r="AJ154">
+        <v>1.83</v>
+      </c>
+      <c r="AK154">
+        <v>1.42</v>
+      </c>
+      <c r="AL154">
+        <v>1.28</v>
+      </c>
+      <c r="AM154">
+        <v>1.5</v>
+      </c>
+      <c r="AN154">
+        <v>1.83</v>
+      </c>
+      <c r="AO154">
+        <v>1</v>
+      </c>
+      <c r="AP154">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154">
+        <v>1.29</v>
+      </c>
+      <c r="AR154">
+        <v>1.21</v>
+      </c>
+      <c r="AS154">
+        <v>1.52</v>
+      </c>
+      <c r="AT154">
+        <v>2.73</v>
+      </c>
+      <c r="AU154">
+        <v>3</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
+        <v>1</v>
+      </c>
+      <c r="AY154">
+        <v>16</v>
+      </c>
+      <c r="AZ154">
         <v>6</v>
       </c>
-      <c r="N154">
-        <v>8</v>
-      </c>
-      <c r="O154" t="s">
-        <v>201</v>
-      </c>
-      <c r="P154" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q154">
+      <c r="BA154">
+        <v>4</v>
+      </c>
+      <c r="BB154">
+        <v>1</v>
+      </c>
+      <c r="BC154">
+        <v>5</v>
+      </c>
+      <c r="BD154">
+        <v>2.23</v>
+      </c>
+      <c r="BE154">
+        <v>6.4</v>
+      </c>
+      <c r="BF154">
+        <v>1.79</v>
+      </c>
+      <c r="BG154">
+        <v>1.24</v>
+      </c>
+      <c r="BH154">
+        <v>3.55</v>
+      </c>
+      <c r="BI154">
+        <v>1.43</v>
+      </c>
+      <c r="BJ154">
         <v>2.6</v>
       </c>
-      <c r="R154">
-        <v>2.2</v>
-      </c>
-      <c r="S154">
-        <v>4.33</v>
-      </c>
-      <c r="T154">
+      <c r="BK154">
+        <v>1.71</v>
+      </c>
+      <c r="BL154">
+        <v>2</v>
+      </c>
+      <c r="BM154">
+        <v>2.1</v>
+      </c>
+      <c r="BN154">
+        <v>1.64</v>
+      </c>
+      <c r="BO154">
+        <v>2.65</v>
+      </c>
+      <c r="BP154">
         <v>1.4</v>
-      </c>
-      <c r="U154">
-        <v>2.75</v>
-      </c>
-      <c r="V154">
-        <v>2.75</v>
-      </c>
-      <c r="W154">
-        <v>1.4</v>
-      </c>
-      <c r="X154">
-        <v>8</v>
-      </c>
-      <c r="Y154">
-        <v>1.08</v>
-      </c>
-      <c r="Z154">
-        <v>2</v>
-      </c>
-      <c r="AA154">
-        <v>3.38</v>
-      </c>
-      <c r="AB154">
-        <v>3.28</v>
-      </c>
-      <c r="AC154">
-        <v>1.05</v>
-      </c>
-      <c r="AD154">
-        <v>11</v>
-      </c>
-      <c r="AE154">
-        <v>1.32</v>
-      </c>
-      <c r="AF154">
-        <v>3.4</v>
-      </c>
-      <c r="AG154">
-        <v>1.73</v>
-      </c>
-      <c r="AH154">
-        <v>1.91</v>
-      </c>
-      <c r="AI154">
-        <v>1.8</v>
-      </c>
-      <c r="AJ154">
-        <v>1.91</v>
-      </c>
-      <c r="AK154">
-        <v>1.28</v>
-      </c>
-      <c r="AL154">
-        <v>1.25</v>
-      </c>
-      <c r="AM154">
-        <v>1.87</v>
-      </c>
-      <c r="AN154">
-        <v>1.33</v>
-      </c>
-      <c r="AO154">
-        <v>0.5</v>
-      </c>
-      <c r="AP154">
-        <v>1.38</v>
-      </c>
-      <c r="AQ154">
-        <v>0.75</v>
-      </c>
-      <c r="AR154">
-        <v>1.43</v>
-      </c>
-      <c r="AS154">
-        <v>1.07</v>
-      </c>
-      <c r="AT154">
-        <v>2.5</v>
-      </c>
-      <c r="AU154">
-        <v>7</v>
-      </c>
-      <c r="AV154">
-        <v>8</v>
-      </c>
-      <c r="AW154">
-        <v>7</v>
-      </c>
-      <c r="AX154">
-        <v>6</v>
-      </c>
-      <c r="AY154">
-        <v>15</v>
-      </c>
-      <c r="AZ154">
-        <v>15</v>
-      </c>
-      <c r="BA154">
-        <v>7</v>
-      </c>
-      <c r="BB154">
-        <v>2</v>
-      </c>
-      <c r="BC154">
-        <v>9</v>
-      </c>
-      <c r="BD154">
-        <v>1.55</v>
-      </c>
-      <c r="BE154">
-        <v>6.75</v>
-      </c>
-      <c r="BF154">
-        <v>2.65</v>
-      </c>
-      <c r="BG154">
-        <v>1.23</v>
-      </c>
-      <c r="BH154">
-        <v>3.65</v>
-      </c>
-      <c r="BI154">
-        <v>1.4</v>
-      </c>
-      <c r="BJ154">
-        <v>2.65</v>
-      </c>
-      <c r="BK154">
-        <v>1.65</v>
-      </c>
-      <c r="BL154">
-        <v>2.07</v>
-      </c>
-      <c r="BM154">
-        <v>2.04</v>
-      </c>
-      <c r="BN154">
-        <v>1.67</v>
-      </c>
-      <c r="BO154">
-        <v>2.55</v>
-      </c>
-      <c r="BP154">
-        <v>1.44</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32944,7 +32944,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7478889</v>
+        <v>7478897</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32959,10 +32959,10 @@
         <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H155" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -32974,67 +32974,67 @@
         <v>0</v>
       </c>
       <c r="L155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O155" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="P155" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="Q155">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="R155">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S155">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="T155">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U155">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V155">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W155">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X155">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y155">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z155">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="AA155">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="AB155">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AC155">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD155">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE155">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AF155">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AG155">
         <v>1.91</v>
@@ -33043,106 +33043,106 @@
         <v>1.73</v>
       </c>
       <c r="AI155">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AJ155">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AK155">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="AL155">
         <v>1.25</v>
       </c>
       <c r="AM155">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AN155">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO155">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP155">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR155">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="AS155">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="AT155">
-        <v>2.55</v>
+        <v>3.09</v>
       </c>
       <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>2</v>
+      </c>
+      <c r="AW155">
+        <v>12</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>18</v>
+      </c>
+      <c r="AZ155">
+        <v>9</v>
+      </c>
+      <c r="BA155">
         <v>6</v>
       </c>
-      <c r="AV155">
+      <c r="BB155">
         <v>6</v>
       </c>
-      <c r="AW155">
-        <v>1</v>
-      </c>
-      <c r="AX155">
-        <v>3</v>
-      </c>
-      <c r="AY155">
+      <c r="BC155">
         <v>12</v>
       </c>
-      <c r="AZ155">
-        <v>16</v>
-      </c>
-      <c r="BA155">
+      <c r="BD155">
+        <v>2.15</v>
+      </c>
+      <c r="BE155">
+        <v>6.75</v>
+      </c>
+      <c r="BF155">
+        <v>1.82</v>
+      </c>
+      <c r="BG155">
+        <v>1.19</v>
+      </c>
+      <c r="BH155">
         <v>4</v>
       </c>
-      <c r="BB155">
-        <v>4</v>
-      </c>
-      <c r="BC155">
-        <v>8</v>
-      </c>
-      <c r="BD155">
-        <v>1.72</v>
-      </c>
-      <c r="BE155">
-        <v>6.4</v>
-      </c>
-      <c r="BF155">
-        <v>2.35</v>
-      </c>
-      <c r="BG155">
-        <v>1.29</v>
-      </c>
-      <c r="BH155">
-        <v>3.15</v>
-      </c>
       <c r="BI155">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BJ155">
-        <v>2.33</v>
+        <v>2.9</v>
       </c>
       <c r="BK155">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="BL155">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="BM155">
-        <v>2.33</v>
+        <v>1.92</v>
       </c>
       <c r="BN155">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="BO155">
-        <v>2.95</v>
+        <v>2.4</v>
       </c>
       <c r="BP155">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33150,7 +33150,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7478891</v>
+        <v>7478898</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33165,190 +33165,190 @@
         <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H156" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N156">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O156" t="s">
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="Q156">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="R156">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="S156">
-        <v>10</v>
+        <v>4.33</v>
       </c>
       <c r="T156">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="U156">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="V156">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="W156">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="X156">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Y156">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="Z156">
-        <v>1.23</v>
+        <v>2</v>
       </c>
       <c r="AA156">
-        <v>5.6</v>
+        <v>3.38</v>
       </c>
       <c r="AB156">
-        <v>9.25</v>
+        <v>3.28</v>
       </c>
       <c r="AC156">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD156">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AE156">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="AF156">
+        <v>3.4</v>
+      </c>
+      <c r="AG156">
+        <v>1.73</v>
+      </c>
+      <c r="AH156">
+        <v>1.91</v>
+      </c>
+      <c r="AI156">
+        <v>1.8</v>
+      </c>
+      <c r="AJ156">
+        <v>1.91</v>
+      </c>
+      <c r="AK156">
+        <v>1.28</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.87</v>
+      </c>
+      <c r="AN156">
+        <v>1.33</v>
+      </c>
+      <c r="AO156">
+        <v>0.5</v>
+      </c>
+      <c r="AP156">
+        <v>1.38</v>
+      </c>
+      <c r="AQ156">
+        <v>0.75</v>
+      </c>
+      <c r="AR156">
+        <v>1.43</v>
+      </c>
+      <c r="AS156">
+        <v>1.07</v>
+      </c>
+      <c r="AT156">
+        <v>2.5</v>
+      </c>
+      <c r="AU156">
+        <v>7</v>
+      </c>
+      <c r="AV156">
+        <v>8</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
         <v>6</v>
       </c>
-      <c r="AG156">
-        <v>1.56</v>
-      </c>
-      <c r="AH156">
-        <v>2.18</v>
-      </c>
-      <c r="AI156">
-        <v>2</v>
-      </c>
-      <c r="AJ156">
-        <v>1.73</v>
-      </c>
-      <c r="AK156">
-        <v>1.04</v>
-      </c>
-      <c r="AL156">
-        <v>1.09</v>
-      </c>
-      <c r="AM156">
-        <v>4.5</v>
-      </c>
-      <c r="AN156">
-        <v>2.17</v>
-      </c>
-      <c r="AO156">
-        <v>0.17</v>
-      </c>
-      <c r="AP156">
-        <v>2.29</v>
-      </c>
-      <c r="AQ156">
-        <v>0.14</v>
-      </c>
-      <c r="AR156">
-        <v>1.82</v>
-      </c>
-      <c r="AS156">
-        <v>0.8</v>
-      </c>
-      <c r="AT156">
-        <v>2.62</v>
-      </c>
-      <c r="AU156">
-        <v>8</v>
-      </c>
-      <c r="AV156">
-        <v>0</v>
-      </c>
-      <c r="AW156">
-        <v>8</v>
-      </c>
-      <c r="AX156">
-        <v>0</v>
-      </c>
       <c r="AY156">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AZ156">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA156">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC156">
         <v>9</v>
       </c>
       <c r="BD156">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="BE156">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="BF156">
-        <v>4.8</v>
+        <v>2.65</v>
       </c>
       <c r="BG156">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="BH156">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="BI156">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="BJ156">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="BK156">
+        <v>1.65</v>
+      </c>
+      <c r="BL156">
+        <v>2.07</v>
+      </c>
+      <c r="BM156">
+        <v>2.04</v>
+      </c>
+      <c r="BN156">
+        <v>1.67</v>
+      </c>
+      <c r="BO156">
+        <v>2.55</v>
+      </c>
+      <c r="BP156">
         <v>1.44</v>
-      </c>
-      <c r="BL156">
-        <v>2.55</v>
-      </c>
-      <c r="BM156">
-        <v>1.7</v>
-      </c>
-      <c r="BN156">
-        <v>2</v>
-      </c>
-      <c r="BO156">
-        <v>2.05</v>
-      </c>
-      <c r="BP156">
-        <v>1.67</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33479,7 +33479,7 @@
         <v>2</v>
       </c>
       <c r="AQ157">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR157">
         <v>1.46</v>
@@ -33571,7 +33571,7 @@
         <v>69</v>
       </c>
       <c r="E158" s="2">
-        <v>45600.875</v>
+        <v>45601.69791666666</v>
       </c>
       <c r="F158">
         <v>14</v>
@@ -33768,7 +33768,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7478906</v>
+        <v>7478904</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33777,76 +33777,76 @@
         <v>69</v>
       </c>
       <c r="E159" s="2">
-        <v>45600.875</v>
+        <v>45601.69791666666</v>
       </c>
       <c r="F159">
         <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H159" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L159">
         <v>1</v>
       </c>
       <c r="M159">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O159" t="s">
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="Q159">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="R159">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="T159">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U159">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V159">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W159">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X159">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y159">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z159">
-        <v>2.12</v>
+        <v>3.9</v>
       </c>
       <c r="AA159">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AB159">
-        <v>3.45</v>
+        <v>1.91</v>
       </c>
       <c r="AC159">
         <v>1.06</v>
@@ -33855,118 +33855,118 @@
         <v>8.5</v>
       </c>
       <c r="AE159">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AF159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AG159">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="AH159">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AI159">
+        <v>2</v>
+      </c>
+      <c r="AJ159">
+        <v>1.73</v>
+      </c>
+      <c r="AK159">
         <v>1.8</v>
-      </c>
-      <c r="AJ159">
-        <v>1.91</v>
-      </c>
-      <c r="AK159">
-        <v>1.35</v>
       </c>
       <c r="AL159">
         <v>1.25</v>
       </c>
       <c r="AM159">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="AN159">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AO159">
-        <v>0.86</v>
+        <v>1.17</v>
       </c>
       <c r="AP159">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="AQ159">
-        <v>0.75</v>
+        <v>1.43</v>
       </c>
       <c r="AR159">
-        <v>1.39</v>
+        <v>1.74</v>
       </c>
       <c r="AS159">
-        <v>1.16</v>
+        <v>1.56</v>
       </c>
       <c r="AT159">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="AU159">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV159">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX159">
+        <v>2</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>13</v>
+      </c>
+      <c r="BA159">
+        <v>8</v>
+      </c>
+      <c r="BB159">
         <v>5</v>
       </c>
-      <c r="AY159">
+      <c r="BC159">
         <v>13</v>
       </c>
-      <c r="AZ159">
-        <v>8</v>
-      </c>
-      <c r="BA159">
-        <v>6</v>
-      </c>
-      <c r="BB159">
-        <v>8</v>
-      </c>
-      <c r="BC159">
-        <v>14</v>
-      </c>
       <c r="BD159">
+        <v>2.53</v>
+      </c>
+      <c r="BE159">
+        <v>8.5</v>
+      </c>
+      <c r="BF159">
         <v>1.69</v>
       </c>
-      <c r="BE159">
-        <v>8</v>
-      </c>
-      <c r="BF159">
-        <v>2.62</v>
-      </c>
       <c r="BG159">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="BH159">
-        <v>3.65</v>
+        <v>4.65</v>
       </c>
       <c r="BI159">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="BJ159">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="BK159">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="BL159">
-        <v>1.98</v>
+        <v>2.36</v>
       </c>
       <c r="BM159">
-        <v>2.24</v>
+        <v>1.89</v>
       </c>
       <c r="BN159">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="BO159">
-        <v>2.95</v>
+        <v>2.39</v>
       </c>
       <c r="BP159">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -33974,7 +33974,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>7478904</v>
+        <v>7478900</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -33983,61 +33983,61 @@
         <v>69</v>
       </c>
       <c r="E160" s="2">
-        <v>45600.875</v>
+        <v>45601.69791666666</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G160" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H160" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L160">
         <v>1</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O160" t="s">
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q160">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="R160">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="T160">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U160">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V160">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W160">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X160">
         <v>10</v>
@@ -34046,31 +34046,31 @@
         <v>1.06</v>
       </c>
       <c r="Z160">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="AA160">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="AB160">
-        <v>1.91</v>
+        <v>2.65</v>
       </c>
       <c r="AC160">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD160">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE160">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AF160">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AG160">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="AH160">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="AI160">
         <v>2</v>
@@ -34079,100 +34079,100 @@
         <v>1.73</v>
       </c>
       <c r="AK160">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AL160">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM160">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AN160">
-        <v>0.57</v>
+        <v>1.67</v>
       </c>
       <c r="AO160">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AP160">
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ160">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AR160">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="AS160">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AT160">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="AU160">
+        <v>3</v>
+      </c>
+      <c r="AV160">
+        <v>5</v>
+      </c>
+      <c r="AW160">
+        <v>4</v>
+      </c>
+      <c r="AX160">
+        <v>5</v>
+      </c>
+      <c r="AY160">
+        <v>14</v>
+      </c>
+      <c r="AZ160">
+        <v>12</v>
+      </c>
+      <c r="BA160">
+        <v>2</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
         <v>6</v>
       </c>
-      <c r="AV160">
-        <v>9</v>
-      </c>
-      <c r="AW160">
-        <v>2</v>
-      </c>
-      <c r="AX160">
-        <v>2</v>
-      </c>
-      <c r="AY160">
-        <v>8</v>
-      </c>
-      <c r="AZ160">
-        <v>13</v>
-      </c>
-      <c r="BA160">
-        <v>8</v>
-      </c>
-      <c r="BB160">
-        <v>5</v>
-      </c>
-      <c r="BC160">
-        <v>13</v>
-      </c>
       <c r="BD160">
-        <v>2.53</v>
+        <v>1.82</v>
       </c>
       <c r="BE160">
         <v>8.5</v>
       </c>
       <c r="BF160">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="BG160">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BH160">
-        <v>4.65</v>
+        <v>5.15</v>
       </c>
       <c r="BI160">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BJ160">
-        <v>3.2</v>
+        <v>3.52</v>
       </c>
       <c r="BK160">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BL160">
-        <v>2.36</v>
+        <v>2.57</v>
       </c>
       <c r="BM160">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="BN160">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BO160">
-        <v>2.39</v>
+        <v>2.21</v>
       </c>
       <c r="BP160">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34180,7 +34180,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7478900</v>
+        <v>7478902</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -34189,16 +34189,16 @@
         <v>69</v>
       </c>
       <c r="E161" s="2">
-        <v>45600.875</v>
+        <v>45601.69791666666</v>
       </c>
       <c r="F161">
         <v>14</v>
       </c>
       <c r="G161" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H161" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -34213,172 +34213,172 @@
         <v>1</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O161" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="Q161">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S161">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T161">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U161">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V161">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W161">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X161">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y161">
+        <v>1.07</v>
+      </c>
+      <c r="Z161">
+        <v>2.8</v>
+      </c>
+      <c r="AA161">
+        <v>3.3</v>
+      </c>
+      <c r="AB161">
+        <v>2.48</v>
+      </c>
+      <c r="AC161">
         <v>1.06</v>
       </c>
-      <c r="Z161">
-        <v>2.7</v>
-      </c>
-      <c r="AA161">
-        <v>3.15</v>
-      </c>
-      <c r="AB161">
-        <v>2.65</v>
-      </c>
-      <c r="AC161">
-        <v>1.07</v>
-      </c>
       <c r="AD161">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE161">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AF161">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AG161">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="AH161">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AI161">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ161">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AK161">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AL161">
         <v>1.28</v>
       </c>
       <c r="AM161">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AN161">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AO161">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP161">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="AQ161">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="AR161">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="AS161">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT161">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="AU161">
         <v>3</v>
       </c>
       <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>1</v>
+      </c>
+      <c r="AX161">
+        <v>8</v>
+      </c>
+      <c r="AY161">
         <v>5</v>
       </c>
-      <c r="AW161">
-        <v>4</v>
-      </c>
-      <c r="AX161">
-        <v>5</v>
-      </c>
-      <c r="AY161">
-        <v>14</v>
-      </c>
       <c r="AZ161">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA161">
         <v>2</v>
       </c>
       <c r="BB161">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC161">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD161">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="BE161">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF161">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="BG161">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="BH161">
-        <v>5.15</v>
+        <v>4.2</v>
       </c>
       <c r="BI161">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="BJ161">
-        <v>3.52</v>
+        <v>2.93</v>
       </c>
       <c r="BK161">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="BL161">
-        <v>2.57</v>
+        <v>2.19</v>
       </c>
       <c r="BM161">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="BN161">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="BO161">
-        <v>2.21</v>
+        <v>2.6</v>
       </c>
       <c r="BP161">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="162" spans="1:68">
@@ -34386,7 +34386,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7478902</v>
+        <v>7478906</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -34395,25 +34395,25 @@
         <v>69</v>
       </c>
       <c r="E162" s="2">
-        <v>45600.875</v>
+        <v>45601.70833333334</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G162" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H162" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162">
         <v>1</v>
@@ -34425,46 +34425,46 @@
         <v>1</v>
       </c>
       <c r="O162" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="P162" t="s">
         <v>95</v>
       </c>
       <c r="Q162">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R162">
         <v>2.1</v>
       </c>
       <c r="S162">
+        <v>3.75</v>
+      </c>
+      <c r="T162">
+        <v>1.4</v>
+      </c>
+      <c r="U162">
+        <v>2.75</v>
+      </c>
+      <c r="V162">
+        <v>3</v>
+      </c>
+      <c r="W162">
+        <v>1.36</v>
+      </c>
+      <c r="X162">
+        <v>8</v>
+      </c>
+      <c r="Y162">
+        <v>1.08</v>
+      </c>
+      <c r="Z162">
+        <v>2.12</v>
+      </c>
+      <c r="AA162">
         <v>3.25</v>
       </c>
-      <c r="T162">
-        <v>1.44</v>
-      </c>
-      <c r="U162">
-        <v>2.63</v>
-      </c>
-      <c r="V162">
-        <v>3.25</v>
-      </c>
-      <c r="W162">
-        <v>1.33</v>
-      </c>
-      <c r="X162">
-        <v>9</v>
-      </c>
-      <c r="Y162">
-        <v>1.07</v>
-      </c>
-      <c r="Z162">
-        <v>2.8</v>
-      </c>
-      <c r="AA162">
-        <v>3.3</v>
-      </c>
       <c r="AB162">
-        <v>2.48</v>
+        <v>3.45</v>
       </c>
       <c r="AC162">
         <v>1.06</v>
@@ -34473,118 +34473,118 @@
         <v>8.5</v>
       </c>
       <c r="AE162">
+        <v>1.32</v>
+      </c>
+      <c r="AF162">
+        <v>3.25</v>
+      </c>
+      <c r="AG162">
+        <v>1.94</v>
+      </c>
+      <c r="AH162">
+        <v>1.86</v>
+      </c>
+      <c r="AI162">
+        <v>1.8</v>
+      </c>
+      <c r="AJ162">
+        <v>1.91</v>
+      </c>
+      <c r="AK162">
         <v>1.35</v>
       </c>
-      <c r="AF162">
-        <v>3.1</v>
-      </c>
-      <c r="AG162">
-        <v>1.95</v>
-      </c>
-      <c r="AH162">
-        <v>1.85</v>
-      </c>
-      <c r="AI162">
-        <v>1.83</v>
-      </c>
-      <c r="AJ162">
-        <v>1.83</v>
-      </c>
-      <c r="AK162">
-        <v>1.48</v>
-      </c>
       <c r="AL162">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM162">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AN162">
+        <v>1.5</v>
+      </c>
+      <c r="AO162">
+        <v>0.86</v>
+      </c>
+      <c r="AP162">
         <v>1.71</v>
       </c>
-      <c r="AO162">
-        <v>1.33</v>
-      </c>
-      <c r="AP162">
-        <v>1.88</v>
-      </c>
       <c r="AQ162">
-        <v>1.14</v>
+        <v>0.75</v>
       </c>
       <c r="AR162">
-        <v>1.05</v>
+        <v>1.39</v>
       </c>
       <c r="AS162">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="AT162">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AU162">
+        <v>4</v>
+      </c>
+      <c r="AV162">
+        <v>0</v>
+      </c>
+      <c r="AW162">
         <v>3</v>
       </c>
-      <c r="AV162">
-        <v>3</v>
-      </c>
-      <c r="AW162">
-        <v>1</v>
-      </c>
       <c r="AX162">
+        <v>5</v>
+      </c>
+      <c r="AY162">
+        <v>13</v>
+      </c>
+      <c r="AZ162">
         <v>8</v>
       </c>
-      <c r="AY162">
-        <v>5</v>
-      </c>
-      <c r="AZ162">
-        <v>13</v>
-      </c>
       <c r="BA162">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB162">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC162">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD162">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="BE162">
         <v>8</v>
       </c>
       <c r="BF162">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="BG162">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BH162">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="BI162">
+        <v>1.46</v>
+      </c>
+      <c r="BJ162">
+        <v>2.6</v>
+      </c>
+      <c r="BK162">
+        <v>1.77</v>
+      </c>
+      <c r="BL162">
+        <v>1.98</v>
+      </c>
+      <c r="BM162">
+        <v>2.24</v>
+      </c>
+      <c r="BN162">
+        <v>1.61</v>
+      </c>
+      <c r="BO162">
+        <v>2.95</v>
+      </c>
+      <c r="BP162">
         <v>1.37</v>
-      </c>
-      <c r="BJ162">
-        <v>2.93</v>
-      </c>
-      <c r="BK162">
-        <v>1.63</v>
-      </c>
-      <c r="BL162">
-        <v>2.19</v>
-      </c>
-      <c r="BM162">
-        <v>2.02</v>
-      </c>
-      <c r="BN162">
-        <v>1.74</v>
-      </c>
-      <c r="BO162">
-        <v>2.6</v>
-      </c>
-      <c r="BP162">
-        <v>1.46</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -34601,7 +34601,7 @@
         <v>69</v>
       </c>
       <c r="E163" s="2">
-        <v>45600.875</v>
+        <v>45601.70833333334</v>
       </c>
       <c r="F163">
         <v>14</v>
@@ -34807,10 +34807,10 @@
         <v>69</v>
       </c>
       <c r="E164" s="2">
-        <v>45601.875</v>
+        <v>45602.69791666666</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G164" t="s">
         <v>74</v>
@@ -35013,10 +35013,10 @@
         <v>69</v>
       </c>
       <c r="E165" s="2">
-        <v>45601.875</v>
+        <v>45602.69791666666</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G165" t="s">
         <v>70</v>
@@ -35219,7 +35219,7 @@
         <v>69</v>
       </c>
       <c r="E166" s="2">
-        <v>45601.875</v>
+        <v>45602.69791666666</v>
       </c>
       <c r="F166">
         <v>14</v>
@@ -35428,7 +35428,7 @@
         <v>45602.70833333334</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G167" t="s">
         <v>81</v>
@@ -35821,6 +35821,418 @@
       </c>
       <c r="BP168">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7478907</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45602.875</v>
+      </c>
+      <c r="F169">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s">
+        <v>83</v>
+      </c>
+      <c r="H169" t="s">
+        <v>91</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>95</v>
+      </c>
+      <c r="P169" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q169">
+        <v>3.1</v>
+      </c>
+      <c r="R169">
+        <v>1.95</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>1.53</v>
+      </c>
+      <c r="U169">
+        <v>2.38</v>
+      </c>
+      <c r="V169">
+        <v>3.5</v>
+      </c>
+      <c r="W169">
+        <v>1.29</v>
+      </c>
+      <c r="X169">
+        <v>11</v>
+      </c>
+      <c r="Y169">
+        <v>1.05</v>
+      </c>
+      <c r="Z169">
+        <v>2.19</v>
+      </c>
+      <c r="AA169">
+        <v>3.09</v>
+      </c>
+      <c r="AB169">
+        <v>3.14</v>
+      </c>
+      <c r="AC169">
+        <v>1.08</v>
+      </c>
+      <c r="AD169">
+        <v>7.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.45</v>
+      </c>
+      <c r="AF169">
+        <v>2.7</v>
+      </c>
+      <c r="AG169">
+        <v>2.3</v>
+      </c>
+      <c r="AH169">
+        <v>1.55</v>
+      </c>
+      <c r="AI169">
+        <v>2</v>
+      </c>
+      <c r="AJ169">
+        <v>1.73</v>
+      </c>
+      <c r="AK169">
+        <v>1.33</v>
+      </c>
+      <c r="AL169">
+        <v>1.28</v>
+      </c>
+      <c r="AM169">
+        <v>1.62</v>
+      </c>
+      <c r="AN169">
+        <v>1.5</v>
+      </c>
+      <c r="AO169">
+        <v>1.57</v>
+      </c>
+      <c r="AP169">
+        <v>1.43</v>
+      </c>
+      <c r="AQ169">
+        <v>1.5</v>
+      </c>
+      <c r="AR169">
+        <v>1.4</v>
+      </c>
+      <c r="AS169">
+        <v>1.15</v>
+      </c>
+      <c r="AT169">
+        <v>2.55</v>
+      </c>
+      <c r="AU169">
+        <v>2</v>
+      </c>
+      <c r="AV169">
+        <v>5</v>
+      </c>
+      <c r="AW169">
+        <v>4</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>12</v>
+      </c>
+      <c r="AZ169">
+        <v>13</v>
+      </c>
+      <c r="BA169">
+        <v>2</v>
+      </c>
+      <c r="BB169">
+        <v>8</v>
+      </c>
+      <c r="BC169">
+        <v>10</v>
+      </c>
+      <c r="BD169">
+        <v>1.78</v>
+      </c>
+      <c r="BE169">
+        <v>7.8</v>
+      </c>
+      <c r="BF169">
+        <v>2.78</v>
+      </c>
+      <c r="BG169">
+        <v>1.17</v>
+      </c>
+      <c r="BH169">
+        <v>4.36</v>
+      </c>
+      <c r="BI169">
+        <v>1.37</v>
+      </c>
+      <c r="BJ169">
+        <v>2.95</v>
+      </c>
+      <c r="BK169">
+        <v>1.66</v>
+      </c>
+      <c r="BL169">
+        <v>2.21</v>
+      </c>
+      <c r="BM169">
+        <v>2.04</v>
+      </c>
+      <c r="BN169">
+        <v>1.78</v>
+      </c>
+      <c r="BO169">
+        <v>2.61</v>
+      </c>
+      <c r="BP169">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7478923</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45604.70833333334</v>
+      </c>
+      <c r="F170">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s">
+        <v>87</v>
+      </c>
+      <c r="H170" t="s">
+        <v>73</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>211</v>
+      </c>
+      <c r="P170" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q170">
+        <v>2.5</v>
+      </c>
+      <c r="R170">
+        <v>2.3</v>
+      </c>
+      <c r="S170">
+        <v>4</v>
+      </c>
+      <c r="T170">
+        <v>1.33</v>
+      </c>
+      <c r="U170">
+        <v>3.25</v>
+      </c>
+      <c r="V170">
+        <v>2.63</v>
+      </c>
+      <c r="W170">
+        <v>1.44</v>
+      </c>
+      <c r="X170">
+        <v>6.5</v>
+      </c>
+      <c r="Y170">
+        <v>1.11</v>
+      </c>
+      <c r="Z170">
+        <v>1.76</v>
+      </c>
+      <c r="AA170">
+        <v>2.97</v>
+      </c>
+      <c r="AB170">
+        <v>4.92</v>
+      </c>
+      <c r="AC170">
+        <v>1.05</v>
+      </c>
+      <c r="AD170">
+        <v>9.5</v>
+      </c>
+      <c r="AE170">
+        <v>1.25</v>
+      </c>
+      <c r="AF170">
+        <v>3.95</v>
+      </c>
+      <c r="AG170">
+        <v>1.75</v>
+      </c>
+      <c r="AH170">
+        <v>1.95</v>
+      </c>
+      <c r="AI170">
+        <v>1.67</v>
+      </c>
+      <c r="AJ170">
+        <v>2.1</v>
+      </c>
+      <c r="AK170">
+        <v>1.25</v>
+      </c>
+      <c r="AL170">
+        <v>1.22</v>
+      </c>
+      <c r="AM170">
+        <v>1.85</v>
+      </c>
+      <c r="AN170">
+        <v>2.67</v>
+      </c>
+      <c r="AO170">
+        <v>0.33</v>
+      </c>
+      <c r="AP170">
+        <v>2.71</v>
+      </c>
+      <c r="AQ170">
+        <v>0.29</v>
+      </c>
+      <c r="AR170">
+        <v>1.45</v>
+      </c>
+      <c r="AS170">
+        <v>1.1</v>
+      </c>
+      <c r="AT170">
+        <v>2.55</v>
+      </c>
+      <c r="AU170">
+        <v>9</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>5</v>
+      </c>
+      <c r="AX170">
+        <v>6</v>
+      </c>
+      <c r="AY170">
+        <v>17</v>
+      </c>
+      <c r="AZ170">
+        <v>12</v>
+      </c>
+      <c r="BA170">
+        <v>11</v>
+      </c>
+      <c r="BB170">
+        <v>4</v>
+      </c>
+      <c r="BC170">
+        <v>15</v>
+      </c>
+      <c r="BD170">
+        <v>1.47</v>
+      </c>
+      <c r="BE170">
+        <v>7</v>
+      </c>
+      <c r="BF170">
+        <v>2.95</v>
+      </c>
+      <c r="BG170">
+        <v>1.19</v>
+      </c>
+      <c r="BH170">
+        <v>4.1</v>
+      </c>
+      <c r="BI170">
+        <v>1.33</v>
+      </c>
+      <c r="BJ170">
+        <v>2.95</v>
+      </c>
+      <c r="BK170">
+        <v>1.55</v>
+      </c>
+      <c r="BL170">
+        <v>2.25</v>
+      </c>
+      <c r="BM170">
+        <v>1.98</v>
+      </c>
+      <c r="BN170">
+        <v>1.82</v>
+      </c>
+      <c r="BO170">
+        <v>2.33</v>
+      </c>
+      <c r="BP170">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,21 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['30', '42', '51', '54', '87']</t>
+  </si>
+  <si>
+    <t>['19', '90+5']</t>
+  </si>
+  <si>
+    <t>['16', '35']</t>
+  </si>
+  <si>
+    <t>['36', '45', '89']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['67', '88']</t>
   </si>
   <si>
@@ -848,6 +863,18 @@
   </si>
   <si>
     <t>['11', '73']</t>
+  </si>
+  <si>
+    <t>['15', '54', '86']</t>
+  </si>
+  <si>
+    <t>['62', '84']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1495,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1674,7 +1701,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1880,7 +1907,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -2292,7 +2319,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2576,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2704,7 +2731,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2782,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -2910,7 +2937,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2991,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3116,7 +3143,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3194,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -3400,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3609,7 +3636,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3734,7 +3761,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3940,7 +3967,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4430,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.43</v>
@@ -4636,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4764,7 +4791,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4845,7 +4872,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5257,7 +5284,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5382,7 +5409,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5588,7 +5615,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5666,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6284,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ25">
         <v>1.17</v>
@@ -6412,7 +6439,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6905,7 +6932,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR28">
         <v>1.52</v>
@@ -7030,7 +7057,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7111,7 +7138,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>1.69</v>
@@ -7236,7 +7263,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7314,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>0.75</v>
@@ -7726,7 +7753,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7935,7 +7962,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8266,7 +8293,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8344,7 +8371,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.71</v>
@@ -8472,7 +8499,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8550,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ36">
         <v>1.75</v>
@@ -8678,7 +8705,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8884,7 +8911,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8965,7 +8992,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR38">
         <v>1.01</v>
@@ -9090,7 +9117,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9171,7 +9198,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR39">
         <v>1.03</v>
@@ -9296,7 +9323,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9374,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.43</v>
@@ -9502,7 +9529,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9914,7 +9941,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9992,7 +10019,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ43">
         <v>1.75</v>
@@ -10120,7 +10147,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10610,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ46">
         <v>1.14</v>
@@ -10816,10 +10843,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>0.68</v>
@@ -11025,7 +11052,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11356,7 +11383,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11640,7 +11667,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11849,7 +11876,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -12258,7 +12285,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>0.43</v>
@@ -12467,7 +12494,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12592,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12798,7 +12825,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12879,7 +12906,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR57">
         <v>1.82</v>
@@ -13291,7 +13318,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13416,7 +13443,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13494,10 +13521,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR60">
         <v>1.85</v>
@@ -13622,7 +13649,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13700,7 +13727,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ61">
         <v>1.71</v>
@@ -13828,7 +13855,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -13906,7 +13933,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>1.14</v>
@@ -14112,7 +14139,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ63">
         <v>1.43</v>
@@ -14318,7 +14345,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ64">
         <v>0.75</v>
@@ -14652,7 +14679,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -14730,7 +14757,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1.43</v>
@@ -14939,7 +14966,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ67">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15270,7 +15297,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15682,7 +15709,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16175,7 +16202,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR73">
         <v>0.68</v>
@@ -16300,7 +16327,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16381,7 +16408,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16587,7 +16614,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR75">
         <v>1.35</v>
@@ -16712,7 +16739,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16790,7 +16817,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16918,7 +16945,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17330,7 +17357,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17614,7 +17641,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17742,7 +17769,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -17823,7 +17850,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR81">
         <v>1.39</v>
@@ -18232,7 +18259,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ83">
         <v>1.75</v>
@@ -18438,10 +18465,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ84">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
         <v>1.79</v>
@@ -18566,7 +18593,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18647,7 +18674,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.34</v>
@@ -18853,7 +18880,7 @@
         <v>2</v>
       </c>
       <c r="AQ86">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19056,7 +19083,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19265,7 +19292,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR88">
         <v>2.03</v>
@@ -19390,7 +19417,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -19674,7 +19701,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ90">
         <v>0.63</v>
@@ -19880,7 +19907,7 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91">
         <v>1.43</v>
@@ -20008,7 +20035,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20910,7 +20937,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>0.75</v>
@@ -21244,7 +21271,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21322,7 +21349,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ98">
         <v>1.43</v>
@@ -21528,7 +21555,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ99">
         <v>0.29</v>
@@ -21734,7 +21761,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ100">
         <v>1.14</v>
@@ -21943,7 +21970,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR101">
         <v>1.42</v>
@@ -22068,7 +22095,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22274,7 +22301,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22355,7 +22382,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22561,7 +22588,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -23382,10 +23409,10 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR108">
         <v>1.27</v>
@@ -23794,7 +23821,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ110">
         <v>1.75</v>
@@ -24000,10 +24027,10 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR111">
         <v>1.11</v>
@@ -24415,7 +24442,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24746,7 +24773,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24952,7 +24979,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25236,7 +25263,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25364,7 +25391,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25442,10 +25469,10 @@
         <v>0.5</v>
       </c>
       <c r="AP118">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ118">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR118">
         <v>1.94</v>
@@ -26394,7 +26421,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26600,7 +26627,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26678,10 +26705,10 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ124">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR124">
         <v>1.42</v>
@@ -26806,7 +26833,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -26884,7 +26911,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ125">
         <v>0.75</v>
@@ -27090,7 +27117,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
         <v>0.75</v>
@@ -27505,7 +27532,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ128">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR128">
         <v>1.8</v>
@@ -28042,7 +28069,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28329,7 +28356,7 @@
         <v>2</v>
       </c>
       <c r="AQ132">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR132">
         <v>1.45</v>
@@ -28532,7 +28559,7 @@
         <v>1.6</v>
       </c>
       <c r="AP133">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ133">
         <v>1.75</v>
@@ -28660,7 +28687,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28738,7 +28765,7 @@
         <v>0.8</v>
       </c>
       <c r="AP134">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ134">
         <v>1.17</v>
@@ -29072,7 +29099,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29153,7 +29180,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ136">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR136">
         <v>1.84</v>
@@ -29359,7 +29386,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ137">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29562,7 +29589,7 @@
         <v>0.4</v>
       </c>
       <c r="AP138">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ138">
         <v>0.29</v>
@@ -29896,7 +29923,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30102,7 +30129,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30183,7 +30210,7 @@
         <v>2</v>
       </c>
       <c r="AQ141">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30386,7 +30413,7 @@
         <v>1.4</v>
       </c>
       <c r="AP142">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ142">
         <v>1.14</v>
@@ -30801,7 +30828,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR144">
         <v>1.29</v>
@@ -30926,7 +30953,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31004,7 +31031,7 @@
         <v>1.2</v>
       </c>
       <c r="AP145">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ145">
         <v>1.43</v>
@@ -31132,7 +31159,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31338,7 +31365,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q147">
         <v>3.5</v>
@@ -31544,7 +31571,7 @@
         <v>198</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31750,7 +31777,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -31828,7 +31855,7 @@
         <v>0.33</v>
       </c>
       <c r="AP149">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ149">
         <v>0.63</v>
@@ -32034,7 +32061,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32162,7 +32189,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32446,10 +32473,10 @@
         <v>0.17</v>
       </c>
       <c r="AP152">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ152">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR152">
         <v>1.82</v>
@@ -32574,7 +32601,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32652,10 +32679,10 @@
         <v>0.5</v>
       </c>
       <c r="AP153">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ153">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR153">
         <v>1.84</v>
@@ -32780,7 +32807,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -32861,7 +32888,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR154">
         <v>1.21</v>
@@ -33192,7 +33219,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33810,7 +33837,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q159">
         <v>4.75</v>
@@ -34016,7 +34043,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -35046,7 +35073,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35252,7 +35279,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35837,10 +35864,10 @@
         <v>69</v>
       </c>
       <c r="E169" s="2">
-        <v>45602.875</v>
+        <v>45603.70833333334</v>
       </c>
       <c r="F169">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
         <v>83</v>
@@ -36043,7 +36070,7 @@
         <v>69</v>
       </c>
       <c r="E170" s="2">
-        <v>45604.70833333334</v>
+        <v>45603.875</v>
       </c>
       <c r="F170">
         <v>15</v>
@@ -36233,6 +36260,1654 @@
       </c>
       <c r="BP170">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7478917</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45605.39583333334</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>79</v>
+      </c>
+      <c r="H171" t="s">
+        <v>81</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>5</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>6</v>
+      </c>
+      <c r="O171" t="s">
+        <v>212</v>
+      </c>
+      <c r="P171" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q171">
+        <v>2.5</v>
+      </c>
+      <c r="R171">
+        <v>2.1</v>
+      </c>
+      <c r="S171">
+        <v>4.75</v>
+      </c>
+      <c r="T171">
+        <v>1.4</v>
+      </c>
+      <c r="U171">
+        <v>2.75</v>
+      </c>
+      <c r="V171">
+        <v>3</v>
+      </c>
+      <c r="W171">
+        <v>1.36</v>
+      </c>
+      <c r="X171">
+        <v>8</v>
+      </c>
+      <c r="Y171">
+        <v>1.08</v>
+      </c>
+      <c r="Z171">
+        <v>1.8</v>
+      </c>
+      <c r="AA171">
+        <v>3.5</v>
+      </c>
+      <c r="AB171">
+        <v>4.33</v>
+      </c>
+      <c r="AC171">
+        <v>1.05</v>
+      </c>
+      <c r="AD171">
+        <v>9</v>
+      </c>
+      <c r="AE171">
+        <v>1.33</v>
+      </c>
+      <c r="AF171">
+        <v>3.25</v>
+      </c>
+      <c r="AG171">
+        <v>1.66</v>
+      </c>
+      <c r="AH171">
+        <v>2.14</v>
+      </c>
+      <c r="AI171">
+        <v>1.83</v>
+      </c>
+      <c r="AJ171">
+        <v>1.83</v>
+      </c>
+      <c r="AK171">
+        <v>1.22</v>
+      </c>
+      <c r="AL171">
+        <v>1.25</v>
+      </c>
+      <c r="AM171">
+        <v>1.93</v>
+      </c>
+      <c r="AN171">
+        <v>1.57</v>
+      </c>
+      <c r="AO171">
+        <v>0.67</v>
+      </c>
+      <c r="AP171">
+        <v>1.75</v>
+      </c>
+      <c r="AQ171">
+        <v>0.57</v>
+      </c>
+      <c r="AR171">
+        <v>1.68</v>
+      </c>
+      <c r="AS171">
+        <v>1.26</v>
+      </c>
+      <c r="AT171">
+        <v>2.94</v>
+      </c>
+      <c r="AU171">
+        <v>7</v>
+      </c>
+      <c r="AV171">
+        <v>4</v>
+      </c>
+      <c r="AW171">
+        <v>4</v>
+      </c>
+      <c r="AX171">
+        <v>1</v>
+      </c>
+      <c r="AY171">
+        <v>12</v>
+      </c>
+      <c r="AZ171">
+        <v>6</v>
+      </c>
+      <c r="BA171">
+        <v>1</v>
+      </c>
+      <c r="BB171">
+        <v>1</v>
+      </c>
+      <c r="BC171">
+        <v>2</v>
+      </c>
+      <c r="BD171">
+        <v>1.64</v>
+      </c>
+      <c r="BE171">
+        <v>7</v>
+      </c>
+      <c r="BF171">
+        <v>2.48</v>
+      </c>
+      <c r="BG171">
+        <v>1.15</v>
+      </c>
+      <c r="BH171">
+        <v>4.4</v>
+      </c>
+      <c r="BI171">
+        <v>1.29</v>
+      </c>
+      <c r="BJ171">
+        <v>3.15</v>
+      </c>
+      <c r="BK171">
+        <v>1.5</v>
+      </c>
+      <c r="BL171">
+        <v>2.38</v>
+      </c>
+      <c r="BM171">
+        <v>1.82</v>
+      </c>
+      <c r="BN171">
+        <v>1.98</v>
+      </c>
+      <c r="BO171">
+        <v>2.2</v>
+      </c>
+      <c r="BP171">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7478921</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45605.39583333334</v>
+      </c>
+      <c r="F172">
+        <v>15</v>
+      </c>
+      <c r="G172" t="s">
+        <v>75</v>
+      </c>
+      <c r="H172" t="s">
+        <v>74</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>197</v>
+      </c>
+      <c r="P172" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q172">
+        <v>3.25</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>3.6</v>
+      </c>
+      <c r="T172">
+        <v>1.5</v>
+      </c>
+      <c r="U172">
+        <v>2.5</v>
+      </c>
+      <c r="V172">
+        <v>3.4</v>
+      </c>
+      <c r="W172">
+        <v>1.3</v>
+      </c>
+      <c r="X172">
+        <v>10</v>
+      </c>
+      <c r="Y172">
+        <v>1.06</v>
+      </c>
+      <c r="Z172">
+        <v>2.45</v>
+      </c>
+      <c r="AA172">
+        <v>3.2</v>
+      </c>
+      <c r="AB172">
+        <v>2.88</v>
+      </c>
+      <c r="AC172">
+        <v>1.07</v>
+      </c>
+      <c r="AD172">
+        <v>8</v>
+      </c>
+      <c r="AE172">
+        <v>1.42</v>
+      </c>
+      <c r="AF172">
+        <v>2.8</v>
+      </c>
+      <c r="AG172">
+        <v>2.23</v>
+      </c>
+      <c r="AH172">
+        <v>1.61</v>
+      </c>
+      <c r="AI172">
+        <v>1.91</v>
+      </c>
+      <c r="AJ172">
+        <v>1.8</v>
+      </c>
+      <c r="AK172">
+        <v>1.42</v>
+      </c>
+      <c r="AL172">
+        <v>1.28</v>
+      </c>
+      <c r="AM172">
+        <v>1.5</v>
+      </c>
+      <c r="AN172">
+        <v>1.57</v>
+      </c>
+      <c r="AO172">
+        <v>1</v>
+      </c>
+      <c r="AP172">
+        <v>1.5</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1.36</v>
+      </c>
+      <c r="AS172">
+        <v>1.26</v>
+      </c>
+      <c r="AT172">
+        <v>2.62</v>
+      </c>
+      <c r="AU172">
+        <v>4</v>
+      </c>
+      <c r="AV172">
+        <v>2</v>
+      </c>
+      <c r="AW172">
+        <v>4</v>
+      </c>
+      <c r="AX172">
+        <v>6</v>
+      </c>
+      <c r="AY172">
+        <v>10</v>
+      </c>
+      <c r="AZ172">
+        <v>8</v>
+      </c>
+      <c r="BA172">
+        <v>9</v>
+      </c>
+      <c r="BB172">
+        <v>2</v>
+      </c>
+      <c r="BC172">
+        <v>11</v>
+      </c>
+      <c r="BD172">
+        <v>1.57</v>
+      </c>
+      <c r="BE172">
+        <v>7</v>
+      </c>
+      <c r="BF172">
+        <v>2.6</v>
+      </c>
+      <c r="BG172">
+        <v>1.19</v>
+      </c>
+      <c r="BH172">
+        <v>4.1</v>
+      </c>
+      <c r="BI172">
+        <v>1.32</v>
+      </c>
+      <c r="BJ172">
+        <v>3.05</v>
+      </c>
+      <c r="BK172">
+        <v>1.54</v>
+      </c>
+      <c r="BL172">
+        <v>2.3</v>
+      </c>
+      <c r="BM172">
+        <v>1.98</v>
+      </c>
+      <c r="BN172">
+        <v>1.82</v>
+      </c>
+      <c r="BO172">
+        <v>2.3</v>
+      </c>
+      <c r="BP172">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7478913</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45605.39583333334</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>172</v>
+      </c>
+      <c r="P173" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>2.1</v>
+      </c>
+      <c r="S173">
+        <v>3.75</v>
+      </c>
+      <c r="T173">
+        <v>1.44</v>
+      </c>
+      <c r="U173">
+        <v>2.63</v>
+      </c>
+      <c r="V173">
+        <v>3.25</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>9</v>
+      </c>
+      <c r="Y173">
+        <v>1.07</v>
+      </c>
+      <c r="Z173">
+        <v>2.25</v>
+      </c>
+      <c r="AA173">
+        <v>3.3</v>
+      </c>
+      <c r="AB173">
+        <v>3.2</v>
+      </c>
+      <c r="AC173">
+        <v>1.06</v>
+      </c>
+      <c r="AD173">
+        <v>8.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.35</v>
+      </c>
+      <c r="AF173">
+        <v>3.1</v>
+      </c>
+      <c r="AG173">
+        <v>1.87</v>
+      </c>
+      <c r="AH173">
+        <v>1.87</v>
+      </c>
+      <c r="AI173">
+        <v>1.83</v>
+      </c>
+      <c r="AJ173">
+        <v>1.83</v>
+      </c>
+      <c r="AK173">
+        <v>1.36</v>
+      </c>
+      <c r="AL173">
+        <v>1.28</v>
+      </c>
+      <c r="AM173">
+        <v>1.62</v>
+      </c>
+      <c r="AN173">
+        <v>1.71</v>
+      </c>
+      <c r="AO173">
+        <v>0.5</v>
+      </c>
+      <c r="AP173">
+        <v>1.5</v>
+      </c>
+      <c r="AQ173">
+        <v>0.86</v>
+      </c>
+      <c r="AR173">
+        <v>1.5</v>
+      </c>
+      <c r="AS173">
+        <v>1.02</v>
+      </c>
+      <c r="AT173">
+        <v>2.52</v>
+      </c>
+      <c r="AU173">
+        <v>9</v>
+      </c>
+      <c r="AV173">
+        <v>8</v>
+      </c>
+      <c r="AW173">
+        <v>5</v>
+      </c>
+      <c r="AX173">
+        <v>1</v>
+      </c>
+      <c r="AY173">
+        <v>21</v>
+      </c>
+      <c r="AZ173">
+        <v>11</v>
+      </c>
+      <c r="BA173">
+        <v>12</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>13</v>
+      </c>
+      <c r="BD173">
+        <v>1.63</v>
+      </c>
+      <c r="BE173">
+        <v>6.75</v>
+      </c>
+      <c r="BF173">
+        <v>2.5</v>
+      </c>
+      <c r="BG173">
+        <v>1.24</v>
+      </c>
+      <c r="BH173">
+        <v>3.55</v>
+      </c>
+      <c r="BI173">
+        <v>1.44</v>
+      </c>
+      <c r="BJ173">
+        <v>2.55</v>
+      </c>
+      <c r="BK173">
+        <v>1.71</v>
+      </c>
+      <c r="BL173">
+        <v>2</v>
+      </c>
+      <c r="BM173">
+        <v>2.08</v>
+      </c>
+      <c r="BN173">
+        <v>1.65</v>
+      </c>
+      <c r="BO173">
+        <v>2.65</v>
+      </c>
+      <c r="BP173">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7478916</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>76</v>
+      </c>
+      <c r="H174" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>213</v>
+      </c>
+      <c r="P174" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q174">
+        <v>1.67</v>
+      </c>
+      <c r="R174">
+        <v>2.75</v>
+      </c>
+      <c r="S174">
+        <v>9</v>
+      </c>
+      <c r="T174">
+        <v>1.25</v>
+      </c>
+      <c r="U174">
+        <v>3.75</v>
+      </c>
+      <c r="V174">
+        <v>2.2</v>
+      </c>
+      <c r="W174">
+        <v>1.62</v>
+      </c>
+      <c r="X174">
+        <v>5</v>
+      </c>
+      <c r="Y174">
+        <v>1.17</v>
+      </c>
+      <c r="Z174">
+        <v>1.22</v>
+      </c>
+      <c r="AA174">
+        <v>6</v>
+      </c>
+      <c r="AB174">
+        <v>11</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>17</v>
+      </c>
+      <c r="AE174">
+        <v>1.15</v>
+      </c>
+      <c r="AF174">
+        <v>5.25</v>
+      </c>
+      <c r="AG174">
+        <v>1.67</v>
+      </c>
+      <c r="AH174">
+        <v>2.12</v>
+      </c>
+      <c r="AI174">
+        <v>2</v>
+      </c>
+      <c r="AJ174">
+        <v>1.73</v>
+      </c>
+      <c r="AK174">
+        <v>1.05</v>
+      </c>
+      <c r="AL174">
+        <v>1.12</v>
+      </c>
+      <c r="AM174">
+        <v>3.7</v>
+      </c>
+      <c r="AN174">
+        <v>2.29</v>
+      </c>
+      <c r="AO174">
+        <v>1</v>
+      </c>
+      <c r="AP174">
+        <v>2.38</v>
+      </c>
+      <c r="AQ174">
+        <v>0.86</v>
+      </c>
+      <c r="AR174">
+        <v>1.88</v>
+      </c>
+      <c r="AS174">
+        <v>0.84</v>
+      </c>
+      <c r="AT174">
+        <v>2.72</v>
+      </c>
+      <c r="AU174">
+        <v>7</v>
+      </c>
+      <c r="AV174">
+        <v>0</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>5</v>
+      </c>
+      <c r="AY174">
+        <v>23</v>
+      </c>
+      <c r="AZ174">
+        <v>6</v>
+      </c>
+      <c r="BA174">
+        <v>7</v>
+      </c>
+      <c r="BB174">
+        <v>1</v>
+      </c>
+      <c r="BC174">
+        <v>8</v>
+      </c>
+      <c r="BD174">
+        <v>1.21</v>
+      </c>
+      <c r="BE174">
+        <v>8.5</v>
+      </c>
+      <c r="BF174">
+        <v>4.6</v>
+      </c>
+      <c r="BG174">
+        <v>1.17</v>
+      </c>
+      <c r="BH174">
+        <v>4.3</v>
+      </c>
+      <c r="BI174">
+        <v>1.3</v>
+      </c>
+      <c r="BJ174">
+        <v>3.15</v>
+      </c>
+      <c r="BK174">
+        <v>1.5</v>
+      </c>
+      <c r="BL174">
+        <v>2.38</v>
+      </c>
+      <c r="BM174">
+        <v>1.95</v>
+      </c>
+      <c r="BN174">
+        <v>1.85</v>
+      </c>
+      <c r="BO174">
+        <v>2.18</v>
+      </c>
+      <c r="BP174">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7478922</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F175">
+        <v>15</v>
+      </c>
+      <c r="G175" t="s">
+        <v>93</v>
+      </c>
+      <c r="H175" t="s">
+        <v>82</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>214</v>
+      </c>
+      <c r="P175" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q175">
+        <v>2.63</v>
+      </c>
+      <c r="R175">
+        <v>2.2</v>
+      </c>
+      <c r="S175">
+        <v>4</v>
+      </c>
+      <c r="T175">
+        <v>1.4</v>
+      </c>
+      <c r="U175">
+        <v>2.75</v>
+      </c>
+      <c r="V175">
+        <v>3</v>
+      </c>
+      <c r="W175">
+        <v>1.36</v>
+      </c>
+      <c r="X175">
+        <v>8</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>2</v>
+      </c>
+      <c r="AA175">
+        <v>3.3</v>
+      </c>
+      <c r="AB175">
+        <v>3.8</v>
+      </c>
+      <c r="AC175">
+        <v>1.06</v>
+      </c>
+      <c r="AD175">
+        <v>10</v>
+      </c>
+      <c r="AE175">
+        <v>1.32</v>
+      </c>
+      <c r="AF175">
+        <v>3.4</v>
+      </c>
+      <c r="AG175">
+        <v>1.91</v>
+      </c>
+      <c r="AH175">
+        <v>1.83</v>
+      </c>
+      <c r="AI175">
+        <v>1.73</v>
+      </c>
+      <c r="AJ175">
+        <v>2</v>
+      </c>
+      <c r="AK175">
+        <v>1.32</v>
+      </c>
+      <c r="AL175">
+        <v>1.28</v>
+      </c>
+      <c r="AM175">
+        <v>1.72</v>
+      </c>
+      <c r="AN175">
+        <v>2.67</v>
+      </c>
+      <c r="AO175">
+        <v>0.86</v>
+      </c>
+      <c r="AP175">
+        <v>2.43</v>
+      </c>
+      <c r="AQ175">
+        <v>0.88</v>
+      </c>
+      <c r="AR175">
+        <v>1.34</v>
+      </c>
+      <c r="AS175">
+        <v>1.08</v>
+      </c>
+      <c r="AT175">
+        <v>2.42</v>
+      </c>
+      <c r="AU175">
+        <v>6</v>
+      </c>
+      <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>3</v>
+      </c>
+      <c r="AX175">
+        <v>3</v>
+      </c>
+      <c r="AY175">
+        <v>10</v>
+      </c>
+      <c r="AZ175">
+        <v>9</v>
+      </c>
+      <c r="BA175">
+        <v>2</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>9</v>
+      </c>
+      <c r="BD175">
+        <v>1.57</v>
+      </c>
+      <c r="BE175">
+        <v>9</v>
+      </c>
+      <c r="BF175">
+        <v>2.62</v>
+      </c>
+      <c r="BG175">
+        <v>1.08</v>
+      </c>
+      <c r="BH175">
+        <v>5.15</v>
+      </c>
+      <c r="BI175">
+        <v>1.21</v>
+      </c>
+      <c r="BJ175">
+        <v>3.44</v>
+      </c>
+      <c r="BK175">
+        <v>1.41</v>
+      </c>
+      <c r="BL175">
+        <v>2.52</v>
+      </c>
+      <c r="BM175">
+        <v>1.85</v>
+      </c>
+      <c r="BN175">
+        <v>1.85</v>
+      </c>
+      <c r="BO175">
+        <v>2.12</v>
+      </c>
+      <c r="BP175">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7478919</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>85</v>
+      </c>
+      <c r="H176" t="s">
+        <v>71</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>215</v>
+      </c>
+      <c r="P176" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q176">
+        <v>3.25</v>
+      </c>
+      <c r="R176">
+        <v>2.2</v>
+      </c>
+      <c r="S176">
+        <v>3.2</v>
+      </c>
+      <c r="T176">
+        <v>1.4</v>
+      </c>
+      <c r="U176">
+        <v>2.75</v>
+      </c>
+      <c r="V176">
+        <v>2.75</v>
+      </c>
+      <c r="W176">
+        <v>1.4</v>
+      </c>
+      <c r="X176">
+        <v>8</v>
+      </c>
+      <c r="Y176">
+        <v>1.08</v>
+      </c>
+      <c r="Z176">
+        <v>2.7</v>
+      </c>
+      <c r="AA176">
+        <v>3.3</v>
+      </c>
+      <c r="AB176">
+        <v>2.5</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>12</v>
+      </c>
+      <c r="AE176">
+        <v>1.3</v>
+      </c>
+      <c r="AF176">
+        <v>3.6</v>
+      </c>
+      <c r="AG176">
+        <v>1.98</v>
+      </c>
+      <c r="AH176">
+        <v>1.77</v>
+      </c>
+      <c r="AI176">
+        <v>1.67</v>
+      </c>
+      <c r="AJ176">
+        <v>2.1</v>
+      </c>
+      <c r="AK176">
+        <v>1.55</v>
+      </c>
+      <c r="AL176">
+        <v>1.26</v>
+      </c>
+      <c r="AM176">
+        <v>1.47</v>
+      </c>
+      <c r="AN176">
+        <v>0.5</v>
+      </c>
+      <c r="AO176">
+        <v>0.5</v>
+      </c>
+      <c r="AP176">
+        <v>0.86</v>
+      </c>
+      <c r="AQ176">
+        <v>0.43</v>
+      </c>
+      <c r="AR176">
+        <v>1.24</v>
+      </c>
+      <c r="AS176">
+        <v>1.1</v>
+      </c>
+      <c r="AT176">
+        <v>2.34</v>
+      </c>
+      <c r="AU176">
+        <v>7</v>
+      </c>
+      <c r="AV176">
+        <v>2</v>
+      </c>
+      <c r="AW176">
+        <v>7</v>
+      </c>
+      <c r="AX176">
+        <v>2</v>
+      </c>
+      <c r="AY176">
+        <v>19</v>
+      </c>
+      <c r="AZ176">
+        <v>7</v>
+      </c>
+      <c r="BA176">
+        <v>11</v>
+      </c>
+      <c r="BB176">
+        <v>5</v>
+      </c>
+      <c r="BC176">
+        <v>16</v>
+      </c>
+      <c r="BD176">
+        <v>1.9</v>
+      </c>
+      <c r="BE176">
+        <v>6.5</v>
+      </c>
+      <c r="BF176">
+        <v>2.08</v>
+      </c>
+      <c r="BG176">
+        <v>1.24</v>
+      </c>
+      <c r="BH176">
+        <v>3.55</v>
+      </c>
+      <c r="BI176">
+        <v>1.43</v>
+      </c>
+      <c r="BJ176">
+        <v>2.6</v>
+      </c>
+      <c r="BK176">
+        <v>1.68</v>
+      </c>
+      <c r="BL176">
+        <v>2.02</v>
+      </c>
+      <c r="BM176">
+        <v>2.08</v>
+      </c>
+      <c r="BN176">
+        <v>1.65</v>
+      </c>
+      <c r="BO176">
+        <v>2.65</v>
+      </c>
+      <c r="BP176">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7478918</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>90</v>
+      </c>
+      <c r="H177" t="s">
+        <v>89</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>95</v>
+      </c>
+      <c r="P177" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q177">
+        <v>2.63</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>4</v>
+      </c>
+      <c r="T177">
+        <v>1.36</v>
+      </c>
+      <c r="U177">
+        <v>3</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>7</v>
+      </c>
+      <c r="Y177">
+        <v>1.1</v>
+      </c>
+      <c r="Z177">
+        <v>2</v>
+      </c>
+      <c r="AA177">
+        <v>3.5</v>
+      </c>
+      <c r="AB177">
+        <v>3.6</v>
+      </c>
+      <c r="AC177">
+        <v>1.05</v>
+      </c>
+      <c r="AD177">
+        <v>9</v>
+      </c>
+      <c r="AE177">
+        <v>1.25</v>
+      </c>
+      <c r="AF177">
+        <v>3.7</v>
+      </c>
+      <c r="AG177">
+        <v>1.78</v>
+      </c>
+      <c r="AH177">
+        <v>1.97</v>
+      </c>
+      <c r="AI177">
+        <v>1.67</v>
+      </c>
+      <c r="AJ177">
+        <v>2.1</v>
+      </c>
+      <c r="AK177">
+        <v>1.25</v>
+      </c>
+      <c r="AL177">
+        <v>1.25</v>
+      </c>
+      <c r="AM177">
+        <v>1.77</v>
+      </c>
+      <c r="AN177">
+        <v>1.67</v>
+      </c>
+      <c r="AO177">
+        <v>1.29</v>
+      </c>
+      <c r="AP177">
+        <v>1.43</v>
+      </c>
+      <c r="AQ177">
+        <v>1.5</v>
+      </c>
+      <c r="AR177">
+        <v>1.46</v>
+      </c>
+      <c r="AS177">
+        <v>1.43</v>
+      </c>
+      <c r="AT177">
+        <v>2.89</v>
+      </c>
+      <c r="AU177">
+        <v>4</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
+        <v>4</v>
+      </c>
+      <c r="AX177">
+        <v>2</v>
+      </c>
+      <c r="AY177">
+        <v>10</v>
+      </c>
+      <c r="AZ177">
+        <v>10</v>
+      </c>
+      <c r="BA177">
+        <v>3</v>
+      </c>
+      <c r="BB177">
+        <v>3</v>
+      </c>
+      <c r="BC177">
+        <v>6</v>
+      </c>
+      <c r="BD177">
+        <v>1.68</v>
+      </c>
+      <c r="BE177">
+        <v>6.75</v>
+      </c>
+      <c r="BF177">
+        <v>2.4</v>
+      </c>
+      <c r="BG177">
+        <v>1.19</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>1.35</v>
+      </c>
+      <c r="BJ177">
+        <v>2.9</v>
+      </c>
+      <c r="BK177">
+        <v>1.58</v>
+      </c>
+      <c r="BL177">
+        <v>2.18</v>
+      </c>
+      <c r="BM177">
+        <v>2</v>
+      </c>
+      <c r="BN177">
+        <v>1.8</v>
+      </c>
+      <c r="BO177">
+        <v>2.4</v>
+      </c>
+      <c r="BP177">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7478914</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F178">
+        <v>15</v>
+      </c>
+      <c r="G178" t="s">
+        <v>84</v>
+      </c>
+      <c r="H178" t="s">
+        <v>92</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>216</v>
+      </c>
+      <c r="P178" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q178">
+        <v>2.3</v>
+      </c>
+      <c r="R178">
+        <v>2.25</v>
+      </c>
+      <c r="S178">
+        <v>4.75</v>
+      </c>
+      <c r="T178">
+        <v>1.36</v>
+      </c>
+      <c r="U178">
+        <v>3</v>
+      </c>
+      <c r="V178">
+        <v>2.63</v>
+      </c>
+      <c r="W178">
+        <v>1.44</v>
+      </c>
+      <c r="X178">
+        <v>7</v>
+      </c>
+      <c r="Y178">
+        <v>1.1</v>
+      </c>
+      <c r="Z178">
+        <v>1.73</v>
+      </c>
+      <c r="AA178">
+        <v>4</v>
+      </c>
+      <c r="AB178">
+        <v>4.33</v>
+      </c>
+      <c r="AC178">
+        <v>1.05</v>
+      </c>
+      <c r="AD178">
+        <v>9.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.25</v>
+      </c>
+      <c r="AF178">
+        <v>3.8</v>
+      </c>
+      <c r="AG178">
+        <v>1.77</v>
+      </c>
+      <c r="AH178">
+        <v>1.98</v>
+      </c>
+      <c r="AI178">
+        <v>1.8</v>
+      </c>
+      <c r="AJ178">
+        <v>1.91</v>
+      </c>
+      <c r="AK178">
+        <v>1.18</v>
+      </c>
+      <c r="AL178">
+        <v>1.22</v>
+      </c>
+      <c r="AM178">
+        <v>2.05</v>
+      </c>
+      <c r="AN178">
+        <v>2.17</v>
+      </c>
+      <c r="AO178">
+        <v>0.14</v>
+      </c>
+      <c r="AP178">
+        <v>2</v>
+      </c>
+      <c r="AQ178">
+        <v>0.25</v>
+      </c>
+      <c r="AR178">
+        <v>1.3</v>
+      </c>
+      <c r="AS178">
+        <v>0.7</v>
+      </c>
+      <c r="AT178">
+        <v>2</v>
+      </c>
+      <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>7</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>21</v>
+      </c>
+      <c r="AZ178">
+        <v>6</v>
+      </c>
+      <c r="BA178">
+        <v>8</v>
+      </c>
+      <c r="BB178">
+        <v>3</v>
+      </c>
+      <c r="BC178">
+        <v>11</v>
+      </c>
+      <c r="BD178">
+        <v>1.41</v>
+      </c>
+      <c r="BE178">
+        <v>7.5</v>
+      </c>
+      <c r="BF178">
+        <v>3.15</v>
+      </c>
+      <c r="BG178">
+        <v>1.14</v>
+      </c>
+      <c r="BH178">
+        <v>4.8</v>
+      </c>
+      <c r="BI178">
+        <v>1.26</v>
+      </c>
+      <c r="BJ178">
+        <v>3.4</v>
+      </c>
+      <c r="BK178">
+        <v>1.44</v>
+      </c>
+      <c r="BL178">
+        <v>2.55</v>
+      </c>
+      <c r="BM178">
+        <v>1.68</v>
+      </c>
+      <c r="BN178">
+        <v>2.02</v>
+      </c>
+      <c r="BO178">
+        <v>2.05</v>
+      </c>
+      <c r="BP178">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,13 +658,19 @@
     <t>['19', '90+5']</t>
   </si>
   <si>
-    <t>['16', '35']</t>
+    <t>['17', '35']</t>
   </si>
   <si>
     <t>['36', '45', '89']</t>
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
   <si>
     <t>['67', '88']</t>
@@ -871,10 +877,10 @@
     <t>['62', '84']</t>
   </si>
   <si>
-    <t>['50']</t>
+    <t>['41']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['12', '17']</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1501,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q2">
         <v>2.88</v>
@@ -1701,7 +1707,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1907,7 +1913,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1988,7 +1994,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2319,7 +2325,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2731,7 +2737,7 @@
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>1.83</v>
@@ -2937,7 +2943,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3015,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3143,7 +3149,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3430,7 +3436,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3761,7 +3767,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3967,7 +3973,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4791,7 +4797,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q18">
         <v>2.4</v>
@@ -4869,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -5409,7 +5415,7 @@
         <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5615,7 +5621,7 @@
         <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>2.6</v>
@@ -5899,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23">
         <v>0.43</v>
@@ -6314,7 +6320,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6439,7 +6445,7 @@
         <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6723,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7057,7 +7063,7 @@
         <v>116</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7263,7 +7269,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -8293,7 +8299,7 @@
         <v>122</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8374,7 +8380,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR35">
         <v>0.95</v>
@@ -8499,7 +8505,7 @@
         <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8705,7 +8711,7 @@
         <v>124</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>2.5</v>
@@ -8911,7 +8917,7 @@
         <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -9117,7 +9123,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9195,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>0.86</v>
@@ -9323,7 +9329,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9529,7 +9535,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9816,7 +9822,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>0.8100000000000001</v>
@@ -9941,7 +9947,7 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10147,7 +10153,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -10434,7 +10440,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -11255,7 +11261,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -11383,7 +11389,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q50">
         <v>3.75</v>
@@ -11461,7 +11467,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ50">
         <v>1.75</v>
@@ -12619,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>4.5</v>
@@ -12825,7 +12831,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13443,7 +13449,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13649,7 +13655,7 @@
         <v>95</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>4.33</v>
@@ -13730,7 +13736,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR61">
         <v>1.22</v>
@@ -13855,7 +13861,7 @@
         <v>139</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>2.6</v>
@@ -14679,7 +14685,7 @@
         <v>95</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>5.5</v>
@@ -15297,7 +15303,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15375,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69">
         <v>0.75</v>
@@ -15584,7 +15590,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15709,7 +15715,7 @@
         <v>147</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15790,7 +15796,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR71">
         <v>2.05</v>
@@ -15993,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ72">
         <v>0.63</v>
@@ -16327,7 +16333,7 @@
         <v>149</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>3.9</v>
@@ -16739,7 +16745,7 @@
         <v>151</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16945,7 +16951,7 @@
         <v>152</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q77">
         <v>3.75</v>
@@ -17026,7 +17032,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ77">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR77">
         <v>1.68</v>
@@ -17357,7 +17363,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>3.25</v>
@@ -17769,7 +17775,7 @@
         <v>155</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>2.63</v>
@@ -18053,7 +18059,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ82">
         <v>0.43</v>
@@ -18593,7 +18599,7 @@
         <v>158</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>2.88</v>
@@ -18877,7 +18883,7 @@
         <v>0.33</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ86">
         <v>0.25</v>
@@ -19417,7 +19423,7 @@
         <v>160</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>2.1</v>
@@ -20035,7 +20041,7 @@
         <v>162</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>2.85</v>
@@ -20525,10 +20531,10 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -21146,7 +21152,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ97">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.65</v>
@@ -21271,7 +21277,7 @@
         <v>165</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21967,7 +21973,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ101">
         <v>0.43</v>
@@ -22095,7 +22101,7 @@
         <v>119</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>2.5</v>
@@ -22176,7 +22182,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>2.01</v>
@@ -22301,7 +22307,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22585,7 +22591,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ104">
         <v>0.57</v>
@@ -24648,7 +24654,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ114">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR114">
         <v>1.12</v>
@@ -24773,7 +24779,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>3.4</v>
@@ -24979,7 +24985,7 @@
         <v>178</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25391,7 +25397,7 @@
         <v>95</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25678,7 +25684,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR119">
         <v>1.51</v>
@@ -26087,7 +26093,7 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ121">
         <v>1.75</v>
@@ -26296,7 +26302,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR122">
         <v>1.52</v>
@@ -26421,7 +26427,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26627,7 +26633,7 @@
         <v>183</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -26833,7 +26839,7 @@
         <v>184</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>1.83</v>
@@ -27735,7 +27741,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -27944,7 +27950,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28069,7 +28075,7 @@
         <v>187</v>
       </c>
       <c r="P131" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28687,7 +28693,7 @@
         <v>162</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28768,7 +28774,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ134">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29099,7 +29105,7 @@
         <v>190</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29923,7 +29929,7 @@
         <v>95</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>3.25</v>
@@ -30129,7 +30135,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>3.25</v>
@@ -30619,7 +30625,7 @@
         <v>0.8</v>
       </c>
       <c r="AP143">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30825,7 +30831,7 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ144">
         <v>0.86</v>
@@ -30953,7 +30959,7 @@
         <v>196</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31159,7 +31165,7 @@
         <v>197</v>
       </c>
       <c r="P146" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31240,7 +31246,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ146">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR146">
         <v>1.37</v>
@@ -31365,7 +31371,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q147">
         <v>3.5</v>
@@ -31571,7 +31577,7 @@
         <v>198</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>3.4</v>
@@ -31652,7 +31658,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR148">
         <v>1.08</v>
@@ -31777,7 +31783,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32189,7 +32195,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>2.25</v>
@@ -32267,7 +32273,7 @@
         <v>0.83</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ151">
         <v>0.75</v>
@@ -32601,7 +32607,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32807,7 +32813,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33219,7 +33225,7 @@
         <v>203</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33837,7 +33843,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>4.75</v>
@@ -34043,7 +34049,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -35073,7 +35079,7 @@
         <v>95</v>
       </c>
       <c r="P165" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q165">
         <v>2.75</v>
@@ -35279,7 +35285,7 @@
         <v>209</v>
       </c>
       <c r="P166" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -36070,7 +36076,7 @@
         <v>69</v>
       </c>
       <c r="E170" s="2">
-        <v>45603.875</v>
+        <v>45604.70833333334</v>
       </c>
       <c r="F170">
         <v>15</v>
@@ -36279,7 +36285,7 @@
         <v>45605.39583333334</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G171" t="s">
         <v>79</v>
@@ -36515,7 +36521,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36721,7 +36727,7 @@
         <v>172</v>
       </c>
       <c r="P173" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36897,7 +36903,7 @@
         <v>45605.5</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G174" t="s">
         <v>76</v>
@@ -37133,7 +37139,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37309,7 +37315,7 @@
         <v>45605.5</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
         <v>85</v>
@@ -37339,7 +37345,7 @@
         <v>215</v>
       </c>
       <c r="P176" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="Q176">
         <v>3.25</v>
@@ -37515,7 +37521,7 @@
         <v>45605.5</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G177" t="s">
         <v>90</v>
@@ -37751,7 +37757,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -37908,6 +37914,624 @@
       </c>
       <c r="BP178">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7478920</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>86</v>
+      </c>
+      <c r="H179" t="s">
+        <v>80</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>217</v>
+      </c>
+      <c r="P179" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q179">
+        <v>2.5</v>
+      </c>
+      <c r="R179">
+        <v>2.1</v>
+      </c>
+      <c r="S179">
+        <v>4.75</v>
+      </c>
+      <c r="T179">
+        <v>1.44</v>
+      </c>
+      <c r="U179">
+        <v>2.63</v>
+      </c>
+      <c r="V179">
+        <v>3.25</v>
+      </c>
+      <c r="W179">
+        <v>1.33</v>
+      </c>
+      <c r="X179">
+        <v>9</v>
+      </c>
+      <c r="Y179">
+        <v>1.07</v>
+      </c>
+      <c r="Z179">
+        <v>2.09</v>
+      </c>
+      <c r="AA179">
+        <v>2.41</v>
+      </c>
+      <c r="AB179">
+        <v>4.64</v>
+      </c>
+      <c r="AC179">
+        <v>1.06</v>
+      </c>
+      <c r="AD179">
+        <v>10</v>
+      </c>
+      <c r="AE179">
+        <v>1.35</v>
+      </c>
+      <c r="AF179">
+        <v>3.25</v>
+      </c>
+      <c r="AG179">
+        <v>2</v>
+      </c>
+      <c r="AH179">
+        <v>1.73</v>
+      </c>
+      <c r="AI179">
+        <v>1.91</v>
+      </c>
+      <c r="AJ179">
+        <v>1.8</v>
+      </c>
+      <c r="AK179">
+        <v>1.25</v>
+      </c>
+      <c r="AL179">
+        <v>1.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.92</v>
+      </c>
+      <c r="AN179">
+        <v>2.67</v>
+      </c>
+      <c r="AO179">
+        <v>1.17</v>
+      </c>
+      <c r="AP179">
+        <v>2.71</v>
+      </c>
+      <c r="AQ179">
+        <v>1</v>
+      </c>
+      <c r="AR179">
+        <v>1.59</v>
+      </c>
+      <c r="AS179">
+        <v>1.1</v>
+      </c>
+      <c r="AT179">
+        <v>2.69</v>
+      </c>
+      <c r="AU179">
+        <v>2</v>
+      </c>
+      <c r="AV179">
+        <v>0</v>
+      </c>
+      <c r="AW179">
+        <v>2</v>
+      </c>
+      <c r="AX179">
+        <v>6</v>
+      </c>
+      <c r="AY179">
+        <v>9</v>
+      </c>
+      <c r="AZ179">
+        <v>11</v>
+      </c>
+      <c r="BA179">
+        <v>5</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>11</v>
+      </c>
+      <c r="BD179">
+        <v>1.6</v>
+      </c>
+      <c r="BE179">
+        <v>6.6</v>
+      </c>
+      <c r="BF179">
+        <v>2.82</v>
+      </c>
+      <c r="BG179">
+        <v>1.09</v>
+      </c>
+      <c r="BH179">
+        <v>5</v>
+      </c>
+      <c r="BI179">
+        <v>1.3</v>
+      </c>
+      <c r="BJ179">
+        <v>3.15</v>
+      </c>
+      <c r="BK179">
+        <v>1.52</v>
+      </c>
+      <c r="BL179">
+        <v>2.35</v>
+      </c>
+      <c r="BM179">
+        <v>1.82</v>
+      </c>
+      <c r="BN179">
+        <v>1.85</v>
+      </c>
+      <c r="BO179">
+        <v>2.32</v>
+      </c>
+      <c r="BP179">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7478912</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F180">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
+        <v>91</v>
+      </c>
+      <c r="H180" t="s">
+        <v>88</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>218</v>
+      </c>
+      <c r="P180" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q180">
+        <v>2.6</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>5.5</v>
+      </c>
+      <c r="T180">
+        <v>1.53</v>
+      </c>
+      <c r="U180">
+        <v>2.38</v>
+      </c>
+      <c r="V180">
+        <v>3.5</v>
+      </c>
+      <c r="W180">
+        <v>1.29</v>
+      </c>
+      <c r="X180">
+        <v>11</v>
+      </c>
+      <c r="Y180">
+        <v>1.05</v>
+      </c>
+      <c r="Z180">
+        <v>1.83</v>
+      </c>
+      <c r="AA180">
+        <v>3.4</v>
+      </c>
+      <c r="AB180">
+        <v>4.5</v>
+      </c>
+      <c r="AC180">
+        <v>1.08</v>
+      </c>
+      <c r="AD180">
+        <v>8.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.42</v>
+      </c>
+      <c r="AF180">
+        <v>2.9</v>
+      </c>
+      <c r="AG180">
+        <v>2.28</v>
+      </c>
+      <c r="AH180">
+        <v>1.62</v>
+      </c>
+      <c r="AI180">
+        <v>2.2</v>
+      </c>
+      <c r="AJ180">
+        <v>1.62</v>
+      </c>
+      <c r="AK180">
+        <v>1.22</v>
+      </c>
+      <c r="AL180">
+        <v>1.28</v>
+      </c>
+      <c r="AM180">
+        <v>1.92</v>
+      </c>
+      <c r="AN180">
+        <v>2</v>
+      </c>
+      <c r="AO180">
+        <v>1</v>
+      </c>
+      <c r="AP180">
+        <v>2.14</v>
+      </c>
+      <c r="AQ180">
+        <v>0.88</v>
+      </c>
+      <c r="AR180">
+        <v>1.38</v>
+      </c>
+      <c r="AS180">
+        <v>1.01</v>
+      </c>
+      <c r="AT180">
+        <v>2.39</v>
+      </c>
+      <c r="AU180">
+        <v>8</v>
+      </c>
+      <c r="AV180">
+        <v>5</v>
+      </c>
+      <c r="AW180">
+        <v>8</v>
+      </c>
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>21</v>
+      </c>
+      <c r="AZ180">
+        <v>10</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>1</v>
+      </c>
+      <c r="BC180">
+        <v>6</v>
+      </c>
+      <c r="BD180">
+        <v>1.56</v>
+      </c>
+      <c r="BE180">
+        <v>9.1</v>
+      </c>
+      <c r="BF180">
+        <v>2.92</v>
+      </c>
+      <c r="BG180">
+        <v>1.16</v>
+      </c>
+      <c r="BH180">
+        <v>3.86</v>
+      </c>
+      <c r="BI180">
+        <v>1.36</v>
+      </c>
+      <c r="BJ180">
+        <v>2.7</v>
+      </c>
+      <c r="BK180">
+        <v>1.67</v>
+      </c>
+      <c r="BL180">
+        <v>2.08</v>
+      </c>
+      <c r="BM180">
+        <v>2</v>
+      </c>
+      <c r="BN180">
+        <v>1.73</v>
+      </c>
+      <c r="BO180">
+        <v>2.65</v>
+      </c>
+      <c r="BP180">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7478915</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F181">
+        <v>15</v>
+      </c>
+      <c r="G181" t="s">
+        <v>77</v>
+      </c>
+      <c r="H181" t="s">
+        <v>83</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>2</v>
+      </c>
+      <c r="K181">
+        <v>3</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>142</v>
+      </c>
+      <c r="P181" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q181">
+        <v>3.75</v>
+      </c>
+      <c r="R181">
+        <v>2.05</v>
+      </c>
+      <c r="S181">
+        <v>3.1</v>
+      </c>
+      <c r="T181">
+        <v>1.44</v>
+      </c>
+      <c r="U181">
+        <v>2.63</v>
+      </c>
+      <c r="V181">
+        <v>3.25</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>10</v>
+      </c>
+      <c r="Y181">
+        <v>1.06</v>
+      </c>
+      <c r="Z181">
+        <v>3.49</v>
+      </c>
+      <c r="AA181">
+        <v>1.85</v>
+      </c>
+      <c r="AB181">
+        <v>3.55</v>
+      </c>
+      <c r="AC181">
+        <v>1.07</v>
+      </c>
+      <c r="AD181">
+        <v>10</v>
+      </c>
+      <c r="AE181">
+        <v>1.36</v>
+      </c>
+      <c r="AF181">
+        <v>3.2</v>
+      </c>
+      <c r="AG181">
+        <v>2</v>
+      </c>
+      <c r="AH181">
+        <v>1.73</v>
+      </c>
+      <c r="AI181">
+        <v>1.83</v>
+      </c>
+      <c r="AJ181">
+        <v>1.83</v>
+      </c>
+      <c r="AK181">
+        <v>1.52</v>
+      </c>
+      <c r="AL181">
+        <v>1.28</v>
+      </c>
+      <c r="AM181">
+        <v>1.48</v>
+      </c>
+      <c r="AN181">
+        <v>1</v>
+      </c>
+      <c r="AO181">
+        <v>1.71</v>
+      </c>
+      <c r="AP181">
+        <v>0.88</v>
+      </c>
+      <c r="AQ181">
+        <v>1.88</v>
+      </c>
+      <c r="AR181">
+        <v>1.3</v>
+      </c>
+      <c r="AS181">
+        <v>1.19</v>
+      </c>
+      <c r="AT181">
+        <v>2.49</v>
+      </c>
+      <c r="AU181">
+        <v>4</v>
+      </c>
+      <c r="AV181">
+        <v>4</v>
+      </c>
+      <c r="AW181">
+        <v>5</v>
+      </c>
+      <c r="AX181">
+        <v>1</v>
+      </c>
+      <c r="AY181">
+        <v>14</v>
+      </c>
+      <c r="AZ181">
+        <v>6</v>
+      </c>
+      <c r="BA181">
+        <v>5</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>8</v>
+      </c>
+      <c r="BD181">
+        <v>1.95</v>
+      </c>
+      <c r="BE181">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF181">
+        <v>2.14</v>
+      </c>
+      <c r="BG181">
+        <v>1.11</v>
+      </c>
+      <c r="BH181">
+        <v>4.55</v>
+      </c>
+      <c r="BI181">
+        <v>1.26</v>
+      </c>
+      <c r="BJ181">
+        <v>3.08</v>
+      </c>
+      <c r="BK181">
+        <v>1.5</v>
+      </c>
+      <c r="BL181">
+        <v>2.28</v>
+      </c>
+      <c r="BM181">
+        <v>1.85</v>
+      </c>
+      <c r="BN181">
+        <v>1.85</v>
+      </c>
+      <c r="BO181">
+        <v>2.35</v>
+      </c>
+      <c r="BP181">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20242025.xlsx
@@ -37930,10 +37930,10 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45605.875</v>
+        <v>45606.39583333334</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G179" t="s">
         <v>86</v>
@@ -38127,7 +38127,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7478912</v>
+        <v>7478915</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38136,196 +38136,196 @@
         <v>69</v>
       </c>
       <c r="E180" s="2">
-        <v>45605.875</v>
+        <v>45606.41666666666</v>
       </c>
       <c r="F180">
         <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H180" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L180">
         <v>1</v>
       </c>
       <c r="M180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O180" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="P180" t="s">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="Q180">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S180">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T180">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U180">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V180">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W180">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X180">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y180">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z180">
+        <v>3.49</v>
+      </c>
+      <c r="AA180">
+        <v>1.85</v>
+      </c>
+      <c r="AB180">
+        <v>3.55</v>
+      </c>
+      <c r="AC180">
+        <v>1.07</v>
+      </c>
+      <c r="AD180">
+        <v>10</v>
+      </c>
+      <c r="AE180">
+        <v>1.36</v>
+      </c>
+      <c r="AF180">
+        <v>3.2</v>
+      </c>
+      <c r="AG180">
+        <v>2</v>
+      </c>
+      <c r="AH180">
+        <v>1.73</v>
+      </c>
+      <c r="AI180">
         <v>1.83</v>
       </c>
-      <c r="AA180">
-        <v>3.4</v>
-      </c>
-      <c r="AB180">
-        <v>4.5</v>
-      </c>
-      <c r="AC180">
-        <v>1.08</v>
-      </c>
-      <c r="AD180">
-        <v>8.5</v>
-      </c>
-      <c r="AE180">
-        <v>1.42</v>
-      </c>
-      <c r="AF180">
-        <v>2.9</v>
-      </c>
-      <c r="AG180">
-        <v>2.28</v>
-      </c>
-      <c r="AH180">
-        <v>1.62</v>
-      </c>
-      <c r="AI180">
-        <v>2.2</v>
-      </c>
       <c r="AJ180">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AK180">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="AL180">
         <v>1.28</v>
       </c>
       <c r="AM180">
-        <v>1.92</v>
+        <v>1.48</v>
       </c>
       <c r="AN180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO180">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AP180">
-        <v>2.14</v>
+        <v>0.88</v>
       </c>
       <c r="AQ180">
-        <v>0.88</v>
+        <v>1.88</v>
       </c>
       <c r="AR180">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AS180">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="AT180">
-        <v>2.39</v>
+        <v>2.49</v>
       </c>
       <c r="AU180">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV180">
+        <v>4</v>
+      </c>
+      <c r="AW180">
         <v>5</v>
       </c>
-      <c r="AW180">
-        <v>8</v>
-      </c>
       <c r="AX180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY180">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AZ180">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA180">
         <v>5</v>
       </c>
       <c r="BB180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC180">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD180">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="BE180">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF180">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="BG180">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="BH180">
-        <v>3.86</v>
+        <v>4.55</v>
       </c>
       <c r="BI180">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="BJ180">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
       <c r="BK180">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="BL180">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="BM180">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BN180">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BO180">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="BP180">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -38333,7 +38333,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7478915</v>
+        <v>7478912</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38342,196 +38342,196 @@
         <v>69</v>
       </c>
       <c r="E181" s="2">
-        <v>45605.875</v>
+        <v>45606.5</v>
       </c>
       <c r="F181">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H181" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L181">
         <v>1</v>
       </c>
       <c r="M181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O181" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="P181" t="s">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="Q181">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="R181">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S181">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T181">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U181">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V181">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W181">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X181">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y181">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z181">
-        <v>3.49</v>
+        <v>1.83</v>
       </c>
       <c r="AA181">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="AB181">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="AC181">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD181">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE181">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AF181">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AG181">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="AH181">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AI181">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AJ181">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AK181">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="AL181">
         <v>1.28</v>
       </c>
       <c r="AM181">
-        <v>1.48</v>
+        <v>1.92</v>
       </c>
       <c r="AN181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO181">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AP181">
+        <v>2.14</v>
+      </c>
+      <c r="AQ181">
         <v>0.88</v>
       </c>
-      <c r="AQ181">
-        <v>1.88</v>
-      </c>
       <c r="AR181">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AS181">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="AT181">
-        <v>2.49</v>
+        <v>2.39</v>
       </c>
       <c r="AU181">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW181">
+        <v>8</v>
+      </c>
+      <c r="AX181">
         <v>5</v>
       </c>
-      <c r="AX181">
-        <v>1</v>
-      </c>
       <c r="AY181">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ181">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA181">
         <v>5</v>
       </c>
       <c r="BB181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC181">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD181">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="BE181">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="BF181">
-        <v>2.14</v>
+        <v>2.92</v>
       </c>
       <c r="BG181">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="BH181">
-        <v>4.55</v>
+        <v>3.86</v>
       </c>
       <c r="BI181">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="BJ181">
-        <v>3.08</v>
+        <v>2.7</v>
       </c>
       <c r="BK181">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BL181">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="BM181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BN181">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BO181">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="BP181">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
